--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -178,7 +178,7 @@
         <v>174.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.012</v>
+        <v>0.0114927344782</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -203,7 +203,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>2329.0</v>
+        <v>2330.0</v>
       </c>
       <c r="C5" t="n">
         <v>0.154</v>
@@ -217,10 +217,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>2776.0</v>
+        <v>2777.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.184</v>
+        <v>0.1834214002642</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -231,7 +231,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>2829.0</v>
+        <v>2830.0</v>
       </c>
       <c r="C7" t="n">
         <v>0.187</v>
@@ -245,7 +245,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>2789.0</v>
+        <v>2793.0</v>
       </c>
       <c r="C8" t="n">
         <v>0.184</v>
@@ -259,7 +259,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>1176.0</v>
+        <v>1179.0</v>
       </c>
       <c r="C9" t="n">
         <v>0.078</v>
@@ -273,7 +273,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>859.0</v>
+        <v>860.0</v>
       </c>
       <c r="C10" t="n">
         <v>0.057</v>
@@ -287,7 +287,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>556.0</v>
+        <v>558.0</v>
       </c>
       <c r="C11" t="n">
         <v>0.037</v>
@@ -304,7 +304,7 @@
         <v>373.0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0246578964765</v>
+        <v>0.025</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -566,10 +566,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="n">
-        <v>8066.0</v>
+        <v>8079.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.533</v>
+        <v>0.534</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -677,7 +677,7 @@
         <v>22</v>
       </c>
       <c r="B3" t="n">
-        <v>2404.0</v>
+        <v>2407.0</v>
       </c>
       <c r="C3" t="n">
         <v>0.159</v>
@@ -691,7 +691,7 @@
         <v>23</v>
       </c>
       <c r="B4" t="n">
-        <v>6018.0</v>
+        <v>6023.0</v>
       </c>
       <c r="C4" t="n">
         <v>0.398</v>
@@ -719,7 +719,7 @@
         <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>4157.0</v>
+        <v>4161.0</v>
       </c>
       <c r="C6" t="n">
         <v>0.275</v>
@@ -733,7 +733,7 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>1948.0</v>
+        <v>1949.0</v>
       </c>
       <c r="C7" t="n">
         <v>0.129</v>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -178,7 +178,7 @@
         <v>174.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0114927344782</v>
+        <v>0.011</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -203,10 +203,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>2330.0</v>
+        <v>2333.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.154</v>
+        <v>0.1537903757416</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -217,10 +217,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>2777.0</v>
+        <v>2784.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1834214002642</v>
+        <v>0.184</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -231,7 +231,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>2830.0</v>
+        <v>2835.0</v>
       </c>
       <c r="C7" t="n">
         <v>0.187</v>
@@ -245,10 +245,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>2793.0</v>
+        <v>2801.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.184</v>
+        <v>0.185</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -259,7 +259,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>1179.0</v>
+        <v>1181.0</v>
       </c>
       <c r="C9" t="n">
         <v>0.078</v>
@@ -273,7 +273,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>860.0</v>
+        <v>861.0</v>
       </c>
       <c r="C10" t="n">
         <v>0.057</v>
@@ -287,7 +287,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>558.0</v>
+        <v>559.0</v>
       </c>
       <c r="C11" t="n">
         <v>0.037</v>
@@ -301,10 +301,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>373.0</v>
+        <v>374.0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.025</v>
+        <v>0.0246539222149</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -315,7 +315,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>653.0</v>
+        <v>655.0</v>
       </c>
       <c r="C13" t="n">
         <v>0.043</v>
@@ -552,10 +552,10 @@
         <v>19</v>
       </c>
       <c r="B2" t="n">
-        <v>6777.0</v>
+        <v>6778.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -566,7 +566,7 @@
         <v>20</v>
       </c>
       <c r="B3" t="n">
-        <v>8079.0</v>
+        <v>8108.0</v>
       </c>
       <c r="C3" t="n">
         <v>0.534</v>
@@ -677,7 +677,7 @@
         <v>22</v>
       </c>
       <c r="B3" t="n">
-        <v>2407.0</v>
+        <v>2413.0</v>
       </c>
       <c r="C3" t="n">
         <v>0.159</v>
@@ -691,10 +691,10 @@
         <v>23</v>
       </c>
       <c r="B4" t="n">
-        <v>6023.0</v>
+        <v>6034.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.398</v>
+        <v>0.3977587343441</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -719,7 +719,7 @@
         <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>4161.0</v>
+        <v>4174.0</v>
       </c>
       <c r="C6" t="n">
         <v>0.275</v>
@@ -736,7 +736,7 @@
         <v>1949.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.129</v>
+        <v>0.128</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -164,7 +164,7 @@
         <v>38.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003</v>
+        <v>0.00250494396836</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -178,7 +178,7 @@
         <v>174.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.011</v>
+        <v>0.01147000659196</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -192,7 +192,7 @@
         <v>452.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03</v>
+        <v>0.02979564930784</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -220,7 +220,7 @@
         <v>2784.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.184</v>
+        <v>0.18352010547133</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -234,7 +234,7 @@
         <v>2835.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.187</v>
+        <v>0.18688200395517</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -248,7 +248,7 @@
         <v>2801.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.185</v>
+        <v>0.18464073829927</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -262,7 +262,7 @@
         <v>1181.0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.078</v>
+        <v>0.07785102175346</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -276,7 +276,7 @@
         <v>861.0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.057</v>
+        <v>0.05675675675676</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -290,7 +290,7 @@
         <v>559.0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.037</v>
+        <v>0.03684904416612</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -318,7 +318,7 @@
         <v>655.0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.043</v>
+        <v>0.04317732366513</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -332,7 +332,7 @@
         <v>123.0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.008</v>
+        <v>0.00810810810811</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -374,7 +374,7 @@
         <v>2.0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.003</v>
+        <v>0.00301204819277</v>
       </c>
       <c r="D17" t="s">
         <v>18</v>
@@ -388,7 +388,7 @@
         <v>11.0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.017</v>
+        <v>0.01656626506024</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
@@ -402,7 +402,7 @@
         <v>13.0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02</v>
+        <v>0.01957831325301</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
@@ -416,7 +416,7 @@
         <v>26.0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.039</v>
+        <v>0.03915662650602</v>
       </c>
       <c r="D20" t="s">
         <v>18</v>
@@ -430,7 +430,7 @@
         <v>72.0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.108</v>
+        <v>0.10843373493976</v>
       </c>
       <c r="D21" t="s">
         <v>18</v>
@@ -444,7 +444,7 @@
         <v>60.0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.09</v>
+        <v>0.09036144578313</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
@@ -458,7 +458,7 @@
         <v>74.0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.111</v>
+        <v>0.11144578313253</v>
       </c>
       <c r="D23" t="s">
         <v>18</v>
@@ -486,7 +486,7 @@
         <v>70.0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.105</v>
+        <v>0.10542168674699</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
@@ -500,7 +500,7 @@
         <v>265.0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.399</v>
+        <v>0.39909638554217</v>
       </c>
       <c r="D26" t="s">
         <v>18</v>
@@ -514,7 +514,7 @@
         <v>2.0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.003</v>
+        <v>0.00301204819277</v>
       </c>
       <c r="D27" t="s">
         <v>18</v>
@@ -555,7 +555,7 @@
         <v>6778.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.447</v>
+        <v>0.44680290046144</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -569,7 +569,7 @@
         <v>8108.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.534</v>
+        <v>0.53447593935399</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -583,7 +583,7 @@
         <v>284.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.019</v>
+        <v>0.01872116018457</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -597,7 +597,7 @@
         <v>272.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.41</v>
+        <v>0.40963855421687</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -611,7 +611,7 @@
         <v>364.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.548</v>
+        <v>0.54819277108434</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -666,7 +666,7 @@
         <v>503.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.033</v>
+        <v>0.03315754779169</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -680,7 +680,7 @@
         <v>2413.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.159</v>
+        <v>0.15906394199077</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -708,7 +708,7 @@
         <v>97.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006</v>
+        <v>0.00639419907713</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -722,7 +722,7 @@
         <v>4174.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.275</v>
+        <v>0.27514831905076</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -736,7 +736,7 @@
         <v>1949.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.128</v>
+        <v>0.12847725774555</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -750,7 +750,7 @@
         <v>13.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02</v>
+        <v>0.01957831325301</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -764,7 +764,7 @@
         <v>85.0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.128</v>
+        <v>0.12801204819277</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -778,7 +778,7 @@
         <v>171.0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.258</v>
+        <v>0.25753012048193</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -792,7 +792,7 @@
         <v>5.0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.008</v>
+        <v>0.00753012048193</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -806,7 +806,7 @@
         <v>269.0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.405</v>
+        <v>0.40512048192771</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
@@ -820,7 +820,7 @@
         <v>121.0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.182</v>
+        <v>0.18222891566265</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -164,7 +164,7 @@
         <v>38.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00250494396836</v>
+        <v>0.2504943968</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -178,7 +178,7 @@
         <v>174.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01147000659196</v>
+        <v>1.1470006592</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -192,7 +192,7 @@
         <v>452.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02979564930784</v>
+        <v>2.9795649308</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -206,7 +206,7 @@
         <v>2333.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1537903757416</v>
+        <v>15.379037574</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -220,7 +220,7 @@
         <v>2784.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.18352010547133</v>
+        <v>18.352010547</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -234,7 +234,7 @@
         <v>2835.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.18688200395517</v>
+        <v>18.688200396</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -248,7 +248,7 @@
         <v>2801.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.18464073829927</v>
+        <v>18.46407383</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -262,7 +262,7 @@
         <v>1181.0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07785102175346</v>
+        <v>7.7851021753</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -276,7 +276,7 @@
         <v>861.0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05675675675676</v>
+        <v>5.6756756757</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -290,7 +290,7 @@
         <v>559.0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03684904416612</v>
+        <v>3.6849044166</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -304,7 +304,7 @@
         <v>374.0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0246539222149</v>
+        <v>2.4653922215</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -318,7 +318,7 @@
         <v>655.0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04317732366513</v>
+        <v>4.3177323665</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -332,7 +332,7 @@
         <v>123.0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00810810810811</v>
+        <v>0.8108108108</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -374,7 +374,7 @@
         <v>2.0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00301204819277</v>
+        <v>0.3012048193</v>
       </c>
       <c r="D17" t="s">
         <v>18</v>
@@ -388,7 +388,7 @@
         <v>11.0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01656626506024</v>
+        <v>1.656626506</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
@@ -402,7 +402,7 @@
         <v>13.0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01957831325301</v>
+        <v>1.9578313253</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
@@ -416,7 +416,7 @@
         <v>26.0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.03915662650602</v>
+        <v>3.9156626506</v>
       </c>
       <c r="D20" t="s">
         <v>18</v>
@@ -430,7 +430,7 @@
         <v>72.0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.10843373493976</v>
+        <v>10.843373494</v>
       </c>
       <c r="D21" t="s">
         <v>18</v>
@@ -444,7 +444,7 @@
         <v>60.0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.09036144578313</v>
+        <v>9.0361445783</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
@@ -458,7 +458,7 @@
         <v>74.0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.11144578313253</v>
+        <v>11.144578313</v>
       </c>
       <c r="D23" t="s">
         <v>18</v>
@@ -472,7 +472,7 @@
         <v>69.0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1039156626506</v>
+        <v>10.391566265</v>
       </c>
       <c r="D24" t="s">
         <v>18</v>
@@ -486,7 +486,7 @@
         <v>70.0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.10542168674699</v>
+        <v>10.542168675</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
@@ -500,7 +500,7 @@
         <v>265.0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.39909638554217</v>
+        <v>39.909638554</v>
       </c>
       <c r="D26" t="s">
         <v>18</v>
@@ -514,7 +514,7 @@
         <v>2.0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.00301204819277</v>
+        <v>0.3012048193</v>
       </c>
       <c r="D27" t="s">
         <v>18</v>
@@ -555,7 +555,7 @@
         <v>6778.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.44680290046144</v>
+        <v>44.680290046</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -569,7 +569,7 @@
         <v>8108.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.53447593935399</v>
+        <v>53.447593935</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -583,7 +583,7 @@
         <v>284.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01872116018457</v>
+        <v>1.8721160185</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -597,7 +597,7 @@
         <v>272.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.40963855421687</v>
+        <v>40.963855422</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -611,7 +611,7 @@
         <v>364.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.54819277108434</v>
+        <v>54.819277108</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -625,7 +625,7 @@
         <v>28.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0421686746988</v>
+        <v>4.2168674699</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -666,7 +666,7 @@
         <v>503.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03315754779169</v>
+        <v>3.3157547792</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -680,7 +680,7 @@
         <v>2413.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.15906394199077</v>
+        <v>15.906394199</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -694,7 +694,7 @@
         <v>6034.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3977587343441</v>
+        <v>39.775873434</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -708,7 +708,7 @@
         <v>97.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00639419907713</v>
+        <v>0.6394199077</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -722,7 +722,7 @@
         <v>4174.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.27514831905076</v>
+        <v>27.514831905</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -736,7 +736,7 @@
         <v>1949.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.12847725774555</v>
+        <v>12.847725775</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -750,7 +750,7 @@
         <v>13.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01957831325301</v>
+        <v>1.9578313253</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -764,7 +764,7 @@
         <v>85.0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.12801204819277</v>
+        <v>12.801204819</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -778,7 +778,7 @@
         <v>171.0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.25753012048193</v>
+        <v>25.753012048</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -792,7 +792,7 @@
         <v>5.0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00753012048193</v>
+        <v>0.7530120482</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -806,7 +806,7 @@
         <v>269.0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.40512048192771</v>
+        <v>40.512048193</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
@@ -820,7 +820,7 @@
         <v>121.0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.18222891566265</v>
+        <v>18.222891566</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -161,10 +161,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>38.0</v>
+        <v>40.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2504943968</v>
+        <v>0.0025784825630116677</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -175,10 +175,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>174.0</v>
+        <v>177.0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.1470006592</v>
+        <v>0.011409785341326629</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -189,10 +189,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>452.0</v>
+        <v>463.0</v>
       </c>
       <c r="C4" t="n">
-        <v>2.9795649308</v>
+        <v>0.029845935666860054</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -203,10 +203,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>2333.0</v>
+        <v>2417.0</v>
       </c>
       <c r="C5" t="n">
-        <v>15.379037574</v>
+        <v>0.15580480886998002</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -217,10 +217,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>2784.0</v>
+        <v>2853.0</v>
       </c>
       <c r="C6" t="n">
-        <v>18.352010547</v>
+        <v>0.1839102688068072</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -231,10 +231,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>2835.0</v>
+        <v>2897.0</v>
       </c>
       <c r="C7" t="n">
-        <v>18.688200396</v>
+        <v>0.18674659962612003</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -245,10 +245,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>2801.0</v>
+        <v>2847.0</v>
       </c>
       <c r="C8" t="n">
-        <v>18.46407383</v>
+        <v>0.18352349642235544</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -259,10 +259,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>1181.0</v>
+        <v>1206.0</v>
       </c>
       <c r="C9" t="n">
-        <v>7.7851021753</v>
+        <v>0.07774124927480178</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -273,10 +273,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>861.0</v>
+        <v>874.0</v>
       </c>
       <c r="C10" t="n">
-        <v>5.6756756757</v>
+        <v>0.05633984400180494</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -287,10 +287,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>559.0</v>
+        <v>571.0</v>
       </c>
       <c r="C11" t="n">
-        <v>3.6849044166</v>
+        <v>0.036807838586991555</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -301,10 +301,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>374.0</v>
+        <v>383.0</v>
       </c>
       <c r="C12" t="n">
-        <v>2.4653922215</v>
+        <v>0.024688970540836717</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -315,10 +315,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>655.0</v>
+        <v>662.0</v>
       </c>
       <c r="C13" t="n">
-        <v>4.3177323665</v>
+        <v>0.0426738864178431</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -332,7 +332,7 @@
         <v>123.0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8108108108</v>
+        <v>0.007928833881260878</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -374,7 +374,7 @@
         <v>2.0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3012048193</v>
+        <v>0.0030120481927710845</v>
       </c>
       <c r="D17" t="s">
         <v>18</v>
@@ -388,7 +388,7 @@
         <v>11.0</v>
       </c>
       <c r="C18" t="n">
-        <v>1.656626506</v>
+        <v>0.016566265060240965</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
@@ -402,7 +402,7 @@
         <v>13.0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.9578313253</v>
+        <v>0.01957831325301205</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
@@ -416,7 +416,7 @@
         <v>26.0</v>
       </c>
       <c r="C20" t="n">
-        <v>3.9156626506</v>
+        <v>0.0391566265060241</v>
       </c>
       <c r="D20" t="s">
         <v>18</v>
@@ -430,7 +430,7 @@
         <v>72.0</v>
       </c>
       <c r="C21" t="n">
-        <v>10.843373494</v>
+        <v>0.10843373493975904</v>
       </c>
       <c r="D21" t="s">
         <v>18</v>
@@ -444,7 +444,7 @@
         <v>60.0</v>
       </c>
       <c r="C22" t="n">
-        <v>9.0361445783</v>
+        <v>0.09036144578313253</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
@@ -458,7 +458,7 @@
         <v>74.0</v>
       </c>
       <c r="C23" t="n">
-        <v>11.144578313</v>
+        <v>0.11144578313253012</v>
       </c>
       <c r="D23" t="s">
         <v>18</v>
@@ -472,7 +472,7 @@
         <v>69.0</v>
       </c>
       <c r="C24" t="n">
-        <v>10.391566265</v>
+        <v>0.10391566265060241</v>
       </c>
       <c r="D24" t="s">
         <v>18</v>
@@ -486,7 +486,7 @@
         <v>70.0</v>
       </c>
       <c r="C25" t="n">
-        <v>10.542168675</v>
+        <v>0.10542168674698796</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
@@ -500,7 +500,7 @@
         <v>265.0</v>
       </c>
       <c r="C26" t="n">
-        <v>39.909638554</v>
+        <v>0.3990963855421687</v>
       </c>
       <c r="D26" t="s">
         <v>18</v>
@@ -514,7 +514,7 @@
         <v>2.0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3012048193</v>
+        <v>0.0030120481927710845</v>
       </c>
       <c r="D27" t="s">
         <v>18</v>
@@ -552,10 +552,10 @@
         <v>19</v>
       </c>
       <c r="B2" t="n">
-        <v>6778.0</v>
+        <v>6962.0</v>
       </c>
       <c r="C2" t="n">
-        <v>44.680290046</v>
+        <v>0.44878489009218075</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -566,10 +566,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="n">
-        <v>8108.0</v>
+        <v>8264.0</v>
       </c>
       <c r="C3" t="n">
-        <v>53.447593935</v>
+        <v>0.5327144975182105</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -580,10 +580,10 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>284.0</v>
+        <v>287.0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.8721160185</v>
+        <v>0.018500612389608716</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -597,7 +597,7 @@
         <v>272.0</v>
       </c>
       <c r="C5" t="n">
-        <v>40.963855422</v>
+        <v>0.40963855421686746</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -611,7 +611,7 @@
         <v>364.0</v>
       </c>
       <c r="C6" t="n">
-        <v>54.819277108</v>
+        <v>0.5481927710843374</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -625,7 +625,7 @@
         <v>28.0</v>
       </c>
       <c r="C7" t="n">
-        <v>4.2168674699</v>
+        <v>0.04216867469879518</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -663,10 +663,10 @@
         <v>21</v>
       </c>
       <c r="B2" t="n">
-        <v>503.0</v>
+        <v>518.0</v>
       </c>
       <c r="C2" t="n">
-        <v>3.3157547792</v>
+        <v>0.0333913491910011</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -677,10 +677,10 @@
         <v>22</v>
       </c>
       <c r="B3" t="n">
-        <v>2413.0</v>
+        <v>2523.0</v>
       </c>
       <c r="C3" t="n">
-        <v>15.906394199</v>
+        <v>0.16263778766196094</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -691,10 +691,10 @@
         <v>23</v>
       </c>
       <c r="B4" t="n">
-        <v>6034.0</v>
+        <v>6178.0</v>
       </c>
       <c r="C4" t="n">
-        <v>39.775873434</v>
+        <v>0.3982466318571521</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -705,10 +705,10 @@
         <v>24</v>
       </c>
       <c r="B5" t="n">
-        <v>97.0</v>
+        <v>99.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6394199077</v>
+        <v>0.006381744343453877</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -719,10 +719,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>4174.0</v>
+        <v>4215.0</v>
       </c>
       <c r="C6" t="n">
-        <v>27.514831905</v>
+        <v>0.27170760007735445</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -733,10 +733,10 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>1949.0</v>
+        <v>1980.0</v>
       </c>
       <c r="C7" t="n">
-        <v>12.847725775</v>
+        <v>0.12763488686907754</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -750,7 +750,7 @@
         <v>13.0</v>
       </c>
       <c r="C8" t="n">
-        <v>1.9578313253</v>
+        <v>0.01957831325301205</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -764,7 +764,7 @@
         <v>85.0</v>
       </c>
       <c r="C9" t="n">
-        <v>12.801204819</v>
+        <v>0.1280120481927711</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -778,7 +778,7 @@
         <v>171.0</v>
       </c>
       <c r="C10" t="n">
-        <v>25.753012048</v>
+        <v>0.2575301204819277</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -792,7 +792,7 @@
         <v>5.0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7530120482</v>
+        <v>0.007530120481927711</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -806,7 +806,7 @@
         <v>269.0</v>
       </c>
       <c r="C12" t="n">
-        <v>40.512048193</v>
+        <v>0.40512048192771083</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
@@ -820,7 +820,7 @@
         <v>121.0</v>
       </c>
       <c r="C13" t="n">
-        <v>18.222891566</v>
+        <v>0.1822289156626506</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -164,7 +164,7 @@
         <v>40.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0025784825630116677</v>
+        <v>0.0025715204114432656</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -175,10 +175,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>177.0</v>
+        <v>178.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.011409785341326629</v>
+        <v>0.011443265830922533</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -189,10 +189,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>463.0</v>
+        <v>465.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.029845935666860054</v>
+        <v>0.029893924783027964</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -203,10 +203,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>2417.0</v>
+        <v>2424.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.15580480886998002</v>
+        <v>0.1558341369334619</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -217,10 +217,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>2853.0</v>
+        <v>2859.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1839102688068072</v>
+        <v>0.18379942140790742</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -231,10 +231,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>2897.0</v>
+        <v>2901.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.18674659962612003</v>
+        <v>0.18649951783992286</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -245,10 +245,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>2847.0</v>
+        <v>2855.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.18352349642235544</v>
+        <v>0.1835422693667631</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -259,10 +259,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>1206.0</v>
+        <v>1211.0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07774124927480178</v>
+        <v>0.07785278045644488</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -273,10 +273,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>874.0</v>
+        <v>876.0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05633984400180494</v>
+        <v>0.05631629701060752</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -287,10 +287,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>571.0</v>
+        <v>577.0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.036807838586991555</v>
+        <v>0.03709418193506911</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -304,7 +304,7 @@
         <v>383.0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.024688970540836717</v>
+        <v>0.02462230793956927</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -315,10 +315,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>662.0</v>
+        <v>663.0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0426738864178431</v>
+        <v>0.04262295081967213</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -332,7 +332,7 @@
         <v>123.0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.007928833881260878</v>
+        <v>0.007907425265188043</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -552,10 +552,10 @@
         <v>19</v>
       </c>
       <c r="B2" t="n">
-        <v>6962.0</v>
+        <v>6980.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.44878489009218075</v>
+        <v>0.4487303117968499</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -566,10 +566,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="n">
-        <v>8264.0</v>
+        <v>8288.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5327144975182105</v>
+        <v>0.5328190292510446</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -583,7 +583,7 @@
         <v>287.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.018500612389608716</v>
+        <v>0.01845065895210543</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -663,10 +663,10 @@
         <v>21</v>
       </c>
       <c r="B2" t="n">
-        <v>518.0</v>
+        <v>519.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0333913491910011</v>
+        <v>0.033365477338476376</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -677,10 +677,10 @@
         <v>22</v>
       </c>
       <c r="B3" t="n">
-        <v>2523.0</v>
+        <v>2528.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.16263778766196094</v>
+        <v>0.1625200900032144</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -691,10 +691,10 @@
         <v>23</v>
       </c>
       <c r="B4" t="n">
-        <v>6178.0</v>
+        <v>6204.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3982466318571521</v>
+        <v>0.39884281581485054</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -708,7 +708,7 @@
         <v>99.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006381744343453877</v>
+        <v>0.006364513018322083</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -719,10 +719,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>4215.0</v>
+        <v>4224.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.27170760007735445</v>
+        <v>0.2715525554484089</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -733,10 +733,10 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>1980.0</v>
+        <v>1981.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.12763488686907754</v>
+        <v>0.12735454837672774</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -161,10 +161,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0025715204114432656</v>
+        <v>0.0026248399487836106</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -175,10 +175,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>178.0</v>
+        <v>180.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.011443265830922533</v>
+        <v>0.011523687580025609</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -189,10 +189,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>465.0</v>
+        <v>470.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.029893924783027964</v>
+        <v>0.030089628681177975</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -203,10 +203,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>2424.0</v>
+        <v>2434.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1558341369334619</v>
+        <v>0.1558258642765685</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -217,10 +217,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>2859.0</v>
+        <v>2861.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.18379942140790742</v>
+        <v>0.18316261203585146</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -231,10 +231,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>2901.0</v>
+        <v>2924.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.18649951783992286</v>
+        <v>0.18719590268886044</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -248,7 +248,7 @@
         <v>2855.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1835422693667631</v>
+        <v>0.18277848911651728</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -259,10 +259,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>1211.0</v>
+        <v>1216.0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07785278045644488</v>
+        <v>0.07784891165172855</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -273,10 +273,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>876.0</v>
+        <v>882.0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05631629701060752</v>
+        <v>0.05646606914212548</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -287,10 +287,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>577.0</v>
+        <v>584.0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03709418193506911</v>
+        <v>0.037387964148527526</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -301,10 +301,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>383.0</v>
+        <v>387.0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02462230793956927</v>
+        <v>0.024775928297055057</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -318,7 +318,7 @@
         <v>663.0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04262295081967213</v>
+        <v>0.04244558258642766</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -332,7 +332,7 @@
         <v>123.0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.007907425265188043</v>
+        <v>0.007874519846350833</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -552,10 +552,10 @@
         <v>19</v>
       </c>
       <c r="B2" t="n">
-        <v>6980.0</v>
+        <v>7006.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4487303117968499</v>
+        <v>0.4485275288092189</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -566,10 +566,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="n">
-        <v>8288.0</v>
+        <v>8325.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5328190292510446</v>
+        <v>0.5329705505761844</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -580,10 +580,10 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>287.0</v>
+        <v>289.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01845065895210543</v>
+        <v>0.01850192061459667</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -666,7 +666,7 @@
         <v>519.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.033365477338476376</v>
+        <v>0.03322663252240717</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -677,10 +677,10 @@
         <v>22</v>
       </c>
       <c r="B3" t="n">
-        <v>2528.0</v>
+        <v>2532.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1625200900032144</v>
+        <v>0.1620998719590269</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -691,10 +691,10 @@
         <v>23</v>
       </c>
       <c r="B4" t="n">
-        <v>6204.0</v>
+        <v>6271.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.39884281581485054</v>
+        <v>0.40147247119078106</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -708,7 +708,7 @@
         <v>99.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006364513018322083</v>
+        <v>0.006338028169014085</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -719,10 +719,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>4224.0</v>
+        <v>4230.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2715525554484089</v>
+        <v>0.2708066581306018</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -733,10 +733,10 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>1981.0</v>
+        <v>1969.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.12735454837672774</v>
+        <v>0.126056338028169</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -164,7 +164,7 @@
         <v>41.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0026248399487836106</v>
+        <v>0.0026144624410151768</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -178,7 +178,7 @@
         <v>180.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.011523687580025609</v>
+        <v>0.011478127789822727</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -189,10 +189,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>470.0</v>
+        <v>471.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.030089628681177975</v>
+        <v>0.030034434383369467</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -203,10 +203,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>2434.0</v>
+        <v>2436.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1558258642765685</v>
+        <v>0.15533732942226758</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -217,10 +217,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>2861.0</v>
+        <v>2869.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.18316261203585146</v>
+        <v>0.18294860349445224</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -231,10 +231,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>2924.0</v>
+        <v>2931.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.18719590268886044</v>
+        <v>0.18690218084428006</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -245,10 +245,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>2855.0</v>
+        <v>2873.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.18277848911651728</v>
+        <v>0.18320367300089274</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -259,10 +259,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>1216.0</v>
+        <v>1224.0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07784891165172855</v>
+        <v>0.07805126897079454</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -273,10 +273,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>882.0</v>
+        <v>887.0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05646606914212548</v>
+        <v>0.05656166305318199</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -287,10 +287,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>584.0</v>
+        <v>592.0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.037387964148527526</v>
+        <v>0.037750286953194746</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -301,10 +301,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>387.0</v>
+        <v>391.0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.024775928297055057</v>
+        <v>0.024933044254559368</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -315,10 +315,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>663.0</v>
+        <v>664.0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04244558258642766</v>
+        <v>0.04234153806912384</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -332,7 +332,7 @@
         <v>123.0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.007874519846350833</v>
+        <v>0.00784338732304553</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -555,7 +555,7 @@
         <v>7006.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4485275288092189</v>
+        <v>0.4467542405305446</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -566,10 +566,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="n">
-        <v>8325.0</v>
+        <v>8386.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5329705505761844</v>
+        <v>0.5347532202525188</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -580,10 +580,10 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>289.0</v>
+        <v>290.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01850192061459667</v>
+        <v>0.018492539216936617</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -666,7 +666,7 @@
         <v>519.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03322663252240717</v>
+        <v>0.03309526846065553</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -677,10 +677,10 @@
         <v>22</v>
       </c>
       <c r="B3" t="n">
-        <v>2532.0</v>
+        <v>2552.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1620998719590269</v>
+        <v>0.16273434510904222</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -691,10 +691,10 @@
         <v>23</v>
       </c>
       <c r="B4" t="n">
-        <v>6271.0</v>
+        <v>6286.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.40147247119078106</v>
+        <v>0.4008417293712537</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -708,7 +708,7 @@
         <v>99.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006338028169014085</v>
+        <v>0.0063129702844025</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -719,10 +719,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>4230.0</v>
+        <v>4257.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2708066581306018</v>
+        <v>0.2714577222293075</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -736,7 +736,7 @@
         <v>1969.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.126056338028169</v>
+        <v>0.1255579645453386</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="38">
   <si>
     <t>Group</t>
   </si>
@@ -92,6 +92,42 @@
   </si>
   <si>
     <t>White</t>
+  </si>
+  <si>
+    <t>3.3%</t>
+  </si>
+  <si>
+    <t>16%</t>
+  </si>
+  <si>
+    <t>40%</t>
+  </si>
+  <si>
+    <t>0.6%</t>
+  </si>
+  <si>
+    <t>27%</t>
+  </si>
+  <si>
+    <t>13%</t>
+  </si>
+  <si>
+    <t>0.019578313253012</t>
+  </si>
+  <si>
+    <t>0.128012048192771</t>
+  </si>
+  <si>
+    <t>0.257530120481928</t>
+  </si>
+  <si>
+    <t>0.00753012048192771</t>
+  </si>
+  <si>
+    <t>0.405120481927711</t>
+  </si>
+  <si>
+    <t>0.182228915662651</t>
   </si>
 </sst>
 </file>
@@ -164,7 +200,7 @@
         <v>41.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0026144624410151768</v>
+        <v>0.002612962844942961</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -178,7 +214,7 @@
         <v>180.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.011478127789822727</v>
+        <v>0.01147154419731056</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -192,7 +228,7 @@
         <v>471.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.030034434383369467</v>
+        <v>0.030017207316295966</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -206,7 +242,7 @@
         <v>2436.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.15533732942226758</v>
+        <v>0.1552482314702696</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -220,7 +256,7 @@
         <v>2869.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.18294860349445224</v>
+        <v>0.1828436683449111</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -231,10 +267,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>2931.0</v>
+        <v>2935.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.18690218084428006</v>
+        <v>0.1870499012172583</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -248,7 +284,7 @@
         <v>2873.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.18320367300089274</v>
+        <v>0.18309859154929578</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -259,10 +295,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>1224.0</v>
+        <v>1226.0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07805126897079454</v>
+        <v>0.07813396214390415</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -276,7 +312,7 @@
         <v>887.0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05656166305318199</v>
+        <v>0.05652922057230259</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -287,10 +323,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>592.0</v>
+        <v>593.0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.037750286953194746</v>
+        <v>0.03779236505002868</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -301,10 +337,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>391.0</v>
+        <v>392.0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.024933044254559368</v>
+        <v>0.024982474029698554</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -315,10 +351,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>664.0</v>
+        <v>665.0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04234153806912384</v>
+        <v>0.0423809827289529</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -332,7 +368,7 @@
         <v>123.0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00784338732304553</v>
+        <v>0.007838888534828883</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -555,7 +591,7 @@
         <v>7006.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4467542405305446</v>
+        <v>0.44649799247976546</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -566,10 +602,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="n">
-        <v>8386.0</v>
+        <v>8395.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5347532202525188</v>
+        <v>0.5350200752023453</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -583,7 +619,7 @@
         <v>290.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.018492539216936617</v>
+        <v>0.018481932317889235</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -665,8 +701,8 @@
       <c r="B2" t="n">
         <v>519.0</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.03309526846065553</v>
+      <c r="C2" t="s">
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -677,10 +713,10 @@
         <v>22</v>
       </c>
       <c r="B3" t="n">
-        <v>2552.0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.16273434510904222</v>
+        <v>2555.0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -691,10 +727,10 @@
         <v>23</v>
       </c>
       <c r="B4" t="n">
-        <v>6286.0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.4008417293712537</v>
+        <v>6287.0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -707,8 +743,8 @@
       <c r="B5" t="n">
         <v>99.0</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.0063129702844025</v>
+      <c r="C5" t="s">
+        <v>29</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -719,10 +755,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>4257.0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2714577222293075</v>
+        <v>4262.0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -735,8 +771,8 @@
       <c r="B7" t="n">
         <v>1969.0</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.1255579645453386</v>
+      <c r="C7" t="s">
+        <v>31</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -749,8 +785,8 @@
       <c r="B8" t="n">
         <v>13.0</v>
       </c>
-      <c r="C8" t="n">
-        <v>0.01957831325301205</v>
+      <c r="C8" t="s">
+        <v>32</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -763,8 +799,8 @@
       <c r="B9" t="n">
         <v>85.0</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.1280120481927711</v>
+      <c r="C9" t="s">
+        <v>33</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -777,8 +813,8 @@
       <c r="B10" t="n">
         <v>171.0</v>
       </c>
-      <c r="C10" t="n">
-        <v>0.2575301204819277</v>
+      <c r="C10" t="s">
+        <v>34</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -791,8 +827,8 @@
       <c r="B11" t="n">
         <v>5.0</v>
       </c>
-      <c r="C11" t="n">
-        <v>0.007530120481927711</v>
+      <c r="C11" t="s">
+        <v>35</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -805,8 +841,8 @@
       <c r="B12" t="n">
         <v>269.0</v>
       </c>
-      <c r="C12" t="n">
-        <v>0.40512048192771083</v>
+      <c r="C12" t="s">
+        <v>36</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
@@ -819,8 +855,8 @@
       <c r="B13" t="n">
         <v>121.0</v>
       </c>
-      <c r="C13" t="n">
-        <v>0.1822289156626506</v>
+      <c r="C13" t="s">
+        <v>37</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="26">
   <si>
     <t>Group</t>
   </si>
@@ -92,42 +92,6 @@
   </si>
   <si>
     <t>White</t>
-  </si>
-  <si>
-    <t>3.3%</t>
-  </si>
-  <si>
-    <t>16%</t>
-  </si>
-  <si>
-    <t>40%</t>
-  </si>
-  <si>
-    <t>0.6%</t>
-  </si>
-  <si>
-    <t>27%</t>
-  </si>
-  <si>
-    <t>13%</t>
-  </si>
-  <si>
-    <t>0.019578313253012</t>
-  </si>
-  <si>
-    <t>0.128012048192771</t>
-  </si>
-  <si>
-    <t>0.257530120481928</t>
-  </si>
-  <si>
-    <t>0.00753012048192771</t>
-  </si>
-  <si>
-    <t>0.405120481927711</t>
-  </si>
-  <si>
-    <t>0.182228915662651</t>
   </si>
 </sst>
 </file>
@@ -197,10 +161,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>41.0</v>
+        <v>70.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002612962844942961</v>
+        <v>0.0038155456230240924</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -211,10 +175,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>180.0</v>
+        <v>295.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01147154419731056</v>
+        <v>0.016079799411315817</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -225,10 +189,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>471.0</v>
+        <v>761.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.030017207316295966</v>
+        <v>0.04148043170173335</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -239,10 +203,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>2436.0</v>
+        <v>2986.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1552482314702696</v>
+        <v>0.16276027471928486</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -253,10 +217,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>2869.0</v>
+        <v>3374.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1828436683449111</v>
+        <v>0.18390929902976125</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -267,10 +231,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>2935.0</v>
+        <v>3355.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1870499012172583</v>
+        <v>0.1828736509320833</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -281,10 +245,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>2873.0</v>
+        <v>3244.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.18309859154929578</v>
+        <v>0.17682328572985936</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -295,10 +259,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>1226.0</v>
+        <v>1303.0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07813396214390415</v>
+        <v>0.07102365638286275</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -309,10 +273,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>887.0</v>
+        <v>971.0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05652922057230259</v>
+        <v>0.052927068570805626</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -323,10 +287,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>593.0</v>
+        <v>609.0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03779236505002868</v>
+        <v>0.033195246920309604</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -337,10 +301,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>392.0</v>
+        <v>461.0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.024982474029698554</v>
+        <v>0.02512809331734438</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -351,10 +315,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>665.0</v>
+        <v>904.0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0423809827289529</v>
+        <v>0.049275046331625424</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -365,10 +329,10 @@
         <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>123.0</v>
+        <v>13.0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.007838888534828883</v>
+        <v>7.086013299901886E-4</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -588,10 +552,10 @@
         <v>19</v>
       </c>
       <c r="B2" t="n">
-        <v>7006.0</v>
+        <v>9039.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.44649799247976546</v>
+        <v>0.4926959555216396</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -602,10 +566,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="n">
-        <v>8395.0</v>
+        <v>9141.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5350200752023453</v>
+        <v>0.49825575057233185</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -616,10 +580,10 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>290.0</v>
+        <v>166.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.018481932317889235</v>
+        <v>0.009048293906028562</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -699,10 +663,10 @@
         <v>21</v>
       </c>
       <c r="B2" t="n">
-        <v>519.0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
+        <v>563.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.03068788836803663</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -713,10 +677,10 @@
         <v>22</v>
       </c>
       <c r="B3" t="n">
-        <v>2555.0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
+        <v>2182.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.11893600784912242</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -727,10 +691,10 @@
         <v>23</v>
       </c>
       <c r="B4" t="n">
-        <v>6287.0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
+        <v>6382.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.347868745230568</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -741,10 +705,10 @@
         <v>24</v>
       </c>
       <c r="B5" t="n">
-        <v>99.0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
+        <v>109.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.005941349612994658</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -755,10 +719,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>4262.0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
+        <v>5027.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.2740106835277445</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -769,10 +733,10 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>1969.0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
+        <v>4083.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.22255532541153386</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -785,8 +749,8 @@
       <c r="B8" t="n">
         <v>13.0</v>
       </c>
-      <c r="C8" t="s">
-        <v>32</v>
+      <c r="C8" t="n">
+        <v>0.01957831325301205</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -799,8 +763,8 @@
       <c r="B9" t="n">
         <v>85.0</v>
       </c>
-      <c r="C9" t="s">
-        <v>33</v>
+      <c r="C9" t="n">
+        <v>0.1280120481927711</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -813,8 +777,8 @@
       <c r="B10" t="n">
         <v>171.0</v>
       </c>
-      <c r="C10" t="s">
-        <v>34</v>
+      <c r="C10" t="n">
+        <v>0.2575301204819277</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -827,8 +791,8 @@
       <c r="B11" t="n">
         <v>5.0</v>
       </c>
-      <c r="C11" t="s">
-        <v>35</v>
+      <c r="C11" t="n">
+        <v>0.007530120481927711</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -841,8 +805,8 @@
       <c r="B12" t="n">
         <v>269.0</v>
       </c>
-      <c r="C12" t="s">
-        <v>36</v>
+      <c r="C12" t="n">
+        <v>0.40512048192771083</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
@@ -855,8 +819,8 @@
       <c r="B13" t="n">
         <v>121.0</v>
       </c>
-      <c r="C13" t="s">
-        <v>37</v>
+      <c r="C13" t="n">
+        <v>0.1822289156626506</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -161,10 +161,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>70.0</v>
+        <v>72.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0038155456230240924</v>
+        <v>0.003837339444651708</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -175,10 +175,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>295.0</v>
+        <v>301.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.016079799411315817</v>
+        <v>0.016042210733891168</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -189,10 +189,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>761.0</v>
+        <v>775.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04148043170173335</v>
+        <v>0.041304695411181584</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -203,10 +203,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>2986.0</v>
+        <v>3057.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.16276027471928486</v>
+        <v>0.16292703725417043</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -217,10 +217,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>3374.0</v>
+        <v>3457.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.18390929902976125</v>
+        <v>0.1842455897244577</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -231,10 +231,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>3355.0</v>
+        <v>3405.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1828736509320833</v>
+        <v>0.18147417790332038</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -245,10 +245,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>3244.0</v>
+        <v>3310.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.17682328572985936</v>
+        <v>0.17641102169162715</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -259,10 +259,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>1303.0</v>
+        <v>1330.0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07102365638286275</v>
+        <v>0.07088418696370516</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -273,10 +273,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>971.0</v>
+        <v>1000.0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.052927068570805626</v>
+        <v>0.053296381175718166</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -287,10 +287,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>609.0</v>
+        <v>633.0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.033195246920309604</v>
+        <v>0.0337366092842296</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -301,10 +301,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>461.0</v>
+        <v>469.0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02512809331734438</v>
+        <v>0.02499600277141182</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -315,10 +315,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>904.0</v>
+        <v>941.0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.049275046331625424</v>
+        <v>0.0501518946863508</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -332,7 +332,7 @@
         <v>13.0</v>
       </c>
       <c r="C14" t="n">
-        <v>7.086013299901886E-4</v>
+        <v>6.928529552843362E-4</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -552,10 +552,10 @@
         <v>19</v>
       </c>
       <c r="B2" t="n">
-        <v>9039.0</v>
+        <v>9250.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4926959555216396</v>
+        <v>0.4929915258753931</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -566,10 +566,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="n">
-        <v>9141.0</v>
+        <v>9338.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.49825575057233185</v>
+        <v>0.49768160741885625</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -580,10 +580,10 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>166.0</v>
+        <v>175.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.009048293906028562</v>
+        <v>0.00932686670575068</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -663,10 +663,10 @@
         <v>21</v>
       </c>
       <c r="B2" t="n">
-        <v>563.0</v>
+        <v>570.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03068788836803663</v>
+        <v>0.030378937270159355</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -677,10 +677,10 @@
         <v>22</v>
       </c>
       <c r="B3" t="n">
-        <v>2182.0</v>
+        <v>2222.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.11893600784912242</v>
+        <v>0.11842455897244578</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -691,10 +691,10 @@
         <v>23</v>
       </c>
       <c r="B4" t="n">
-        <v>6382.0</v>
+        <v>6523.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.347868745230568</v>
+        <v>0.34765229440920964</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -705,10 +705,10 @@
         <v>24</v>
       </c>
       <c r="B5" t="n">
-        <v>109.0</v>
+        <v>112.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005941349612994658</v>
+        <v>0.005969194691680435</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -719,10 +719,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>5027.0</v>
+        <v>5118.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2740106835277445</v>
+        <v>0.2727708788573256</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -733,10 +733,10 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>4083.0</v>
+        <v>4218.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.22255532541153386</v>
+        <v>0.22480413579917924</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -161,10 +161,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>72.0</v>
+        <v>73.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003837339444651708</v>
+        <v>0.0038316187276926307</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -175,10 +175,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>301.0</v>
+        <v>304.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.016042210733891168</v>
+        <v>0.015956330044089858</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -189,10 +189,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>775.0</v>
+        <v>790.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.041304695411181584</v>
+        <v>0.04146546294352299</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -203,10 +203,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>3057.0</v>
+        <v>3117.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.16292703725417043</v>
+        <v>0.16360487087969766</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -217,10 +217,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>3457.0</v>
+        <v>3510.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1842455897244577</v>
+        <v>0.18423262649590594</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -231,10 +231,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>3405.0</v>
+        <v>3461.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.18147417790332038</v>
+        <v>0.18166071803485198</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -245,10 +245,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>3310.0</v>
+        <v>3344.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.17641102169162715</v>
+        <v>0.17551963048498845</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -259,10 +259,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>1330.0</v>
+        <v>1343.0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07088418696370516</v>
+        <v>0.07049128700398909</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -273,10 +273,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>1000.0</v>
+        <v>1015.0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.053296381175718166</v>
+        <v>0.05327524669326055</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -287,10 +287,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>633.0</v>
+        <v>646.0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0337366092842296</v>
+        <v>0.03390720134369095</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -301,10 +301,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>469.0</v>
+        <v>473.0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02499600277141182</v>
+        <v>0.024826789838337183</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -315,10 +315,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>941.0</v>
+        <v>962.0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0501518946863508</v>
+        <v>0.05049338652110015</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -329,10 +329,10 @@
         <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C14" t="n">
-        <v>6.928529552843362E-4</v>
+        <v>7.348309888725593E-4</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -552,10 +552,10 @@
         <v>19</v>
       </c>
       <c r="B2" t="n">
-        <v>9250.0</v>
+        <v>9400.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4929915258753931</v>
+        <v>0.49338652110014697</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -566,10 +566,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="n">
-        <v>9338.0</v>
+        <v>9477.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.49768160741885625</v>
+        <v>0.497428091538946</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -583,7 +583,7 @@
         <v>175.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00932686670575068</v>
+        <v>0.009185387360906992</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -663,10 +663,10 @@
         <v>21</v>
       </c>
       <c r="B2" t="n">
-        <v>570.0</v>
+        <v>580.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.030378937270159355</v>
+        <v>0.0304429981104346</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -677,10 +677,10 @@
         <v>22</v>
       </c>
       <c r="B3" t="n">
-        <v>2222.0</v>
+        <v>2263.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.11842455897244578</v>
+        <v>0.11878018055847155</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -691,10 +691,10 @@
         <v>23</v>
       </c>
       <c r="B4" t="n">
-        <v>6523.0</v>
+        <v>6613.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.34765229440920964</v>
+        <v>0.34710266638673104</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -708,7 +708,7 @@
         <v>112.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005969194691680435</v>
+        <v>0.005878647910980474</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -719,10 +719,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>5118.0</v>
+        <v>5183.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2727708788573256</v>
+        <v>0.27204492966617677</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -733,10 +733,10 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>4218.0</v>
+        <v>4301.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.22480413579917924</v>
+        <v>0.22575057736720555</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -164,7 +164,7 @@
         <v>73.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0038316187276926307</v>
+        <v>0.003774755675060758</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -178,7 +178,7 @@
         <v>304.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.015956330044089858</v>
+        <v>0.015719530482444802</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -189,10 +189,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>790.0</v>
+        <v>802.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04146546294352299</v>
+        <v>0.04147060344381819</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -203,10 +203,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>3117.0</v>
+        <v>3173.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.16360487087969766</v>
+        <v>0.1640725994105176</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -217,10 +217,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>3510.0</v>
+        <v>3553.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.18423262649590594</v>
+        <v>0.18372201251357362</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -231,10 +231,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>3461.0</v>
+        <v>3518.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.18166071803485198</v>
+        <v>0.18191219814881845</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -245,10 +245,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>3344.0</v>
+        <v>3397.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.17551963048498845</v>
+        <v>0.1756554113449506</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -259,10 +259,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>1343.0</v>
+        <v>1369.0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07049128700398909</v>
+        <v>0.07078959615285176</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -273,10 +273,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>1015.0</v>
+        <v>1022.0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05327524669326055</v>
+        <v>0.05284657945085061</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -287,10 +287,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>646.0</v>
+        <v>652.0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03390720134369095</v>
+        <v>0.033714256166296086</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -301,10 +301,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>473.0</v>
+        <v>485.0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.024826789838337183</v>
+        <v>0.025078856197321475</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -315,10 +315,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>962.0</v>
+        <v>977.0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.05049338652110015</v>
+        <v>0.05051967526759398</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -332,7 +332,7 @@
         <v>14.0</v>
       </c>
       <c r="C14" t="n">
-        <v>7.348309888725593E-4</v>
+        <v>7.239257459020631E-4</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -371,10 +371,10 @@
         <v>6</v>
       </c>
       <c r="B17" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0030120481927710845</v>
+        <v>0.0</v>
       </c>
       <c r="D17" t="s">
         <v>18</v>
@@ -388,7 +388,7 @@
         <v>11.0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.016566265060240965</v>
+        <v>0.01661631419939577</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
@@ -402,7 +402,7 @@
         <v>13.0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01957831325301205</v>
+        <v>0.019637462235649546</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
@@ -416,7 +416,7 @@
         <v>26.0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0391566265060241</v>
+        <v>0.03927492447129909</v>
       </c>
       <c r="D20" t="s">
         <v>18</v>
@@ -430,7 +430,7 @@
         <v>72.0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.10843373493975904</v>
+        <v>0.10876132930513595</v>
       </c>
       <c r="D21" t="s">
         <v>18</v>
@@ -444,7 +444,7 @@
         <v>60.0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.09036144578313253</v>
+        <v>0.09063444108761329</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
@@ -458,7 +458,7 @@
         <v>74.0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.11144578313253012</v>
+        <v>0.11178247734138973</v>
       </c>
       <c r="D23" t="s">
         <v>18</v>
@@ -472,7 +472,7 @@
         <v>69.0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.10391566265060241</v>
+        <v>0.1042296072507553</v>
       </c>
       <c r="D24" t="s">
         <v>18</v>
@@ -486,7 +486,7 @@
         <v>70.0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.10542168674698796</v>
+        <v>0.10574018126888217</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
@@ -500,7 +500,7 @@
         <v>265.0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3990963855421687</v>
+        <v>0.4003021148036254</v>
       </c>
       <c r="D26" t="s">
         <v>18</v>
@@ -514,7 +514,7 @@
         <v>2.0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0030120481927710845</v>
+        <v>0.0030211480362537764</v>
       </c>
       <c r="D27" t="s">
         <v>18</v>
@@ -552,10 +552,10 @@
         <v>19</v>
       </c>
       <c r="B2" t="n">
-        <v>9400.0</v>
+        <v>9535.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.49338652110014697</v>
+        <v>0.4930451419411552</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -566,10 +566,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="n">
-        <v>9477.0</v>
+        <v>9626.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.497428091538946</v>
+        <v>0.4977506592895186</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -580,10 +580,10 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>175.0</v>
+        <v>178.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.009185387360906992</v>
+        <v>0.009204198769326231</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -594,10 +594,10 @@
         <v>19</v>
       </c>
       <c r="B5" t="n">
-        <v>272.0</v>
+        <v>271.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.40963855421686746</v>
+        <v>0.4093655589123867</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -608,10 +608,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="n">
-        <v>364.0</v>
+        <v>363.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5481927710843374</v>
+        <v>0.5483383685800605</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -625,7 +625,7 @@
         <v>28.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04216867469879518</v>
+        <v>0.04229607250755287</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -663,10 +663,10 @@
         <v>21</v>
       </c>
       <c r="B2" t="n">
-        <v>580.0</v>
+        <v>583.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0304429981104346</v>
+        <v>0.030146336418635917</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -677,10 +677,10 @@
         <v>22</v>
       </c>
       <c r="B3" t="n">
-        <v>2263.0</v>
+        <v>2293.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.11878018055847155</v>
+        <v>0.11856869538238791</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -691,10 +691,10 @@
         <v>23</v>
       </c>
       <c r="B4" t="n">
-        <v>6613.0</v>
+        <v>6728.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.34710266638673104</v>
+        <v>0.3478980298877915</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -705,10 +705,10 @@
         <v>24</v>
       </c>
       <c r="B5" t="n">
-        <v>112.0</v>
+        <v>113.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005878647910980474</v>
+        <v>0.0058431149490666525</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -719,10 +719,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>5183.0</v>
+        <v>5248.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.27204492966617677</v>
+        <v>0.2713687367495734</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -733,10 +733,10 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>4301.0</v>
+        <v>4374.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.22575057736720555</v>
+        <v>0.2261750866125446</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -750,7 +750,7 @@
         <v>13.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01957831325301205</v>
+        <v>0.019637462235649546</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -764,7 +764,7 @@
         <v>85.0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1280120481927711</v>
+        <v>0.1283987915407855</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -778,7 +778,7 @@
         <v>171.0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2575301204819277</v>
+        <v>0.2583081570996979</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -792,7 +792,7 @@
         <v>5.0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.007530120481927711</v>
+        <v>0.0075528700906344415</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -806,7 +806,7 @@
         <v>269.0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.40512048192771083</v>
+        <v>0.40634441087613293</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
@@ -817,10 +817,10 @@
         <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>121.0</v>
+        <v>119.0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1822289156626506</v>
+        <v>0.1797583081570997</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -161,10 +161,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>73.0</v>
+        <v>74.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003774755675060758</v>
+        <v>0.0037968188814776808</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -175,10 +175,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>304.0</v>
+        <v>306.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.015719530482444802</v>
+        <v>0.015700359158542843</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -189,10 +189,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>802.0</v>
+        <v>812.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04147060344381819</v>
+        <v>0.04166239096972806</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -203,10 +203,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>3173.0</v>
+        <v>3208.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1640725994105176</v>
+        <v>0.16459722934838378</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -217,10 +217,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>3553.0</v>
+        <v>3575.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.18372201251357362</v>
+        <v>0.18342739866598257</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -231,10 +231,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>3518.0</v>
+        <v>3544.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.18191219814881845</v>
+        <v>0.18183683940482298</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -245,10 +245,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>3397.0</v>
+        <v>3431.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1756554113449506</v>
+        <v>0.17603899435608003</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -259,10 +259,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>1369.0</v>
+        <v>1377.0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07078959615285176</v>
+        <v>0.07065161621344279</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -273,10 +273,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>1022.0</v>
+        <v>1030.0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05284657945085061</v>
+        <v>0.05284761416110826</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -287,10 +287,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>652.0</v>
+        <v>655.0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.033714256166296086</v>
+        <v>0.0336069779374038</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -301,10 +301,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>485.0</v>
+        <v>488.0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.025078856197321475</v>
+        <v>0.02503848127244741</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -315,10 +315,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>977.0</v>
+        <v>990.0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.05051967526759398</v>
+        <v>0.05079527963057978</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -329,10 +329,10 @@
         <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>14.0</v>
+        <v>0.0</v>
       </c>
       <c r="C14" t="n">
-        <v>7.239257459020631E-4</v>
+        <v>0.0</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -552,10 +552,10 @@
         <v>19</v>
       </c>
       <c r="B2" t="n">
-        <v>9535.0</v>
+        <v>9599.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4930451419411552</v>
+        <v>0.49250897896357104</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -566,10 +566,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="n">
-        <v>9626.0</v>
+        <v>9709.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4977506592895186</v>
+        <v>0.49815289892252435</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -580,10 +580,10 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>178.0</v>
+        <v>182.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.009204198769326231</v>
+        <v>0.009338122113904567</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -663,10 +663,10 @@
         <v>21</v>
       </c>
       <c r="B2" t="n">
-        <v>583.0</v>
+        <v>585.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.030146336418635917</v>
+        <v>0.030015392508978965</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -677,10 +677,10 @@
         <v>22</v>
       </c>
       <c r="B3" t="n">
-        <v>2293.0</v>
+        <v>2313.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.11856869538238791</v>
+        <v>0.11867624422780913</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -691,10 +691,10 @@
         <v>23</v>
       </c>
       <c r="B4" t="n">
-        <v>6728.0</v>
+        <v>6809.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3478980298877915</v>
+        <v>0.34935864545920986</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -705,10 +705,10 @@
         <v>24</v>
       </c>
       <c r="B5" t="n">
-        <v>113.0</v>
+        <v>114.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0058431149490666525</v>
+        <v>0.005849153412006157</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -719,10 +719,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>5248.0</v>
+        <v>5274.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2713687367495734</v>
+        <v>0.2706003078501796</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -733,10 +733,10 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>4374.0</v>
+        <v>4395.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2261750866125446</v>
+        <v>0.22550025654181632</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -164,7 +164,7 @@
         <v>74.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0037968188814776808</v>
+        <v>0.003770124312207051</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -175,10 +175,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>306.0</v>
+        <v>308.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.015700359158542843</v>
+        <v>0.015691868758915834</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -189,10 +189,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>812.0</v>
+        <v>820.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04166239096972806</v>
+        <v>0.04177705318932138</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -203,10 +203,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>3208.0</v>
+        <v>3242.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.16459722934838378</v>
+        <v>0.16517220297534135</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -217,10 +217,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>3575.0</v>
+        <v>3598.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.18342739866598257</v>
+        <v>0.1833095577746077</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -231,10 +231,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>3544.0</v>
+        <v>3562.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.18183683940482298</v>
+        <v>0.1814754432443448</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -245,10 +245,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>3431.0</v>
+        <v>3455.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.17603899435608003</v>
+        <v>0.17602404727939677</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -259,10 +259,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>1377.0</v>
+        <v>1387.0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07065161621344279</v>
+        <v>0.0706643570409619</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -273,10 +273,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>1030.0</v>
+        <v>1036.0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05284761416110826</v>
+        <v>0.052781740370898715</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -287,10 +287,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>655.0</v>
+        <v>663.0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0336069779374038</v>
+        <v>0.033778275932341555</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -301,10 +301,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>488.0</v>
+        <v>490.0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02503848127244741</v>
+        <v>0.024964336661911554</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -315,10 +315,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>990.0</v>
+        <v>992.0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.05079527963057978</v>
+        <v>0.05054004483391074</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -329,10 +329,10 @@
         <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0</v>
+        <v>5.0947625840635824E-5</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -552,10 +552,10 @@
         <v>19</v>
       </c>
       <c r="B2" t="n">
-        <v>9599.0</v>
+        <v>9649.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.49250897896357104</v>
+        <v>0.4915936417362951</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -566,10 +566,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="n">
-        <v>9709.0</v>
+        <v>9801.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.49815289892252435</v>
+        <v>0.4993376808640717</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -580,10 +580,10 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>182.0</v>
+        <v>178.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.009338122113904567</v>
+        <v>0.009068677399633178</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -663,10 +663,10 @@
         <v>21</v>
       </c>
       <c r="B2" t="n">
-        <v>585.0</v>
+        <v>588.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.030015392508978965</v>
+        <v>0.029957203994293864</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -677,10 +677,10 @@
         <v>22</v>
       </c>
       <c r="B3" t="n">
-        <v>2313.0</v>
+        <v>2346.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.11867624422780913</v>
+        <v>0.11952313022213165</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -691,10 +691,10 @@
         <v>23</v>
       </c>
       <c r="B4" t="n">
-        <v>6809.0</v>
+        <v>6884.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.34935864545920986</v>
+        <v>0.350723456286937</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -705,10 +705,10 @@
         <v>24</v>
       </c>
       <c r="B5" t="n">
-        <v>114.0</v>
+        <v>115.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005849153412006157</v>
+        <v>0.00585897697167312</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -719,10 +719,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>5274.0</v>
+        <v>5305.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2706003078501796</v>
+        <v>0.27027715508457306</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -733,10 +733,10 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>4395.0</v>
+        <v>4390.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.22550025654181632</v>
+        <v>0.22366007744039126</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -161,10 +161,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>74.0</v>
+        <v>76.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003770124312207051</v>
+        <v>0.003815261044176707</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -175,10 +175,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>308.0</v>
+        <v>316.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.015691868758915834</v>
+        <v>0.015863453815261046</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -189,10 +189,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>820.0</v>
+        <v>840.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04177705318932138</v>
+        <v>0.04216867469879518</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -203,10 +203,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>3242.0</v>
+        <v>3301.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.16517220297534135</v>
+        <v>0.1657128514056225</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -217,10 +217,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>3598.0</v>
+        <v>3647.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1833095577746077</v>
+        <v>0.1830823293172691</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -231,10 +231,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>3562.0</v>
+        <v>3624.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1814754432443448</v>
+        <v>0.1819277108433735</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -245,10 +245,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>3455.0</v>
+        <v>3495.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.17602404727939677</v>
+        <v>0.17545180722891565</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -259,10 +259,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>1387.0</v>
+        <v>1405.0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0706643570409619</v>
+        <v>0.07053212851405623</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -273,10 +273,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>1036.0</v>
+        <v>1049.0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.052781740370898715</v>
+        <v>0.05266064257028112</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -287,10 +287,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>663.0</v>
+        <v>669.0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.033778275932341555</v>
+        <v>0.03358433734939759</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -301,10 +301,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>490.0</v>
+        <v>497.0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.024964336661911554</v>
+        <v>0.024949799196787147</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -315,10 +315,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>992.0</v>
+        <v>990.0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.05054004483391074</v>
+        <v>0.04969879518072289</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -329,10 +329,10 @@
         <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="C14" t="n">
-        <v>5.0947625840635824E-5</v>
+        <v>5.522088353413654E-4</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -552,7 +552,7 @@
         <v>19</v>
       </c>
       <c r="B2" t="n">
-        <v>9649.0</v>
+        <v>9757.0</v>
       </c>
       <c r="C2" t="n">
         <v>0.4915936417362951</v>
@@ -566,7 +566,7 @@
         <v>20</v>
       </c>
       <c r="B3" t="n">
-        <v>9801.0</v>
+        <v>9980.0</v>
       </c>
       <c r="C3" t="n">
         <v>0.4993376808640717</v>
@@ -580,7 +580,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>178.0</v>
+        <v>183.0</v>
       </c>
       <c r="C4" t="n">
         <v>0.009068677399633178</v>
@@ -663,10 +663,10 @@
         <v>21</v>
       </c>
       <c r="B2" t="n">
-        <v>588.0</v>
+        <v>593.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.029957203994293864</v>
+        <v>0.029769076305220885</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -677,10 +677,10 @@
         <v>22</v>
       </c>
       <c r="B3" t="n">
-        <v>2346.0</v>
+        <v>2391.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.11952313022213165</v>
+        <v>0.12003012048192771</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -691,10 +691,10 @@
         <v>23</v>
       </c>
       <c r="B4" t="n">
-        <v>6884.0</v>
+        <v>7028.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.350723456286937</v>
+        <v>0.35281124497991967</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -708,7 +708,7 @@
         <v>115.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00585897697167312</v>
+        <v>0.0057730923694779114</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -719,10 +719,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>5305.0</v>
+        <v>5360.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.27027715508457306</v>
+        <v>0.26907630522088355</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -733,10 +733,10 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>4390.0</v>
+        <v>4433.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.22366007744039126</v>
+        <v>0.2225401606425703</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -161,10 +161,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>76.0</v>
+        <v>82.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003815261044176707</v>
+        <v>0.004048383115280178</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -175,10 +175,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>316.0</v>
+        <v>325.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.015863453815261046</v>
+        <v>0.01604542088373241</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -189,10 +189,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>840.0</v>
+        <v>863.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04216867469879518</v>
+        <v>0.04260676376203407</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -203,10 +203,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>3301.0</v>
+        <v>3386.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1657128514056225</v>
+        <v>0.1671686003455937</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -217,10 +217,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>3647.0</v>
+        <v>3707.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1830823293172691</v>
+        <v>0.1830165391261417</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -231,10 +231,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>3624.0</v>
+        <v>3681.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1819277108433735</v>
+        <v>0.1817329054554431</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -245,10 +245,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>3495.0</v>
+        <v>3541.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.17545180722891565</v>
+        <v>0.17482103184398914</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -259,10 +259,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>1405.0</v>
+        <v>1419.0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07053212851405623</v>
+        <v>0.07005677610466551</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -273,10 +273,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>1049.0</v>
+        <v>1056.0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05266064257028112</v>
+        <v>0.05213527524068131</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -287,10 +287,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>669.0</v>
+        <v>675.0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03358433734939759</v>
+        <v>0.033325104912367315</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -301,10 +301,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>497.0</v>
+        <v>505.0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.024949799196787147</v>
+        <v>0.02493211552703036</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -315,10 +315,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>990.0</v>
+        <v>1003.0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04969879518072289</v>
+        <v>0.04951863737348803</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -329,10 +329,10 @@
         <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="C14" t="n">
-        <v>5.522088353413654E-4</v>
+        <v>5.924463095531967E-4</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -552,10 +552,10 @@
         <v>19</v>
       </c>
       <c r="B2" t="n">
-        <v>9757.0</v>
+        <v>9902.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4915936417362951</v>
+        <v>0.4888669464329795</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -566,10 +566,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="n">
-        <v>9980.0</v>
+        <v>10167.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4993376808640717</v>
+        <v>0.501950135768946</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -580,10 +580,10 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>183.0</v>
+        <v>186.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.009068677399633178</v>
+        <v>0.00918291779807455</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -663,10 +663,10 @@
         <v>21</v>
       </c>
       <c r="B2" t="n">
-        <v>593.0</v>
+        <v>598.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.029769076305220885</v>
+        <v>0.029523574426067636</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -677,10 +677,10 @@
         <v>22</v>
       </c>
       <c r="B3" t="n">
-        <v>2391.0</v>
+        <v>2431.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.12003012048192771</v>
+        <v>0.12001974821031844</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -691,10 +691,10 @@
         <v>23</v>
       </c>
       <c r="B4" t="n">
-        <v>7028.0</v>
+        <v>7186.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.35281124497991967</v>
+        <v>0.35477659837077263</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -705,10 +705,10 @@
         <v>24</v>
       </c>
       <c r="B5" t="n">
-        <v>115.0</v>
+        <v>117.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0057730923694779114</v>
+        <v>0.0057763515181436685</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -719,10 +719,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>5360.0</v>
+        <v>5431.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.26907630522088355</v>
+        <v>0.26813132559861763</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -733,10 +733,10 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>4433.0</v>
+        <v>4492.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2225401606425703</v>
+        <v>0.22177240187607997</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -164,7 +164,7 @@
         <v>82.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004048383115280178</v>
+        <v>0.003984644540551047</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -175,10 +175,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>325.0</v>
+        <v>333.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01604542088373241</v>
+        <v>0.016181544292725593</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -189,10 +189,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>863.0</v>
+        <v>886.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04260676376203407</v>
+        <v>0.04305359832839302</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -203,10 +203,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>3386.0</v>
+        <v>3461.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1671686003455937</v>
+        <v>0.16818115554691676</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -217,10 +217,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>3707.0</v>
+        <v>3770.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1830165391261417</v>
+        <v>0.1831964624131396</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -231,10 +231,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>3681.0</v>
+        <v>3742.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1817329054554431</v>
+        <v>0.18183585208221975</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -245,10 +245,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>3541.0</v>
+        <v>3575.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.17482103184398914</v>
+        <v>0.1737207833228048</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -259,10 +259,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>1419.0</v>
+        <v>1435.0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07005677610466551</v>
+        <v>0.06973127945964333</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -273,10 +273,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>1056.0</v>
+        <v>1066.0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05213527524068131</v>
+        <v>0.05180037902716361</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -287,10 +287,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>675.0</v>
+        <v>688.0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.033325104912367315</v>
+        <v>0.033432139559745375</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -301,10 +301,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>505.0</v>
+        <v>513.0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02493211552703036</v>
+        <v>0.024928324991496185</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -315,10 +315,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>1003.0</v>
+        <v>1016.0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04951863737348803</v>
+        <v>0.04937071772194956</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -332,7 +332,7 @@
         <v>12.0</v>
       </c>
       <c r="C14" t="n">
-        <v>5.924463095531967E-4</v>
+        <v>5.831187132513728E-4</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -552,10 +552,10 @@
         <v>19</v>
       </c>
       <c r="B2" t="n">
-        <v>9902.0</v>
+        <v>10055.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4888669464329795</v>
+        <v>0.4886048884785461</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -566,10 +566,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="n">
-        <v>10167.0</v>
+        <v>10336.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.501950135768946</v>
+        <v>0.502259585013849</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -580,10 +580,10 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>186.0</v>
+        <v>188.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00918291779807455</v>
+        <v>0.00913552650760484</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -663,10 +663,10 @@
         <v>21</v>
       </c>
       <c r="B2" t="n">
-        <v>598.0</v>
+        <v>599.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.029523574426067636</v>
+        <v>0.029107342436464356</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -677,10 +677,10 @@
         <v>22</v>
       </c>
       <c r="B3" t="n">
-        <v>2431.0</v>
+        <v>2460.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.12001974821031844</v>
+        <v>0.11953933621653141</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -691,10 +691,10 @@
         <v>23</v>
       </c>
       <c r="B4" t="n">
-        <v>7186.0</v>
+        <v>7364.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.35477659837077263</v>
+        <v>0.35784051703192576</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -708,7 +708,7 @@
         <v>117.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0057763515181436685</v>
+        <v>0.005685407454200884</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -719,10 +719,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>5431.0</v>
+        <v>5505.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.26813132559861763</v>
+        <v>0.26750570970406723</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -733,10 +733,10 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>4492.0</v>
+        <v>4534.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.22177240187607997</v>
+        <v>0.22032168715681033</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -161,10 +161,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>82.0</v>
+        <v>86.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003984644540551047</v>
+        <v>0.00409621338413908</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -175,10 +175,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>333.0</v>
+        <v>341.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.016181544292725593</v>
+        <v>0.01624196237199333</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -189,10 +189,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>886.0</v>
+        <v>914.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04305359832839302</v>
+        <v>0.04353417480352465</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -203,10 +203,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>3461.0</v>
+        <v>3543.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.16818115554691676</v>
+        <v>0.1687544653488926</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -217,10 +217,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>3770.0</v>
+        <v>3858.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1831964624131396</v>
+        <v>0.18375803762800666</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -231,10 +231,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>3742.0</v>
+        <v>3824.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.18183585208221975</v>
+        <v>0.1821386044296261</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -245,10 +245,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>3575.0</v>
+        <v>3633.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1737207833228048</v>
+        <v>0.17304120028578232</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -259,10 +259,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>1435.0</v>
+        <v>1457.0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06973127945964333</v>
+        <v>0.06939747558942605</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -273,10 +273,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>1066.0</v>
+        <v>1087.0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05180037902716361</v>
+        <v>0.05177423195999047</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -287,10 +287,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>688.0</v>
+        <v>695.0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.033432139559745375</v>
+        <v>0.033103119790426294</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -301,10 +301,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>513.0</v>
+        <v>519.0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.024928324991496185</v>
+        <v>0.024720171469397475</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -315,10 +315,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>1016.0</v>
+        <v>1026.0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04937071772194956</v>
+        <v>0.048868778280542986</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -332,7 +332,7 @@
         <v>12.0</v>
       </c>
       <c r="C14" t="n">
-        <v>5.831187132513728E-4</v>
+        <v>5.715646582519648E-4</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -552,10 +552,10 @@
         <v>19</v>
       </c>
       <c r="B2" t="n">
-        <v>10055.0</v>
+        <v>10249.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4886048884785461</v>
+        <v>0.48816384853536554</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -566,10 +566,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="n">
-        <v>10336.0</v>
+        <v>10555.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.502259585013849</v>
+        <v>0.5027387473207907</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -580,10 +580,10 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>188.0</v>
+        <v>191.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00913552650760484</v>
+        <v>0.009097404143843772</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -663,10 +663,10 @@
         <v>21</v>
       </c>
       <c r="B2" t="n">
-        <v>599.0</v>
+        <v>602.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.029107342436464356</v>
+        <v>0.028673493688973564</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -677,10 +677,10 @@
         <v>22</v>
       </c>
       <c r="B3" t="n">
-        <v>2460.0</v>
+        <v>2487.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.11953933621653141</v>
+        <v>0.11845677542271969</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -691,10 +691,10 @@
         <v>23</v>
       </c>
       <c r="B4" t="n">
-        <v>7364.0</v>
+        <v>7579.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.35784051703192576</v>
+        <v>0.3609907120743034</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -705,10 +705,10 @@
         <v>24</v>
       </c>
       <c r="B5" t="n">
-        <v>117.0</v>
+        <v>119.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005685407454200884</v>
+        <v>0.005668016194331984</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -719,10 +719,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>5505.0</v>
+        <v>5590.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.26750570970406723</v>
+        <v>0.26625386996904027</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -733,10 +733,10 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>4534.0</v>
+        <v>4618.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.22032168715681033</v>
+        <v>0.2199571326506311</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -161,10 +161,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>86.0</v>
+        <v>85.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00409621338413908</v>
+        <v>0.004024621212121212</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -175,10 +175,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>341.0</v>
+        <v>340.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01624196237199333</v>
+        <v>0.016098484848484848</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -189,10 +189,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>914.0</v>
+        <v>921.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04353417480352465</v>
+        <v>0.04360795454545455</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -203,10 +203,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>3543.0</v>
+        <v>3587.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1687544653488926</v>
+        <v>0.16983901515151514</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -217,10 +217,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>3858.0</v>
+        <v>3879.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.18375803762800666</v>
+        <v>0.18366477272727272</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -231,10 +231,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>3824.0</v>
+        <v>3839.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1821386044296261</v>
+        <v>0.18177083333333333</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -245,10 +245,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>3633.0</v>
+        <v>3673.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.17304120028578232</v>
+        <v>0.17391098484848486</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -259,10 +259,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>1457.0</v>
+        <v>1465.0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06939747558942605</v>
+        <v>0.0693655303030303</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -273,10 +273,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>1087.0</v>
+        <v>1076.0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05177423195999047</v>
+        <v>0.0509469696969697</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -290,7 +290,7 @@
         <v>695.0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.033103119790426294</v>
+        <v>0.03290719696969697</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -301,10 +301,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>519.0</v>
+        <v>522.0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.024720171469397475</v>
+        <v>0.02471590909090909</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -318,7 +318,7 @@
         <v>1026.0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.048868778280542986</v>
+        <v>0.04857954545454545</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -332,7 +332,7 @@
         <v>12.0</v>
       </c>
       <c r="C14" t="n">
-        <v>5.715646582519648E-4</v>
+        <v>5.681818181818182E-4</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -552,10 +552,10 @@
         <v>19</v>
       </c>
       <c r="B2" t="n">
-        <v>10249.0</v>
+        <v>10272.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.48816384853536554</v>
+        <v>0.4863636363636364</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -566,10 +566,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="n">
-        <v>10555.0</v>
+        <v>10656.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5027387473207907</v>
+        <v>0.5045454545454545</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -580,10 +580,10 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>191.0</v>
+        <v>192.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.009097404143843772</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -663,10 +663,10 @@
         <v>21</v>
       </c>
       <c r="B2" t="n">
-        <v>602.0</v>
+        <v>601.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.028673493688973564</v>
+        <v>0.028456439393939395</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -677,10 +677,10 @@
         <v>22</v>
       </c>
       <c r="B3" t="n">
-        <v>2487.0</v>
+        <v>2515.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.11845677542271969</v>
+        <v>0.11908143939393939</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -691,10 +691,10 @@
         <v>23</v>
       </c>
       <c r="B4" t="n">
-        <v>7579.0</v>
+        <v>7666.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3609907120743034</v>
+        <v>0.36297348484848485</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -705,10 +705,10 @@
         <v>24</v>
       </c>
       <c r="B5" t="n">
-        <v>119.0</v>
+        <v>117.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005668016194331984</v>
+        <v>0.005539772727272727</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -719,10 +719,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>5590.0</v>
+        <v>5579.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.26625386996904027</v>
+        <v>0.264157196969697</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -733,10 +733,10 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>4618.0</v>
+        <v>4642.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2199571326506311</v>
+        <v>0.21979166666666666</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -6930,6 +6930,1046 @@
         <v>0.0030211480362537764</v>
       </c>
     </row>
+    <row r="340">
+      <c r="A340" t="n" s="2">
+        <v>44011.0</v>
+      </c>
+      <c r="B340" t="s">
+        <v>6</v>
+      </c>
+      <c r="C340" t="n">
+        <v>343.0</v>
+      </c>
+      <c r="D340" t="n">
+        <v>0.01611085016439643</v>
+      </c>
+      <c r="E340" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F340" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n" s="2">
+        <v>44011.0</v>
+      </c>
+      <c r="B341" t="s">
+        <v>6</v>
+      </c>
+      <c r="C341" t="n">
+        <v>343.0</v>
+      </c>
+      <c r="D341" t="n">
+        <v>0.01611085016439643</v>
+      </c>
+      <c r="E341" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F341" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n" s="2">
+        <v>44011.0</v>
+      </c>
+      <c r="B342" t="s">
+        <v>6</v>
+      </c>
+      <c r="C342" t="n">
+        <v>343.0</v>
+      </c>
+      <c r="D342" t="n">
+        <v>0.01611085016439643</v>
+      </c>
+      <c r="E342" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F342" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n" s="2">
+        <v>44011.0</v>
+      </c>
+      <c r="B343" t="s">
+        <v>6</v>
+      </c>
+      <c r="C343" t="n">
+        <v>343.0</v>
+      </c>
+      <c r="D343" t="n">
+        <v>0.01611085016439643</v>
+      </c>
+      <c r="E343" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F343" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n" s="2">
+        <v>44011.0</v>
+      </c>
+      <c r="B344" t="s">
+        <v>7</v>
+      </c>
+      <c r="C344" t="n">
+        <v>933.0</v>
+      </c>
+      <c r="D344" t="n">
+        <v>0.04382339126350399</v>
+      </c>
+      <c r="E344" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F344" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n" s="2">
+        <v>44011.0</v>
+      </c>
+      <c r="B345" t="s">
+        <v>7</v>
+      </c>
+      <c r="C345" t="n">
+        <v>933.0</v>
+      </c>
+      <c r="D345" t="n">
+        <v>0.04382339126350399</v>
+      </c>
+      <c r="E345" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F345" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n" s="2">
+        <v>44011.0</v>
+      </c>
+      <c r="B346" t="s">
+        <v>7</v>
+      </c>
+      <c r="C346" t="n">
+        <v>933.0</v>
+      </c>
+      <c r="D346" t="n">
+        <v>0.04382339126350399</v>
+      </c>
+      <c r="E346" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F346" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n" s="2">
+        <v>44011.0</v>
+      </c>
+      <c r="B347" t="s">
+        <v>7</v>
+      </c>
+      <c r="C347" t="n">
+        <v>933.0</v>
+      </c>
+      <c r="D347" t="n">
+        <v>0.04382339126350399</v>
+      </c>
+      <c r="E347" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F347" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n" s="2">
+        <v>44011.0</v>
+      </c>
+      <c r="B348" t="s">
+        <v>8</v>
+      </c>
+      <c r="C348" t="n">
+        <v>3628.0</v>
+      </c>
+      <c r="D348" t="n">
+        <v>0.17040864255519023</v>
+      </c>
+      <c r="E348" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="F348" t="n">
+        <v>0.01661631419939577</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n" s="2">
+        <v>44011.0</v>
+      </c>
+      <c r="B349" t="s">
+        <v>8</v>
+      </c>
+      <c r="C349" t="n">
+        <v>3628.0</v>
+      </c>
+      <c r="D349" t="n">
+        <v>0.17040864255519023</v>
+      </c>
+      <c r="E349" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="F349" t="n">
+        <v>0.01661631419939577</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n" s="2">
+        <v>44011.0</v>
+      </c>
+      <c r="B350" t="s">
+        <v>8</v>
+      </c>
+      <c r="C350" t="n">
+        <v>3628.0</v>
+      </c>
+      <c r="D350" t="n">
+        <v>0.17040864255519023</v>
+      </c>
+      <c r="E350" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="F350" t="n">
+        <v>0.01661631419939577</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n" s="2">
+        <v>44011.0</v>
+      </c>
+      <c r="B351" t="s">
+        <v>8</v>
+      </c>
+      <c r="C351" t="n">
+        <v>3628.0</v>
+      </c>
+      <c r="D351" t="n">
+        <v>0.17040864255519023</v>
+      </c>
+      <c r="E351" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="F351" t="n">
+        <v>0.01661631419939577</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n" s="2">
+        <v>44011.0</v>
+      </c>
+      <c r="B352" t="s">
+        <v>9</v>
+      </c>
+      <c r="C352" t="n">
+        <v>3914.0</v>
+      </c>
+      <c r="D352" t="n">
+        <v>0.18384217942696102</v>
+      </c>
+      <c r="E352" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="F352" t="n">
+        <v>0.019637462235649546</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n" s="2">
+        <v>44011.0</v>
+      </c>
+      <c r="B353" t="s">
+        <v>9</v>
+      </c>
+      <c r="C353" t="n">
+        <v>3914.0</v>
+      </c>
+      <c r="D353" t="n">
+        <v>0.18384217942696102</v>
+      </c>
+      <c r="E353" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="F353" t="n">
+        <v>0.019637462235649546</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n" s="2">
+        <v>44011.0</v>
+      </c>
+      <c r="B354" t="s">
+        <v>9</v>
+      </c>
+      <c r="C354" t="n">
+        <v>3914.0</v>
+      </c>
+      <c r="D354" t="n">
+        <v>0.18384217942696102</v>
+      </c>
+      <c r="E354" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="F354" t="n">
+        <v>0.019637462235649546</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n" s="2">
+        <v>44011.0</v>
+      </c>
+      <c r="B355" t="s">
+        <v>9</v>
+      </c>
+      <c r="C355" t="n">
+        <v>3914.0</v>
+      </c>
+      <c r="D355" t="n">
+        <v>0.18384217942696102</v>
+      </c>
+      <c r="E355" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="F355" t="n">
+        <v>0.019637462235649546</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n" s="2">
+        <v>44011.0</v>
+      </c>
+      <c r="B356" t="s">
+        <v>10</v>
+      </c>
+      <c r="C356" t="n">
+        <v>3864.0</v>
+      </c>
+      <c r="D356" t="n">
+        <v>0.18149365899483325</v>
+      </c>
+      <c r="E356" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="F356" t="n">
+        <v>0.03927492447129909</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n" s="2">
+        <v>44011.0</v>
+      </c>
+      <c r="B357" t="s">
+        <v>10</v>
+      </c>
+      <c r="C357" t="n">
+        <v>3864.0</v>
+      </c>
+      <c r="D357" t="n">
+        <v>0.18149365899483325</v>
+      </c>
+      <c r="E357" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="F357" t="n">
+        <v>0.03927492447129909</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n" s="2">
+        <v>44011.0</v>
+      </c>
+      <c r="B358" t="s">
+        <v>10</v>
+      </c>
+      <c r="C358" t="n">
+        <v>3864.0</v>
+      </c>
+      <c r="D358" t="n">
+        <v>0.18149365899483325</v>
+      </c>
+      <c r="E358" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="F358" t="n">
+        <v>0.03927492447129909</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n" s="2">
+        <v>44011.0</v>
+      </c>
+      <c r="B359" t="s">
+        <v>10</v>
+      </c>
+      <c r="C359" t="n">
+        <v>3864.0</v>
+      </c>
+      <c r="D359" t="n">
+        <v>0.18149365899483325</v>
+      </c>
+      <c r="E359" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="F359" t="n">
+        <v>0.03927492447129909</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n" s="2">
+        <v>44011.0</v>
+      </c>
+      <c r="B360" t="s">
+        <v>11</v>
+      </c>
+      <c r="C360" t="n">
+        <v>3691.0</v>
+      </c>
+      <c r="D360" t="n">
+        <v>0.1733677782996712</v>
+      </c>
+      <c r="E360" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="F360" t="n">
+        <v>0.10876132930513595</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n" s="2">
+        <v>44011.0</v>
+      </c>
+      <c r="B361" t="s">
+        <v>11</v>
+      </c>
+      <c r="C361" t="n">
+        <v>3691.0</v>
+      </c>
+      <c r="D361" t="n">
+        <v>0.1733677782996712</v>
+      </c>
+      <c r="E361" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="F361" t="n">
+        <v>0.10876132930513595</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n" s="2">
+        <v>44011.0</v>
+      </c>
+      <c r="B362" t="s">
+        <v>11</v>
+      </c>
+      <c r="C362" t="n">
+        <v>3691.0</v>
+      </c>
+      <c r="D362" t="n">
+        <v>0.1733677782996712</v>
+      </c>
+      <c r="E362" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="F362" t="n">
+        <v>0.10876132930513595</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n" s="2">
+        <v>44011.0</v>
+      </c>
+      <c r="B363" t="s">
+        <v>11</v>
+      </c>
+      <c r="C363" t="n">
+        <v>3691.0</v>
+      </c>
+      <c r="D363" t="n">
+        <v>0.1733677782996712</v>
+      </c>
+      <c r="E363" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="F363" t="n">
+        <v>0.10876132930513595</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n" s="2">
+        <v>44011.0</v>
+      </c>
+      <c r="B364" t="s">
+        <v>12</v>
+      </c>
+      <c r="C364" t="n">
+        <v>1476.0</v>
+      </c>
+      <c r="D364" t="n">
+        <v>0.06932832315641146</v>
+      </c>
+      <c r="E364" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F364" t="n">
+        <v>0.09063444108761329</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n" s="2">
+        <v>44011.0</v>
+      </c>
+      <c r="B365" t="s">
+        <v>12</v>
+      </c>
+      <c r="C365" t="n">
+        <v>1476.0</v>
+      </c>
+      <c r="D365" t="n">
+        <v>0.06932832315641146</v>
+      </c>
+      <c r="E365" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F365" t="n">
+        <v>0.09063444108761329</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n" s="2">
+        <v>44011.0</v>
+      </c>
+      <c r="B366" t="s">
+        <v>12</v>
+      </c>
+      <c r="C366" t="n">
+        <v>1476.0</v>
+      </c>
+      <c r="D366" t="n">
+        <v>0.06932832315641146</v>
+      </c>
+      <c r="E366" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F366" t="n">
+        <v>0.09063444108761329</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n" s="2">
+        <v>44011.0</v>
+      </c>
+      <c r="B367" t="s">
+        <v>12</v>
+      </c>
+      <c r="C367" t="n">
+        <v>1476.0</v>
+      </c>
+      <c r="D367" t="n">
+        <v>0.06932832315641146</v>
+      </c>
+      <c r="E367" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F367" t="n">
+        <v>0.09063444108761329</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n" s="2">
+        <v>44011.0</v>
+      </c>
+      <c r="B368" t="s">
+        <v>13</v>
+      </c>
+      <c r="C368" t="n">
+        <v>1086.0</v>
+      </c>
+      <c r="D368" t="n">
+        <v>0.051009863785814936</v>
+      </c>
+      <c r="E368" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="F368" t="n">
+        <v>0.11178247734138973</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n" s="2">
+        <v>44011.0</v>
+      </c>
+      <c r="B369" t="s">
+        <v>13</v>
+      </c>
+      <c r="C369" t="n">
+        <v>1086.0</v>
+      </c>
+      <c r="D369" t="n">
+        <v>0.051009863785814936</v>
+      </c>
+      <c r="E369" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="F369" t="n">
+        <v>0.11178247734138973</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n" s="2">
+        <v>44011.0</v>
+      </c>
+      <c r="B370" t="s">
+        <v>13</v>
+      </c>
+      <c r="C370" t="n">
+        <v>1086.0</v>
+      </c>
+      <c r="D370" t="n">
+        <v>0.051009863785814936</v>
+      </c>
+      <c r="E370" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="F370" t="n">
+        <v>0.11178247734138973</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n" s="2">
+        <v>44011.0</v>
+      </c>
+      <c r="B371" t="s">
+        <v>13</v>
+      </c>
+      <c r="C371" t="n">
+        <v>1086.0</v>
+      </c>
+      <c r="D371" t="n">
+        <v>0.051009863785814936</v>
+      </c>
+      <c r="E371" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="F371" t="n">
+        <v>0.11178247734138973</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n" s="2">
+        <v>44011.0</v>
+      </c>
+      <c r="B372" t="s">
+        <v>14</v>
+      </c>
+      <c r="C372" t="n">
+        <v>697.0</v>
+      </c>
+      <c r="D372" t="n">
+        <v>0.032738374823860966</v>
+      </c>
+      <c r="E372" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="F372" t="n">
+        <v>0.1042296072507553</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n" s="2">
+        <v>44011.0</v>
+      </c>
+      <c r="B373" t="s">
+        <v>14</v>
+      </c>
+      <c r="C373" t="n">
+        <v>697.0</v>
+      </c>
+      <c r="D373" t="n">
+        <v>0.032738374823860966</v>
+      </c>
+      <c r="E373" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="F373" t="n">
+        <v>0.1042296072507553</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n" s="2">
+        <v>44011.0</v>
+      </c>
+      <c r="B374" t="s">
+        <v>14</v>
+      </c>
+      <c r="C374" t="n">
+        <v>697.0</v>
+      </c>
+      <c r="D374" t="n">
+        <v>0.032738374823860966</v>
+      </c>
+      <c r="E374" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="F374" t="n">
+        <v>0.1042296072507553</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n" s="2">
+        <v>44011.0</v>
+      </c>
+      <c r="B375" t="s">
+        <v>14</v>
+      </c>
+      <c r="C375" t="n">
+        <v>697.0</v>
+      </c>
+      <c r="D375" t="n">
+        <v>0.032738374823860966</v>
+      </c>
+      <c r="E375" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="F375" t="n">
+        <v>0.1042296072507553</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n" s="2">
+        <v>44011.0</v>
+      </c>
+      <c r="B376" t="s">
+        <v>15</v>
+      </c>
+      <c r="C376" t="n">
+        <v>526.0</v>
+      </c>
+      <c r="D376" t="n">
+        <v>0.02470643494598403</v>
+      </c>
+      <c r="E376" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="F376" t="n">
+        <v>0.10574018126888217</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n" s="2">
+        <v>44011.0</v>
+      </c>
+      <c r="B377" t="s">
+        <v>15</v>
+      </c>
+      <c r="C377" t="n">
+        <v>526.0</v>
+      </c>
+      <c r="D377" t="n">
+        <v>0.02470643494598403</v>
+      </c>
+      <c r="E377" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="F377" t="n">
+        <v>0.10574018126888217</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n" s="2">
+        <v>44011.0</v>
+      </c>
+      <c r="B378" t="s">
+        <v>15</v>
+      </c>
+      <c r="C378" t="n">
+        <v>526.0</v>
+      </c>
+      <c r="D378" t="n">
+        <v>0.02470643494598403</v>
+      </c>
+      <c r="E378" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="F378" t="n">
+        <v>0.10574018126888217</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n" s="2">
+        <v>44011.0</v>
+      </c>
+      <c r="B379" t="s">
+        <v>15</v>
+      </c>
+      <c r="C379" t="n">
+        <v>526.0</v>
+      </c>
+      <c r="D379" t="n">
+        <v>0.02470643494598403</v>
+      </c>
+      <c r="E379" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="F379" t="n">
+        <v>0.10574018126888217</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n" s="2">
+        <v>44011.0</v>
+      </c>
+      <c r="B380" t="s">
+        <v>16</v>
+      </c>
+      <c r="C380" t="n">
+        <v>1047.0</v>
+      </c>
+      <c r="D380" t="n">
+        <v>0.049178017848755286</v>
+      </c>
+      <c r="E380" t="n">
+        <v>265.0</v>
+      </c>
+      <c r="F380" t="n">
+        <v>0.4003021148036254</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n" s="2">
+        <v>44011.0</v>
+      </c>
+      <c r="B381" t="s">
+        <v>16</v>
+      </c>
+      <c r="C381" t="n">
+        <v>1047.0</v>
+      </c>
+      <c r="D381" t="n">
+        <v>0.049178017848755286</v>
+      </c>
+      <c r="E381" t="n">
+        <v>265.0</v>
+      </c>
+      <c r="F381" t="n">
+        <v>0.4003021148036254</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n" s="2">
+        <v>44011.0</v>
+      </c>
+      <c r="B382" t="s">
+        <v>16</v>
+      </c>
+      <c r="C382" t="n">
+        <v>1047.0</v>
+      </c>
+      <c r="D382" t="n">
+        <v>0.049178017848755286</v>
+      </c>
+      <c r="E382" t="n">
+        <v>265.0</v>
+      </c>
+      <c r="F382" t="n">
+        <v>0.4003021148036254</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n" s="2">
+        <v>44011.0</v>
+      </c>
+      <c r="B383" t="s">
+        <v>16</v>
+      </c>
+      <c r="C383" t="n">
+        <v>1047.0</v>
+      </c>
+      <c r="D383" t="n">
+        <v>0.049178017848755286</v>
+      </c>
+      <c r="E383" t="n">
+        <v>265.0</v>
+      </c>
+      <c r="F383" t="n">
+        <v>0.4003021148036254</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n" s="2">
+        <v>44011.0</v>
+      </c>
+      <c r="B384" t="s">
+        <v>17</v>
+      </c>
+      <c r="C384" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="D384" t="n">
+        <v>0.003992484734617191</v>
+      </c>
+      <c r="E384" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F384" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n" s="2">
+        <v>44011.0</v>
+      </c>
+      <c r="B385" t="s">
+        <v>17</v>
+      </c>
+      <c r="C385" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="D385" t="n">
+        <v>0.003992484734617191</v>
+      </c>
+      <c r="E385" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F385" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n" s="2">
+        <v>44011.0</v>
+      </c>
+      <c r="B386" t="s">
+        <v>17</v>
+      </c>
+      <c r="C386" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="D386" t="n">
+        <v>0.003992484734617191</v>
+      </c>
+      <c r="E386" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F386" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n" s="2">
+        <v>44011.0</v>
+      </c>
+      <c r="B387" t="s">
+        <v>17</v>
+      </c>
+      <c r="C387" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="D387" t="n">
+        <v>0.003992484734617191</v>
+      </c>
+      <c r="E387" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F387" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n" s="2">
+        <v>44011.0</v>
+      </c>
+      <c r="B388" t="s">
+        <v>18</v>
+      </c>
+      <c r="C388" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D388" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E388" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F388" t="n">
+        <v>0.0030211480362537764</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n" s="2">
+        <v>44011.0</v>
+      </c>
+      <c r="B389" t="s">
+        <v>18</v>
+      </c>
+      <c r="C389" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D389" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E389" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F389" t="n">
+        <v>0.0030211480362537764</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n" s="2">
+        <v>44011.0</v>
+      </c>
+      <c r="B390" t="s">
+        <v>18</v>
+      </c>
+      <c r="C390" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D390" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E390" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F390" t="n">
+        <v>0.0030211480362537764</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n" s="2">
+        <v>44011.0</v>
+      </c>
+      <c r="B391" t="s">
+        <v>18</v>
+      </c>
+      <c r="C391" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D391" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E391" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F391" t="n">
+        <v>0.0030211480362537764</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -8523,6 +9563,246 @@
         <v>0.04229607250755287</v>
       </c>
     </row>
+    <row r="80">
+      <c r="A80" t="n" s="4">
+        <v>44011.0</v>
+      </c>
+      <c r="B80" t="s">
+        <v>19</v>
+      </c>
+      <c r="C80" t="n">
+        <v>10345.0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.48590887740723343</v>
+      </c>
+      <c r="E80" t="n">
+        <v>271.0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.4093655589123867</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n" s="4">
+        <v>44011.0</v>
+      </c>
+      <c r="B81" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" t="n">
+        <v>10345.0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.48590887740723343</v>
+      </c>
+      <c r="E81" t="n">
+        <v>271.0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.4093655589123867</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n" s="4">
+        <v>44011.0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" t="n">
+        <v>10345.0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.48590887740723343</v>
+      </c>
+      <c r="E82" t="n">
+        <v>271.0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.4093655589123867</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n" s="4">
+        <v>44011.0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" t="n">
+        <v>10345.0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.48590887740723343</v>
+      </c>
+      <c r="E83" t="n">
+        <v>271.0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.4093655589123867</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n" s="4">
+        <v>44011.0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>20</v>
+      </c>
+      <c r="C84" t="n">
+        <v>10753.0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.505072804133396</v>
+      </c>
+      <c r="E84" t="n">
+        <v>363.0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.5483383685800605</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n" s="4">
+        <v>44011.0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>20</v>
+      </c>
+      <c r="C85" t="n">
+        <v>10753.0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.505072804133396</v>
+      </c>
+      <c r="E85" t="n">
+        <v>363.0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.5483383685800605</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n" s="4">
+        <v>44011.0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>20</v>
+      </c>
+      <c r="C86" t="n">
+        <v>10753.0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.505072804133396</v>
+      </c>
+      <c r="E86" t="n">
+        <v>363.0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.5483383685800605</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n" s="4">
+        <v>44011.0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>20</v>
+      </c>
+      <c r="C87" t="n">
+        <v>10753.0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.505072804133396</v>
+      </c>
+      <c r="E87" t="n">
+        <v>363.0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.5483383685800605</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n" s="4">
+        <v>44011.0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>18</v>
+      </c>
+      <c r="C88" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.009018318459370596</v>
+      </c>
+      <c r="E88" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.04229607250755287</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n" s="4">
+        <v>44011.0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.009018318459370596</v>
+      </c>
+      <c r="E89" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.04229607250755287</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n" s="4">
+        <v>44011.0</v>
+      </c>
+      <c r="B90" t="s">
+        <v>18</v>
+      </c>
+      <c r="C90" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.009018318459370596</v>
+      </c>
+      <c r="E90" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.04229607250755287</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n" s="4">
+        <v>44011.0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>18</v>
+      </c>
+      <c r="C91" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.009018318459370596</v>
+      </c>
+      <c r="E91" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.04229607250755287</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -11676,6 +12956,486 @@
         <v>0.40634441087613293</v>
       </c>
     </row>
+    <row r="158">
+      <c r="A158" t="n" s="6">
+        <v>44011.0</v>
+      </c>
+      <c r="B158" t="s">
+        <v>21</v>
+      </c>
+      <c r="C158" t="n">
+        <v>602.0</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.028276186002818223</v>
+      </c>
+      <c r="E158" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.019637462235649546</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n" s="6">
+        <v>44011.0</v>
+      </c>
+      <c r="B159" t="s">
+        <v>21</v>
+      </c>
+      <c r="C159" t="n">
+        <v>602.0</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.028276186002818223</v>
+      </c>
+      <c r="E159" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.019637462235649546</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n" s="6">
+        <v>44011.0</v>
+      </c>
+      <c r="B160" t="s">
+        <v>21</v>
+      </c>
+      <c r="C160" t="n">
+        <v>602.0</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.028276186002818223</v>
+      </c>
+      <c r="E160" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.019637462235649546</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n" s="6">
+        <v>44011.0</v>
+      </c>
+      <c r="B161" t="s">
+        <v>21</v>
+      </c>
+      <c r="C161" t="n">
+        <v>602.0</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.028276186002818223</v>
+      </c>
+      <c r="E161" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.019637462235649546</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n" s="6">
+        <v>44011.0</v>
+      </c>
+      <c r="B162" t="s">
+        <v>22</v>
+      </c>
+      <c r="C162" t="n">
+        <v>2537.0</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.11916392672616252</v>
+      </c>
+      <c r="E162" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.1283987915407855</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n" s="6">
+        <v>44011.0</v>
+      </c>
+      <c r="B163" t="s">
+        <v>22</v>
+      </c>
+      <c r="C163" t="n">
+        <v>2537.0</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.11916392672616252</v>
+      </c>
+      <c r="E163" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.1283987915407855</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n" s="6">
+        <v>44011.0</v>
+      </c>
+      <c r="B164" t="s">
+        <v>22</v>
+      </c>
+      <c r="C164" t="n">
+        <v>2537.0</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.11916392672616252</v>
+      </c>
+      <c r="E164" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.1283987915407855</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n" s="6">
+        <v>44011.0</v>
+      </c>
+      <c r="B165" t="s">
+        <v>22</v>
+      </c>
+      <c r="C165" t="n">
+        <v>2537.0</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.11916392672616252</v>
+      </c>
+      <c r="E165" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.1283987915407855</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n" s="6">
+        <v>44011.0</v>
+      </c>
+      <c r="B166" t="s">
+        <v>23</v>
+      </c>
+      <c r="C166" t="n">
+        <v>7763.0</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.36463128229215597</v>
+      </c>
+      <c r="E166" t="n">
+        <v>171.0</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.2583081570996979</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n" s="6">
+        <v>44011.0</v>
+      </c>
+      <c r="B167" t="s">
+        <v>23</v>
+      </c>
+      <c r="C167" t="n">
+        <v>7763.0</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.36463128229215597</v>
+      </c>
+      <c r="E167" t="n">
+        <v>171.0</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.2583081570996979</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n" s="6">
+        <v>44011.0</v>
+      </c>
+      <c r="B168" t="s">
+        <v>23</v>
+      </c>
+      <c r="C168" t="n">
+        <v>7763.0</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.36463128229215597</v>
+      </c>
+      <c r="E168" t="n">
+        <v>171.0</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.2583081570996979</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n" s="6">
+        <v>44011.0</v>
+      </c>
+      <c r="B169" t="s">
+        <v>23</v>
+      </c>
+      <c r="C169" t="n">
+        <v>7763.0</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.36463128229215597</v>
+      </c>
+      <c r="E169" t="n">
+        <v>171.0</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.2583081570996979</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n" s="6">
+        <v>44011.0</v>
+      </c>
+      <c r="B170" t="s">
+        <v>24</v>
+      </c>
+      <c r="C170" t="n">
+        <v>117.0</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.005495537811178957</v>
+      </c>
+      <c r="E170" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.0075528700906344415</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n" s="6">
+        <v>44011.0</v>
+      </c>
+      <c r="B171" t="s">
+        <v>24</v>
+      </c>
+      <c r="C171" t="n">
+        <v>117.0</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.005495537811178957</v>
+      </c>
+      <c r="E171" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.0075528700906344415</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n" s="6">
+        <v>44011.0</v>
+      </c>
+      <c r="B172" t="s">
+        <v>24</v>
+      </c>
+      <c r="C172" t="n">
+        <v>117.0</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.005495537811178957</v>
+      </c>
+      <c r="E172" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.0075528700906344415</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n" s="6">
+        <v>44011.0</v>
+      </c>
+      <c r="B173" t="s">
+        <v>24</v>
+      </c>
+      <c r="C173" t="n">
+        <v>117.0</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.005495537811178957</v>
+      </c>
+      <c r="E173" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.0075528700906344415</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n" s="6">
+        <v>44011.0</v>
+      </c>
+      <c r="B174" t="s">
+        <v>18</v>
+      </c>
+      <c r="C174" t="n">
+        <v>4656.0</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.21869422263973698</v>
+      </c>
+      <c r="E174" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.1797583081570997</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n" s="6">
+        <v>44011.0</v>
+      </c>
+      <c r="B175" t="s">
+        <v>18</v>
+      </c>
+      <c r="C175" t="n">
+        <v>4656.0</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.21869422263973698</v>
+      </c>
+      <c r="E175" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.1797583081570997</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n" s="6">
+        <v>44011.0</v>
+      </c>
+      <c r="B176" t="s">
+        <v>18</v>
+      </c>
+      <c r="C176" t="n">
+        <v>4656.0</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.21869422263973698</v>
+      </c>
+      <c r="E176" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.1797583081570997</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n" s="6">
+        <v>44011.0</v>
+      </c>
+      <c r="B177" t="s">
+        <v>18</v>
+      </c>
+      <c r="C177" t="n">
+        <v>4656.0</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.21869422263973698</v>
+      </c>
+      <c r="E177" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0.1797583081570997</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n" s="6">
+        <v>44011.0</v>
+      </c>
+      <c r="B178" t="s">
+        <v>25</v>
+      </c>
+      <c r="C178" t="n">
+        <v>5615.0</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.2637388445279474</v>
+      </c>
+      <c r="E178" t="n">
+        <v>269.0</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.40634441087613293</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n" s="6">
+        <v>44011.0</v>
+      </c>
+      <c r="B179" t="s">
+        <v>25</v>
+      </c>
+      <c r="C179" t="n">
+        <v>5615.0</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.2637388445279474</v>
+      </c>
+      <c r="E179" t="n">
+        <v>269.0</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.40634441087613293</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n" s="6">
+        <v>44011.0</v>
+      </c>
+      <c r="B180" t="s">
+        <v>25</v>
+      </c>
+      <c r="C180" t="n">
+        <v>5615.0</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.2637388445279474</v>
+      </c>
+      <c r="E180" t="n">
+        <v>269.0</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.40634441087613293</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n" s="6">
+        <v>44011.0</v>
+      </c>
+      <c r="B181" t="s">
+        <v>25</v>
+      </c>
+      <c r="C181" t="n">
+        <v>5615.0</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.2637388445279474</v>
+      </c>
+      <c r="E181" t="n">
+        <v>269.0</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.40634441087613293</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -6955,13 +6955,13 @@
         <v>44011.0</v>
       </c>
       <c r="B341" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C341" t="n">
-        <v>343.0</v>
+        <v>933.0</v>
       </c>
       <c r="D341" t="n">
-        <v>0.01611085016439643</v>
+        <v>0.04382339126350399</v>
       </c>
       <c r="E341" t="n">
         <v>0.0</v>
@@ -6975,19 +6975,19 @@
         <v>44011.0</v>
       </c>
       <c r="B342" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C342" t="n">
-        <v>343.0</v>
+        <v>3628.0</v>
       </c>
       <c r="D342" t="n">
-        <v>0.01611085016439643</v>
+        <v>0.17040864255519023</v>
       </c>
       <c r="E342" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="F342" t="n">
-        <v>0.0</v>
+        <v>0.01661631419939577</v>
       </c>
     </row>
     <row r="343">
@@ -6995,19 +6995,19 @@
         <v>44011.0</v>
       </c>
       <c r="B343" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C343" t="n">
-        <v>343.0</v>
+        <v>3914.0</v>
       </c>
       <c r="D343" t="n">
-        <v>0.01611085016439643</v>
+        <v>0.18384217942696102</v>
       </c>
       <c r="E343" t="n">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="F343" t="n">
-        <v>0.0</v>
+        <v>0.019637462235649546</v>
       </c>
     </row>
     <row r="344">
@@ -7015,19 +7015,19 @@
         <v>44011.0</v>
       </c>
       <c r="B344" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C344" t="n">
-        <v>933.0</v>
+        <v>3864.0</v>
       </c>
       <c r="D344" t="n">
-        <v>0.04382339126350399</v>
+        <v>0.18149365899483325</v>
       </c>
       <c r="E344" t="n">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="F344" t="n">
-        <v>0.0</v>
+        <v>0.03927492447129909</v>
       </c>
     </row>
     <row r="345">
@@ -7035,19 +7035,19 @@
         <v>44011.0</v>
       </c>
       <c r="B345" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C345" t="n">
-        <v>933.0</v>
+        <v>3691.0</v>
       </c>
       <c r="D345" t="n">
-        <v>0.04382339126350399</v>
+        <v>0.1733677782996712</v>
       </c>
       <c r="E345" t="n">
-        <v>0.0</v>
+        <v>72.0</v>
       </c>
       <c r="F345" t="n">
-        <v>0.0</v>
+        <v>0.10876132930513595</v>
       </c>
     </row>
     <row r="346">
@@ -7055,19 +7055,19 @@
         <v>44011.0</v>
       </c>
       <c r="B346" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C346" t="n">
-        <v>933.0</v>
+        <v>1476.0</v>
       </c>
       <c r="D346" t="n">
-        <v>0.04382339126350399</v>
+        <v>0.06932832315641146</v>
       </c>
       <c r="E346" t="n">
-        <v>0.0</v>
+        <v>60.0</v>
       </c>
       <c r="F346" t="n">
-        <v>0.0</v>
+        <v>0.09063444108761329</v>
       </c>
     </row>
     <row r="347">
@@ -7075,19 +7075,19 @@
         <v>44011.0</v>
       </c>
       <c r="B347" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C347" t="n">
-        <v>933.0</v>
+        <v>1086.0</v>
       </c>
       <c r="D347" t="n">
-        <v>0.04382339126350399</v>
+        <v>0.051009863785814936</v>
       </c>
       <c r="E347" t="n">
-        <v>0.0</v>
+        <v>74.0</v>
       </c>
       <c r="F347" t="n">
-        <v>0.0</v>
+        <v>0.11178247734138973</v>
       </c>
     </row>
     <row r="348">
@@ -7095,19 +7095,19 @@
         <v>44011.0</v>
       </c>
       <c r="B348" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C348" t="n">
-        <v>3628.0</v>
+        <v>697.0</v>
       </c>
       <c r="D348" t="n">
-        <v>0.17040864255519023</v>
+        <v>0.032738374823860966</v>
       </c>
       <c r="E348" t="n">
-        <v>11.0</v>
+        <v>69.0</v>
       </c>
       <c r="F348" t="n">
-        <v>0.01661631419939577</v>
+        <v>0.1042296072507553</v>
       </c>
     </row>
     <row r="349">
@@ -7115,19 +7115,19 @@
         <v>44011.0</v>
       </c>
       <c r="B349" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C349" t="n">
-        <v>3628.0</v>
+        <v>526.0</v>
       </c>
       <c r="D349" t="n">
-        <v>0.17040864255519023</v>
+        <v>0.02470643494598403</v>
       </c>
       <c r="E349" t="n">
-        <v>11.0</v>
+        <v>70.0</v>
       </c>
       <c r="F349" t="n">
-        <v>0.01661631419939577</v>
+        <v>0.10574018126888217</v>
       </c>
     </row>
     <row r="350">
@@ -7135,19 +7135,19 @@
         <v>44011.0</v>
       </c>
       <c r="B350" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C350" t="n">
-        <v>3628.0</v>
+        <v>1047.0</v>
       </c>
       <c r="D350" t="n">
-        <v>0.17040864255519023</v>
+        <v>0.049178017848755286</v>
       </c>
       <c r="E350" t="n">
-        <v>11.0</v>
+        <v>265.0</v>
       </c>
       <c r="F350" t="n">
-        <v>0.01661631419939577</v>
+        <v>0.4003021148036254</v>
       </c>
     </row>
     <row r="351">
@@ -7155,19 +7155,19 @@
         <v>44011.0</v>
       </c>
       <c r="B351" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C351" t="n">
-        <v>3628.0</v>
+        <v>85.0</v>
       </c>
       <c r="D351" t="n">
-        <v>0.17040864255519023</v>
+        <v>0.003992484734617191</v>
       </c>
       <c r="E351" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c r="F351" t="n">
-        <v>0.01661631419939577</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="352">
@@ -7175,113 +7175,113 @@
         <v>44011.0</v>
       </c>
       <c r="B352" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C352" t="n">
-        <v>3914.0</v>
+        <v>0.0</v>
       </c>
       <c r="D352" t="n">
-        <v>0.18384217942696102</v>
+        <v>0.0</v>
       </c>
       <c r="E352" t="n">
-        <v>13.0</v>
+        <v>2.0</v>
       </c>
       <c r="F352" t="n">
-        <v>0.019637462235649546</v>
+        <v>0.0030211480362537764</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n" s="2">
-        <v>44011.0</v>
+        <v>44012.0</v>
       </c>
       <c r="B353" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C353" t="n">
-        <v>3914.0</v>
+        <v>344.0</v>
       </c>
       <c r="D353" t="n">
-        <v>0.18384217942696102</v>
+        <v>0.016104114975890642</v>
       </c>
       <c r="E353" t="n">
-        <v>13.0</v>
+        <v>0.0</v>
       </c>
       <c r="F353" t="n">
-        <v>0.019637462235649546</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n" s="2">
-        <v>44011.0</v>
+        <v>44012.0</v>
       </c>
       <c r="B354" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C354" t="n">
-        <v>3914.0</v>
+        <v>941.0</v>
       </c>
       <c r="D354" t="n">
-        <v>0.18384217942696102</v>
+        <v>0.044052244745096204</v>
       </c>
       <c r="E354" t="n">
-        <v>13.0</v>
+        <v>0.0</v>
       </c>
       <c r="F354" t="n">
-        <v>0.019637462235649546</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n" s="2">
-        <v>44011.0</v>
+        <v>44012.0</v>
       </c>
       <c r="B355" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C355" t="n">
-        <v>3914.0</v>
+        <v>3644.0</v>
       </c>
       <c r="D355" t="n">
-        <v>0.18384217942696102</v>
+        <v>0.17059126445391135</v>
       </c>
       <c r="E355" t="n">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="F355" t="n">
-        <v>0.019637462235649546</v>
+        <v>0.01661631419939577</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n" s="2">
-        <v>44011.0</v>
+        <v>44012.0</v>
       </c>
       <c r="B356" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C356" t="n">
-        <v>3864.0</v>
+        <v>3933.0</v>
       </c>
       <c r="D356" t="n">
-        <v>0.18149365899483325</v>
+        <v>0.1841205936051683</v>
       </c>
       <c r="E356" t="n">
-        <v>26.0</v>
+        <v>13.0</v>
       </c>
       <c r="F356" t="n">
-        <v>0.03927492447129909</v>
+        <v>0.019637462235649546</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n" s="2">
-        <v>44011.0</v>
+        <v>44012.0</v>
       </c>
       <c r="B357" t="s">
         <v>10</v>
       </c>
       <c r="C357" t="n">
-        <v>3864.0</v>
+        <v>3876.0</v>
       </c>
       <c r="D357" t="n">
-        <v>0.18149365899483325</v>
+        <v>0.1814521792050934</v>
       </c>
       <c r="E357" t="n">
         <v>26.0</v>
@@ -7292,681 +7292,161 @@
     </row>
     <row r="358">
       <c r="A358" t="n" s="2">
-        <v>44011.0</v>
+        <v>44012.0</v>
       </c>
       <c r="B358" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C358" t="n">
-        <v>3864.0</v>
+        <v>3699.0</v>
       </c>
       <c r="D358" t="n">
-        <v>0.18149365899483325</v>
+        <v>0.173166050278545</v>
       </c>
       <c r="E358" t="n">
-        <v>26.0</v>
+        <v>72.0</v>
       </c>
       <c r="F358" t="n">
-        <v>0.03927492447129909</v>
+        <v>0.10876132930513595</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n" s="2">
-        <v>44011.0</v>
+        <v>44012.0</v>
       </c>
       <c r="B359" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C359" t="n">
-        <v>3864.0</v>
+        <v>1478.0</v>
       </c>
       <c r="D359" t="n">
-        <v>0.18149365899483325</v>
+        <v>0.06919151725106502</v>
       </c>
       <c r="E359" t="n">
-        <v>26.0</v>
+        <v>60.0</v>
       </c>
       <c r="F359" t="n">
-        <v>0.03927492447129909</v>
+        <v>0.09063444108761329</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n" s="2">
-        <v>44011.0</v>
+        <v>44012.0</v>
       </c>
       <c r="B360" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C360" t="n">
-        <v>3691.0</v>
+        <v>1085.0</v>
       </c>
       <c r="D360" t="n">
-        <v>0.1733677782996712</v>
+        <v>0.05079350217686438</v>
       </c>
       <c r="E360" t="n">
-        <v>72.0</v>
+        <v>74.0</v>
       </c>
       <c r="F360" t="n">
-        <v>0.10876132930513595</v>
+        <v>0.11178247734138973</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n" s="2">
-        <v>44011.0</v>
+        <v>44012.0</v>
       </c>
       <c r="B361" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C361" t="n">
-        <v>3691.0</v>
+        <v>699.0</v>
       </c>
       <c r="D361" t="n">
-        <v>0.1733677782996712</v>
+        <v>0.03272318711670802</v>
       </c>
       <c r="E361" t="n">
-        <v>72.0</v>
+        <v>69.0</v>
       </c>
       <c r="F361" t="n">
-        <v>0.10876132930513595</v>
+        <v>0.1042296072507553</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n" s="2">
-        <v>44011.0</v>
+        <v>44012.0</v>
       </c>
       <c r="B362" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C362" t="n">
-        <v>3691.0</v>
+        <v>528.0</v>
       </c>
       <c r="D362" t="n">
-        <v>0.1733677782996712</v>
+        <v>0.024717943916483312</v>
       </c>
       <c r="E362" t="n">
-        <v>72.0</v>
+        <v>70.0</v>
       </c>
       <c r="F362" t="n">
-        <v>0.10876132930513595</v>
+        <v>0.10574018126888217</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n" s="2">
-        <v>44011.0</v>
+        <v>44012.0</v>
       </c>
       <c r="B363" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C363" t="n">
-        <v>3691.0</v>
+        <v>1049.0</v>
       </c>
       <c r="D363" t="n">
-        <v>0.1733677782996712</v>
+        <v>0.04910818781892234</v>
       </c>
       <c r="E363" t="n">
-        <v>72.0</v>
+        <v>265.0</v>
       </c>
       <c r="F363" t="n">
-        <v>0.10876132930513595</v>
+        <v>0.4003021148036254</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n" s="2">
-        <v>44011.0</v>
+        <v>44012.0</v>
       </c>
       <c r="B364" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C364" t="n">
-        <v>1476.0</v>
+        <v>85.0</v>
       </c>
       <c r="D364" t="n">
-        <v>0.06932832315641146</v>
+        <v>0.003979214456252048</v>
       </c>
       <c r="E364" t="n">
-        <v>60.0</v>
+        <v>0.0</v>
       </c>
       <c r="F364" t="n">
-        <v>0.09063444108761329</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n" s="2">
-        <v>44011.0</v>
+        <v>44012.0</v>
       </c>
       <c r="B365" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C365" t="n">
-        <v>1476.0</v>
+        <v>0.0</v>
       </c>
       <c r="D365" t="n">
-        <v>0.06932832315641146</v>
+        <v>0.0</v>
       </c>
       <c r="E365" t="n">
-        <v>60.0</v>
+        <v>2.0</v>
       </c>
       <c r="F365" t="n">
-        <v>0.09063444108761329</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="n" s="2">
-        <v>44011.0</v>
-      </c>
-      <c r="B366" t="s">
-        <v>12</v>
-      </c>
-      <c r="C366" t="n">
-        <v>1476.0</v>
-      </c>
-      <c r="D366" t="n">
-        <v>0.06932832315641146</v>
-      </c>
-      <c r="E366" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="F366" t="n">
-        <v>0.09063444108761329</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="n" s="2">
-        <v>44011.0</v>
-      </c>
-      <c r="B367" t="s">
-        <v>12</v>
-      </c>
-      <c r="C367" t="n">
-        <v>1476.0</v>
-      </c>
-      <c r="D367" t="n">
-        <v>0.06932832315641146</v>
-      </c>
-      <c r="E367" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="F367" t="n">
-        <v>0.09063444108761329</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="n" s="2">
-        <v>44011.0</v>
-      </c>
-      <c r="B368" t="s">
-        <v>13</v>
-      </c>
-      <c r="C368" t="n">
-        <v>1086.0</v>
-      </c>
-      <c r="D368" t="n">
-        <v>0.051009863785814936</v>
-      </c>
-      <c r="E368" t="n">
-        <v>74.0</v>
-      </c>
-      <c r="F368" t="n">
-        <v>0.11178247734138973</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="n" s="2">
-        <v>44011.0</v>
-      </c>
-      <c r="B369" t="s">
-        <v>13</v>
-      </c>
-      <c r="C369" t="n">
-        <v>1086.0</v>
-      </c>
-      <c r="D369" t="n">
-        <v>0.051009863785814936</v>
-      </c>
-      <c r="E369" t="n">
-        <v>74.0</v>
-      </c>
-      <c r="F369" t="n">
-        <v>0.11178247734138973</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="n" s="2">
-        <v>44011.0</v>
-      </c>
-      <c r="B370" t="s">
-        <v>13</v>
-      </c>
-      <c r="C370" t="n">
-        <v>1086.0</v>
-      </c>
-      <c r="D370" t="n">
-        <v>0.051009863785814936</v>
-      </c>
-      <c r="E370" t="n">
-        <v>74.0</v>
-      </c>
-      <c r="F370" t="n">
-        <v>0.11178247734138973</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="n" s="2">
-        <v>44011.0</v>
-      </c>
-      <c r="B371" t="s">
-        <v>13</v>
-      </c>
-      <c r="C371" t="n">
-        <v>1086.0</v>
-      </c>
-      <c r="D371" t="n">
-        <v>0.051009863785814936</v>
-      </c>
-      <c r="E371" t="n">
-        <v>74.0</v>
-      </c>
-      <c r="F371" t="n">
-        <v>0.11178247734138973</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="n" s="2">
-        <v>44011.0</v>
-      </c>
-      <c r="B372" t="s">
-        <v>14</v>
-      </c>
-      <c r="C372" t="n">
-        <v>697.0</v>
-      </c>
-      <c r="D372" t="n">
-        <v>0.032738374823860966</v>
-      </c>
-      <c r="E372" t="n">
-        <v>69.0</v>
-      </c>
-      <c r="F372" t="n">
-        <v>0.1042296072507553</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="n" s="2">
-        <v>44011.0</v>
-      </c>
-      <c r="B373" t="s">
-        <v>14</v>
-      </c>
-      <c r="C373" t="n">
-        <v>697.0</v>
-      </c>
-      <c r="D373" t="n">
-        <v>0.032738374823860966</v>
-      </c>
-      <c r="E373" t="n">
-        <v>69.0</v>
-      </c>
-      <c r="F373" t="n">
-        <v>0.1042296072507553</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="n" s="2">
-        <v>44011.0</v>
-      </c>
-      <c r="B374" t="s">
-        <v>14</v>
-      </c>
-      <c r="C374" t="n">
-        <v>697.0</v>
-      </c>
-      <c r="D374" t="n">
-        <v>0.032738374823860966</v>
-      </c>
-      <c r="E374" t="n">
-        <v>69.0</v>
-      </c>
-      <c r="F374" t="n">
-        <v>0.1042296072507553</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="n" s="2">
-        <v>44011.0</v>
-      </c>
-      <c r="B375" t="s">
-        <v>14</v>
-      </c>
-      <c r="C375" t="n">
-        <v>697.0</v>
-      </c>
-      <c r="D375" t="n">
-        <v>0.032738374823860966</v>
-      </c>
-      <c r="E375" t="n">
-        <v>69.0</v>
-      </c>
-      <c r="F375" t="n">
-        <v>0.1042296072507553</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="n" s="2">
-        <v>44011.0</v>
-      </c>
-      <c r="B376" t="s">
-        <v>15</v>
-      </c>
-      <c r="C376" t="n">
-        <v>526.0</v>
-      </c>
-      <c r="D376" t="n">
-        <v>0.02470643494598403</v>
-      </c>
-      <c r="E376" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="F376" t="n">
-        <v>0.10574018126888217</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="n" s="2">
-        <v>44011.0</v>
-      </c>
-      <c r="B377" t="s">
-        <v>15</v>
-      </c>
-      <c r="C377" t="n">
-        <v>526.0</v>
-      </c>
-      <c r="D377" t="n">
-        <v>0.02470643494598403</v>
-      </c>
-      <c r="E377" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="F377" t="n">
-        <v>0.10574018126888217</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="n" s="2">
-        <v>44011.0</v>
-      </c>
-      <c r="B378" t="s">
-        <v>15</v>
-      </c>
-      <c r="C378" t="n">
-        <v>526.0</v>
-      </c>
-      <c r="D378" t="n">
-        <v>0.02470643494598403</v>
-      </c>
-      <c r="E378" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="F378" t="n">
-        <v>0.10574018126888217</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="n" s="2">
-        <v>44011.0</v>
-      </c>
-      <c r="B379" t="s">
-        <v>15</v>
-      </c>
-      <c r="C379" t="n">
-        <v>526.0</v>
-      </c>
-      <c r="D379" t="n">
-        <v>0.02470643494598403</v>
-      </c>
-      <c r="E379" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="F379" t="n">
-        <v>0.10574018126888217</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="n" s="2">
-        <v>44011.0</v>
-      </c>
-      <c r="B380" t="s">
-        <v>16</v>
-      </c>
-      <c r="C380" t="n">
-        <v>1047.0</v>
-      </c>
-      <c r="D380" t="n">
-        <v>0.049178017848755286</v>
-      </c>
-      <c r="E380" t="n">
-        <v>265.0</v>
-      </c>
-      <c r="F380" t="n">
-        <v>0.4003021148036254</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="n" s="2">
-        <v>44011.0</v>
-      </c>
-      <c r="B381" t="s">
-        <v>16</v>
-      </c>
-      <c r="C381" t="n">
-        <v>1047.0</v>
-      </c>
-      <c r="D381" t="n">
-        <v>0.049178017848755286</v>
-      </c>
-      <c r="E381" t="n">
-        <v>265.0</v>
-      </c>
-      <c r="F381" t="n">
-        <v>0.4003021148036254</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="n" s="2">
-        <v>44011.0</v>
-      </c>
-      <c r="B382" t="s">
-        <v>16</v>
-      </c>
-      <c r="C382" t="n">
-        <v>1047.0</v>
-      </c>
-      <c r="D382" t="n">
-        <v>0.049178017848755286</v>
-      </c>
-      <c r="E382" t="n">
-        <v>265.0</v>
-      </c>
-      <c r="F382" t="n">
-        <v>0.4003021148036254</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="n" s="2">
-        <v>44011.0</v>
-      </c>
-      <c r="B383" t="s">
-        <v>16</v>
-      </c>
-      <c r="C383" t="n">
-        <v>1047.0</v>
-      </c>
-      <c r="D383" t="n">
-        <v>0.049178017848755286</v>
-      </c>
-      <c r="E383" t="n">
-        <v>265.0</v>
-      </c>
-      <c r="F383" t="n">
-        <v>0.4003021148036254</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="n" s="2">
-        <v>44011.0</v>
-      </c>
-      <c r="B384" t="s">
-        <v>17</v>
-      </c>
-      <c r="C384" t="n">
-        <v>85.0</v>
-      </c>
-      <c r="D384" t="n">
-        <v>0.003992484734617191</v>
-      </c>
-      <c r="E384" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F384" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="n" s="2">
-        <v>44011.0</v>
-      </c>
-      <c r="B385" t="s">
-        <v>17</v>
-      </c>
-      <c r="C385" t="n">
-        <v>85.0</v>
-      </c>
-      <c r="D385" t="n">
-        <v>0.003992484734617191</v>
-      </c>
-      <c r="E385" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F385" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="n" s="2">
-        <v>44011.0</v>
-      </c>
-      <c r="B386" t="s">
-        <v>17</v>
-      </c>
-      <c r="C386" t="n">
-        <v>85.0</v>
-      </c>
-      <c r="D386" t="n">
-        <v>0.003992484734617191</v>
-      </c>
-      <c r="E386" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F386" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="n" s="2">
-        <v>44011.0</v>
-      </c>
-      <c r="B387" t="s">
-        <v>17</v>
-      </c>
-      <c r="C387" t="n">
-        <v>85.0</v>
-      </c>
-      <c r="D387" t="n">
-        <v>0.003992484734617191</v>
-      </c>
-      <c r="E387" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F387" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="n" s="2">
-        <v>44011.0</v>
-      </c>
-      <c r="B388" t="s">
-        <v>18</v>
-      </c>
-      <c r="C388" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D388" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E388" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F388" t="n">
-        <v>0.0030211480362537764</v>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="n" s="2">
-        <v>44011.0</v>
-      </c>
-      <c r="B389" t="s">
-        <v>18</v>
-      </c>
-      <c r="C389" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D389" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E389" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F389" t="n">
-        <v>0.0030211480362537764</v>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="n" s="2">
-        <v>44011.0</v>
-      </c>
-      <c r="B390" t="s">
-        <v>18</v>
-      </c>
-      <c r="C390" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D390" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E390" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F390" t="n">
-        <v>0.0030211480362537764</v>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="n" s="2">
-        <v>44011.0</v>
-      </c>
-      <c r="B391" t="s">
-        <v>18</v>
-      </c>
-      <c r="C391" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D391" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E391" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F391" t="n">
         <v>0.0030211480362537764</v>
       </c>
     </row>
@@ -9588,19 +9068,19 @@
         <v>44011.0</v>
       </c>
       <c r="B81" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C81" t="n">
-        <v>10345.0</v>
+        <v>10753.0</v>
       </c>
       <c r="D81" t="n">
-        <v>0.48590887740723343</v>
+        <v>0.505072804133396</v>
       </c>
       <c r="E81" t="n">
-        <v>271.0</v>
+        <v>363.0</v>
       </c>
       <c r="F81" t="n">
-        <v>0.4093655589123867</v>
+        <v>0.5483383685800605</v>
       </c>
     </row>
     <row r="82">
@@ -9608,33 +9088,33 @@
         <v>44011.0</v>
       </c>
       <c r="B82" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C82" t="n">
-        <v>10345.0</v>
+        <v>192.0</v>
       </c>
       <c r="D82" t="n">
-        <v>0.48590887740723343</v>
+        <v>0.009018318459370596</v>
       </c>
       <c r="E82" t="n">
-        <v>271.0</v>
+        <v>28.0</v>
       </c>
       <c r="F82" t="n">
-        <v>0.4093655589123867</v>
+        <v>0.04229607250755287</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n" s="4">
-        <v>44011.0</v>
+        <v>44012.0</v>
       </c>
       <c r="B83" t="s">
         <v>19</v>
       </c>
       <c r="C83" t="n">
-        <v>10345.0</v>
+        <v>10371.0</v>
       </c>
       <c r="D83" t="n">
-        <v>0.48590887740723343</v>
+        <v>0.4855109779504705</v>
       </c>
       <c r="E83" t="n">
         <v>271.0</v>
@@ -9645,16 +9125,16 @@
     </row>
     <row r="84">
       <c r="A84" t="n" s="4">
-        <v>44011.0</v>
+        <v>44012.0</v>
       </c>
       <c r="B84" t="s">
         <v>20</v>
       </c>
       <c r="C84" t="n">
-        <v>10753.0</v>
+        <v>10800.0</v>
       </c>
       <c r="D84" t="n">
-        <v>0.505072804133396</v>
+        <v>0.5055943073826131</v>
       </c>
       <c r="E84" t="n">
         <v>363.0</v>
@@ -9665,141 +9145,21 @@
     </row>
     <row r="85">
       <c r="A85" t="n" s="4">
-        <v>44011.0</v>
+        <v>44012.0</v>
       </c>
       <c r="B85" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C85" t="n">
-        <v>10753.0</v>
+        <v>190.0</v>
       </c>
       <c r="D85" t="n">
-        <v>0.505072804133396</v>
+        <v>0.008894714666916343</v>
       </c>
       <c r="E85" t="n">
-        <v>363.0</v>
+        <v>28.0</v>
       </c>
       <c r="F85" t="n">
-        <v>0.5483383685800605</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n" s="4">
-        <v>44011.0</v>
-      </c>
-      <c r="B86" t="s">
-        <v>20</v>
-      </c>
-      <c r="C86" t="n">
-        <v>10753.0</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0.505072804133396</v>
-      </c>
-      <c r="E86" t="n">
-        <v>363.0</v>
-      </c>
-      <c r="F86" t="n">
-        <v>0.5483383685800605</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n" s="4">
-        <v>44011.0</v>
-      </c>
-      <c r="B87" t="s">
-        <v>20</v>
-      </c>
-      <c r="C87" t="n">
-        <v>10753.0</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0.505072804133396</v>
-      </c>
-      <c r="E87" t="n">
-        <v>363.0</v>
-      </c>
-      <c r="F87" t="n">
-        <v>0.5483383685800605</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n" s="4">
-        <v>44011.0</v>
-      </c>
-      <c r="B88" t="s">
-        <v>18</v>
-      </c>
-      <c r="C88" t="n">
-        <v>192.0</v>
-      </c>
-      <c r="D88" t="n">
-        <v>0.009018318459370596</v>
-      </c>
-      <c r="E88" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="F88" t="n">
-        <v>0.04229607250755287</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n" s="4">
-        <v>44011.0</v>
-      </c>
-      <c r="B89" t="s">
-        <v>18</v>
-      </c>
-      <c r="C89" t="n">
-        <v>192.0</v>
-      </c>
-      <c r="D89" t="n">
-        <v>0.009018318459370596</v>
-      </c>
-      <c r="E89" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="F89" t="n">
-        <v>0.04229607250755287</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n" s="4">
-        <v>44011.0</v>
-      </c>
-      <c r="B90" t="s">
-        <v>18</v>
-      </c>
-      <c r="C90" t="n">
-        <v>192.0</v>
-      </c>
-      <c r="D90" t="n">
-        <v>0.009018318459370596</v>
-      </c>
-      <c r="E90" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="F90" t="n">
-        <v>0.04229607250755287</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n" s="4">
-        <v>44011.0</v>
-      </c>
-      <c r="B91" t="s">
-        <v>18</v>
-      </c>
-      <c r="C91" t="n">
-        <v>192.0</v>
-      </c>
-      <c r="D91" t="n">
-        <v>0.009018318459370596</v>
-      </c>
-      <c r="E91" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="F91" t="n">
         <v>0.04229607250755287</v>
       </c>
     </row>
@@ -12981,19 +12341,19 @@
         <v>44011.0</v>
       </c>
       <c r="B159" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C159" t="n">
-        <v>602.0</v>
+        <v>2537.0</v>
       </c>
       <c r="D159" t="n">
-        <v>0.028276186002818223</v>
+        <v>0.11916392672616252</v>
       </c>
       <c r="E159" t="n">
-        <v>13.0</v>
+        <v>85.0</v>
       </c>
       <c r="F159" t="n">
-        <v>0.019637462235649546</v>
+        <v>0.1283987915407855</v>
       </c>
     </row>
     <row r="160">
@@ -13001,19 +12361,19 @@
         <v>44011.0</v>
       </c>
       <c r="B160" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C160" t="n">
-        <v>602.0</v>
+        <v>7763.0</v>
       </c>
       <c r="D160" t="n">
-        <v>0.028276186002818223</v>
+        <v>0.36463128229215597</v>
       </c>
       <c r="E160" t="n">
-        <v>13.0</v>
+        <v>171.0</v>
       </c>
       <c r="F160" t="n">
-        <v>0.019637462235649546</v>
+        <v>0.2583081570996979</v>
       </c>
     </row>
     <row r="161">
@@ -13021,19 +12381,19 @@
         <v>44011.0</v>
       </c>
       <c r="B161" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C161" t="n">
-        <v>602.0</v>
+        <v>117.0</v>
       </c>
       <c r="D161" t="n">
-        <v>0.028276186002818223</v>
+        <v>0.005495537811178957</v>
       </c>
       <c r="E161" t="n">
-        <v>13.0</v>
+        <v>5.0</v>
       </c>
       <c r="F161" t="n">
-        <v>0.019637462235649546</v>
+        <v>0.0075528700906344415</v>
       </c>
     </row>
     <row r="162">
@@ -13041,19 +12401,19 @@
         <v>44011.0</v>
       </c>
       <c r="B162" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C162" t="n">
-        <v>2537.0</v>
+        <v>4656.0</v>
       </c>
       <c r="D162" t="n">
-        <v>0.11916392672616252</v>
+        <v>0.21869422263973698</v>
       </c>
       <c r="E162" t="n">
-        <v>85.0</v>
+        <v>119.0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.1283987915407855</v>
+        <v>0.1797583081570997</v>
       </c>
     </row>
     <row r="163">
@@ -13061,53 +12421,53 @@
         <v>44011.0</v>
       </c>
       <c r="B163" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C163" t="n">
-        <v>2537.0</v>
+        <v>5615.0</v>
       </c>
       <c r="D163" t="n">
-        <v>0.11916392672616252</v>
+        <v>0.2637388445279474</v>
       </c>
       <c r="E163" t="n">
-        <v>85.0</v>
+        <v>269.0</v>
       </c>
       <c r="F163" t="n">
-        <v>0.1283987915407855</v>
+        <v>0.40634441087613293</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n" s="6">
-        <v>44011.0</v>
+        <v>44012.0</v>
       </c>
       <c r="B164" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C164" t="n">
-        <v>2537.0</v>
+        <v>604.0</v>
       </c>
       <c r="D164" t="n">
-        <v>0.11916392672616252</v>
+        <v>0.02827582978324985</v>
       </c>
       <c r="E164" t="n">
-        <v>85.0</v>
+        <v>13.0</v>
       </c>
       <c r="F164" t="n">
-        <v>0.1283987915407855</v>
+        <v>0.019637462235649546</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n" s="6">
-        <v>44011.0</v>
+        <v>44012.0</v>
       </c>
       <c r="B165" t="s">
         <v>22</v>
       </c>
       <c r="C165" t="n">
-        <v>2537.0</v>
+        <v>2548.0</v>
       </c>
       <c r="D165" t="n">
-        <v>0.11916392672616252</v>
+        <v>0.11928280511212022</v>
       </c>
       <c r="E165" t="n">
         <v>85.0</v>
@@ -13118,16 +12478,16 @@
     </row>
     <row r="166">
       <c r="A166" t="n" s="6">
-        <v>44011.0</v>
+        <v>44012.0</v>
       </c>
       <c r="B166" t="s">
         <v>23</v>
       </c>
       <c r="C166" t="n">
-        <v>7763.0</v>
+        <v>7803.0</v>
       </c>
       <c r="D166" t="n">
-        <v>0.36463128229215597</v>
+        <v>0.365291887083938</v>
       </c>
       <c r="E166" t="n">
         <v>171.0</v>
@@ -13138,301 +12498,61 @@
     </row>
     <row r="167">
       <c r="A167" t="n" s="6">
-        <v>44011.0</v>
+        <v>44012.0</v>
       </c>
       <c r="B167" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C167" t="n">
-        <v>7763.0</v>
+        <v>118.0</v>
       </c>
       <c r="D167" t="n">
-        <v>0.36463128229215597</v>
+        <v>0.005524085951032255</v>
       </c>
       <c r="E167" t="n">
-        <v>171.0</v>
+        <v>5.0</v>
       </c>
       <c r="F167" t="n">
-        <v>0.2583081570996979</v>
+        <v>0.0075528700906344415</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n" s="6">
-        <v>44011.0</v>
+        <v>44012.0</v>
       </c>
       <c r="B168" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C168" t="n">
-        <v>7763.0</v>
+        <v>4660.0</v>
       </c>
       <c r="D168" t="n">
-        <v>0.36463128229215597</v>
+        <v>0.21815458077805347</v>
       </c>
       <c r="E168" t="n">
-        <v>171.0</v>
+        <v>119.0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.2583081570996979</v>
+        <v>0.1797583081570997</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n" s="6">
-        <v>44011.0</v>
+        <v>44012.0</v>
       </c>
       <c r="B169" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C169" t="n">
-        <v>7763.0</v>
+        <v>5628.0</v>
       </c>
       <c r="D169" t="n">
-        <v>0.36463128229215597</v>
+        <v>0.2634708112916062</v>
       </c>
       <c r="E169" t="n">
-        <v>171.0</v>
+        <v>269.0</v>
       </c>
       <c r="F169" t="n">
-        <v>0.2583081570996979</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n" s="6">
-        <v>44011.0</v>
-      </c>
-      <c r="B170" t="s">
-        <v>24</v>
-      </c>
-      <c r="C170" t="n">
-        <v>117.0</v>
-      </c>
-      <c r="D170" t="n">
-        <v>0.005495537811178957</v>
-      </c>
-      <c r="E170" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="F170" t="n">
-        <v>0.0075528700906344415</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n" s="6">
-        <v>44011.0</v>
-      </c>
-      <c r="B171" t="s">
-        <v>24</v>
-      </c>
-      <c r="C171" t="n">
-        <v>117.0</v>
-      </c>
-      <c r="D171" t="n">
-        <v>0.005495537811178957</v>
-      </c>
-      <c r="E171" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="F171" t="n">
-        <v>0.0075528700906344415</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n" s="6">
-        <v>44011.0</v>
-      </c>
-      <c r="B172" t="s">
-        <v>24</v>
-      </c>
-      <c r="C172" t="n">
-        <v>117.0</v>
-      </c>
-      <c r="D172" t="n">
-        <v>0.005495537811178957</v>
-      </c>
-      <c r="E172" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="F172" t="n">
-        <v>0.0075528700906344415</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n" s="6">
-        <v>44011.0</v>
-      </c>
-      <c r="B173" t="s">
-        <v>24</v>
-      </c>
-      <c r="C173" t="n">
-        <v>117.0</v>
-      </c>
-      <c r="D173" t="n">
-        <v>0.005495537811178957</v>
-      </c>
-      <c r="E173" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="F173" t="n">
-        <v>0.0075528700906344415</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n" s="6">
-        <v>44011.0</v>
-      </c>
-      <c r="B174" t="s">
-        <v>18</v>
-      </c>
-      <c r="C174" t="n">
-        <v>4656.0</v>
-      </c>
-      <c r="D174" t="n">
-        <v>0.21869422263973698</v>
-      </c>
-      <c r="E174" t="n">
-        <v>119.0</v>
-      </c>
-      <c r="F174" t="n">
-        <v>0.1797583081570997</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n" s="6">
-        <v>44011.0</v>
-      </c>
-      <c r="B175" t="s">
-        <v>18</v>
-      </c>
-      <c r="C175" t="n">
-        <v>4656.0</v>
-      </c>
-      <c r="D175" t="n">
-        <v>0.21869422263973698</v>
-      </c>
-      <c r="E175" t="n">
-        <v>119.0</v>
-      </c>
-      <c r="F175" t="n">
-        <v>0.1797583081570997</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="n" s="6">
-        <v>44011.0</v>
-      </c>
-      <c r="B176" t="s">
-        <v>18</v>
-      </c>
-      <c r="C176" t="n">
-        <v>4656.0</v>
-      </c>
-      <c r="D176" t="n">
-        <v>0.21869422263973698</v>
-      </c>
-      <c r="E176" t="n">
-        <v>119.0</v>
-      </c>
-      <c r="F176" t="n">
-        <v>0.1797583081570997</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n" s="6">
-        <v>44011.0</v>
-      </c>
-      <c r="B177" t="s">
-        <v>18</v>
-      </c>
-      <c r="C177" t="n">
-        <v>4656.0</v>
-      </c>
-      <c r="D177" t="n">
-        <v>0.21869422263973698</v>
-      </c>
-      <c r="E177" t="n">
-        <v>119.0</v>
-      </c>
-      <c r="F177" t="n">
-        <v>0.1797583081570997</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n" s="6">
-        <v>44011.0</v>
-      </c>
-      <c r="B178" t="s">
-        <v>25</v>
-      </c>
-      <c r="C178" t="n">
-        <v>5615.0</v>
-      </c>
-      <c r="D178" t="n">
-        <v>0.2637388445279474</v>
-      </c>
-      <c r="E178" t="n">
-        <v>269.0</v>
-      </c>
-      <c r="F178" t="n">
-        <v>0.40634441087613293</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n" s="6">
-        <v>44011.0</v>
-      </c>
-      <c r="B179" t="s">
-        <v>25</v>
-      </c>
-      <c r="C179" t="n">
-        <v>5615.0</v>
-      </c>
-      <c r="D179" t="n">
-        <v>0.2637388445279474</v>
-      </c>
-      <c r="E179" t="n">
-        <v>269.0</v>
-      </c>
-      <c r="F179" t="n">
-        <v>0.40634441087613293</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n" s="6">
-        <v>44011.0</v>
-      </c>
-      <c r="B180" t="s">
-        <v>25</v>
-      </c>
-      <c r="C180" t="n">
-        <v>5615.0</v>
-      </c>
-      <c r="D180" t="n">
-        <v>0.2637388445279474</v>
-      </c>
-      <c r="E180" t="n">
-        <v>269.0</v>
-      </c>
-      <c r="F180" t="n">
-        <v>0.40634441087613293</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n" s="6">
-        <v>44011.0</v>
-      </c>
-      <c r="B181" t="s">
-        <v>25</v>
-      </c>
-      <c r="C181" t="n">
-        <v>5615.0</v>
-      </c>
-      <c r="D181" t="n">
-        <v>0.2637388445279474</v>
-      </c>
-      <c r="E181" t="n">
-        <v>269.0</v>
-      </c>
-      <c r="F181" t="n">
         <v>0.40634441087613293</v>
       </c>
     </row>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -7450,6 +7450,266 @@
         <v>0.0030211480362537764</v>
       </c>
     </row>
+    <row r="366">
+      <c r="A366" t="n" s="2">
+        <v>44013.0</v>
+      </c>
+      <c r="B366" t="s">
+        <v>6</v>
+      </c>
+      <c r="C366" t="n">
+        <v>363.0</v>
+      </c>
+      <c r="D366" t="n">
+        <v>1.6530054645</v>
+      </c>
+      <c r="E366" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F366" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n" s="2">
+        <v>44013.0</v>
+      </c>
+      <c r="B367" t="s">
+        <v>7</v>
+      </c>
+      <c r="C367" t="n">
+        <v>984.0</v>
+      </c>
+      <c r="D367" t="n">
+        <v>4.4808743169</v>
+      </c>
+      <c r="E367" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F367" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n" s="2">
+        <v>44013.0</v>
+      </c>
+      <c r="B368" t="s">
+        <v>8</v>
+      </c>
+      <c r="C368" t="n">
+        <v>3802.0</v>
+      </c>
+      <c r="D368" t="n">
+        <v>17.313296903</v>
+      </c>
+      <c r="E368" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="F368" t="n">
+        <v>1.6616314199</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n" s="2">
+        <v>44013.0</v>
+      </c>
+      <c r="B369" t="s">
+        <v>9</v>
+      </c>
+      <c r="C369" t="n">
+        <v>4037.0</v>
+      </c>
+      <c r="D369" t="n">
+        <v>18.383424408</v>
+      </c>
+      <c r="E369" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="F369" t="n">
+        <v>1.9637462236</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n" s="2">
+        <v>44013.0</v>
+      </c>
+      <c r="B370" t="s">
+        <v>10</v>
+      </c>
+      <c r="C370" t="n">
+        <v>3976.0</v>
+      </c>
+      <c r="D370" t="n">
+        <v>18.10564663</v>
+      </c>
+      <c r="E370" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="F370" t="n">
+        <v>3.9274924471</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n" s="2">
+        <v>44013.0</v>
+      </c>
+      <c r="B371" t="s">
+        <v>11</v>
+      </c>
+      <c r="C371" t="n">
+        <v>3779.0</v>
+      </c>
+      <c r="D371" t="n">
+        <v>17.20856102</v>
+      </c>
+      <c r="E371" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="F371" t="n">
+        <v>10.876132931</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n" s="2">
+        <v>44013.0</v>
+      </c>
+      <c r="B372" t="s">
+        <v>12</v>
+      </c>
+      <c r="C372" t="n">
+        <v>1511.0</v>
+      </c>
+      <c r="D372" t="n">
+        <v>6.8806921676</v>
+      </c>
+      <c r="E372" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F372" t="n">
+        <v>9.0634441088</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n" s="2">
+        <v>44013.0</v>
+      </c>
+      <c r="B373" t="s">
+        <v>13</v>
+      </c>
+      <c r="C373" t="n">
+        <v>1105.0</v>
+      </c>
+      <c r="D373" t="n">
+        <v>5.0318761384</v>
+      </c>
+      <c r="E373" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="F373" t="n">
+        <v>11.178247734</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n" s="2">
+        <v>44013.0</v>
+      </c>
+      <c r="B374" t="s">
+        <v>14</v>
+      </c>
+      <c r="C374" t="n">
+        <v>712.0</v>
+      </c>
+      <c r="D374" t="n">
+        <v>3.2422586521</v>
+      </c>
+      <c r="E374" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="F374" t="n">
+        <v>10.422960725</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n" s="2">
+        <v>44013.0</v>
+      </c>
+      <c r="B375" t="s">
+        <v>15</v>
+      </c>
+      <c r="C375" t="n">
+        <v>538.0</v>
+      </c>
+      <c r="D375" t="n">
+        <v>2.4499089253</v>
+      </c>
+      <c r="E375" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="F375" t="n">
+        <v>10.574018127</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n" s="2">
+        <v>44013.0</v>
+      </c>
+      <c r="B376" t="s">
+        <v>16</v>
+      </c>
+      <c r="C376" t="n">
+        <v>1065.0</v>
+      </c>
+      <c r="D376" t="n">
+        <v>4.849726776</v>
+      </c>
+      <c r="E376" t="n">
+        <v>265.0</v>
+      </c>
+      <c r="F376" t="n">
+        <v>40.03021148</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n" s="2">
+        <v>44013.0</v>
+      </c>
+      <c r="B377" t="s">
+        <v>17</v>
+      </c>
+      <c r="C377" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="D377" t="n">
+        <v>0.4007285975</v>
+      </c>
+      <c r="E377" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F377" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n" s="2">
+        <v>44013.0</v>
+      </c>
+      <c r="B378" t="s">
+        <v>18</v>
+      </c>
+      <c r="C378" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D378" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E378" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F378" t="n">
+        <v>0.3021148036</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -9163,6 +9423,66 @@
         <v>0.04229607250755287</v>
       </c>
     </row>
+    <row r="86">
+      <c r="A86" t="n" s="4">
+        <v>44013.0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" t="n">
+        <v>10667.0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>48.574681239</v>
+      </c>
+      <c r="E86" t="n">
+        <v>271.0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>40.936555891</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n" s="4">
+        <v>44013.0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>20</v>
+      </c>
+      <c r="C87" t="n">
+        <v>11090.0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>50.500910747</v>
+      </c>
+      <c r="E87" t="n">
+        <v>363.0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>54.833836858</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n" s="4">
+        <v>44013.0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>18</v>
+      </c>
+      <c r="C88" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.9244080146</v>
+      </c>
+      <c r="E88" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>4.2296072508</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -12556,6 +12876,126 @@
         <v>0.40634441087613293</v>
       </c>
     </row>
+    <row r="170">
+      <c r="A170" t="n" s="6">
+        <v>44013.0</v>
+      </c>
+      <c r="B170" t="s">
+        <v>21</v>
+      </c>
+      <c r="C170" t="n">
+        <v>614.0</v>
+      </c>
+      <c r="D170" t="n">
+        <v>2.795992714</v>
+      </c>
+      <c r="E170" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1.9637462236</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n" s="6">
+        <v>44013.0</v>
+      </c>
+      <c r="B171" t="s">
+        <v>22</v>
+      </c>
+      <c r="C171" t="n">
+        <v>2592.0</v>
+      </c>
+      <c r="D171" t="n">
+        <v>11.803278689</v>
+      </c>
+      <c r="E171" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="F171" t="n">
+        <v>12.839879154</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n" s="6">
+        <v>44013.0</v>
+      </c>
+      <c r="B172" t="s">
+        <v>23</v>
+      </c>
+      <c r="C172" t="n">
+        <v>8138.0</v>
+      </c>
+      <c r="D172" t="n">
+        <v>37.058287796</v>
+      </c>
+      <c r="E172" t="n">
+        <v>171.0</v>
+      </c>
+      <c r="F172" t="n">
+        <v>25.83081571</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n" s="6">
+        <v>44013.0</v>
+      </c>
+      <c r="B173" t="s">
+        <v>24</v>
+      </c>
+      <c r="C173" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.5418943534</v>
+      </c>
+      <c r="E173" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.7552870091</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n" s="6">
+        <v>44013.0</v>
+      </c>
+      <c r="B174" t="s">
+        <v>18</v>
+      </c>
+      <c r="C174" t="n">
+        <v>4777.0</v>
+      </c>
+      <c r="D174" t="n">
+        <v>21.753187614</v>
+      </c>
+      <c r="E174" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="F174" t="n">
+        <v>17.975830816</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n" s="6">
+        <v>44013.0</v>
+      </c>
+      <c r="B175" t="s">
+        <v>25</v>
+      </c>
+      <c r="C175" t="n">
+        <v>5720.0</v>
+      </c>
+      <c r="D175" t="n">
+        <v>26.047358834</v>
+      </c>
+      <c r="E175" t="n">
+        <v>269.0</v>
+      </c>
+      <c r="F175" t="n">
+        <v>40.634441088</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -8253,6 +8253,286 @@
         <v>0.0030211480362537764</v>
       </c>
     </row>
+    <row r="406">
+      <c r="A406" t="n" s="2">
+        <v>44015.0</v>
+      </c>
+      <c r="B406" t="s">
+        <v>6</v>
+      </c>
+      <c r="C406" t="n">
+        <v>389.0</v>
+      </c>
+      <c r="D406" t="n">
+        <v>0.01715772759350741</v>
+      </c>
+      <c r="E406" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F406" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n" s="2">
+        <v>44015.0</v>
+      </c>
+      <c r="B407" t="s">
+        <v>7</v>
+      </c>
+      <c r="C407" t="n">
+        <v>1035.0</v>
+      </c>
+      <c r="D407" t="n">
+        <v>0.04565102328863797</v>
+      </c>
+      <c r="E407" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F407" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n" s="2">
+        <v>44015.0</v>
+      </c>
+      <c r="B408" t="s">
+        <v>8</v>
+      </c>
+      <c r="C408" t="n">
+        <v>3991.0</v>
+      </c>
+      <c r="D408" t="n">
+        <v>0.17603211009174313</v>
+      </c>
+      <c r="E408" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="F408" t="n">
+        <v>0.01661631419939577</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n" s="2">
+        <v>44015.0</v>
+      </c>
+      <c r="B409" t="s">
+        <v>9</v>
+      </c>
+      <c r="C409" t="n">
+        <v>4178.0</v>
+      </c>
+      <c r="D409" t="n">
+        <v>0.1842801693719125</v>
+      </c>
+      <c r="E409" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="F409" t="n">
+        <v>0.019637462235649546</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n" s="2">
+        <v>44015.0</v>
+      </c>
+      <c r="B410" t="s">
+        <v>10</v>
+      </c>
+      <c r="C410" t="n">
+        <v>4090.0</v>
+      </c>
+      <c r="D410" t="n">
+        <v>0.18039872971065632</v>
+      </c>
+      <c r="E410" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="F410" t="n">
+        <v>0.03927492447129909</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n" s="2">
+        <v>44015.0</v>
+      </c>
+      <c r="B411" t="s">
+        <v>11</v>
+      </c>
+      <c r="C411" t="n">
+        <v>3859.0</v>
+      </c>
+      <c r="D411" t="n">
+        <v>0.17020995059985886</v>
+      </c>
+      <c r="E411" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="F411" t="n">
+        <v>0.10876132930513595</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n" s="2">
+        <v>44015.0</v>
+      </c>
+      <c r="B412" t="s">
+        <v>12</v>
+      </c>
+      <c r="C412" t="n">
+        <v>1558.0</v>
+      </c>
+      <c r="D412" t="n">
+        <v>0.06871912491178546</v>
+      </c>
+      <c r="E412" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F412" t="n">
+        <v>0.09063444108761329</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n" s="2">
+        <v>44015.0</v>
+      </c>
+      <c r="B413" t="s">
+        <v>13</v>
+      </c>
+      <c r="C413" t="n">
+        <v>1132.0</v>
+      </c>
+      <c r="D413" t="n">
+        <v>0.049929428369795345</v>
+      </c>
+      <c r="E413" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="F413" t="n">
+        <v>0.11178247734138973</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n" s="2">
+        <v>44015.0</v>
+      </c>
+      <c r="B414" t="s">
+        <v>14</v>
+      </c>
+      <c r="C414" t="n">
+        <v>726.0</v>
+      </c>
+      <c r="D414" t="n">
+        <v>0.032021877205363446</v>
+      </c>
+      <c r="E414" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="F414" t="n">
+        <v>0.1042296072507553</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n" s="2">
+        <v>44015.0</v>
+      </c>
+      <c r="B415" t="s">
+        <v>15</v>
+      </c>
+      <c r="C415" t="n">
+        <v>546.0</v>
+      </c>
+      <c r="D415" t="n">
+        <v>0.02408256880733945</v>
+      </c>
+      <c r="E415" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="F415" t="n">
+        <v>0.10574018126888217</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n" s="2">
+        <v>44015.0</v>
+      </c>
+      <c r="B416" t="s">
+        <v>16</v>
+      </c>
+      <c r="C416" t="n">
+        <v>1062.0</v>
+      </c>
+      <c r="D416" t="n">
+        <v>0.04684191954834157</v>
+      </c>
+      <c r="E416" t="n">
+        <v>265.0</v>
+      </c>
+      <c r="F416" t="n">
+        <v>0.4003021148036254</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n" s="2">
+        <v>44015.0</v>
+      </c>
+      <c r="B417" t="s">
+        <v>17</v>
+      </c>
+      <c r="C417" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="D417" t="n">
+        <v>0.004101976005645731</v>
+      </c>
+      <c r="E417" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F417" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n" s="2">
+        <v>44015.0</v>
+      </c>
+      <c r="B418" t="s">
+        <v>19</v>
+      </c>
+      <c r="C418" t="n">
+        <v>22672.0</v>
+      </c>
+      <c r="D418" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E418" t="n">
+        <v>662.0</v>
+      </c>
+      <c r="F418" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n" s="2">
+        <v>44015.0</v>
+      </c>
+      <c r="B419" t="s">
+        <v>18</v>
+      </c>
+      <c r="C419" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="D419" t="n">
+        <v>5.733944954128441E-4</v>
+      </c>
+      <c r="E419" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F419" t="n">
+        <v>0.0030211480362537764</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -10166,6 +10446,86 @@
         <v>0.04229607250755287</v>
       </c>
     </row>
+    <row r="96">
+      <c r="A96" t="n" s="4">
+        <v>44015.0</v>
+      </c>
+      <c r="B96" t="s">
+        <v>20</v>
+      </c>
+      <c r="C96" t="n">
+        <v>10965.0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.48363620324629497</v>
+      </c>
+      <c r="E96" t="n">
+        <v>271.0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.4093655589123867</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n" s="4">
+        <v>44015.0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>21</v>
+      </c>
+      <c r="C97" t="n">
+        <v>11496.0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.5070571630204658</v>
+      </c>
+      <c r="E97" t="n">
+        <v>363.0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.5483383685800605</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n" s="4">
+        <v>44015.0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C98" t="n">
+        <v>22672.0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>662.0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n" s="4">
+        <v>44015.0</v>
+      </c>
+      <c r="B99" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" t="n">
+        <v>211.0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.009306633733239238</v>
+      </c>
+      <c r="E99" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.04229607250755287</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -13939,6 +14299,146 @@
         <v>0.40634441087613293</v>
       </c>
     </row>
+    <row r="189">
+      <c r="A189" t="n" s="6">
+        <v>44015.0</v>
+      </c>
+      <c r="B189" t="s">
+        <v>22</v>
+      </c>
+      <c r="C189" t="n">
+        <v>624.0</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.027522935779816515</v>
+      </c>
+      <c r="E189" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0.019637462235649546</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n" s="6">
+        <v>44015.0</v>
+      </c>
+      <c r="B190" t="s">
+        <v>23</v>
+      </c>
+      <c r="C190" t="n">
+        <v>2672.0</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.11785462244177841</v>
+      </c>
+      <c r="E190" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.1283987915407855</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n" s="6">
+        <v>44015.0</v>
+      </c>
+      <c r="B191" t="s">
+        <v>24</v>
+      </c>
+      <c r="C191" t="n">
+        <v>8525.0</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.37601446718419196</v>
+      </c>
+      <c r="E191" t="n">
+        <v>171.0</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.2583081570996979</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n" s="6">
+        <v>44015.0</v>
+      </c>
+      <c r="B192" t="s">
+        <v>25</v>
+      </c>
+      <c r="C192" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.00529287226534933</v>
+      </c>
+      <c r="E192" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0.0075528700906344415</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n" s="6">
+        <v>44015.0</v>
+      </c>
+      <c r="B193" t="s">
+        <v>19</v>
+      </c>
+      <c r="C193" t="n">
+        <v>22672.0</v>
+      </c>
+      <c r="D193" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E193" t="n">
+        <v>662.0</v>
+      </c>
+      <c r="F193" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n" s="6">
+        <v>44015.0</v>
+      </c>
+      <c r="B194" t="s">
+        <v>18</v>
+      </c>
+      <c r="C194" t="n">
+        <v>4893.0</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.2158168666196189</v>
+      </c>
+      <c r="E194" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0.1797583081570997</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n" s="6">
+        <v>44015.0</v>
+      </c>
+      <c r="B195" t="s">
+        <v>26</v>
+      </c>
+      <c r="C195" t="n">
+        <v>5838.0</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.2574982357092449</v>
+      </c>
+      <c r="E195" t="n">
+        <v>269.0</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0.40634441087613293</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -8533,6 +8533,286 @@
         <v>0.0030211480362537764</v>
       </c>
     </row>
+    <row r="420">
+      <c r="A420" t="n" s="2">
+        <v>44016.0</v>
+      </c>
+      <c r="B420" t="s">
+        <v>6</v>
+      </c>
+      <c r="C420" t="n">
+        <v>405.0</v>
+      </c>
+      <c r="D420" t="n">
+        <v>0.017560594892251657</v>
+      </c>
+      <c r="E420" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F420" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n" s="2">
+        <v>44016.0</v>
+      </c>
+      <c r="B421" t="s">
+        <v>7</v>
+      </c>
+      <c r="C421" t="n">
+        <v>1069.0</v>
+      </c>
+      <c r="D421" t="n">
+        <v>0.046351298616832154</v>
+      </c>
+      <c r="E421" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F421" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n" s="2">
+        <v>44016.0</v>
+      </c>
+      <c r="B422" t="s">
+        <v>8</v>
+      </c>
+      <c r="C422" t="n">
+        <v>4097.0</v>
+      </c>
+      <c r="D422" t="n">
+        <v>0.177643845119889</v>
+      </c>
+      <c r="E422" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F422" t="n">
+        <v>0.005891016200294551</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n" s="2">
+        <v>44016.0</v>
+      </c>
+      <c r="B423" t="s">
+        <v>9</v>
+      </c>
+      <c r="C423" t="n">
+        <v>4263.0</v>
+      </c>
+      <c r="D423" t="n">
+        <v>0.18484152105103413</v>
+      </c>
+      <c r="E423" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F423" t="n">
+        <v>0.014727540500736377</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n" s="2">
+        <v>44016.0</v>
+      </c>
+      <c r="B424" t="s">
+        <v>10</v>
+      </c>
+      <c r="C424" t="n">
+        <v>4153.0</v>
+      </c>
+      <c r="D424" t="n">
+        <v>0.18007197675931144</v>
+      </c>
+      <c r="E424" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F424" t="n">
+        <v>0.036818851251840944</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n" s="2">
+        <v>44016.0</v>
+      </c>
+      <c r="B425" t="s">
+        <v>11</v>
+      </c>
+      <c r="C425" t="n">
+        <v>3905.0</v>
+      </c>
+      <c r="D425" t="n">
+        <v>0.1693188223561549</v>
+      </c>
+      <c r="E425" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="F425" t="n">
+        <v>0.10603829160530191</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n" s="2">
+        <v>44016.0</v>
+      </c>
+      <c r="B426" t="s">
+        <v>12</v>
+      </c>
+      <c r="C426" t="n">
+        <v>1571.0</v>
+      </c>
+      <c r="D426" t="n">
+        <v>0.06811776438451199</v>
+      </c>
+      <c r="E426" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="F426" t="n">
+        <v>0.10309278350515463</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n" s="2">
+        <v>44016.0</v>
+      </c>
+      <c r="B427" t="s">
+        <v>13</v>
+      </c>
+      <c r="C427" t="n">
+        <v>1142.0</v>
+      </c>
+      <c r="D427" t="n">
+        <v>0.04951654164679357</v>
+      </c>
+      <c r="E427" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="F427" t="n">
+        <v>0.11045655375552282</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n" s="2">
+        <v>44016.0</v>
+      </c>
+      <c r="B428" t="s">
+        <v>14</v>
+      </c>
+      <c r="C428" t="n">
+        <v>730.0</v>
+      </c>
+      <c r="D428" t="n">
+        <v>0.0316524302996141</v>
+      </c>
+      <c r="E428" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="F428" t="n">
+        <v>0.10456553755522828</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n" s="2">
+        <v>44016.0</v>
+      </c>
+      <c r="B429" t="s">
+        <v>15</v>
+      </c>
+      <c r="C429" t="n">
+        <v>553.0</v>
+      </c>
+      <c r="D429" t="n">
+        <v>0.023977799939296707</v>
+      </c>
+      <c r="E429" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="F429" t="n">
+        <v>0.11192930780559647</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n" s="2">
+        <v>44016.0</v>
+      </c>
+      <c r="B430" t="s">
+        <v>16</v>
+      </c>
+      <c r="C430" t="n">
+        <v>1067.0</v>
+      </c>
+      <c r="D430" t="n">
+        <v>0.04626457962970992</v>
+      </c>
+      <c r="E430" t="n">
+        <v>276.0</v>
+      </c>
+      <c r="F430" t="n">
+        <v>0.406480117820324</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n" s="2">
+        <v>44016.0</v>
+      </c>
+      <c r="B431" t="s">
+        <v>17</v>
+      </c>
+      <c r="C431" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="D431" t="n">
+        <v>0.00407579239474483</v>
+      </c>
+      <c r="E431" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F431" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n" s="2">
+        <v>44016.0</v>
+      </c>
+      <c r="B432" t="s">
+        <v>19</v>
+      </c>
+      <c r="C432" t="n">
+        <v>23063.0</v>
+      </c>
+      <c r="D432" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E432" t="n">
+        <v>679.0</v>
+      </c>
+      <c r="F432" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n" s="2">
+        <v>44016.0</v>
+      </c>
+      <c r="B433" t="s">
+        <v>18</v>
+      </c>
+      <c r="C433" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D433" t="n">
+        <v>6.070329098556129E-4</v>
+      </c>
+      <c r="E433" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F433" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -10526,6 +10806,86 @@
         <v>0.04229607250755287</v>
       </c>
     </row>
+    <row r="100">
+      <c r="A100" t="n" s="4">
+        <v>44016.0</v>
+      </c>
+      <c r="B100" t="s">
+        <v>20</v>
+      </c>
+      <c r="C100" t="n">
+        <v>11161.0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.4839353076356068</v>
+      </c>
+      <c r="E100" t="n">
+        <v>285.0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.41973490427098675</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n" s="4">
+        <v>44016.0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>21</v>
+      </c>
+      <c r="C101" t="n">
+        <v>11687.0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.5067424012487534</v>
+      </c>
+      <c r="E101" t="n">
+        <v>391.0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.5758468335787923</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n" s="4">
+        <v>44016.0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>19</v>
+      </c>
+      <c r="C102" t="n">
+        <v>23063.0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>679.0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n" s="4">
+        <v>44016.0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>18</v>
+      </c>
+      <c r="C103" t="n">
+        <v>215.0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.009322291115639769</v>
+      </c>
+      <c r="E103" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.004418262150220913</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -14439,6 +14799,146 @@
         <v>0.40634441087613293</v>
       </c>
     </row>
+    <row r="196">
+      <c r="A196" t="n" s="6">
+        <v>44016.0</v>
+      </c>
+      <c r="B196" t="s">
+        <v>22</v>
+      </c>
+      <c r="C196" t="n">
+        <v>628.0</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.027229761956380348</v>
+      </c>
+      <c r="E196" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0.020618556701030927</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n" s="6">
+        <v>44016.0</v>
+      </c>
+      <c r="B197" t="s">
+        <v>23</v>
+      </c>
+      <c r="C197" t="n">
+        <v>2700.0</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.11707063261501105</v>
+      </c>
+      <c r="E197" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0.12812960235640647</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n" s="6">
+        <v>44016.0</v>
+      </c>
+      <c r="B198" t="s">
+        <v>24</v>
+      </c>
+      <c r="C198" t="n">
+        <v>8780.0</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.38069635346659153</v>
+      </c>
+      <c r="E198" t="n">
+        <v>195.0</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0.28718703976435933</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n" s="6">
+        <v>44016.0</v>
+      </c>
+      <c r="B199" t="s">
+        <v>25</v>
+      </c>
+      <c r="C199" t="n">
+        <v>121.0</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0.00524649872089494</v>
+      </c>
+      <c r="E199" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0.0014727540500736377</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n" s="6">
+        <v>44016.0</v>
+      </c>
+      <c r="B200" t="s">
+        <v>19</v>
+      </c>
+      <c r="C200" t="n">
+        <v>23063.0</v>
+      </c>
+      <c r="D200" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E200" t="n">
+        <v>679.0</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n" s="6">
+        <v>44016.0</v>
+      </c>
+      <c r="B201" t="s">
+        <v>18</v>
+      </c>
+      <c r="C201" t="n">
+        <v>4942.0</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.21428261717903135</v>
+      </c>
+      <c r="E201" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0.1251840942562592</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n" s="6">
+        <v>44016.0</v>
+      </c>
+      <c r="B202" t="s">
+        <v>26</v>
+      </c>
+      <c r="C202" t="n">
+        <v>5892.0</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0.2554741360620908</v>
+      </c>
+      <c r="E202" t="n">
+        <v>297.0</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0.4374079528718704</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -8813,6 +8813,286 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="434">
+      <c r="A434" t="n" s="2">
+        <v>44017.0</v>
+      </c>
+      <c r="B434" t="s">
+        <v>6</v>
+      </c>
+      <c r="C434" t="n">
+        <v>408.0</v>
+      </c>
+      <c r="D434" t="n">
+        <v>0.017637141745558294</v>
+      </c>
+      <c r="E434" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F434" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n" s="2">
+        <v>44017.0</v>
+      </c>
+      <c r="B435" t="s">
+        <v>7</v>
+      </c>
+      <c r="C435" t="n">
+        <v>1077.0</v>
+      </c>
+      <c r="D435" t="n">
+        <v>0.04655686681364285</v>
+      </c>
+      <c r="E435" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F435" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n" s="2">
+        <v>44017.0</v>
+      </c>
+      <c r="B436" t="s">
+        <v>8</v>
+      </c>
+      <c r="C436" t="n">
+        <v>4111.0</v>
+      </c>
+      <c r="D436" t="n">
+        <v>0.17771149440193662</v>
+      </c>
+      <c r="E436" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F436" t="n">
+        <v>0.0058823529411764705</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n" s="2">
+        <v>44017.0</v>
+      </c>
+      <c r="B437" t="s">
+        <v>9</v>
+      </c>
+      <c r="C437" t="n">
+        <v>4274.0</v>
+      </c>
+      <c r="D437" t="n">
+        <v>0.18475770544244152</v>
+      </c>
+      <c r="E437" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="F437" t="n">
+        <v>0.016176470588235296</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n" s="2">
+        <v>44017.0</v>
+      </c>
+      <c r="B438" t="s">
+        <v>10</v>
+      </c>
+      <c r="C438" t="n">
+        <v>4166.0</v>
+      </c>
+      <c r="D438" t="n">
+        <v>0.18008905027449965</v>
+      </c>
+      <c r="E438" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F438" t="n">
+        <v>0.03676470588235294</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n" s="2">
+        <v>44017.0</v>
+      </c>
+      <c r="B439" t="s">
+        <v>11</v>
+      </c>
+      <c r="C439" t="n">
+        <v>3914.0</v>
+      </c>
+      <c r="D439" t="n">
+        <v>0.16919552154930187</v>
+      </c>
+      <c r="E439" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="F439" t="n">
+        <v>0.10588235294117647</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n" s="2">
+        <v>44017.0</v>
+      </c>
+      <c r="B440" t="s">
+        <v>12</v>
+      </c>
+      <c r="C440" t="n">
+        <v>1575.0</v>
+      </c>
+      <c r="D440" t="n">
+        <v>0.06808455453248606</v>
+      </c>
+      <c r="E440" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="F440" t="n">
+        <v>0.10294117647058823</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n" s="2">
+        <v>44017.0</v>
+      </c>
+      <c r="B441" t="s">
+        <v>13</v>
+      </c>
+      <c r="C441" t="n">
+        <v>1143.0</v>
+      </c>
+      <c r="D441" t="n">
+        <v>0.04940993386071845</v>
+      </c>
+      <c r="E441" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="F441" t="n">
+        <v>0.11029411764705882</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n" s="2">
+        <v>44017.0</v>
+      </c>
+      <c r="B442" t="s">
+        <v>14</v>
+      </c>
+      <c r="C442" t="n">
+        <v>732.0</v>
+      </c>
+      <c r="D442" t="n">
+        <v>0.031643107249383996</v>
+      </c>
+      <c r="E442" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="F442" t="n">
+        <v>0.10441176470588236</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n" s="2">
+        <v>44017.0</v>
+      </c>
+      <c r="B443" t="s">
+        <v>15</v>
+      </c>
+      <c r="C443" t="n">
+        <v>557.0</v>
+      </c>
+      <c r="D443" t="n">
+        <v>0.024078156745774435</v>
+      </c>
+      <c r="E443" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="F443" t="n">
+        <v>0.11176470588235295</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n" s="2">
+        <v>44017.0</v>
+      </c>
+      <c r="B444" t="s">
+        <v>16</v>
+      </c>
+      <c r="C444" t="n">
+        <v>1068.0</v>
+      </c>
+      <c r="D444" t="n">
+        <v>0.04616781221631436</v>
+      </c>
+      <c r="E444" t="n">
+        <v>276.0</v>
+      </c>
+      <c r="F444" t="n">
+        <v>0.40588235294117647</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n" s="2">
+        <v>44017.0</v>
+      </c>
+      <c r="B445" t="s">
+        <v>17</v>
+      </c>
+      <c r="C445" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="D445" t="n">
+        <v>0.0040634591276531365</v>
+      </c>
+      <c r="E445" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F445" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n" s="2">
+        <v>44017.0</v>
+      </c>
+      <c r="B446" t="s">
+        <v>19</v>
+      </c>
+      <c r="C446" t="n">
+        <v>23133.0</v>
+      </c>
+      <c r="D446" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E446" t="n">
+        <v>680.0</v>
+      </c>
+      <c r="F446" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n" s="2">
+        <v>44017.0</v>
+      </c>
+      <c r="B447" t="s">
+        <v>18</v>
+      </c>
+      <c r="C447" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D447" t="n">
+        <v>6.05196040288765E-4</v>
+      </c>
+      <c r="E447" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F447" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -10886,6 +11166,86 @@
         <v>0.004418262150220913</v>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" t="n" s="4">
+        <v>44017.0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>20</v>
+      </c>
+      <c r="C104" t="n">
+        <v>11194.0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.48389746249945964</v>
+      </c>
+      <c r="E104" t="n">
+        <v>285.0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.41911764705882354</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n" s="4">
+        <v>44017.0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>21</v>
+      </c>
+      <c r="C105" t="n">
+        <v>11727.0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.5069381403190247</v>
+      </c>
+      <c r="E105" t="n">
+        <v>392.0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.5764705882352941</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n" s="4">
+        <v>44017.0</v>
+      </c>
+      <c r="B106" t="s">
+        <v>19</v>
+      </c>
+      <c r="C106" t="n">
+        <v>23133.0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>680.0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n" s="4">
+        <v>44017.0</v>
+      </c>
+      <c r="B107" t="s">
+        <v>18</v>
+      </c>
+      <c r="C107" t="n">
+        <v>212.0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.009164397181515583</v>
+      </c>
+      <c r="E107" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.004411764705882353</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -14939,6 +15299,146 @@
         <v>0.4374079528718704</v>
       </c>
     </row>
+    <row r="203">
+      <c r="A203" t="n" s="6">
+        <v>44017.0</v>
+      </c>
+      <c r="B203" t="s">
+        <v>22</v>
+      </c>
+      <c r="C203" t="n">
+        <v>629.0</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0.027190593524402368</v>
+      </c>
+      <c r="E203" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0.020588235294117647</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n" s="6">
+        <v>44017.0</v>
+      </c>
+      <c r="B204" t="s">
+        <v>23</v>
+      </c>
+      <c r="C204" t="n">
+        <v>2710.0</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0.11714866208446807</v>
+      </c>
+      <c r="E204" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.12794117647058822</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n" s="6">
+        <v>44017.0</v>
+      </c>
+      <c r="B205" t="s">
+        <v>24</v>
+      </c>
+      <c r="C205" t="n">
+        <v>8840.0</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0.382138071153763</v>
+      </c>
+      <c r="E205" t="n">
+        <v>195.0</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0.2867647058823529</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n" s="6">
+        <v>44017.0</v>
+      </c>
+      <c r="B206" t="s">
+        <v>25</v>
+      </c>
+      <c r="C206" t="n">
+        <v>121.0</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0.005230622919638612</v>
+      </c>
+      <c r="E206" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0.0014705882352941176</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n" s="6">
+        <v>44017.0</v>
+      </c>
+      <c r="B207" t="s">
+        <v>19</v>
+      </c>
+      <c r="C207" t="n">
+        <v>23133.0</v>
+      </c>
+      <c r="D207" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E207" t="n">
+        <v>680.0</v>
+      </c>
+      <c r="F207" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n" s="6">
+        <v>44017.0</v>
+      </c>
+      <c r="B208" t="s">
+        <v>18</v>
+      </c>
+      <c r="C208" t="n">
+        <v>4931.0</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0.21315869104742144</v>
+      </c>
+      <c r="E208" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n" s="6">
+        <v>44017.0</v>
+      </c>
+      <c r="B209" t="s">
+        <v>26</v>
+      </c>
+      <c r="C209" t="n">
+        <v>5902.0</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0.2551333592703065</v>
+      </c>
+      <c r="E209" t="n">
+        <v>298.0</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0.43823529411764706</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -9093,6 +9093,286 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="448">
+      <c r="A448" t="n" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B448" t="s">
+        <v>6</v>
+      </c>
+      <c r="C448" t="n">
+        <v>415.0</v>
+      </c>
+      <c r="D448" t="n">
+        <v>0.01785560623010068</v>
+      </c>
+      <c r="E448" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F448" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B449" t="s">
+        <v>7</v>
+      </c>
+      <c r="C449" t="n">
+        <v>1092.0</v>
+      </c>
+      <c r="D449" t="n">
+        <v>0.04698390844161432</v>
+      </c>
+      <c r="E449" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F449" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B450" t="s">
+        <v>8</v>
+      </c>
+      <c r="C450" t="n">
+        <v>4139.0</v>
+      </c>
+      <c r="D450" t="n">
+        <v>0.17808278117201617</v>
+      </c>
+      <c r="E450" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F450" t="n">
+        <v>0.0058823529411764705</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B451" t="s">
+        <v>9</v>
+      </c>
+      <c r="C451" t="n">
+        <v>4297.0</v>
+      </c>
+      <c r="D451" t="n">
+        <v>0.18488081920660873</v>
+      </c>
+      <c r="E451" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="F451" t="n">
+        <v>0.016176470588235296</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B452" t="s">
+        <v>10</v>
+      </c>
+      <c r="C452" t="n">
+        <v>4179.0</v>
+      </c>
+      <c r="D452" t="n">
+        <v>0.17980380345925479</v>
+      </c>
+      <c r="E452" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F452" t="n">
+        <v>0.03676470588235294</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B453" t="s">
+        <v>11</v>
+      </c>
+      <c r="C453" t="n">
+        <v>3926.0</v>
+      </c>
+      <c r="D453" t="n">
+        <v>0.16891833749247054</v>
+      </c>
+      <c r="E453" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="F453" t="n">
+        <v>0.10588235294117647</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B454" t="s">
+        <v>12</v>
+      </c>
+      <c r="C454" t="n">
+        <v>1576.0</v>
+      </c>
+      <c r="D454" t="n">
+        <v>0.06780827811720162</v>
+      </c>
+      <c r="E454" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="F454" t="n">
+        <v>0.10294117647058823</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B455" t="s">
+        <v>13</v>
+      </c>
+      <c r="C455" t="n">
+        <v>1145.0</v>
+      </c>
+      <c r="D455" t="n">
+        <v>0.04926426297220549</v>
+      </c>
+      <c r="E455" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="F455" t="n">
+        <v>0.11029411764705882</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B456" t="s">
+        <v>14</v>
+      </c>
+      <c r="C456" t="n">
+        <v>736.0</v>
+      </c>
+      <c r="D456" t="n">
+        <v>0.0316668100851906</v>
+      </c>
+      <c r="E456" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="F456" t="n">
+        <v>0.10441176470588236</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B457" t="s">
+        <v>15</v>
+      </c>
+      <c r="C457" t="n">
+        <v>560.0</v>
+      </c>
+      <c r="D457" t="n">
+        <v>0.024094312021340675</v>
+      </c>
+      <c r="E457" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="F457" t="n">
+        <v>0.11176470588235295</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B458" t="s">
+        <v>16</v>
+      </c>
+      <c r="C458" t="n">
+        <v>1068.0</v>
+      </c>
+      <c r="D458" t="n">
+        <v>0.04595129506927115</v>
+      </c>
+      <c r="E458" t="n">
+        <v>276.0</v>
+      </c>
+      <c r="F458" t="n">
+        <v>0.40588235294117647</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B459" t="s">
+        <v>17</v>
+      </c>
+      <c r="C459" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="D459" t="n">
+        <v>0.004087427932191722</v>
+      </c>
+      <c r="E459" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F459" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B460" t="s">
+        <v>19</v>
+      </c>
+      <c r="C460" t="n">
+        <v>23242.0</v>
+      </c>
+      <c r="D460" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E460" t="n">
+        <v>680.0</v>
+      </c>
+      <c r="F460" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B461" t="s">
+        <v>18</v>
+      </c>
+      <c r="C461" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D461" t="n">
+        <v>6.02357800533517E-4</v>
+      </c>
+      <c r="E461" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F461" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -11246,6 +11526,86 @@
         <v>0.004411764705882353</v>
       </c>
     </row>
+    <row r="108">
+      <c r="A108" t="n" s="4">
+        <v>44018.0</v>
+      </c>
+      <c r="B108" t="s">
+        <v>20</v>
+      </c>
+      <c r="C108" t="n">
+        <v>11250.0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.4840375182858618</v>
+      </c>
+      <c r="E108" t="n">
+        <v>285.0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.41911764705882354</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n" s="4">
+        <v>44018.0</v>
+      </c>
+      <c r="B109" t="s">
+        <v>21</v>
+      </c>
+      <c r="C109" t="n">
+        <v>11778.0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.5067550124774116</v>
+      </c>
+      <c r="E109" t="n">
+        <v>392.0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.5764705882352941</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n" s="4">
+        <v>44018.0</v>
+      </c>
+      <c r="B110" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110" t="n">
+        <v>23242.0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>680.0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n" s="4">
+        <v>44018.0</v>
+      </c>
+      <c r="B111" t="s">
+        <v>18</v>
+      </c>
+      <c r="C111" t="n">
+        <v>214.0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.009207469236726615</v>
+      </c>
+      <c r="E111" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.004411764705882353</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -15439,6 +15799,146 @@
         <v>0.43823529411764706</v>
       </c>
     </row>
+    <row r="210">
+      <c r="A210" t="n" s="6">
+        <v>44018.0</v>
+      </c>
+      <c r="B210" t="s">
+        <v>22</v>
+      </c>
+      <c r="C210" t="n">
+        <v>629.0</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0.027063075466827295</v>
+      </c>
+      <c r="E210" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0.020588235294117647</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n" s="6">
+        <v>44018.0</v>
+      </c>
+      <c r="B211" t="s">
+        <v>23</v>
+      </c>
+      <c r="C211" t="n">
+        <v>2721.0</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0.11707254108940711</v>
+      </c>
+      <c r="E211" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0.12794117647058822</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n" s="6">
+        <v>44018.0</v>
+      </c>
+      <c r="B212" t="s">
+        <v>24</v>
+      </c>
+      <c r="C212" t="n">
+        <v>8907.0</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0.38322863781085964</v>
+      </c>
+      <c r="E212" t="n">
+        <v>195.0</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0.2867647058823529</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n" s="6">
+        <v>44018.0</v>
+      </c>
+      <c r="B213" t="s">
+        <v>25</v>
+      </c>
+      <c r="C213" t="n">
+        <v>121.0</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0.005206092418896825</v>
+      </c>
+      <c r="E213" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0.0014705882352941176</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n" s="6">
+        <v>44018.0</v>
+      </c>
+      <c r="B214" t="s">
+        <v>19</v>
+      </c>
+      <c r="C214" t="n">
+        <v>23242.0</v>
+      </c>
+      <c r="D214" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E214" t="n">
+        <v>680.0</v>
+      </c>
+      <c r="F214" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n" s="6">
+        <v>44018.0</v>
+      </c>
+      <c r="B215" t="s">
+        <v>18</v>
+      </c>
+      <c r="C215" t="n">
+        <v>4939.0</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0.21250322691678858</v>
+      </c>
+      <c r="E215" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="F215" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n" s="6">
+        <v>44018.0</v>
+      </c>
+      <c r="B216" t="s">
+        <v>26</v>
+      </c>
+      <c r="C216" t="n">
+        <v>5925.0</v>
+      </c>
+      <c r="D216" t="n">
+        <v>0.25492642629722057</v>
+      </c>
+      <c r="E216" t="n">
+        <v>298.0</v>
+      </c>
+      <c r="F216" t="n">
+        <v>0.43823529411764706</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -9118,13 +9118,13 @@
         <v>44018.0</v>
       </c>
       <c r="B449" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C449" t="n">
-        <v>1092.0</v>
+        <v>415.0</v>
       </c>
       <c r="D449" t="n">
-        <v>0.04698390844161432</v>
+        <v>0.01785560623010068</v>
       </c>
       <c r="E449" t="n">
         <v>0.0</v>
@@ -9138,19 +9138,19 @@
         <v>44018.0</v>
       </c>
       <c r="B450" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C450" t="n">
-        <v>4139.0</v>
+        <v>415.0</v>
       </c>
       <c r="D450" t="n">
-        <v>0.17808278117201617</v>
+        <v>0.01785560623010068</v>
       </c>
       <c r="E450" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="F450" t="n">
-        <v>0.0058823529411764705</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="451">
@@ -9158,19 +9158,19 @@
         <v>44018.0</v>
       </c>
       <c r="B451" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C451" t="n">
-        <v>4297.0</v>
+        <v>415.0</v>
       </c>
       <c r="D451" t="n">
-        <v>0.18488081920660873</v>
+        <v>0.01785560623010068</v>
       </c>
       <c r="E451" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c r="F451" t="n">
-        <v>0.016176470588235296</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="452">
@@ -9178,19 +9178,19 @@
         <v>44018.0</v>
       </c>
       <c r="B452" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C452" t="n">
-        <v>4179.0</v>
+        <v>1092.0</v>
       </c>
       <c r="D452" t="n">
-        <v>0.17980380345925479</v>
+        <v>0.04698390844161432</v>
       </c>
       <c r="E452" t="n">
-        <v>25.0</v>
+        <v>0.0</v>
       </c>
       <c r="F452" t="n">
-        <v>0.03676470588235294</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="453">
@@ -9198,19 +9198,19 @@
         <v>44018.0</v>
       </c>
       <c r="B453" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C453" t="n">
-        <v>3926.0</v>
+        <v>1092.0</v>
       </c>
       <c r="D453" t="n">
-        <v>0.16891833749247054</v>
+        <v>0.04698390844161432</v>
       </c>
       <c r="E453" t="n">
-        <v>72.0</v>
+        <v>0.0</v>
       </c>
       <c r="F453" t="n">
-        <v>0.10588235294117647</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="454">
@@ -9218,19 +9218,19 @@
         <v>44018.0</v>
       </c>
       <c r="B454" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C454" t="n">
-        <v>1576.0</v>
+        <v>1092.0</v>
       </c>
       <c r="D454" t="n">
-        <v>0.06780827811720162</v>
+        <v>0.04698390844161432</v>
       </c>
       <c r="E454" t="n">
-        <v>70.0</v>
+        <v>0.0</v>
       </c>
       <c r="F454" t="n">
-        <v>0.10294117647058823</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="455">
@@ -9238,19 +9238,19 @@
         <v>44018.0</v>
       </c>
       <c r="B455" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C455" t="n">
-        <v>1145.0</v>
+        <v>1092.0</v>
       </c>
       <c r="D455" t="n">
-        <v>0.04926426297220549</v>
+        <v>0.04698390844161432</v>
       </c>
       <c r="E455" t="n">
-        <v>75.0</v>
+        <v>0.0</v>
       </c>
       <c r="F455" t="n">
-        <v>0.11029411764705882</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="456">
@@ -9258,19 +9258,19 @@
         <v>44018.0</v>
       </c>
       <c r="B456" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C456" t="n">
-        <v>736.0</v>
+        <v>4139.0</v>
       </c>
       <c r="D456" t="n">
-        <v>0.0316668100851906</v>
+        <v>0.17808278117201617</v>
       </c>
       <c r="E456" t="n">
-        <v>71.0</v>
+        <v>4.0</v>
       </c>
       <c r="F456" t="n">
-        <v>0.10441176470588236</v>
+        <v>0.0058823529411764705</v>
       </c>
     </row>
     <row r="457">
@@ -9278,19 +9278,19 @@
         <v>44018.0</v>
       </c>
       <c r="B457" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C457" t="n">
-        <v>560.0</v>
+        <v>4139.0</v>
       </c>
       <c r="D457" t="n">
-        <v>0.024094312021340675</v>
+        <v>0.17808278117201617</v>
       </c>
       <c r="E457" t="n">
-        <v>76.0</v>
+        <v>4.0</v>
       </c>
       <c r="F457" t="n">
-        <v>0.11176470588235295</v>
+        <v>0.0058823529411764705</v>
       </c>
     </row>
     <row r="458">
@@ -9298,19 +9298,19 @@
         <v>44018.0</v>
       </c>
       <c r="B458" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C458" t="n">
-        <v>1068.0</v>
+        <v>4139.0</v>
       </c>
       <c r="D458" t="n">
-        <v>0.04595129506927115</v>
+        <v>0.17808278117201617</v>
       </c>
       <c r="E458" t="n">
-        <v>276.0</v>
+        <v>4.0</v>
       </c>
       <c r="F458" t="n">
-        <v>0.40588235294117647</v>
+        <v>0.0058823529411764705</v>
       </c>
     </row>
     <row r="459">
@@ -9318,19 +9318,19 @@
         <v>44018.0</v>
       </c>
       <c r="B459" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C459" t="n">
-        <v>95.0</v>
+        <v>4139.0</v>
       </c>
       <c r="D459" t="n">
-        <v>0.004087427932191722</v>
+        <v>0.17808278117201617</v>
       </c>
       <c r="E459" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="F459" t="n">
-        <v>0.0</v>
+        <v>0.0058823529411764705</v>
       </c>
     </row>
     <row r="460">
@@ -9338,19 +9338,19 @@
         <v>44018.0</v>
       </c>
       <c r="B460" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C460" t="n">
-        <v>23242.0</v>
+        <v>4297.0</v>
       </c>
       <c r="D460" t="n">
-        <v>1.0</v>
+        <v>0.18488081920660873</v>
       </c>
       <c r="E460" t="n">
-        <v>680.0</v>
+        <v>11.0</v>
       </c>
       <c r="F460" t="n">
-        <v>1.0</v>
+        <v>0.016176470588235296</v>
       </c>
     </row>
     <row r="461">
@@ -9358,18 +9358,858 @@
         <v>44018.0</v>
       </c>
       <c r="B461" t="s">
+        <v>9</v>
+      </c>
+      <c r="C461" t="n">
+        <v>4297.0</v>
+      </c>
+      <c r="D461" t="n">
+        <v>0.18488081920660873</v>
+      </c>
+      <c r="E461" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="F461" t="n">
+        <v>0.016176470588235296</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B462" t="s">
+        <v>9</v>
+      </c>
+      <c r="C462" t="n">
+        <v>4297.0</v>
+      </c>
+      <c r="D462" t="n">
+        <v>0.18488081920660873</v>
+      </c>
+      <c r="E462" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="F462" t="n">
+        <v>0.016176470588235296</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B463" t="s">
+        <v>9</v>
+      </c>
+      <c r="C463" t="n">
+        <v>4297.0</v>
+      </c>
+      <c r="D463" t="n">
+        <v>0.18488081920660873</v>
+      </c>
+      <c r="E463" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="F463" t="n">
+        <v>0.016176470588235296</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B464" t="s">
+        <v>10</v>
+      </c>
+      <c r="C464" t="n">
+        <v>4179.0</v>
+      </c>
+      <c r="D464" t="n">
+        <v>0.17980380345925479</v>
+      </c>
+      <c r="E464" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F464" t="n">
+        <v>0.03676470588235294</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B465" t="s">
+        <v>10</v>
+      </c>
+      <c r="C465" t="n">
+        <v>4179.0</v>
+      </c>
+      <c r="D465" t="n">
+        <v>0.17980380345925479</v>
+      </c>
+      <c r="E465" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F465" t="n">
+        <v>0.03676470588235294</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B466" t="s">
+        <v>10</v>
+      </c>
+      <c r="C466" t="n">
+        <v>4179.0</v>
+      </c>
+      <c r="D466" t="n">
+        <v>0.17980380345925479</v>
+      </c>
+      <c r="E466" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F466" t="n">
+        <v>0.03676470588235294</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B467" t="s">
+        <v>10</v>
+      </c>
+      <c r="C467" t="n">
+        <v>4179.0</v>
+      </c>
+      <c r="D467" t="n">
+        <v>0.17980380345925479</v>
+      </c>
+      <c r="E467" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F467" t="n">
+        <v>0.03676470588235294</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B468" t="s">
+        <v>11</v>
+      </c>
+      <c r="C468" t="n">
+        <v>3926.0</v>
+      </c>
+      <c r="D468" t="n">
+        <v>0.16891833749247054</v>
+      </c>
+      <c r="E468" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="F468" t="n">
+        <v>0.10588235294117647</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B469" t="s">
+        <v>11</v>
+      </c>
+      <c r="C469" t="n">
+        <v>3926.0</v>
+      </c>
+      <c r="D469" t="n">
+        <v>0.16891833749247054</v>
+      </c>
+      <c r="E469" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="F469" t="n">
+        <v>0.10588235294117647</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B470" t="s">
+        <v>11</v>
+      </c>
+      <c r="C470" t="n">
+        <v>3926.0</v>
+      </c>
+      <c r="D470" t="n">
+        <v>0.16891833749247054</v>
+      </c>
+      <c r="E470" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="F470" t="n">
+        <v>0.10588235294117647</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B471" t="s">
+        <v>11</v>
+      </c>
+      <c r="C471" t="n">
+        <v>3926.0</v>
+      </c>
+      <c r="D471" t="n">
+        <v>0.16891833749247054</v>
+      </c>
+      <c r="E471" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="F471" t="n">
+        <v>0.10588235294117647</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B472" t="s">
+        <v>12</v>
+      </c>
+      <c r="C472" t="n">
+        <v>1576.0</v>
+      </c>
+      <c r="D472" t="n">
+        <v>0.06780827811720162</v>
+      </c>
+      <c r="E472" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="F472" t="n">
+        <v>0.10294117647058823</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B473" t="s">
+        <v>12</v>
+      </c>
+      <c r="C473" t="n">
+        <v>1576.0</v>
+      </c>
+      <c r="D473" t="n">
+        <v>0.06780827811720162</v>
+      </c>
+      <c r="E473" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="F473" t="n">
+        <v>0.10294117647058823</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B474" t="s">
+        <v>12</v>
+      </c>
+      <c r="C474" t="n">
+        <v>1576.0</v>
+      </c>
+      <c r="D474" t="n">
+        <v>0.06780827811720162</v>
+      </c>
+      <c r="E474" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="F474" t="n">
+        <v>0.10294117647058823</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B475" t="s">
+        <v>12</v>
+      </c>
+      <c r="C475" t="n">
+        <v>1576.0</v>
+      </c>
+      <c r="D475" t="n">
+        <v>0.06780827811720162</v>
+      </c>
+      <c r="E475" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="F475" t="n">
+        <v>0.10294117647058823</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B476" t="s">
+        <v>13</v>
+      </c>
+      <c r="C476" t="n">
+        <v>1145.0</v>
+      </c>
+      <c r="D476" t="n">
+        <v>0.04926426297220549</v>
+      </c>
+      <c r="E476" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="F476" t="n">
+        <v>0.11029411764705882</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B477" t="s">
+        <v>13</v>
+      </c>
+      <c r="C477" t="n">
+        <v>1145.0</v>
+      </c>
+      <c r="D477" t="n">
+        <v>0.04926426297220549</v>
+      </c>
+      <c r="E477" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="F477" t="n">
+        <v>0.11029411764705882</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B478" t="s">
+        <v>13</v>
+      </c>
+      <c r="C478" t="n">
+        <v>1145.0</v>
+      </c>
+      <c r="D478" t="n">
+        <v>0.04926426297220549</v>
+      </c>
+      <c r="E478" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="F478" t="n">
+        <v>0.11029411764705882</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B479" t="s">
+        <v>13</v>
+      </c>
+      <c r="C479" t="n">
+        <v>1145.0</v>
+      </c>
+      <c r="D479" t="n">
+        <v>0.04926426297220549</v>
+      </c>
+      <c r="E479" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="F479" t="n">
+        <v>0.11029411764705882</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B480" t="s">
+        <v>14</v>
+      </c>
+      <c r="C480" t="n">
+        <v>736.0</v>
+      </c>
+      <c r="D480" t="n">
+        <v>0.0316668100851906</v>
+      </c>
+      <c r="E480" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="F480" t="n">
+        <v>0.10441176470588236</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B481" t="s">
+        <v>14</v>
+      </c>
+      <c r="C481" t="n">
+        <v>736.0</v>
+      </c>
+      <c r="D481" t="n">
+        <v>0.0316668100851906</v>
+      </c>
+      <c r="E481" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="F481" t="n">
+        <v>0.10441176470588236</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B482" t="s">
+        <v>14</v>
+      </c>
+      <c r="C482" t="n">
+        <v>736.0</v>
+      </c>
+      <c r="D482" t="n">
+        <v>0.0316668100851906</v>
+      </c>
+      <c r="E482" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="F482" t="n">
+        <v>0.10441176470588236</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B483" t="s">
+        <v>14</v>
+      </c>
+      <c r="C483" t="n">
+        <v>736.0</v>
+      </c>
+      <c r="D483" t="n">
+        <v>0.0316668100851906</v>
+      </c>
+      <c r="E483" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="F483" t="n">
+        <v>0.10441176470588236</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B484" t="s">
+        <v>15</v>
+      </c>
+      <c r="C484" t="n">
+        <v>560.0</v>
+      </c>
+      <c r="D484" t="n">
+        <v>0.024094312021340675</v>
+      </c>
+      <c r="E484" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="F484" t="n">
+        <v>0.11176470588235295</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B485" t="s">
+        <v>15</v>
+      </c>
+      <c r="C485" t="n">
+        <v>560.0</v>
+      </c>
+      <c r="D485" t="n">
+        <v>0.024094312021340675</v>
+      </c>
+      <c r="E485" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="F485" t="n">
+        <v>0.11176470588235295</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B486" t="s">
+        <v>15</v>
+      </c>
+      <c r="C486" t="n">
+        <v>560.0</v>
+      </c>
+      <c r="D486" t="n">
+        <v>0.024094312021340675</v>
+      </c>
+      <c r="E486" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="F486" t="n">
+        <v>0.11176470588235295</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B487" t="s">
+        <v>15</v>
+      </c>
+      <c r="C487" t="n">
+        <v>560.0</v>
+      </c>
+      <c r="D487" t="n">
+        <v>0.024094312021340675</v>
+      </c>
+      <c r="E487" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="F487" t="n">
+        <v>0.11176470588235295</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B488" t="s">
+        <v>16</v>
+      </c>
+      <c r="C488" t="n">
+        <v>1068.0</v>
+      </c>
+      <c r="D488" t="n">
+        <v>0.04595129506927115</v>
+      </c>
+      <c r="E488" t="n">
+        <v>276.0</v>
+      </c>
+      <c r="F488" t="n">
+        <v>0.40588235294117647</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B489" t="s">
+        <v>16</v>
+      </c>
+      <c r="C489" t="n">
+        <v>1068.0</v>
+      </c>
+      <c r="D489" t="n">
+        <v>0.04595129506927115</v>
+      </c>
+      <c r="E489" t="n">
+        <v>276.0</v>
+      </c>
+      <c r="F489" t="n">
+        <v>0.40588235294117647</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B490" t="s">
+        <v>16</v>
+      </c>
+      <c r="C490" t="n">
+        <v>1068.0</v>
+      </c>
+      <c r="D490" t="n">
+        <v>0.04595129506927115</v>
+      </c>
+      <c r="E490" t="n">
+        <v>276.0</v>
+      </c>
+      <c r="F490" t="n">
+        <v>0.40588235294117647</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B491" t="s">
+        <v>16</v>
+      </c>
+      <c r="C491" t="n">
+        <v>1068.0</v>
+      </c>
+      <c r="D491" t="n">
+        <v>0.04595129506927115</v>
+      </c>
+      <c r="E491" t="n">
+        <v>276.0</v>
+      </c>
+      <c r="F491" t="n">
+        <v>0.40588235294117647</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B492" t="s">
+        <v>17</v>
+      </c>
+      <c r="C492" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="D492" t="n">
+        <v>0.004087427932191722</v>
+      </c>
+      <c r="E492" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F492" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B493" t="s">
+        <v>17</v>
+      </c>
+      <c r="C493" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="D493" t="n">
+        <v>0.004087427932191722</v>
+      </c>
+      <c r="E493" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F493" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B494" t="s">
+        <v>17</v>
+      </c>
+      <c r="C494" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="D494" t="n">
+        <v>0.004087427932191722</v>
+      </c>
+      <c r="E494" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F494" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B495" t="s">
+        <v>17</v>
+      </c>
+      <c r="C495" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="D495" t="n">
+        <v>0.004087427932191722</v>
+      </c>
+      <c r="E495" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F495" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B496" t="s">
+        <v>19</v>
+      </c>
+      <c r="C496" t="n">
+        <v>23242.0</v>
+      </c>
+      <c r="D496" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E496" t="n">
+        <v>680.0</v>
+      </c>
+      <c r="F496" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B497" t="s">
+        <v>19</v>
+      </c>
+      <c r="C497" t="n">
+        <v>23242.0</v>
+      </c>
+      <c r="D497" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E497" t="n">
+        <v>680.0</v>
+      </c>
+      <c r="F497" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B498" t="s">
+        <v>19</v>
+      </c>
+      <c r="C498" t="n">
+        <v>23242.0</v>
+      </c>
+      <c r="D498" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E498" t="n">
+        <v>680.0</v>
+      </c>
+      <c r="F498" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B499" t="s">
+        <v>19</v>
+      </c>
+      <c r="C499" t="n">
+        <v>23242.0</v>
+      </c>
+      <c r="D499" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E499" t="n">
+        <v>680.0</v>
+      </c>
+      <c r="F499" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B500" t="s">
         <v>18</v>
       </c>
-      <c r="C461" t="n">
+      <c r="C500" t="n">
         <v>14.0</v>
       </c>
-      <c r="D461" t="n">
+      <c r="D500" t="n">
         <v>6.02357800533517E-4</v>
       </c>
-      <c r="E461" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F461" t="n">
+      <c r="E500" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F500" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B501" t="s">
+        <v>18</v>
+      </c>
+      <c r="C501" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D501" t="n">
+        <v>6.02357800533517E-4</v>
+      </c>
+      <c r="E501" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F501" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B502" t="s">
+        <v>18</v>
+      </c>
+      <c r="C502" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D502" t="n">
+        <v>6.02357800533517E-4</v>
+      </c>
+      <c r="E502" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F502" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B503" t="s">
+        <v>18</v>
+      </c>
+      <c r="C503" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D503" t="n">
+        <v>6.02357800533517E-4</v>
+      </c>
+      <c r="E503" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F503" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -11551,19 +12391,19 @@
         <v>44018.0</v>
       </c>
       <c r="B109" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C109" t="n">
-        <v>11778.0</v>
+        <v>11250.0</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5067550124774116</v>
+        <v>0.4840375182858618</v>
       </c>
       <c r="E109" t="n">
-        <v>392.0</v>
+        <v>285.0</v>
       </c>
       <c r="F109" t="n">
-        <v>0.5764705882352941</v>
+        <v>0.41911764705882354</v>
       </c>
     </row>
     <row r="110">
@@ -11571,19 +12411,19 @@
         <v>44018.0</v>
       </c>
       <c r="B110" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C110" t="n">
-        <v>23242.0</v>
+        <v>11250.0</v>
       </c>
       <c r="D110" t="n">
-        <v>1.0</v>
+        <v>0.4840375182858618</v>
       </c>
       <c r="E110" t="n">
-        <v>680.0</v>
+        <v>285.0</v>
       </c>
       <c r="F110" t="n">
-        <v>1.0</v>
+        <v>0.41911764705882354</v>
       </c>
     </row>
     <row r="111">
@@ -11591,18 +12431,258 @@
         <v>44018.0</v>
       </c>
       <c r="B111" t="s">
+        <v>20</v>
+      </c>
+      <c r="C111" t="n">
+        <v>11250.0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.4840375182858618</v>
+      </c>
+      <c r="E111" t="n">
+        <v>285.0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.41911764705882354</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n" s="4">
+        <v>44018.0</v>
+      </c>
+      <c r="B112" t="s">
+        <v>21</v>
+      </c>
+      <c r="C112" t="n">
+        <v>11778.0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.5067550124774116</v>
+      </c>
+      <c r="E112" t="n">
+        <v>392.0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.5764705882352941</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n" s="4">
+        <v>44018.0</v>
+      </c>
+      <c r="B113" t="s">
+        <v>21</v>
+      </c>
+      <c r="C113" t="n">
+        <v>11778.0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.5067550124774116</v>
+      </c>
+      <c r="E113" t="n">
+        <v>392.0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.5764705882352941</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n" s="4">
+        <v>44018.0</v>
+      </c>
+      <c r="B114" t="s">
+        <v>21</v>
+      </c>
+      <c r="C114" t="n">
+        <v>11778.0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.5067550124774116</v>
+      </c>
+      <c r="E114" t="n">
+        <v>392.0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.5764705882352941</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n" s="4">
+        <v>44018.0</v>
+      </c>
+      <c r="B115" t="s">
+        <v>21</v>
+      </c>
+      <c r="C115" t="n">
+        <v>11778.0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.5067550124774116</v>
+      </c>
+      <c r="E115" t="n">
+        <v>392.0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.5764705882352941</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n" s="4">
+        <v>44018.0</v>
+      </c>
+      <c r="B116" t="s">
+        <v>19</v>
+      </c>
+      <c r="C116" t="n">
+        <v>23242.0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E116" t="n">
+        <v>680.0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n" s="4">
+        <v>44018.0</v>
+      </c>
+      <c r="B117" t="s">
+        <v>19</v>
+      </c>
+      <c r="C117" t="n">
+        <v>23242.0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>680.0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n" s="4">
+        <v>44018.0</v>
+      </c>
+      <c r="B118" t="s">
+        <v>19</v>
+      </c>
+      <c r="C118" t="n">
+        <v>23242.0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>680.0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n" s="4">
+        <v>44018.0</v>
+      </c>
+      <c r="B119" t="s">
+        <v>19</v>
+      </c>
+      <c r="C119" t="n">
+        <v>23242.0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>680.0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n" s="4">
+        <v>44018.0</v>
+      </c>
+      <c r="B120" t="s">
         <v>18</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C120" t="n">
         <v>214.0</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D120" t="n">
         <v>0.009207469236726615</v>
       </c>
-      <c r="E111" t="n">
+      <c r="E120" t="n">
         <v>3.0</v>
       </c>
-      <c r="F111" t="n">
+      <c r="F120" t="n">
+        <v>0.004411764705882353</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n" s="4">
+        <v>44018.0</v>
+      </c>
+      <c r="B121" t="s">
+        <v>18</v>
+      </c>
+      <c r="C121" t="n">
+        <v>214.0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.009207469236726615</v>
+      </c>
+      <c r="E121" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.004411764705882353</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n" s="4">
+        <v>44018.0</v>
+      </c>
+      <c r="B122" t="s">
+        <v>18</v>
+      </c>
+      <c r="C122" t="n">
+        <v>214.0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.009207469236726615</v>
+      </c>
+      <c r="E122" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.004411764705882353</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n" s="4">
+        <v>44018.0</v>
+      </c>
+      <c r="B123" t="s">
+        <v>18</v>
+      </c>
+      <c r="C123" t="n">
+        <v>214.0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.009207469236726615</v>
+      </c>
+      <c r="E123" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F123" t="n">
         <v>0.004411764705882353</v>
       </c>
     </row>
@@ -15824,19 +16904,19 @@
         <v>44018.0</v>
       </c>
       <c r="B211" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C211" t="n">
-        <v>2721.0</v>
+        <v>629.0</v>
       </c>
       <c r="D211" t="n">
-        <v>0.11707254108940711</v>
+        <v>0.027063075466827295</v>
       </c>
       <c r="E211" t="n">
-        <v>87.0</v>
+        <v>14.0</v>
       </c>
       <c r="F211" t="n">
-        <v>0.12794117647058822</v>
+        <v>0.020588235294117647</v>
       </c>
     </row>
     <row r="212">
@@ -15844,19 +16924,19 @@
         <v>44018.0</v>
       </c>
       <c r="B212" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C212" t="n">
-        <v>8907.0</v>
+        <v>629.0</v>
       </c>
       <c r="D212" t="n">
-        <v>0.38322863781085964</v>
+        <v>0.027063075466827295</v>
       </c>
       <c r="E212" t="n">
-        <v>195.0</v>
+        <v>14.0</v>
       </c>
       <c r="F212" t="n">
-        <v>0.2867647058823529</v>
+        <v>0.020588235294117647</v>
       </c>
     </row>
     <row r="213">
@@ -15864,19 +16944,19 @@
         <v>44018.0</v>
       </c>
       <c r="B213" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C213" t="n">
-        <v>121.0</v>
+        <v>629.0</v>
       </c>
       <c r="D213" t="n">
-        <v>0.005206092418896825</v>
+        <v>0.027063075466827295</v>
       </c>
       <c r="E213" t="n">
-        <v>1.0</v>
+        <v>14.0</v>
       </c>
       <c r="F213" t="n">
-        <v>0.0014705882352941176</v>
+        <v>0.020588235294117647</v>
       </c>
     </row>
     <row r="214">
@@ -15884,19 +16964,19 @@
         <v>44018.0</v>
       </c>
       <c r="B214" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C214" t="n">
-        <v>23242.0</v>
+        <v>2721.0</v>
       </c>
       <c r="D214" t="n">
-        <v>1.0</v>
+        <v>0.11707254108940711</v>
       </c>
       <c r="E214" t="n">
-        <v>680.0</v>
+        <v>87.0</v>
       </c>
       <c r="F214" t="n">
-        <v>1.0</v>
+        <v>0.12794117647058822</v>
       </c>
     </row>
     <row r="215">
@@ -15904,19 +16984,19 @@
         <v>44018.0</v>
       </c>
       <c r="B215" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C215" t="n">
-        <v>4939.0</v>
+        <v>2721.0</v>
       </c>
       <c r="D215" t="n">
-        <v>0.21250322691678858</v>
+        <v>0.11707254108940711</v>
       </c>
       <c r="E215" t="n">
-        <v>85.0</v>
+        <v>87.0</v>
       </c>
       <c r="F215" t="n">
-        <v>0.125</v>
+        <v>0.12794117647058822</v>
       </c>
     </row>
     <row r="216">
@@ -15924,18 +17004,438 @@
         <v>44018.0</v>
       </c>
       <c r="B216" t="s">
+        <v>23</v>
+      </c>
+      <c r="C216" t="n">
+        <v>2721.0</v>
+      </c>
+      <c r="D216" t="n">
+        <v>0.11707254108940711</v>
+      </c>
+      <c r="E216" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="F216" t="n">
+        <v>0.12794117647058822</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n" s="6">
+        <v>44018.0</v>
+      </c>
+      <c r="B217" t="s">
+        <v>23</v>
+      </c>
+      <c r="C217" t="n">
+        <v>2721.0</v>
+      </c>
+      <c r="D217" t="n">
+        <v>0.11707254108940711</v>
+      </c>
+      <c r="E217" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0.12794117647058822</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n" s="6">
+        <v>44018.0</v>
+      </c>
+      <c r="B218" t="s">
+        <v>24</v>
+      </c>
+      <c r="C218" t="n">
+        <v>8907.0</v>
+      </c>
+      <c r="D218" t="n">
+        <v>0.38322863781085964</v>
+      </c>
+      <c r="E218" t="n">
+        <v>195.0</v>
+      </c>
+      <c r="F218" t="n">
+        <v>0.2867647058823529</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n" s="6">
+        <v>44018.0</v>
+      </c>
+      <c r="B219" t="s">
+        <v>24</v>
+      </c>
+      <c r="C219" t="n">
+        <v>8907.0</v>
+      </c>
+      <c r="D219" t="n">
+        <v>0.38322863781085964</v>
+      </c>
+      <c r="E219" t="n">
+        <v>195.0</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0.2867647058823529</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n" s="6">
+        <v>44018.0</v>
+      </c>
+      <c r="B220" t="s">
+        <v>24</v>
+      </c>
+      <c r="C220" t="n">
+        <v>8907.0</v>
+      </c>
+      <c r="D220" t="n">
+        <v>0.38322863781085964</v>
+      </c>
+      <c r="E220" t="n">
+        <v>195.0</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0.2867647058823529</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n" s="6">
+        <v>44018.0</v>
+      </c>
+      <c r="B221" t="s">
+        <v>24</v>
+      </c>
+      <c r="C221" t="n">
+        <v>8907.0</v>
+      </c>
+      <c r="D221" t="n">
+        <v>0.38322863781085964</v>
+      </c>
+      <c r="E221" t="n">
+        <v>195.0</v>
+      </c>
+      <c r="F221" t="n">
+        <v>0.2867647058823529</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n" s="6">
+        <v>44018.0</v>
+      </c>
+      <c r="B222" t="s">
+        <v>25</v>
+      </c>
+      <c r="C222" t="n">
+        <v>121.0</v>
+      </c>
+      <c r="D222" t="n">
+        <v>0.005206092418896825</v>
+      </c>
+      <c r="E222" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F222" t="n">
+        <v>0.0014705882352941176</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n" s="6">
+        <v>44018.0</v>
+      </c>
+      <c r="B223" t="s">
+        <v>25</v>
+      </c>
+      <c r="C223" t="n">
+        <v>121.0</v>
+      </c>
+      <c r="D223" t="n">
+        <v>0.005206092418896825</v>
+      </c>
+      <c r="E223" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F223" t="n">
+        <v>0.0014705882352941176</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n" s="6">
+        <v>44018.0</v>
+      </c>
+      <c r="B224" t="s">
+        <v>25</v>
+      </c>
+      <c r="C224" t="n">
+        <v>121.0</v>
+      </c>
+      <c r="D224" t="n">
+        <v>0.005206092418896825</v>
+      </c>
+      <c r="E224" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F224" t="n">
+        <v>0.0014705882352941176</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n" s="6">
+        <v>44018.0</v>
+      </c>
+      <c r="B225" t="s">
+        <v>25</v>
+      </c>
+      <c r="C225" t="n">
+        <v>121.0</v>
+      </c>
+      <c r="D225" t="n">
+        <v>0.005206092418896825</v>
+      </c>
+      <c r="E225" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0.0014705882352941176</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n" s="6">
+        <v>44018.0</v>
+      </c>
+      <c r="B226" t="s">
+        <v>19</v>
+      </c>
+      <c r="C226" t="n">
+        <v>23242.0</v>
+      </c>
+      <c r="D226" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E226" t="n">
+        <v>680.0</v>
+      </c>
+      <c r="F226" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n" s="6">
+        <v>44018.0</v>
+      </c>
+      <c r="B227" t="s">
+        <v>19</v>
+      </c>
+      <c r="C227" t="n">
+        <v>23242.0</v>
+      </c>
+      <c r="D227" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E227" t="n">
+        <v>680.0</v>
+      </c>
+      <c r="F227" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n" s="6">
+        <v>44018.0</v>
+      </c>
+      <c r="B228" t="s">
+        <v>19</v>
+      </c>
+      <c r="C228" t="n">
+        <v>23242.0</v>
+      </c>
+      <c r="D228" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E228" t="n">
+        <v>680.0</v>
+      </c>
+      <c r="F228" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n" s="6">
+        <v>44018.0</v>
+      </c>
+      <c r="B229" t="s">
+        <v>19</v>
+      </c>
+      <c r="C229" t="n">
+        <v>23242.0</v>
+      </c>
+      <c r="D229" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E229" t="n">
+        <v>680.0</v>
+      </c>
+      <c r="F229" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n" s="6">
+        <v>44018.0</v>
+      </c>
+      <c r="B230" t="s">
+        <v>18</v>
+      </c>
+      <c r="C230" t="n">
+        <v>4939.0</v>
+      </c>
+      <c r="D230" t="n">
+        <v>0.21250322691678858</v>
+      </c>
+      <c r="E230" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="F230" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n" s="6">
+        <v>44018.0</v>
+      </c>
+      <c r="B231" t="s">
+        <v>18</v>
+      </c>
+      <c r="C231" t="n">
+        <v>4939.0</v>
+      </c>
+      <c r="D231" t="n">
+        <v>0.21250322691678858</v>
+      </c>
+      <c r="E231" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="F231" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n" s="6">
+        <v>44018.0</v>
+      </c>
+      <c r="B232" t="s">
+        <v>18</v>
+      </c>
+      <c r="C232" t="n">
+        <v>4939.0</v>
+      </c>
+      <c r="D232" t="n">
+        <v>0.21250322691678858</v>
+      </c>
+      <c r="E232" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="F232" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n" s="6">
+        <v>44018.0</v>
+      </c>
+      <c r="B233" t="s">
+        <v>18</v>
+      </c>
+      <c r="C233" t="n">
+        <v>4939.0</v>
+      </c>
+      <c r="D233" t="n">
+        <v>0.21250322691678858</v>
+      </c>
+      <c r="E233" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="F233" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n" s="6">
+        <v>44018.0</v>
+      </c>
+      <c r="B234" t="s">
         <v>26</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C234" t="n">
         <v>5925.0</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D234" t="n">
         <v>0.25492642629722057</v>
       </c>
-      <c r="E216" t="n">
+      <c r="E234" t="n">
         <v>298.0</v>
       </c>
-      <c r="F216" t="n">
+      <c r="F234" t="n">
+        <v>0.43823529411764706</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n" s="6">
+        <v>44018.0</v>
+      </c>
+      <c r="B235" t="s">
+        <v>26</v>
+      </c>
+      <c r="C235" t="n">
+        <v>5925.0</v>
+      </c>
+      <c r="D235" t="n">
+        <v>0.25492642629722057</v>
+      </c>
+      <c r="E235" t="n">
+        <v>298.0</v>
+      </c>
+      <c r="F235" t="n">
+        <v>0.43823529411764706</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n" s="6">
+        <v>44018.0</v>
+      </c>
+      <c r="B236" t="s">
+        <v>26</v>
+      </c>
+      <c r="C236" t="n">
+        <v>5925.0</v>
+      </c>
+      <c r="D236" t="n">
+        <v>0.25492642629722057</v>
+      </c>
+      <c r="E236" t="n">
+        <v>298.0</v>
+      </c>
+      <c r="F236" t="n">
+        <v>0.43823529411764706</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n" s="6">
+        <v>44018.0</v>
+      </c>
+      <c r="B237" t="s">
+        <v>26</v>
+      </c>
+      <c r="C237" t="n">
+        <v>5925.0</v>
+      </c>
+      <c r="D237" t="n">
+        <v>0.25492642629722057</v>
+      </c>
+      <c r="E237" t="n">
+        <v>298.0</v>
+      </c>
+      <c r="F237" t="n">
         <v>0.43823529411764706</v>
       </c>
     </row>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -9118,13 +9118,13 @@
         <v>44018.0</v>
       </c>
       <c r="B449" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C449" t="n">
-        <v>415.0</v>
+        <v>1092.0</v>
       </c>
       <c r="D449" t="n">
-        <v>0.01785560623010068</v>
+        <v>0.04698390844161432</v>
       </c>
       <c r="E449" t="n">
         <v>0.0</v>
@@ -9138,19 +9138,19 @@
         <v>44018.0</v>
       </c>
       <c r="B450" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C450" t="n">
-        <v>415.0</v>
+        <v>4139.0</v>
       </c>
       <c r="D450" t="n">
-        <v>0.01785560623010068</v>
+        <v>0.17808278117201617</v>
       </c>
       <c r="E450" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="F450" t="n">
-        <v>0.0</v>
+        <v>0.0058823529411764705</v>
       </c>
     </row>
     <row r="451">
@@ -9158,19 +9158,19 @@
         <v>44018.0</v>
       </c>
       <c r="B451" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C451" t="n">
-        <v>415.0</v>
+        <v>4297.0</v>
       </c>
       <c r="D451" t="n">
-        <v>0.01785560623010068</v>
+        <v>0.18488081920660873</v>
       </c>
       <c r="E451" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="F451" t="n">
-        <v>0.0</v>
+        <v>0.016176470588235296</v>
       </c>
     </row>
     <row r="452">
@@ -9178,19 +9178,19 @@
         <v>44018.0</v>
       </c>
       <c r="B452" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C452" t="n">
-        <v>1092.0</v>
+        <v>4179.0</v>
       </c>
       <c r="D452" t="n">
-        <v>0.04698390844161432</v>
+        <v>0.17980380345925479</v>
       </c>
       <c r="E452" t="n">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="F452" t="n">
-        <v>0.0</v>
+        <v>0.03676470588235294</v>
       </c>
     </row>
     <row r="453">
@@ -9198,19 +9198,19 @@
         <v>44018.0</v>
       </c>
       <c r="B453" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C453" t="n">
-        <v>1092.0</v>
+        <v>3926.0</v>
       </c>
       <c r="D453" t="n">
-        <v>0.04698390844161432</v>
+        <v>0.16891833749247054</v>
       </c>
       <c r="E453" t="n">
-        <v>0.0</v>
+        <v>72.0</v>
       </c>
       <c r="F453" t="n">
-        <v>0.0</v>
+        <v>0.10588235294117647</v>
       </c>
     </row>
     <row r="454">
@@ -9218,19 +9218,19 @@
         <v>44018.0</v>
       </c>
       <c r="B454" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C454" t="n">
-        <v>1092.0</v>
+        <v>1576.0</v>
       </c>
       <c r="D454" t="n">
-        <v>0.04698390844161432</v>
+        <v>0.06780827811720162</v>
       </c>
       <c r="E454" t="n">
-        <v>0.0</v>
+        <v>70.0</v>
       </c>
       <c r="F454" t="n">
-        <v>0.0</v>
+        <v>0.10294117647058823</v>
       </c>
     </row>
     <row r="455">
@@ -9238,19 +9238,19 @@
         <v>44018.0</v>
       </c>
       <c r="B455" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C455" t="n">
-        <v>1092.0</v>
+        <v>1145.0</v>
       </c>
       <c r="D455" t="n">
-        <v>0.04698390844161432</v>
+        <v>0.04926426297220549</v>
       </c>
       <c r="E455" t="n">
-        <v>0.0</v>
+        <v>75.0</v>
       </c>
       <c r="F455" t="n">
-        <v>0.0</v>
+        <v>0.11029411764705882</v>
       </c>
     </row>
     <row r="456">
@@ -9258,19 +9258,19 @@
         <v>44018.0</v>
       </c>
       <c r="B456" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C456" t="n">
-        <v>4139.0</v>
+        <v>736.0</v>
       </c>
       <c r="D456" t="n">
-        <v>0.17808278117201617</v>
+        <v>0.0316668100851906</v>
       </c>
       <c r="E456" t="n">
-        <v>4.0</v>
+        <v>71.0</v>
       </c>
       <c r="F456" t="n">
-        <v>0.0058823529411764705</v>
+        <v>0.10441176470588236</v>
       </c>
     </row>
     <row r="457">
@@ -9278,19 +9278,19 @@
         <v>44018.0</v>
       </c>
       <c r="B457" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C457" t="n">
-        <v>4139.0</v>
+        <v>560.0</v>
       </c>
       <c r="D457" t="n">
-        <v>0.17808278117201617</v>
+        <v>0.024094312021340675</v>
       </c>
       <c r="E457" t="n">
-        <v>4.0</v>
+        <v>76.0</v>
       </c>
       <c r="F457" t="n">
-        <v>0.0058823529411764705</v>
+        <v>0.11176470588235295</v>
       </c>
     </row>
     <row r="458">
@@ -9298,19 +9298,19 @@
         <v>44018.0</v>
       </c>
       <c r="B458" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C458" t="n">
-        <v>4139.0</v>
+        <v>1068.0</v>
       </c>
       <c r="D458" t="n">
-        <v>0.17808278117201617</v>
+        <v>0.04595129506927115</v>
       </c>
       <c r="E458" t="n">
-        <v>4.0</v>
+        <v>276.0</v>
       </c>
       <c r="F458" t="n">
-        <v>0.0058823529411764705</v>
+        <v>0.40588235294117647</v>
       </c>
     </row>
     <row r="459">
@@ -9318,19 +9318,19 @@
         <v>44018.0</v>
       </c>
       <c r="B459" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C459" t="n">
-        <v>4139.0</v>
+        <v>95.0</v>
       </c>
       <c r="D459" t="n">
-        <v>0.17808278117201617</v>
+        <v>0.004087427932191722</v>
       </c>
       <c r="E459" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="F459" t="n">
-        <v>0.0058823529411764705</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="460">
@@ -9338,19 +9338,19 @@
         <v>44018.0</v>
       </c>
       <c r="B460" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C460" t="n">
-        <v>4297.0</v>
+        <v>23242.0</v>
       </c>
       <c r="D460" t="n">
-        <v>0.18488081920660873</v>
+        <v>1.0</v>
       </c>
       <c r="E460" t="n">
-        <v>11.0</v>
+        <v>680.0</v>
       </c>
       <c r="F460" t="n">
-        <v>0.016176470588235296</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="461">
@@ -9358,858 +9358,298 @@
         <v>44018.0</v>
       </c>
       <c r="B461" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C461" t="n">
-        <v>4297.0</v>
+        <v>14.0</v>
       </c>
       <c r="D461" t="n">
-        <v>0.18488081920660873</v>
+        <v>6.02357800533517E-4</v>
       </c>
       <c r="E461" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c r="F461" t="n">
-        <v>0.016176470588235296</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n" s="2">
-        <v>44018.0</v>
+        <v>44019.0</v>
       </c>
       <c r="B462" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C462" t="n">
-        <v>4297.0</v>
+        <v>424.0</v>
       </c>
       <c r="D462" t="n">
-        <v>0.18488081920660873</v>
+        <v>0.01796077434659211</v>
       </c>
       <c r="E462" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c r="F462" t="n">
-        <v>0.016176470588235296</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n" s="2">
-        <v>44018.0</v>
+        <v>44019.0</v>
       </c>
       <c r="B463" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C463" t="n">
-        <v>4297.0</v>
+        <v>1122.0</v>
       </c>
       <c r="D463" t="n">
-        <v>0.18488081920660873</v>
+        <v>0.04752827551150082</v>
       </c>
       <c r="E463" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c r="F463" t="n">
-        <v>0.016176470588235296</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n" s="2">
-        <v>44018.0</v>
+        <v>44019.0</v>
       </c>
       <c r="B464" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C464" t="n">
-        <v>4179.0</v>
+        <v>4235.0</v>
       </c>
       <c r="D464" t="n">
-        <v>0.17980380345925479</v>
+        <v>0.1793959418816453</v>
       </c>
       <c r="E464" t="n">
-        <v>25.0</v>
+        <v>4.0</v>
       </c>
       <c r="F464" t="n">
-        <v>0.03676470588235294</v>
+        <v>0.005805515239477504</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n" s="2">
-        <v>44018.0</v>
+        <v>44019.0</v>
       </c>
       <c r="B465" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C465" t="n">
-        <v>4179.0</v>
+        <v>4365.0</v>
       </c>
       <c r="D465" t="n">
-        <v>0.17980380345925479</v>
+        <v>0.18490278307281738</v>
       </c>
       <c r="E465" t="n">
-        <v>25.0</v>
+        <v>12.0</v>
       </c>
       <c r="F465" t="n">
-        <v>0.03676470588235294</v>
+        <v>0.01741654571843251</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n" s="2">
-        <v>44018.0</v>
+        <v>44019.0</v>
       </c>
       <c r="B466" t="s">
         <v>10</v>
       </c>
       <c r="C466" t="n">
-        <v>4179.0</v>
+        <v>4235.0</v>
       </c>
       <c r="D466" t="n">
-        <v>0.17980380345925479</v>
+        <v>0.1793959418816453</v>
       </c>
       <c r="E466" t="n">
         <v>25.0</v>
       </c>
       <c r="F466" t="n">
-        <v>0.03676470588235294</v>
+        <v>0.036284470246734396</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n" s="2">
-        <v>44018.0</v>
+        <v>44019.0</v>
       </c>
       <c r="B467" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C467" t="n">
-        <v>4179.0</v>
+        <v>3968.0</v>
       </c>
       <c r="D467" t="n">
-        <v>0.17980380345925479</v>
+        <v>0.16808573728131487</v>
       </c>
       <c r="E467" t="n">
-        <v>25.0</v>
+        <v>72.0</v>
       </c>
       <c r="F467" t="n">
-        <v>0.03676470588235294</v>
+        <v>0.10449927431059507</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n" s="2">
-        <v>44018.0</v>
+        <v>44019.0</v>
       </c>
       <c r="B468" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C468" t="n">
-        <v>3926.0</v>
+        <v>1593.0</v>
       </c>
       <c r="D468" t="n">
-        <v>0.16891833749247054</v>
+        <v>0.06747998475028594</v>
       </c>
       <c r="E468" t="n">
-        <v>72.0</v>
+        <v>70.0</v>
       </c>
       <c r="F468" t="n">
-        <v>0.10588235294117647</v>
+        <v>0.10159651669085631</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n" s="2">
-        <v>44018.0</v>
+        <v>44019.0</v>
       </c>
       <c r="B469" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C469" t="n">
-        <v>3926.0</v>
+        <v>1157.0</v>
       </c>
       <c r="D469" t="n">
-        <v>0.16891833749247054</v>
+        <v>0.049010886601431776</v>
       </c>
       <c r="E469" t="n">
-        <v>72.0</v>
+        <v>76.0</v>
       </c>
       <c r="F469" t="n">
-        <v>0.10588235294117647</v>
+        <v>0.11030478955007257</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n" s="2">
-        <v>44018.0</v>
+        <v>44019.0</v>
       </c>
       <c r="B470" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C470" t="n">
-        <v>3926.0</v>
+        <v>745.0</v>
       </c>
       <c r="D470" t="n">
-        <v>0.16891833749247054</v>
+        <v>0.03155843605710171</v>
       </c>
       <c r="E470" t="n">
-        <v>72.0</v>
+        <v>73.0</v>
       </c>
       <c r="F470" t="n">
-        <v>0.10588235294117647</v>
+        <v>0.10595065312046444</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n" s="2">
-        <v>44018.0</v>
+        <v>44019.0</v>
       </c>
       <c r="B471" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C471" t="n">
-        <v>3926.0</v>
+        <v>564.0</v>
       </c>
       <c r="D471" t="n">
-        <v>0.16891833749247054</v>
+        <v>0.023891218706315925</v>
       </c>
       <c r="E471" t="n">
-        <v>72.0</v>
+        <v>77.0</v>
       </c>
       <c r="F471" t="n">
-        <v>0.10588235294117647</v>
+        <v>0.11175616835994194</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n" s="2">
-        <v>44018.0</v>
+        <v>44019.0</v>
       </c>
       <c r="B472" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C472" t="n">
-        <v>1576.0</v>
+        <v>1084.0</v>
       </c>
       <c r="D472" t="n">
-        <v>0.06780827811720162</v>
+        <v>0.045918583471004366</v>
       </c>
       <c r="E472" t="n">
-        <v>70.0</v>
+        <v>280.0</v>
       </c>
       <c r="F472" t="n">
-        <v>0.10294117647058823</v>
+        <v>0.40638606676342526</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n" s="2">
-        <v>44018.0</v>
+        <v>44019.0</v>
       </c>
       <c r="B473" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C473" t="n">
-        <v>1576.0</v>
+        <v>99.0</v>
       </c>
       <c r="D473" t="n">
-        <v>0.06780827811720162</v>
+        <v>0.0041936713686618375</v>
       </c>
       <c r="E473" t="n">
-        <v>70.0</v>
+        <v>0.0</v>
       </c>
       <c r="F473" t="n">
-        <v>0.10294117647058823</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n" s="2">
-        <v>44018.0</v>
+        <v>44019.0</v>
       </c>
       <c r="B474" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C474" t="n">
-        <v>1576.0</v>
+        <v>23607.0</v>
       </c>
       <c r="D474" t="n">
-        <v>0.06780827811720162</v>
+        <v>1.0</v>
       </c>
       <c r="E474" t="n">
-        <v>70.0</v>
+        <v>689.0</v>
       </c>
       <c r="F474" t="n">
-        <v>0.10294117647058823</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n" s="2">
-        <v>44018.0</v>
+        <v>44019.0</v>
       </c>
       <c r="B475" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C475" t="n">
-        <v>1576.0</v>
+        <v>16.0</v>
       </c>
       <c r="D475" t="n">
-        <v>0.06780827811720162</v>
+        <v>6.777650696827213E-4</v>
       </c>
       <c r="E475" t="n">
-        <v>70.0</v>
+        <v>0.0</v>
       </c>
       <c r="F475" t="n">
-        <v>0.10294117647058823</v>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="n" s="2">
-        <v>44018.0</v>
-      </c>
-      <c r="B476" t="s">
-        <v>13</v>
-      </c>
-      <c r="C476" t="n">
-        <v>1145.0</v>
-      </c>
-      <c r="D476" t="n">
-        <v>0.04926426297220549</v>
-      </c>
-      <c r="E476" t="n">
-        <v>75.0</v>
-      </c>
-      <c r="F476" t="n">
-        <v>0.11029411764705882</v>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="n" s="2">
-        <v>44018.0</v>
-      </c>
-      <c r="B477" t="s">
-        <v>13</v>
-      </c>
-      <c r="C477" t="n">
-        <v>1145.0</v>
-      </c>
-      <c r="D477" t="n">
-        <v>0.04926426297220549</v>
-      </c>
-      <c r="E477" t="n">
-        <v>75.0</v>
-      </c>
-      <c r="F477" t="n">
-        <v>0.11029411764705882</v>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="n" s="2">
-        <v>44018.0</v>
-      </c>
-      <c r="B478" t="s">
-        <v>13</v>
-      </c>
-      <c r="C478" t="n">
-        <v>1145.0</v>
-      </c>
-      <c r="D478" t="n">
-        <v>0.04926426297220549</v>
-      </c>
-      <c r="E478" t="n">
-        <v>75.0</v>
-      </c>
-      <c r="F478" t="n">
-        <v>0.11029411764705882</v>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="n" s="2">
-        <v>44018.0</v>
-      </c>
-      <c r="B479" t="s">
-        <v>13</v>
-      </c>
-      <c r="C479" t="n">
-        <v>1145.0</v>
-      </c>
-      <c r="D479" t="n">
-        <v>0.04926426297220549</v>
-      </c>
-      <c r="E479" t="n">
-        <v>75.0</v>
-      </c>
-      <c r="F479" t="n">
-        <v>0.11029411764705882</v>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="n" s="2">
-        <v>44018.0</v>
-      </c>
-      <c r="B480" t="s">
-        <v>14</v>
-      </c>
-      <c r="C480" t="n">
-        <v>736.0</v>
-      </c>
-      <c r="D480" t="n">
-        <v>0.0316668100851906</v>
-      </c>
-      <c r="E480" t="n">
-        <v>71.0</v>
-      </c>
-      <c r="F480" t="n">
-        <v>0.10441176470588236</v>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" t="n" s="2">
-        <v>44018.0</v>
-      </c>
-      <c r="B481" t="s">
-        <v>14</v>
-      </c>
-      <c r="C481" t="n">
-        <v>736.0</v>
-      </c>
-      <c r="D481" t="n">
-        <v>0.0316668100851906</v>
-      </c>
-      <c r="E481" t="n">
-        <v>71.0</v>
-      </c>
-      <c r="F481" t="n">
-        <v>0.10441176470588236</v>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" t="n" s="2">
-        <v>44018.0</v>
-      </c>
-      <c r="B482" t="s">
-        <v>14</v>
-      </c>
-      <c r="C482" t="n">
-        <v>736.0</v>
-      </c>
-      <c r="D482" t="n">
-        <v>0.0316668100851906</v>
-      </c>
-      <c r="E482" t="n">
-        <v>71.0</v>
-      </c>
-      <c r="F482" t="n">
-        <v>0.10441176470588236</v>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" t="n" s="2">
-        <v>44018.0</v>
-      </c>
-      <c r="B483" t="s">
-        <v>14</v>
-      </c>
-      <c r="C483" t="n">
-        <v>736.0</v>
-      </c>
-      <c r="D483" t="n">
-        <v>0.0316668100851906</v>
-      </c>
-      <c r="E483" t="n">
-        <v>71.0</v>
-      </c>
-      <c r="F483" t="n">
-        <v>0.10441176470588236</v>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" t="n" s="2">
-        <v>44018.0</v>
-      </c>
-      <c r="B484" t="s">
-        <v>15</v>
-      </c>
-      <c r="C484" t="n">
-        <v>560.0</v>
-      </c>
-      <c r="D484" t="n">
-        <v>0.024094312021340675</v>
-      </c>
-      <c r="E484" t="n">
-        <v>76.0</v>
-      </c>
-      <c r="F484" t="n">
-        <v>0.11176470588235295</v>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" t="n" s="2">
-        <v>44018.0</v>
-      </c>
-      <c r="B485" t="s">
-        <v>15</v>
-      </c>
-      <c r="C485" t="n">
-        <v>560.0</v>
-      </c>
-      <c r="D485" t="n">
-        <v>0.024094312021340675</v>
-      </c>
-      <c r="E485" t="n">
-        <v>76.0</v>
-      </c>
-      <c r="F485" t="n">
-        <v>0.11176470588235295</v>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" t="n" s="2">
-        <v>44018.0</v>
-      </c>
-      <c r="B486" t="s">
-        <v>15</v>
-      </c>
-      <c r="C486" t="n">
-        <v>560.0</v>
-      </c>
-      <c r="D486" t="n">
-        <v>0.024094312021340675</v>
-      </c>
-      <c r="E486" t="n">
-        <v>76.0</v>
-      </c>
-      <c r="F486" t="n">
-        <v>0.11176470588235295</v>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" t="n" s="2">
-        <v>44018.0</v>
-      </c>
-      <c r="B487" t="s">
-        <v>15</v>
-      </c>
-      <c r="C487" t="n">
-        <v>560.0</v>
-      </c>
-      <c r="D487" t="n">
-        <v>0.024094312021340675</v>
-      </c>
-      <c r="E487" t="n">
-        <v>76.0</v>
-      </c>
-      <c r="F487" t="n">
-        <v>0.11176470588235295</v>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" t="n" s="2">
-        <v>44018.0</v>
-      </c>
-      <c r="B488" t="s">
-        <v>16</v>
-      </c>
-      <c r="C488" t="n">
-        <v>1068.0</v>
-      </c>
-      <c r="D488" t="n">
-        <v>0.04595129506927115</v>
-      </c>
-      <c r="E488" t="n">
-        <v>276.0</v>
-      </c>
-      <c r="F488" t="n">
-        <v>0.40588235294117647</v>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" t="n" s="2">
-        <v>44018.0</v>
-      </c>
-      <c r="B489" t="s">
-        <v>16</v>
-      </c>
-      <c r="C489" t="n">
-        <v>1068.0</v>
-      </c>
-      <c r="D489" t="n">
-        <v>0.04595129506927115</v>
-      </c>
-      <c r="E489" t="n">
-        <v>276.0</v>
-      </c>
-      <c r="F489" t="n">
-        <v>0.40588235294117647</v>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" t="n" s="2">
-        <v>44018.0</v>
-      </c>
-      <c r="B490" t="s">
-        <v>16</v>
-      </c>
-      <c r="C490" t="n">
-        <v>1068.0</v>
-      </c>
-      <c r="D490" t="n">
-        <v>0.04595129506927115</v>
-      </c>
-      <c r="E490" t="n">
-        <v>276.0</v>
-      </c>
-      <c r="F490" t="n">
-        <v>0.40588235294117647</v>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491" t="n" s="2">
-        <v>44018.0</v>
-      </c>
-      <c r="B491" t="s">
-        <v>16</v>
-      </c>
-      <c r="C491" t="n">
-        <v>1068.0</v>
-      </c>
-      <c r="D491" t="n">
-        <v>0.04595129506927115</v>
-      </c>
-      <c r="E491" t="n">
-        <v>276.0</v>
-      </c>
-      <c r="F491" t="n">
-        <v>0.40588235294117647</v>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492" t="n" s="2">
-        <v>44018.0</v>
-      </c>
-      <c r="B492" t="s">
-        <v>17</v>
-      </c>
-      <c r="C492" t="n">
-        <v>95.0</v>
-      </c>
-      <c r="D492" t="n">
-        <v>0.004087427932191722</v>
-      </c>
-      <c r="E492" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F492" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="493">
-      <c r="A493" t="n" s="2">
-        <v>44018.0</v>
-      </c>
-      <c r="B493" t="s">
-        <v>17</v>
-      </c>
-      <c r="C493" t="n">
-        <v>95.0</v>
-      </c>
-      <c r="D493" t="n">
-        <v>0.004087427932191722</v>
-      </c>
-      <c r="E493" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F493" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="494">
-      <c r="A494" t="n" s="2">
-        <v>44018.0</v>
-      </c>
-      <c r="B494" t="s">
-        <v>17</v>
-      </c>
-      <c r="C494" t="n">
-        <v>95.0</v>
-      </c>
-      <c r="D494" t="n">
-        <v>0.004087427932191722</v>
-      </c>
-      <c r="E494" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F494" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="495">
-      <c r="A495" t="n" s="2">
-        <v>44018.0</v>
-      </c>
-      <c r="B495" t="s">
-        <v>17</v>
-      </c>
-      <c r="C495" t="n">
-        <v>95.0</v>
-      </c>
-      <c r="D495" t="n">
-        <v>0.004087427932191722</v>
-      </c>
-      <c r="E495" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F495" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="496">
-      <c r="A496" t="n" s="2">
-        <v>44018.0</v>
-      </c>
-      <c r="B496" t="s">
-        <v>19</v>
-      </c>
-      <c r="C496" t="n">
-        <v>23242.0</v>
-      </c>
-      <c r="D496" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E496" t="n">
-        <v>680.0</v>
-      </c>
-      <c r="F496" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="497">
-      <c r="A497" t="n" s="2">
-        <v>44018.0</v>
-      </c>
-      <c r="B497" t="s">
-        <v>19</v>
-      </c>
-      <c r="C497" t="n">
-        <v>23242.0</v>
-      </c>
-      <c r="D497" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E497" t="n">
-        <v>680.0</v>
-      </c>
-      <c r="F497" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498" t="n" s="2">
-        <v>44018.0</v>
-      </c>
-      <c r="B498" t="s">
-        <v>19</v>
-      </c>
-      <c r="C498" t="n">
-        <v>23242.0</v>
-      </c>
-      <c r="D498" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E498" t="n">
-        <v>680.0</v>
-      </c>
-      <c r="F498" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="499">
-      <c r="A499" t="n" s="2">
-        <v>44018.0</v>
-      </c>
-      <c r="B499" t="s">
-        <v>19</v>
-      </c>
-      <c r="C499" t="n">
-        <v>23242.0</v>
-      </c>
-      <c r="D499" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E499" t="n">
-        <v>680.0</v>
-      </c>
-      <c r="F499" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="500">
-      <c r="A500" t="n" s="2">
-        <v>44018.0</v>
-      </c>
-      <c r="B500" t="s">
-        <v>18</v>
-      </c>
-      <c r="C500" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="D500" t="n">
-        <v>6.02357800533517E-4</v>
-      </c>
-      <c r="E500" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F500" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="501">
-      <c r="A501" t="n" s="2">
-        <v>44018.0</v>
-      </c>
-      <c r="B501" t="s">
-        <v>18</v>
-      </c>
-      <c r="C501" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="D501" t="n">
-        <v>6.02357800533517E-4</v>
-      </c>
-      <c r="E501" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F501" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="502">
-      <c r="A502" t="n" s="2">
-        <v>44018.0</v>
-      </c>
-      <c r="B502" t="s">
-        <v>18</v>
-      </c>
-      <c r="C502" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="D502" t="n">
-        <v>6.02357800533517E-4</v>
-      </c>
-      <c r="E502" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F502" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="503">
-      <c r="A503" t="n" s="2">
-        <v>44018.0</v>
-      </c>
-      <c r="B503" t="s">
-        <v>18</v>
-      </c>
-      <c r="C503" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="D503" t="n">
-        <v>6.02357800533517E-4</v>
-      </c>
-      <c r="E503" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F503" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -12391,19 +11831,19 @@
         <v>44018.0</v>
       </c>
       <c r="B109" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C109" t="n">
-        <v>11250.0</v>
+        <v>11778.0</v>
       </c>
       <c r="D109" t="n">
-        <v>0.4840375182858618</v>
+        <v>0.5067550124774116</v>
       </c>
       <c r="E109" t="n">
-        <v>285.0</v>
+        <v>392.0</v>
       </c>
       <c r="F109" t="n">
-        <v>0.41911764705882354</v>
+        <v>0.5764705882352941</v>
       </c>
     </row>
     <row r="110">
@@ -12411,19 +11851,19 @@
         <v>44018.0</v>
       </c>
       <c r="B110" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C110" t="n">
-        <v>11250.0</v>
+        <v>23242.0</v>
       </c>
       <c r="D110" t="n">
-        <v>0.4840375182858618</v>
+        <v>1.0</v>
       </c>
       <c r="E110" t="n">
-        <v>285.0</v>
+        <v>680.0</v>
       </c>
       <c r="F110" t="n">
-        <v>0.41911764705882354</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="111">
@@ -12431,259 +11871,99 @@
         <v>44018.0</v>
       </c>
       <c r="B111" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C111" t="n">
-        <v>11250.0</v>
+        <v>214.0</v>
       </c>
       <c r="D111" t="n">
-        <v>0.4840375182858618</v>
+        <v>0.009207469236726615</v>
       </c>
       <c r="E111" t="n">
-        <v>285.0</v>
+        <v>3.0</v>
       </c>
       <c r="F111" t="n">
-        <v>0.41911764705882354</v>
+        <v>0.004411764705882353</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n" s="4">
-        <v>44018.0</v>
+        <v>44019.0</v>
       </c>
       <c r="B112" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C112" t="n">
-        <v>11778.0</v>
+        <v>11432.0</v>
       </c>
       <c r="D112" t="n">
-        <v>0.5067550124774116</v>
+        <v>0.4842631422883043</v>
       </c>
       <c r="E112" t="n">
-        <v>392.0</v>
+        <v>288.0</v>
       </c>
       <c r="F112" t="n">
-        <v>0.5764705882352941</v>
+        <v>0.41799709724238027</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n" s="4">
-        <v>44018.0</v>
+        <v>44019.0</v>
       </c>
       <c r="B113" t="s">
         <v>21</v>
       </c>
       <c r="C113" t="n">
-        <v>11778.0</v>
+        <v>11944.0</v>
       </c>
       <c r="D113" t="n">
-        <v>0.5067550124774116</v>
+        <v>0.5059516245181513</v>
       </c>
       <c r="E113" t="n">
-        <v>392.0</v>
+        <v>398.0</v>
       </c>
       <c r="F113" t="n">
-        <v>0.5764705882352941</v>
+        <v>0.5776487663280117</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n" s="4">
-        <v>44018.0</v>
+        <v>44019.0</v>
       </c>
       <c r="B114" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C114" t="n">
-        <v>11778.0</v>
+        <v>23607.0</v>
       </c>
       <c r="D114" t="n">
-        <v>0.5067550124774116</v>
+        <v>1.0</v>
       </c>
       <c r="E114" t="n">
-        <v>392.0</v>
+        <v>689.0</v>
       </c>
       <c r="F114" t="n">
-        <v>0.5764705882352941</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n" s="4">
-        <v>44018.0</v>
+        <v>44019.0</v>
       </c>
       <c r="B115" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C115" t="n">
-        <v>11778.0</v>
+        <v>231.0</v>
       </c>
       <c r="D115" t="n">
-        <v>0.5067550124774116</v>
+        <v>0.009785233193544287</v>
       </c>
       <c r="E115" t="n">
-        <v>392.0</v>
+        <v>3.0</v>
       </c>
       <c r="F115" t="n">
-        <v>0.5764705882352941</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n" s="4">
-        <v>44018.0</v>
-      </c>
-      <c r="B116" t="s">
-        <v>19</v>
-      </c>
-      <c r="C116" t="n">
-        <v>23242.0</v>
-      </c>
-      <c r="D116" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E116" t="n">
-        <v>680.0</v>
-      </c>
-      <c r="F116" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n" s="4">
-        <v>44018.0</v>
-      </c>
-      <c r="B117" t="s">
-        <v>19</v>
-      </c>
-      <c r="C117" t="n">
-        <v>23242.0</v>
-      </c>
-      <c r="D117" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E117" t="n">
-        <v>680.0</v>
-      </c>
-      <c r="F117" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n" s="4">
-        <v>44018.0</v>
-      </c>
-      <c r="B118" t="s">
-        <v>19</v>
-      </c>
-      <c r="C118" t="n">
-        <v>23242.0</v>
-      </c>
-      <c r="D118" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E118" t="n">
-        <v>680.0</v>
-      </c>
-      <c r="F118" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n" s="4">
-        <v>44018.0</v>
-      </c>
-      <c r="B119" t="s">
-        <v>19</v>
-      </c>
-      <c r="C119" t="n">
-        <v>23242.0</v>
-      </c>
-      <c r="D119" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E119" t="n">
-        <v>680.0</v>
-      </c>
-      <c r="F119" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n" s="4">
-        <v>44018.0</v>
-      </c>
-      <c r="B120" t="s">
-        <v>18</v>
-      </c>
-      <c r="C120" t="n">
-        <v>214.0</v>
-      </c>
-      <c r="D120" t="n">
-        <v>0.009207469236726615</v>
-      </c>
-      <c r="E120" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="F120" t="n">
-        <v>0.004411764705882353</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n" s="4">
-        <v>44018.0</v>
-      </c>
-      <c r="B121" t="s">
-        <v>18</v>
-      </c>
-      <c r="C121" t="n">
-        <v>214.0</v>
-      </c>
-      <c r="D121" t="n">
-        <v>0.009207469236726615</v>
-      </c>
-      <c r="E121" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="F121" t="n">
-        <v>0.004411764705882353</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n" s="4">
-        <v>44018.0</v>
-      </c>
-      <c r="B122" t="s">
-        <v>18</v>
-      </c>
-      <c r="C122" t="n">
-        <v>214.0</v>
-      </c>
-      <c r="D122" t="n">
-        <v>0.009207469236726615</v>
-      </c>
-      <c r="E122" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="F122" t="n">
-        <v>0.004411764705882353</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n" s="4">
-        <v>44018.0</v>
-      </c>
-      <c r="B123" t="s">
-        <v>18</v>
-      </c>
-      <c r="C123" t="n">
-        <v>214.0</v>
-      </c>
-      <c r="D123" t="n">
-        <v>0.009207469236726615</v>
-      </c>
-      <c r="E123" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="F123" t="n">
-        <v>0.004411764705882353</v>
+        <v>0.0043541364296081275</v>
       </c>
     </row>
   </sheetData>
@@ -16904,19 +16184,19 @@
         <v>44018.0</v>
       </c>
       <c r="B211" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C211" t="n">
-        <v>629.0</v>
+        <v>2721.0</v>
       </c>
       <c r="D211" t="n">
-        <v>0.027063075466827295</v>
+        <v>0.11707254108940711</v>
       </c>
       <c r="E211" t="n">
-        <v>14.0</v>
+        <v>87.0</v>
       </c>
       <c r="F211" t="n">
-        <v>0.020588235294117647</v>
+        <v>0.12794117647058822</v>
       </c>
     </row>
     <row r="212">
@@ -16924,19 +16204,19 @@
         <v>44018.0</v>
       </c>
       <c r="B212" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C212" t="n">
-        <v>629.0</v>
+        <v>8907.0</v>
       </c>
       <c r="D212" t="n">
-        <v>0.027063075466827295</v>
+        <v>0.38322863781085964</v>
       </c>
       <c r="E212" t="n">
-        <v>14.0</v>
+        <v>195.0</v>
       </c>
       <c r="F212" t="n">
-        <v>0.020588235294117647</v>
+        <v>0.2867647058823529</v>
       </c>
     </row>
     <row r="213">
@@ -16944,19 +16224,19 @@
         <v>44018.0</v>
       </c>
       <c r="B213" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C213" t="n">
-        <v>629.0</v>
+        <v>121.0</v>
       </c>
       <c r="D213" t="n">
-        <v>0.027063075466827295</v>
+        <v>0.005206092418896825</v>
       </c>
       <c r="E213" t="n">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c r="F213" t="n">
-        <v>0.020588235294117647</v>
+        <v>0.0014705882352941176</v>
       </c>
     </row>
     <row r="214">
@@ -16964,19 +16244,19 @@
         <v>44018.0</v>
       </c>
       <c r="B214" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C214" t="n">
-        <v>2721.0</v>
+        <v>23242.0</v>
       </c>
       <c r="D214" t="n">
-        <v>0.11707254108940711</v>
+        <v>1.0</v>
       </c>
       <c r="E214" t="n">
-        <v>87.0</v>
+        <v>680.0</v>
       </c>
       <c r="F214" t="n">
-        <v>0.12794117647058822</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="215">
@@ -16984,19 +16264,19 @@
         <v>44018.0</v>
       </c>
       <c r="B215" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C215" t="n">
-        <v>2721.0</v>
+        <v>4939.0</v>
       </c>
       <c r="D215" t="n">
-        <v>0.11707254108940711</v>
+        <v>0.21250322691678858</v>
       </c>
       <c r="E215" t="n">
-        <v>87.0</v>
+        <v>85.0</v>
       </c>
       <c r="F215" t="n">
-        <v>0.12794117647058822</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="216">
@@ -17004,439 +16284,159 @@
         <v>44018.0</v>
       </c>
       <c r="B216" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C216" t="n">
-        <v>2721.0</v>
+        <v>5925.0</v>
       </c>
       <c r="D216" t="n">
-        <v>0.11707254108940711</v>
+        <v>0.25492642629722057</v>
       </c>
       <c r="E216" t="n">
-        <v>87.0</v>
+        <v>298.0</v>
       </c>
       <c r="F216" t="n">
-        <v>0.12794117647058822</v>
+        <v>0.43823529411764706</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n" s="6">
-        <v>44018.0</v>
+        <v>44019.0</v>
       </c>
       <c r="B217" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C217" t="n">
-        <v>2721.0</v>
+        <v>630.0</v>
       </c>
       <c r="D217" t="n">
-        <v>0.11707254108940711</v>
+        <v>0.02668699961875715</v>
       </c>
       <c r="E217" t="n">
-        <v>87.0</v>
+        <v>14.0</v>
       </c>
       <c r="F217" t="n">
-        <v>0.12794117647058822</v>
+        <v>0.020319303338171262</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n" s="6">
-        <v>44018.0</v>
+        <v>44019.0</v>
       </c>
       <c r="B218" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C218" t="n">
-        <v>8907.0</v>
+        <v>2747.0</v>
       </c>
       <c r="D218" t="n">
-        <v>0.38322863781085964</v>
+        <v>0.1163637904011522</v>
       </c>
       <c r="E218" t="n">
-        <v>195.0</v>
+        <v>89.0</v>
       </c>
       <c r="F218" t="n">
-        <v>0.2867647058823529</v>
+        <v>0.12917271407837447</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n" s="6">
-        <v>44018.0</v>
+        <v>44019.0</v>
       </c>
       <c r="B219" t="s">
         <v>24</v>
       </c>
       <c r="C219" t="n">
-        <v>8907.0</v>
+        <v>9111.0</v>
       </c>
       <c r="D219" t="n">
-        <v>0.38322863781085964</v>
+        <v>0.38594484686745456</v>
       </c>
       <c r="E219" t="n">
-        <v>195.0</v>
+        <v>197.0</v>
       </c>
       <c r="F219" t="n">
-        <v>0.2867647058823529</v>
+        <v>0.28592162554426703</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n" s="6">
-        <v>44018.0</v>
+        <v>44019.0</v>
       </c>
       <c r="B220" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C220" t="n">
-        <v>8907.0</v>
+        <v>123.0</v>
       </c>
       <c r="D220" t="n">
-        <v>0.38322863781085964</v>
+        <v>0.005210318973185919</v>
       </c>
       <c r="E220" t="n">
-        <v>195.0</v>
+        <v>1.0</v>
       </c>
       <c r="F220" t="n">
-        <v>0.2867647058823529</v>
+        <v>0.001451378809869376</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n" s="6">
-        <v>44018.0</v>
+        <v>44019.0</v>
       </c>
       <c r="B221" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C221" t="n">
-        <v>8907.0</v>
+        <v>23607.0</v>
       </c>
       <c r="D221" t="n">
-        <v>0.38322863781085964</v>
+        <v>1.0</v>
       </c>
       <c r="E221" t="n">
-        <v>195.0</v>
+        <v>689.0</v>
       </c>
       <c r="F221" t="n">
-        <v>0.2867647058823529</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n" s="6">
-        <v>44018.0</v>
+        <v>44019.0</v>
       </c>
       <c r="B222" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C222" t="n">
-        <v>121.0</v>
+        <v>5025.0</v>
       </c>
       <c r="D222" t="n">
-        <v>0.005206092418896825</v>
+        <v>0.21286059219722964</v>
       </c>
       <c r="E222" t="n">
-        <v>1.0</v>
+        <v>87.0</v>
       </c>
       <c r="F222" t="n">
-        <v>0.0014705882352941176</v>
+        <v>0.1262699564586357</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n" s="6">
-        <v>44018.0</v>
+        <v>44019.0</v>
       </c>
       <c r="B223" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C223" t="n">
-        <v>121.0</v>
+        <v>5971.0</v>
       </c>
       <c r="D223" t="n">
-        <v>0.005206092418896825</v>
+        <v>0.25293345194222056</v>
       </c>
       <c r="E223" t="n">
-        <v>1.0</v>
+        <v>301.0</v>
       </c>
       <c r="F223" t="n">
-        <v>0.0014705882352941176</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="n" s="6">
-        <v>44018.0</v>
-      </c>
-      <c r="B224" t="s">
-        <v>25</v>
-      </c>
-      <c r="C224" t="n">
-        <v>121.0</v>
-      </c>
-      <c r="D224" t="n">
-        <v>0.005206092418896825</v>
-      </c>
-      <c r="E224" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F224" t="n">
-        <v>0.0014705882352941176</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="n" s="6">
-        <v>44018.0</v>
-      </c>
-      <c r="B225" t="s">
-        <v>25</v>
-      </c>
-      <c r="C225" t="n">
-        <v>121.0</v>
-      </c>
-      <c r="D225" t="n">
-        <v>0.005206092418896825</v>
-      </c>
-      <c r="E225" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F225" t="n">
-        <v>0.0014705882352941176</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="n" s="6">
-        <v>44018.0</v>
-      </c>
-      <c r="B226" t="s">
-        <v>19</v>
-      </c>
-      <c r="C226" t="n">
-        <v>23242.0</v>
-      </c>
-      <c r="D226" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E226" t="n">
-        <v>680.0</v>
-      </c>
-      <c r="F226" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="n" s="6">
-        <v>44018.0</v>
-      </c>
-      <c r="B227" t="s">
-        <v>19</v>
-      </c>
-      <c r="C227" t="n">
-        <v>23242.0</v>
-      </c>
-      <c r="D227" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E227" t="n">
-        <v>680.0</v>
-      </c>
-      <c r="F227" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="n" s="6">
-        <v>44018.0</v>
-      </c>
-      <c r="B228" t="s">
-        <v>19</v>
-      </c>
-      <c r="C228" t="n">
-        <v>23242.0</v>
-      </c>
-      <c r="D228" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E228" t="n">
-        <v>680.0</v>
-      </c>
-      <c r="F228" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="n" s="6">
-        <v>44018.0</v>
-      </c>
-      <c r="B229" t="s">
-        <v>19</v>
-      </c>
-      <c r="C229" t="n">
-        <v>23242.0</v>
-      </c>
-      <c r="D229" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E229" t="n">
-        <v>680.0</v>
-      </c>
-      <c r="F229" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="n" s="6">
-        <v>44018.0</v>
-      </c>
-      <c r="B230" t="s">
-        <v>18</v>
-      </c>
-      <c r="C230" t="n">
-        <v>4939.0</v>
-      </c>
-      <c r="D230" t="n">
-        <v>0.21250322691678858</v>
-      </c>
-      <c r="E230" t="n">
-        <v>85.0</v>
-      </c>
-      <c r="F230" t="n">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="n" s="6">
-        <v>44018.0</v>
-      </c>
-      <c r="B231" t="s">
-        <v>18</v>
-      </c>
-      <c r="C231" t="n">
-        <v>4939.0</v>
-      </c>
-      <c r="D231" t="n">
-        <v>0.21250322691678858</v>
-      </c>
-      <c r="E231" t="n">
-        <v>85.0</v>
-      </c>
-      <c r="F231" t="n">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="n" s="6">
-        <v>44018.0</v>
-      </c>
-      <c r="B232" t="s">
-        <v>18</v>
-      </c>
-      <c r="C232" t="n">
-        <v>4939.0</v>
-      </c>
-      <c r="D232" t="n">
-        <v>0.21250322691678858</v>
-      </c>
-      <c r="E232" t="n">
-        <v>85.0</v>
-      </c>
-      <c r="F232" t="n">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="n" s="6">
-        <v>44018.0</v>
-      </c>
-      <c r="B233" t="s">
-        <v>18</v>
-      </c>
-      <c r="C233" t="n">
-        <v>4939.0</v>
-      </c>
-      <c r="D233" t="n">
-        <v>0.21250322691678858</v>
-      </c>
-      <c r="E233" t="n">
-        <v>85.0</v>
-      </c>
-      <c r="F233" t="n">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="n" s="6">
-        <v>44018.0</v>
-      </c>
-      <c r="B234" t="s">
-        <v>26</v>
-      </c>
-      <c r="C234" t="n">
-        <v>5925.0</v>
-      </c>
-      <c r="D234" t="n">
-        <v>0.25492642629722057</v>
-      </c>
-      <c r="E234" t="n">
-        <v>298.0</v>
-      </c>
-      <c r="F234" t="n">
-        <v>0.43823529411764706</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="n" s="6">
-        <v>44018.0</v>
-      </c>
-      <c r="B235" t="s">
-        <v>26</v>
-      </c>
-      <c r="C235" t="n">
-        <v>5925.0</v>
-      </c>
-      <c r="D235" t="n">
-        <v>0.25492642629722057</v>
-      </c>
-      <c r="E235" t="n">
-        <v>298.0</v>
-      </c>
-      <c r="F235" t="n">
-        <v>0.43823529411764706</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="n" s="6">
-        <v>44018.0</v>
-      </c>
-      <c r="B236" t="s">
-        <v>26</v>
-      </c>
-      <c r="C236" t="n">
-        <v>5925.0</v>
-      </c>
-      <c r="D236" t="n">
-        <v>0.25492642629722057</v>
-      </c>
-      <c r="E236" t="n">
-        <v>298.0</v>
-      </c>
-      <c r="F236" t="n">
-        <v>0.43823529411764706</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n" s="6">
-        <v>44018.0</v>
-      </c>
-      <c r="B237" t="s">
-        <v>26</v>
-      </c>
-      <c r="C237" t="n">
-        <v>5925.0</v>
-      </c>
-      <c r="D237" t="n">
-        <v>0.25492642629722057</v>
-      </c>
-      <c r="E237" t="n">
-        <v>298.0</v>
-      </c>
-      <c r="F237" t="n">
-        <v>0.43823529411764706</v>
+        <v>0.43686502177068215</v>
       </c>
     </row>
   </sheetData>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -82,6 +82,9 @@
     <t>Male</t>
   </si>
   <si>
+    <t>Gender</t>
+  </si>
+  <si>
     <t>Asian</t>
   </si>
   <si>
@@ -95,6 +98,9 @@
   </si>
   <si>
     <t>White</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity</t>
   </si>
 </sst>
 </file>
@@ -9653,6 +9659,286 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="476">
+      <c r="A476" t="n" s="2">
+        <v>44020.0</v>
+      </c>
+      <c r="B476" t="s">
+        <v>6</v>
+      </c>
+      <c r="C476" t="n">
+        <v>438.0</v>
+      </c>
+      <c r="D476" t="n">
+        <v>1.8186347783</v>
+      </c>
+      <c r="E476" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F476" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n" s="2">
+        <v>44020.0</v>
+      </c>
+      <c r="B477" t="s">
+        <v>7</v>
+      </c>
+      <c r="C477" t="n">
+        <v>1155.0</v>
+      </c>
+      <c r="D477" t="n">
+        <v>4.7957149975</v>
+      </c>
+      <c r="E477" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F477" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n" s="2">
+        <v>44020.0</v>
+      </c>
+      <c r="B478" t="s">
+        <v>8</v>
+      </c>
+      <c r="C478" t="n">
+        <v>4365.0</v>
+      </c>
+      <c r="D478" t="n">
+        <v>18.12406577</v>
+      </c>
+      <c r="E478" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F478" t="n">
+        <v>0.5772005772</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n" s="2">
+        <v>44020.0</v>
+      </c>
+      <c r="B479" t="s">
+        <v>9</v>
+      </c>
+      <c r="C479" t="n">
+        <v>4458.0</v>
+      </c>
+      <c r="D479" t="n">
+        <v>18.51021425</v>
+      </c>
+      <c r="E479" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F479" t="n">
+        <v>1.7316017316</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n" s="2">
+        <v>44020.0</v>
+      </c>
+      <c r="B480" t="s">
+        <v>10</v>
+      </c>
+      <c r="C480" t="n">
+        <v>4306.0</v>
+      </c>
+      <c r="D480" t="n">
+        <v>17.879089852</v>
+      </c>
+      <c r="E480" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F480" t="n">
+        <v>3.6075036075</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n" s="2">
+        <v>44020.0</v>
+      </c>
+      <c r="B481" t="s">
+        <v>11</v>
+      </c>
+      <c r="C481" t="n">
+        <v>4046.0</v>
+      </c>
+      <c r="D481" t="n">
+        <v>16.799534961</v>
+      </c>
+      <c r="E481" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="F481" t="n">
+        <v>10.533910534</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n" s="2">
+        <v>44020.0</v>
+      </c>
+      <c r="B482" t="s">
+        <v>12</v>
+      </c>
+      <c r="C482" t="n">
+        <v>1612.0</v>
+      </c>
+      <c r="D482" t="n">
+        <v>6.6932403255</v>
+      </c>
+      <c r="E482" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="F482" t="n">
+        <v>10.245310245</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n" s="2">
+        <v>44020.0</v>
+      </c>
+      <c r="B483" t="s">
+        <v>13</v>
+      </c>
+      <c r="C483" t="n">
+        <v>1168.0</v>
+      </c>
+      <c r="D483" t="n">
+        <v>4.8496927421</v>
+      </c>
+      <c r="E483" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="F483" t="n">
+        <v>10.966810967</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n" s="2">
+        <v>44020.0</v>
+      </c>
+      <c r="B484" t="s">
+        <v>14</v>
+      </c>
+      <c r="C484" t="n">
+        <v>759.0</v>
+      </c>
+      <c r="D484" t="n">
+        <v>3.1514698555</v>
+      </c>
+      <c r="E484" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="F484" t="n">
+        <v>10.533910534</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n" s="2">
+        <v>44020.0</v>
+      </c>
+      <c r="B485" t="s">
+        <v>15</v>
+      </c>
+      <c r="C485" t="n">
+        <v>574.0</v>
+      </c>
+      <c r="D485" t="n">
+        <v>2.3833250291</v>
+      </c>
+      <c r="E485" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="F485" t="n">
+        <v>11.3997114</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n" s="2">
+        <v>44020.0</v>
+      </c>
+      <c r="B486" t="s">
+        <v>16</v>
+      </c>
+      <c r="C486" t="n">
+        <v>1090.0</v>
+      </c>
+      <c r="D486" t="n">
+        <v>4.5258262747</v>
+      </c>
+      <c r="E486" t="n">
+        <v>280.0</v>
+      </c>
+      <c r="F486" t="n">
+        <v>40.404040404</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n" s="2">
+        <v>44020.0</v>
+      </c>
+      <c r="B487" t="s">
+        <v>17</v>
+      </c>
+      <c r="C487" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="D487" t="n">
+        <v>0.4069091513</v>
+      </c>
+      <c r="E487" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F487" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n" s="2">
+        <v>44020.0</v>
+      </c>
+      <c r="B488" t="s">
+        <v>19</v>
+      </c>
+      <c r="C488" t="n">
+        <v>24084.0</v>
+      </c>
+      <c r="D488" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="E488" t="n">
+        <v>693.0</v>
+      </c>
+      <c r="F488" t="n">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n" s="2">
+        <v>44020.0</v>
+      </c>
+      <c r="B489" t="s">
+        <v>18</v>
+      </c>
+      <c r="C489" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D489" t="n">
+        <v>0.062282013</v>
+      </c>
+      <c r="E489" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F489" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -11966,6 +12252,106 @@
         <v>0.0043541364296081275</v>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" t="n" s="4">
+        <v>44020.0</v>
+      </c>
+      <c r="B116" t="s">
+        <v>20</v>
+      </c>
+      <c r="C116" t="n">
+        <v>11633.0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>48.301777113</v>
+      </c>
+      <c r="E116" t="n">
+        <v>289.0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>41.702741703</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n" s="4">
+        <v>44020.0</v>
+      </c>
+      <c r="B117" t="s">
+        <v>22</v>
+      </c>
+      <c r="C117" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D117" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E117" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F117" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n" s="4">
+        <v>44020.0</v>
+      </c>
+      <c r="B118" t="s">
+        <v>21</v>
+      </c>
+      <c r="C118" t="n">
+        <v>12201.0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>50.660189337</v>
+      </c>
+      <c r="E118" t="n">
+        <v>401.0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>57.864357864</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n" s="4">
+        <v>44020.0</v>
+      </c>
+      <c r="B119" t="s">
+        <v>19</v>
+      </c>
+      <c r="C119" t="n">
+        <v>24084.0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>693.0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n" s="4">
+        <v>44020.0</v>
+      </c>
+      <c r="B120" t="s">
+        <v>18</v>
+      </c>
+      <c r="C120" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1.0380335492</v>
+      </c>
+      <c r="E120" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.4329004329</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -12004,7 +12390,7 @@
         <v>43972.0</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="n">
         <v>492.0</v>
@@ -12024,7 +12410,7 @@
         <v>43972.0</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
         <v>2219.0</v>
@@ -12044,7 +12430,7 @@
         <v>43972.0</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="n">
         <v>5754.0</v>
@@ -12064,7 +12450,7 @@
         <v>43972.0</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="n">
         <v>96.0</v>
@@ -12104,7 +12490,7 @@
         <v>43972.0</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" t="n">
         <v>3999.0</v>
@@ -12124,7 +12510,7 @@
         <v>43978.0</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="n">
         <v>498.0</v>
@@ -12144,7 +12530,7 @@
         <v>43978.0</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="n">
         <v>2315.0</v>
@@ -12164,7 +12550,7 @@
         <v>43978.0</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="n">
         <v>5873.0</v>
@@ -12184,7 +12570,7 @@
         <v>43978.0</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="n">
         <v>96.0</v>
@@ -12224,7 +12610,7 @@
         <v>43978.0</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" t="n">
         <v>4065.0</v>
@@ -12244,7 +12630,7 @@
         <v>43980.0</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" t="n">
         <v>498.0</v>
@@ -12264,7 +12650,7 @@
         <v>43980.0</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="n">
         <v>2341.0</v>
@@ -12284,7 +12670,7 @@
         <v>43980.0</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="n">
         <v>5912.0</v>
@@ -12304,7 +12690,7 @@
         <v>43980.0</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="n">
         <v>96.0</v>
@@ -12344,7 +12730,7 @@
         <v>43980.0</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19" t="n">
         <v>4093.0</v>
@@ -12364,7 +12750,7 @@
         <v>43981.0</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" t="n">
         <v>498.0</v>
@@ -12384,7 +12770,7 @@
         <v>43981.0</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" t="n">
         <v>2360.0</v>
@@ -12404,7 +12790,7 @@
         <v>43981.0</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="n">
         <v>5923.0</v>
@@ -12424,7 +12810,7 @@
         <v>43981.0</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="n">
         <v>96.0</v>
@@ -12464,7 +12850,7 @@
         <v>43981.0</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25" t="n">
         <v>4107.0</v>
@@ -12484,7 +12870,7 @@
         <v>43983.0</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C26" t="n">
         <v>500.0</v>
@@ -12504,7 +12890,7 @@
         <v>43983.0</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C27" t="n">
         <v>2365.0</v>
@@ -12524,7 +12910,7 @@
         <v>43983.0</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C28" t="n">
         <v>5951.0</v>
@@ -12544,7 +12930,7 @@
         <v>43983.0</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="n">
         <v>96.0</v>
@@ -12584,7 +12970,7 @@
         <v>43983.0</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C31" t="n">
         <v>4116.0</v>
@@ -12604,7 +12990,7 @@
         <v>43984.0</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C32" t="n">
         <v>500.0</v>
@@ -12624,7 +13010,7 @@
         <v>43984.0</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C33" t="n">
         <v>2369.0</v>
@@ -12644,7 +13030,7 @@
         <v>43984.0</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C34" t="n">
         <v>5963.0</v>
@@ -12664,7 +13050,7 @@
         <v>43984.0</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C35" t="n">
         <v>96.0</v>
@@ -12704,7 +13090,7 @@
         <v>43984.0</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C37" t="n">
         <v>4121.0</v>
@@ -12724,7 +13110,7 @@
         <v>43986.0</v>
       </c>
       <c r="B38" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C38" t="n">
         <v>503.0</v>
@@ -12744,7 +13130,7 @@
         <v>43986.0</v>
       </c>
       <c r="B39" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C39" t="n">
         <v>2404.0</v>
@@ -12764,7 +13150,7 @@
         <v>43986.0</v>
       </c>
       <c r="B40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C40" t="n">
         <v>6018.0</v>
@@ -12784,7 +13170,7 @@
         <v>43986.0</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C41" t="n">
         <v>97.0</v>
@@ -12824,7 +13210,7 @@
         <v>43986.0</v>
       </c>
       <c r="B43" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C43" t="n">
         <v>4157.0</v>
@@ -12844,7 +13230,7 @@
         <v>43987.0</v>
       </c>
       <c r="B44" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C44" t="n">
         <v>503.0</v>
@@ -12864,7 +13250,7 @@
         <v>43987.0</v>
       </c>
       <c r="B45" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C45" t="n">
         <v>2407.0</v>
@@ -12884,7 +13270,7 @@
         <v>43987.0</v>
       </c>
       <c r="B46" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C46" t="n">
         <v>6023.0</v>
@@ -12904,7 +13290,7 @@
         <v>43987.0</v>
       </c>
       <c r="B47" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C47" t="n">
         <v>97.0</v>
@@ -12944,7 +13330,7 @@
         <v>43987.0</v>
       </c>
       <c r="B49" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C49" t="n">
         <v>4161.0</v>
@@ -12964,7 +13350,7 @@
         <v>43988.0</v>
       </c>
       <c r="B50" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C50" t="n">
         <v>503.0</v>
@@ -12984,7 +13370,7 @@
         <v>43988.0</v>
       </c>
       <c r="B51" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C51" t="n">
         <v>2413.0</v>
@@ -13004,7 +13390,7 @@
         <v>43988.0</v>
       </c>
       <c r="B52" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C52" t="n">
         <v>6034.0</v>
@@ -13024,7 +13410,7 @@
         <v>43988.0</v>
       </c>
       <c r="B53" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C53" t="n">
         <v>97.0</v>
@@ -13064,7 +13450,7 @@
         <v>43988.0</v>
       </c>
       <c r="B55" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C55" t="n">
         <v>4174.0</v>
@@ -13084,7 +13470,7 @@
         <v>43990.0</v>
       </c>
       <c r="B56" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C56" t="n">
         <v>503.0</v>
@@ -13104,7 +13490,7 @@
         <v>43990.0</v>
       </c>
       <c r="B57" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C57" t="n">
         <v>2413.0</v>
@@ -13124,7 +13510,7 @@
         <v>43990.0</v>
       </c>
       <c r="B58" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C58" t="n">
         <v>6034.0</v>
@@ -13144,7 +13530,7 @@
         <v>43990.0</v>
       </c>
       <c r="B59" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C59" t="n">
         <v>97.0</v>
@@ -13184,7 +13570,7 @@
         <v>43990.0</v>
       </c>
       <c r="B61" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C61" t="n">
         <v>4174.0</v>
@@ -13204,7 +13590,7 @@
         <v>43991.0</v>
       </c>
       <c r="B62" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C62" t="n">
         <v>503.0</v>
@@ -13224,7 +13610,7 @@
         <v>43991.0</v>
       </c>
       <c r="B63" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C63" t="n">
         <v>2413.0</v>
@@ -13244,7 +13630,7 @@
         <v>43991.0</v>
       </c>
       <c r="B64" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C64" t="n">
         <v>6034.0</v>
@@ -13264,7 +13650,7 @@
         <v>43991.0</v>
       </c>
       <c r="B65" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C65" t="n">
         <v>97.0</v>
@@ -13304,7 +13690,7 @@
         <v>43991.0</v>
       </c>
       <c r="B67" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C67" t="n">
         <v>4174.0</v>
@@ -13324,7 +13710,7 @@
         <v>43992.0</v>
       </c>
       <c r="B68" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C68" t="n">
         <v>518.0</v>
@@ -13344,7 +13730,7 @@
         <v>43992.0</v>
       </c>
       <c r="B69" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C69" t="n">
         <v>2523.0</v>
@@ -13364,7 +13750,7 @@
         <v>43992.0</v>
       </c>
       <c r="B70" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C70" t="n">
         <v>6178.0</v>
@@ -13384,7 +13770,7 @@
         <v>43992.0</v>
       </c>
       <c r="B71" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C71" t="n">
         <v>99.0</v>
@@ -13424,7 +13810,7 @@
         <v>43992.0</v>
       </c>
       <c r="B73" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C73" t="n">
         <v>4215.0</v>
@@ -13444,7 +13830,7 @@
         <v>43993.0</v>
       </c>
       <c r="B74" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C74" t="n">
         <v>519.0</v>
@@ -13464,7 +13850,7 @@
         <v>43993.0</v>
       </c>
       <c r="B75" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C75" t="n">
         <v>2528.0</v>
@@ -13484,7 +13870,7 @@
         <v>43993.0</v>
       </c>
       <c r="B76" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C76" t="n">
         <v>6204.0</v>
@@ -13504,7 +13890,7 @@
         <v>43993.0</v>
       </c>
       <c r="B77" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C77" t="n">
         <v>99.0</v>
@@ -13544,7 +13930,7 @@
         <v>43993.0</v>
       </c>
       <c r="B79" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C79" t="n">
         <v>4224.0</v>
@@ -13564,7 +13950,7 @@
         <v>43994.0</v>
       </c>
       <c r="B80" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C80" t="n">
         <v>519.0</v>
@@ -13584,7 +13970,7 @@
         <v>43994.0</v>
       </c>
       <c r="B81" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C81" t="n">
         <v>2532.0</v>
@@ -13604,7 +13990,7 @@
         <v>43994.0</v>
       </c>
       <c r="B82" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C82" t="n">
         <v>6271.0</v>
@@ -13624,7 +14010,7 @@
         <v>43994.0</v>
       </c>
       <c r="B83" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C83" t="n">
         <v>99.0</v>
@@ -13664,7 +14050,7 @@
         <v>43994.0</v>
       </c>
       <c r="B85" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C85" t="n">
         <v>4230.0</v>
@@ -13684,7 +14070,7 @@
         <v>43997.0</v>
       </c>
       <c r="B86" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C86" t="n">
         <v>519.0</v>
@@ -13704,7 +14090,7 @@
         <v>43997.0</v>
       </c>
       <c r="B87" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C87" t="n">
         <v>2552.0</v>
@@ -13724,7 +14110,7 @@
         <v>43997.0</v>
       </c>
       <c r="B88" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C88" t="n">
         <v>6286.0</v>
@@ -13744,7 +14130,7 @@
         <v>43997.0</v>
       </c>
       <c r="B89" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C89" t="n">
         <v>99.0</v>
@@ -13784,7 +14170,7 @@
         <v>43997.0</v>
       </c>
       <c r="B91" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C91" t="n">
         <v>4257.0</v>
@@ -13804,7 +14190,7 @@
         <v>43998.0</v>
       </c>
       <c r="B92" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C92" t="n">
         <v>519.0</v>
@@ -13824,7 +14210,7 @@
         <v>43998.0</v>
       </c>
       <c r="B93" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C93" t="n">
         <v>2555.0</v>
@@ -13844,7 +14230,7 @@
         <v>43998.0</v>
       </c>
       <c r="B94" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C94" t="n">
         <v>6287.0</v>
@@ -13864,7 +14250,7 @@
         <v>43998.0</v>
       </c>
       <c r="B95" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C95" t="n">
         <v>99.0</v>
@@ -13904,7 +14290,7 @@
         <v>43998.0</v>
       </c>
       <c r="B97" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C97" t="n">
         <v>4262.0</v>
@@ -13924,7 +14310,7 @@
         <v>43999.0</v>
       </c>
       <c r="B98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C98" t="n">
         <v>563.0</v>
@@ -13944,7 +14330,7 @@
         <v>43999.0</v>
       </c>
       <c r="B99" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C99" t="n">
         <v>2182.0</v>
@@ -13964,7 +14350,7 @@
         <v>43999.0</v>
       </c>
       <c r="B100" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C100" t="n">
         <v>6382.0</v>
@@ -13984,7 +14370,7 @@
         <v>43999.0</v>
       </c>
       <c r="B101" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C101" t="n">
         <v>109.0</v>
@@ -14024,7 +14410,7 @@
         <v>43999.0</v>
       </c>
       <c r="B103" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C103" t="n">
         <v>5027.0</v>
@@ -14044,7 +14430,7 @@
         <v>44000.0</v>
       </c>
       <c r="B104" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C104" t="n">
         <v>570.0</v>
@@ -14064,7 +14450,7 @@
         <v>44000.0</v>
       </c>
       <c r="B105" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C105" t="n">
         <v>2222.0</v>
@@ -14084,7 +14470,7 @@
         <v>44000.0</v>
       </c>
       <c r="B106" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C106" t="n">
         <v>6523.0</v>
@@ -14104,7 +14490,7 @@
         <v>44000.0</v>
       </c>
       <c r="B107" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C107" t="n">
         <v>112.0</v>
@@ -14144,7 +14530,7 @@
         <v>44000.0</v>
       </c>
       <c r="B109" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C109" t="n">
         <v>5118.0</v>
@@ -14164,7 +14550,7 @@
         <v>44001.0</v>
       </c>
       <c r="B110" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C110" t="n">
         <v>580.0</v>
@@ -14184,7 +14570,7 @@
         <v>44001.0</v>
       </c>
       <c r="B111" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C111" t="n">
         <v>2263.0</v>
@@ -14204,7 +14590,7 @@
         <v>44001.0</v>
       </c>
       <c r="B112" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C112" t="n">
         <v>6613.0</v>
@@ -14224,7 +14610,7 @@
         <v>44001.0</v>
       </c>
       <c r="B113" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C113" t="n">
         <v>112.0</v>
@@ -14264,7 +14650,7 @@
         <v>44001.0</v>
       </c>
       <c r="B115" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C115" t="n">
         <v>5183.0</v>
@@ -14284,7 +14670,7 @@
         <v>44002.0</v>
       </c>
       <c r="B116" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C116" t="n">
         <v>583.0</v>
@@ -14304,7 +14690,7 @@
         <v>44002.0</v>
       </c>
       <c r="B117" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C117" t="n">
         <v>2293.0</v>
@@ -14324,7 +14710,7 @@
         <v>44002.0</v>
       </c>
       <c r="B118" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C118" t="n">
         <v>6728.0</v>
@@ -14344,7 +14730,7 @@
         <v>44002.0</v>
       </c>
       <c r="B119" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C119" t="n">
         <v>113.0</v>
@@ -14384,7 +14770,7 @@
         <v>44002.0</v>
       </c>
       <c r="B121" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C121" t="n">
         <v>5248.0</v>
@@ -14404,7 +14790,7 @@
         <v>44003.0</v>
       </c>
       <c r="B122" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C122" t="n">
         <v>585.0</v>
@@ -14424,7 +14810,7 @@
         <v>44003.0</v>
       </c>
       <c r="B123" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C123" t="n">
         <v>2313.0</v>
@@ -14444,7 +14830,7 @@
         <v>44003.0</v>
       </c>
       <c r="B124" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C124" t="n">
         <v>6809.0</v>
@@ -14464,7 +14850,7 @@
         <v>44003.0</v>
       </c>
       <c r="B125" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C125" t="n">
         <v>114.0</v>
@@ -14504,7 +14890,7 @@
         <v>44003.0</v>
       </c>
       <c r="B127" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C127" t="n">
         <v>5274.0</v>
@@ -14524,7 +14910,7 @@
         <v>44004.0</v>
       </c>
       <c r="B128" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C128" t="n">
         <v>588.0</v>
@@ -14544,7 +14930,7 @@
         <v>44004.0</v>
       </c>
       <c r="B129" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C129" t="n">
         <v>2346.0</v>
@@ -14564,7 +14950,7 @@
         <v>44004.0</v>
       </c>
       <c r="B130" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C130" t="n">
         <v>6884.0</v>
@@ -14584,7 +14970,7 @@
         <v>44004.0</v>
       </c>
       <c r="B131" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C131" t="n">
         <v>115.0</v>
@@ -14624,7 +15010,7 @@
         <v>44004.0</v>
       </c>
       <c r="B133" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C133" t="n">
         <v>5305.0</v>
@@ -14644,7 +15030,7 @@
         <v>44005.0</v>
       </c>
       <c r="B134" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C134" t="n">
         <v>593.0</v>
@@ -14664,7 +15050,7 @@
         <v>44005.0</v>
       </c>
       <c r="B135" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C135" t="n">
         <v>2391.0</v>
@@ -14684,7 +15070,7 @@
         <v>44005.0</v>
       </c>
       <c r="B136" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C136" t="n">
         <v>7028.0</v>
@@ -14704,7 +15090,7 @@
         <v>44005.0</v>
       </c>
       <c r="B137" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C137" t="n">
         <v>115.0</v>
@@ -14744,7 +15130,7 @@
         <v>44005.0</v>
       </c>
       <c r="B139" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C139" t="n">
         <v>5360.0</v>
@@ -14764,7 +15150,7 @@
         <v>44006.0</v>
       </c>
       <c r="B140" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C140" t="n">
         <v>598.0</v>
@@ -14784,7 +15170,7 @@
         <v>44006.0</v>
       </c>
       <c r="B141" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C141" t="n">
         <v>2431.0</v>
@@ -14804,7 +15190,7 @@
         <v>44006.0</v>
       </c>
       <c r="B142" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C142" t="n">
         <v>7186.0</v>
@@ -14824,7 +15210,7 @@
         <v>44006.0</v>
       </c>
       <c r="B143" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C143" t="n">
         <v>117.0</v>
@@ -14864,7 +15250,7 @@
         <v>44006.0</v>
       </c>
       <c r="B145" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C145" t="n">
         <v>5431.0</v>
@@ -14884,7 +15270,7 @@
         <v>44007.0</v>
       </c>
       <c r="B146" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C146" t="n">
         <v>599.0</v>
@@ -14904,7 +15290,7 @@
         <v>44007.0</v>
       </c>
       <c r="B147" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C147" t="n">
         <v>2460.0</v>
@@ -14924,7 +15310,7 @@
         <v>44007.0</v>
       </c>
       <c r="B148" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C148" t="n">
         <v>7364.0</v>
@@ -14944,7 +15330,7 @@
         <v>44007.0</v>
       </c>
       <c r="B149" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C149" t="n">
         <v>117.0</v>
@@ -14984,7 +15370,7 @@
         <v>44007.0</v>
       </c>
       <c r="B151" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C151" t="n">
         <v>5505.0</v>
@@ -15004,7 +15390,7 @@
         <v>44009.0</v>
       </c>
       <c r="B152" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C152" t="n">
         <v>601.0</v>
@@ -15024,7 +15410,7 @@
         <v>44009.0</v>
       </c>
       <c r="B153" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C153" t="n">
         <v>2515.0</v>
@@ -15044,7 +15430,7 @@
         <v>44009.0</v>
       </c>
       <c r="B154" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C154" t="n">
         <v>7666.0</v>
@@ -15064,7 +15450,7 @@
         <v>44009.0</v>
       </c>
       <c r="B155" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C155" t="n">
         <v>117.0</v>
@@ -15104,7 +15490,7 @@
         <v>44009.0</v>
       </c>
       <c r="B157" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C157" t="n">
         <v>5579.0</v>
@@ -15124,7 +15510,7 @@
         <v>44010.0</v>
       </c>
       <c r="B158" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C158" t="n">
         <v>602.0</v>
@@ -15144,7 +15530,7 @@
         <v>44010.0</v>
       </c>
       <c r="B159" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C159" t="n">
         <v>2535.0</v>
@@ -15164,7 +15550,7 @@
         <v>44010.0</v>
       </c>
       <c r="B160" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C160" t="n">
         <v>7750.0</v>
@@ -15184,7 +15570,7 @@
         <v>44010.0</v>
       </c>
       <c r="B161" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C161" t="n">
         <v>117.0</v>
@@ -15224,7 +15610,7 @@
         <v>44010.0</v>
       </c>
       <c r="B163" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C163" t="n">
         <v>5606.0</v>
@@ -15244,7 +15630,7 @@
         <v>44011.0</v>
       </c>
       <c r="B164" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C164" t="n">
         <v>602.0</v>
@@ -15264,7 +15650,7 @@
         <v>44011.0</v>
       </c>
       <c r="B165" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C165" t="n">
         <v>2537.0</v>
@@ -15284,7 +15670,7 @@
         <v>44011.0</v>
       </c>
       <c r="B166" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C166" t="n">
         <v>7763.0</v>
@@ -15304,7 +15690,7 @@
         <v>44011.0</v>
       </c>
       <c r="B167" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C167" t="n">
         <v>117.0</v>
@@ -15344,7 +15730,7 @@
         <v>44011.0</v>
       </c>
       <c r="B169" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C169" t="n">
         <v>5615.0</v>
@@ -15364,7 +15750,7 @@
         <v>44012.0</v>
       </c>
       <c r="B170" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C170" t="n">
         <v>604.0</v>
@@ -15384,7 +15770,7 @@
         <v>44012.0</v>
       </c>
       <c r="B171" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C171" t="n">
         <v>2548.0</v>
@@ -15404,7 +15790,7 @@
         <v>44012.0</v>
       </c>
       <c r="B172" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C172" t="n">
         <v>7803.0</v>
@@ -15424,7 +15810,7 @@
         <v>44012.0</v>
       </c>
       <c r="B173" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C173" t="n">
         <v>118.0</v>
@@ -15464,7 +15850,7 @@
         <v>44012.0</v>
       </c>
       <c r="B175" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C175" t="n">
         <v>5628.0</v>
@@ -15484,7 +15870,7 @@
         <v>44013.0</v>
       </c>
       <c r="B176" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C176" t="n">
         <v>614.0</v>
@@ -15504,7 +15890,7 @@
         <v>44013.0</v>
       </c>
       <c r="B177" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C177" t="n">
         <v>2592.0</v>
@@ -15524,7 +15910,7 @@
         <v>44013.0</v>
       </c>
       <c r="B178" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C178" t="n">
         <v>8138.0</v>
@@ -15544,7 +15930,7 @@
         <v>44013.0</v>
       </c>
       <c r="B179" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C179" t="n">
         <v>119.0</v>
@@ -15584,7 +15970,7 @@
         <v>44013.0</v>
       </c>
       <c r="B181" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C181" t="n">
         <v>5720.0</v>
@@ -15604,7 +15990,7 @@
         <v>44014.0</v>
       </c>
       <c r="B182" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C182" t="n">
         <v>620.0</v>
@@ -15624,7 +16010,7 @@
         <v>44014.0</v>
       </c>
       <c r="B183" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C183" t="n">
         <v>2630.0</v>
@@ -15644,7 +16030,7 @@
         <v>44014.0</v>
       </c>
       <c r="B184" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C184" t="n">
         <v>8347.0</v>
@@ -15664,7 +16050,7 @@
         <v>44014.0</v>
       </c>
       <c r="B185" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C185" t="n">
         <v>120.0</v>
@@ -15724,7 +16110,7 @@
         <v>44014.0</v>
       </c>
       <c r="B188" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C188" t="n">
         <v>5780.0</v>
@@ -15744,7 +16130,7 @@
         <v>44015.0</v>
       </c>
       <c r="B189" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C189" t="n">
         <v>624.0</v>
@@ -15764,7 +16150,7 @@
         <v>44015.0</v>
       </c>
       <c r="B190" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C190" t="n">
         <v>2672.0</v>
@@ -15784,7 +16170,7 @@
         <v>44015.0</v>
       </c>
       <c r="B191" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C191" t="n">
         <v>8525.0</v>
@@ -15804,7 +16190,7 @@
         <v>44015.0</v>
       </c>
       <c r="B192" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C192" t="n">
         <v>120.0</v>
@@ -15864,7 +16250,7 @@
         <v>44015.0</v>
       </c>
       <c r="B195" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C195" t="n">
         <v>5838.0</v>
@@ -15884,7 +16270,7 @@
         <v>44016.0</v>
       </c>
       <c r="B196" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C196" t="n">
         <v>628.0</v>
@@ -15904,7 +16290,7 @@
         <v>44016.0</v>
       </c>
       <c r="B197" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C197" t="n">
         <v>2700.0</v>
@@ -15924,7 +16310,7 @@
         <v>44016.0</v>
       </c>
       <c r="B198" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C198" t="n">
         <v>8780.0</v>
@@ -15944,7 +16330,7 @@
         <v>44016.0</v>
       </c>
       <c r="B199" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C199" t="n">
         <v>121.0</v>
@@ -16004,7 +16390,7 @@
         <v>44016.0</v>
       </c>
       <c r="B202" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C202" t="n">
         <v>5892.0</v>
@@ -16024,7 +16410,7 @@
         <v>44017.0</v>
       </c>
       <c r="B203" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C203" t="n">
         <v>629.0</v>
@@ -16044,7 +16430,7 @@
         <v>44017.0</v>
       </c>
       <c r="B204" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C204" t="n">
         <v>2710.0</v>
@@ -16064,7 +16450,7 @@
         <v>44017.0</v>
       </c>
       <c r="B205" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C205" t="n">
         <v>8840.0</v>
@@ -16084,7 +16470,7 @@
         <v>44017.0</v>
       </c>
       <c r="B206" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C206" t="n">
         <v>121.0</v>
@@ -16144,7 +16530,7 @@
         <v>44017.0</v>
       </c>
       <c r="B209" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C209" t="n">
         <v>5902.0</v>
@@ -16164,7 +16550,7 @@
         <v>44018.0</v>
       </c>
       <c r="B210" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C210" t="n">
         <v>629.0</v>
@@ -16184,7 +16570,7 @@
         <v>44018.0</v>
       </c>
       <c r="B211" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C211" t="n">
         <v>2721.0</v>
@@ -16204,7 +16590,7 @@
         <v>44018.0</v>
       </c>
       <c r="B212" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C212" t="n">
         <v>8907.0</v>
@@ -16224,7 +16610,7 @@
         <v>44018.0</v>
       </c>
       <c r="B213" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C213" t="n">
         <v>121.0</v>
@@ -16284,7 +16670,7 @@
         <v>44018.0</v>
       </c>
       <c r="B216" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C216" t="n">
         <v>5925.0</v>
@@ -16304,7 +16690,7 @@
         <v>44019.0</v>
       </c>
       <c r="B217" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C217" t="n">
         <v>630.0</v>
@@ -16324,7 +16710,7 @@
         <v>44019.0</v>
       </c>
       <c r="B218" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C218" t="n">
         <v>2747.0</v>
@@ -16344,7 +16730,7 @@
         <v>44019.0</v>
       </c>
       <c r="B219" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C219" t="n">
         <v>9111.0</v>
@@ -16364,7 +16750,7 @@
         <v>44019.0</v>
       </c>
       <c r="B220" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C220" t="n">
         <v>123.0</v>
@@ -16424,7 +16810,7 @@
         <v>44019.0</v>
       </c>
       <c r="B223" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C223" t="n">
         <v>5971.0</v>
@@ -16437,6 +16823,166 @@
       </c>
       <c r="F223" t="n">
         <v>0.43686502177068215</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n" s="6">
+        <v>44020.0</v>
+      </c>
+      <c r="B224" t="s">
+        <v>23</v>
+      </c>
+      <c r="C224" t="n">
+        <v>633.0</v>
+      </c>
+      <c r="D224" t="n">
+        <v>2.6283009467</v>
+      </c>
+      <c r="E224" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="F224" t="n">
+        <v>2.0202020202</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n" s="6">
+        <v>44020.0</v>
+      </c>
+      <c r="B225" t="s">
+        <v>24</v>
+      </c>
+      <c r="C225" t="n">
+        <v>2791.0</v>
+      </c>
+      <c r="D225" t="n">
+        <v>11.588606544</v>
+      </c>
+      <c r="E225" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="F225" t="n">
+        <v>12.842712843</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n" s="6">
+        <v>44020.0</v>
+      </c>
+      <c r="B226" t="s">
+        <v>25</v>
+      </c>
+      <c r="C226" t="n">
+        <v>9356.0</v>
+      </c>
+      <c r="D226" t="n">
+        <v>38.847367547</v>
+      </c>
+      <c r="E226" t="n">
+        <v>198.0</v>
+      </c>
+      <c r="F226" t="n">
+        <v>28.571428571</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n" s="6">
+        <v>44020.0</v>
+      </c>
+      <c r="B227" t="s">
+        <v>26</v>
+      </c>
+      <c r="C227" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="D227" t="n">
+        <v>0.5397774456</v>
+      </c>
+      <c r="E227" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0.1443001443</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n" s="6">
+        <v>44020.0</v>
+      </c>
+      <c r="B228" t="s">
+        <v>28</v>
+      </c>
+      <c r="C228" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D228" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E228" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F228" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n" s="6">
+        <v>44020.0</v>
+      </c>
+      <c r="B229" t="s">
+        <v>19</v>
+      </c>
+      <c r="C229" t="n">
+        <v>24084.0</v>
+      </c>
+      <c r="D229" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="E229" t="n">
+        <v>693.0</v>
+      </c>
+      <c r="F229" t="n">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n" s="6">
+        <v>44020.0</v>
+      </c>
+      <c r="B230" t="s">
+        <v>18</v>
+      </c>
+      <c r="C230" t="n">
+        <v>5103.0</v>
+      </c>
+      <c r="D230" t="n">
+        <v>21.188340807</v>
+      </c>
+      <c r="E230" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="F230" t="n">
+        <v>12.698412698</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n" s="6">
+        <v>44020.0</v>
+      </c>
+      <c r="B231" t="s">
+        <v>27</v>
+      </c>
+      <c r="C231" t="n">
+        <v>6071.0</v>
+      </c>
+      <c r="D231" t="n">
+        <v>25.20760671</v>
+      </c>
+      <c r="E231" t="n">
+        <v>303.0</v>
+      </c>
+      <c r="F231" t="n">
+        <v>43.722943723</v>
       </c>
     </row>
   </sheetData>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -9939,6 +9939,286 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="490">
+      <c r="A490" t="n" s="2">
+        <v>44021.0</v>
+      </c>
+      <c r="B490" t="s">
+        <v>6</v>
+      </c>
+      <c r="C490" t="n">
+        <v>451.0</v>
+      </c>
+      <c r="D490" t="n">
+        <v>0.018439020401488204</v>
+      </c>
+      <c r="E490" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F490" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n" s="2">
+        <v>44021.0</v>
+      </c>
+      <c r="B491" t="s">
+        <v>7</v>
+      </c>
+      <c r="C491" t="n">
+        <v>1172.0</v>
+      </c>
+      <c r="D491" t="n">
+        <v>0.04791692219632855</v>
+      </c>
+      <c r="E491" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F491" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n" s="2">
+        <v>44021.0</v>
+      </c>
+      <c r="B492" t="s">
+        <v>8</v>
+      </c>
+      <c r="C492" t="n">
+        <v>4462.0</v>
+      </c>
+      <c r="D492" t="n">
+        <v>0.18242773621161945</v>
+      </c>
+      <c r="E492" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F492" t="n">
+        <v>0.005689900426742532</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n" s="2">
+        <v>44021.0</v>
+      </c>
+      <c r="B493" t="s">
+        <v>9</v>
+      </c>
+      <c r="C493" t="n">
+        <v>4532.0</v>
+      </c>
+      <c r="D493" t="n">
+        <v>0.18528966842471073</v>
+      </c>
+      <c r="E493" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F493" t="n">
+        <v>0.017069701280227598</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n" s="2">
+        <v>44021.0</v>
+      </c>
+      <c r="B494" t="s">
+        <v>10</v>
+      </c>
+      <c r="C494" t="n">
+        <v>4360.0</v>
+      </c>
+      <c r="D494" t="n">
+        <v>0.17825749212968642</v>
+      </c>
+      <c r="E494" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F494" t="n">
+        <v>0.03556187766714083</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n" s="2">
+        <v>44021.0</v>
+      </c>
+      <c r="B495" t="s">
+        <v>11</v>
+      </c>
+      <c r="C495" t="n">
+        <v>4102.0</v>
+      </c>
+      <c r="D495" t="n">
+        <v>0.16770922768714994</v>
+      </c>
+      <c r="E495" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="F495" t="n">
+        <v>0.10668563300142248</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n" s="2">
+        <v>44021.0</v>
+      </c>
+      <c r="B496" t="s">
+        <v>12</v>
+      </c>
+      <c r="C496" t="n">
+        <v>1633.0</v>
+      </c>
+      <c r="D496" t="n">
+        <v>0.0667647900568298</v>
+      </c>
+      <c r="E496" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="F496" t="n">
+        <v>0.10099573257467995</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n" s="2">
+        <v>44021.0</v>
+      </c>
+      <c r="B497" t="s">
+        <v>13</v>
+      </c>
+      <c r="C497" t="n">
+        <v>1183.0</v>
+      </c>
+      <c r="D497" t="n">
+        <v>0.048366654401242895</v>
+      </c>
+      <c r="E497" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="F497" t="n">
+        <v>0.11379800853485064</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n" s="2">
+        <v>44021.0</v>
+      </c>
+      <c r="B498" t="s">
+        <v>14</v>
+      </c>
+      <c r="C498" t="n">
+        <v>769.0</v>
+      </c>
+      <c r="D498" t="n">
+        <v>0.031440369598102945</v>
+      </c>
+      <c r="E498" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="F498" t="n">
+        <v>0.10668563300142248</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n" s="2">
+        <v>44021.0</v>
+      </c>
+      <c r="B499" t="s">
+        <v>15</v>
+      </c>
+      <c r="C499" t="n">
+        <v>584.0</v>
+      </c>
+      <c r="D499" t="n">
+        <v>0.023876691606361668</v>
+      </c>
+      <c r="E499" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="F499" t="n">
+        <v>0.11379800853485064</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n" s="2">
+        <v>44021.0</v>
+      </c>
+      <c r="B500" t="s">
+        <v>16</v>
+      </c>
+      <c r="C500" t="n">
+        <v>1097.0</v>
+      </c>
+      <c r="D500" t="n">
+        <v>0.04485056625373073</v>
+      </c>
+      <c r="E500" t="n">
+        <v>281.0</v>
+      </c>
+      <c r="F500" t="n">
+        <v>0.39971550497866287</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n" s="2">
+        <v>44021.0</v>
+      </c>
+      <c r="B501" t="s">
+        <v>17</v>
+      </c>
+      <c r="C501" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="D501" t="n">
+        <v>0.004047589844229118</v>
+      </c>
+      <c r="E501" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F501" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n" s="2">
+        <v>44021.0</v>
+      </c>
+      <c r="B502" t="s">
+        <v>19</v>
+      </c>
+      <c r="C502" t="n">
+        <v>24459.0</v>
+      </c>
+      <c r="D502" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E502" t="n">
+        <v>703.0</v>
+      </c>
+      <c r="F502" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n" s="2">
+        <v>44021.0</v>
+      </c>
+      <c r="B503" t="s">
+        <v>18</v>
+      </c>
+      <c r="C503" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D503" t="n">
+        <v>6.132711885195633E-4</v>
+      </c>
+      <c r="E503" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F503" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -12352,6 +12632,86 @@
         <v>0.4329004329</v>
       </c>
     </row>
+    <row r="121">
+      <c r="A121" t="n" s="4">
+        <v>44021.0</v>
+      </c>
+      <c r="B121" t="s">
+        <v>20</v>
+      </c>
+      <c r="C121" t="n">
+        <v>11798.0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.48235823214358725</v>
+      </c>
+      <c r="E121" t="n">
+        <v>292.0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.41536273115220484</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n" s="4">
+        <v>44021.0</v>
+      </c>
+      <c r="B122" t="s">
+        <v>21</v>
+      </c>
+      <c r="C122" t="n">
+        <v>12396.0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.5068073101925672</v>
+      </c>
+      <c r="E122" t="n">
+        <v>408.0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.5803698435277382</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n" s="4">
+        <v>44021.0</v>
+      </c>
+      <c r="B123" t="s">
+        <v>19</v>
+      </c>
+      <c r="C123" t="n">
+        <v>24459.0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E123" t="n">
+        <v>703.0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n" s="4">
+        <v>44021.0</v>
+      </c>
+      <c r="B124" t="s">
+        <v>18</v>
+      </c>
+      <c r="C124" t="n">
+        <v>265.0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.01083445766384562</v>
+      </c>
+      <c r="E124" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.004267425320056899</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -16985,6 +17345,146 @@
         <v>43.722943723</v>
       </c>
     </row>
+    <row r="232">
+      <c r="A232" t="n" s="6">
+        <v>44021.0</v>
+      </c>
+      <c r="B232" t="s">
+        <v>23</v>
+      </c>
+      <c r="C232" t="n">
+        <v>634.0</v>
+      </c>
+      <c r="D232" t="n">
+        <v>0.025920928901426877</v>
+      </c>
+      <c r="E232" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="F232" t="n">
+        <v>0.01991465149359886</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n" s="6">
+        <v>44021.0</v>
+      </c>
+      <c r="B233" t="s">
+        <v>24</v>
+      </c>
+      <c r="C233" t="n">
+        <v>2821.0</v>
+      </c>
+      <c r="D233" t="n">
+        <v>0.11533586818757921</v>
+      </c>
+      <c r="E233" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="F233" t="n">
+        <v>0.12802275960170698</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n" s="6">
+        <v>44021.0</v>
+      </c>
+      <c r="B234" t="s">
+        <v>25</v>
+      </c>
+      <c r="C234" t="n">
+        <v>9548.0</v>
+      </c>
+      <c r="D234" t="n">
+        <v>0.39036755386565275</v>
+      </c>
+      <c r="E234" t="n">
+        <v>204.0</v>
+      </c>
+      <c r="F234" t="n">
+        <v>0.2901849217638691</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n" s="6">
+        <v>44021.0</v>
+      </c>
+      <c r="B235" t="s">
+        <v>26</v>
+      </c>
+      <c r="C235" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="D235" t="n">
+        <v>0.005315016967169549</v>
+      </c>
+      <c r="E235" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F235" t="n">
+        <v>0.001422475106685633</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n" s="6">
+        <v>44021.0</v>
+      </c>
+      <c r="B236" t="s">
+        <v>19</v>
+      </c>
+      <c r="C236" t="n">
+        <v>24459.0</v>
+      </c>
+      <c r="D236" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E236" t="n">
+        <v>703.0</v>
+      </c>
+      <c r="F236" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n" s="6">
+        <v>44021.0</v>
+      </c>
+      <c r="B237" t="s">
+        <v>18</v>
+      </c>
+      <c r="C237" t="n">
+        <v>5189.0</v>
+      </c>
+      <c r="D237" t="n">
+        <v>0.2121509464818676</v>
+      </c>
+      <c r="E237" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="F237" t="n">
+        <v>0.12802275960170698</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n" s="6">
+        <v>44021.0</v>
+      </c>
+      <c r="B238" t="s">
+        <v>27</v>
+      </c>
+      <c r="C238" t="n">
+        <v>6137.0</v>
+      </c>
+      <c r="D238" t="n">
+        <v>0.250909685596304</v>
+      </c>
+      <c r="E238" t="n">
+        <v>304.0</v>
+      </c>
+      <c r="F238" t="n">
+        <v>0.43243243243243246</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -10329,6 +10329,266 @@
         <v>0</v>
       </c>
     </row>
+    <row r="496">
+      <c r="A496" s="1" t="n">
+        <v>44022</v>
+      </c>
+      <c r="B496" t="s">
+        <v>6</v>
+      </c>
+      <c r="C496" t="n">
+        <v>461</v>
+      </c>
+      <c r="D496" t="n">
+        <v>1.8620243962</v>
+      </c>
+      <c r="E496" t="n">
+        <v>0</v>
+      </c>
+      <c r="F496" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="n">
+        <v>44022</v>
+      </c>
+      <c r="B497" t="s">
+        <v>7</v>
+      </c>
+      <c r="C497" t="n">
+        <v>1198</v>
+      </c>
+      <c r="D497" t="n">
+        <v>4.8388399709</v>
+      </c>
+      <c r="E497" t="n">
+        <v>0</v>
+      </c>
+      <c r="F497" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="n">
+        <v>44022</v>
+      </c>
+      <c r="B498" t="s">
+        <v>8</v>
+      </c>
+      <c r="C498" t="n">
+        <v>4538</v>
+      </c>
+      <c r="D498" t="n">
+        <v>18.329428871</v>
+      </c>
+      <c r="E498" t="n">
+        <v>4</v>
+      </c>
+      <c r="F498" t="n">
+        <v>0.5633802817</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="n">
+        <v>44022</v>
+      </c>
+      <c r="B499" t="s">
+        <v>9</v>
+      </c>
+      <c r="C499" t="n">
+        <v>4577</v>
+      </c>
+      <c r="D499" t="n">
+        <v>18.486953712</v>
+      </c>
+      <c r="E499" t="n">
+        <v>12</v>
+      </c>
+      <c r="F499" t="n">
+        <v>1.6901408451</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="n">
+        <v>44022</v>
+      </c>
+      <c r="B500" t="s">
+        <v>10</v>
+      </c>
+      <c r="C500" t="n">
+        <v>4407</v>
+      </c>
+      <c r="D500" t="n">
+        <v>17.800306971</v>
+      </c>
+      <c r="E500" t="n">
+        <v>26</v>
+      </c>
+      <c r="F500" t="n">
+        <v>3.661971831</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="n">
+        <v>44022</v>
+      </c>
+      <c r="B501" t="s">
+        <v>11</v>
+      </c>
+      <c r="C501" t="n">
+        <v>4146</v>
+      </c>
+      <c r="D501" t="n">
+        <v>16.74610227</v>
+      </c>
+      <c r="E501" t="n">
+        <v>75</v>
+      </c>
+      <c r="F501" t="n">
+        <v>10.563380282</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="n">
+        <v>44022</v>
+      </c>
+      <c r="B502" t="s">
+        <v>12</v>
+      </c>
+      <c r="C502" t="n">
+        <v>1650</v>
+      </c>
+      <c r="D502" t="n">
+        <v>6.6645124808</v>
+      </c>
+      <c r="E502" t="n">
+        <v>71</v>
+      </c>
+      <c r="F502" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="n">
+        <v>44022</v>
+      </c>
+      <c r="B503" t="s">
+        <v>13</v>
+      </c>
+      <c r="C503" t="n">
+        <v>1196</v>
+      </c>
+      <c r="D503" t="n">
+        <v>4.830761774</v>
+      </c>
+      <c r="E503" t="n">
+        <v>82</v>
+      </c>
+      <c r="F503" t="n">
+        <v>11.549295775</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="n">
+        <v>44022</v>
+      </c>
+      <c r="B504" t="s">
+        <v>14</v>
+      </c>
+      <c r="C504" t="n">
+        <v>778</v>
+      </c>
+      <c r="D504" t="n">
+        <v>3.1424186122</v>
+      </c>
+      <c r="E504" t="n">
+        <v>78</v>
+      </c>
+      <c r="F504" t="n">
+        <v>10.985915493</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="n">
+        <v>44022</v>
+      </c>
+      <c r="B505" t="s">
+        <v>15</v>
+      </c>
+      <c r="C505" t="n">
+        <v>586</v>
+      </c>
+      <c r="D505" t="n">
+        <v>2.3669117053</v>
+      </c>
+      <c r="E505" t="n">
+        <v>80</v>
+      </c>
+      <c r="F505" t="n">
+        <v>11.267605634</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="n">
+        <v>44022</v>
+      </c>
+      <c r="B506" t="s">
+        <v>16</v>
+      </c>
+      <c r="C506" t="n">
+        <v>1103</v>
+      </c>
+      <c r="D506" t="n">
+        <v>4.455125616</v>
+      </c>
+      <c r="E506" t="n">
+        <v>282</v>
+      </c>
+      <c r="F506" t="n">
+        <v>39.718309859</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="n">
+        <v>44022</v>
+      </c>
+      <c r="B507" t="s">
+        <v>17</v>
+      </c>
+      <c r="C507" t="n">
+        <v>102</v>
+      </c>
+      <c r="D507" t="n">
+        <v>0.4119880443</v>
+      </c>
+      <c r="E507" t="n">
+        <v>0</v>
+      </c>
+      <c r="F507" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="n">
+        <v>44022</v>
+      </c>
+      <c r="B508" t="s">
+        <v>18</v>
+      </c>
+      <c r="C508" t="n">
+        <v>16</v>
+      </c>
+      <c r="D508" t="n">
+        <v>0.0646255756</v>
+      </c>
+      <c r="E508" t="n">
+        <v>0</v>
+      </c>
+      <c r="F508" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -12643,6 +12903,66 @@
         <v>0.0042674253200569</v>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>44022</v>
+      </c>
+      <c r="B116" t="s">
+        <v>19</v>
+      </c>
+      <c r="C116" t="n">
+        <v>11928</v>
+      </c>
+      <c r="D116" t="n">
+        <v>48.178366589</v>
+      </c>
+      <c r="E116" t="n">
+        <v>292</v>
+      </c>
+      <c r="F116" t="n">
+        <v>41.126760563</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>44022</v>
+      </c>
+      <c r="B117" t="s">
+        <v>20</v>
+      </c>
+      <c r="C117" t="n">
+        <v>12560</v>
+      </c>
+      <c r="D117" t="n">
+        <v>50.731076824</v>
+      </c>
+      <c r="E117" t="n">
+        <v>415</v>
+      </c>
+      <c r="F117" t="n">
+        <v>58.450704225</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>44022</v>
+      </c>
+      <c r="B118" t="s">
+        <v>18</v>
+      </c>
+      <c r="C118" t="n">
+        <v>270</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1.0905565878</v>
+      </c>
+      <c r="E118" t="n">
+        <v>3</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.4225352113</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -17117,6 +17437,126 @@
         <v>0.432432432432432</v>
       </c>
     </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>44022</v>
+      </c>
+      <c r="B224" t="s">
+        <v>21</v>
+      </c>
+      <c r="C224" t="n">
+        <v>640</v>
+      </c>
+      <c r="D224" t="n">
+        <v>2.5850230229</v>
+      </c>
+      <c r="E224" t="n">
+        <v>14</v>
+      </c>
+      <c r="F224" t="n">
+        <v>1.9718309859</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>44022</v>
+      </c>
+      <c r="B225" t="s">
+        <v>22</v>
+      </c>
+      <c r="C225" t="n">
+        <v>2851</v>
+      </c>
+      <c r="D225" t="n">
+        <v>11.515469747</v>
+      </c>
+      <c r="E225" t="n">
+        <v>91</v>
+      </c>
+      <c r="F225" t="n">
+        <v>12.816901408</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>44022</v>
+      </c>
+      <c r="B226" t="s">
+        <v>23</v>
+      </c>
+      <c r="C226" t="n">
+        <v>9712</v>
+      </c>
+      <c r="D226" t="n">
+        <v>39.227724372</v>
+      </c>
+      <c r="E226" t="n">
+        <v>205</v>
+      </c>
+      <c r="F226" t="n">
+        <v>28.873239437</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>44022</v>
+      </c>
+      <c r="B227" t="s">
+        <v>24</v>
+      </c>
+      <c r="C227" t="n">
+        <v>132</v>
+      </c>
+      <c r="D227" t="n">
+        <v>0.5331609985</v>
+      </c>
+      <c r="E227" t="n">
+        <v>1</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0.1408450704</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>44022</v>
+      </c>
+      <c r="B228" t="s">
+        <v>18</v>
+      </c>
+      <c r="C228" t="n">
+        <v>5234</v>
+      </c>
+      <c r="D228" t="n">
+        <v>21.140641409</v>
+      </c>
+      <c r="E228" t="n">
+        <v>90</v>
+      </c>
+      <c r="F228" t="n">
+        <v>12.676056338</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>44022</v>
+      </c>
+      <c r="B229" t="s">
+        <v>25</v>
+      </c>
+      <c r="C229" t="n">
+        <v>6189</v>
+      </c>
+      <c r="D229" t="n">
+        <v>24.997980451</v>
+      </c>
+      <c r="E229" t="n">
+        <v>309</v>
+      </c>
+      <c r="F229" t="n">
+        <v>43.521126761</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -10589,6 +10589,266 @@
         <v>0</v>
       </c>
     </row>
+    <row r="509">
+      <c r="A509" s="1" t="n">
+        <v>44023</v>
+      </c>
+      <c r="B509" t="s">
+        <v>6</v>
+      </c>
+      <c r="C509" t="n">
+        <v>475</v>
+      </c>
+      <c r="D509" t="n">
+        <v>1.8781384682</v>
+      </c>
+      <c r="E509" t="n">
+        <v>0</v>
+      </c>
+      <c r="F509" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="n">
+        <v>44023</v>
+      </c>
+      <c r="B510" t="s">
+        <v>7</v>
+      </c>
+      <c r="C510" t="n">
+        <v>1229</v>
+      </c>
+      <c r="D510" t="n">
+        <v>4.8594361631</v>
+      </c>
+      <c r="E510" t="n">
+        <v>0</v>
+      </c>
+      <c r="F510" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="n">
+        <v>44023</v>
+      </c>
+      <c r="B511" t="s">
+        <v>8</v>
+      </c>
+      <c r="C511" t="n">
+        <v>4672</v>
+      </c>
+      <c r="D511" t="n">
+        <v>18.472974576</v>
+      </c>
+      <c r="E511" t="n">
+        <v>5</v>
+      </c>
+      <c r="F511" t="n">
+        <v>0.6973500697</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="n">
+        <v>44023</v>
+      </c>
+      <c r="B512" t="s">
+        <v>9</v>
+      </c>
+      <c r="C512" t="n">
+        <v>4671</v>
+      </c>
+      <c r="D512" t="n">
+        <v>18.4690206</v>
+      </c>
+      <c r="E512" t="n">
+        <v>12</v>
+      </c>
+      <c r="F512" t="n">
+        <v>1.6736401674</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="n">
+        <v>44023</v>
+      </c>
+      <c r="B513" t="s">
+        <v>10</v>
+      </c>
+      <c r="C513" t="n">
+        <v>4507</v>
+      </c>
+      <c r="D513" t="n">
+        <v>17.820568582</v>
+      </c>
+      <c r="E513" t="n">
+        <v>26</v>
+      </c>
+      <c r="F513" t="n">
+        <v>3.6262203626</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="n">
+        <v>44023</v>
+      </c>
+      <c r="B514" t="s">
+        <v>11</v>
+      </c>
+      <c r="C514" t="n">
+        <v>4217</v>
+      </c>
+      <c r="D514" t="n">
+        <v>16.673915622</v>
+      </c>
+      <c r="E514" t="n">
+        <v>77</v>
+      </c>
+      <c r="F514" t="n">
+        <v>10.739191074</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="n">
+        <v>44023</v>
+      </c>
+      <c r="B515" t="s">
+        <v>12</v>
+      </c>
+      <c r="C515" t="n">
+        <v>1679</v>
+      </c>
+      <c r="D515" t="n">
+        <v>6.6387252382</v>
+      </c>
+      <c r="E515" t="n">
+        <v>72</v>
+      </c>
+      <c r="F515" t="n">
+        <v>10.041841004</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="n">
+        <v>44023</v>
+      </c>
+      <c r="B516" t="s">
+        <v>13</v>
+      </c>
+      <c r="C516" t="n">
+        <v>1218</v>
+      </c>
+      <c r="D516" t="n">
+        <v>4.8159424301</v>
+      </c>
+      <c r="E516" t="n">
+        <v>82</v>
+      </c>
+      <c r="F516" t="n">
+        <v>11.436541144</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="n">
+        <v>44023</v>
+      </c>
+      <c r="B517" t="s">
+        <v>14</v>
+      </c>
+      <c r="C517" t="n">
+        <v>792</v>
+      </c>
+      <c r="D517" t="n">
+        <v>3.1315487723</v>
+      </c>
+      <c r="E517" t="n">
+        <v>79</v>
+      </c>
+      <c r="F517" t="n">
+        <v>11.018131102</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="n">
+        <v>44023</v>
+      </c>
+      <c r="B518" t="s">
+        <v>15</v>
+      </c>
+      <c r="C518" t="n">
+        <v>597</v>
+      </c>
+      <c r="D518" t="n">
+        <v>2.3605235064</v>
+      </c>
+      <c r="E518" t="n">
+        <v>81</v>
+      </c>
+      <c r="F518" t="n">
+        <v>11.29707113</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="n">
+        <v>44023</v>
+      </c>
+      <c r="B519" t="s">
+        <v>16</v>
+      </c>
+      <c r="C519" t="n">
+        <v>1111</v>
+      </c>
+      <c r="D519" t="n">
+        <v>4.3928670278</v>
+      </c>
+      <c r="E519" t="n">
+        <v>283</v>
+      </c>
+      <c r="F519" t="n">
+        <v>39.470013947</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="n">
+        <v>44023</v>
+      </c>
+      <c r="B520" t="s">
+        <v>17</v>
+      </c>
+      <c r="C520" t="n">
+        <v>105</v>
+      </c>
+      <c r="D520" t="n">
+        <v>0.4151674509</v>
+      </c>
+      <c r="E520" t="n">
+        <v>0</v>
+      </c>
+      <c r="F520" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="n">
+        <v>44023</v>
+      </c>
+      <c r="B521" t="s">
+        <v>18</v>
+      </c>
+      <c r="C521" t="n">
+        <v>18</v>
+      </c>
+      <c r="D521" t="n">
+        <v>0.071171563</v>
+      </c>
+      <c r="E521" t="n">
+        <v>0</v>
+      </c>
+      <c r="F521" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -12963,6 +13223,66 @@
         <v>0.4225352113</v>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>44023</v>
+      </c>
+      <c r="B119" t="s">
+        <v>19</v>
+      </c>
+      <c r="C119" t="n">
+        <v>12152</v>
+      </c>
+      <c r="D119" t="n">
+        <v>48.048712981</v>
+      </c>
+      <c r="E119" t="n">
+        <v>295</v>
+      </c>
+      <c r="F119" t="n">
+        <v>41.143654114</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>44023</v>
+      </c>
+      <c r="B120" t="s">
+        <v>20</v>
+      </c>
+      <c r="C120" t="n">
+        <v>12845</v>
+      </c>
+      <c r="D120" t="n">
+        <v>50.788818157</v>
+      </c>
+      <c r="E120" t="n">
+        <v>419</v>
+      </c>
+      <c r="F120" t="n">
+        <v>58.437935844</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>44023</v>
+      </c>
+      <c r="B121" t="s">
+        <v>18</v>
+      </c>
+      <c r="C121" t="n">
+        <v>294</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1.1624688624</v>
+      </c>
+      <c r="E121" t="n">
+        <v>3</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.4184100418</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -17557,6 +17877,126 @@
         <v>43.521126761</v>
       </c>
     </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>44023</v>
+      </c>
+      <c r="B230" t="s">
+        <v>21</v>
+      </c>
+      <c r="C230" t="n">
+        <v>641</v>
+      </c>
+      <c r="D230" t="n">
+        <v>2.5344984382</v>
+      </c>
+      <c r="E230" t="n">
+        <v>14</v>
+      </c>
+      <c r="F230" t="n">
+        <v>1.9525801953</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>44023</v>
+      </c>
+      <c r="B231" t="s">
+        <v>22</v>
+      </c>
+      <c r="C231" t="n">
+        <v>2887</v>
+      </c>
+      <c r="D231" t="n">
+        <v>11.415127911</v>
+      </c>
+      <c r="E231" t="n">
+        <v>91</v>
+      </c>
+      <c r="F231" t="n">
+        <v>12.691771269</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>44023</v>
+      </c>
+      <c r="B232" t="s">
+        <v>23</v>
+      </c>
+      <c r="C232" t="n">
+        <v>10012</v>
+      </c>
+      <c r="D232" t="n">
+        <v>39.587204935</v>
+      </c>
+      <c r="E232" t="n">
+        <v>209</v>
+      </c>
+      <c r="F232" t="n">
+        <v>29.149232915</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>44023</v>
+      </c>
+      <c r="B233" t="s">
+        <v>24</v>
+      </c>
+      <c r="C233" t="n">
+        <v>133</v>
+      </c>
+      <c r="D233" t="n">
+        <v>0.5258787711</v>
+      </c>
+      <c r="E233" t="n">
+        <v>1</v>
+      </c>
+      <c r="F233" t="n">
+        <v>0.1394700139</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>44023</v>
+      </c>
+      <c r="B234" t="s">
+        <v>18</v>
+      </c>
+      <c r="C234" t="n">
+        <v>5329</v>
+      </c>
+      <c r="D234" t="n">
+        <v>21.070736626</v>
+      </c>
+      <c r="E234" t="n">
+        <v>93</v>
+      </c>
+      <c r="F234" t="n">
+        <v>12.970711297</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>44023</v>
+      </c>
+      <c r="B235" t="s">
+        <v>25</v>
+      </c>
+      <c r="C235" t="n">
+        <v>6289</v>
+      </c>
+      <c r="D235" t="n">
+        <v>24.866553319</v>
+      </c>
+      <c r="E235" t="n">
+        <v>309</v>
+      </c>
+      <c r="F235" t="n">
+        <v>43.09623431</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -10849,6 +10849,266 @@
         <v>0</v>
       </c>
     </row>
+    <row r="522">
+      <c r="A522" s="1" t="n">
+        <v>44024</v>
+      </c>
+      <c r="B522" t="s">
+        <v>6</v>
+      </c>
+      <c r="C522" t="n">
+        <v>478</v>
+      </c>
+      <c r="D522" t="n">
+        <v>0.0187907854391068</v>
+      </c>
+      <c r="E522" t="n">
+        <v>0</v>
+      </c>
+      <c r="F522" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="n">
+        <v>44024</v>
+      </c>
+      <c r="B523" t="s">
+        <v>7</v>
+      </c>
+      <c r="C523" t="n">
+        <v>1241</v>
+      </c>
+      <c r="D523" t="n">
+        <v>0.0487852818617816</v>
+      </c>
+      <c r="E523" t="n">
+        <v>0</v>
+      </c>
+      <c r="F523" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="n">
+        <v>44024</v>
+      </c>
+      <c r="B524" t="s">
+        <v>8</v>
+      </c>
+      <c r="C524" t="n">
+        <v>4704</v>
+      </c>
+      <c r="D524" t="n">
+        <v>0.184920198128784</v>
+      </c>
+      <c r="E524" t="n">
+        <v>5</v>
+      </c>
+      <c r="F524" t="n">
+        <v>0.00695410292072323</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="n">
+        <v>44024</v>
+      </c>
+      <c r="B525" t="s">
+        <v>9</v>
+      </c>
+      <c r="C525" t="n">
+        <v>4702</v>
+      </c>
+      <c r="D525" t="n">
+        <v>0.184841575595566</v>
+      </c>
+      <c r="E525" t="n">
+        <v>12</v>
+      </c>
+      <c r="F525" t="n">
+        <v>0.0166898470097357</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="n">
+        <v>44024</v>
+      </c>
+      <c r="B526" t="s">
+        <v>10</v>
+      </c>
+      <c r="C526" t="n">
+        <v>4530</v>
+      </c>
+      <c r="D526" t="n">
+        <v>0.178080037738816</v>
+      </c>
+      <c r="E526" t="n">
+        <v>26</v>
+      </c>
+      <c r="F526" t="n">
+        <v>0.0361613351877608</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="n">
+        <v>44024</v>
+      </c>
+      <c r="B527" t="s">
+        <v>11</v>
+      </c>
+      <c r="C527" t="n">
+        <v>4242</v>
+      </c>
+      <c r="D527" t="n">
+        <v>0.166758392955421</v>
+      </c>
+      <c r="E527" t="n">
+        <v>77</v>
+      </c>
+      <c r="F527" t="n">
+        <v>0.107093184979138</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="n">
+        <v>44024</v>
+      </c>
+      <c r="B528" t="s">
+        <v>12</v>
+      </c>
+      <c r="C528" t="n">
+        <v>1687</v>
+      </c>
+      <c r="D528" t="n">
+        <v>0.0663181067694001</v>
+      </c>
+      <c r="E528" t="n">
+        <v>72</v>
+      </c>
+      <c r="F528" t="n">
+        <v>0.100139082058414</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="n">
+        <v>44024</v>
+      </c>
+      <c r="B529" t="s">
+        <v>13</v>
+      </c>
+      <c r="C529" t="n">
+        <v>1221</v>
+      </c>
+      <c r="D529" t="n">
+        <v>0.0479990565296014</v>
+      </c>
+      <c r="E529" t="n">
+        <v>82</v>
+      </c>
+      <c r="F529" t="n">
+        <v>0.114047287899861</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="n">
+        <v>44024</v>
+      </c>
+      <c r="B530" t="s">
+        <v>14</v>
+      </c>
+      <c r="C530" t="n">
+        <v>795</v>
+      </c>
+      <c r="D530" t="n">
+        <v>0.0312524569541631</v>
+      </c>
+      <c r="E530" t="n">
+        <v>79</v>
+      </c>
+      <c r="F530" t="n">
+        <v>0.109874826147427</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="n">
+        <v>44024</v>
+      </c>
+      <c r="B531" t="s">
+        <v>15</v>
+      </c>
+      <c r="C531" t="n">
+        <v>599</v>
+      </c>
+      <c r="D531" t="n">
+        <v>0.0235474486987971</v>
+      </c>
+      <c r="E531" t="n">
+        <v>82</v>
+      </c>
+      <c r="F531" t="n">
+        <v>0.114047287899861</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="n">
+        <v>44024</v>
+      </c>
+      <c r="B532" t="s">
+        <v>16</v>
+      </c>
+      <c r="C532" t="n">
+        <v>1116</v>
+      </c>
+      <c r="D532" t="n">
+        <v>0.0438713735356553</v>
+      </c>
+      <c r="E532" t="n">
+        <v>284</v>
+      </c>
+      <c r="F532" t="n">
+        <v>0.394993045897079</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="n">
+        <v>44024</v>
+      </c>
+      <c r="B533" t="s">
+        <v>17</v>
+      </c>
+      <c r="C533" t="n">
+        <v>105</v>
+      </c>
+      <c r="D533" t="n">
+        <v>0.00412768299394606</v>
+      </c>
+      <c r="E533" t="n">
+        <v>0</v>
+      </c>
+      <c r="F533" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="n">
+        <v>44024</v>
+      </c>
+      <c r="B534" t="s">
+        <v>18</v>
+      </c>
+      <c r="C534" t="n">
+        <v>18</v>
+      </c>
+      <c r="D534" t="n">
+        <v>0.000707602798962183</v>
+      </c>
+      <c r="E534" t="n">
+        <v>0</v>
+      </c>
+      <c r="F534" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -13283,6 +13543,66 @@
         <v>0.4184100418</v>
       </c>
     </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>44024</v>
+      </c>
+      <c r="B122" t="s">
+        <v>19</v>
+      </c>
+      <c r="C122" t="n">
+        <v>12215</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.480187121629059</v>
+      </c>
+      <c r="E122" t="n">
+        <v>296</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.411682892906815</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>44024</v>
+      </c>
+      <c r="B123" t="s">
+        <v>20</v>
+      </c>
+      <c r="C123" t="n">
+        <v>12933</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.508412611054328</v>
+      </c>
+      <c r="E123" t="n">
+        <v>420</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.584144645340751</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>44024</v>
+      </c>
+      <c r="B124" t="s">
+        <v>18</v>
+      </c>
+      <c r="C124" t="n">
+        <v>290</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.0114002673166129</v>
+      </c>
+      <c r="E124" t="n">
+        <v>3</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.00417246175243394</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -17997,6 +18317,126 @@
         <v>43.09623431</v>
       </c>
     </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>44024</v>
+      </c>
+      <c r="B236" t="s">
+        <v>21</v>
+      </c>
+      <c r="C236" t="n">
+        <v>641</v>
+      </c>
+      <c r="D236" t="n">
+        <v>0.0251985218963755</v>
+      </c>
+      <c r="E236" t="n">
+        <v>14</v>
+      </c>
+      <c r="F236" t="n">
+        <v>0.019471488178025</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>44024</v>
+      </c>
+      <c r="B237" t="s">
+        <v>22</v>
+      </c>
+      <c r="C237" t="n">
+        <v>2914</v>
+      </c>
+      <c r="D237" t="n">
+        <v>0.114553030898656</v>
+      </c>
+      <c r="E237" t="n">
+        <v>91</v>
+      </c>
+      <c r="F237" t="n">
+        <v>0.126564673157163</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>44024</v>
+      </c>
+      <c r="B238" t="s">
+        <v>23</v>
+      </c>
+      <c r="C238" t="n">
+        <v>10090</v>
+      </c>
+      <c r="D238" t="n">
+        <v>0.396650680084912</v>
+      </c>
+      <c r="E238" t="n">
+        <v>210</v>
+      </c>
+      <c r="F238" t="n">
+        <v>0.292072322670376</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>44024</v>
+      </c>
+      <c r="B239" t="s">
+        <v>24</v>
+      </c>
+      <c r="C239" t="n">
+        <v>133</v>
+      </c>
+      <c r="D239" t="n">
+        <v>0.00522839845899835</v>
+      </c>
+      <c r="E239" t="n">
+        <v>1</v>
+      </c>
+      <c r="F239" t="n">
+        <v>0.00139082058414465</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>44024</v>
+      </c>
+      <c r="B240" t="s">
+        <v>18</v>
+      </c>
+      <c r="C240" t="n">
+        <v>5325</v>
+      </c>
+      <c r="D240" t="n">
+        <v>0.209332494692979</v>
+      </c>
+      <c r="E240" t="n">
+        <v>93</v>
+      </c>
+      <c r="F240" t="n">
+        <v>0.129346314325452</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>44024</v>
+      </c>
+      <c r="B241" t="s">
+        <v>25</v>
+      </c>
+      <c r="C241" t="n">
+        <v>6335</v>
+      </c>
+      <c r="D241" t="n">
+        <v>0.249036873968079</v>
+      </c>
+      <c r="E241" t="n">
+        <v>310</v>
+      </c>
+      <c r="F241" t="n">
+        <v>0.43115438108484</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -11109,6 +11109,266 @@
         <v>0</v>
       </c>
     </row>
+    <row r="535">
+      <c r="A535" s="1" t="n">
+        <v>44025</v>
+      </c>
+      <c r="B535" t="s">
+        <v>6</v>
+      </c>
+      <c r="C535" t="n">
+        <v>477</v>
+      </c>
+      <c r="D535" t="n">
+        <v>0.0187315923817004</v>
+      </c>
+      <c r="E535" t="n">
+        <v>0</v>
+      </c>
+      <c r="F535" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="n">
+        <v>44025</v>
+      </c>
+      <c r="B536" t="s">
+        <v>7</v>
+      </c>
+      <c r="C536" t="n">
+        <v>1244</v>
+      </c>
+      <c r="D536" t="n">
+        <v>0.0488513646181033</v>
+      </c>
+      <c r="E536" t="n">
+        <v>0</v>
+      </c>
+      <c r="F536" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="n">
+        <v>44025</v>
+      </c>
+      <c r="B537" t="s">
+        <v>8</v>
+      </c>
+      <c r="C537" t="n">
+        <v>4710</v>
+      </c>
+      <c r="D537" t="n">
+        <v>0.184959748674651</v>
+      </c>
+      <c r="E537" t="n">
+        <v>5</v>
+      </c>
+      <c r="F537" t="n">
+        <v>0.00694444444444444</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="n">
+        <v>44025</v>
+      </c>
+      <c r="B538" t="s">
+        <v>9</v>
+      </c>
+      <c r="C538" t="n">
+        <v>4707</v>
+      </c>
+      <c r="D538" t="n">
+        <v>0.184841939917534</v>
+      </c>
+      <c r="E538" t="n">
+        <v>12</v>
+      </c>
+      <c r="F538" t="n">
+        <v>0.0166666666666667</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="n">
+        <v>44025</v>
+      </c>
+      <c r="B539" t="s">
+        <v>10</v>
+      </c>
+      <c r="C539" t="n">
+        <v>4532</v>
+      </c>
+      <c r="D539" t="n">
+        <v>0.177969762419006</v>
+      </c>
+      <c r="E539" t="n">
+        <v>26</v>
+      </c>
+      <c r="F539" t="n">
+        <v>0.0361111111111111</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="n">
+        <v>44025</v>
+      </c>
+      <c r="B540" t="s">
+        <v>11</v>
+      </c>
+      <c r="C540" t="n">
+        <v>4244</v>
+      </c>
+      <c r="D540" t="n">
+        <v>0.166660121735716</v>
+      </c>
+      <c r="E540" t="n">
+        <v>77</v>
+      </c>
+      <c r="F540" t="n">
+        <v>0.106944444444444</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="n">
+        <v>44025</v>
+      </c>
+      <c r="B541" t="s">
+        <v>12</v>
+      </c>
+      <c r="C541" t="n">
+        <v>1688</v>
+      </c>
+      <c r="D541" t="n">
+        <v>0.0662870606715099</v>
+      </c>
+      <c r="E541" t="n">
+        <v>72</v>
+      </c>
+      <c r="F541" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="n">
+        <v>44025</v>
+      </c>
+      <c r="B542" t="s">
+        <v>13</v>
+      </c>
+      <c r="C542" t="n">
+        <v>1226</v>
+      </c>
+      <c r="D542" t="n">
+        <v>0.0481445120753976</v>
+      </c>
+      <c r="E542" t="n">
+        <v>82</v>
+      </c>
+      <c r="F542" t="n">
+        <v>0.113888888888889</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="n">
+        <v>44025</v>
+      </c>
+      <c r="B543" t="s">
+        <v>14</v>
+      </c>
+      <c r="C543" t="n">
+        <v>796</v>
+      </c>
+      <c r="D543" t="n">
+        <v>0.0312585902218732</v>
+      </c>
+      <c r="E543" t="n">
+        <v>79</v>
+      </c>
+      <c r="F543" t="n">
+        <v>0.109722222222222</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="n">
+        <v>44025</v>
+      </c>
+      <c r="B544" t="s">
+        <v>15</v>
+      </c>
+      <c r="C544" t="n">
+        <v>601</v>
+      </c>
+      <c r="D544" t="n">
+        <v>0.0236010210092284</v>
+      </c>
+      <c r="E544" t="n">
+        <v>83</v>
+      </c>
+      <c r="F544" t="n">
+        <v>0.115277777777778</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="n">
+        <v>44025</v>
+      </c>
+      <c r="B545" t="s">
+        <v>16</v>
+      </c>
+      <c r="C545" t="n">
+        <v>1116</v>
+      </c>
+      <c r="D545" t="n">
+        <v>0.0438248576477518</v>
+      </c>
+      <c r="E545" t="n">
+        <v>284</v>
+      </c>
+      <c r="F545" t="n">
+        <v>0.394444444444444</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="n">
+        <v>44025</v>
+      </c>
+      <c r="B546" t="s">
+        <v>17</v>
+      </c>
+      <c r="C546" t="n">
+        <v>106</v>
+      </c>
+      <c r="D546" t="n">
+        <v>0.0041625760848223</v>
+      </c>
+      <c r="E546" t="n">
+        <v>0</v>
+      </c>
+      <c r="F546" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="n">
+        <v>44025</v>
+      </c>
+      <c r="B547" t="s">
+        <v>18</v>
+      </c>
+      <c r="C547" t="n">
+        <v>18</v>
+      </c>
+      <c r="D547" t="n">
+        <v>0.000706852542705674</v>
+      </c>
+      <c r="E547" t="n">
+        <v>0</v>
+      </c>
+      <c r="F547" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -13603,6 +13863,66 @@
         <v>0.00417246175243394</v>
       </c>
     </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>44025</v>
+      </c>
+      <c r="B125" t="s">
+        <v>19</v>
+      </c>
+      <c r="C125" t="n">
+        <v>12227</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.480149224425682</v>
+      </c>
+      <c r="E125" t="n">
+        <v>297</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.4125</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>44025</v>
+      </c>
+      <c r="B126" t="s">
+        <v>20</v>
+      </c>
+      <c r="C126" t="n">
+        <v>12945</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.508344786962498</v>
+      </c>
+      <c r="E126" t="n">
+        <v>420</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.583333333333333</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>44025</v>
+      </c>
+      <c r="B127" t="s">
+        <v>18</v>
+      </c>
+      <c r="C127" t="n">
+        <v>293</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.0115059886118201</v>
+      </c>
+      <c r="E127" t="n">
+        <v>3</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.00416666666666667</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -18437,6 +18757,126 @@
         <v>0.43115438108484</v>
       </c>
     </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>44025</v>
+      </c>
+      <c r="B242" t="s">
+        <v>21</v>
+      </c>
+      <c r="C242" t="n">
+        <v>641</v>
+      </c>
+      <c r="D242" t="n">
+        <v>0.0251718044374632</v>
+      </c>
+      <c r="E242" t="n">
+        <v>14</v>
+      </c>
+      <c r="F242" t="n">
+        <v>0.0194444444444444</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>44025</v>
+      </c>
+      <c r="B243" t="s">
+        <v>22</v>
+      </c>
+      <c r="C243" t="n">
+        <v>2915</v>
+      </c>
+      <c r="D243" t="n">
+        <v>0.114470842332613</v>
+      </c>
+      <c r="E243" t="n">
+        <v>92</v>
+      </c>
+      <c r="F243" t="n">
+        <v>0.127777777777778</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>44025</v>
+      </c>
+      <c r="B244" t="s">
+        <v>23</v>
+      </c>
+      <c r="C244" t="n">
+        <v>10110</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.397015511486354</v>
+      </c>
+      <c r="E244" t="n">
+        <v>210</v>
+      </c>
+      <c r="F244" t="n">
+        <v>0.291666666666667</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>44025</v>
+      </c>
+      <c r="B245" t="s">
+        <v>24</v>
+      </c>
+      <c r="C245" t="n">
+        <v>133</v>
+      </c>
+      <c r="D245" t="n">
+        <v>0.00522285489888082</v>
+      </c>
+      <c r="E245" t="n">
+        <v>1</v>
+      </c>
+      <c r="F245" t="n">
+        <v>0.00138888888888889</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>44025</v>
+      </c>
+      <c r="B246" t="s">
+        <v>18</v>
+      </c>
+      <c r="C246" t="n">
+        <v>5327</v>
+      </c>
+      <c r="D246" t="n">
+        <v>0.209189083055174</v>
+      </c>
+      <c r="E246" t="n">
+        <v>93</v>
+      </c>
+      <c r="F246" t="n">
+        <v>0.129166666666667</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>44025</v>
+      </c>
+      <c r="B247" t="s">
+        <v>25</v>
+      </c>
+      <c r="C247" t="n">
+        <v>6339</v>
+      </c>
+      <c r="D247" t="n">
+        <v>0.248929903789515</v>
+      </c>
+      <c r="E247" t="n">
+        <v>310</v>
+      </c>
+      <c r="F247" t="n">
+        <v>0.430555555555556</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -14659,19 +14659,19 @@
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="B548" t="s">
         <v>8</v>
       </c>
       <c r="C548" t="n">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D548" t="n">
-        <v>0.4157514904</v>
+        <v>0.4225030451</v>
       </c>
       <c r="E548" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F548" t="n">
         <v>0</v>
@@ -14685,19 +14685,19 @@
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="B549" t="s">
         <v>9</v>
       </c>
       <c r="C549" t="n">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="D549" t="n">
-        <v>1.8787260747</v>
+        <v>1.8879415347</v>
       </c>
       <c r="E549" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F549" t="n">
         <v>0</v>
@@ -14711,19 +14711,19 @@
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="B550" t="s">
         <v>10</v>
       </c>
       <c r="C550" t="n">
-        <v>1244</v>
+        <v>1293</v>
       </c>
       <c r="D550" t="n">
-        <v>4.8791967367</v>
+        <v>4.921589525</v>
       </c>
       <c r="E550" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="F550" t="n">
         <v>0</v>
@@ -14737,51 +14737,51 @@
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="B551" t="s">
         <v>11</v>
       </c>
       <c r="C551" t="n">
-        <v>4718</v>
+        <v>4901</v>
       </c>
       <c r="D551" t="n">
-        <v>18.504863508</v>
+        <v>18.654841657</v>
       </c>
       <c r="E551" t="n">
-        <v>8</v>
+        <v>191</v>
       </c>
       <c r="F551" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G551" t="n">
-        <v>0.6954102921</v>
+        <v>0.5494505495</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="B552" t="s">
         <v>12</v>
       </c>
       <c r="C552" t="n">
-        <v>4717</v>
+        <v>4867</v>
       </c>
       <c r="D552" t="n">
-        <v>18.500941324</v>
+        <v>18.525426309</v>
       </c>
       <c r="E552" t="n">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="F552" t="n">
         <v>12</v>
       </c>
       <c r="G552" t="n">
-        <v>1.668984701</v>
+        <v>1.6483516484</v>
       </c>
       <c r="H552" t="n">
         <v>0</v>
@@ -14789,51 +14789,51 @@
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="B553" t="s">
         <v>13</v>
       </c>
       <c r="C553" t="n">
-        <v>4538</v>
+        <v>4684</v>
       </c>
       <c r="D553" t="n">
-        <v>17.798870411</v>
+        <v>17.828867235</v>
       </c>
       <c r="E553" t="n">
-        <v>6</v>
+        <v>152</v>
       </c>
       <c r="F553" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G553" t="n">
-        <v>3.6161335188</v>
+        <v>3.8461538462</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="B554" t="s">
         <v>14</v>
       </c>
       <c r="C554" t="n">
-        <v>4251</v>
+        <v>4353</v>
       </c>
       <c r="D554" t="n">
-        <v>16.67320364</v>
+        <v>16.568970767</v>
       </c>
       <c r="E554" t="n">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="F554" t="n">
         <v>77</v>
       </c>
       <c r="G554" t="n">
-        <v>10.709318498</v>
+        <v>10.576923077</v>
       </c>
       <c r="H554" t="n">
         <v>0</v>
@@ -14841,77 +14841,77 @@
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="B555" t="s">
         <v>15</v>
       </c>
       <c r="C555" t="n">
-        <v>1688</v>
+        <v>1735</v>
       </c>
       <c r="D555" t="n">
-        <v>6.6206463759</v>
+        <v>6.6039890378</v>
       </c>
       <c r="E555" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="F555" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G555" t="n">
-        <v>9.8748261474</v>
+        <v>10.164835165</v>
       </c>
       <c r="H555" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="B556" t="s">
         <v>16</v>
       </c>
       <c r="C556" t="n">
-        <v>1225</v>
+        <v>1266</v>
       </c>
       <c r="D556" t="n">
-        <v>4.8046752432</v>
+        <v>4.818818514</v>
       </c>
       <c r="E556" t="n">
-        <v>-1</v>
+        <v>40</v>
       </c>
       <c r="F556" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G556" t="n">
-        <v>11.40472879</v>
+        <v>11.538461538</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="B557" t="s">
         <v>17</v>
       </c>
       <c r="C557" t="n">
-        <v>795</v>
+        <v>807</v>
       </c>
       <c r="D557" t="n">
-        <v>3.1181361782</v>
+        <v>3.0717113276</v>
       </c>
       <c r="E557" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="F557" t="n">
         <v>79</v>
       </c>
       <c r="G557" t="n">
-        <v>10.987482615</v>
+        <v>10.851648352</v>
       </c>
       <c r="H557" t="n">
         <v>0</v>
@@ -14919,59 +14919,59 @@
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="B558" t="s">
         <v>18</v>
       </c>
       <c r="C558" t="n">
-        <v>601</v>
+        <v>615</v>
       </c>
       <c r="D558" t="n">
-        <v>2.3572325071</v>
+        <v>2.3408952497</v>
       </c>
       <c r="E558" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F558" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G558" t="n">
-        <v>11.543810848</v>
+        <v>11.675824176</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="B559" t="s">
         <v>19</v>
       </c>
       <c r="C559" t="n">
-        <v>1116</v>
+        <v>1126</v>
       </c>
       <c r="D559" t="n">
-        <v>4.3771572011</v>
+        <v>4.2859317905</v>
       </c>
       <c r="E559" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F559" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G559" t="n">
-        <v>39.49930459</v>
+        <v>39.148351648</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="B560" t="s">
         <v>20</v>
@@ -14980,7 +14980,7 @@
         <v>18</v>
       </c>
       <c r="D560" t="n">
-        <v>0.0705993097</v>
+        <v>0.0685140073</v>
       </c>
       <c r="E560" t="n">
         <v>0</v>
@@ -18313,77 +18313,77 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="B128" t="s">
         <v>21</v>
       </c>
       <c r="C128" t="n">
-        <v>12249</v>
+        <v>12560</v>
       </c>
       <c r="D128" t="n">
-        <v>48.042830248</v>
+        <v>47.807551766</v>
       </c>
       <c r="E128" t="n">
-        <v>22</v>
+        <v>333</v>
       </c>
       <c r="F128" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G128" t="n">
-        <v>41.585535466</v>
+        <v>41.208791209</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="B129" t="s">
         <v>22</v>
       </c>
       <c r="C129" t="n">
-        <v>12955</v>
+        <v>13369</v>
       </c>
       <c r="D129" t="n">
-        <v>50.811892062</v>
+        <v>50.886875761</v>
       </c>
       <c r="E129" t="n">
-        <v>10</v>
+        <v>424</v>
       </c>
       <c r="F129" t="n">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="G129" t="n">
-        <v>58.275382476</v>
+        <v>58.653846154</v>
       </c>
       <c r="H129" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="B130" t="s">
         <v>20</v>
       </c>
       <c r="C130" t="n">
-        <v>292</v>
+        <v>343</v>
       </c>
       <c r="D130" t="n">
-        <v>1.1452776906</v>
+        <v>1.3055724726</v>
       </c>
       <c r="E130" t="n">
-        <v>-1</v>
+        <v>50</v>
       </c>
       <c r="F130" t="n">
         <v>1</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1390820584</v>
+        <v>0.1373626374</v>
       </c>
       <c r="H130" t="n">
         <v>-2</v>
@@ -24827,25 +24827,25 @@
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="B248" t="s">
         <v>23</v>
       </c>
       <c r="C248" t="n">
-        <v>642</v>
+        <v>651</v>
       </c>
       <c r="D248" t="n">
-        <v>2.5180420458</v>
+        <v>2.4779232643</v>
       </c>
       <c r="E248" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F248" t="n">
         <v>14</v>
       </c>
       <c r="G248" t="n">
-        <v>1.9471488178</v>
+        <v>1.9230769231</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -24853,77 +24853,77 @@
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="B249" t="s">
         <v>24</v>
       </c>
       <c r="C249" t="n">
-        <v>2916</v>
+        <v>2989</v>
       </c>
       <c r="D249" t="n">
-        <v>11.437088171</v>
+        <v>11.377131547</v>
       </c>
       <c r="E249" t="n">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="F249" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G249" t="n">
-        <v>12.795549374</v>
+        <v>12.912087912</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="B250" t="s">
         <v>25</v>
       </c>
       <c r="C250" t="n">
-        <v>10134</v>
+        <v>10534</v>
       </c>
       <c r="D250" t="n">
-        <v>39.747411359</v>
+        <v>40.09591961</v>
       </c>
       <c r="E250" t="n">
-        <v>24</v>
+        <v>424</v>
       </c>
       <c r="F250" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G250" t="n">
-        <v>29.207232267</v>
+        <v>28.983516484</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="B251" t="s">
         <v>26</v>
       </c>
       <c r="C251" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D251" t="n">
-        <v>0.521650455</v>
+        <v>0.5138550548</v>
       </c>
       <c r="E251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F251" t="n">
         <v>1</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1390820584</v>
+        <v>0.1373626374</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -24931,54 +24931,54 @@
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="B252" t="s">
         <v>20</v>
       </c>
       <c r="C252" t="n">
-        <v>5325</v>
+        <v>5441</v>
       </c>
       <c r="D252" t="n">
-        <v>20.885629118</v>
+        <v>20.710261876</v>
       </c>
       <c r="E252" t="n">
-        <v>-2</v>
+        <v>114</v>
       </c>
       <c r="F252" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G252" t="n">
-        <v>12.795549374</v>
+        <v>12.774725275</v>
       </c>
       <c r="H252" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="B253" t="s">
         <v>27</v>
       </c>
       <c r="C253" t="n">
-        <v>6346</v>
+        <v>6522</v>
       </c>
       <c r="D253" t="n">
-        <v>24.890178852</v>
+        <v>24.824908648</v>
       </c>
       <c r="E253" t="n">
-        <v>7</v>
+        <v>183</v>
       </c>
       <c r="F253" t="n">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="G253" t="n">
-        <v>43.115438108</v>
+        <v>43.269230769</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -14688,16 +14688,16 @@
         <v>44027</v>
       </c>
       <c r="B549" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C549" t="n">
-        <v>496</v>
+        <v>111</v>
       </c>
       <c r="D549" t="n">
-        <v>1.8879415347</v>
+        <v>0.4225030451</v>
       </c>
       <c r="E549" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F549" t="n">
         <v>0</v>
@@ -14714,16 +14714,16 @@
         <v>44027</v>
       </c>
       <c r="B550" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C550" t="n">
-        <v>1293</v>
+        <v>111</v>
       </c>
       <c r="D550" t="n">
-        <v>4.921589525</v>
+        <v>0.4225030451</v>
       </c>
       <c r="E550" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="F550" t="n">
         <v>0</v>
@@ -14740,25 +14740,25 @@
         <v>44027</v>
       </c>
       <c r="B551" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C551" t="n">
-        <v>4901</v>
+        <v>111</v>
       </c>
       <c r="D551" t="n">
-        <v>18.654841657</v>
+        <v>0.4225030451</v>
       </c>
       <c r="E551" t="n">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="F551" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G551" t="n">
-        <v>0.5494505495</v>
+        <v>0</v>
       </c>
       <c r="H551" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552">
@@ -14766,22 +14766,22 @@
         <v>44027</v>
       </c>
       <c r="B552" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C552" t="n">
-        <v>4867</v>
+        <v>496</v>
       </c>
       <c r="D552" t="n">
-        <v>18.525426309</v>
+        <v>1.8879415347</v>
       </c>
       <c r="E552" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="F552" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G552" t="n">
-        <v>1.6483516484</v>
+        <v>0</v>
       </c>
       <c r="H552" t="n">
         <v>0</v>
@@ -14792,25 +14792,25 @@
         <v>44027</v>
       </c>
       <c r="B553" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C553" t="n">
-        <v>4684</v>
+        <v>496</v>
       </c>
       <c r="D553" t="n">
-        <v>17.828867235</v>
+        <v>1.8879415347</v>
       </c>
       <c r="E553" t="n">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="F553" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G553" t="n">
-        <v>3.8461538462</v>
+        <v>0</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554">
@@ -14818,22 +14818,22 @@
         <v>44027</v>
       </c>
       <c r="B554" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C554" t="n">
-        <v>4353</v>
+        <v>496</v>
       </c>
       <c r="D554" t="n">
-        <v>16.568970767</v>
+        <v>1.8879415347</v>
       </c>
       <c r="E554" t="n">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="F554" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="G554" t="n">
-        <v>10.576923077</v>
+        <v>0</v>
       </c>
       <c r="H554" t="n">
         <v>0</v>
@@ -14844,25 +14844,25 @@
         <v>44027</v>
       </c>
       <c r="B555" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C555" t="n">
-        <v>1735</v>
+        <v>496</v>
       </c>
       <c r="D555" t="n">
-        <v>6.6039890378</v>
+        <v>1.8879415347</v>
       </c>
       <c r="E555" t="n">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="F555" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="G555" t="n">
-        <v>10.164835165</v>
+        <v>0</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556">
@@ -14870,25 +14870,25 @@
         <v>44027</v>
       </c>
       <c r="B556" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C556" t="n">
-        <v>1266</v>
+        <v>1293</v>
       </c>
       <c r="D556" t="n">
-        <v>4.818818514</v>
+        <v>4.921589525</v>
       </c>
       <c r="E556" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F556" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="G556" t="n">
-        <v>11.538461538</v>
+        <v>0</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557">
@@ -14896,22 +14896,22 @@
         <v>44027</v>
       </c>
       <c r="B557" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C557" t="n">
-        <v>807</v>
+        <v>1293</v>
       </c>
       <c r="D557" t="n">
-        <v>3.0717113276</v>
+        <v>4.921589525</v>
       </c>
       <c r="E557" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F557" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="G557" t="n">
-        <v>10.851648352</v>
+        <v>0</v>
       </c>
       <c r="H557" t="n">
         <v>0</v>
@@ -14922,25 +14922,25 @@
         <v>44027</v>
       </c>
       <c r="B558" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C558" t="n">
-        <v>615</v>
+        <v>1293</v>
       </c>
       <c r="D558" t="n">
-        <v>2.3408952497</v>
+        <v>4.921589525</v>
       </c>
       <c r="E558" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="F558" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="G558" t="n">
-        <v>11.675824176</v>
+        <v>0</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559">
@@ -14948,25 +14948,25 @@
         <v>44027</v>
       </c>
       <c r="B559" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C559" t="n">
-        <v>1126</v>
+        <v>1293</v>
       </c>
       <c r="D559" t="n">
-        <v>4.2859317905</v>
+        <v>4.921589525</v>
       </c>
       <c r="E559" t="n">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="F559" t="n">
-        <v>285</v>
+        <v>0</v>
       </c>
       <c r="G559" t="n">
-        <v>39.148351648</v>
+        <v>0</v>
       </c>
       <c r="H559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560">
@@ -14974,24 +14974,1038 @@
         <v>44027</v>
       </c>
       <c r="B560" t="s">
+        <v>11</v>
+      </c>
+      <c r="C560" t="n">
+        <v>4901</v>
+      </c>
+      <c r="D560" t="n">
+        <v>18.654841657</v>
+      </c>
+      <c r="E560" t="n">
+        <v>0</v>
+      </c>
+      <c r="F560" t="n">
+        <v>4</v>
+      </c>
+      <c r="G560" t="n">
+        <v>0.5494505495</v>
+      </c>
+      <c r="H560" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B561" t="s">
+        <v>11</v>
+      </c>
+      <c r="C561" t="n">
+        <v>4901</v>
+      </c>
+      <c r="D561" t="n">
+        <v>18.654841657</v>
+      </c>
+      <c r="E561" t="n">
+        <v>0</v>
+      </c>
+      <c r="F561" t="n">
+        <v>4</v>
+      </c>
+      <c r="G561" t="n">
+        <v>0.5494505495</v>
+      </c>
+      <c r="H561" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B562" t="s">
+        <v>11</v>
+      </c>
+      <c r="C562" t="n">
+        <v>4901</v>
+      </c>
+      <c r="D562" t="n">
+        <v>18.654841657</v>
+      </c>
+      <c r="E562" t="n">
+        <v>191</v>
+      </c>
+      <c r="F562" t="n">
+        <v>4</v>
+      </c>
+      <c r="G562" t="n">
+        <v>0.5494505495</v>
+      </c>
+      <c r="H562" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B563" t="s">
+        <v>11</v>
+      </c>
+      <c r="C563" t="n">
+        <v>4901</v>
+      </c>
+      <c r="D563" t="n">
+        <v>18.654841657</v>
+      </c>
+      <c r="E563" t="n">
+        <v>191</v>
+      </c>
+      <c r="F563" t="n">
+        <v>4</v>
+      </c>
+      <c r="G563" t="n">
+        <v>0.5494505495</v>
+      </c>
+      <c r="H563" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B564" t="s">
+        <v>12</v>
+      </c>
+      <c r="C564" t="n">
+        <v>4867</v>
+      </c>
+      <c r="D564" t="n">
+        <v>18.525426309</v>
+      </c>
+      <c r="E564" t="n">
+        <v>160</v>
+      </c>
+      <c r="F564" t="n">
+        <v>12</v>
+      </c>
+      <c r="G564" t="n">
+        <v>1.6483516484</v>
+      </c>
+      <c r="H564" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B565" t="s">
+        <v>12</v>
+      </c>
+      <c r="C565" t="n">
+        <v>4867</v>
+      </c>
+      <c r="D565" t="n">
+        <v>18.525426309</v>
+      </c>
+      <c r="E565" t="n">
+        <v>160</v>
+      </c>
+      <c r="F565" t="n">
+        <v>12</v>
+      </c>
+      <c r="G565" t="n">
+        <v>1.6483516484</v>
+      </c>
+      <c r="H565" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B566" t="s">
+        <v>12</v>
+      </c>
+      <c r="C566" t="n">
+        <v>4867</v>
+      </c>
+      <c r="D566" t="n">
+        <v>18.525426309</v>
+      </c>
+      <c r="E566" t="n">
+        <v>0</v>
+      </c>
+      <c r="F566" t="n">
+        <v>12</v>
+      </c>
+      <c r="G566" t="n">
+        <v>1.6483516484</v>
+      </c>
+      <c r="H566" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B567" t="s">
+        <v>12</v>
+      </c>
+      <c r="C567" t="n">
+        <v>4867</v>
+      </c>
+      <c r="D567" t="n">
+        <v>18.525426309</v>
+      </c>
+      <c r="E567" t="n">
+        <v>0</v>
+      </c>
+      <c r="F567" t="n">
+        <v>12</v>
+      </c>
+      <c r="G567" t="n">
+        <v>1.6483516484</v>
+      </c>
+      <c r="H567" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B568" t="s">
+        <v>13</v>
+      </c>
+      <c r="C568" t="n">
+        <v>4684</v>
+      </c>
+      <c r="D568" t="n">
+        <v>17.828867235</v>
+      </c>
+      <c r="E568" t="n">
+        <v>0</v>
+      </c>
+      <c r="F568" t="n">
+        <v>28</v>
+      </c>
+      <c r="G568" t="n">
+        <v>3.8461538462</v>
+      </c>
+      <c r="H568" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B569" t="s">
+        <v>13</v>
+      </c>
+      <c r="C569" t="n">
+        <v>4684</v>
+      </c>
+      <c r="D569" t="n">
+        <v>17.828867235</v>
+      </c>
+      <c r="E569" t="n">
+        <v>0</v>
+      </c>
+      <c r="F569" t="n">
+        <v>28</v>
+      </c>
+      <c r="G569" t="n">
+        <v>3.8461538462</v>
+      </c>
+      <c r="H569" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B570" t="s">
+        <v>13</v>
+      </c>
+      <c r="C570" t="n">
+        <v>4684</v>
+      </c>
+      <c r="D570" t="n">
+        <v>17.828867235</v>
+      </c>
+      <c r="E570" t="n">
+        <v>152</v>
+      </c>
+      <c r="F570" t="n">
+        <v>28</v>
+      </c>
+      <c r="G570" t="n">
+        <v>3.8461538462</v>
+      </c>
+      <c r="H570" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B571" t="s">
+        <v>13</v>
+      </c>
+      <c r="C571" t="n">
+        <v>4684</v>
+      </c>
+      <c r="D571" t="n">
+        <v>17.828867235</v>
+      </c>
+      <c r="E571" t="n">
+        <v>152</v>
+      </c>
+      <c r="F571" t="n">
+        <v>28</v>
+      </c>
+      <c r="G571" t="n">
+        <v>3.8461538462</v>
+      </c>
+      <c r="H571" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B572" t="s">
+        <v>14</v>
+      </c>
+      <c r="C572" t="n">
+        <v>4353</v>
+      </c>
+      <c r="D572" t="n">
+        <v>16.568970767</v>
+      </c>
+      <c r="E572" t="n">
+        <v>0</v>
+      </c>
+      <c r="F572" t="n">
+        <v>77</v>
+      </c>
+      <c r="G572" t="n">
+        <v>10.576923077</v>
+      </c>
+      <c r="H572" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B573" t="s">
+        <v>14</v>
+      </c>
+      <c r="C573" t="n">
+        <v>4353</v>
+      </c>
+      <c r="D573" t="n">
+        <v>16.568970767</v>
+      </c>
+      <c r="E573" t="n">
+        <v>0</v>
+      </c>
+      <c r="F573" t="n">
+        <v>77</v>
+      </c>
+      <c r="G573" t="n">
+        <v>10.576923077</v>
+      </c>
+      <c r="H573" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B574" t="s">
+        <v>14</v>
+      </c>
+      <c r="C574" t="n">
+        <v>4353</v>
+      </c>
+      <c r="D574" t="n">
+        <v>16.568970767</v>
+      </c>
+      <c r="E574" t="n">
+        <v>109</v>
+      </c>
+      <c r="F574" t="n">
+        <v>77</v>
+      </c>
+      <c r="G574" t="n">
+        <v>10.576923077</v>
+      </c>
+      <c r="H574" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B575" t="s">
+        <v>14</v>
+      </c>
+      <c r="C575" t="n">
+        <v>4353</v>
+      </c>
+      <c r="D575" t="n">
+        <v>16.568970767</v>
+      </c>
+      <c r="E575" t="n">
+        <v>109</v>
+      </c>
+      <c r="F575" t="n">
+        <v>77</v>
+      </c>
+      <c r="G575" t="n">
+        <v>10.576923077</v>
+      </c>
+      <c r="H575" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B576" t="s">
+        <v>15</v>
+      </c>
+      <c r="C576" t="n">
+        <v>1735</v>
+      </c>
+      <c r="D576" t="n">
+        <v>6.6039890378</v>
+      </c>
+      <c r="E576" t="n">
+        <v>0</v>
+      </c>
+      <c r="F576" t="n">
+        <v>74</v>
+      </c>
+      <c r="G576" t="n">
+        <v>10.164835165</v>
+      </c>
+      <c r="H576" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B577" t="s">
+        <v>15</v>
+      </c>
+      <c r="C577" t="n">
+        <v>1735</v>
+      </c>
+      <c r="D577" t="n">
+        <v>6.6039890378</v>
+      </c>
+      <c r="E577" t="n">
+        <v>0</v>
+      </c>
+      <c r="F577" t="n">
+        <v>74</v>
+      </c>
+      <c r="G577" t="n">
+        <v>10.164835165</v>
+      </c>
+      <c r="H577" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B578" t="s">
+        <v>15</v>
+      </c>
+      <c r="C578" t="n">
+        <v>1735</v>
+      </c>
+      <c r="D578" t="n">
+        <v>6.6039890378</v>
+      </c>
+      <c r="E578" t="n">
+        <v>47</v>
+      </c>
+      <c r="F578" t="n">
+        <v>74</v>
+      </c>
+      <c r="G578" t="n">
+        <v>10.164835165</v>
+      </c>
+      <c r="H578" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B579" t="s">
+        <v>15</v>
+      </c>
+      <c r="C579" t="n">
+        <v>1735</v>
+      </c>
+      <c r="D579" t="n">
+        <v>6.6039890378</v>
+      </c>
+      <c r="E579" t="n">
+        <v>47</v>
+      </c>
+      <c r="F579" t="n">
+        <v>74</v>
+      </c>
+      <c r="G579" t="n">
+        <v>10.164835165</v>
+      </c>
+      <c r="H579" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B580" t="s">
+        <v>16</v>
+      </c>
+      <c r="C580" t="n">
+        <v>1266</v>
+      </c>
+      <c r="D580" t="n">
+        <v>4.818818514</v>
+      </c>
+      <c r="E580" t="n">
+        <v>40</v>
+      </c>
+      <c r="F580" t="n">
+        <v>84</v>
+      </c>
+      <c r="G580" t="n">
+        <v>11.538461538</v>
+      </c>
+      <c r="H580" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B581" t="s">
+        <v>16</v>
+      </c>
+      <c r="C581" t="n">
+        <v>1266</v>
+      </c>
+      <c r="D581" t="n">
+        <v>4.818818514</v>
+      </c>
+      <c r="E581" t="n">
+        <v>40</v>
+      </c>
+      <c r="F581" t="n">
+        <v>84</v>
+      </c>
+      <c r="G581" t="n">
+        <v>11.538461538</v>
+      </c>
+      <c r="H581" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B582" t="s">
+        <v>16</v>
+      </c>
+      <c r="C582" t="n">
+        <v>1266</v>
+      </c>
+      <c r="D582" t="n">
+        <v>4.818818514</v>
+      </c>
+      <c r="E582" t="n">
+        <v>0</v>
+      </c>
+      <c r="F582" t="n">
+        <v>84</v>
+      </c>
+      <c r="G582" t="n">
+        <v>11.538461538</v>
+      </c>
+      <c r="H582" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B583" t="s">
+        <v>16</v>
+      </c>
+      <c r="C583" t="n">
+        <v>1266</v>
+      </c>
+      <c r="D583" t="n">
+        <v>4.818818514</v>
+      </c>
+      <c r="E583" t="n">
+        <v>0</v>
+      </c>
+      <c r="F583" t="n">
+        <v>84</v>
+      </c>
+      <c r="G583" t="n">
+        <v>11.538461538</v>
+      </c>
+      <c r="H583" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B584" t="s">
+        <v>17</v>
+      </c>
+      <c r="C584" t="n">
+        <v>807</v>
+      </c>
+      <c r="D584" t="n">
+        <v>3.0717113276</v>
+      </c>
+      <c r="E584" t="n">
+        <v>0</v>
+      </c>
+      <c r="F584" t="n">
+        <v>79</v>
+      </c>
+      <c r="G584" t="n">
+        <v>10.851648352</v>
+      </c>
+      <c r="H584" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B585" t="s">
+        <v>17</v>
+      </c>
+      <c r="C585" t="n">
+        <v>807</v>
+      </c>
+      <c r="D585" t="n">
+        <v>3.0717113276</v>
+      </c>
+      <c r="E585" t="n">
+        <v>0</v>
+      </c>
+      <c r="F585" t="n">
+        <v>79</v>
+      </c>
+      <c r="G585" t="n">
+        <v>10.851648352</v>
+      </c>
+      <c r="H585" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B586" t="s">
+        <v>17</v>
+      </c>
+      <c r="C586" t="n">
+        <v>807</v>
+      </c>
+      <c r="D586" t="n">
+        <v>3.0717113276</v>
+      </c>
+      <c r="E586" t="n">
+        <v>11</v>
+      </c>
+      <c r="F586" t="n">
+        <v>79</v>
+      </c>
+      <c r="G586" t="n">
+        <v>10.851648352</v>
+      </c>
+      <c r="H586" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B587" t="s">
+        <v>17</v>
+      </c>
+      <c r="C587" t="n">
+        <v>807</v>
+      </c>
+      <c r="D587" t="n">
+        <v>3.0717113276</v>
+      </c>
+      <c r="E587" t="n">
+        <v>11</v>
+      </c>
+      <c r="F587" t="n">
+        <v>79</v>
+      </c>
+      <c r="G587" t="n">
+        <v>10.851648352</v>
+      </c>
+      <c r="H587" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B588" t="s">
+        <v>18</v>
+      </c>
+      <c r="C588" t="n">
+        <v>615</v>
+      </c>
+      <c r="D588" t="n">
+        <v>2.3408952497</v>
+      </c>
+      <c r="E588" t="n">
+        <v>0</v>
+      </c>
+      <c r="F588" t="n">
+        <v>85</v>
+      </c>
+      <c r="G588" t="n">
+        <v>11.675824176</v>
+      </c>
+      <c r="H588" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B589" t="s">
+        <v>18</v>
+      </c>
+      <c r="C589" t="n">
+        <v>615</v>
+      </c>
+      <c r="D589" t="n">
+        <v>2.3408952497</v>
+      </c>
+      <c r="E589" t="n">
+        <v>0</v>
+      </c>
+      <c r="F589" t="n">
+        <v>85</v>
+      </c>
+      <c r="G589" t="n">
+        <v>11.675824176</v>
+      </c>
+      <c r="H589" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B590" t="s">
+        <v>18</v>
+      </c>
+      <c r="C590" t="n">
+        <v>615</v>
+      </c>
+      <c r="D590" t="n">
+        <v>2.3408952497</v>
+      </c>
+      <c r="E590" t="n">
+        <v>14</v>
+      </c>
+      <c r="F590" t="n">
+        <v>85</v>
+      </c>
+      <c r="G590" t="n">
+        <v>11.675824176</v>
+      </c>
+      <c r="H590" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B591" t="s">
+        <v>18</v>
+      </c>
+      <c r="C591" t="n">
+        <v>615</v>
+      </c>
+      <c r="D591" t="n">
+        <v>2.3408952497</v>
+      </c>
+      <c r="E591" t="n">
+        <v>14</v>
+      </c>
+      <c r="F591" t="n">
+        <v>85</v>
+      </c>
+      <c r="G591" t="n">
+        <v>11.675824176</v>
+      </c>
+      <c r="H591" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B592" t="s">
+        <v>19</v>
+      </c>
+      <c r="C592" t="n">
+        <v>1126</v>
+      </c>
+      <c r="D592" t="n">
+        <v>4.2859317905</v>
+      </c>
+      <c r="E592" t="n">
+        <v>0</v>
+      </c>
+      <c r="F592" t="n">
+        <v>285</v>
+      </c>
+      <c r="G592" t="n">
+        <v>39.148351648</v>
+      </c>
+      <c r="H592" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B593" t="s">
+        <v>19</v>
+      </c>
+      <c r="C593" t="n">
+        <v>1126</v>
+      </c>
+      <c r="D593" t="n">
+        <v>4.2859317905</v>
+      </c>
+      <c r="E593" t="n">
+        <v>0</v>
+      </c>
+      <c r="F593" t="n">
+        <v>285</v>
+      </c>
+      <c r="G593" t="n">
+        <v>39.148351648</v>
+      </c>
+      <c r="H593" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B594" t="s">
+        <v>19</v>
+      </c>
+      <c r="C594" t="n">
+        <v>1126</v>
+      </c>
+      <c r="D594" t="n">
+        <v>4.2859317905</v>
+      </c>
+      <c r="E594" t="n">
+        <v>10</v>
+      </c>
+      <c r="F594" t="n">
+        <v>285</v>
+      </c>
+      <c r="G594" t="n">
+        <v>39.148351648</v>
+      </c>
+      <c r="H594" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B595" t="s">
+        <v>19</v>
+      </c>
+      <c r="C595" t="n">
+        <v>1126</v>
+      </c>
+      <c r="D595" t="n">
+        <v>4.2859317905</v>
+      </c>
+      <c r="E595" t="n">
+        <v>10</v>
+      </c>
+      <c r="F595" t="n">
+        <v>285</v>
+      </c>
+      <c r="G595" t="n">
+        <v>39.148351648</v>
+      </c>
+      <c r="H595" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B596" t="s">
         <v>20</v>
       </c>
-      <c r="C560" t="n">
+      <c r="C596" t="n">
         <v>18</v>
       </c>
-      <c r="D560" t="n">
+      <c r="D596" t="n">
         <v>0.0685140073</v>
       </c>
-      <c r="E560" t="n">
-        <v>0</v>
-      </c>
-      <c r="F560" t="n">
-        <v>0</v>
-      </c>
-      <c r="G560" t="n">
-        <v>0</v>
-      </c>
-      <c r="H560" t="n">
+      <c r="E596" t="n">
+        <v>0</v>
+      </c>
+      <c r="F596" t="n">
+        <v>0</v>
+      </c>
+      <c r="G596" t="n">
+        <v>0</v>
+      </c>
+      <c r="H596" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B597" t="s">
+        <v>20</v>
+      </c>
+      <c r="C597" t="n">
+        <v>18</v>
+      </c>
+      <c r="D597" t="n">
+        <v>0.0685140073</v>
+      </c>
+      <c r="E597" t="n">
+        <v>0</v>
+      </c>
+      <c r="F597" t="n">
+        <v>0</v>
+      </c>
+      <c r="G597" t="n">
+        <v>0</v>
+      </c>
+      <c r="H597" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B598" t="s">
+        <v>20</v>
+      </c>
+      <c r="C598" t="n">
+        <v>18</v>
+      </c>
+      <c r="D598" t="n">
+        <v>0.0685140073</v>
+      </c>
+      <c r="E598" t="n">
+        <v>0</v>
+      </c>
+      <c r="F598" t="n">
+        <v>0</v>
+      </c>
+      <c r="G598" t="n">
+        <v>0</v>
+      </c>
+      <c r="H598" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B599" t="s">
+        <v>20</v>
+      </c>
+      <c r="C599" t="n">
+        <v>18</v>
+      </c>
+      <c r="D599" t="n">
+        <v>0.0685140073</v>
+      </c>
+      <c r="E599" t="n">
+        <v>0</v>
+      </c>
+      <c r="F599" t="n">
+        <v>0</v>
+      </c>
+      <c r="G599" t="n">
+        <v>0</v>
+      </c>
+      <c r="H599" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18342,25 +19356,25 @@
         <v>44027</v>
       </c>
       <c r="B129" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C129" t="n">
-        <v>13369</v>
+        <v>12560</v>
       </c>
       <c r="D129" t="n">
-        <v>50.886875761</v>
+        <v>47.807551766</v>
       </c>
       <c r="E129" t="n">
-        <v>424</v>
+        <v>333</v>
       </c>
       <c r="F129" t="n">
-        <v>427</v>
+        <v>300</v>
       </c>
       <c r="G129" t="n">
-        <v>58.653846154</v>
+        <v>41.208791209</v>
       </c>
       <c r="H129" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -18368,25 +19382,259 @@
         <v>44027</v>
       </c>
       <c r="B130" t="s">
+        <v>21</v>
+      </c>
+      <c r="C130" t="n">
+        <v>12560</v>
+      </c>
+      <c r="D130" t="n">
+        <v>47.807551766</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>300</v>
+      </c>
+      <c r="G130" t="n">
+        <v>41.208791209</v>
+      </c>
+      <c r="H130" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B131" t="s">
+        <v>21</v>
+      </c>
+      <c r="C131" t="n">
+        <v>12560</v>
+      </c>
+      <c r="D131" t="n">
+        <v>47.807551766</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>300</v>
+      </c>
+      <c r="G131" t="n">
+        <v>41.208791209</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B132" t="s">
+        <v>22</v>
+      </c>
+      <c r="C132" t="n">
+        <v>13369</v>
+      </c>
+      <c r="D132" t="n">
+        <v>50.886875761</v>
+      </c>
+      <c r="E132" t="n">
+        <v>424</v>
+      </c>
+      <c r="F132" t="n">
+        <v>427</v>
+      </c>
+      <c r="G132" t="n">
+        <v>58.653846154</v>
+      </c>
+      <c r="H132" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B133" t="s">
+        <v>22</v>
+      </c>
+      <c r="C133" t="n">
+        <v>13369</v>
+      </c>
+      <c r="D133" t="n">
+        <v>50.886875761</v>
+      </c>
+      <c r="E133" t="n">
+        <v>424</v>
+      </c>
+      <c r="F133" t="n">
+        <v>427</v>
+      </c>
+      <c r="G133" t="n">
+        <v>58.653846154</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B134" t="s">
+        <v>22</v>
+      </c>
+      <c r="C134" t="n">
+        <v>13369</v>
+      </c>
+      <c r="D134" t="n">
+        <v>50.886875761</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>427</v>
+      </c>
+      <c r="G134" t="n">
+        <v>58.653846154</v>
+      </c>
+      <c r="H134" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B135" t="s">
+        <v>22</v>
+      </c>
+      <c r="C135" t="n">
+        <v>13369</v>
+      </c>
+      <c r="D135" t="n">
+        <v>50.886875761</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>427</v>
+      </c>
+      <c r="G135" t="n">
+        <v>58.653846154</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B136" t="s">
         <v>20</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C136" t="n">
         <v>343</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D136" t="n">
         <v>1.3055724726</v>
       </c>
-      <c r="E130" t="n">
+      <c r="E136" t="n">
         <v>50</v>
       </c>
-      <c r="F130" t="n">
+      <c r="F136" t="n">
         <v>1</v>
       </c>
-      <c r="G130" t="n">
+      <c r="G136" t="n">
         <v>0.1373626374</v>
       </c>
-      <c r="H130" t="n">
+      <c r="H136" t="n">
         <v>-2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B137" t="s">
+        <v>20</v>
+      </c>
+      <c r="C137" t="n">
+        <v>343</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1.3055724726</v>
+      </c>
+      <c r="E137" t="n">
+        <v>50</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.1373626374</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B138" t="s">
+        <v>20</v>
+      </c>
+      <c r="C138" t="n">
+        <v>343</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1.3055724726</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.1373626374</v>
+      </c>
+      <c r="H138" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B139" t="s">
+        <v>20</v>
+      </c>
+      <c r="C139" t="n">
+        <v>343</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1.3055724726</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.1373626374</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -24856,25 +26104,25 @@
         <v>44027</v>
       </c>
       <c r="B249" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C249" t="n">
-        <v>2989</v>
+        <v>651</v>
       </c>
       <c r="D249" t="n">
-        <v>11.377131547</v>
+        <v>2.4779232643</v>
       </c>
       <c r="E249" t="n">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="F249" t="n">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="G249" t="n">
-        <v>12.912087912</v>
+        <v>1.9230769231</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
@@ -24882,25 +26130,25 @@
         <v>44027</v>
       </c>
       <c r="B250" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C250" t="n">
-        <v>10534</v>
+        <v>651</v>
       </c>
       <c r="D250" t="n">
-        <v>40.09591961</v>
+        <v>2.4779232643</v>
       </c>
       <c r="E250" t="n">
-        <v>424</v>
+        <v>0</v>
       </c>
       <c r="F250" t="n">
-        <v>211</v>
+        <v>14</v>
       </c>
       <c r="G250" t="n">
-        <v>28.983516484</v>
+        <v>1.9230769231</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
@@ -24908,22 +26156,22 @@
         <v>44027</v>
       </c>
       <c r="B251" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C251" t="n">
-        <v>135</v>
+        <v>651</v>
       </c>
       <c r="D251" t="n">
-        <v>0.5138550548</v>
+        <v>2.4779232643</v>
       </c>
       <c r="E251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F251" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1373626374</v>
+        <v>1.9230769231</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -24934,25 +26182,25 @@
         <v>44027</v>
       </c>
       <c r="B252" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C252" t="n">
-        <v>5441</v>
+        <v>2989</v>
       </c>
       <c r="D252" t="n">
-        <v>20.710261876</v>
+        <v>11.377131547</v>
       </c>
       <c r="E252" t="n">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="F252" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G252" t="n">
-        <v>12.774725275</v>
+        <v>12.912087912</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253">
@@ -24960,25 +26208,493 @@
         <v>44027</v>
       </c>
       <c r="B253" t="s">
+        <v>24</v>
+      </c>
+      <c r="C253" t="n">
+        <v>2989</v>
+      </c>
+      <c r="D253" t="n">
+        <v>11.377131547</v>
+      </c>
+      <c r="E253" t="n">
+        <v>74</v>
+      </c>
+      <c r="F253" t="n">
+        <v>94</v>
+      </c>
+      <c r="G253" t="n">
+        <v>12.912087912</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B254" t="s">
+        <v>24</v>
+      </c>
+      <c r="C254" t="n">
+        <v>2989</v>
+      </c>
+      <c r="D254" t="n">
+        <v>11.377131547</v>
+      </c>
+      <c r="E254" t="n">
+        <v>0</v>
+      </c>
+      <c r="F254" t="n">
+        <v>94</v>
+      </c>
+      <c r="G254" t="n">
+        <v>12.912087912</v>
+      </c>
+      <c r="H254" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B255" t="s">
+        <v>24</v>
+      </c>
+      <c r="C255" t="n">
+        <v>2989</v>
+      </c>
+      <c r="D255" t="n">
+        <v>11.377131547</v>
+      </c>
+      <c r="E255" t="n">
+        <v>0</v>
+      </c>
+      <c r="F255" t="n">
+        <v>94</v>
+      </c>
+      <c r="G255" t="n">
+        <v>12.912087912</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B256" t="s">
+        <v>25</v>
+      </c>
+      <c r="C256" t="n">
+        <v>10534</v>
+      </c>
+      <c r="D256" t="n">
+        <v>40.09591961</v>
+      </c>
+      <c r="E256" t="n">
+        <v>0</v>
+      </c>
+      <c r="F256" t="n">
+        <v>211</v>
+      </c>
+      <c r="G256" t="n">
+        <v>28.983516484</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B257" t="s">
+        <v>25</v>
+      </c>
+      <c r="C257" t="n">
+        <v>10534</v>
+      </c>
+      <c r="D257" t="n">
+        <v>40.09591961</v>
+      </c>
+      <c r="E257" t="n">
+        <v>0</v>
+      </c>
+      <c r="F257" t="n">
+        <v>211</v>
+      </c>
+      <c r="G257" t="n">
+        <v>28.983516484</v>
+      </c>
+      <c r="H257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B258" t="s">
+        <v>25</v>
+      </c>
+      <c r="C258" t="n">
+        <v>10534</v>
+      </c>
+      <c r="D258" t="n">
+        <v>40.09591961</v>
+      </c>
+      <c r="E258" t="n">
+        <v>424</v>
+      </c>
+      <c r="F258" t="n">
+        <v>211</v>
+      </c>
+      <c r="G258" t="n">
+        <v>28.983516484</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B259" t="s">
+        <v>25</v>
+      </c>
+      <c r="C259" t="n">
+        <v>10534</v>
+      </c>
+      <c r="D259" t="n">
+        <v>40.09591961</v>
+      </c>
+      <c r="E259" t="n">
+        <v>424</v>
+      </c>
+      <c r="F259" t="n">
+        <v>211</v>
+      </c>
+      <c r="G259" t="n">
+        <v>28.983516484</v>
+      </c>
+      <c r="H259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B260" t="s">
+        <v>26</v>
+      </c>
+      <c r="C260" t="n">
+        <v>135</v>
+      </c>
+      <c r="D260" t="n">
+        <v>0.5138550548</v>
+      </c>
+      <c r="E260" t="n">
+        <v>0</v>
+      </c>
+      <c r="F260" t="n">
+        <v>1</v>
+      </c>
+      <c r="G260" t="n">
+        <v>0.1373626374</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B261" t="s">
+        <v>26</v>
+      </c>
+      <c r="C261" t="n">
+        <v>135</v>
+      </c>
+      <c r="D261" t="n">
+        <v>0.5138550548</v>
+      </c>
+      <c r="E261" t="n">
+        <v>0</v>
+      </c>
+      <c r="F261" t="n">
+        <v>1</v>
+      </c>
+      <c r="G261" t="n">
+        <v>0.1373626374</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B262" t="s">
+        <v>26</v>
+      </c>
+      <c r="C262" t="n">
+        <v>135</v>
+      </c>
+      <c r="D262" t="n">
+        <v>0.5138550548</v>
+      </c>
+      <c r="E262" t="n">
+        <v>2</v>
+      </c>
+      <c r="F262" t="n">
+        <v>1</v>
+      </c>
+      <c r="G262" t="n">
+        <v>0.1373626374</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B263" t="s">
+        <v>26</v>
+      </c>
+      <c r="C263" t="n">
+        <v>135</v>
+      </c>
+      <c r="D263" t="n">
+        <v>0.5138550548</v>
+      </c>
+      <c r="E263" t="n">
+        <v>2</v>
+      </c>
+      <c r="F263" t="n">
+        <v>1</v>
+      </c>
+      <c r="G263" t="n">
+        <v>0.1373626374</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B264" t="s">
+        <v>20</v>
+      </c>
+      <c r="C264" t="n">
+        <v>5441</v>
+      </c>
+      <c r="D264" t="n">
+        <v>20.710261876</v>
+      </c>
+      <c r="E264" t="n">
+        <v>114</v>
+      </c>
+      <c r="F264" t="n">
+        <v>93</v>
+      </c>
+      <c r="G264" t="n">
+        <v>12.774725275</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B265" t="s">
+        <v>20</v>
+      </c>
+      <c r="C265" t="n">
+        <v>5441</v>
+      </c>
+      <c r="D265" t="n">
+        <v>20.710261876</v>
+      </c>
+      <c r="E265" t="n">
+        <v>114</v>
+      </c>
+      <c r="F265" t="n">
+        <v>93</v>
+      </c>
+      <c r="G265" t="n">
+        <v>12.774725275</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B266" t="s">
+        <v>20</v>
+      </c>
+      <c r="C266" t="n">
+        <v>5441</v>
+      </c>
+      <c r="D266" t="n">
+        <v>20.710261876</v>
+      </c>
+      <c r="E266" t="n">
+        <v>0</v>
+      </c>
+      <c r="F266" t="n">
+        <v>93</v>
+      </c>
+      <c r="G266" t="n">
+        <v>12.774725275</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B267" t="s">
+        <v>20</v>
+      </c>
+      <c r="C267" t="n">
+        <v>5441</v>
+      </c>
+      <c r="D267" t="n">
+        <v>20.710261876</v>
+      </c>
+      <c r="E267" t="n">
+        <v>0</v>
+      </c>
+      <c r="F267" t="n">
+        <v>93</v>
+      </c>
+      <c r="G267" t="n">
+        <v>12.774725275</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B268" t="s">
         <v>27</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C268" t="n">
         <v>6522</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D268" t="n">
         <v>24.824908648</v>
       </c>
-      <c r="E253" t="n">
+      <c r="E268" t="n">
         <v>183</v>
       </c>
-      <c r="F253" t="n">
+      <c r="F268" t="n">
         <v>315</v>
       </c>
-      <c r="G253" t="n">
+      <c r="G268" t="n">
         <v>43.269230769</v>
       </c>
-      <c r="H253" t="n">
+      <c r="H268" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B269" t="s">
+        <v>27</v>
+      </c>
+      <c r="C269" t="n">
+        <v>6522</v>
+      </c>
+      <c r="D269" t="n">
+        <v>24.824908648</v>
+      </c>
+      <c r="E269" t="n">
+        <v>183</v>
+      </c>
+      <c r="F269" t="n">
+        <v>315</v>
+      </c>
+      <c r="G269" t="n">
+        <v>43.269230769</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B270" t="s">
+        <v>27</v>
+      </c>
+      <c r="C270" t="n">
+        <v>6522</v>
+      </c>
+      <c r="D270" t="n">
+        <v>24.824908648</v>
+      </c>
+      <c r="E270" t="n">
+        <v>0</v>
+      </c>
+      <c r="F270" t="n">
+        <v>315</v>
+      </c>
+      <c r="G270" t="n">
+        <v>43.269230769</v>
+      </c>
+      <c r="H270" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B271" t="s">
+        <v>27</v>
+      </c>
+      <c r="C271" t="n">
+        <v>6522</v>
+      </c>
+      <c r="D271" t="n">
+        <v>24.824908648</v>
+      </c>
+      <c r="E271" t="n">
+        <v>0</v>
+      </c>
+      <c r="F271" t="n">
+        <v>315</v>
+      </c>
+      <c r="G271" t="n">
+        <v>43.269230769</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -14659,19 +14659,19 @@
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B548" t="s">
         <v>8</v>
       </c>
       <c r="C548" t="n">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D548" t="n">
-        <v>0.4225030451</v>
+        <v>0.4157514904</v>
       </c>
       <c r="E548" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F548" t="n">
         <v>0</v>
@@ -14685,19 +14685,19 @@
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B549" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C549" t="n">
-        <v>111</v>
+        <v>479</v>
       </c>
       <c r="D549" t="n">
-        <v>0.4225030451</v>
+        <v>1.8787260747</v>
       </c>
       <c r="E549" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F549" t="n">
         <v>0</v>
@@ -14711,16 +14711,16 @@
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B550" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C550" t="n">
-        <v>111</v>
+        <v>1244</v>
       </c>
       <c r="D550" t="n">
-        <v>0.4225030451</v>
+        <v>4.8791967367</v>
       </c>
       <c r="E550" t="n">
         <v>0</v>
@@ -14737,25 +14737,25 @@
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B551" t="s">
+        <v>11</v>
+      </c>
+      <c r="C551" t="n">
+        <v>4718</v>
+      </c>
+      <c r="D551" t="n">
+        <v>18.504863508</v>
+      </c>
+      <c r="E551" t="n">
         <v>8</v>
       </c>
-      <c r="C551" t="n">
-        <v>111</v>
-      </c>
-      <c r="D551" t="n">
-        <v>0.4225030451</v>
-      </c>
-      <c r="E551" t="n">
-        <v>0</v>
-      </c>
       <c r="F551" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G551" t="n">
-        <v>0</v>
+        <v>0.6954102921</v>
       </c>
       <c r="H551" t="n">
         <v>0</v>
@@ -14763,25 +14763,25 @@
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B552" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C552" t="n">
-        <v>496</v>
+        <v>4717</v>
       </c>
       <c r="D552" t="n">
-        <v>1.8879415347</v>
+        <v>18.500941324</v>
       </c>
       <c r="E552" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F552" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G552" t="n">
-        <v>0</v>
+        <v>1.668984701</v>
       </c>
       <c r="H552" t="n">
         <v>0</v>
@@ -14789,25 +14789,25 @@
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B553" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C553" t="n">
-        <v>496</v>
+        <v>4538</v>
       </c>
       <c r="D553" t="n">
-        <v>1.8879415347</v>
+        <v>17.798870411</v>
       </c>
       <c r="E553" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F553" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G553" t="n">
-        <v>0</v>
+        <v>3.6161335188</v>
       </c>
       <c r="H553" t="n">
         <v>0</v>
@@ -14815,25 +14815,25 @@
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B554" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C554" t="n">
-        <v>496</v>
+        <v>4251</v>
       </c>
       <c r="D554" t="n">
-        <v>1.8879415347</v>
+        <v>16.67320364</v>
       </c>
       <c r="E554" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F554" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="G554" t="n">
-        <v>0</v>
+        <v>10.709318498</v>
       </c>
       <c r="H554" t="n">
         <v>0</v>
@@ -14841,51 +14841,51 @@
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B555" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C555" t="n">
-        <v>496</v>
+        <v>1688</v>
       </c>
       <c r="D555" t="n">
-        <v>1.8879415347</v>
+        <v>6.6206463759</v>
       </c>
       <c r="E555" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F555" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="G555" t="n">
-        <v>0</v>
+        <v>9.8748261474</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B556" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C556" t="n">
-        <v>1293</v>
+        <v>1225</v>
       </c>
       <c r="D556" t="n">
-        <v>4.921589525</v>
+        <v>4.8046752432</v>
       </c>
       <c r="E556" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F556" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="G556" t="n">
-        <v>0</v>
+        <v>11.40472879</v>
       </c>
       <c r="H556" t="n">
         <v>0</v>
@@ -14893,25 +14893,25 @@
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B557" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C557" t="n">
-        <v>1293</v>
+        <v>795</v>
       </c>
       <c r="D557" t="n">
-        <v>4.921589525</v>
+        <v>3.1181361782</v>
       </c>
       <c r="E557" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F557" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="G557" t="n">
-        <v>0</v>
+        <v>10.987482615</v>
       </c>
       <c r="H557" t="n">
         <v>0</v>
@@ -14919,25 +14919,25 @@
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B558" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C558" t="n">
-        <v>1293</v>
+        <v>601</v>
       </c>
       <c r="D558" t="n">
-        <v>4.921589525</v>
+        <v>2.3572325071</v>
       </c>
       <c r="E558" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="F558" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="G558" t="n">
-        <v>0</v>
+        <v>11.543810848</v>
       </c>
       <c r="H558" t="n">
         <v>0</v>
@@ -14945,25 +14945,25 @@
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B559" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C559" t="n">
-        <v>1293</v>
+        <v>1116</v>
       </c>
       <c r="D559" t="n">
-        <v>4.921589525</v>
+        <v>4.3771572011</v>
       </c>
       <c r="E559" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="F559" t="n">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="G559" t="n">
-        <v>0</v>
+        <v>39.49930459</v>
       </c>
       <c r="H559" t="n">
         <v>0</v>
@@ -14971,25 +14971,25 @@
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B560" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C560" t="n">
-        <v>4901</v>
+        <v>18</v>
       </c>
       <c r="D560" t="n">
-        <v>18.654841657</v>
+        <v>0.0705993097</v>
       </c>
       <c r="E560" t="n">
         <v>0</v>
       </c>
       <c r="F560" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G560" t="n">
-        <v>0.5494505495</v>
+        <v>0</v>
       </c>
       <c r="H560" t="n">
         <v>0</v>
@@ -15000,25 +15000,25 @@
         <v>44027</v>
       </c>
       <c r="B561" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C561" t="n">
-        <v>4901</v>
+        <v>111</v>
       </c>
       <c r="D561" t="n">
-        <v>18.654841657</v>
+        <v>0.4225030451</v>
       </c>
       <c r="E561" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F561" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G561" t="n">
-        <v>0.5494505495</v>
+        <v>0</v>
       </c>
       <c r="H561" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562">
@@ -15026,22 +15026,22 @@
         <v>44027</v>
       </c>
       <c r="B562" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C562" t="n">
-        <v>4901</v>
+        <v>496</v>
       </c>
       <c r="D562" t="n">
-        <v>18.654841657</v>
+        <v>1.8879415347</v>
       </c>
       <c r="E562" t="n">
-        <v>191</v>
+        <v>17</v>
       </c>
       <c r="F562" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G562" t="n">
-        <v>0.5494505495</v>
+        <v>0</v>
       </c>
       <c r="H562" t="n">
         <v>0</v>
@@ -15052,25 +15052,25 @@
         <v>44027</v>
       </c>
       <c r="B563" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C563" t="n">
-        <v>4901</v>
+        <v>1293</v>
       </c>
       <c r="D563" t="n">
-        <v>18.654841657</v>
+        <v>4.921589525</v>
       </c>
       <c r="E563" t="n">
-        <v>191</v>
+        <v>49</v>
       </c>
       <c r="F563" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G563" t="n">
-        <v>0.5494505495</v>
+        <v>0</v>
       </c>
       <c r="H563" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564">
@@ -15078,25 +15078,25 @@
         <v>44027</v>
       </c>
       <c r="B564" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C564" t="n">
-        <v>4867</v>
+        <v>4901</v>
       </c>
       <c r="D564" t="n">
-        <v>18.525426309</v>
+        <v>18.654841657</v>
       </c>
       <c r="E564" t="n">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="F564" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G564" t="n">
-        <v>1.6483516484</v>
+        <v>0.5494505495</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="565">
@@ -15113,7 +15113,7 @@
         <v>18.525426309</v>
       </c>
       <c r="E565" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F565" t="n">
         <v>12</v>
@@ -15130,25 +15130,25 @@
         <v>44027</v>
       </c>
       <c r="B566" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C566" t="n">
-        <v>4867</v>
+        <v>4684</v>
       </c>
       <c r="D566" t="n">
-        <v>18.525426309</v>
+        <v>17.828867235</v>
       </c>
       <c r="E566" t="n">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="F566" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G566" t="n">
-        <v>1.6483516484</v>
+        <v>3.8461538462</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567">
@@ -15156,22 +15156,22 @@
         <v>44027</v>
       </c>
       <c r="B567" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C567" t="n">
-        <v>4867</v>
+        <v>4353</v>
       </c>
       <c r="D567" t="n">
-        <v>18.525426309</v>
+        <v>16.568970767</v>
       </c>
       <c r="E567" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F567" t="n">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="G567" t="n">
-        <v>1.6483516484</v>
+        <v>10.576923077</v>
       </c>
       <c r="H567" t="n">
         <v>0</v>
@@ -15182,25 +15182,25 @@
         <v>44027</v>
       </c>
       <c r="B568" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C568" t="n">
-        <v>4684</v>
+        <v>1735</v>
       </c>
       <c r="D568" t="n">
-        <v>17.828867235</v>
+        <v>6.6039890378</v>
       </c>
       <c r="E568" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="F568" t="n">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="G568" t="n">
-        <v>3.8461538462</v>
+        <v>10.164835165</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="569">
@@ -15208,22 +15208,22 @@
         <v>44027</v>
       </c>
       <c r="B569" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C569" t="n">
-        <v>4684</v>
+        <v>1266</v>
       </c>
       <c r="D569" t="n">
-        <v>17.828867235</v>
+        <v>4.818818514</v>
       </c>
       <c r="E569" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="F569" t="n">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="G569" t="n">
-        <v>3.8461538462</v>
+        <v>11.538461538</v>
       </c>
       <c r="H569" t="n">
         <v>2</v>
@@ -15234,22 +15234,22 @@
         <v>44027</v>
       </c>
       <c r="B570" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C570" t="n">
-        <v>4684</v>
+        <v>807</v>
       </c>
       <c r="D570" t="n">
-        <v>17.828867235</v>
+        <v>3.0717113276</v>
       </c>
       <c r="E570" t="n">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="F570" t="n">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="G570" t="n">
-        <v>3.8461538462</v>
+        <v>10.851648352</v>
       </c>
       <c r="H570" t="n">
         <v>0</v>
@@ -15260,22 +15260,22 @@
         <v>44027</v>
       </c>
       <c r="B571" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C571" t="n">
-        <v>4684</v>
+        <v>615</v>
       </c>
       <c r="D571" t="n">
-        <v>17.828867235</v>
+        <v>2.3408952497</v>
       </c>
       <c r="E571" t="n">
-        <v>152</v>
+        <v>14</v>
       </c>
       <c r="F571" t="n">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="G571" t="n">
-        <v>3.8461538462</v>
+        <v>11.675824176</v>
       </c>
       <c r="H571" t="n">
         <v>2</v>
@@ -15286,25 +15286,25 @@
         <v>44027</v>
       </c>
       <c r="B572" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C572" t="n">
-        <v>4353</v>
+        <v>1126</v>
       </c>
       <c r="D572" t="n">
-        <v>16.568970767</v>
+        <v>4.2859317905</v>
       </c>
       <c r="E572" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F572" t="n">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="G572" t="n">
-        <v>10.576923077</v>
+        <v>39.148351648</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573">
@@ -15312,22 +15312,22 @@
         <v>44027</v>
       </c>
       <c r="B573" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C573" t="n">
-        <v>4353</v>
+        <v>18</v>
       </c>
       <c r="D573" t="n">
-        <v>16.568970767</v>
+        <v>0.0685140073</v>
       </c>
       <c r="E573" t="n">
         <v>0</v>
       </c>
       <c r="F573" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="G573" t="n">
-        <v>10.576923077</v>
+        <v>0</v>
       </c>
       <c r="H573" t="n">
         <v>0</v>
@@ -15335,25 +15335,25 @@
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="B574" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C574" t="n">
-        <v>4353</v>
+        <v>117</v>
       </c>
       <c r="D574" t="n">
-        <v>16.568970767</v>
+        <v>0.434298441</v>
       </c>
       <c r="E574" t="n">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="F574" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="G574" t="n">
-        <v>10.576923077</v>
+        <v>0</v>
       </c>
       <c r="H574" t="n">
         <v>0</v>
@@ -15361,25 +15361,25 @@
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="B575" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C575" t="n">
-        <v>4353</v>
+        <v>513</v>
       </c>
       <c r="D575" t="n">
-        <v>16.568970767</v>
+        <v>1.9042316258</v>
       </c>
       <c r="E575" t="n">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="F575" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="G575" t="n">
-        <v>10.576923077</v>
+        <v>0</v>
       </c>
       <c r="H575" t="n">
         <v>0</v>
@@ -15387,25 +15387,25 @@
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="B576" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C576" t="n">
-        <v>1735</v>
+        <v>1343</v>
       </c>
       <c r="D576" t="n">
-        <v>6.6039890378</v>
+        <v>4.9851521901</v>
       </c>
       <c r="E576" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F576" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="G576" t="n">
-        <v>10.164835165</v>
+        <v>0</v>
       </c>
       <c r="H576" t="n">
         <v>0</v>
@@ -15413,51 +15413,51 @@
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="B577" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C577" t="n">
-        <v>1735</v>
+        <v>5075</v>
       </c>
       <c r="D577" t="n">
-        <v>6.6039890378</v>
+        <v>18.838158872</v>
       </c>
       <c r="E577" t="n">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="F577" t="n">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="G577" t="n">
-        <v>10.164835165</v>
+        <v>0.5442176871</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="B578" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C578" t="n">
-        <v>1735</v>
+        <v>5011</v>
       </c>
       <c r="D578" t="n">
-        <v>6.6039890378</v>
+        <v>18.600593912</v>
       </c>
       <c r="E578" t="n">
-        <v>47</v>
+        <v>144</v>
       </c>
       <c r="F578" t="n">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="G578" t="n">
-        <v>10.164835165</v>
+        <v>1.6326530612</v>
       </c>
       <c r="H578" t="n">
         <v>0</v>
@@ -15465,129 +15465,129 @@
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="B579" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C579" t="n">
-        <v>1735</v>
+        <v>4796</v>
       </c>
       <c r="D579" t="n">
-        <v>6.6039890378</v>
+        <v>17.802524128</v>
       </c>
       <c r="E579" t="n">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="F579" t="n">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="G579" t="n">
-        <v>10.164835165</v>
+        <v>3.8095238095</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="B580" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C580" t="n">
-        <v>1266</v>
+        <v>4428</v>
       </c>
       <c r="D580" t="n">
-        <v>4.818818514</v>
+        <v>16.436525612</v>
       </c>
       <c r="E580" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="F580" t="n">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G580" t="n">
-        <v>11.538461538</v>
+        <v>10.476190476</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="B581" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C581" t="n">
-        <v>1266</v>
+        <v>1769</v>
       </c>
       <c r="D581" t="n">
-        <v>4.818818514</v>
+        <v>6.5664439495</v>
       </c>
       <c r="E581" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F581" t="n">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G581" t="n">
-        <v>11.538461538</v>
+        <v>10.340136054</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="B582" t="s">
         <v>16</v>
       </c>
       <c r="C582" t="n">
-        <v>1266</v>
+        <v>1289</v>
       </c>
       <c r="D582" t="n">
-        <v>4.818818514</v>
+        <v>4.7847067558</v>
       </c>
       <c r="E582" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F582" t="n">
         <v>84</v>
       </c>
       <c r="G582" t="n">
-        <v>11.538461538</v>
+        <v>11.428571429</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="B583" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C583" t="n">
-        <v>1266</v>
+        <v>820</v>
       </c>
       <c r="D583" t="n">
-        <v>4.818818514</v>
+        <v>3.0438010393</v>
       </c>
       <c r="E583" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F583" t="n">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G583" t="n">
-        <v>11.538461538</v>
+        <v>10.74829932</v>
       </c>
       <c r="H583" t="n">
         <v>0</v>
@@ -15595,417 +15595,79 @@
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="B584" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C584" t="n">
-        <v>807</v>
+        <v>622</v>
       </c>
       <c r="D584" t="n">
-        <v>3.0717113276</v>
+        <v>2.3088344469</v>
       </c>
       <c r="E584" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F584" t="n">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G584" t="n">
-        <v>10.851648352</v>
+        <v>11.836734694</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="B585" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C585" t="n">
-        <v>807</v>
+        <v>1138</v>
       </c>
       <c r="D585" t="n">
-        <v>3.0717113276</v>
+        <v>4.2242019302</v>
       </c>
       <c r="E585" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F585" t="n">
-        <v>79</v>
+        <v>288</v>
       </c>
       <c r="G585" t="n">
-        <v>10.851648352</v>
+        <v>39.183673469</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="B586" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C586" t="n">
-        <v>807</v>
+        <v>19</v>
       </c>
       <c r="D586" t="n">
-        <v>3.0717113276</v>
+        <v>0.0705270973</v>
       </c>
       <c r="E586" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F586" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="G586" t="n">
-        <v>10.851648352</v>
+        <v>0</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="587">
-      <c r="A587" s="1" t="n">
-        <v>44027</v>
-      </c>
-      <c r="B587" t="s">
-        <v>17</v>
-      </c>
-      <c r="C587" t="n">
-        <v>807</v>
-      </c>
-      <c r="D587" t="n">
-        <v>3.0717113276</v>
-      </c>
-      <c r="E587" t="n">
-        <v>11</v>
-      </c>
-      <c r="F587" t="n">
-        <v>79</v>
-      </c>
-      <c r="G587" t="n">
-        <v>10.851648352</v>
-      </c>
-      <c r="H587" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="588">
-      <c r="A588" s="1" t="n">
-        <v>44027</v>
-      </c>
-      <c r="B588" t="s">
-        <v>18</v>
-      </c>
-      <c r="C588" t="n">
-        <v>615</v>
-      </c>
-      <c r="D588" t="n">
-        <v>2.3408952497</v>
-      </c>
-      <c r="E588" t="n">
-        <v>0</v>
-      </c>
-      <c r="F588" t="n">
-        <v>85</v>
-      </c>
-      <c r="G588" t="n">
-        <v>11.675824176</v>
-      </c>
-      <c r="H588" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="589">
-      <c r="A589" s="1" t="n">
-        <v>44027</v>
-      </c>
-      <c r="B589" t="s">
-        <v>18</v>
-      </c>
-      <c r="C589" t="n">
-        <v>615</v>
-      </c>
-      <c r="D589" t="n">
-        <v>2.3408952497</v>
-      </c>
-      <c r="E589" t="n">
-        <v>0</v>
-      </c>
-      <c r="F589" t="n">
-        <v>85</v>
-      </c>
-      <c r="G589" t="n">
-        <v>11.675824176</v>
-      </c>
-      <c r="H589" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="590">
-      <c r="A590" s="1" t="n">
-        <v>44027</v>
-      </c>
-      <c r="B590" t="s">
-        <v>18</v>
-      </c>
-      <c r="C590" t="n">
-        <v>615</v>
-      </c>
-      <c r="D590" t="n">
-        <v>2.3408952497</v>
-      </c>
-      <c r="E590" t="n">
-        <v>14</v>
-      </c>
-      <c r="F590" t="n">
-        <v>85</v>
-      </c>
-      <c r="G590" t="n">
-        <v>11.675824176</v>
-      </c>
-      <c r="H590" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="591">
-      <c r="A591" s="1" t="n">
-        <v>44027</v>
-      </c>
-      <c r="B591" t="s">
-        <v>18</v>
-      </c>
-      <c r="C591" t="n">
-        <v>615</v>
-      </c>
-      <c r="D591" t="n">
-        <v>2.3408952497</v>
-      </c>
-      <c r="E591" t="n">
-        <v>14</v>
-      </c>
-      <c r="F591" t="n">
-        <v>85</v>
-      </c>
-      <c r="G591" t="n">
-        <v>11.675824176</v>
-      </c>
-      <c r="H591" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="592">
-      <c r="A592" s="1" t="n">
-        <v>44027</v>
-      </c>
-      <c r="B592" t="s">
-        <v>19</v>
-      </c>
-      <c r="C592" t="n">
-        <v>1126</v>
-      </c>
-      <c r="D592" t="n">
-        <v>4.2859317905</v>
-      </c>
-      <c r="E592" t="n">
-        <v>0</v>
-      </c>
-      <c r="F592" t="n">
-        <v>285</v>
-      </c>
-      <c r="G592" t="n">
-        <v>39.148351648</v>
-      </c>
-      <c r="H592" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="593">
-      <c r="A593" s="1" t="n">
-        <v>44027</v>
-      </c>
-      <c r="B593" t="s">
-        <v>19</v>
-      </c>
-      <c r="C593" t="n">
-        <v>1126</v>
-      </c>
-      <c r="D593" t="n">
-        <v>4.2859317905</v>
-      </c>
-      <c r="E593" t="n">
-        <v>0</v>
-      </c>
-      <c r="F593" t="n">
-        <v>285</v>
-      </c>
-      <c r="G593" t="n">
-        <v>39.148351648</v>
-      </c>
-      <c r="H593" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="594">
-      <c r="A594" s="1" t="n">
-        <v>44027</v>
-      </c>
-      <c r="B594" t="s">
-        <v>19</v>
-      </c>
-      <c r="C594" t="n">
-        <v>1126</v>
-      </c>
-      <c r="D594" t="n">
-        <v>4.2859317905</v>
-      </c>
-      <c r="E594" t="n">
-        <v>10</v>
-      </c>
-      <c r="F594" t="n">
-        <v>285</v>
-      </c>
-      <c r="G594" t="n">
-        <v>39.148351648</v>
-      </c>
-      <c r="H594" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="595">
-      <c r="A595" s="1" t="n">
-        <v>44027</v>
-      </c>
-      <c r="B595" t="s">
-        <v>19</v>
-      </c>
-      <c r="C595" t="n">
-        <v>1126</v>
-      </c>
-      <c r="D595" t="n">
-        <v>4.2859317905</v>
-      </c>
-      <c r="E595" t="n">
-        <v>10</v>
-      </c>
-      <c r="F595" t="n">
-        <v>285</v>
-      </c>
-      <c r="G595" t="n">
-        <v>39.148351648</v>
-      </c>
-      <c r="H595" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="596">
-      <c r="A596" s="1" t="n">
-        <v>44027</v>
-      </c>
-      <c r="B596" t="s">
-        <v>20</v>
-      </c>
-      <c r="C596" t="n">
-        <v>18</v>
-      </c>
-      <c r="D596" t="n">
-        <v>0.0685140073</v>
-      </c>
-      <c r="E596" t="n">
-        <v>0</v>
-      </c>
-      <c r="F596" t="n">
-        <v>0</v>
-      </c>
-      <c r="G596" t="n">
-        <v>0</v>
-      </c>
-      <c r="H596" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="597">
-      <c r="A597" s="1" t="n">
-        <v>44027</v>
-      </c>
-      <c r="B597" t="s">
-        <v>20</v>
-      </c>
-      <c r="C597" t="n">
-        <v>18</v>
-      </c>
-      <c r="D597" t="n">
-        <v>0.0685140073</v>
-      </c>
-      <c r="E597" t="n">
-        <v>0</v>
-      </c>
-      <c r="F597" t="n">
-        <v>0</v>
-      </c>
-      <c r="G597" t="n">
-        <v>0</v>
-      </c>
-      <c r="H597" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="598">
-      <c r="A598" s="1" t="n">
-        <v>44027</v>
-      </c>
-      <c r="B598" t="s">
-        <v>20</v>
-      </c>
-      <c r="C598" t="n">
-        <v>18</v>
-      </c>
-      <c r="D598" t="n">
-        <v>0.0685140073</v>
-      </c>
-      <c r="E598" t="n">
-        <v>0</v>
-      </c>
-      <c r="F598" t="n">
-        <v>0</v>
-      </c>
-      <c r="G598" t="n">
-        <v>0</v>
-      </c>
-      <c r="H598" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="599">
-      <c r="A599" s="1" t="n">
-        <v>44027</v>
-      </c>
-      <c r="B599" t="s">
-        <v>20</v>
-      </c>
-      <c r="C599" t="n">
-        <v>18</v>
-      </c>
-      <c r="D599" t="n">
-        <v>0.0685140073</v>
-      </c>
-      <c r="E599" t="n">
-        <v>0</v>
-      </c>
-      <c r="F599" t="n">
-        <v>0</v>
-      </c>
-      <c r="G599" t="n">
-        <v>0</v>
-      </c>
-      <c r="H599" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19327,80 +18989,80 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B128" t="s">
         <v>21</v>
       </c>
       <c r="C128" t="n">
-        <v>12560</v>
+        <v>12249</v>
       </c>
       <c r="D128" t="n">
-        <v>47.807551766</v>
+        <v>48.042830248</v>
       </c>
       <c r="E128" t="n">
-        <v>333</v>
+        <v>22</v>
       </c>
       <c r="F128" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G128" t="n">
-        <v>41.208791209</v>
+        <v>41.585535466</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B129" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C129" t="n">
-        <v>12560</v>
+        <v>12955</v>
       </c>
       <c r="D129" t="n">
-        <v>47.807551766</v>
+        <v>50.811892062</v>
       </c>
       <c r="E129" t="n">
-        <v>333</v>
+        <v>10</v>
       </c>
       <c r="F129" t="n">
-        <v>300</v>
+        <v>419</v>
       </c>
       <c r="G129" t="n">
-        <v>41.208791209</v>
+        <v>58.275382476</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B130" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C130" t="n">
-        <v>12560</v>
+        <v>292</v>
       </c>
       <c r="D130" t="n">
-        <v>47.807551766</v>
+        <v>1.1452776906</v>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F130" t="n">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="G130" t="n">
-        <v>41.208791209</v>
+        <v>0.1390820584</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="131">
@@ -19417,7 +19079,7 @@
         <v>47.807551766</v>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>311</v>
       </c>
       <c r="F131" t="n">
         <v>300</v>
@@ -19426,7 +19088,7 @@
         <v>41.208791209</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -19443,7 +19105,7 @@
         <v>50.886875761</v>
       </c>
       <c r="E132" t="n">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="F132" t="n">
         <v>427</v>
@@ -19452,7 +19114,7 @@
         <v>58.653846154</v>
       </c>
       <c r="H132" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133">
@@ -19460,22 +19122,22 @@
         <v>44027</v>
       </c>
       <c r="B133" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C133" t="n">
-        <v>13369</v>
+        <v>343</v>
       </c>
       <c r="D133" t="n">
-        <v>50.886875761</v>
+        <v>1.3055724726</v>
       </c>
       <c r="E133" t="n">
-        <v>424</v>
+        <v>51</v>
       </c>
       <c r="F133" t="n">
-        <v>427</v>
+        <v>1</v>
       </c>
       <c r="G133" t="n">
-        <v>58.653846154</v>
+        <v>0.1373626374</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -19483,157 +19145,79 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="B134" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C134" t="n">
-        <v>13369</v>
+        <v>12852</v>
       </c>
       <c r="D134" t="n">
-        <v>50.886875761</v>
+        <v>47.706013363</v>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>292</v>
       </c>
       <c r="F134" t="n">
-        <v>427</v>
+        <v>303</v>
       </c>
       <c r="G134" t="n">
-        <v>58.653846154</v>
+        <v>41.224489796</v>
       </c>
       <c r="H134" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="B135" t="s">
         <v>22</v>
       </c>
       <c r="C135" t="n">
-        <v>13369</v>
+        <v>13723</v>
       </c>
       <c r="D135" t="n">
-        <v>50.886875761</v>
+        <v>50.939123979</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>354</v>
       </c>
       <c r="F135" t="n">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="G135" t="n">
-        <v>58.653846154</v>
+        <v>58.639455782</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="B136" t="s">
         <v>20</v>
       </c>
       <c r="C136" t="n">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="D136" t="n">
-        <v>1.3055724726</v>
+        <v>1.3548626578</v>
       </c>
       <c r="E136" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="F136" t="n">
         <v>1</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1373626374</v>
+        <v>0.1360544218</v>
       </c>
       <c r="H136" t="n">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>44027</v>
-      </c>
-      <c r="B137" t="s">
-        <v>20</v>
-      </c>
-      <c r="C137" t="n">
-        <v>343</v>
-      </c>
-      <c r="D137" t="n">
-        <v>1.3055724726</v>
-      </c>
-      <c r="E137" t="n">
-        <v>50</v>
-      </c>
-      <c r="F137" t="n">
-        <v>1</v>
-      </c>
-      <c r="G137" t="n">
-        <v>0.1373626374</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>44027</v>
-      </c>
-      <c r="B138" t="s">
-        <v>20</v>
-      </c>
-      <c r="C138" t="n">
-        <v>343</v>
-      </c>
-      <c r="D138" t="n">
-        <v>1.3055724726</v>
-      </c>
-      <c r="E138" t="n">
-        <v>0</v>
-      </c>
-      <c r="F138" t="n">
-        <v>1</v>
-      </c>
-      <c r="G138" t="n">
-        <v>0.1373626374</v>
-      </c>
-      <c r="H138" t="n">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>44027</v>
-      </c>
-      <c r="B139" t="s">
-        <v>20</v>
-      </c>
-      <c r="C139" t="n">
-        <v>343</v>
-      </c>
-      <c r="D139" t="n">
-        <v>1.3055724726</v>
-      </c>
-      <c r="E139" t="n">
-        <v>0</v>
-      </c>
-      <c r="F139" t="n">
-        <v>1</v>
-      </c>
-      <c r="G139" t="n">
-        <v>0.1373626374</v>
-      </c>
-      <c r="H139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26075,25 +25659,25 @@
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B248" t="s">
         <v>23</v>
       </c>
       <c r="C248" t="n">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="D248" t="n">
-        <v>2.4779232643</v>
+        <v>2.5180420458</v>
       </c>
       <c r="E248" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F248" t="n">
         <v>14</v>
       </c>
       <c r="G248" t="n">
-        <v>1.9230769231</v>
+        <v>1.9471488178</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -26101,25 +25685,25 @@
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B249" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C249" t="n">
-        <v>651</v>
+        <v>2916</v>
       </c>
       <c r="D249" t="n">
-        <v>2.4779232643</v>
+        <v>11.437088171</v>
       </c>
       <c r="E249" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F249" t="n">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="G249" t="n">
-        <v>1.9230769231</v>
+        <v>12.795549374</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -26127,25 +25711,25 @@
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B250" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C250" t="n">
-        <v>651</v>
+        <v>10134</v>
       </c>
       <c r="D250" t="n">
-        <v>2.4779232643</v>
+        <v>39.747411359</v>
       </c>
       <c r="E250" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F250" t="n">
-        <v>14</v>
+        <v>210</v>
       </c>
       <c r="G250" t="n">
-        <v>1.9230769231</v>
+        <v>29.207232267</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -26153,25 +25737,25 @@
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B251" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C251" t="n">
-        <v>651</v>
+        <v>133</v>
       </c>
       <c r="D251" t="n">
-        <v>2.4779232643</v>
+        <v>0.521650455</v>
       </c>
       <c r="E251" t="n">
         <v>0</v>
       </c>
       <c r="F251" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G251" t="n">
-        <v>1.9230769231</v>
+        <v>0.1390820584</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -26179,51 +25763,51 @@
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B252" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C252" t="n">
-        <v>2989</v>
+        <v>5325</v>
       </c>
       <c r="D252" t="n">
-        <v>11.377131547</v>
+        <v>20.885629118</v>
       </c>
       <c r="E252" t="n">
-        <v>74</v>
+        <v>-2</v>
       </c>
       <c r="F252" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G252" t="n">
-        <v>12.912087912</v>
+        <v>12.795549374</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B253" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C253" t="n">
-        <v>2989</v>
+        <v>6346</v>
       </c>
       <c r="D253" t="n">
-        <v>11.377131547</v>
+        <v>24.890178852</v>
       </c>
       <c r="E253" t="n">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="F253" t="n">
-        <v>94</v>
+        <v>310</v>
       </c>
       <c r="G253" t="n">
-        <v>12.912087912</v>
+        <v>43.115438108</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -26234,25 +25818,25 @@
         <v>44027</v>
       </c>
       <c r="B254" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C254" t="n">
-        <v>2989</v>
+        <v>651</v>
       </c>
       <c r="D254" t="n">
-        <v>11.377131547</v>
+        <v>2.4779232643</v>
       </c>
       <c r="E254" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F254" t="n">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="G254" t="n">
-        <v>12.912087912</v>
+        <v>1.9230769231</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
@@ -26269,7 +25853,7 @@
         <v>11.377131547</v>
       </c>
       <c r="E255" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="F255" t="n">
         <v>94</v>
@@ -26278,7 +25862,7 @@
         <v>12.912087912</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256">
@@ -26295,7 +25879,7 @@
         <v>40.09591961</v>
       </c>
       <c r="E256" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F256" t="n">
         <v>211</v>
@@ -26304,7 +25888,7 @@
         <v>28.983516484</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -26312,25 +25896,25 @@
         <v>44027</v>
       </c>
       <c r="B257" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C257" t="n">
-        <v>10534</v>
+        <v>135</v>
       </c>
       <c r="D257" t="n">
-        <v>40.09591961</v>
+        <v>0.5138550548</v>
       </c>
       <c r="E257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F257" t="n">
-        <v>211</v>
+        <v>1</v>
       </c>
       <c r="G257" t="n">
-        <v>28.983516484</v>
+        <v>0.1373626374</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
@@ -26338,25 +25922,25 @@
         <v>44027</v>
       </c>
       <c r="B258" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C258" t="n">
-        <v>10534</v>
+        <v>5441</v>
       </c>
       <c r="D258" t="n">
-        <v>40.09591961</v>
+        <v>20.710261876</v>
       </c>
       <c r="E258" t="n">
-        <v>424</v>
+        <v>116</v>
       </c>
       <c r="F258" t="n">
-        <v>211</v>
+        <v>93</v>
       </c>
       <c r="G258" t="n">
-        <v>28.983516484</v>
+        <v>12.774725275</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
@@ -26364,117 +25948,117 @@
         <v>44027</v>
       </c>
       <c r="B259" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C259" t="n">
-        <v>10534</v>
+        <v>6522</v>
       </c>
       <c r="D259" t="n">
-        <v>40.09591961</v>
+        <v>24.824908648</v>
       </c>
       <c r="E259" t="n">
-        <v>424</v>
+        <v>176</v>
       </c>
       <c r="F259" t="n">
-        <v>211</v>
+        <v>315</v>
       </c>
       <c r="G259" t="n">
-        <v>28.983516484</v>
+        <v>43.269230769</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="B260" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C260" t="n">
-        <v>135</v>
+        <v>654</v>
       </c>
       <c r="D260" t="n">
-        <v>0.5138550548</v>
+        <v>2.4276169265</v>
       </c>
       <c r="E260" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F260" t="n">
+        <v>15</v>
+      </c>
+      <c r="G260" t="n">
+        <v>2.0408163265</v>
+      </c>
+      <c r="H260" t="n">
         <v>1</v>
-      </c>
-      <c r="G260" t="n">
-        <v>0.1373626374</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="B261" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C261" t="n">
-        <v>135</v>
+        <v>3061</v>
       </c>
       <c r="D261" t="n">
-        <v>0.5138550548</v>
+        <v>11.362286563</v>
       </c>
       <c r="E261" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="F261" t="n">
+        <v>95</v>
+      </c>
+      <c r="G261" t="n">
+        <v>12.925170068</v>
+      </c>
+      <c r="H261" t="n">
         <v>1</v>
-      </c>
-      <c r="G261" t="n">
-        <v>0.1373626374</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="B262" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C262" t="n">
-        <v>135</v>
+        <v>10891</v>
       </c>
       <c r="D262" t="n">
-        <v>0.5138550548</v>
+        <v>40.426874536</v>
       </c>
       <c r="E262" t="n">
-        <v>2</v>
+        <v>357</v>
       </c>
       <c r="F262" t="n">
-        <v>1</v>
+        <v>214</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1373626374</v>
+        <v>29.115646259</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="B263" t="s">
         <v>26</v>
       </c>
       <c r="C263" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D263" t="n">
-        <v>0.5138550548</v>
+        <v>0.5085374907</v>
       </c>
       <c r="E263" t="n">
         <v>2</v>
@@ -26483,7 +26067,7 @@
         <v>1</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1373626374</v>
+        <v>0.1360544218</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -26491,25 +26075,25 @@
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="B264" t="s">
         <v>20</v>
       </c>
       <c r="C264" t="n">
-        <v>5441</v>
+        <v>5556</v>
       </c>
       <c r="D264" t="n">
-        <v>20.710261876</v>
+        <v>20.623608018</v>
       </c>
       <c r="E264" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F264" t="n">
         <v>93</v>
       </c>
       <c r="G264" t="n">
-        <v>12.774725275</v>
+        <v>12.653061224</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -26517,184 +26101,28 @@
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="B265" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C265" t="n">
-        <v>5441</v>
+        <v>6641</v>
       </c>
       <c r="D265" t="n">
-        <v>20.710261876</v>
+        <v>24.651076466</v>
       </c>
       <c r="E265" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F265" t="n">
-        <v>93</v>
+        <v>317</v>
       </c>
       <c r="G265" t="n">
-        <v>12.774725275</v>
+        <v>43.129251701</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>44027</v>
-      </c>
-      <c r="B266" t="s">
-        <v>20</v>
-      </c>
-      <c r="C266" t="n">
-        <v>5441</v>
-      </c>
-      <c r="D266" t="n">
-        <v>20.710261876</v>
-      </c>
-      <c r="E266" t="n">
-        <v>0</v>
-      </c>
-      <c r="F266" t="n">
-        <v>93</v>
-      </c>
-      <c r="G266" t="n">
-        <v>12.774725275</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>44027</v>
-      </c>
-      <c r="B267" t="s">
-        <v>20</v>
-      </c>
-      <c r="C267" t="n">
-        <v>5441</v>
-      </c>
-      <c r="D267" t="n">
-        <v>20.710261876</v>
-      </c>
-      <c r="E267" t="n">
-        <v>0</v>
-      </c>
-      <c r="F267" t="n">
-        <v>93</v>
-      </c>
-      <c r="G267" t="n">
-        <v>12.774725275</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>44027</v>
-      </c>
-      <c r="B268" t="s">
-        <v>27</v>
-      </c>
-      <c r="C268" t="n">
-        <v>6522</v>
-      </c>
-      <c r="D268" t="n">
-        <v>24.824908648</v>
-      </c>
-      <c r="E268" t="n">
-        <v>183</v>
-      </c>
-      <c r="F268" t="n">
-        <v>315</v>
-      </c>
-      <c r="G268" t="n">
-        <v>43.269230769</v>
-      </c>
-      <c r="H268" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>44027</v>
-      </c>
-      <c r="B269" t="s">
-        <v>27</v>
-      </c>
-      <c r="C269" t="n">
-        <v>6522</v>
-      </c>
-      <c r="D269" t="n">
-        <v>24.824908648</v>
-      </c>
-      <c r="E269" t="n">
-        <v>183</v>
-      </c>
-      <c r="F269" t="n">
-        <v>315</v>
-      </c>
-      <c r="G269" t="n">
-        <v>43.269230769</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>44027</v>
-      </c>
-      <c r="B270" t="s">
-        <v>27</v>
-      </c>
-      <c r="C270" t="n">
-        <v>6522</v>
-      </c>
-      <c r="D270" t="n">
-        <v>24.824908648</v>
-      </c>
-      <c r="E270" t="n">
-        <v>0</v>
-      </c>
-      <c r="F270" t="n">
-        <v>315</v>
-      </c>
-      <c r="G270" t="n">
-        <v>43.269230769</v>
-      </c>
-      <c r="H270" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>44027</v>
-      </c>
-      <c r="B271" t="s">
-        <v>27</v>
-      </c>
-      <c r="C271" t="n">
-        <v>6522</v>
-      </c>
-      <c r="D271" t="n">
-        <v>24.824908648</v>
-      </c>
-      <c r="E271" t="n">
-        <v>0</v>
-      </c>
-      <c r="F271" t="n">
-        <v>315</v>
-      </c>
-      <c r="G271" t="n">
-        <v>43.269230769</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -15671,6 +15671,344 @@
         <v>0</v>
       </c>
     </row>
+    <row r="587">
+      <c r="A587" s="1" t="n">
+        <v>44029</v>
+      </c>
+      <c r="B587" t="s">
+        <v>8</v>
+      </c>
+      <c r="C587" t="n">
+        <v>120</v>
+      </c>
+      <c r="D587" t="n">
+        <v>0.4375091148</v>
+      </c>
+      <c r="E587" t="n">
+        <v>3</v>
+      </c>
+      <c r="F587" t="n">
+        <v>0</v>
+      </c>
+      <c r="G587" t="n">
+        <v>0</v>
+      </c>
+      <c r="H587" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="n">
+        <v>44029</v>
+      </c>
+      <c r="B588" t="s">
+        <v>9</v>
+      </c>
+      <c r="C588" t="n">
+        <v>524</v>
+      </c>
+      <c r="D588" t="n">
+        <v>1.9104564678</v>
+      </c>
+      <c r="E588" t="n">
+        <v>11</v>
+      </c>
+      <c r="F588" t="n">
+        <v>0</v>
+      </c>
+      <c r="G588" t="n">
+        <v>0</v>
+      </c>
+      <c r="H588" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="n">
+        <v>44029</v>
+      </c>
+      <c r="B589" t="s">
+        <v>10</v>
+      </c>
+      <c r="C589" t="n">
+        <v>1369</v>
+      </c>
+      <c r="D589" t="n">
+        <v>4.9912498177</v>
+      </c>
+      <c r="E589" t="n">
+        <v>26</v>
+      </c>
+      <c r="F589" t="n">
+        <v>0</v>
+      </c>
+      <c r="G589" t="n">
+        <v>0</v>
+      </c>
+      <c r="H589" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="n">
+        <v>44029</v>
+      </c>
+      <c r="B590" t="s">
+        <v>11</v>
+      </c>
+      <c r="C590" t="n">
+        <v>5155</v>
+      </c>
+      <c r="D590" t="n">
+        <v>18.794662389</v>
+      </c>
+      <c r="E590" t="n">
+        <v>80</v>
+      </c>
+      <c r="F590" t="n">
+        <v>4</v>
+      </c>
+      <c r="G590" t="n">
+        <v>0.5405405405</v>
+      </c>
+      <c r="H590" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="n">
+        <v>44029</v>
+      </c>
+      <c r="B591" t="s">
+        <v>12</v>
+      </c>
+      <c r="C591" t="n">
+        <v>5132</v>
+      </c>
+      <c r="D591" t="n">
+        <v>18.710806475</v>
+      </c>
+      <c r="E591" t="n">
+        <v>121</v>
+      </c>
+      <c r="F591" t="n">
+        <v>12</v>
+      </c>
+      <c r="G591" t="n">
+        <v>1.6216216216</v>
+      </c>
+      <c r="H591" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="n">
+        <v>44029</v>
+      </c>
+      <c r="B592" t="s">
+        <v>13</v>
+      </c>
+      <c r="C592" t="n">
+        <v>4860</v>
+      </c>
+      <c r="D592" t="n">
+        <v>17.719119148</v>
+      </c>
+      <c r="E592" t="n">
+        <v>64</v>
+      </c>
+      <c r="F592" t="n">
+        <v>28</v>
+      </c>
+      <c r="G592" t="n">
+        <v>3.7837837838</v>
+      </c>
+      <c r="H592" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="n">
+        <v>44029</v>
+      </c>
+      <c r="B593" t="s">
+        <v>14</v>
+      </c>
+      <c r="C593" t="n">
+        <v>4507</v>
+      </c>
+      <c r="D593" t="n">
+        <v>16.432113169</v>
+      </c>
+      <c r="E593" t="n">
+        <v>79</v>
+      </c>
+      <c r="F593" t="n">
+        <v>78</v>
+      </c>
+      <c r="G593" t="n">
+        <v>10.540540541</v>
+      </c>
+      <c r="H593" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="n">
+        <v>44029</v>
+      </c>
+      <c r="B594" t="s">
+        <v>15</v>
+      </c>
+      <c r="C594" t="n">
+        <v>1806</v>
+      </c>
+      <c r="D594" t="n">
+        <v>6.5845121773</v>
+      </c>
+      <c r="E594" t="n">
+        <v>37</v>
+      </c>
+      <c r="F594" t="n">
+        <v>76</v>
+      </c>
+      <c r="G594" t="n">
+        <v>10.27027027</v>
+      </c>
+      <c r="H594" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="n">
+        <v>44029</v>
+      </c>
+      <c r="B595" t="s">
+        <v>16</v>
+      </c>
+      <c r="C595" t="n">
+        <v>1317</v>
+      </c>
+      <c r="D595" t="n">
+        <v>4.8016625346</v>
+      </c>
+      <c r="E595" t="n">
+        <v>28</v>
+      </c>
+      <c r="F595" t="n">
+        <v>85</v>
+      </c>
+      <c r="G595" t="n">
+        <v>11.486486486</v>
+      </c>
+      <c r="H595" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="n">
+        <v>44029</v>
+      </c>
+      <c r="B596" t="s">
+        <v>17</v>
+      </c>
+      <c r="C596" t="n">
+        <v>836</v>
+      </c>
+      <c r="D596" t="n">
+        <v>3.0479801663</v>
+      </c>
+      <c r="E596" t="n">
+        <v>16</v>
+      </c>
+      <c r="F596" t="n">
+        <v>80</v>
+      </c>
+      <c r="G596" t="n">
+        <v>10.810810811</v>
+      </c>
+      <c r="H596" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="n">
+        <v>44029</v>
+      </c>
+      <c r="B597" t="s">
+        <v>18</v>
+      </c>
+      <c r="C597" t="n">
+        <v>630</v>
+      </c>
+      <c r="D597" t="n">
+        <v>2.2969228526</v>
+      </c>
+      <c r="E597" t="n">
+        <v>8</v>
+      </c>
+      <c r="F597" t="n">
+        <v>87</v>
+      </c>
+      <c r="G597" t="n">
+        <v>11.756756757</v>
+      </c>
+      <c r="H597" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="n">
+        <v>44029</v>
+      </c>
+      <c r="B598" t="s">
+        <v>19</v>
+      </c>
+      <c r="C598" t="n">
+        <v>1152</v>
+      </c>
+      <c r="D598" t="n">
+        <v>4.2000875018</v>
+      </c>
+      <c r="E598" t="n">
+        <v>14</v>
+      </c>
+      <c r="F598" t="n">
+        <v>290</v>
+      </c>
+      <c r="G598" t="n">
+        <v>39.189189189</v>
+      </c>
+      <c r="H598" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="n">
+        <v>44029</v>
+      </c>
+      <c r="B599" t="s">
+        <v>20</v>
+      </c>
+      <c r="C599" t="n">
+        <v>20</v>
+      </c>
+      <c r="D599" t="n">
+        <v>0.0729181858</v>
+      </c>
+      <c r="E599" t="n">
+        <v>1</v>
+      </c>
+      <c r="F599" t="n">
+        <v>0</v>
+      </c>
+      <c r="G599" t="n">
+        <v>0</v>
+      </c>
+      <c r="H599" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -19221,6 +19559,84 @@
         <v>0</v>
       </c>
     </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>44029</v>
+      </c>
+      <c r="B137" t="s">
+        <v>21</v>
+      </c>
+      <c r="C137" t="n">
+        <v>13014</v>
+      </c>
+      <c r="D137" t="n">
+        <v>47.447863497</v>
+      </c>
+      <c r="E137" t="n">
+        <v>162</v>
+      </c>
+      <c r="F137" t="n">
+        <v>305</v>
+      </c>
+      <c r="G137" t="n">
+        <v>41.216216216</v>
+      </c>
+      <c r="H137" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>44029</v>
+      </c>
+      <c r="B138" t="s">
+        <v>22</v>
+      </c>
+      <c r="C138" t="n">
+        <v>14044</v>
+      </c>
+      <c r="D138" t="n">
+        <v>51.203150066</v>
+      </c>
+      <c r="E138" t="n">
+        <v>321</v>
+      </c>
+      <c r="F138" t="n">
+        <v>434</v>
+      </c>
+      <c r="G138" t="n">
+        <v>58.648648649</v>
+      </c>
+      <c r="H138" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>44029</v>
+      </c>
+      <c r="B139" t="s">
+        <v>20</v>
+      </c>
+      <c r="C139" t="n">
+        <v>370</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1.3489864372</v>
+      </c>
+      <c r="E139" t="n">
+        <v>5</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.1351351351</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -26125,6 +26541,162 @@
         <v>2</v>
       </c>
     </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>44029</v>
+      </c>
+      <c r="B266" t="s">
+        <v>23</v>
+      </c>
+      <c r="C266" t="n">
+        <v>656</v>
+      </c>
+      <c r="D266" t="n">
+        <v>2.3917164941</v>
+      </c>
+      <c r="E266" t="n">
+        <v>2</v>
+      </c>
+      <c r="F266" t="n">
+        <v>15</v>
+      </c>
+      <c r="G266" t="n">
+        <v>2.027027027</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>44029</v>
+      </c>
+      <c r="B267" t="s">
+        <v>24</v>
+      </c>
+      <c r="C267" t="n">
+        <v>3129</v>
+      </c>
+      <c r="D267" t="n">
+        <v>11.408050168</v>
+      </c>
+      <c r="E267" t="n">
+        <v>68</v>
+      </c>
+      <c r="F267" t="n">
+        <v>95</v>
+      </c>
+      <c r="G267" t="n">
+        <v>12.837837838</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>44029</v>
+      </c>
+      <c r="B268" t="s">
+        <v>25</v>
+      </c>
+      <c r="C268" t="n">
+        <v>11113</v>
+      </c>
+      <c r="D268" t="n">
+        <v>40.516989937</v>
+      </c>
+      <c r="E268" t="n">
+        <v>222</v>
+      </c>
+      <c r="F268" t="n">
+        <v>216</v>
+      </c>
+      <c r="G268" t="n">
+        <v>29.189189189</v>
+      </c>
+      <c r="H268" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>44029</v>
+      </c>
+      <c r="B269" t="s">
+        <v>26</v>
+      </c>
+      <c r="C269" t="n">
+        <v>138</v>
+      </c>
+      <c r="D269" t="n">
+        <v>0.503135482</v>
+      </c>
+      <c r="E269" t="n">
+        <v>1</v>
+      </c>
+      <c r="F269" t="n">
+        <v>1</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.1351351351</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>44029</v>
+      </c>
+      <c r="B270" t="s">
+        <v>20</v>
+      </c>
+      <c r="C270" t="n">
+        <v>5616</v>
+      </c>
+      <c r="D270" t="n">
+        <v>20.475426571</v>
+      </c>
+      <c r="E270" t="n">
+        <v>60</v>
+      </c>
+      <c r="F270" t="n">
+        <v>94</v>
+      </c>
+      <c r="G270" t="n">
+        <v>12.702702703</v>
+      </c>
+      <c r="H270" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>44029</v>
+      </c>
+      <c r="B271" t="s">
+        <v>27</v>
+      </c>
+      <c r="C271" t="n">
+        <v>6776</v>
+      </c>
+      <c r="D271" t="n">
+        <v>24.704681348</v>
+      </c>
+      <c r="E271" t="n">
+        <v>135</v>
+      </c>
+      <c r="F271" t="n">
+        <v>319</v>
+      </c>
+      <c r="G271" t="n">
+        <v>43.108108108</v>
+      </c>
+      <c r="H271" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -16009,6 +16009,344 @@
         <v>0</v>
       </c>
     </row>
+    <row r="600">
+      <c r="A600" s="1" t="n">
+        <v>44030</v>
+      </c>
+      <c r="B600" t="s">
+        <v>8</v>
+      </c>
+      <c r="C600" t="n">
+        <v>125</v>
+      </c>
+      <c r="D600" t="n">
+        <v>0.4466359381</v>
+      </c>
+      <c r="E600" t="n">
+        <v>5</v>
+      </c>
+      <c r="F600" t="n">
+        <v>0</v>
+      </c>
+      <c r="G600" t="n">
+        <v>0</v>
+      </c>
+      <c r="H600" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="n">
+        <v>44030</v>
+      </c>
+      <c r="B601" t="s">
+        <v>9</v>
+      </c>
+      <c r="C601" t="n">
+        <v>530</v>
+      </c>
+      <c r="D601" t="n">
+        <v>1.8937363776</v>
+      </c>
+      <c r="E601" t="n">
+        <v>6</v>
+      </c>
+      <c r="F601" t="n">
+        <v>0</v>
+      </c>
+      <c r="G601" t="n">
+        <v>0</v>
+      </c>
+      <c r="H601" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="n">
+        <v>44030</v>
+      </c>
+      <c r="B602" t="s">
+        <v>10</v>
+      </c>
+      <c r="C602" t="n">
+        <v>1396</v>
+      </c>
+      <c r="D602" t="n">
+        <v>4.9880301569</v>
+      </c>
+      <c r="E602" t="n">
+        <v>27</v>
+      </c>
+      <c r="F602" t="n">
+        <v>0</v>
+      </c>
+      <c r="G602" t="n">
+        <v>0</v>
+      </c>
+      <c r="H602" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="n">
+        <v>44030</v>
+      </c>
+      <c r="B603" t="s">
+        <v>11</v>
+      </c>
+      <c r="C603" t="n">
+        <v>5282</v>
+      </c>
+      <c r="D603" t="n">
+        <v>18.873048201</v>
+      </c>
+      <c r="E603" t="n">
+        <v>127</v>
+      </c>
+      <c r="F603" t="n">
+        <v>5</v>
+      </c>
+      <c r="G603" t="n">
+        <v>0.6675567423</v>
+      </c>
+      <c r="H603" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="n">
+        <v>44030</v>
+      </c>
+      <c r="B604" t="s">
+        <v>12</v>
+      </c>
+      <c r="C604" t="n">
+        <v>5240</v>
+      </c>
+      <c r="D604" t="n">
+        <v>18.722978526</v>
+      </c>
+      <c r="E604" t="n">
+        <v>108</v>
+      </c>
+      <c r="F604" t="n">
+        <v>12</v>
+      </c>
+      <c r="G604" t="n">
+        <v>1.6021361816</v>
+      </c>
+      <c r="H604" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="n">
+        <v>44030</v>
+      </c>
+      <c r="B605" t="s">
+        <v>13</v>
+      </c>
+      <c r="C605" t="n">
+        <v>4969</v>
+      </c>
+      <c r="D605" t="n">
+        <v>17.754671812</v>
+      </c>
+      <c r="E605" t="n">
+        <v>109</v>
+      </c>
+      <c r="F605" t="n">
+        <v>29</v>
+      </c>
+      <c r="G605" t="n">
+        <v>3.8718291055</v>
+      </c>
+      <c r="H605" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="n">
+        <v>44030</v>
+      </c>
+      <c r="B606" t="s">
+        <v>14</v>
+      </c>
+      <c r="C606" t="n">
+        <v>4606</v>
+      </c>
+      <c r="D606" t="n">
+        <v>16.457641048</v>
+      </c>
+      <c r="E606" t="n">
+        <v>99</v>
+      </c>
+      <c r="F606" t="n">
+        <v>80</v>
+      </c>
+      <c r="G606" t="n">
+        <v>10.680907877</v>
+      </c>
+      <c r="H606" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="n">
+        <v>44030</v>
+      </c>
+      <c r="B607" t="s">
+        <v>15</v>
+      </c>
+      <c r="C607" t="n">
+        <v>1835</v>
+      </c>
+      <c r="D607" t="n">
+        <v>6.5566155715</v>
+      </c>
+      <c r="E607" t="n">
+        <v>29</v>
+      </c>
+      <c r="F607" t="n">
+        <v>77</v>
+      </c>
+      <c r="G607" t="n">
+        <v>10.280373832</v>
+      </c>
+      <c r="H607" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="n">
+        <v>44030</v>
+      </c>
+      <c r="B608" t="s">
+        <v>16</v>
+      </c>
+      <c r="C608" t="n">
+        <v>1350</v>
+      </c>
+      <c r="D608" t="n">
+        <v>4.8236681316</v>
+      </c>
+      <c r="E608" t="n">
+        <v>33</v>
+      </c>
+      <c r="F608" t="n">
+        <v>86</v>
+      </c>
+      <c r="G608" t="n">
+        <v>11.481975968</v>
+      </c>
+      <c r="H608" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="n">
+        <v>44030</v>
+      </c>
+      <c r="B609" t="s">
+        <v>17</v>
+      </c>
+      <c r="C609" t="n">
+        <v>845</v>
+      </c>
+      <c r="D609" t="n">
+        <v>3.0192589417</v>
+      </c>
+      <c r="E609" t="n">
+        <v>9</v>
+      </c>
+      <c r="F609" t="n">
+        <v>81</v>
+      </c>
+      <c r="G609" t="n">
+        <v>10.814419226</v>
+      </c>
+      <c r="H609" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="n">
+        <v>44030</v>
+      </c>
+      <c r="B610" t="s">
+        <v>18</v>
+      </c>
+      <c r="C610" t="n">
+        <v>635</v>
+      </c>
+      <c r="D610" t="n">
+        <v>2.2689105656</v>
+      </c>
+      <c r="E610" t="n">
+        <v>5</v>
+      </c>
+      <c r="F610" t="n">
+        <v>88</v>
+      </c>
+      <c r="G610" t="n">
+        <v>11.748998665</v>
+      </c>
+      <c r="H610" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="n">
+        <v>44030</v>
+      </c>
+      <c r="B611" t="s">
+        <v>19</v>
+      </c>
+      <c r="C611" t="n">
+        <v>1154</v>
+      </c>
+      <c r="D611" t="n">
+        <v>4.1233429807</v>
+      </c>
+      <c r="E611" t="n">
+        <v>2</v>
+      </c>
+      <c r="F611" t="n">
+        <v>291</v>
+      </c>
+      <c r="G611" t="n">
+        <v>38.851802403</v>
+      </c>
+      <c r="H611" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="n">
+        <v>44030</v>
+      </c>
+      <c r="B612" t="s">
+        <v>20</v>
+      </c>
+      <c r="C612" t="n">
+        <v>20</v>
+      </c>
+      <c r="D612" t="n">
+        <v>0.0714617501</v>
+      </c>
+      <c r="E612" t="n">
+        <v>0</v>
+      </c>
+      <c r="F612" t="n">
+        <v>0</v>
+      </c>
+      <c r="G612" t="n">
+        <v>0</v>
+      </c>
+      <c r="H612" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -19637,6 +19975,84 @@
         <v>0</v>
       </c>
     </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>44030</v>
+      </c>
+      <c r="B140" t="s">
+        <v>21</v>
+      </c>
+      <c r="C140" t="n">
+        <v>13153</v>
+      </c>
+      <c r="D140" t="n">
+        <v>46.996819952</v>
+      </c>
+      <c r="E140" t="n">
+        <v>139</v>
+      </c>
+      <c r="F140" t="n">
+        <v>310</v>
+      </c>
+      <c r="G140" t="n">
+        <v>41.388518024</v>
+      </c>
+      <c r="H140" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>44030</v>
+      </c>
+      <c r="B141" t="s">
+        <v>22</v>
+      </c>
+      <c r="C141" t="n">
+        <v>14459</v>
+      </c>
+      <c r="D141" t="n">
+        <v>51.663272234</v>
+      </c>
+      <c r="E141" t="n">
+        <v>415</v>
+      </c>
+      <c r="F141" t="n">
+        <v>438</v>
+      </c>
+      <c r="G141" t="n">
+        <v>58.477970628</v>
+      </c>
+      <c r="H141" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>44030</v>
+      </c>
+      <c r="B142" t="s">
+        <v>20</v>
+      </c>
+      <c r="C142" t="n">
+        <v>375</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1.3399078143</v>
+      </c>
+      <c r="E142" t="n">
+        <v>5</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.1335113485</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -26697,6 +27113,162 @@
         <v>2</v>
       </c>
     </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>44030</v>
+      </c>
+      <c r="B272" t="s">
+        <v>23</v>
+      </c>
+      <c r="C272" t="n">
+        <v>659</v>
+      </c>
+      <c r="D272" t="n">
+        <v>2.3546646657</v>
+      </c>
+      <c r="E272" t="n">
+        <v>3</v>
+      </c>
+      <c r="F272" t="n">
+        <v>16</v>
+      </c>
+      <c r="G272" t="n">
+        <v>2.1361815754</v>
+      </c>
+      <c r="H272" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>44030</v>
+      </c>
+      <c r="B273" t="s">
+        <v>24</v>
+      </c>
+      <c r="C273" t="n">
+        <v>3222</v>
+      </c>
+      <c r="D273" t="n">
+        <v>11.512487941</v>
+      </c>
+      <c r="E273" t="n">
+        <v>93</v>
+      </c>
+      <c r="F273" t="n">
+        <v>95</v>
+      </c>
+      <c r="G273" t="n">
+        <v>12.683578104</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>44030</v>
+      </c>
+      <c r="B274" t="s">
+        <v>25</v>
+      </c>
+      <c r="C274" t="n">
+        <v>11347</v>
+      </c>
+      <c r="D274" t="n">
+        <v>40.543823918</v>
+      </c>
+      <c r="E274" t="n">
+        <v>234</v>
+      </c>
+      <c r="F274" t="n">
+        <v>219</v>
+      </c>
+      <c r="G274" t="n">
+        <v>29.238985314</v>
+      </c>
+      <c r="H274" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>44030</v>
+      </c>
+      <c r="B275" t="s">
+        <v>26</v>
+      </c>
+      <c r="C275" t="n">
+        <v>140</v>
+      </c>
+      <c r="D275" t="n">
+        <v>0.5002322507</v>
+      </c>
+      <c r="E275" t="n">
+        <v>2</v>
+      </c>
+      <c r="F275" t="n">
+        <v>1</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.1335113485</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>44030</v>
+      </c>
+      <c r="B276" t="s">
+        <v>20</v>
+      </c>
+      <c r="C276" t="n">
+        <v>5665</v>
+      </c>
+      <c r="D276" t="n">
+        <v>20.241540715</v>
+      </c>
+      <c r="E276" t="n">
+        <v>49</v>
+      </c>
+      <c r="F276" t="n">
+        <v>94</v>
+      </c>
+      <c r="G276" t="n">
+        <v>12.550066756</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>44030</v>
+      </c>
+      <c r="B277" t="s">
+        <v>27</v>
+      </c>
+      <c r="C277" t="n">
+        <v>6954</v>
+      </c>
+      <c r="D277" t="n">
+        <v>24.847250509</v>
+      </c>
+      <c r="E277" t="n">
+        <v>178</v>
+      </c>
+      <c r="F277" t="n">
+        <v>324</v>
+      </c>
+      <c r="G277" t="n">
+        <v>43.257676903</v>
+      </c>
+      <c r="H277" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -16347,6 +16347,344 @@
         <v>0</v>
       </c>
     </row>
+    <row r="613">
+      <c r="A613" s="1" t="n">
+        <v>44031</v>
+      </c>
+      <c r="B613" t="s">
+        <v>8</v>
+      </c>
+      <c r="C613" t="n">
+        <v>125</v>
+      </c>
+      <c r="D613" t="n">
+        <v>0.4431838327</v>
+      </c>
+      <c r="E613" t="n">
+        <v>0</v>
+      </c>
+      <c r="F613" t="n">
+        <v>0</v>
+      </c>
+      <c r="G613" t="n">
+        <v>0</v>
+      </c>
+      <c r="H613" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="n">
+        <v>44031</v>
+      </c>
+      <c r="B614" t="s">
+        <v>9</v>
+      </c>
+      <c r="C614" t="n">
+        <v>537</v>
+      </c>
+      <c r="D614" t="n">
+        <v>1.9039177451</v>
+      </c>
+      <c r="E614" t="n">
+        <v>7</v>
+      </c>
+      <c r="F614" t="n">
+        <v>0</v>
+      </c>
+      <c r="G614" t="n">
+        <v>0</v>
+      </c>
+      <c r="H614" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="n">
+        <v>44031</v>
+      </c>
+      <c r="B615" t="s">
+        <v>10</v>
+      </c>
+      <c r="C615" t="n">
+        <v>1409</v>
+      </c>
+      <c r="D615" t="n">
+        <v>4.9955681617</v>
+      </c>
+      <c r="E615" t="n">
+        <v>13</v>
+      </c>
+      <c r="F615" t="n">
+        <v>0</v>
+      </c>
+      <c r="G615" t="n">
+        <v>0</v>
+      </c>
+      <c r="H615" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="n">
+        <v>44031</v>
+      </c>
+      <c r="B616" t="s">
+        <v>11</v>
+      </c>
+      <c r="C616" t="n">
+        <v>5323</v>
+      </c>
+      <c r="D616" t="n">
+        <v>18.87254033</v>
+      </c>
+      <c r="E616" t="n">
+        <v>41</v>
+      </c>
+      <c r="F616" t="n">
+        <v>5</v>
+      </c>
+      <c r="G616" t="n">
+        <v>0.6640106242</v>
+      </c>
+      <c r="H616" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="n">
+        <v>44031</v>
+      </c>
+      <c r="B617" t="s">
+        <v>12</v>
+      </c>
+      <c r="C617" t="n">
+        <v>5301</v>
+      </c>
+      <c r="D617" t="n">
+        <v>18.794539975</v>
+      </c>
+      <c r="E617" t="n">
+        <v>61</v>
+      </c>
+      <c r="F617" t="n">
+        <v>12</v>
+      </c>
+      <c r="G617" t="n">
+        <v>1.593625498</v>
+      </c>
+      <c r="H617" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="n">
+        <v>44031</v>
+      </c>
+      <c r="B618" t="s">
+        <v>13</v>
+      </c>
+      <c r="C618" t="n">
+        <v>5013</v>
+      </c>
+      <c r="D618" t="n">
+        <v>17.773444425</v>
+      </c>
+      <c r="E618" t="n">
+        <v>44</v>
+      </c>
+      <c r="F618" t="n">
+        <v>29</v>
+      </c>
+      <c r="G618" t="n">
+        <v>3.8512616202</v>
+      </c>
+      <c r="H618" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="n">
+        <v>44031</v>
+      </c>
+      <c r="B619" t="s">
+        <v>14</v>
+      </c>
+      <c r="C619" t="n">
+        <v>4626</v>
+      </c>
+      <c r="D619" t="n">
+        <v>16.401347279</v>
+      </c>
+      <c r="E619" t="n">
+        <v>20</v>
+      </c>
+      <c r="F619" t="n">
+        <v>80</v>
+      </c>
+      <c r="G619" t="n">
+        <v>10.624169987</v>
+      </c>
+      <c r="H619" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="n">
+        <v>44031</v>
+      </c>
+      <c r="B620" t="s">
+        <v>15</v>
+      </c>
+      <c r="C620" t="n">
+        <v>1844</v>
+      </c>
+      <c r="D620" t="n">
+        <v>6.5378478993</v>
+      </c>
+      <c r="E620" t="n">
+        <v>9</v>
+      </c>
+      <c r="F620" t="n">
+        <v>77</v>
+      </c>
+      <c r="G620" t="n">
+        <v>10.225763612</v>
+      </c>
+      <c r="H620" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="n">
+        <v>44031</v>
+      </c>
+      <c r="B621" t="s">
+        <v>16</v>
+      </c>
+      <c r="C621" t="n">
+        <v>1356</v>
+      </c>
+      <c r="D621" t="n">
+        <v>4.8076582166</v>
+      </c>
+      <c r="E621" t="n">
+        <v>6</v>
+      </c>
+      <c r="F621" t="n">
+        <v>87</v>
+      </c>
+      <c r="G621" t="n">
+        <v>11.553784861</v>
+      </c>
+      <c r="H621" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="n">
+        <v>44031</v>
+      </c>
+      <c r="B622" t="s">
+        <v>17</v>
+      </c>
+      <c r="C622" t="n">
+        <v>852</v>
+      </c>
+      <c r="D622" t="n">
+        <v>3.0207410034</v>
+      </c>
+      <c r="E622" t="n">
+        <v>7</v>
+      </c>
+      <c r="F622" t="n">
+        <v>82</v>
+      </c>
+      <c r="G622" t="n">
+        <v>10.889774236</v>
+      </c>
+      <c r="H622" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="n">
+        <v>44031</v>
+      </c>
+      <c r="B623" t="s">
+        <v>18</v>
+      </c>
+      <c r="C623" t="n">
+        <v>637</v>
+      </c>
+      <c r="D623" t="n">
+        <v>2.2584648112</v>
+      </c>
+      <c r="E623" t="n">
+        <v>2</v>
+      </c>
+      <c r="F623" t="n">
+        <v>88</v>
+      </c>
+      <c r="G623" t="n">
+        <v>11.686586985</v>
+      </c>
+      <c r="H623" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="n">
+        <v>44031</v>
+      </c>
+      <c r="B624" t="s">
+        <v>19</v>
+      </c>
+      <c r="C624" t="n">
+        <v>1163</v>
+      </c>
+      <c r="D624" t="n">
+        <v>4.123382379</v>
+      </c>
+      <c r="E624" t="n">
+        <v>9</v>
+      </c>
+      <c r="F624" t="n">
+        <v>293</v>
+      </c>
+      <c r="G624" t="n">
+        <v>38.911022576</v>
+      </c>
+      <c r="H624" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="n">
+        <v>44031</v>
+      </c>
+      <c r="B625" t="s">
+        <v>20</v>
+      </c>
+      <c r="C625" t="n">
+        <v>19</v>
+      </c>
+      <c r="D625" t="n">
+        <v>0.0673639426</v>
+      </c>
+      <c r="E625" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F625" t="n">
+        <v>0</v>
+      </c>
+      <c r="G625" t="n">
+        <v>0</v>
+      </c>
+      <c r="H625" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -20053,6 +20391,84 @@
         <v>0</v>
       </c>
     </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>44031</v>
+      </c>
+      <c r="B143" t="s">
+        <v>21</v>
+      </c>
+      <c r="C143" t="n">
+        <v>13244</v>
+      </c>
+      <c r="D143" t="n">
+        <v>46.956213437</v>
+      </c>
+      <c r="E143" t="n">
+        <v>91</v>
+      </c>
+      <c r="F143" t="n">
+        <v>312</v>
+      </c>
+      <c r="G143" t="n">
+        <v>41.434262948</v>
+      </c>
+      <c r="H143" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>44031</v>
+      </c>
+      <c r="B144" t="s">
+        <v>22</v>
+      </c>
+      <c r="C144" t="n">
+        <v>14586</v>
+      </c>
+      <c r="D144" t="n">
+        <v>51.714235065</v>
+      </c>
+      <c r="E144" t="n">
+        <v>127</v>
+      </c>
+      <c r="F144" t="n">
+        <v>440</v>
+      </c>
+      <c r="G144" t="n">
+        <v>58.432934927</v>
+      </c>
+      <c r="H144" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>44031</v>
+      </c>
+      <c r="B145" t="s">
+        <v>20</v>
+      </c>
+      <c r="C145" t="n">
+        <v>375</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1.329551498</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.1328021248</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -27269,6 +27685,162 @@
         <v>5</v>
       </c>
     </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>44031</v>
+      </c>
+      <c r="B278" t="s">
+        <v>23</v>
+      </c>
+      <c r="C278" t="n">
+        <v>661</v>
+      </c>
+      <c r="D278" t="n">
+        <v>2.3435561071</v>
+      </c>
+      <c r="E278" t="n">
+        <v>2</v>
+      </c>
+      <c r="F278" t="n">
+        <v>16</v>
+      </c>
+      <c r="G278" t="n">
+        <v>2.1248339973</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>44031</v>
+      </c>
+      <c r="B279" t="s">
+        <v>24</v>
+      </c>
+      <c r="C279" t="n">
+        <v>3249</v>
+      </c>
+      <c r="D279" t="n">
+        <v>11.519234178</v>
+      </c>
+      <c r="E279" t="n">
+        <v>27</v>
+      </c>
+      <c r="F279" t="n">
+        <v>95</v>
+      </c>
+      <c r="G279" t="n">
+        <v>12.616201859</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>44031</v>
+      </c>
+      <c r="B280" t="s">
+        <v>25</v>
+      </c>
+      <c r="C280" t="n">
+        <v>11458</v>
+      </c>
+      <c r="D280" t="n">
+        <v>40.624002836</v>
+      </c>
+      <c r="E280" t="n">
+        <v>111</v>
+      </c>
+      <c r="F280" t="n">
+        <v>221</v>
+      </c>
+      <c r="G280" t="n">
+        <v>29.349269588</v>
+      </c>
+      <c r="H280" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>44031</v>
+      </c>
+      <c r="B281" t="s">
+        <v>26</v>
+      </c>
+      <c r="C281" t="n">
+        <v>147</v>
+      </c>
+      <c r="D281" t="n">
+        <v>0.5211841872</v>
+      </c>
+      <c r="E281" t="n">
+        <v>7</v>
+      </c>
+      <c r="F281" t="n">
+        <v>2</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.2656042497</v>
+      </c>
+      <c r="H281" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>44031</v>
+      </c>
+      <c r="B282" t="s">
+        <v>20</v>
+      </c>
+      <c r="C282" t="n">
+        <v>5692</v>
+      </c>
+      <c r="D282" t="n">
+        <v>20.180819004</v>
+      </c>
+      <c r="E282" t="n">
+        <v>27</v>
+      </c>
+      <c r="F282" t="n">
+        <v>94</v>
+      </c>
+      <c r="G282" t="n">
+        <v>12.483399734</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>44031</v>
+      </c>
+      <c r="B283" t="s">
+        <v>27</v>
+      </c>
+      <c r="C283" t="n">
+        <v>6998</v>
+      </c>
+      <c r="D283" t="n">
+        <v>24.811203687</v>
+      </c>
+      <c r="E283" t="n">
+        <v>44</v>
+      </c>
+      <c r="F283" t="n">
+        <v>325</v>
+      </c>
+      <c r="G283" t="n">
+        <v>43.160690571</v>
+      </c>
+      <c r="H283" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -16685,6 +16685,344 @@
         <v>0</v>
       </c>
     </row>
+    <row r="626">
+      <c r="A626" s="1" t="n">
+        <v>44032</v>
+      </c>
+      <c r="B626" t="s">
+        <v>8</v>
+      </c>
+      <c r="C626" t="n">
+        <v>125</v>
+      </c>
+      <c r="D626" t="n">
+        <v>0.00442634560906516</v>
+      </c>
+      <c r="E626" t="n">
+        <v>0</v>
+      </c>
+      <c r="F626" t="n">
+        <v>0</v>
+      </c>
+      <c r="G626" t="n">
+        <v>0</v>
+      </c>
+      <c r="H626" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="n">
+        <v>44032</v>
+      </c>
+      <c r="B627" t="s">
+        <v>9</v>
+      </c>
+      <c r="C627" t="n">
+        <v>537</v>
+      </c>
+      <c r="D627" t="n">
+        <v>0.0190155807365439</v>
+      </c>
+      <c r="E627" t="n">
+        <v>0</v>
+      </c>
+      <c r="F627" t="n">
+        <v>0</v>
+      </c>
+      <c r="G627" t="n">
+        <v>0</v>
+      </c>
+      <c r="H627" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="n">
+        <v>44032</v>
+      </c>
+      <c r="B628" t="s">
+        <v>10</v>
+      </c>
+      <c r="C628" t="n">
+        <v>1409</v>
+      </c>
+      <c r="D628" t="n">
+        <v>0.0498937677053824</v>
+      </c>
+      <c r="E628" t="n">
+        <v>0</v>
+      </c>
+      <c r="F628" t="n">
+        <v>0</v>
+      </c>
+      <c r="G628" t="n">
+        <v>0</v>
+      </c>
+      <c r="H628" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="n">
+        <v>44032</v>
+      </c>
+      <c r="B629" t="s">
+        <v>11</v>
+      </c>
+      <c r="C629" t="n">
+        <v>5332</v>
+      </c>
+      <c r="D629" t="n">
+        <v>0.188810198300283</v>
+      </c>
+      <c r="E629" t="n">
+        <v>9</v>
+      </c>
+      <c r="F629" t="n">
+        <v>5</v>
+      </c>
+      <c r="G629" t="n">
+        <v>0.00664010624169987</v>
+      </c>
+      <c r="H629" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="n">
+        <v>44032</v>
+      </c>
+      <c r="B630" t="s">
+        <v>12</v>
+      </c>
+      <c r="C630" t="n">
+        <v>5309</v>
+      </c>
+      <c r="D630" t="n">
+        <v>0.187995750708215</v>
+      </c>
+      <c r="E630" t="n">
+        <v>8</v>
+      </c>
+      <c r="F630" t="n">
+        <v>12</v>
+      </c>
+      <c r="G630" t="n">
+        <v>0.0159362549800797</v>
+      </c>
+      <c r="H630" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="n">
+        <v>44032</v>
+      </c>
+      <c r="B631" t="s">
+        <v>13</v>
+      </c>
+      <c r="C631" t="n">
+        <v>5021</v>
+      </c>
+      <c r="D631" t="n">
+        <v>0.177797450424929</v>
+      </c>
+      <c r="E631" t="n">
+        <v>8</v>
+      </c>
+      <c r="F631" t="n">
+        <v>29</v>
+      </c>
+      <c r="G631" t="n">
+        <v>0.0385126162018592</v>
+      </c>
+      <c r="H631" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="n">
+        <v>44032</v>
+      </c>
+      <c r="B632" t="s">
+        <v>14</v>
+      </c>
+      <c r="C632" t="n">
+        <v>4632</v>
+      </c>
+      <c r="D632" t="n">
+        <v>0.164022662889518</v>
+      </c>
+      <c r="E632" t="n">
+        <v>6</v>
+      </c>
+      <c r="F632" t="n">
+        <v>80</v>
+      </c>
+      <c r="G632" t="n">
+        <v>0.106241699867198</v>
+      </c>
+      <c r="H632" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="n">
+        <v>44032</v>
+      </c>
+      <c r="B633" t="s">
+        <v>15</v>
+      </c>
+      <c r="C633" t="n">
+        <v>1848</v>
+      </c>
+      <c r="D633" t="n">
+        <v>0.0654390934844193</v>
+      </c>
+      <c r="E633" t="n">
+        <v>4</v>
+      </c>
+      <c r="F633" t="n">
+        <v>77</v>
+      </c>
+      <c r="G633" t="n">
+        <v>0.102257636122178</v>
+      </c>
+      <c r="H633" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="n">
+        <v>44032</v>
+      </c>
+      <c r="B634" t="s">
+        <v>16</v>
+      </c>
+      <c r="C634" t="n">
+        <v>1356</v>
+      </c>
+      <c r="D634" t="n">
+        <v>0.0480169971671388</v>
+      </c>
+      <c r="E634" t="n">
+        <v>0</v>
+      </c>
+      <c r="F634" t="n">
+        <v>87</v>
+      </c>
+      <c r="G634" t="n">
+        <v>0.115537848605578</v>
+      </c>
+      <c r="H634" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="n">
+        <v>44032</v>
+      </c>
+      <c r="B635" t="s">
+        <v>17</v>
+      </c>
+      <c r="C635" t="n">
+        <v>852</v>
+      </c>
+      <c r="D635" t="n">
+        <v>0.0301699716713881</v>
+      </c>
+      <c r="E635" t="n">
+        <v>0</v>
+      </c>
+      <c r="F635" t="n">
+        <v>82</v>
+      </c>
+      <c r="G635" t="n">
+        <v>0.108897742363878</v>
+      </c>
+      <c r="H635" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="n">
+        <v>44032</v>
+      </c>
+      <c r="B636" t="s">
+        <v>18</v>
+      </c>
+      <c r="C636" t="n">
+        <v>637</v>
+      </c>
+      <c r="D636" t="n">
+        <v>0.022556657223796</v>
+      </c>
+      <c r="E636" t="n">
+        <v>0</v>
+      </c>
+      <c r="F636" t="n">
+        <v>88</v>
+      </c>
+      <c r="G636" t="n">
+        <v>0.116865869853918</v>
+      </c>
+      <c r="H636" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="n">
+        <v>44032</v>
+      </c>
+      <c r="B637" t="s">
+        <v>19</v>
+      </c>
+      <c r="C637" t="n">
+        <v>1163</v>
+      </c>
+      <c r="D637" t="n">
+        <v>0.0411827195467422</v>
+      </c>
+      <c r="E637" t="n">
+        <v>0</v>
+      </c>
+      <c r="F637" t="n">
+        <v>293</v>
+      </c>
+      <c r="G637" t="n">
+        <v>0.389110225763612</v>
+      </c>
+      <c r="H637" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="n">
+        <v>44032</v>
+      </c>
+      <c r="B638" t="s">
+        <v>20</v>
+      </c>
+      <c r="C638" t="n">
+        <v>19</v>
+      </c>
+      <c r="D638" t="n">
+        <v>0.000672804532577904</v>
+      </c>
+      <c r="E638" t="n">
+        <v>0</v>
+      </c>
+      <c r="F638" t="n">
+        <v>0</v>
+      </c>
+      <c r="G638" t="n">
+        <v>0</v>
+      </c>
+      <c r="H638" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -20469,6 +20807,84 @@
         <v>0</v>
       </c>
     </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>44032</v>
+      </c>
+      <c r="B146" t="s">
+        <v>21</v>
+      </c>
+      <c r="C146" t="n">
+        <v>13257</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.469440509915014</v>
+      </c>
+      <c r="E146" t="n">
+        <v>13</v>
+      </c>
+      <c r="F146" t="n">
+        <v>312</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.414342629482072</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>44032</v>
+      </c>
+      <c r="B147" t="s">
+        <v>22</v>
+      </c>
+      <c r="C147" t="n">
+        <v>14607</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.517245042492918</v>
+      </c>
+      <c r="E147" t="n">
+        <v>21</v>
+      </c>
+      <c r="F147" t="n">
+        <v>440</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.584329349269588</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>44032</v>
+      </c>
+      <c r="B148" t="s">
+        <v>20</v>
+      </c>
+      <c r="C148" t="n">
+        <v>376</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.013314447592068</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.00132802124833997</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -27841,6 +28257,162 @@
         <v>1</v>
       </c>
     </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>44032</v>
+      </c>
+      <c r="B284" t="s">
+        <v>23</v>
+      </c>
+      <c r="C284" t="n">
+        <v>662</v>
+      </c>
+      <c r="D284" t="n">
+        <v>0.0234419263456091</v>
+      </c>
+      <c r="E284" t="n">
+        <v>1</v>
+      </c>
+      <c r="F284" t="n">
+        <v>16</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.0212483399734396</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>44032</v>
+      </c>
+      <c r="B285" t="s">
+        <v>24</v>
+      </c>
+      <c r="C285" t="n">
+        <v>3254</v>
+      </c>
+      <c r="D285" t="n">
+        <v>0.115226628895184</v>
+      </c>
+      <c r="E285" t="n">
+        <v>5</v>
+      </c>
+      <c r="F285" t="n">
+        <v>95</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.126162018592297</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>44032</v>
+      </c>
+      <c r="B286" t="s">
+        <v>25</v>
+      </c>
+      <c r="C286" t="n">
+        <v>11471</v>
+      </c>
+      <c r="D286" t="n">
+        <v>0.406196883852691</v>
+      </c>
+      <c r="E286" t="n">
+        <v>13</v>
+      </c>
+      <c r="F286" t="n">
+        <v>221</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.293492695883134</v>
+      </c>
+      <c r="H286" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>44032</v>
+      </c>
+      <c r="B287" t="s">
+        <v>26</v>
+      </c>
+      <c r="C287" t="n">
+        <v>63</v>
+      </c>
+      <c r="D287" t="n">
+        <v>0.00223087818696884</v>
+      </c>
+      <c r="E287" t="n">
+        <v>-84</v>
+      </c>
+      <c r="F287" t="n">
+        <v>1</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.00132802124833997</v>
+      </c>
+      <c r="H287" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>44032</v>
+      </c>
+      <c r="B288" t="s">
+        <v>20</v>
+      </c>
+      <c r="C288" t="n">
+        <v>5779</v>
+      </c>
+      <c r="D288" t="n">
+        <v>0.2046388101983</v>
+      </c>
+      <c r="E288" t="n">
+        <v>87</v>
+      </c>
+      <c r="F288" t="n">
+        <v>94</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.124833997343958</v>
+      </c>
+      <c r="H288" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>44032</v>
+      </c>
+      <c r="B289" t="s">
+        <v>27</v>
+      </c>
+      <c r="C289" t="n">
+        <v>7011</v>
+      </c>
+      <c r="D289" t="n">
+        <v>0.248264872521246</v>
+      </c>
+      <c r="E289" t="n">
+        <v>13</v>
+      </c>
+      <c r="F289" t="n">
+        <v>326</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.432934926958831</v>
+      </c>
+      <c r="H289" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -17023,6 +17023,344 @@
         <v>0</v>
       </c>
     </row>
+    <row r="639">
+      <c r="A639" s="1" t="n">
+        <v>44033</v>
+      </c>
+      <c r="B639" t="s">
+        <v>8</v>
+      </c>
+      <c r="C639" t="n">
+        <v>127</v>
+      </c>
+      <c r="D639" t="n">
+        <v>0.00443962805005943</v>
+      </c>
+      <c r="E639" t="n">
+        <v>2</v>
+      </c>
+      <c r="F639" t="n">
+        <v>0</v>
+      </c>
+      <c r="G639" t="n">
+        <v>0</v>
+      </c>
+      <c r="H639" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="n">
+        <v>44033</v>
+      </c>
+      <c r="B640" t="s">
+        <v>9</v>
+      </c>
+      <c r="C640" t="n">
+        <v>546</v>
+      </c>
+      <c r="D640" t="n">
+        <v>0.0190869048451374</v>
+      </c>
+      <c r="E640" t="n">
+        <v>9</v>
+      </c>
+      <c r="F640" t="n">
+        <v>0</v>
+      </c>
+      <c r="G640" t="n">
+        <v>0</v>
+      </c>
+      <c r="H640" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="n">
+        <v>44033</v>
+      </c>
+      <c r="B641" t="s">
+        <v>10</v>
+      </c>
+      <c r="C641" t="n">
+        <v>1424</v>
+      </c>
+      <c r="D641" t="n">
+        <v>0.0497797664825561</v>
+      </c>
+      <c r="E641" t="n">
+        <v>15</v>
+      </c>
+      <c r="F641" t="n">
+        <v>0</v>
+      </c>
+      <c r="G641" t="n">
+        <v>0</v>
+      </c>
+      <c r="H641" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="n">
+        <v>44033</v>
+      </c>
+      <c r="B642" t="s">
+        <v>11</v>
+      </c>
+      <c r="C642" t="n">
+        <v>5422</v>
+      </c>
+      <c r="D642" t="n">
+        <v>0.189540655806474</v>
+      </c>
+      <c r="E642" t="n">
+        <v>90</v>
+      </c>
+      <c r="F642" t="n">
+        <v>7</v>
+      </c>
+      <c r="G642" t="n">
+        <v>0.00923482849604222</v>
+      </c>
+      <c r="H642" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="n">
+        <v>44033</v>
+      </c>
+      <c r="B643" t="s">
+        <v>12</v>
+      </c>
+      <c r="C643" t="n">
+        <v>5375</v>
+      </c>
+      <c r="D643" t="n">
+        <v>0.18789764385094</v>
+      </c>
+      <c r="E643" t="n">
+        <v>66</v>
+      </c>
+      <c r="F643" t="n">
+        <v>12</v>
+      </c>
+      <c r="G643" t="n">
+        <v>0.0158311345646438</v>
+      </c>
+      <c r="H643" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="n">
+        <v>44033</v>
+      </c>
+      <c r="B644" t="s">
+        <v>13</v>
+      </c>
+      <c r="C644" t="n">
+        <v>5080</v>
+      </c>
+      <c r="D644" t="n">
+        <v>0.177585122002377</v>
+      </c>
+      <c r="E644" t="n">
+        <v>59</v>
+      </c>
+      <c r="F644" t="n">
+        <v>30</v>
+      </c>
+      <c r="G644" t="n">
+        <v>0.0395778364116095</v>
+      </c>
+      <c r="H644" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="n">
+        <v>44033</v>
+      </c>
+      <c r="B645" t="s">
+        <v>14</v>
+      </c>
+      <c r="C645" t="n">
+        <v>4698</v>
+      </c>
+      <c r="D645" t="n">
+        <v>0.164231280151017</v>
+      </c>
+      <c r="E645" t="n">
+        <v>66</v>
+      </c>
+      <c r="F645" t="n">
+        <v>80</v>
+      </c>
+      <c r="G645" t="n">
+        <v>0.105540897097625</v>
+      </c>
+      <c r="H645" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="n">
+        <v>44033</v>
+      </c>
+      <c r="B646" t="s">
+        <v>15</v>
+      </c>
+      <c r="C646" t="n">
+        <v>1868</v>
+      </c>
+      <c r="D646" t="n">
+        <v>0.0653009858071733</v>
+      </c>
+      <c r="E646" t="n">
+        <v>20</v>
+      </c>
+      <c r="F646" t="n">
+        <v>78</v>
+      </c>
+      <c r="G646" t="n">
+        <v>0.102902374670185</v>
+      </c>
+      <c r="H646" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="n">
+        <v>44033</v>
+      </c>
+      <c r="B647" t="s">
+        <v>16</v>
+      </c>
+      <c r="C647" t="n">
+        <v>1376</v>
+      </c>
+      <c r="D647" t="n">
+        <v>0.0481017968258407</v>
+      </c>
+      <c r="E647" t="n">
+        <v>20</v>
+      </c>
+      <c r="F647" t="n">
+        <v>88</v>
+      </c>
+      <c r="G647" t="n">
+        <v>0.116094986807388</v>
+      </c>
+      <c r="H647" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="n">
+        <v>44033</v>
+      </c>
+      <c r="B648" t="s">
+        <v>17</v>
+      </c>
+      <c r="C648" t="n">
+        <v>865</v>
+      </c>
+      <c r="D648" t="n">
+        <v>0.0302384115220583</v>
+      </c>
+      <c r="E648" t="n">
+        <v>13</v>
+      </c>
+      <c r="F648" t="n">
+        <v>82</v>
+      </c>
+      <c r="G648" t="n">
+        <v>0.108179419525066</v>
+      </c>
+      <c r="H648" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="n">
+        <v>44033</v>
+      </c>
+      <c r="B649" t="s">
+        <v>18</v>
+      </c>
+      <c r="C649" t="n">
+        <v>639</v>
+      </c>
+      <c r="D649" t="n">
+        <v>0.0223379710550234</v>
+      </c>
+      <c r="E649" t="n">
+        <v>2</v>
+      </c>
+      <c r="F649" t="n">
+        <v>88</v>
+      </c>
+      <c r="G649" t="n">
+        <v>0.116094986807388</v>
+      </c>
+      <c r="H649" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="n">
+        <v>44033</v>
+      </c>
+      <c r="B650" t="s">
+        <v>19</v>
+      </c>
+      <c r="C650" t="n">
+        <v>1166</v>
+      </c>
+      <c r="D650" t="n">
+        <v>0.040760679577711</v>
+      </c>
+      <c r="E650" t="n">
+        <v>3</v>
+      </c>
+      <c r="F650" t="n">
+        <v>293</v>
+      </c>
+      <c r="G650" t="n">
+        <v>0.386543535620053</v>
+      </c>
+      <c r="H650" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="n">
+        <v>44033</v>
+      </c>
+      <c r="B651" t="s">
+        <v>20</v>
+      </c>
+      <c r="C651" t="n">
+        <v>20</v>
+      </c>
+      <c r="D651" t="n">
+        <v>0.000699154023631406</v>
+      </c>
+      <c r="E651" t="n">
+        <v>1</v>
+      </c>
+      <c r="F651" t="n">
+        <v>0</v>
+      </c>
+      <c r="G651" t="n">
+        <v>0</v>
+      </c>
+      <c r="H651" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -20885,6 +21223,84 @@
         <v>0</v>
       </c>
     </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>44033</v>
+      </c>
+      <c r="B149" t="s">
+        <v>21</v>
+      </c>
+      <c r="C149" t="n">
+        <v>13347</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.466580437670419</v>
+      </c>
+      <c r="E149" t="n">
+        <v>90</v>
+      </c>
+      <c r="F149" t="n">
+        <v>313</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.412928759894459</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>44033</v>
+      </c>
+      <c r="B150" t="s">
+        <v>22</v>
+      </c>
+      <c r="C150" t="n">
+        <v>14882</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.520240508984129</v>
+      </c>
+      <c r="E150" t="n">
+        <v>275</v>
+      </c>
+      <c r="F150" t="n">
+        <v>444</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.585751978891821</v>
+      </c>
+      <c r="H150" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>44033</v>
+      </c>
+      <c r="B151" t="s">
+        <v>20</v>
+      </c>
+      <c r="C151" t="n">
+        <v>377</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.013179053345452</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.00131926121372032</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -28413,6 +28829,162 @@
         <v>1</v>
       </c>
     </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>44033</v>
+      </c>
+      <c r="B290" t="s">
+        <v>23</v>
+      </c>
+      <c r="C290" t="n">
+        <v>663</v>
+      </c>
+      <c r="D290" t="n">
+        <v>0.0231769558833811</v>
+      </c>
+      <c r="E290" t="n">
+        <v>1</v>
+      </c>
+      <c r="F290" t="n">
+        <v>16</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.0211081794195251</v>
+      </c>
+      <c r="H290" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>44033</v>
+      </c>
+      <c r="B291" t="s">
+        <v>24</v>
+      </c>
+      <c r="C291" t="n">
+        <v>3321</v>
+      </c>
+      <c r="D291" t="n">
+        <v>0.116094525623995</v>
+      </c>
+      <c r="E291" t="n">
+        <v>67</v>
+      </c>
+      <c r="F291" t="n">
+        <v>95</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.12532981530343</v>
+      </c>
+      <c r="H291" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>44033</v>
+      </c>
+      <c r="B292" t="s">
+        <v>25</v>
+      </c>
+      <c r="C292" t="n">
+        <v>11622</v>
+      </c>
+      <c r="D292" t="n">
+        <v>0.40627840313221</v>
+      </c>
+      <c r="E292" t="n">
+        <v>151</v>
+      </c>
+      <c r="F292" t="n">
+        <v>223</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.294195250659631</v>
+      </c>
+      <c r="H292" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>44033</v>
+      </c>
+      <c r="B293" t="s">
+        <v>26</v>
+      </c>
+      <c r="C293" t="n">
+        <v>146</v>
+      </c>
+      <c r="D293" t="n">
+        <v>0.00510382437250926</v>
+      </c>
+      <c r="E293" t="n">
+        <v>83</v>
+      </c>
+      <c r="F293" t="n">
+        <v>1</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.00131926121372032</v>
+      </c>
+      <c r="H293" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>44033</v>
+      </c>
+      <c r="B294" t="s">
+        <v>20</v>
+      </c>
+      <c r="C294" t="n">
+        <v>5721</v>
+      </c>
+      <c r="D294" t="n">
+        <v>0.199993008459764</v>
+      </c>
+      <c r="E294" t="n">
+        <v>-58</v>
+      </c>
+      <c r="F294" t="n">
+        <v>96</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.12664907651715</v>
+      </c>
+      <c r="H294" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>44033</v>
+      </c>
+      <c r="B295" t="s">
+        <v>27</v>
+      </c>
+      <c r="C295" t="n">
+        <v>7133</v>
+      </c>
+      <c r="D295" t="n">
+        <v>0.249353282528141</v>
+      </c>
+      <c r="E295" t="n">
+        <v>122</v>
+      </c>
+      <c r="F295" t="n">
+        <v>327</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.431398416886544</v>
+      </c>
+      <c r="H295" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -17361,6 +17361,344 @@
         <v>0</v>
       </c>
     </row>
+    <row r="652">
+      <c r="A652" s="1" t="n">
+        <v>44034</v>
+      </c>
+      <c r="B652" t="s">
+        <v>8</v>
+      </c>
+      <c r="C652" t="n">
+        <v>130</v>
+      </c>
+      <c r="D652" t="n">
+        <v>0.00439367311072056</v>
+      </c>
+      <c r="E652" t="n">
+        <v>3</v>
+      </c>
+      <c r="F652" t="n">
+        <v>0</v>
+      </c>
+      <c r="G652" t="n">
+        <v>0</v>
+      </c>
+      <c r="H652" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="n">
+        <v>44034</v>
+      </c>
+      <c r="B653" t="s">
+        <v>9</v>
+      </c>
+      <c r="C653" t="n">
+        <v>563</v>
+      </c>
+      <c r="D653" t="n">
+        <v>0.0190279843179667</v>
+      </c>
+      <c r="E653" t="n">
+        <v>17</v>
+      </c>
+      <c r="F653" t="n">
+        <v>0</v>
+      </c>
+      <c r="G653" t="n">
+        <v>0</v>
+      </c>
+      <c r="H653" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="n">
+        <v>44034</v>
+      </c>
+      <c r="B654" t="s">
+        <v>10</v>
+      </c>
+      <c r="C654" t="n">
+        <v>1464</v>
+      </c>
+      <c r="D654" t="n">
+        <v>0.049479518723807</v>
+      </c>
+      <c r="E654" t="n">
+        <v>40</v>
+      </c>
+      <c r="F654" t="n">
+        <v>0</v>
+      </c>
+      <c r="G654" t="n">
+        <v>0</v>
+      </c>
+      <c r="H654" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="n">
+        <v>44034</v>
+      </c>
+      <c r="B655" t="s">
+        <v>11</v>
+      </c>
+      <c r="C655" t="n">
+        <v>5602</v>
+      </c>
+      <c r="D655" t="n">
+        <v>0.189333513586589</v>
+      </c>
+      <c r="E655" t="n">
+        <v>180</v>
+      </c>
+      <c r="F655" t="n">
+        <v>7</v>
+      </c>
+      <c r="G655" t="n">
+        <v>0.00916230366492147</v>
+      </c>
+      <c r="H655" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="n">
+        <v>44034</v>
+      </c>
+      <c r="B656" t="s">
+        <v>12</v>
+      </c>
+      <c r="C656" t="n">
+        <v>5594</v>
+      </c>
+      <c r="D656" t="n">
+        <v>0.189063133702853</v>
+      </c>
+      <c r="E656" t="n">
+        <v>219</v>
+      </c>
+      <c r="F656" t="n">
+        <v>12</v>
+      </c>
+      <c r="G656" t="n">
+        <v>0.0157068062827225</v>
+      </c>
+      <c r="H656" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="n">
+        <v>44034</v>
+      </c>
+      <c r="B657" t="s">
+        <v>13</v>
+      </c>
+      <c r="C657" t="n">
+        <v>5252</v>
+      </c>
+      <c r="D657" t="n">
+        <v>0.177504393673111</v>
+      </c>
+      <c r="E657" t="n">
+        <v>172</v>
+      </c>
+      <c r="F657" t="n">
+        <v>30</v>
+      </c>
+      <c r="G657" t="n">
+        <v>0.0392670157068063</v>
+      </c>
+      <c r="H657" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="n">
+        <v>44034</v>
+      </c>
+      <c r="B658" t="s">
+        <v>14</v>
+      </c>
+      <c r="C658" t="n">
+        <v>4878</v>
+      </c>
+      <c r="D658" t="n">
+        <v>0.164864134108422</v>
+      </c>
+      <c r="E658" t="n">
+        <v>180</v>
+      </c>
+      <c r="F658" t="n">
+        <v>81</v>
+      </c>
+      <c r="G658" t="n">
+        <v>0.106020942408377</v>
+      </c>
+      <c r="H658" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="1" t="n">
+        <v>44034</v>
+      </c>
+      <c r="B659" t="s">
+        <v>15</v>
+      </c>
+      <c r="C659" t="n">
+        <v>1945</v>
+      </c>
+      <c r="D659" t="n">
+        <v>0.065736109233473</v>
+      </c>
+      <c r="E659" t="n">
+        <v>77</v>
+      </c>
+      <c r="F659" t="n">
+        <v>78</v>
+      </c>
+      <c r="G659" t="n">
+        <v>0.102094240837696</v>
+      </c>
+      <c r="H659" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="n">
+        <v>44034</v>
+      </c>
+      <c r="B660" t="s">
+        <v>16</v>
+      </c>
+      <c r="C660" t="n">
+        <v>1419</v>
+      </c>
+      <c r="D660" t="n">
+        <v>0.0479586318777883</v>
+      </c>
+      <c r="E660" t="n">
+        <v>43</v>
+      </c>
+      <c r="F660" t="n">
+        <v>88</v>
+      </c>
+      <c r="G660" t="n">
+        <v>0.115183246073298</v>
+      </c>
+      <c r="H660" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="1" t="n">
+        <v>44034</v>
+      </c>
+      <c r="B661" t="s">
+        <v>17</v>
+      </c>
+      <c r="C661" t="n">
+        <v>893</v>
+      </c>
+      <c r="D661" t="n">
+        <v>0.0301811545221036</v>
+      </c>
+      <c r="E661" t="n">
+        <v>28</v>
+      </c>
+      <c r="F661" t="n">
+        <v>84</v>
+      </c>
+      <c r="G661" t="n">
+        <v>0.109947643979058</v>
+      </c>
+      <c r="H661" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="1" t="n">
+        <v>44034</v>
+      </c>
+      <c r="B662" t="s">
+        <v>18</v>
+      </c>
+      <c r="C662" t="n">
+        <v>653</v>
+      </c>
+      <c r="D662" t="n">
+        <v>0.0220697580100041</v>
+      </c>
+      <c r="E662" t="n">
+        <v>14</v>
+      </c>
+      <c r="F662" t="n">
+        <v>89</v>
+      </c>
+      <c r="G662" t="n">
+        <v>0.116492146596859</v>
+      </c>
+      <c r="H662" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="n">
+        <v>44034</v>
+      </c>
+      <c r="B663" t="s">
+        <v>19</v>
+      </c>
+      <c r="C663" t="n">
+        <v>1175</v>
+      </c>
+      <c r="D663" t="n">
+        <v>0.0397120454238205</v>
+      </c>
+      <c r="E663" t="n">
+        <v>9</v>
+      </c>
+      <c r="F663" t="n">
+        <v>295</v>
+      </c>
+      <c r="G663" t="n">
+        <v>0.386125654450262</v>
+      </c>
+      <c r="H663" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="n">
+        <v>44034</v>
+      </c>
+      <c r="B664" t="s">
+        <v>20</v>
+      </c>
+      <c r="C664" t="n">
+        <v>20</v>
+      </c>
+      <c r="D664" t="n">
+        <v>0.000675949709341625</v>
+      </c>
+      <c r="E664" t="n">
+        <v>0</v>
+      </c>
+      <c r="F664" t="n">
+        <v>0</v>
+      </c>
+      <c r="G664" t="n">
+        <v>0</v>
+      </c>
+      <c r="H664" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -21301,6 +21639,84 @@
         <v>0</v>
       </c>
     </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>44034</v>
+      </c>
+      <c r="B152" t="s">
+        <v>21</v>
+      </c>
+      <c r="C152" t="n">
+        <v>13566</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.458496687846424</v>
+      </c>
+      <c r="E152" t="n">
+        <v>219</v>
+      </c>
+      <c r="F152" t="n">
+        <v>315</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.412303664921466</v>
+      </c>
+      <c r="H152" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>44034</v>
+      </c>
+      <c r="B153" t="s">
+        <v>22</v>
+      </c>
+      <c r="C153" t="n">
+        <v>15634</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.528389887792348</v>
+      </c>
+      <c r="E153" t="n">
+        <v>752</v>
+      </c>
+      <c r="F153" t="n">
+        <v>448</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.586387434554974</v>
+      </c>
+      <c r="H153" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>44034</v>
+      </c>
+      <c r="B154" t="s">
+        <v>20</v>
+      </c>
+      <c r="C154" t="n">
+        <v>388</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.0131134243612275</v>
+      </c>
+      <c r="E154" t="n">
+        <v>11</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.00130890052356021</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -28985,6 +29401,162 @@
         <v>1</v>
       </c>
     </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>44034</v>
+      </c>
+      <c r="B296" t="s">
+        <v>23</v>
+      </c>
+      <c r="C296" t="n">
+        <v>671</v>
+      </c>
+      <c r="D296" t="n">
+        <v>0.0226781127484115</v>
+      </c>
+      <c r="E296" t="n">
+        <v>8</v>
+      </c>
+      <c r="F296" t="n">
+        <v>15</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.0196335078534031</v>
+      </c>
+      <c r="H296" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>44034</v>
+      </c>
+      <c r="B297" t="s">
+        <v>24</v>
+      </c>
+      <c r="C297" t="n">
+        <v>3491</v>
+      </c>
+      <c r="D297" t="n">
+        <v>0.117987021765581</v>
+      </c>
+      <c r="E297" t="n">
+        <v>170</v>
+      </c>
+      <c r="F297" t="n">
+        <v>95</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.12434554973822</v>
+      </c>
+      <c r="H297" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>44034</v>
+      </c>
+      <c r="B298" t="s">
+        <v>25</v>
+      </c>
+      <c r="C298" t="n">
+        <v>11999</v>
+      </c>
+      <c r="D298" t="n">
+        <v>0.405536028119508</v>
+      </c>
+      <c r="E298" t="n">
+        <v>377</v>
+      </c>
+      <c r="F298" t="n">
+        <v>229</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.299738219895288</v>
+      </c>
+      <c r="H298" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>44034</v>
+      </c>
+      <c r="B299" t="s">
+        <v>26</v>
+      </c>
+      <c r="C299" t="n">
+        <v>148</v>
+      </c>
+      <c r="D299" t="n">
+        <v>0.00500202784912802</v>
+      </c>
+      <c r="E299" t="n">
+        <v>2</v>
+      </c>
+      <c r="F299" t="n">
+        <v>1</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.00130890052356021</v>
+      </c>
+      <c r="H299" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>44034</v>
+      </c>
+      <c r="B300" t="s">
+        <v>20</v>
+      </c>
+      <c r="C300" t="n">
+        <v>5851</v>
+      </c>
+      <c r="D300" t="n">
+        <v>0.197749087467892</v>
+      </c>
+      <c r="E300" t="n">
+        <v>130</v>
+      </c>
+      <c r="F300" t="n">
+        <v>95</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.12434554973822</v>
+      </c>
+      <c r="H300" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>44034</v>
+      </c>
+      <c r="B301" t="s">
+        <v>27</v>
+      </c>
+      <c r="C301" t="n">
+        <v>7428</v>
+      </c>
+      <c r="D301" t="n">
+        <v>0.25104772204948</v>
+      </c>
+      <c r="E301" t="n">
+        <v>295</v>
+      </c>
+      <c r="F301" t="n">
+        <v>329</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.430628272251309</v>
+      </c>
+      <c r="H301" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -17699,6 +17699,344 @@
         <v>0</v>
       </c>
     </row>
+    <row r="665">
+      <c r="A665" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="B665" t="s">
+        <v>8</v>
+      </c>
+      <c r="C665" t="n">
+        <v>131</v>
+      </c>
+      <c r="D665" t="n">
+        <v>0.00431730547407969</v>
+      </c>
+      <c r="E665" t="n">
+        <v>1</v>
+      </c>
+      <c r="F665" t="n">
+        <v>0</v>
+      </c>
+      <c r="G665" t="n">
+        <v>0</v>
+      </c>
+      <c r="H665" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="B666" t="s">
+        <v>9</v>
+      </c>
+      <c r="C666" t="n">
+        <v>570</v>
+      </c>
+      <c r="D666" t="n">
+        <v>0.0187852222917971</v>
+      </c>
+      <c r="E666" t="n">
+        <v>7</v>
+      </c>
+      <c r="F666" t="n">
+        <v>0</v>
+      </c>
+      <c r="G666" t="n">
+        <v>0</v>
+      </c>
+      <c r="H666" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="B667" t="s">
+        <v>10</v>
+      </c>
+      <c r="C667" t="n">
+        <v>1483</v>
+      </c>
+      <c r="D667" t="n">
+        <v>0.048874534489009</v>
+      </c>
+      <c r="E667" t="n">
+        <v>19</v>
+      </c>
+      <c r="F667" t="n">
+        <v>0</v>
+      </c>
+      <c r="G667" t="n">
+        <v>0</v>
+      </c>
+      <c r="H667" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="B668" t="s">
+        <v>11</v>
+      </c>
+      <c r="C668" t="n">
+        <v>5752</v>
+      </c>
+      <c r="D668" t="n">
+        <v>0.189565962495468</v>
+      </c>
+      <c r="E668" t="n">
+        <v>150</v>
+      </c>
+      <c r="F668" t="n">
+        <v>7</v>
+      </c>
+      <c r="G668" t="n">
+        <v>0.00904392764857881</v>
+      </c>
+      <c r="H668" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="B669" t="s">
+        <v>12</v>
+      </c>
+      <c r="C669" t="n">
+        <v>5747</v>
+      </c>
+      <c r="D669" t="n">
+        <v>0.189401179843786</v>
+      </c>
+      <c r="E669" t="n">
+        <v>153</v>
+      </c>
+      <c r="F669" t="n">
+        <v>12</v>
+      </c>
+      <c r="G669" t="n">
+        <v>0.0155038759689922</v>
+      </c>
+      <c r="H669" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="B670" t="s">
+        <v>13</v>
+      </c>
+      <c r="C670" t="n">
+        <v>5420</v>
+      </c>
+      <c r="D670" t="n">
+        <v>0.178624394423755</v>
+      </c>
+      <c r="E670" t="n">
+        <v>168</v>
+      </c>
+      <c r="F670" t="n">
+        <v>33</v>
+      </c>
+      <c r="G670" t="n">
+        <v>0.0426356589147287</v>
+      </c>
+      <c r="H670" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="B671" t="s">
+        <v>14</v>
+      </c>
+      <c r="C671" t="n">
+        <v>5016</v>
+      </c>
+      <c r="D671" t="n">
+        <v>0.165309956167815</v>
+      </c>
+      <c r="E671" t="n">
+        <v>138</v>
+      </c>
+      <c r="F671" t="n">
+        <v>81</v>
+      </c>
+      <c r="G671" t="n">
+        <v>0.104651162790698</v>
+      </c>
+      <c r="H671" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="B672" t="s">
+        <v>15</v>
+      </c>
+      <c r="C672" t="n">
+        <v>1996</v>
+      </c>
+      <c r="D672" t="n">
+        <v>0.0657812345516264</v>
+      </c>
+      <c r="E672" t="n">
+        <v>51</v>
+      </c>
+      <c r="F672" t="n">
+        <v>80</v>
+      </c>
+      <c r="G672" t="n">
+        <v>0.103359173126615</v>
+      </c>
+      <c r="H672" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="B673" t="s">
+        <v>16</v>
+      </c>
+      <c r="C673" t="n">
+        <v>1449</v>
+      </c>
+      <c r="D673" t="n">
+        <v>0.0477540124575685</v>
+      </c>
+      <c r="E673" t="n">
+        <v>30</v>
+      </c>
+      <c r="F673" t="n">
+        <v>88</v>
+      </c>
+      <c r="G673" t="n">
+        <v>0.113695090439276</v>
+      </c>
+      <c r="H673" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="B674" t="s">
+        <v>17</v>
+      </c>
+      <c r="C674" t="n">
+        <v>914</v>
+      </c>
+      <c r="D674" t="n">
+        <v>0.0301222687275484</v>
+      </c>
+      <c r="E674" t="n">
+        <v>21</v>
+      </c>
+      <c r="F674" t="n">
+        <v>84</v>
+      </c>
+      <c r="G674" t="n">
+        <v>0.108527131782946</v>
+      </c>
+      <c r="H674" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="B675" t="s">
+        <v>18</v>
+      </c>
+      <c r="C675" t="n">
+        <v>657</v>
+      </c>
+      <c r="D675" t="n">
+        <v>0.0216524404310714</v>
+      </c>
+      <c r="E675" t="n">
+        <v>4</v>
+      </c>
+      <c r="F675" t="n">
+        <v>90</v>
+      </c>
+      <c r="G675" t="n">
+        <v>0.116279069767442</v>
+      </c>
+      <c r="H675" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="B676" t="s">
+        <v>19</v>
+      </c>
+      <c r="C676" t="n">
+        <v>1189</v>
+      </c>
+      <c r="D676" t="n">
+        <v>0.0391853145700821</v>
+      </c>
+      <c r="E676" t="n">
+        <v>14</v>
+      </c>
+      <c r="F676" t="n">
+        <v>299</v>
+      </c>
+      <c r="G676" t="n">
+        <v>0.386304909560723</v>
+      </c>
+      <c r="H676" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="B677" t="s">
+        <v>20</v>
+      </c>
+      <c r="C677" t="n">
+        <v>19</v>
+      </c>
+      <c r="D677" t="n">
+        <v>0.000626174076393237</v>
+      </c>
+      <c r="E677" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F677" t="n">
+        <v>0</v>
+      </c>
+      <c r="G677" t="n">
+        <v>0</v>
+      </c>
+      <c r="H677" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -21717,6 +22055,84 @@
         <v>0</v>
       </c>
     </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="B155" t="s">
+        <v>21</v>
+      </c>
+      <c r="C155" t="n">
+        <v>13704</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.451636291731207</v>
+      </c>
+      <c r="E155" t="n">
+        <v>138</v>
+      </c>
+      <c r="F155" t="n">
+        <v>319</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.412144702842377</v>
+      </c>
+      <c r="H155" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="B156" t="s">
+        <v>22</v>
+      </c>
+      <c r="C156" t="n">
+        <v>16187</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.533467356556702</v>
+      </c>
+      <c r="E156" t="n">
+        <v>553</v>
+      </c>
+      <c r="F156" t="n">
+        <v>454</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.58656330749354</v>
+      </c>
+      <c r="H156" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="B157" t="s">
+        <v>20</v>
+      </c>
+      <c r="C157" t="n">
+        <v>452</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.0148963517120918</v>
+      </c>
+      <c r="E157" t="n">
+        <v>64</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.00129198966408269</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -29557,6 +29973,162 @@
         <v>2</v>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="B302" t="s">
+        <v>23</v>
+      </c>
+      <c r="C302" t="n">
+        <v>675</v>
+      </c>
+      <c r="D302" t="n">
+        <v>0.0222456579771282</v>
+      </c>
+      <c r="E302" t="n">
+        <v>4</v>
+      </c>
+      <c r="F302" t="n">
+        <v>16</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.020671834625323</v>
+      </c>
+      <c r="H302" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="B303" t="s">
+        <v>24</v>
+      </c>
+      <c r="C303" t="n">
+        <v>3644</v>
+      </c>
+      <c r="D303" t="n">
+        <v>0.120093596546156</v>
+      </c>
+      <c r="E303" t="n">
+        <v>153</v>
+      </c>
+      <c r="F303" t="n">
+        <v>96</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.124031007751938</v>
+      </c>
+      <c r="H303" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="B304" t="s">
+        <v>25</v>
+      </c>
+      <c r="C304" t="n">
+        <v>12252</v>
+      </c>
+      <c r="D304" t="n">
+        <v>0.403783409682629</v>
+      </c>
+      <c r="E304" t="n">
+        <v>253</v>
+      </c>
+      <c r="F304" t="n">
+        <v>232</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.299741602067183</v>
+      </c>
+      <c r="H304" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="B305" t="s">
+        <v>26</v>
+      </c>
+      <c r="C305" t="n">
+        <v>150</v>
+      </c>
+      <c r="D305" t="n">
+        <v>0.00494347955047293</v>
+      </c>
+      <c r="E305" t="n">
+        <v>2</v>
+      </c>
+      <c r="F305" t="n">
+        <v>1</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.00129198966408269</v>
+      </c>
+      <c r="H305" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="B306" t="s">
+        <v>20</v>
+      </c>
+      <c r="C306" t="n">
+        <v>5928</v>
+      </c>
+      <c r="D306" t="n">
+        <v>0.19536631183469</v>
+      </c>
+      <c r="E306" t="n">
+        <v>77</v>
+      </c>
+      <c r="F306" t="n">
+        <v>95</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.122739018087855</v>
+      </c>
+      <c r="H306" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="B307" t="s">
+        <v>27</v>
+      </c>
+      <c r="C307" t="n">
+        <v>7694</v>
+      </c>
+      <c r="D307" t="n">
+        <v>0.253567544408925</v>
+      </c>
+      <c r="E307" t="n">
+        <v>266</v>
+      </c>
+      <c r="F307" t="n">
+        <v>334</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.431524547803618</v>
+      </c>
+      <c r="H307" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -18037,6 +18037,344 @@
         <v>0</v>
       </c>
     </row>
+    <row r="678">
+      <c r="A678" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="B678" t="s">
+        <v>8</v>
+      </c>
+      <c r="C678" t="n">
+        <v>135</v>
+      </c>
+      <c r="D678" t="n">
+        <v>0.00434810615820665</v>
+      </c>
+      <c r="E678" t="n">
+        <v>4</v>
+      </c>
+      <c r="F678" t="n">
+        <v>0</v>
+      </c>
+      <c r="G678" t="n">
+        <v>0</v>
+      </c>
+      <c r="H678" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="B679" t="s">
+        <v>9</v>
+      </c>
+      <c r="C679" t="n">
+        <v>577</v>
+      </c>
+      <c r="D679" t="n">
+        <v>0.0185841278021129</v>
+      </c>
+      <c r="E679" t="n">
+        <v>7</v>
+      </c>
+      <c r="F679" t="n">
+        <v>0</v>
+      </c>
+      <c r="G679" t="n">
+        <v>0</v>
+      </c>
+      <c r="H679" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="B680" t="s">
+        <v>10</v>
+      </c>
+      <c r="C680" t="n">
+        <v>1496</v>
+      </c>
+      <c r="D680" t="n">
+        <v>0.0481834578716826</v>
+      </c>
+      <c r="E680" t="n">
+        <v>13</v>
+      </c>
+      <c r="F680" t="n">
+        <v>0</v>
+      </c>
+      <c r="G680" t="n">
+        <v>0</v>
+      </c>
+      <c r="H680" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="B681" t="s">
+        <v>11</v>
+      </c>
+      <c r="C681" t="n">
+        <v>5880</v>
+      </c>
+      <c r="D681" t="n">
+        <v>0.189384179335223</v>
+      </c>
+      <c r="E681" t="n">
+        <v>128</v>
+      </c>
+      <c r="F681" t="n">
+        <v>7</v>
+      </c>
+      <c r="G681" t="n">
+        <v>0.00902061855670103</v>
+      </c>
+      <c r="H681" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="B682" t="s">
+        <v>12</v>
+      </c>
+      <c r="C682" t="n">
+        <v>5895</v>
+      </c>
+      <c r="D682" t="n">
+        <v>0.18986730224169</v>
+      </c>
+      <c r="E682" t="n">
+        <v>148</v>
+      </c>
+      <c r="F682" t="n">
+        <v>12</v>
+      </c>
+      <c r="G682" t="n">
+        <v>0.0154639175257732</v>
+      </c>
+      <c r="H682" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="B683" t="s">
+        <v>13</v>
+      </c>
+      <c r="C683" t="n">
+        <v>5564</v>
+      </c>
+      <c r="D683" t="n">
+        <v>0.179206390105643</v>
+      </c>
+      <c r="E683" t="n">
+        <v>144</v>
+      </c>
+      <c r="F683" t="n">
+        <v>34</v>
+      </c>
+      <c r="G683" t="n">
+        <v>0.0438144329896907</v>
+      </c>
+      <c r="H683" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="B684" t="s">
+        <v>14</v>
+      </c>
+      <c r="C684" t="n">
+        <v>5177</v>
+      </c>
+      <c r="D684" t="n">
+        <v>0.166741819118784</v>
+      </c>
+      <c r="E684" t="n">
+        <v>161</v>
+      </c>
+      <c r="F684" t="n">
+        <v>80</v>
+      </c>
+      <c r="G684" t="n">
+        <v>0.103092783505155</v>
+      </c>
+      <c r="H684" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="B685" t="s">
+        <v>15</v>
+      </c>
+      <c r="C685" t="n">
+        <v>2041</v>
+      </c>
+      <c r="D685" t="n">
+        <v>0.0657369234733316</v>
+      </c>
+      <c r="E685" t="n">
+        <v>45</v>
+      </c>
+      <c r="F685" t="n">
+        <v>80</v>
+      </c>
+      <c r="G685" t="n">
+        <v>0.103092783505155</v>
+      </c>
+      <c r="H685" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="B686" t="s">
+        <v>16</v>
+      </c>
+      <c r="C686" t="n">
+        <v>1477</v>
+      </c>
+      <c r="D686" t="n">
+        <v>0.0475715021901572</v>
+      </c>
+      <c r="E686" t="n">
+        <v>28</v>
+      </c>
+      <c r="F686" t="n">
+        <v>88</v>
+      </c>
+      <c r="G686" t="n">
+        <v>0.11340206185567</v>
+      </c>
+      <c r="H686" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="B687" t="s">
+        <v>17</v>
+      </c>
+      <c r="C687" t="n">
+        <v>931</v>
+      </c>
+      <c r="D687" t="n">
+        <v>0.0299858283947436</v>
+      </c>
+      <c r="E687" t="n">
+        <v>17</v>
+      </c>
+      <c r="F687" t="n">
+        <v>85</v>
+      </c>
+      <c r="G687" t="n">
+        <v>0.109536082474227</v>
+      </c>
+      <c r="H687" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="B688" t="s">
+        <v>18</v>
+      </c>
+      <c r="C688" t="n">
+        <v>661</v>
+      </c>
+      <c r="D688" t="n">
+        <v>0.0212896160783303</v>
+      </c>
+      <c r="E688" t="n">
+        <v>4</v>
+      </c>
+      <c r="F688" t="n">
+        <v>90</v>
+      </c>
+      <c r="G688" t="n">
+        <v>0.115979381443299</v>
+      </c>
+      <c r="H688" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="B689" t="s">
+        <v>19</v>
+      </c>
+      <c r="C689" t="n">
+        <v>1194</v>
+      </c>
+      <c r="D689" t="n">
+        <v>0.0384565833548055</v>
+      </c>
+      <c r="E689" t="n">
+        <v>5</v>
+      </c>
+      <c r="F689" t="n">
+        <v>300</v>
+      </c>
+      <c r="G689" t="n">
+        <v>0.38659793814433</v>
+      </c>
+      <c r="H689" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="B690" t="s">
+        <v>20</v>
+      </c>
+      <c r="C690" t="n">
+        <v>20</v>
+      </c>
+      <c r="D690" t="n">
+        <v>0.000644163875289874</v>
+      </c>
+      <c r="E690" t="n">
+        <v>1</v>
+      </c>
+      <c r="F690" t="n">
+        <v>0</v>
+      </c>
+      <c r="G690" t="n">
+        <v>0</v>
+      </c>
+      <c r="H690" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -22133,6 +22471,84 @@
         <v>0</v>
       </c>
     </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="B158" t="s">
+        <v>21</v>
+      </c>
+      <c r="C158" t="n">
+        <v>13786</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.44402215923731</v>
+      </c>
+      <c r="E158" t="n">
+        <v>82</v>
+      </c>
+      <c r="F158" t="n">
+        <v>320</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.412371134020619</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="B159" t="s">
+        <v>22</v>
+      </c>
+      <c r="C159" t="n">
+        <v>16739</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.53913295542386</v>
+      </c>
+      <c r="E159" t="n">
+        <v>552</v>
+      </c>
+      <c r="F159" t="n">
+        <v>455</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.586340206185567</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="B160" t="s">
+        <v>20</v>
+      </c>
+      <c r="C160" t="n">
+        <v>523</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.0168448853388302</v>
+      </c>
+      <c r="E160" t="n">
+        <v>71</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.00128865979381443</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -30129,6 +30545,162 @@
         <v>5</v>
       </c>
     </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="B308" t="s">
+        <v>23</v>
+      </c>
+      <c r="C308" t="n">
+        <v>678</v>
+      </c>
+      <c r="D308" t="n">
+        <v>0.0218371553723267</v>
+      </c>
+      <c r="E308" t="n">
+        <v>3</v>
+      </c>
+      <c r="F308" t="n">
+        <v>16</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.0206185567010309</v>
+      </c>
+      <c r="H308" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="B309" t="s">
+        <v>24</v>
+      </c>
+      <c r="C309" t="n">
+        <v>3822</v>
+      </c>
+      <c r="D309" t="n">
+        <v>0.123099716567895</v>
+      </c>
+      <c r="E309" t="n">
+        <v>178</v>
+      </c>
+      <c r="F309" t="n">
+        <v>96</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.123711340206186</v>
+      </c>
+      <c r="H309" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="B310" t="s">
+        <v>25</v>
+      </c>
+      <c r="C310" t="n">
+        <v>12511</v>
+      </c>
+      <c r="D310" t="n">
+        <v>0.402956712187581</v>
+      </c>
+      <c r="E310" t="n">
+        <v>259</v>
+      </c>
+      <c r="F310" t="n">
+        <v>234</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.301546391752577</v>
+      </c>
+      <c r="H310" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="B311" t="s">
+        <v>26</v>
+      </c>
+      <c r="C311" t="n">
+        <v>150</v>
+      </c>
+      <c r="D311" t="n">
+        <v>0.00483122906467405</v>
+      </c>
+      <c r="E311" t="n">
+        <v>0</v>
+      </c>
+      <c r="F311" t="n">
+        <v>1</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.00128865979381443</v>
+      </c>
+      <c r="H311" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="B312" t="s">
+        <v>20</v>
+      </c>
+      <c r="C312" t="n">
+        <v>5950</v>
+      </c>
+      <c r="D312" t="n">
+        <v>0.191638752898737</v>
+      </c>
+      <c r="E312" t="n">
+        <v>22</v>
+      </c>
+      <c r="F312" t="n">
+        <v>95</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.122422680412371</v>
+      </c>
+      <c r="H312" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="B313" t="s">
+        <v>27</v>
+      </c>
+      <c r="C313" t="n">
+        <v>7937</v>
+      </c>
+      <c r="D313" t="n">
+        <v>0.255636433908786</v>
+      </c>
+      <c r="E313" t="n">
+        <v>243</v>
+      </c>
+      <c r="F313" t="n">
+        <v>334</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.430412371134021</v>
+      </c>
+      <c r="H313" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -18375,6 +18375,344 @@
         <v>0</v>
       </c>
     </row>
+    <row r="691">
+      <c r="A691" s="1" t="n">
+        <v>44037</v>
+      </c>
+      <c r="B691" t="s">
+        <v>8</v>
+      </c>
+      <c r="C691" t="n">
+        <v>135</v>
+      </c>
+      <c r="D691" t="n">
+        <v>0.00424101533048505</v>
+      </c>
+      <c r="E691" t="n">
+        <v>0</v>
+      </c>
+      <c r="F691" t="n">
+        <v>0</v>
+      </c>
+      <c r="G691" t="n">
+        <v>0</v>
+      </c>
+      <c r="H691" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="1" t="n">
+        <v>44037</v>
+      </c>
+      <c r="B692" t="s">
+        <v>9</v>
+      </c>
+      <c r="C692" t="n">
+        <v>582</v>
+      </c>
+      <c r="D692" t="n">
+        <v>0.0182834883136466</v>
+      </c>
+      <c r="E692" t="n">
+        <v>5</v>
+      </c>
+      <c r="F692" t="n">
+        <v>0</v>
+      </c>
+      <c r="G692" t="n">
+        <v>0</v>
+      </c>
+      <c r="H692" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="1" t="n">
+        <v>44037</v>
+      </c>
+      <c r="B693" t="s">
+        <v>10</v>
+      </c>
+      <c r="C693" t="n">
+        <v>1509</v>
+      </c>
+      <c r="D693" t="n">
+        <v>0.0474051269163106</v>
+      </c>
+      <c r="E693" t="n">
+        <v>13</v>
+      </c>
+      <c r="F693" t="n">
+        <v>0</v>
+      </c>
+      <c r="G693" t="n">
+        <v>0</v>
+      </c>
+      <c r="H693" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="1" t="n">
+        <v>44037</v>
+      </c>
+      <c r="B694" t="s">
+        <v>11</v>
+      </c>
+      <c r="C694" t="n">
+        <v>6017</v>
+      </c>
+      <c r="D694" t="n">
+        <v>0.189023624026137</v>
+      </c>
+      <c r="E694" t="n">
+        <v>137</v>
+      </c>
+      <c r="F694" t="n">
+        <v>7</v>
+      </c>
+      <c r="G694" t="n">
+        <v>0.00892857142857143</v>
+      </c>
+      <c r="H694" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="1" t="n">
+        <v>44037</v>
+      </c>
+      <c r="B695" t="s">
+        <v>12</v>
+      </c>
+      <c r="C695" t="n">
+        <v>6077</v>
+      </c>
+      <c r="D695" t="n">
+        <v>0.190908519728575</v>
+      </c>
+      <c r="E695" t="n">
+        <v>182</v>
+      </c>
+      <c r="F695" t="n">
+        <v>12</v>
+      </c>
+      <c r="G695" t="n">
+        <v>0.0153061224489796</v>
+      </c>
+      <c r="H695" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="1" t="n">
+        <v>44037</v>
+      </c>
+      <c r="B696" t="s">
+        <v>13</v>
+      </c>
+      <c r="C696" t="n">
+        <v>5746</v>
+      </c>
+      <c r="D696" t="n">
+        <v>0.180510178436793</v>
+      </c>
+      <c r="E696" t="n">
+        <v>182</v>
+      </c>
+      <c r="F696" t="n">
+        <v>36</v>
+      </c>
+      <c r="G696" t="n">
+        <v>0.0459183673469388</v>
+      </c>
+      <c r="H696" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="1" t="n">
+        <v>44037</v>
+      </c>
+      <c r="B697" t="s">
+        <v>14</v>
+      </c>
+      <c r="C697" t="n">
+        <v>5319</v>
+      </c>
+      <c r="D697" t="n">
+        <v>0.167096004021111</v>
+      </c>
+      <c r="E697" t="n">
+        <v>142</v>
+      </c>
+      <c r="F697" t="n">
+        <v>81</v>
+      </c>
+      <c r="G697" t="n">
+        <v>0.103316326530612</v>
+      </c>
+      <c r="H697" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="1" t="n">
+        <v>44037</v>
+      </c>
+      <c r="B698" t="s">
+        <v>15</v>
+      </c>
+      <c r="C698" t="n">
+        <v>2104</v>
+      </c>
+      <c r="D698" t="n">
+        <v>0.0660970092988188</v>
+      </c>
+      <c r="E698" t="n">
+        <v>63</v>
+      </c>
+      <c r="F698" t="n">
+        <v>82</v>
+      </c>
+      <c r="G698" t="n">
+        <v>0.104591836734694</v>
+      </c>
+      <c r="H698" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="1" t="n">
+        <v>44037</v>
+      </c>
+      <c r="B699" t="s">
+        <v>16</v>
+      </c>
+      <c r="C699" t="n">
+        <v>1514</v>
+      </c>
+      <c r="D699" t="n">
+        <v>0.0475622015581804</v>
+      </c>
+      <c r="E699" t="n">
+        <v>37</v>
+      </c>
+      <c r="F699" t="n">
+        <v>88</v>
+      </c>
+      <c r="G699" t="n">
+        <v>0.112244897959184</v>
+      </c>
+      <c r="H699" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="1" t="n">
+        <v>44037</v>
+      </c>
+      <c r="B700" t="s">
+        <v>17</v>
+      </c>
+      <c r="C700" t="n">
+        <v>943</v>
+      </c>
+      <c r="D700" t="n">
+        <v>0.0296242774566474</v>
+      </c>
+      <c r="E700" t="n">
+        <v>12</v>
+      </c>
+      <c r="F700" t="n">
+        <v>86</v>
+      </c>
+      <c r="G700" t="n">
+        <v>0.10969387755102</v>
+      </c>
+      <c r="H700" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="1" t="n">
+        <v>44037</v>
+      </c>
+      <c r="B701" t="s">
+        <v>18</v>
+      </c>
+      <c r="C701" t="n">
+        <v>665</v>
+      </c>
+      <c r="D701" t="n">
+        <v>0.0208909273686856</v>
+      </c>
+      <c r="E701" t="n">
+        <v>4</v>
+      </c>
+      <c r="F701" t="n">
+        <v>90</v>
+      </c>
+      <c r="G701" t="n">
+        <v>0.114795918367347</v>
+      </c>
+      <c r="H701" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="1" t="n">
+        <v>44037</v>
+      </c>
+      <c r="B702" t="s">
+        <v>19</v>
+      </c>
+      <c r="C702" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D702" t="n">
+        <v>0.037697914048756</v>
+      </c>
+      <c r="E702" t="n">
+        <v>6</v>
+      </c>
+      <c r="F702" t="n">
+        <v>302</v>
+      </c>
+      <c r="G702" t="n">
+        <v>0.385204081632653</v>
+      </c>
+      <c r="H702" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="1" t="n">
+        <v>44037</v>
+      </c>
+      <c r="B703" t="s">
+        <v>20</v>
+      </c>
+      <c r="C703" t="n">
+        <v>21</v>
+      </c>
+      <c r="D703" t="n">
+        <v>0.000659713495853229</v>
+      </c>
+      <c r="E703" t="n">
+        <v>1</v>
+      </c>
+      <c r="F703" t="n">
+        <v>0</v>
+      </c>
+      <c r="G703" t="n">
+        <v>0</v>
+      </c>
+      <c r="H703" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -22549,6 +22887,84 @@
         <v>0</v>
       </c>
     </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>44037</v>
+      </c>
+      <c r="B161" t="s">
+        <v>21</v>
+      </c>
+      <c r="C161" t="n">
+        <v>13904</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.436793164111586</v>
+      </c>
+      <c r="E161" t="n">
+        <v>118</v>
+      </c>
+      <c r="F161" t="n">
+        <v>321</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.409438775510204</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>44037</v>
+      </c>
+      <c r="B162" t="s">
+        <v>22</v>
+      </c>
+      <c r="C162" t="n">
+        <v>17338</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.544672028147776</v>
+      </c>
+      <c r="E162" t="n">
+        <v>599</v>
+      </c>
+      <c r="F162" t="n">
+        <v>462</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.589285714285714</v>
+      </c>
+      <c r="H162" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>44037</v>
+      </c>
+      <c r="B163" t="s">
+        <v>20</v>
+      </c>
+      <c r="C163" t="n">
+        <v>590</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.0185348077406383</v>
+      </c>
+      <c r="E163" t="n">
+        <v>67</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.00127551020408163</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -30701,6 +31117,162 @@
         <v>0</v>
       </c>
     </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>44037</v>
+      </c>
+      <c r="B314" t="s">
+        <v>23</v>
+      </c>
+      <c r="C314" t="n">
+        <v>678</v>
+      </c>
+      <c r="D314" t="n">
+        <v>0.0212993214375471</v>
+      </c>
+      <c r="E314" t="n">
+        <v>0</v>
+      </c>
+      <c r="F314" t="n">
+        <v>16</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.0204081632653061</v>
+      </c>
+      <c r="H314" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>44037</v>
+      </c>
+      <c r="B315" t="s">
+        <v>24</v>
+      </c>
+      <c r="C315" t="n">
+        <v>3985</v>
+      </c>
+      <c r="D315" t="n">
+        <v>0.125188489570244</v>
+      </c>
+      <c r="E315" t="n">
+        <v>163</v>
+      </c>
+      <c r="F315" t="n">
+        <v>98</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H315" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>44037</v>
+      </c>
+      <c r="B316" t="s">
+        <v>25</v>
+      </c>
+      <c r="C316" t="n">
+        <v>12817</v>
+      </c>
+      <c r="D316" t="n">
+        <v>0.402645136969088</v>
+      </c>
+      <c r="E316" t="n">
+        <v>306</v>
+      </c>
+      <c r="F316" t="n">
+        <v>236</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.301020408163265</v>
+      </c>
+      <c r="H316" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>44037</v>
+      </c>
+      <c r="B317" t="s">
+        <v>26</v>
+      </c>
+      <c r="C317" t="n">
+        <v>152</v>
+      </c>
+      <c r="D317" t="n">
+        <v>0.00477506911284242</v>
+      </c>
+      <c r="E317" t="n">
+        <v>2</v>
+      </c>
+      <c r="F317" t="n">
+        <v>2</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.00255102040816327</v>
+      </c>
+      <c r="H317" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>44037</v>
+      </c>
+      <c r="B318" t="s">
+        <v>20</v>
+      </c>
+      <c r="C318" t="n">
+        <v>5984</v>
+      </c>
+      <c r="D318" t="n">
+        <v>0.187986931389796</v>
+      </c>
+      <c r="E318" t="n">
+        <v>34</v>
+      </c>
+      <c r="F318" t="n">
+        <v>97</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.123724489795918</v>
+      </c>
+      <c r="H318" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>44037</v>
+      </c>
+      <c r="B319" t="s">
+        <v>27</v>
+      </c>
+      <c r="C319" t="n">
+        <v>8216</v>
+      </c>
+      <c r="D319" t="n">
+        <v>0.258105051520483</v>
+      </c>
+      <c r="E319" t="n">
+        <v>279</v>
+      </c>
+      <c r="F319" t="n">
+        <v>335</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.427295918367347</v>
+      </c>
+      <c r="H319" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -18713,6 +18713,344 @@
         <v>0</v>
       </c>
     </row>
+    <row r="704">
+      <c r="A704" s="1" t="n">
+        <v>44038</v>
+      </c>
+      <c r="B704" t="s">
+        <v>8</v>
+      </c>
+      <c r="C704" t="n">
+        <v>134</v>
+      </c>
+      <c r="D704" t="n">
+        <v>0.4161232222</v>
+      </c>
+      <c r="E704" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F704" t="n">
+        <v>0</v>
+      </c>
+      <c r="G704" t="n">
+        <v>0</v>
+      </c>
+      <c r="H704" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="1" t="n">
+        <v>44038</v>
+      </c>
+      <c r="B705" t="s">
+        <v>9</v>
+      </c>
+      <c r="C705" t="n">
+        <v>586</v>
+      </c>
+      <c r="D705" t="n">
+        <v>1.8197627477</v>
+      </c>
+      <c r="E705" t="n">
+        <v>4</v>
+      </c>
+      <c r="F705" t="n">
+        <v>0</v>
+      </c>
+      <c r="G705" t="n">
+        <v>0</v>
+      </c>
+      <c r="H705" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="1" t="n">
+        <v>44038</v>
+      </c>
+      <c r="B706" t="s">
+        <v>10</v>
+      </c>
+      <c r="C706" t="n">
+        <v>1517</v>
+      </c>
+      <c r="D706" t="n">
+        <v>4.7108875225</v>
+      </c>
+      <c r="E706" t="n">
+        <v>8</v>
+      </c>
+      <c r="F706" t="n">
+        <v>0</v>
+      </c>
+      <c r="G706" t="n">
+        <v>0</v>
+      </c>
+      <c r="H706" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="1" t="n">
+        <v>44038</v>
+      </c>
+      <c r="B707" t="s">
+        <v>11</v>
+      </c>
+      <c r="C707" t="n">
+        <v>6097</v>
+      </c>
+      <c r="D707" t="n">
+        <v>18.933606608</v>
+      </c>
+      <c r="E707" t="n">
+        <v>80</v>
+      </c>
+      <c r="F707" t="n">
+        <v>8</v>
+      </c>
+      <c r="G707" t="n">
+        <v>1.0165184244</v>
+      </c>
+      <c r="H707" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="1" t="n">
+        <v>44038</v>
+      </c>
+      <c r="B708" t="s">
+        <v>12</v>
+      </c>
+      <c r="C708" t="n">
+        <v>6154</v>
+      </c>
+      <c r="D708" t="n">
+        <v>19.110614248</v>
+      </c>
+      <c r="E708" t="n">
+        <v>77</v>
+      </c>
+      <c r="F708" t="n">
+        <v>12</v>
+      </c>
+      <c r="G708" t="n">
+        <v>1.5247776366</v>
+      </c>
+      <c r="H708" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="1" t="n">
+        <v>44038</v>
+      </c>
+      <c r="B709" t="s">
+        <v>13</v>
+      </c>
+      <c r="C709" t="n">
+        <v>5808</v>
+      </c>
+      <c r="D709" t="n">
+        <v>18.036146823</v>
+      </c>
+      <c r="E709" t="n">
+        <v>62</v>
+      </c>
+      <c r="F709" t="n">
+        <v>36</v>
+      </c>
+      <c r="G709" t="n">
+        <v>4.5743329098</v>
+      </c>
+      <c r="H709" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="1" t="n">
+        <v>44038</v>
+      </c>
+      <c r="B710" t="s">
+        <v>14</v>
+      </c>
+      <c r="C710" t="n">
+        <v>5405</v>
+      </c>
+      <c r="D710" t="n">
+        <v>16.78467176</v>
+      </c>
+      <c r="E710" t="n">
+        <v>86</v>
+      </c>
+      <c r="F710" t="n">
+        <v>81</v>
+      </c>
+      <c r="G710" t="n">
+        <v>10.292249047</v>
+      </c>
+      <c r="H710" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="1" t="n">
+        <v>44038</v>
+      </c>
+      <c r="B711" t="s">
+        <v>15</v>
+      </c>
+      <c r="C711" t="n">
+        <v>2131</v>
+      </c>
+      <c r="D711" t="n">
+        <v>6.6176013912</v>
+      </c>
+      <c r="E711" t="n">
+        <v>27</v>
+      </c>
+      <c r="F711" t="n">
+        <v>83</v>
+      </c>
+      <c r="G711" t="n">
+        <v>10.546378653</v>
+      </c>
+      <c r="H711" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="1" t="n">
+        <v>44038</v>
+      </c>
+      <c r="B712" t="s">
+        <v>16</v>
+      </c>
+      <c r="C712" t="n">
+        <v>1530</v>
+      </c>
+      <c r="D712" t="n">
+        <v>4.7512576859</v>
+      </c>
+      <c r="E712" t="n">
+        <v>16</v>
+      </c>
+      <c r="F712" t="n">
+        <v>88</v>
+      </c>
+      <c r="G712" t="n">
+        <v>11.181702668</v>
+      </c>
+      <c r="H712" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="1" t="n">
+        <v>44038</v>
+      </c>
+      <c r="B713" t="s">
+        <v>17</v>
+      </c>
+      <c r="C713" t="n">
+        <v>949</v>
+      </c>
+      <c r="D713" t="n">
+        <v>2.9470219241</v>
+      </c>
+      <c r="E713" t="n">
+        <v>6</v>
+      </c>
+      <c r="F713" t="n">
+        <v>86</v>
+      </c>
+      <c r="G713" t="n">
+        <v>10.927573062</v>
+      </c>
+      <c r="H713" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="1" t="n">
+        <v>44038</v>
+      </c>
+      <c r="B714" t="s">
+        <v>18</v>
+      </c>
+      <c r="C714" t="n">
+        <v>668</v>
+      </c>
+      <c r="D714" t="n">
+        <v>2.0744053164</v>
+      </c>
+      <c r="E714" t="n">
+        <v>3</v>
+      </c>
+      <c r="F714" t="n">
+        <v>90</v>
+      </c>
+      <c r="G714" t="n">
+        <v>11.435832274</v>
+      </c>
+      <c r="H714" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="1" t="n">
+        <v>44038</v>
+      </c>
+      <c r="B715" t="s">
+        <v>19</v>
+      </c>
+      <c r="C715" t="n">
+        <v>1202</v>
+      </c>
+      <c r="D715" t="n">
+        <v>3.7326874107</v>
+      </c>
+      <c r="E715" t="n">
+        <v>2</v>
+      </c>
+      <c r="F715" t="n">
+        <v>303</v>
+      </c>
+      <c r="G715" t="n">
+        <v>38.500635324</v>
+      </c>
+      <c r="H715" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="1" t="n">
+        <v>44038</v>
+      </c>
+      <c r="B716" t="s">
+        <v>20</v>
+      </c>
+      <c r="C716" t="n">
+        <v>21</v>
+      </c>
+      <c r="D716" t="n">
+        <v>0.0652133408</v>
+      </c>
+      <c r="E716" t="n">
+        <v>0</v>
+      </c>
+      <c r="F716" t="n">
+        <v>0</v>
+      </c>
+      <c r="G716" t="n">
+        <v>0</v>
+      </c>
+      <c r="H716" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -22965,6 +23303,84 @@
         <v>0</v>
       </c>
     </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>44038</v>
+      </c>
+      <c r="B164" t="s">
+        <v>21</v>
+      </c>
+      <c r="C164" t="n">
+        <v>13977</v>
+      </c>
+      <c r="D164" t="n">
+        <v>43.404136389</v>
+      </c>
+      <c r="E164" t="n">
+        <v>73</v>
+      </c>
+      <c r="F164" t="n">
+        <v>321</v>
+      </c>
+      <c r="G164" t="n">
+        <v>40.787801779</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>44038</v>
+      </c>
+      <c r="B165" t="s">
+        <v>22</v>
+      </c>
+      <c r="C165" t="n">
+        <v>17623</v>
+      </c>
+      <c r="D165" t="n">
+        <v>54.726414508</v>
+      </c>
+      <c r="E165" t="n">
+        <v>285</v>
+      </c>
+      <c r="F165" t="n">
+        <v>465</v>
+      </c>
+      <c r="G165" t="n">
+        <v>59.085133418</v>
+      </c>
+      <c r="H165" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>44038</v>
+      </c>
+      <c r="B166" t="s">
+        <v>20</v>
+      </c>
+      <c r="C166" t="n">
+        <v>602</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1.8694491025</v>
+      </c>
+      <c r="E166" t="n">
+        <v>12</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.1270648031</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -31273,6 +31689,162 @@
         <v>1</v>
       </c>
     </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>44038</v>
+      </c>
+      <c r="B320" t="s">
+        <v>23</v>
+      </c>
+      <c r="C320" t="n">
+        <v>683</v>
+      </c>
+      <c r="D320" t="n">
+        <v>2.1209862741</v>
+      </c>
+      <c r="E320" t="n">
+        <v>5</v>
+      </c>
+      <c r="F320" t="n">
+        <v>16</v>
+      </c>
+      <c r="G320" t="n">
+        <v>2.0330368488</v>
+      </c>
+      <c r="H320" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>44038</v>
+      </c>
+      <c r="B321" t="s">
+        <v>24</v>
+      </c>
+      <c r="C321" t="n">
+        <v>4059</v>
+      </c>
+      <c r="D321" t="n">
+        <v>12.604807155</v>
+      </c>
+      <c r="E321" t="n">
+        <v>74</v>
+      </c>
+      <c r="F321" t="n">
+        <v>99</v>
+      </c>
+      <c r="G321" t="n">
+        <v>12.579415502</v>
+      </c>
+      <c r="H321" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>44038</v>
+      </c>
+      <c r="B322" t="s">
+        <v>25</v>
+      </c>
+      <c r="C322" t="n">
+        <v>12980</v>
+      </c>
+      <c r="D322" t="n">
+        <v>40.3080554</v>
+      </c>
+      <c r="E322" t="n">
+        <v>163</v>
+      </c>
+      <c r="F322" t="n">
+        <v>237</v>
+      </c>
+      <c r="G322" t="n">
+        <v>30.114358323</v>
+      </c>
+      <c r="H322" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>44038</v>
+      </c>
+      <c r="B323" t="s">
+        <v>26</v>
+      </c>
+      <c r="C323" t="n">
+        <v>153</v>
+      </c>
+      <c r="D323" t="n">
+        <v>0.4751257686</v>
+      </c>
+      <c r="E323" t="n">
+        <v>1</v>
+      </c>
+      <c r="F323" t="n">
+        <v>2</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.2541296061</v>
+      </c>
+      <c r="H323" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>44038</v>
+      </c>
+      <c r="B324" t="s">
+        <v>20</v>
+      </c>
+      <c r="C324" t="n">
+        <v>5986</v>
+      </c>
+      <c r="D324" t="n">
+        <v>18.588907521</v>
+      </c>
+      <c r="E324" t="n">
+        <v>2</v>
+      </c>
+      <c r="F324" t="n">
+        <v>97</v>
+      </c>
+      <c r="G324" t="n">
+        <v>12.325285896</v>
+      </c>
+      <c r="H324" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>44038</v>
+      </c>
+      <c r="B325" t="s">
+        <v>27</v>
+      </c>
+      <c r="C325" t="n">
+        <v>8341</v>
+      </c>
+      <c r="D325" t="n">
+        <v>25.902117881</v>
+      </c>
+      <c r="E325" t="n">
+        <v>125</v>
+      </c>
+      <c r="F325" t="n">
+        <v>336</v>
+      </c>
+      <c r="G325" t="n">
+        <v>42.693773825</v>
+      </c>
+      <c r="H325" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -19051,6 +19051,344 @@
         <v>0</v>
       </c>
     </row>
+    <row r="717">
+      <c r="A717" s="1" t="n">
+        <v>44039</v>
+      </c>
+      <c r="B717" t="s">
+        <v>8</v>
+      </c>
+      <c r="C717" t="n">
+        <v>134</v>
+      </c>
+      <c r="D717" t="n">
+        <v>0.4154008308</v>
+      </c>
+      <c r="E717" t="n">
+        <v>0</v>
+      </c>
+      <c r="F717" t="n">
+        <v>2</v>
+      </c>
+      <c r="G717" t="n">
+        <v>0.0350078768</v>
+      </c>
+      <c r="H717" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="1" t="n">
+        <v>44039</v>
+      </c>
+      <c r="B718" t="s">
+        <v>9</v>
+      </c>
+      <c r="C718" t="n">
+        <v>587</v>
+      </c>
+      <c r="D718" t="n">
+        <v>1.8197036394</v>
+      </c>
+      <c r="E718" t="n">
+        <v>1</v>
+      </c>
+      <c r="F718" t="n">
+        <v>1</v>
+      </c>
+      <c r="G718" t="n">
+        <v>0.0175039384</v>
+      </c>
+      <c r="H718" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="1" t="n">
+        <v>44039</v>
+      </c>
+      <c r="B719" t="s">
+        <v>10</v>
+      </c>
+      <c r="C719" t="n">
+        <v>1517</v>
+      </c>
+      <c r="D719" t="n">
+        <v>4.7027094054</v>
+      </c>
+      <c r="E719" t="n">
+        <v>0</v>
+      </c>
+      <c r="F719" t="n">
+        <v>8</v>
+      </c>
+      <c r="G719" t="n">
+        <v>0.1400315071</v>
+      </c>
+      <c r="H719" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="1" t="n">
+        <v>44039</v>
+      </c>
+      <c r="B720" t="s">
+        <v>11</v>
+      </c>
+      <c r="C720" t="n">
+        <v>6105</v>
+      </c>
+      <c r="D720" t="n">
+        <v>18.925537851</v>
+      </c>
+      <c r="E720" t="n">
+        <v>8</v>
+      </c>
+      <c r="F720" t="n">
+        <v>47</v>
+      </c>
+      <c r="G720" t="n">
+        <v>0.8226851041</v>
+      </c>
+      <c r="H720" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="1" t="n">
+        <v>44039</v>
+      </c>
+      <c r="B721" t="s">
+        <v>12</v>
+      </c>
+      <c r="C721" t="n">
+        <v>6172</v>
+      </c>
+      <c r="D721" t="n">
+        <v>19.133238266</v>
+      </c>
+      <c r="E721" t="n">
+        <v>18</v>
+      </c>
+      <c r="F721" t="n">
+        <v>121</v>
+      </c>
+      <c r="G721" t="n">
+        <v>2.1179765447</v>
+      </c>
+      <c r="H721" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="1" t="n">
+        <v>44039</v>
+      </c>
+      <c r="B722" t="s">
+        <v>13</v>
+      </c>
+      <c r="C722" t="n">
+        <v>5822</v>
+      </c>
+      <c r="D722" t="n">
+        <v>18.048236096</v>
+      </c>
+      <c r="E722" t="n">
+        <v>14</v>
+      </c>
+      <c r="F722" t="n">
+        <v>315</v>
+      </c>
+      <c r="G722" t="n">
+        <v>5.5137405916</v>
+      </c>
+      <c r="H722" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="1" t="n">
+        <v>44039</v>
+      </c>
+      <c r="B723" t="s">
+        <v>14</v>
+      </c>
+      <c r="C723" t="n">
+        <v>5414</v>
+      </c>
+      <c r="D723" t="n">
+        <v>16.783433567</v>
+      </c>
+      <c r="E723" t="n">
+        <v>9</v>
+      </c>
+      <c r="F723" t="n">
+        <v>634</v>
+      </c>
+      <c r="G723" t="n">
+        <v>11.097496937</v>
+      </c>
+      <c r="H723" t="n">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="1" t="n">
+        <v>44039</v>
+      </c>
+      <c r="B724" t="s">
+        <v>15</v>
+      </c>
+      <c r="C724" t="n">
+        <v>2135</v>
+      </c>
+      <c r="D724" t="n">
+        <v>6.618513237</v>
+      </c>
+      <c r="E724" t="n">
+        <v>4</v>
+      </c>
+      <c r="F724" t="n">
+        <v>533</v>
+      </c>
+      <c r="G724" t="n">
+        <v>9.3295991598</v>
+      </c>
+      <c r="H724" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="1" t="n">
+        <v>44039</v>
+      </c>
+      <c r="B725" t="s">
+        <v>16</v>
+      </c>
+      <c r="C725" t="n">
+        <v>1532</v>
+      </c>
+      <c r="D725" t="n">
+        <v>4.7492094984</v>
+      </c>
+      <c r="E725" t="n">
+        <v>2</v>
+      </c>
+      <c r="F725" t="n">
+        <v>660</v>
+      </c>
+      <c r="G725" t="n">
+        <v>11.552599335</v>
+      </c>
+      <c r="H725" t="n">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="1" t="n">
+        <v>44039</v>
+      </c>
+      <c r="B726" t="s">
+        <v>17</v>
+      </c>
+      <c r="C726" t="n">
+        <v>949</v>
+      </c>
+      <c r="D726" t="n">
+        <v>2.9419058838</v>
+      </c>
+      <c r="E726" t="n">
+        <v>0</v>
+      </c>
+      <c r="F726" t="n">
+        <v>717</v>
+      </c>
+      <c r="G726" t="n">
+        <v>12.550323823</v>
+      </c>
+      <c r="H726" t="n">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="1" t="n">
+        <v>44039</v>
+      </c>
+      <c r="B727" t="s">
+        <v>18</v>
+      </c>
+      <c r="C727" t="n">
+        <v>668</v>
+      </c>
+      <c r="D727" t="n">
+        <v>2.0708041416</v>
+      </c>
+      <c r="E727" t="n">
+        <v>0</v>
+      </c>
+      <c r="F727" t="n">
+        <v>702</v>
+      </c>
+      <c r="G727" t="n">
+        <v>12.287764747</v>
+      </c>
+      <c r="H727" t="n">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="1" t="n">
+        <v>44039</v>
+      </c>
+      <c r="B728" t="s">
+        <v>19</v>
+      </c>
+      <c r="C728" t="n">
+        <v>1202</v>
+      </c>
+      <c r="D728" t="n">
+        <v>3.7262074524</v>
+      </c>
+      <c r="E728" t="n">
+        <v>0</v>
+      </c>
+      <c r="F728" t="n">
+        <v>1973</v>
+      </c>
+      <c r="G728" t="n">
+        <v>34.535270436</v>
+      </c>
+      <c r="H728" t="n">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="1" t="n">
+        <v>44039</v>
+      </c>
+      <c r="B729" t="s">
+        <v>20</v>
+      </c>
+      <c r="C729" t="n">
+        <v>21</v>
+      </c>
+      <c r="D729" t="n">
+        <v>0.0651001302</v>
+      </c>
+      <c r="E729" t="n">
+        <v>0</v>
+      </c>
+      <c r="F729" t="n">
+        <v>0</v>
+      </c>
+      <c r="G729" t="n">
+        <v>0</v>
+      </c>
+      <c r="H729" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -23381,6 +23719,84 @@
         <v>0</v>
       </c>
     </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>44039</v>
+      </c>
+      <c r="B167" t="s">
+        <v>21</v>
+      </c>
+      <c r="C167" t="n">
+        <v>13981</v>
+      </c>
+      <c r="D167" t="n">
+        <v>43.341186682</v>
+      </c>
+      <c r="E167" t="n">
+        <v>4</v>
+      </c>
+      <c r="F167" t="n">
+        <v>2302</v>
+      </c>
+      <c r="G167" t="n">
+        <v>40.294066165</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>44039</v>
+      </c>
+      <c r="B168" t="s">
+        <v>22</v>
+      </c>
+      <c r="C168" t="n">
+        <v>17675</v>
+      </c>
+      <c r="D168" t="n">
+        <v>54.792609585</v>
+      </c>
+      <c r="E168" t="n">
+        <v>52</v>
+      </c>
+      <c r="F168" t="n">
+        <v>3411</v>
+      </c>
+      <c r="G168" t="n">
+        <v>59.705933835</v>
+      </c>
+      <c r="H168" t="n">
+        <v>2946</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>44039</v>
+      </c>
+      <c r="B169" t="s">
+        <v>20</v>
+      </c>
+      <c r="C169" t="n">
+        <v>602</v>
+      </c>
+      <c r="D169" t="n">
+        <v>1.8662037324</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0</v>
+      </c>
+      <c r="H169" t="n">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -31845,6 +32261,162 @@
         <v>1</v>
       </c>
     </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>44039</v>
+      </c>
+      <c r="B326" t="s">
+        <v>23</v>
+      </c>
+      <c r="C326" t="n">
+        <v>684</v>
+      </c>
+      <c r="D326" t="n">
+        <v>2.1204042408</v>
+      </c>
+      <c r="E326" t="n">
+        <v>1</v>
+      </c>
+      <c r="F326" t="n">
+        <v>147</v>
+      </c>
+      <c r="G326" t="n">
+        <v>2.5730789428</v>
+      </c>
+      <c r="H326" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>44039</v>
+      </c>
+      <c r="B327" t="s">
+        <v>24</v>
+      </c>
+      <c r="C327" t="n">
+        <v>4076</v>
+      </c>
+      <c r="D327" t="n">
+        <v>12.635625271</v>
+      </c>
+      <c r="E327" t="n">
+        <v>17</v>
+      </c>
+      <c r="F327" t="n">
+        <v>806</v>
+      </c>
+      <c r="G327" t="n">
+        <v>14.108174339</v>
+      </c>
+      <c r="H327" t="n">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>44039</v>
+      </c>
+      <c r="B328" t="s">
+        <v>25</v>
+      </c>
+      <c r="C328" t="n">
+        <v>13003</v>
+      </c>
+      <c r="D328" t="n">
+        <v>40.309380619</v>
+      </c>
+      <c r="E328" t="n">
+        <v>23</v>
+      </c>
+      <c r="F328" t="n">
+        <v>2705</v>
+      </c>
+      <c r="G328" t="n">
+        <v>47.348153335</v>
+      </c>
+      <c r="H328" t="n">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>44039</v>
+      </c>
+      <c r="B329" t="s">
+        <v>26</v>
+      </c>
+      <c r="C329" t="n">
+        <v>152</v>
+      </c>
+      <c r="D329" t="n">
+        <v>0.4712009424</v>
+      </c>
+      <c r="E329" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F329" t="n">
+        <v>46</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.8051811658</v>
+      </c>
+      <c r="H329" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>44039</v>
+      </c>
+      <c r="B330" t="s">
+        <v>20</v>
+      </c>
+      <c r="C330" t="n">
+        <v>5983</v>
+      </c>
+      <c r="D330" t="n">
+        <v>18.547337095</v>
+      </c>
+      <c r="E330" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F330" t="n">
+        <v>3</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.0525118152</v>
+      </c>
+      <c r="H330" t="n">
+        <v>-94</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>44039</v>
+      </c>
+      <c r="B331" t="s">
+        <v>27</v>
+      </c>
+      <c r="C331" t="n">
+        <v>8360</v>
+      </c>
+      <c r="D331" t="n">
+        <v>25.916051832</v>
+      </c>
+      <c r="E331" t="n">
+        <v>19</v>
+      </c>
+      <c r="F331" t="n">
+        <v>2006</v>
+      </c>
+      <c r="G331" t="n">
+        <v>35.112900403</v>
+      </c>
+      <c r="H331" t="n">
+        <v>1670</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -19389,6 +19389,344 @@
         <v>0</v>
       </c>
     </row>
+    <row r="730">
+      <c r="A730" s="1" t="n">
+        <v>44040</v>
+      </c>
+      <c r="B730" t="s">
+        <v>8</v>
+      </c>
+      <c r="C730" t="n">
+        <v>135</v>
+      </c>
+      <c r="D730" t="n">
+        <v>0.4081262471</v>
+      </c>
+      <c r="E730" t="n">
+        <v>1</v>
+      </c>
+      <c r="F730" t="n">
+        <v>2</v>
+      </c>
+      <c r="G730" t="n">
+        <v>0.0340309682</v>
+      </c>
+      <c r="H730" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="1" t="n">
+        <v>44040</v>
+      </c>
+      <c r="B731" t="s">
+        <v>9</v>
+      </c>
+      <c r="C731" t="n">
+        <v>595</v>
+      </c>
+      <c r="D731" t="n">
+        <v>1.7987786444</v>
+      </c>
+      <c r="E731" t="n">
+        <v>8</v>
+      </c>
+      <c r="F731" t="n">
+        <v>1</v>
+      </c>
+      <c r="G731" t="n">
+        <v>0.0170154841</v>
+      </c>
+      <c r="H731" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="1" t="n">
+        <v>44040</v>
+      </c>
+      <c r="B732" t="s">
+        <v>10</v>
+      </c>
+      <c r="C732" t="n">
+        <v>1536</v>
+      </c>
+      <c r="D732" t="n">
+        <v>4.6435697442</v>
+      </c>
+      <c r="E732" t="n">
+        <v>19</v>
+      </c>
+      <c r="F732" t="n">
+        <v>8</v>
+      </c>
+      <c r="G732" t="n">
+        <v>0.1361238727</v>
+      </c>
+      <c r="H732" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="1" t="n">
+        <v>44040</v>
+      </c>
+      <c r="B733" t="s">
+        <v>11</v>
+      </c>
+      <c r="C733" t="n">
+        <v>6229</v>
+      </c>
+      <c r="D733" t="n">
+        <v>18.831247355</v>
+      </c>
+      <c r="E733" t="n">
+        <v>124</v>
+      </c>
+      <c r="F733" t="n">
+        <v>48</v>
+      </c>
+      <c r="G733" t="n">
+        <v>0.8167432363</v>
+      </c>
+      <c r="H733" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="1" t="n">
+        <v>44040</v>
+      </c>
+      <c r="B734" t="s">
+        <v>12</v>
+      </c>
+      <c r="C734" t="n">
+        <v>6362</v>
+      </c>
+      <c r="D734" t="n">
+        <v>19.233327287</v>
+      </c>
+      <c r="E734" t="n">
+        <v>190</v>
+      </c>
+      <c r="F734" t="n">
+        <v>124</v>
+      </c>
+      <c r="G734" t="n">
+        <v>2.1099200272</v>
+      </c>
+      <c r="H734" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="1" t="n">
+        <v>44040</v>
+      </c>
+      <c r="B735" t="s">
+        <v>13</v>
+      </c>
+      <c r="C735" t="n">
+        <v>6003</v>
+      </c>
+      <c r="D735" t="n">
+        <v>18.148013786</v>
+      </c>
+      <c r="E735" t="n">
+        <v>181</v>
+      </c>
+      <c r="F735" t="n">
+        <v>323</v>
+      </c>
+      <c r="G735" t="n">
+        <v>5.4960013612</v>
+      </c>
+      <c r="H735" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="1" t="n">
+        <v>44040</v>
+      </c>
+      <c r="B736" t="s">
+        <v>14</v>
+      </c>
+      <c r="C736" t="n">
+        <v>5589</v>
+      </c>
+      <c r="D736" t="n">
+        <v>16.896426628</v>
+      </c>
+      <c r="E736" t="n">
+        <v>175</v>
+      </c>
+      <c r="F736" t="n">
+        <v>654</v>
+      </c>
+      <c r="G736" t="n">
+        <v>11.128126595</v>
+      </c>
+      <c r="H736" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="1" t="n">
+        <v>44040</v>
+      </c>
+      <c r="B737" t="s">
+        <v>15</v>
+      </c>
+      <c r="C737" t="n">
+        <v>2180</v>
+      </c>
+      <c r="D737" t="n">
+        <v>6.5904831006</v>
+      </c>
+      <c r="E737" t="n">
+        <v>45</v>
+      </c>
+      <c r="F737" t="n">
+        <v>542</v>
+      </c>
+      <c r="G737" t="n">
+        <v>9.2223923771</v>
+      </c>
+      <c r="H737" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="1" t="n">
+        <v>44040</v>
+      </c>
+      <c r="B738" t="s">
+        <v>16</v>
+      </c>
+      <c r="C738" t="n">
+        <v>1571</v>
+      </c>
+      <c r="D738" t="n">
+        <v>4.7493802527</v>
+      </c>
+      <c r="E738" t="n">
+        <v>39</v>
+      </c>
+      <c r="F738" t="n">
+        <v>682</v>
+      </c>
+      <c r="G738" t="n">
+        <v>11.60456015</v>
+      </c>
+      <c r="H738" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="1" t="n">
+        <v>44040</v>
+      </c>
+      <c r="B739" t="s">
+        <v>17</v>
+      </c>
+      <c r="C739" t="n">
+        <v>967</v>
+      </c>
+      <c r="D739" t="n">
+        <v>2.9233931919</v>
+      </c>
+      <c r="E739" t="n">
+        <v>18</v>
+      </c>
+      <c r="F739" t="n">
+        <v>737</v>
+      </c>
+      <c r="G739" t="n">
+        <v>12.540411775</v>
+      </c>
+      <c r="H739" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="1" t="n">
+        <v>44040</v>
+      </c>
+      <c r="B740" t="s">
+        <v>18</v>
+      </c>
+      <c r="C740" t="n">
+        <v>681</v>
+      </c>
+      <c r="D740" t="n">
+        <v>2.0587701796</v>
+      </c>
+      <c r="E740" t="n">
+        <v>13</v>
+      </c>
+      <c r="F740" t="n">
+        <v>724</v>
+      </c>
+      <c r="G740" t="n">
+        <v>12.319210482</v>
+      </c>
+      <c r="H740" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="1" t="n">
+        <v>44040</v>
+      </c>
+      <c r="B741" t="s">
+        <v>19</v>
+      </c>
+      <c r="C741" t="n">
+        <v>1208</v>
+      </c>
+      <c r="D741" t="n">
+        <v>3.6519741218</v>
+      </c>
+      <c r="E741" t="n">
+        <v>6</v>
+      </c>
+      <c r="F741" t="n">
+        <v>2032</v>
+      </c>
+      <c r="G741" t="n">
+        <v>34.575463672</v>
+      </c>
+      <c r="H741" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="1" t="n">
+        <v>44040</v>
+      </c>
+      <c r="B742" t="s">
+        <v>20</v>
+      </c>
+      <c r="C742" t="n">
+        <v>22</v>
+      </c>
+      <c r="D742" t="n">
+        <v>0.0665094625</v>
+      </c>
+      <c r="E742" t="n">
+        <v>1</v>
+      </c>
+      <c r="F742" t="n">
+        <v>0</v>
+      </c>
+      <c r="G742" t="n">
+        <v>0</v>
+      </c>
+      <c r="H742" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -23797,6 +24135,84 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>44040</v>
+      </c>
+      <c r="B170" t="s">
+        <v>21</v>
+      </c>
+      <c r="C170" t="n">
+        <v>14095</v>
+      </c>
+      <c r="D170" t="n">
+        <v>42.61140335</v>
+      </c>
+      <c r="E170" t="n">
+        <v>114</v>
+      </c>
+      <c r="F170" t="n">
+        <v>2379</v>
+      </c>
+      <c r="G170" t="n">
+        <v>40.479836651</v>
+      </c>
+      <c r="H170" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>44040</v>
+      </c>
+      <c r="B171" t="s">
+        <v>22</v>
+      </c>
+      <c r="C171" t="n">
+        <v>18341</v>
+      </c>
+      <c r="D171" t="n">
+        <v>55.447729609</v>
+      </c>
+      <c r="E171" t="n">
+        <v>666</v>
+      </c>
+      <c r="F171" t="n">
+        <v>3498</v>
+      </c>
+      <c r="G171" t="n">
+        <v>59.520163349</v>
+      </c>
+      <c r="H171" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>44040</v>
+      </c>
+      <c r="B172" t="s">
+        <v>20</v>
+      </c>
+      <c r="C172" t="n">
+        <v>642</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1.9408670415</v>
+      </c>
+      <c r="E172" t="n">
+        <v>40</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -32417,6 +32833,162 @@
         <v>1670</v>
       </c>
     </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>44040</v>
+      </c>
+      <c r="B332" t="s">
+        <v>23</v>
+      </c>
+      <c r="C332" t="n">
+        <v>690</v>
+      </c>
+      <c r="D332" t="n">
+        <v>2.085978596</v>
+      </c>
+      <c r="E332" t="n">
+        <v>6</v>
+      </c>
+      <c r="F332" t="n">
+        <v>152</v>
+      </c>
+      <c r="G332" t="n">
+        <v>2.5863535818</v>
+      </c>
+      <c r="H332" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>44040</v>
+      </c>
+      <c r="B333" t="s">
+        <v>24</v>
+      </c>
+      <c r="C333" t="n">
+        <v>4264</v>
+      </c>
+      <c r="D333" t="n">
+        <v>12.890743092</v>
+      </c>
+      <c r="E333" t="n">
+        <v>188</v>
+      </c>
+      <c r="F333" t="n">
+        <v>829</v>
+      </c>
+      <c r="G333" t="n">
+        <v>14.105836311</v>
+      </c>
+      <c r="H333" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>44040</v>
+      </c>
+      <c r="B334" t="s">
+        <v>25</v>
+      </c>
+      <c r="C334" t="n">
+        <v>13290</v>
+      </c>
+      <c r="D334" t="n">
+        <v>40.177761654</v>
+      </c>
+      <c r="E334" t="n">
+        <v>287</v>
+      </c>
+      <c r="F334" t="n">
+        <v>2779</v>
+      </c>
+      <c r="G334" t="n">
+        <v>47.286030288</v>
+      </c>
+      <c r="H334" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>44040</v>
+      </c>
+      <c r="B335" t="s">
+        <v>26</v>
+      </c>
+      <c r="C335" t="n">
+        <v>155</v>
+      </c>
+      <c r="D335" t="n">
+        <v>0.4685893948</v>
+      </c>
+      <c r="E335" t="n">
+        <v>3</v>
+      </c>
+      <c r="F335" t="n">
+        <v>47</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.7997277523</v>
+      </c>
+      <c r="H335" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>44040</v>
+      </c>
+      <c r="B336" t="s">
+        <v>20</v>
+      </c>
+      <c r="C336" t="n">
+        <v>6045</v>
+      </c>
+      <c r="D336" t="n">
+        <v>18.274986396</v>
+      </c>
+      <c r="E336" t="n">
+        <v>62</v>
+      </c>
+      <c r="F336" t="n">
+        <v>4</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.0680619364</v>
+      </c>
+      <c r="H336" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>44040</v>
+      </c>
+      <c r="B337" t="s">
+        <v>27</v>
+      </c>
+      <c r="C337" t="n">
+        <v>8634</v>
+      </c>
+      <c r="D337" t="n">
+        <v>26.101940867</v>
+      </c>
+      <c r="E337" t="n">
+        <v>274</v>
+      </c>
+      <c r="F337" t="n">
+        <v>2066</v>
+      </c>
+      <c r="G337" t="n">
+        <v>35.153990131</v>
+      </c>
+      <c r="H337" t="n">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -19727,6 +19727,344 @@
         <v>0</v>
       </c>
     </row>
+    <row r="743">
+      <c r="A743" s="1" t="n">
+        <v>44041</v>
+      </c>
+      <c r="B743" t="s">
+        <v>8</v>
+      </c>
+      <c r="C743" t="n">
+        <v>137</v>
+      </c>
+      <c r="D743" t="n">
+        <v>0.4046430576</v>
+      </c>
+      <c r="E743" t="n">
+        <v>2</v>
+      </c>
+      <c r="F743" t="n">
+        <v>2</v>
+      </c>
+      <c r="G743" t="n">
+        <v>0.0323101777</v>
+      </c>
+      <c r="H743" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="1" t="n">
+        <v>44041</v>
+      </c>
+      <c r="B744" t="s">
+        <v>9</v>
+      </c>
+      <c r="C744" t="n">
+        <v>609</v>
+      </c>
+      <c r="D744" t="n">
+        <v>1.7987417668</v>
+      </c>
+      <c r="E744" t="n">
+        <v>14</v>
+      </c>
+      <c r="F744" t="n">
+        <v>2</v>
+      </c>
+      <c r="G744" t="n">
+        <v>0.0323101777</v>
+      </c>
+      <c r="H744" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="1" t="n">
+        <v>44041</v>
+      </c>
+      <c r="B745" t="s">
+        <v>10</v>
+      </c>
+      <c r="C745" t="n">
+        <v>1550</v>
+      </c>
+      <c r="D745" t="n">
+        <v>4.5780783885</v>
+      </c>
+      <c r="E745" t="n">
+        <v>14</v>
+      </c>
+      <c r="F745" t="n">
+        <v>9</v>
+      </c>
+      <c r="G745" t="n">
+        <v>0.1453957997</v>
+      </c>
+      <c r="H745" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="1" t="n">
+        <v>44041</v>
+      </c>
+      <c r="B746" t="s">
+        <v>11</v>
+      </c>
+      <c r="C746" t="n">
+        <v>6363</v>
+      </c>
+      <c r="D746" t="n">
+        <v>18.793750185</v>
+      </c>
+      <c r="E746" t="n">
+        <v>134</v>
+      </c>
+      <c r="F746" t="n">
+        <v>52</v>
+      </c>
+      <c r="G746" t="n">
+        <v>0.8400646204</v>
+      </c>
+      <c r="H746" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="1" t="n">
+        <v>44041</v>
+      </c>
+      <c r="B747" t="s">
+        <v>12</v>
+      </c>
+      <c r="C747" t="n">
+        <v>6550</v>
+      </c>
+      <c r="D747" t="n">
+        <v>19.34607319</v>
+      </c>
+      <c r="E747" t="n">
+        <v>188</v>
+      </c>
+      <c r="F747" t="n">
+        <v>131</v>
+      </c>
+      <c r="G747" t="n">
+        <v>2.1163166397</v>
+      </c>
+      <c r="H747" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="1" t="n">
+        <v>44041</v>
+      </c>
+      <c r="B748" t="s">
+        <v>13</v>
+      </c>
+      <c r="C748" t="n">
+        <v>6150</v>
+      </c>
+      <c r="D748" t="n">
+        <v>18.164633606</v>
+      </c>
+      <c r="E748" t="n">
+        <v>147</v>
+      </c>
+      <c r="F748" t="n">
+        <v>341</v>
+      </c>
+      <c r="G748" t="n">
+        <v>5.5088852989</v>
+      </c>
+      <c r="H748" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="1" t="n">
+        <v>44041</v>
+      </c>
+      <c r="B749" t="s">
+        <v>14</v>
+      </c>
+      <c r="C749" t="n">
+        <v>5751</v>
+      </c>
+      <c r="D749" t="n">
+        <v>16.986147621</v>
+      </c>
+      <c r="E749" t="n">
+        <v>162</v>
+      </c>
+      <c r="F749" t="n">
+        <v>689</v>
+      </c>
+      <c r="G749" t="n">
+        <v>11.13085622</v>
+      </c>
+      <c r="H749" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="1" t="n">
+        <v>44041</v>
+      </c>
+      <c r="B750" t="s">
+        <v>15</v>
+      </c>
+      <c r="C750" t="n">
+        <v>2227</v>
+      </c>
+      <c r="D750" t="n">
+        <v>6.5776648847</v>
+      </c>
+      <c r="E750" t="n">
+        <v>47</v>
+      </c>
+      <c r="F750" t="n">
+        <v>568</v>
+      </c>
+      <c r="G750" t="n">
+        <v>9.1760904685</v>
+      </c>
+      <c r="H750" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="1" t="n">
+        <v>44041</v>
+      </c>
+      <c r="B751" t="s">
+        <v>16</v>
+      </c>
+      <c r="C751" t="n">
+        <v>1602</v>
+      </c>
+      <c r="D751" t="n">
+        <v>4.7316655345</v>
+      </c>
+      <c r="E751" t="n">
+        <v>31</v>
+      </c>
+      <c r="F751" t="n">
+        <v>714</v>
+      </c>
+      <c r="G751" t="n">
+        <v>11.534733441</v>
+      </c>
+      <c r="H751" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="1" t="n">
+        <v>44041</v>
+      </c>
+      <c r="B752" t="s">
+        <v>17</v>
+      </c>
+      <c r="C752" t="n">
+        <v>985</v>
+      </c>
+      <c r="D752" t="n">
+        <v>2.9092949759</v>
+      </c>
+      <c r="E752" t="n">
+        <v>18</v>
+      </c>
+      <c r="F752" t="n">
+        <v>782</v>
+      </c>
+      <c r="G752" t="n">
+        <v>12.633279483</v>
+      </c>
+      <c r="H752" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="1" t="n">
+        <v>44041</v>
+      </c>
+      <c r="B753" t="s">
+        <v>18</v>
+      </c>
+      <c r="C753" t="n">
+        <v>688</v>
+      </c>
+      <c r="D753" t="n">
+        <v>2.0320760847</v>
+      </c>
+      <c r="E753" t="n">
+        <v>7</v>
+      </c>
+      <c r="F753" t="n">
+        <v>763</v>
+      </c>
+      <c r="G753" t="n">
+        <v>12.326332795</v>
+      </c>
+      <c r="H753" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="1" t="n">
+        <v>44041</v>
+      </c>
+      <c r="B754" t="s">
+        <v>19</v>
+      </c>
+      <c r="C754" t="n">
+        <v>1223</v>
+      </c>
+      <c r="D754" t="n">
+        <v>3.6122515285</v>
+      </c>
+      <c r="E754" t="n">
+        <v>15</v>
+      </c>
+      <c r="F754" t="n">
+        <v>2137</v>
+      </c>
+      <c r="G754" t="n">
+        <v>34.523424879</v>
+      </c>
+      <c r="H754" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="1" t="n">
+        <v>44041</v>
+      </c>
+      <c r="B755" t="s">
+        <v>20</v>
+      </c>
+      <c r="C755" t="n">
+        <v>22</v>
+      </c>
+      <c r="D755" t="n">
+        <v>0.0649791771</v>
+      </c>
+      <c r="E755" t="n">
+        <v>0</v>
+      </c>
+      <c r="F755" t="n">
+        <v>0</v>
+      </c>
+      <c r="G755" t="n">
+        <v>0</v>
+      </c>
+      <c r="H755" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -24213,6 +24551,84 @@
         <v>0</v>
       </c>
     </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>44041</v>
+      </c>
+      <c r="B173" t="s">
+        <v>21</v>
+      </c>
+      <c r="C173" t="n">
+        <v>14258</v>
+      </c>
+      <c r="D173" t="n">
+        <v>42.112413976</v>
+      </c>
+      <c r="E173" t="n">
+        <v>163</v>
+      </c>
+      <c r="F173" t="n">
+        <v>2512</v>
+      </c>
+      <c r="G173" t="n">
+        <v>40.581583199</v>
+      </c>
+      <c r="H173" t="n">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>44041</v>
+      </c>
+      <c r="B174" t="s">
+        <v>22</v>
+      </c>
+      <c r="C174" t="n">
+        <v>18935</v>
+      </c>
+      <c r="D174" t="n">
+        <v>55.926396314</v>
+      </c>
+      <c r="E174" t="n">
+        <v>594</v>
+      </c>
+      <c r="F174" t="n">
+        <v>3678</v>
+      </c>
+      <c r="G174" t="n">
+        <v>59.418416801</v>
+      </c>
+      <c r="H174" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>44041</v>
+      </c>
+      <c r="B175" t="s">
+        <v>20</v>
+      </c>
+      <c r="C175" t="n">
+        <v>664</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1.9611897097</v>
+      </c>
+      <c r="E175" t="n">
+        <v>22</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -32989,6 +33405,162 @@
         <v>60</v>
       </c>
     </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>44041</v>
+      </c>
+      <c r="B338" t="s">
+        <v>23</v>
+      </c>
+      <c r="C338" t="n">
+        <v>698</v>
+      </c>
+      <c r="D338" t="n">
+        <v>2.0616120743</v>
+      </c>
+      <c r="E338" t="n">
+        <v>8</v>
+      </c>
+      <c r="F338" t="n">
+        <v>158</v>
+      </c>
+      <c r="G338" t="n">
+        <v>2.5525040388</v>
+      </c>
+      <c r="H338" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>44041</v>
+      </c>
+      <c r="B339" t="s">
+        <v>24</v>
+      </c>
+      <c r="C339" t="n">
+        <v>4442</v>
+      </c>
+      <c r="D339" t="n">
+        <v>13.119886582</v>
+      </c>
+      <c r="E339" t="n">
+        <v>178</v>
+      </c>
+      <c r="F339" t="n">
+        <v>866</v>
+      </c>
+      <c r="G339" t="n">
+        <v>13.990306947</v>
+      </c>
+      <c r="H339" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>44041</v>
+      </c>
+      <c r="B340" t="s">
+        <v>25</v>
+      </c>
+      <c r="C340" t="n">
+        <v>13589</v>
+      </c>
+      <c r="D340" t="n">
+        <v>40.136456272</v>
+      </c>
+      <c r="E340" t="n">
+        <v>299</v>
+      </c>
+      <c r="F340" t="n">
+        <v>2965</v>
+      </c>
+      <c r="G340" t="n">
+        <v>47.899838449</v>
+      </c>
+      <c r="H340" t="n">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>44041</v>
+      </c>
+      <c r="B341" t="s">
+        <v>26</v>
+      </c>
+      <c r="C341" t="n">
+        <v>156</v>
+      </c>
+      <c r="D341" t="n">
+        <v>0.4607614378</v>
+      </c>
+      <c r="E341" t="n">
+        <v>1</v>
+      </c>
+      <c r="F341" t="n">
+        <v>50</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.8077544426</v>
+      </c>
+      <c r="H341" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>44041</v>
+      </c>
+      <c r="B342" t="s">
+        <v>20</v>
+      </c>
+      <c r="C342" t="n">
+        <v>6098</v>
+      </c>
+      <c r="D342" t="n">
+        <v>18.01104646</v>
+      </c>
+      <c r="E342" t="n">
+        <v>53</v>
+      </c>
+      <c r="F342" t="n">
+        <v>4</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.0646203554</v>
+      </c>
+      <c r="H342" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>44041</v>
+      </c>
+      <c r="B343" t="s">
+        <v>27</v>
+      </c>
+      <c r="C343" t="n">
+        <v>8874</v>
+      </c>
+      <c r="D343" t="n">
+        <v>26.210237174</v>
+      </c>
+      <c r="E343" t="n">
+        <v>240</v>
+      </c>
+      <c r="F343" t="n">
+        <v>2147</v>
+      </c>
+      <c r="G343" t="n">
+        <v>34.684975767</v>
+      </c>
+      <c r="H343" t="n">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -20065,6 +20065,344 @@
         <v>0</v>
       </c>
     </row>
+    <row r="756">
+      <c r="A756" s="1" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B756" t="s">
+        <v>8</v>
+      </c>
+      <c r="C756" t="n">
+        <v>138</v>
+      </c>
+      <c r="D756" t="n">
+        <v>0.3978779841</v>
+      </c>
+      <c r="E756" t="n">
+        <v>1</v>
+      </c>
+      <c r="F756" t="n">
+        <v>2</v>
+      </c>
+      <c r="G756" t="n">
+        <v>0.0318775901</v>
+      </c>
+      <c r="H756" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="1" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B757" t="s">
+        <v>9</v>
+      </c>
+      <c r="C757" t="n">
+        <v>619</v>
+      </c>
+      <c r="D757" t="n">
+        <v>1.7846845808</v>
+      </c>
+      <c r="E757" t="n">
+        <v>10</v>
+      </c>
+      <c r="F757" t="n">
+        <v>2</v>
+      </c>
+      <c r="G757" t="n">
+        <v>0.0318775901</v>
+      </c>
+      <c r="H757" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="1" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B758" t="s">
+        <v>10</v>
+      </c>
+      <c r="C758" t="n">
+        <v>1569</v>
+      </c>
+      <c r="D758" t="n">
+        <v>4.5236996886</v>
+      </c>
+      <c r="E758" t="n">
+        <v>19</v>
+      </c>
+      <c r="F758" t="n">
+        <v>7</v>
+      </c>
+      <c r="G758" t="n">
+        <v>0.1115715652</v>
+      </c>
+      <c r="H758" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="1" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B759" t="s">
+        <v>11</v>
+      </c>
+      <c r="C759" t="n">
+        <v>6516</v>
+      </c>
+      <c r="D759" t="n">
+        <v>18.786760466</v>
+      </c>
+      <c r="E759" t="n">
+        <v>153</v>
+      </c>
+      <c r="F759" t="n">
+        <v>53</v>
+      </c>
+      <c r="G759" t="n">
+        <v>0.8447561364</v>
+      </c>
+      <c r="H759" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="1" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B760" t="s">
+        <v>12</v>
+      </c>
+      <c r="C760" t="n">
+        <v>6749</v>
+      </c>
+      <c r="D760" t="n">
+        <v>19.458539961</v>
+      </c>
+      <c r="E760" t="n">
+        <v>199</v>
+      </c>
+      <c r="F760" t="n">
+        <v>131</v>
+      </c>
+      <c r="G760" t="n">
+        <v>2.0879821486</v>
+      </c>
+      <c r="H760" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="1" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B761" t="s">
+        <v>13</v>
+      </c>
+      <c r="C761" t="n">
+        <v>6305</v>
+      </c>
+      <c r="D761" t="n">
+        <v>18.178410795</v>
+      </c>
+      <c r="E761" t="n">
+        <v>155</v>
+      </c>
+      <c r="F761" t="n">
+        <v>351</v>
+      </c>
+      <c r="G761" t="n">
+        <v>5.5945170545</v>
+      </c>
+      <c r="H761" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="1" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B762" t="s">
+        <v>14</v>
+      </c>
+      <c r="C762" t="n">
+        <v>5908</v>
+      </c>
+      <c r="D762" t="n">
+        <v>17.033790797</v>
+      </c>
+      <c r="E762" t="n">
+        <v>157</v>
+      </c>
+      <c r="F762" t="n">
+        <v>707</v>
+      </c>
+      <c r="G762" t="n">
+        <v>11.268728084</v>
+      </c>
+      <c r="H762" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="1" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B763" t="s">
+        <v>15</v>
+      </c>
+      <c r="C763" t="n">
+        <v>2283</v>
+      </c>
+      <c r="D763" t="n">
+        <v>6.5822857802</v>
+      </c>
+      <c r="E763" t="n">
+        <v>56</v>
+      </c>
+      <c r="F763" t="n">
+        <v>573</v>
+      </c>
+      <c r="G763" t="n">
+        <v>9.1329295505</v>
+      </c>
+      <c r="H763" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="1" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B764" t="s">
+        <v>16</v>
+      </c>
+      <c r="C764" t="n">
+        <v>1648</v>
+      </c>
+      <c r="D764" t="n">
+        <v>4.7514704186</v>
+      </c>
+      <c r="E764" t="n">
+        <v>46</v>
+      </c>
+      <c r="F764" t="n">
+        <v>716</v>
+      </c>
+      <c r="G764" t="n">
+        <v>11.412177239</v>
+      </c>
+      <c r="H764" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="1" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B765" t="s">
+        <v>17</v>
+      </c>
+      <c r="C765" t="n">
+        <v>1002</v>
+      </c>
+      <c r="D765" t="n">
+        <v>2.8889401453</v>
+      </c>
+      <c r="E765" t="n">
+        <v>17</v>
+      </c>
+      <c r="F765" t="n">
+        <v>815</v>
+      </c>
+      <c r="G765" t="n">
+        <v>12.990117947</v>
+      </c>
+      <c r="H765" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="1" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B766" t="s">
+        <v>18</v>
+      </c>
+      <c r="C766" t="n">
+        <v>696</v>
+      </c>
+      <c r="D766" t="n">
+        <v>2.0066889632</v>
+      </c>
+      <c r="E766" t="n">
+        <v>8</v>
+      </c>
+      <c r="F766" t="n">
+        <v>768</v>
+      </c>
+      <c r="G766" t="n">
+        <v>12.240994581</v>
+      </c>
+      <c r="H766" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="1" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B767" t="s">
+        <v>19</v>
+      </c>
+      <c r="C767" t="n">
+        <v>1229</v>
+      </c>
+      <c r="D767" t="n">
+        <v>3.5434205974</v>
+      </c>
+      <c r="E767" t="n">
+        <v>6</v>
+      </c>
+      <c r="F767" t="n">
+        <v>2149</v>
+      </c>
+      <c r="G767" t="n">
+        <v>34.252470513</v>
+      </c>
+      <c r="H767" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" s="1" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B768" t="s">
+        <v>20</v>
+      </c>
+      <c r="C768" t="n">
+        <v>22</v>
+      </c>
+      <c r="D768" t="n">
+        <v>0.0634298236</v>
+      </c>
+      <c r="E768" t="n">
+        <v>0</v>
+      </c>
+      <c r="F768" t="n">
+        <v>0</v>
+      </c>
+      <c r="G768" t="n">
+        <v>0</v>
+      </c>
+      <c r="H768" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -24629,6 +24967,84 @@
         <v>0</v>
       </c>
     </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B176" t="s">
+        <v>21</v>
+      </c>
+      <c r="C176" t="n">
+        <v>14359</v>
+      </c>
+      <c r="D176" t="n">
+        <v>41.399492561</v>
+      </c>
+      <c r="E176" t="n">
+        <v>101</v>
+      </c>
+      <c r="F176" t="n">
+        <v>2543</v>
+      </c>
+      <c r="G176" t="n">
+        <v>40.532355754</v>
+      </c>
+      <c r="H176" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B177" t="s">
+        <v>22</v>
+      </c>
+      <c r="C177" t="n">
+        <v>19607</v>
+      </c>
+      <c r="D177" t="n">
+        <v>56.530388652</v>
+      </c>
+      <c r="E177" t="n">
+        <v>672</v>
+      </c>
+      <c r="F177" t="n">
+        <v>3731</v>
+      </c>
+      <c r="G177" t="n">
+        <v>59.467644246</v>
+      </c>
+      <c r="H177" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B178" t="s">
+        <v>20</v>
+      </c>
+      <c r="C178" t="n">
+        <v>718</v>
+      </c>
+      <c r="D178" t="n">
+        <v>2.0701187868</v>
+      </c>
+      <c r="E178" t="n">
+        <v>54</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -33561,6 +33977,162 @@
         <v>81</v>
       </c>
     </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B344" t="s">
+        <v>23</v>
+      </c>
+      <c r="C344" t="n">
+        <v>700</v>
+      </c>
+      <c r="D344" t="n">
+        <v>2.0182216584</v>
+      </c>
+      <c r="E344" t="n">
+        <v>2</v>
+      </c>
+      <c r="F344" t="n">
+        <v>156</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.1115715652</v>
+      </c>
+      <c r="H344" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B345" t="s">
+        <v>24</v>
+      </c>
+      <c r="C345" t="n">
+        <v>4631</v>
+      </c>
+      <c r="D345" t="n">
+        <v>13.351977857</v>
+      </c>
+      <c r="E345" t="n">
+        <v>189</v>
+      </c>
+      <c r="F345" t="n">
+        <v>866</v>
+      </c>
+      <c r="G345" t="n">
+        <v>13.898629264</v>
+      </c>
+      <c r="H345" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B346" t="s">
+        <v>25</v>
+      </c>
+      <c r="C346" t="n">
+        <v>13864</v>
+      </c>
+      <c r="D346" t="n">
+        <v>39.972321532</v>
+      </c>
+      <c r="E346" t="n">
+        <v>275</v>
+      </c>
+      <c r="F346" t="n">
+        <v>3060</v>
+      </c>
+      <c r="G346" t="n">
+        <v>48.772712783</v>
+      </c>
+      <c r="H346" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B347" t="s">
+        <v>26</v>
+      </c>
+      <c r="C347" t="n">
+        <v>161</v>
+      </c>
+      <c r="D347" t="n">
+        <v>0.4641909814</v>
+      </c>
+      <c r="E347" t="n">
+        <v>5</v>
+      </c>
+      <c r="F347" t="n">
+        <v>53</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.1593879503</v>
+      </c>
+      <c r="H347" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B348" t="s">
+        <v>20</v>
+      </c>
+      <c r="C348" t="n">
+        <v>6164</v>
+      </c>
+      <c r="D348" t="n">
+        <v>17.771883289</v>
+      </c>
+      <c r="E348" t="n">
+        <v>66</v>
+      </c>
+      <c r="F348" t="n">
+        <v>4</v>
+      </c>
+      <c r="G348" t="n">
+        <v>2.9805546701</v>
+      </c>
+      <c r="H348" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B349" t="s">
+        <v>27</v>
+      </c>
+      <c r="C349" t="n">
+        <v>9164</v>
+      </c>
+      <c r="D349" t="n">
+        <v>26.421404682</v>
+      </c>
+      <c r="E349" t="n">
+        <v>290</v>
+      </c>
+      <c r="F349" t="n">
+        <v>2135</v>
+      </c>
+      <c r="G349" t="n">
+        <v>34.077143768</v>
+      </c>
+      <c r="H349" t="n">
+        <v>-12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -20403,6 +20403,344 @@
         <v>0</v>
       </c>
     </row>
+    <row r="769">
+      <c r="A769" s="1" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B769" t="s">
+        <v>8</v>
+      </c>
+      <c r="C769" t="n">
+        <v>138</v>
+      </c>
+      <c r="D769" t="n">
+        <v>0.3881638164</v>
+      </c>
+      <c r="E769" t="n">
+        <v>0</v>
+      </c>
+      <c r="F769" t="n">
+        <v>2</v>
+      </c>
+      <c r="G769" t="n">
+        <v>0.0304460344</v>
+      </c>
+      <c r="H769" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="1" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B770" t="s">
+        <v>9</v>
+      </c>
+      <c r="C770" t="n">
+        <v>622</v>
+      </c>
+      <c r="D770" t="n">
+        <v>1.749549955</v>
+      </c>
+      <c r="E770" t="n">
+        <v>3</v>
+      </c>
+      <c r="F770" t="n">
+        <v>2</v>
+      </c>
+      <c r="G770" t="n">
+        <v>0.0304460344</v>
+      </c>
+      <c r="H770" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="1" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B771" t="s">
+        <v>10</v>
+      </c>
+      <c r="C771" t="n">
+        <v>1583</v>
+      </c>
+      <c r="D771" t="n">
+        <v>4.4526327633</v>
+      </c>
+      <c r="E771" t="n">
+        <v>14</v>
+      </c>
+      <c r="F771" t="n">
+        <v>7</v>
+      </c>
+      <c r="G771" t="n">
+        <v>0.1065611204</v>
+      </c>
+      <c r="H771" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="1" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B772" t="s">
+        <v>11</v>
+      </c>
+      <c r="C772" t="n">
+        <v>6649</v>
+      </c>
+      <c r="D772" t="n">
+        <v>18.702182718</v>
+      </c>
+      <c r="E772" t="n">
+        <v>133</v>
+      </c>
+      <c r="F772" t="n">
+        <v>54</v>
+      </c>
+      <c r="G772" t="n">
+        <v>0.8220429289</v>
+      </c>
+      <c r="H772" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="1" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B773" t="s">
+        <v>12</v>
+      </c>
+      <c r="C773" t="n">
+        <v>6944</v>
+      </c>
+      <c r="D773" t="n">
+        <v>19.531953195</v>
+      </c>
+      <c r="E773" t="n">
+        <v>195</v>
+      </c>
+      <c r="F773" t="n">
+        <v>137</v>
+      </c>
+      <c r="G773" t="n">
+        <v>2.0855533567</v>
+      </c>
+      <c r="H773" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="1" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B774" t="s">
+        <v>13</v>
+      </c>
+      <c r="C774" t="n">
+        <v>6489</v>
+      </c>
+      <c r="D774" t="n">
+        <v>18.252137714</v>
+      </c>
+      <c r="E774" t="n">
+        <v>184</v>
+      </c>
+      <c r="F774" t="n">
+        <v>362</v>
+      </c>
+      <c r="G774" t="n">
+        <v>5.5107322271</v>
+      </c>
+      <c r="H774" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="1" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B775" t="s">
+        <v>14</v>
+      </c>
+      <c r="C775" t="n">
+        <v>6053</v>
+      </c>
+      <c r="D775" t="n">
+        <v>17.025765077</v>
+      </c>
+      <c r="E775" t="n">
+        <v>145</v>
+      </c>
+      <c r="F775" t="n">
+        <v>735</v>
+      </c>
+      <c r="G775" t="n">
+        <v>11.188917643</v>
+      </c>
+      <c r="H775" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="1" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B776" t="s">
+        <v>15</v>
+      </c>
+      <c r="C776" t="n">
+        <v>2354</v>
+      </c>
+      <c r="D776" t="n">
+        <v>6.6212871287</v>
+      </c>
+      <c r="E776" t="n">
+        <v>71</v>
+      </c>
+      <c r="F776" t="n">
+        <v>605</v>
+      </c>
+      <c r="G776" t="n">
+        <v>9.2099254072</v>
+      </c>
+      <c r="H776" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="1" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B777" t="s">
+        <v>16</v>
+      </c>
+      <c r="C777" t="n">
+        <v>1706</v>
+      </c>
+      <c r="D777" t="n">
+        <v>4.7986048605</v>
+      </c>
+      <c r="E777" t="n">
+        <v>58</v>
+      </c>
+      <c r="F777" t="n">
+        <v>747</v>
+      </c>
+      <c r="G777" t="n">
+        <v>11.37159385</v>
+      </c>
+      <c r="H777" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="1" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B778" t="s">
+        <v>17</v>
+      </c>
+      <c r="C778" t="n">
+        <v>1037</v>
+      </c>
+      <c r="D778" t="n">
+        <v>2.9168541854</v>
+      </c>
+      <c r="E778" t="n">
+        <v>35</v>
+      </c>
+      <c r="F778" t="n">
+        <v>855</v>
+      </c>
+      <c r="G778" t="n">
+        <v>13.015679708</v>
+      </c>
+      <c r="H778" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="1" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B779" t="s">
+        <v>18</v>
+      </c>
+      <c r="C779" t="n">
+        <v>715</v>
+      </c>
+      <c r="D779" t="n">
+        <v>2.0111386139</v>
+      </c>
+      <c r="E779" t="n">
+        <v>19</v>
+      </c>
+      <c r="F779" t="n">
+        <v>806</v>
+      </c>
+      <c r="G779" t="n">
+        <v>12.269751865</v>
+      </c>
+      <c r="H779" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="1" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B780" t="s">
+        <v>19</v>
+      </c>
+      <c r="C780" t="n">
+        <v>1237</v>
+      </c>
+      <c r="D780" t="n">
+        <v>3.479410441</v>
+      </c>
+      <c r="E780" t="n">
+        <v>8</v>
+      </c>
+      <c r="F780" t="n">
+        <v>2257</v>
+      </c>
+      <c r="G780" t="n">
+        <v>34.358349825</v>
+      </c>
+      <c r="H780" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="1" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B781" t="s">
+        <v>20</v>
+      </c>
+      <c r="C781" t="n">
+        <v>25</v>
+      </c>
+      <c r="D781" t="n">
+        <v>0.070319532</v>
+      </c>
+      <c r="E781" t="n">
+        <v>3</v>
+      </c>
+      <c r="F781" t="n">
+        <v>0</v>
+      </c>
+      <c r="G781" t="n">
+        <v>0</v>
+      </c>
+      <c r="H781" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -25045,6 +25383,84 @@
         <v>0</v>
       </c>
     </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B179" t="s">
+        <v>21</v>
+      </c>
+      <c r="C179" t="n">
+        <v>14473</v>
+      </c>
+      <c r="D179" t="n">
+        <v>40.709383438</v>
+      </c>
+      <c r="E179" t="n">
+        <v>114</v>
+      </c>
+      <c r="F179" t="n">
+        <v>2668</v>
+      </c>
+      <c r="G179" t="n">
+        <v>40.615009895</v>
+      </c>
+      <c r="H179" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B180" t="s">
+        <v>22</v>
+      </c>
+      <c r="C180" t="n">
+        <v>20317</v>
+      </c>
+      <c r="D180" t="n">
+        <v>57.147277228</v>
+      </c>
+      <c r="E180" t="n">
+        <v>710</v>
+      </c>
+      <c r="F180" t="n">
+        <v>3901</v>
+      </c>
+      <c r="G180" t="n">
+        <v>59.384990105</v>
+      </c>
+      <c r="H180" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B181" t="s">
+        <v>20</v>
+      </c>
+      <c r="C181" t="n">
+        <v>762</v>
+      </c>
+      <c r="D181" t="n">
+        <v>2.1433393339</v>
+      </c>
+      <c r="E181" t="n">
+        <v>44</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -34133,6 +34549,162 @@
         <v>-12</v>
       </c>
     </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B350" t="s">
+        <v>23</v>
+      </c>
+      <c r="C350" t="n">
+        <v>702</v>
+      </c>
+      <c r="D350" t="n">
+        <v>1.9745724572</v>
+      </c>
+      <c r="E350" t="n">
+        <v>2</v>
+      </c>
+      <c r="F350" t="n">
+        <v>163</v>
+      </c>
+      <c r="G350" t="n">
+        <v>2.4813518039</v>
+      </c>
+      <c r="H350" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B351" t="s">
+        <v>24</v>
+      </c>
+      <c r="C351" t="n">
+        <v>4793</v>
+      </c>
+      <c r="D351" t="n">
+        <v>13.481660666</v>
+      </c>
+      <c r="E351" t="n">
+        <v>162</v>
+      </c>
+      <c r="F351" t="n">
+        <v>889</v>
+      </c>
+      <c r="G351" t="n">
+        <v>13.533262293</v>
+      </c>
+      <c r="H351" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B352" t="s">
+        <v>25</v>
+      </c>
+      <c r="C352" t="n">
+        <v>14177</v>
+      </c>
+      <c r="D352" t="n">
+        <v>39.87680018</v>
+      </c>
+      <c r="E352" t="n">
+        <v>313</v>
+      </c>
+      <c r="F352" t="n">
+        <v>3250</v>
+      </c>
+      <c r="G352" t="n">
+        <v>49.474805907</v>
+      </c>
+      <c r="H352" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B353" t="s">
+        <v>26</v>
+      </c>
+      <c r="C353" t="n">
+        <v>164</v>
+      </c>
+      <c r="D353" t="n">
+        <v>0.4612961296</v>
+      </c>
+      <c r="E353" t="n">
+        <v>3</v>
+      </c>
+      <c r="F353" t="n">
+        <v>53</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.8068199117</v>
+      </c>
+      <c r="H353" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B354" t="s">
+        <v>20</v>
+      </c>
+      <c r="C354" t="n">
+        <v>6246</v>
+      </c>
+      <c r="D354" t="n">
+        <v>17.568631863</v>
+      </c>
+      <c r="E354" t="n">
+        <v>82</v>
+      </c>
+      <c r="F354" t="n">
+        <v>4</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.0608920688</v>
+      </c>
+      <c r="H354" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B355" t="s">
+        <v>27</v>
+      </c>
+      <c r="C355" t="n">
+        <v>9470</v>
+      </c>
+      <c r="D355" t="n">
+        <v>26.637038704</v>
+      </c>
+      <c r="E355" t="n">
+        <v>306</v>
+      </c>
+      <c r="F355" t="n">
+        <v>2210</v>
+      </c>
+      <c r="G355" t="n">
+        <v>33.642868016</v>
+      </c>
+      <c r="H355" t="n">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -20741,6 +20741,344 @@
         <v>0</v>
       </c>
     </row>
+    <row r="782">
+      <c r="A782" s="1" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B782" t="s">
+        <v>8</v>
+      </c>
+      <c r="C782" t="n">
+        <v>139</v>
+      </c>
+      <c r="D782" t="n">
+        <v>0.00381386160346814</v>
+      </c>
+      <c r="E782" t="n">
+        <v>1</v>
+      </c>
+      <c r="F782" t="n">
+        <v>2</v>
+      </c>
+      <c r="G782" t="n">
+        <v>0.000292525961679099</v>
+      </c>
+      <c r="H782" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="1" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B783" t="s">
+        <v>9</v>
+      </c>
+      <c r="C783" t="n">
+        <v>629</v>
+      </c>
+      <c r="D783" t="n">
+        <v>0.0172584097020249</v>
+      </c>
+      <c r="E783" t="n">
+        <v>7</v>
+      </c>
+      <c r="F783" t="n">
+        <v>2</v>
+      </c>
+      <c r="G783" t="n">
+        <v>0.000292525961679099</v>
+      </c>
+      <c r="H783" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="1" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B784" t="s">
+        <v>10</v>
+      </c>
+      <c r="C784" t="n">
+        <v>1595</v>
+      </c>
+      <c r="D784" t="n">
+        <v>0.0437633759534654</v>
+      </c>
+      <c r="E784" t="n">
+        <v>12</v>
+      </c>
+      <c r="F784" t="n">
+        <v>7</v>
+      </c>
+      <c r="G784" t="n">
+        <v>0.00102384086587685</v>
+      </c>
+      <c r="H784" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="1" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B785" t="s">
+        <v>11</v>
+      </c>
+      <c r="C785" t="n">
+        <v>6816</v>
+      </c>
+      <c r="D785" t="n">
+        <v>0.187016407836251</v>
+      </c>
+      <c r="E785" t="n">
+        <v>167</v>
+      </c>
+      <c r="F785" t="n">
+        <v>56</v>
+      </c>
+      <c r="G785" t="n">
+        <v>0.00819072692701477</v>
+      </c>
+      <c r="H785" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="1" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B786" t="s">
+        <v>12</v>
+      </c>
+      <c r="C786" t="n">
+        <v>7152</v>
+      </c>
+      <c r="D786" t="n">
+        <v>0.196235526532404</v>
+      </c>
+      <c r="E786" t="n">
+        <v>208</v>
+      </c>
+      <c r="F786" t="n">
+        <v>143</v>
+      </c>
+      <c r="G786" t="n">
+        <v>0.0209156062600556</v>
+      </c>
+      <c r="H786" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="1" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B787" t="s">
+        <v>13</v>
+      </c>
+      <c r="C787" t="n">
+        <v>6652</v>
+      </c>
+      <c r="D787" t="n">
+        <v>0.182516599901224</v>
+      </c>
+      <c r="E787" t="n">
+        <v>163</v>
+      </c>
+      <c r="F787" t="n">
+        <v>375</v>
+      </c>
+      <c r="G787" t="n">
+        <v>0.0548486178148311</v>
+      </c>
+      <c r="H787" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="1" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B788" t="s">
+        <v>14</v>
+      </c>
+      <c r="C788" t="n">
+        <v>6193</v>
+      </c>
+      <c r="D788" t="n">
+        <v>0.1699226252538</v>
+      </c>
+      <c r="E788" t="n">
+        <v>140</v>
+      </c>
+      <c r="F788" t="n">
+        <v>769</v>
+      </c>
+      <c r="G788" t="n">
+        <v>0.112476232265614</v>
+      </c>
+      <c r="H788" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="1" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B789" t="s">
+        <v>15</v>
+      </c>
+      <c r="C789" t="n">
+        <v>2426</v>
+      </c>
+      <c r="D789" t="n">
+        <v>0.0665642320144872</v>
+      </c>
+      <c r="E789" t="n">
+        <v>72</v>
+      </c>
+      <c r="F789" t="n">
+        <v>629</v>
+      </c>
+      <c r="G789" t="n">
+        <v>0.0919994149480766</v>
+      </c>
+      <c r="H789" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="1" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B790" t="s">
+        <v>16</v>
+      </c>
+      <c r="C790" t="n">
+        <v>1770</v>
+      </c>
+      <c r="D790" t="n">
+        <v>0.0485650002743785</v>
+      </c>
+      <c r="E790" t="n">
+        <v>64</v>
+      </c>
+      <c r="F790" t="n">
+        <v>771</v>
+      </c>
+      <c r="G790" t="n">
+        <v>0.112768758227293</v>
+      </c>
+      <c r="H790" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="1" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B791" t="s">
+        <v>17</v>
+      </c>
+      <c r="C791" t="n">
+        <v>1075</v>
+      </c>
+      <c r="D791" t="n">
+        <v>0.0294956922570378</v>
+      </c>
+      <c r="E791" t="n">
+        <v>38</v>
+      </c>
+      <c r="F791" t="n">
+        <v>895</v>
+      </c>
+      <c r="G791" t="n">
+        <v>0.130905367851397</v>
+      </c>
+      <c r="H791" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="1" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B792" t="s">
+        <v>18</v>
+      </c>
+      <c r="C792" t="n">
+        <v>724</v>
+      </c>
+      <c r="D792" t="n">
+        <v>0.0198650057619492</v>
+      </c>
+      <c r="E792" t="n">
+        <v>9</v>
+      </c>
+      <c r="F792" t="n">
+        <v>846</v>
+      </c>
+      <c r="G792" t="n">
+        <v>0.123738481790259</v>
+      </c>
+      <c r="H792" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="1" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B793" t="s">
+        <v>19</v>
+      </c>
+      <c r="C793" t="n">
+        <v>1247</v>
+      </c>
+      <c r="D793" t="n">
+        <v>0.0342150030181639</v>
+      </c>
+      <c r="E793" t="n">
+        <v>10</v>
+      </c>
+      <c r="F793" t="n">
+        <v>2342</v>
+      </c>
+      <c r="G793" t="n">
+        <v>0.342547901126225</v>
+      </c>
+      <c r="H793" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="1" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B794" t="s">
+        <v>20</v>
+      </c>
+      <c r="C794" t="n">
+        <v>28</v>
+      </c>
+      <c r="D794" t="n">
+        <v>0.000768259891346101</v>
+      </c>
+      <c r="E794" t="n">
+        <v>3</v>
+      </c>
+      <c r="F794" t="n">
+        <v>0</v>
+      </c>
+      <c r="G794" t="n">
+        <v>0</v>
+      </c>
+      <c r="H794" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -25461,6 +25799,84 @@
         <v>0</v>
       </c>
     </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B182" t="s">
+        <v>21</v>
+      </c>
+      <c r="C182" t="n">
+        <v>14601</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.400620095483729</v>
+      </c>
+      <c r="E182" t="n">
+        <v>128</v>
+      </c>
+      <c r="F182" t="n">
+        <v>2758</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0.403393301155478</v>
+      </c>
+      <c r="H182" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B183" t="s">
+        <v>22</v>
+      </c>
+      <c r="C183" t="n">
+        <v>21049</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.577539373319432</v>
+      </c>
+      <c r="E183" t="n">
+        <v>732</v>
+      </c>
+      <c r="F183" t="n">
+        <v>4079</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.596606698844522</v>
+      </c>
+      <c r="H183" t="n">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B184" t="s">
+        <v>20</v>
+      </c>
+      <c r="C184" t="n">
+        <v>796</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.0218405311968392</v>
+      </c>
+      <c r="E184" t="n">
+        <v>34</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -34705,6 +35121,162 @@
         <v>75</v>
       </c>
     </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B356" t="s">
+        <v>23</v>
+      </c>
+      <c r="C356" t="n">
+        <v>703</v>
+      </c>
+      <c r="D356" t="n">
+        <v>0.0192888108434396</v>
+      </c>
+      <c r="E356" t="n">
+        <v>1</v>
+      </c>
+      <c r="F356" t="n">
+        <v>167</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.0244259178002048</v>
+      </c>
+      <c r="H356" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B357" t="s">
+        <v>24</v>
+      </c>
+      <c r="C357" t="n">
+        <v>4997</v>
+      </c>
+      <c r="D357" t="n">
+        <v>0.137106952752017</v>
+      </c>
+      <c r="E357" t="n">
+        <v>204</v>
+      </c>
+      <c r="F357" t="n">
+        <v>910</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.13309931256399</v>
+      </c>
+      <c r="H357" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B358" t="s">
+        <v>25</v>
+      </c>
+      <c r="C358" t="n">
+        <v>14534</v>
+      </c>
+      <c r="D358" t="n">
+        <v>0.398781759315151</v>
+      </c>
+      <c r="E358" t="n">
+        <v>357</v>
+      </c>
+      <c r="F358" t="n">
+        <v>3423</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.500658183413778</v>
+      </c>
+      <c r="H358" t="n">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B359" t="s">
+        <v>26</v>
+      </c>
+      <c r="C359" t="n">
+        <v>166</v>
+      </c>
+      <c r="D359" t="n">
+        <v>0.00455468364155188</v>
+      </c>
+      <c r="E359" t="n">
+        <v>2</v>
+      </c>
+      <c r="F359" t="n">
+        <v>53</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.00775193798449612</v>
+      </c>
+      <c r="H359" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B360" t="s">
+        <v>20</v>
+      </c>
+      <c r="C360" t="n">
+        <v>6309</v>
+      </c>
+      <c r="D360" t="n">
+        <v>0.173105416232234</v>
+      </c>
+      <c r="E360" t="n">
+        <v>63</v>
+      </c>
+      <c r="F360" t="n">
+        <v>4</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.000585051923358198</v>
+      </c>
+      <c r="H360" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B361" t="s">
+        <v>27</v>
+      </c>
+      <c r="C361" t="n">
+        <v>9737</v>
+      </c>
+      <c r="D361" t="n">
+        <v>0.267162377215607</v>
+      </c>
+      <c r="E361" t="n">
+        <v>267</v>
+      </c>
+      <c r="F361" t="n">
+        <v>2280</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.333479596314173</v>
+      </c>
+      <c r="H361" t="n">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H794"/>
+  <dimension ref="A1:H807"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22612,6 +22612,370 @@
         <v>0</v>
       </c>
     </row>
+    <row r="795">
+      <c r="A795" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>&lt;1 year</t>
+        </is>
+      </c>
+      <c r="C795">
+        <v>139</v>
+      </c>
+      <c r="D795">
+        <v>0.003800514026357522</v>
+      </c>
+      <c r="E795">
+        <v>0</v>
+      </c>
+      <c r="F795">
+        <v>2</v>
+      </c>
+      <c r="G795">
+        <v>0.0002850627137970354</v>
+      </c>
+      <c r="H795">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>1-9 years</t>
+        </is>
+      </c>
+      <c r="C796">
+        <v>629</v>
+      </c>
+      <c r="D796">
+        <v>0.01719800951495598</v>
+      </c>
+      <c r="E796">
+        <v>0</v>
+      </c>
+      <c r="F796">
+        <v>2</v>
+      </c>
+      <c r="G796">
+        <v>0.0002850627137970354</v>
+      </c>
+      <c r="H796">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>10-19 years</t>
+        </is>
+      </c>
+      <c r="C797">
+        <v>1597</v>
+      </c>
+      <c r="D797">
+        <v>0.04366489856181987</v>
+      </c>
+      <c r="E797">
+        <v>2</v>
+      </c>
+      <c r="F797">
+        <v>7</v>
+      </c>
+      <c r="G797">
+        <v>0.0009977194982896238</v>
+      </c>
+      <c r="H797">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>20-29 years</t>
+        </is>
+      </c>
+      <c r="C798">
+        <v>6832</v>
+      </c>
+      <c r="D798">
+        <v>0.1867993656696014</v>
+      </c>
+      <c r="E798">
+        <v>16</v>
+      </c>
+      <c r="F798">
+        <v>58</v>
+      </c>
+      <c r="G798">
+        <v>0.008266818700114025</v>
+      </c>
+      <c r="H798">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>30-39 years</t>
+        </is>
+      </c>
+      <c r="C799">
+        <v>7184</v>
+      </c>
+      <c r="D799">
+        <v>0.19642368895937</v>
+      </c>
+      <c r="E799">
+        <v>32</v>
+      </c>
+      <c r="F799">
+        <v>146</v>
+      </c>
+      <c r="G799">
+        <v>0.02080957810718358</v>
+      </c>
+      <c r="H799">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>40-49 years</t>
+        </is>
+      </c>
+      <c r="C800">
+        <v>6695</v>
+      </c>
+      <c r="D800">
+        <v>0.1830535352982994</v>
+      </c>
+      <c r="E800">
+        <v>43</v>
+      </c>
+      <c r="F800">
+        <v>381</v>
+      </c>
+      <c r="G800">
+        <v>0.05430444697833523</v>
+      </c>
+      <c r="H800">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>50-59 years</t>
+        </is>
+      </c>
+      <c r="C801">
+        <v>6212</v>
+      </c>
+      <c r="D801">
+        <v>0.1698474326023952</v>
+      </c>
+      <c r="E801">
+        <v>19</v>
+      </c>
+      <c r="F801">
+        <v>790</v>
+      </c>
+      <c r="G801">
+        <v>0.112599771949829</v>
+      </c>
+      <c r="H801">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>60-64 years</t>
+        </is>
+      </c>
+      <c r="C802">
+        <v>2433</v>
+      </c>
+      <c r="D802">
+        <v>0.06652266637502051</v>
+      </c>
+      <c r="E802">
+        <v>7</v>
+      </c>
+      <c r="F802">
+        <v>650</v>
+      </c>
+      <c r="G802">
+        <v>0.09264538198403649</v>
+      </c>
+      <c r="H802">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>65-69 years</t>
+        </is>
+      </c>
+      <c r="C803">
+        <v>1771</v>
+      </c>
+      <c r="D803">
+        <v>0.04842237655164871</v>
+      </c>
+      <c r="E803">
+        <v>1</v>
+      </c>
+      <c r="F803">
+        <v>797</v>
+      </c>
+      <c r="G803">
+        <v>0.1135974914481186</v>
+      </c>
+      <c r="H803">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>70-74 years</t>
+        </is>
+      </c>
+      <c r="C804">
+        <v>1074</v>
+      </c>
+      <c r="D804">
+        <v>0.0293651227648056</v>
+      </c>
+      <c r="E804">
+        <v>-1</v>
+      </c>
+      <c r="F804">
+        <v>918</v>
+      </c>
+      <c r="G804">
+        <v>0.1308437856328392</v>
+      </c>
+      <c r="H804">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>75-79 years</t>
+        </is>
+      </c>
+      <c r="C805">
+        <v>728</v>
+      </c>
+      <c r="D805">
+        <v>0.01990485044020342</v>
+      </c>
+      <c r="E805">
+        <v>4</v>
+      </c>
+      <c r="F805">
+        <v>862</v>
+      </c>
+      <c r="G805">
+        <v>0.1228620296465222</v>
+      </c>
+      <c r="H805">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>80+ years</t>
+        </is>
+      </c>
+      <c r="C806">
+        <v>1249</v>
+      </c>
+      <c r="D806">
+        <v>0.03414994258216219</v>
+      </c>
+      <c r="E806">
+        <v>2</v>
+      </c>
+      <c r="F806">
+        <v>2403</v>
+      </c>
+      <c r="G806">
+        <v>0.342502850627138</v>
+      </c>
+      <c r="H806">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C807">
+        <v>31</v>
+      </c>
+      <c r="D807">
+        <v>0.0008475966533603106</v>
+      </c>
+      <c r="E807">
+        <v>3</v>
+      </c>
+      <c r="F807">
+        <v>0</v>
+      </c>
+      <c r="G807">
+        <v>0</v>
+      </c>
+      <c r="H807">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22619,7 +22983,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H184"/>
+  <dimension ref="A1:H187"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -27794,6 +28158,90 @@
         <v>0</v>
       </c>
     </row>
+    <row r="185">
+      <c r="A185" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C185">
+        <v>14632</v>
+      </c>
+      <c r="D185">
+        <v>0.4000656203860666</v>
+      </c>
+      <c r="E185">
+        <v>31</v>
+      </c>
+      <c r="F185">
+        <v>2833</v>
+      </c>
+      <c r="G185">
+        <v>0.4037913340935005</v>
+      </c>
+      <c r="H185">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C186">
+        <v>21146</v>
+      </c>
+      <c r="D186">
+        <v>0.5781702849018429</v>
+      </c>
+      <c r="E186">
+        <v>97</v>
+      </c>
+      <c r="F186">
+        <v>4183</v>
+      </c>
+      <c r="G186">
+        <v>0.5962086659064995</v>
+      </c>
+      <c r="H186">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C187">
+        <v>796</v>
+      </c>
+      <c r="D187">
+        <v>0.02176409471209056</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27801,7 +28249,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H361"/>
+  <dimension ref="A1:H367"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -37932,6 +38380,174 @@
         <v>70</v>
       </c>
     </row>
+    <row r="362">
+      <c r="A362" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C362">
+        <v>704</v>
+      </c>
+      <c r="D362">
+        <v>0.01924864657953738</v>
+      </c>
+      <c r="E362">
+        <v>1</v>
+      </c>
+      <c r="F362">
+        <v>172</v>
+      </c>
+      <c r="G362">
+        <v>0.02451539338654504</v>
+      </c>
+      <c r="H362">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C363">
+        <v>5028</v>
+      </c>
+      <c r="D363">
+        <v>0.1374747088095368</v>
+      </c>
+      <c r="E363">
+        <v>31</v>
+      </c>
+      <c r="F363">
+        <v>930</v>
+      </c>
+      <c r="G363">
+        <v>0.1325541619156214</v>
+      </c>
+      <c r="H363">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="C364">
+        <v>14583</v>
+      </c>
+      <c r="D364">
+        <v>0.3987258708372068</v>
+      </c>
+      <c r="E364">
+        <v>49</v>
+      </c>
+      <c r="F364">
+        <v>3537</v>
+      </c>
+      <c r="G364">
+        <v>0.504133409350057</v>
+      </c>
+      <c r="H364">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C365">
+        <v>168</v>
+      </c>
+      <c r="D365">
+        <v>0.004593427024662328</v>
+      </c>
+      <c r="E365">
+        <v>2</v>
+      </c>
+      <c r="F365">
+        <v>53</v>
+      </c>
+      <c r="G365">
+        <v>0.007554161915621437</v>
+      </c>
+      <c r="H365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C366">
+        <v>6334</v>
+      </c>
+      <c r="D366">
+        <v>0.1731831355607809</v>
+      </c>
+      <c r="E366">
+        <v>25</v>
+      </c>
+      <c r="F366">
+        <v>4</v>
+      </c>
+      <c r="G366">
+        <v>0.0005701254275940707</v>
+      </c>
+      <c r="H366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C367">
+        <v>9757</v>
+      </c>
+      <c r="D367">
+        <v>0.2667742111882758</v>
+      </c>
+      <c r="E367">
+        <v>20</v>
+      </c>
+      <c r="F367">
+        <v>2320</v>
+      </c>
+      <c r="G367">
+        <v>0.330672748004561</v>
+      </c>
+      <c r="H367">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H807"/>
+  <dimension ref="A1:H820"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22976,6 +22976,370 @@
         <v>0</v>
       </c>
     </row>
+    <row r="808">
+      <c r="A808" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>&lt;1 year</t>
+        </is>
+      </c>
+      <c r="C808">
+        <v>139</v>
+      </c>
+      <c r="D808">
+        <v>0.3760517274</v>
+      </c>
+      <c r="E808">
+        <v>0</v>
+      </c>
+      <c r="F808">
+        <v>2</v>
+      </c>
+      <c r="G808">
+        <v>0.0275444154</v>
+      </c>
+      <c r="H808">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>1-9 years</t>
+        </is>
+      </c>
+      <c r="C809">
+        <v>631</v>
+      </c>
+      <c r="D809">
+        <v>0.017071125179</v>
+      </c>
+      <c r="E809">
+        <v>2</v>
+      </c>
+      <c r="F809">
+        <v>4</v>
+      </c>
+      <c r="G809">
+        <v>0.0550888307</v>
+      </c>
+      <c r="H809">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>10-19 years</t>
+        </is>
+      </c>
+      <c r="C810">
+        <v>1607</v>
+      </c>
+      <c r="D810">
+        <v>0.043475908341</v>
+      </c>
+      <c r="E810">
+        <v>10</v>
+      </c>
+      <c r="F810">
+        <v>7</v>
+      </c>
+      <c r="G810">
+        <v>0.0964054538</v>
+      </c>
+      <c r="H810">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>20-29 years</t>
+        </is>
+      </c>
+      <c r="C811">
+        <v>6890</v>
+      </c>
+      <c r="D811">
+        <v>0.18640261884</v>
+      </c>
+      <c r="E811">
+        <v>58</v>
+      </c>
+      <c r="F811">
+        <v>59</v>
+      </c>
+      <c r="G811">
+        <v>0.8125602534</v>
+      </c>
+      <c r="H811">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>30-39 years</t>
+        </is>
+      </c>
+      <c r="C812">
+        <v>7291</v>
+      </c>
+      <c r="D812">
+        <v>0.19725130536</v>
+      </c>
+      <c r="E812">
+        <v>107</v>
+      </c>
+      <c r="F812">
+        <v>149</v>
+      </c>
+      <c r="G812">
+        <v>0.02052058945</v>
+      </c>
+      <c r="H812">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>40-49 years</t>
+        </is>
+      </c>
+      <c r="C813">
+        <v>6766</v>
+      </c>
+      <c r="D813">
+        <v>0.18304791278</v>
+      </c>
+      <c r="E813">
+        <v>71</v>
+      </c>
+      <c r="F813">
+        <v>392</v>
+      </c>
+      <c r="G813">
+        <v>0.053987054125</v>
+      </c>
+      <c r="H813">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>50-59 years</t>
+        </is>
+      </c>
+      <c r="C814">
+        <v>6292</v>
+      </c>
+      <c r="D814">
+        <v>0.17022427833</v>
+      </c>
+      <c r="E814">
+        <v>80</v>
+      </c>
+      <c r="F814">
+        <v>819</v>
+      </c>
+      <c r="G814">
+        <v>0.11279438094</v>
+      </c>
+      <c r="H814">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>60-64 years</t>
+        </is>
+      </c>
+      <c r="C815">
+        <v>2461</v>
+      </c>
+      <c r="D815">
+        <v>0.066580093607</v>
+      </c>
+      <c r="E815">
+        <v>28</v>
+      </c>
+      <c r="F815">
+        <v>673</v>
+      </c>
+      <c r="G815">
+        <v>0.09268695771899999</v>
+      </c>
+      <c r="H815">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>65-69 years</t>
+        </is>
+      </c>
+      <c r="C816">
+        <v>1787</v>
+      </c>
+      <c r="D816">
+        <v>0.04834564294</v>
+      </c>
+      <c r="E816">
+        <v>16</v>
+      </c>
+      <c r="F816">
+        <v>833</v>
+      </c>
+      <c r="G816">
+        <v>0.11472249002</v>
+      </c>
+      <c r="H816">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>70-74 years</t>
+        </is>
+      </c>
+      <c r="C817">
+        <v>1085</v>
+      </c>
+      <c r="D817">
+        <v>0.029353678002</v>
+      </c>
+      <c r="E817">
+        <v>11</v>
+      </c>
+      <c r="F817">
+        <v>947</v>
+      </c>
+      <c r="G817">
+        <v>0.13042280678</v>
+      </c>
+      <c r="H817">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>75-79 years</t>
+        </is>
+      </c>
+      <c r="C818">
+        <v>732</v>
+      </c>
+      <c r="D818">
+        <v>0.019803587371</v>
+      </c>
+      <c r="E818">
+        <v>4</v>
+      </c>
+      <c r="F818">
+        <v>902</v>
+      </c>
+      <c r="G818">
+        <v>0.12422531332</v>
+      </c>
+      <c r="H818">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>80+ years</t>
+        </is>
+      </c>
+      <c r="C819">
+        <v>1251</v>
+      </c>
+      <c r="D819">
+        <v>0.033844655466</v>
+      </c>
+      <c r="E819">
+        <v>2</v>
+      </c>
+      <c r="F819">
+        <v>2474</v>
+      </c>
+      <c r="G819">
+        <v>0.34072441812</v>
+      </c>
+      <c r="H819">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C820">
+        <v>31</v>
+      </c>
+      <c r="D820">
+        <v>0.08386765140000001</v>
+      </c>
+      <c r="E820">
+        <v>0</v>
+      </c>
+      <c r="F820">
+        <v>0</v>
+      </c>
+      <c r="G820">
+        <v>0</v>
+      </c>
+      <c r="H820">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22983,7 +23347,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H187"/>
+  <dimension ref="A1:H190"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -28242,6 +28606,90 @@
         <v>0</v>
       </c>
     </row>
+    <row r="188">
+      <c r="A188" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C188">
+        <v>14658</v>
+      </c>
+      <c r="D188">
+        <v>0.3965587208800001</v>
+      </c>
+      <c r="E188">
+        <v>26</v>
+      </c>
+      <c r="F188">
+        <v>2943</v>
+      </c>
+      <c r="G188">
+        <v>0.40531607217</v>
+      </c>
+      <c r="H188">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C189">
+        <v>21503</v>
+      </c>
+      <c r="D189">
+        <v>0.58174390607</v>
+      </c>
+      <c r="E189">
+        <v>357</v>
+      </c>
+      <c r="F189">
+        <v>4318</v>
+      </c>
+      <c r="G189">
+        <v>0.59468392783</v>
+      </c>
+      <c r="H189">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C190">
+        <v>802</v>
+      </c>
+      <c r="D190">
+        <v>0.021697373049</v>
+      </c>
+      <c r="E190">
+        <v>6</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -28249,7 +28697,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H367"/>
+  <dimension ref="A1:H373"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -38548,6 +38996,174 @@
         <v>40</v>
       </c>
     </row>
+    <row r="368">
+      <c r="A368" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C368">
+        <v>707</v>
+      </c>
+      <c r="D368">
+        <v>0.019127235343</v>
+      </c>
+      <c r="E368">
+        <v>3</v>
+      </c>
+      <c r="F368">
+        <v>174</v>
+      </c>
+      <c r="G368">
+        <v>0.023963641372</v>
+      </c>
+      <c r="H368">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C369">
+        <v>5128</v>
+      </c>
+      <c r="D369">
+        <v>0.13873332792</v>
+      </c>
+      <c r="E369">
+        <v>100</v>
+      </c>
+      <c r="F369">
+        <v>949</v>
+      </c>
+      <c r="G369">
+        <v>0.13069825093</v>
+      </c>
+      <c r="H369">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="C370">
+        <v>14744</v>
+      </c>
+      <c r="D370">
+        <v>0.39888537186</v>
+      </c>
+      <c r="E370">
+        <v>161</v>
+      </c>
+      <c r="F370">
+        <v>3685</v>
+      </c>
+      <c r="G370">
+        <v>0.5075058531900001</v>
+      </c>
+      <c r="H370">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C371">
+        <v>169</v>
+      </c>
+      <c r="D371">
+        <v>0.4572139707</v>
+      </c>
+      <c r="E371">
+        <v>1</v>
+      </c>
+      <c r="F371">
+        <v>53</v>
+      </c>
+      <c r="G371">
+        <v>0.7299270073</v>
+      </c>
+      <c r="H371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C372">
+        <v>6338</v>
+      </c>
+      <c r="D372">
+        <v>0.17146876606</v>
+      </c>
+      <c r="E372">
+        <v>4</v>
+      </c>
+      <c r="F372">
+        <v>4</v>
+      </c>
+      <c r="G372">
+        <v>0.0550888307</v>
+      </c>
+      <c r="H372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C373">
+        <v>9877</v>
+      </c>
+      <c r="D373">
+        <v>0.26721315911</v>
+      </c>
+      <c r="E373">
+        <v>120</v>
+      </c>
+      <c r="F373">
+        <v>2396</v>
+      </c>
+      <c r="G373">
+        <v>0.32998209613</v>
+      </c>
+      <c r="H373">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H820"/>
+  <dimension ref="A1:H833"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -23340,6 +23340,370 @@
         <v>0</v>
       </c>
     </row>
+    <row r="821">
+      <c r="A821" s="2">
+        <v>44048</v>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>&lt;1 year</t>
+        </is>
+      </c>
+      <c r="C821">
+        <v>139</v>
+      </c>
+      <c r="D821">
+        <v>0.0036</v>
+      </c>
+      <c r="E821">
+        <v>0</v>
+      </c>
+      <c r="F821">
+        <v>2</v>
+      </c>
+      <c r="G821">
+        <v>0.0003</v>
+      </c>
+      <c r="H821">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" s="2">
+        <v>44048</v>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>1-9 years</t>
+        </is>
+      </c>
+      <c r="C822">
+        <v>636</v>
+      </c>
+      <c r="D822">
+        <v>0.0167</v>
+      </c>
+      <c r="E822">
+        <v>5</v>
+      </c>
+      <c r="F822">
+        <v>4</v>
+      </c>
+      <c r="G822">
+        <v>0.0005</v>
+      </c>
+      <c r="H822">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" s="2">
+        <v>44048</v>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>10-19 years</t>
+        </is>
+      </c>
+      <c r="C823">
+        <v>1623</v>
+      </c>
+      <c r="D823">
+        <v>0.0425</v>
+      </c>
+      <c r="E823">
+        <v>16</v>
+      </c>
+      <c r="F823">
+        <v>7</v>
+      </c>
+      <c r="G823">
+        <v>0.0009</v>
+      </c>
+      <c r="H823">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" s="2">
+        <v>44048</v>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>20-29 years</t>
+        </is>
+      </c>
+      <c r="C824">
+        <v>7062</v>
+      </c>
+      <c r="D824">
+        <v>0.1851</v>
+      </c>
+      <c r="E824">
+        <v>172</v>
+      </c>
+      <c r="F824">
+        <v>60</v>
+      </c>
+      <c r="G824">
+        <v>0.008</v>
+      </c>
+      <c r="H824">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" s="2">
+        <v>44048</v>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>30-39 years</t>
+        </is>
+      </c>
+      <c r="C825">
+        <v>7557</v>
+      </c>
+      <c r="D825">
+        <v>0.1981</v>
+      </c>
+      <c r="E825">
+        <v>266</v>
+      </c>
+      <c r="F825">
+        <v>154</v>
+      </c>
+      <c r="G825">
+        <v>0.0205</v>
+      </c>
+      <c r="H825">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" s="2">
+        <v>44048</v>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>40-49 years</t>
+        </is>
+      </c>
+      <c r="C826">
+        <v>7041</v>
+      </c>
+      <c r="D826">
+        <v>0.1846</v>
+      </c>
+      <c r="E826">
+        <v>275</v>
+      </c>
+      <c r="F826">
+        <v>405</v>
+      </c>
+      <c r="G826">
+        <v>0.054</v>
+      </c>
+      <c r="H826">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" s="2">
+        <v>44048</v>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>50-59 years</t>
+        </is>
+      </c>
+      <c r="C827">
+        <v>6513</v>
+      </c>
+      <c r="D827">
+        <v>0.1707</v>
+      </c>
+      <c r="E827">
+        <v>221</v>
+      </c>
+      <c r="F827">
+        <v>855</v>
+      </c>
+      <c r="G827">
+        <v>0.11404561825</v>
+      </c>
+      <c r="H827">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" s="2">
+        <v>44048</v>
+      </c>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>60-64 years</t>
+        </is>
+      </c>
+      <c r="C828">
+        <v>2567</v>
+      </c>
+      <c r="D828">
+        <v>0.0673</v>
+      </c>
+      <c r="E828">
+        <v>106</v>
+      </c>
+      <c r="F828">
+        <v>693</v>
+      </c>
+      <c r="G828">
+        <v>0.0924</v>
+      </c>
+      <c r="H828">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" s="2">
+        <v>44048</v>
+      </c>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>65-69 years</t>
+        </is>
+      </c>
+      <c r="C829">
+        <v>1853</v>
+      </c>
+      <c r="D829">
+        <v>0.0486</v>
+      </c>
+      <c r="E829">
+        <v>66</v>
+      </c>
+      <c r="F829">
+        <v>858</v>
+      </c>
+      <c r="G829">
+        <v>0.1144</v>
+      </c>
+      <c r="H829">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" s="2">
+        <v>44048</v>
+      </c>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>70-74 years</t>
+        </is>
+      </c>
+      <c r="C830">
+        <v>1113</v>
+      </c>
+      <c r="D830">
+        <v>0.0292</v>
+      </c>
+      <c r="E830">
+        <v>28</v>
+      </c>
+      <c r="F830">
+        <v>977</v>
+      </c>
+      <c r="G830">
+        <v>0.1303</v>
+      </c>
+      <c r="H830">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="2">
+        <v>44048</v>
+      </c>
+      <c r="B831" t="inlineStr">
+        <is>
+          <t>75-79 years</t>
+        </is>
+      </c>
+      <c r="C831">
+        <v>746</v>
+      </c>
+      <c r="D831">
+        <v>0.0196</v>
+      </c>
+      <c r="E831">
+        <v>14</v>
+      </c>
+      <c r="F831">
+        <v>925</v>
+      </c>
+      <c r="G831">
+        <v>0.12338268641</v>
+      </c>
+      <c r="H831">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" s="2">
+        <v>44048</v>
+      </c>
+      <c r="B832" t="inlineStr">
+        <is>
+          <t>80+ years</t>
+        </is>
+      </c>
+      <c r="C832">
+        <v>1263</v>
+      </c>
+      <c r="D832">
+        <v>0.0331</v>
+      </c>
+      <c r="E832">
+        <v>12</v>
+      </c>
+      <c r="F832">
+        <v>2557</v>
+      </c>
+      <c r="G832">
+        <v>0.3411</v>
+      </c>
+      <c r="H832">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" s="2">
+        <v>44048</v>
+      </c>
+      <c r="B833" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C833">
+        <v>31</v>
+      </c>
+      <c r="D833">
+        <v>0.0008</v>
+      </c>
+      <c r="E833">
+        <v>0</v>
+      </c>
+      <c r="F833">
+        <v>0</v>
+      </c>
+      <c r="G833">
+        <v>0</v>
+      </c>
+      <c r="H833">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23347,7 +23711,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H190"/>
+  <dimension ref="A1:H193"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -28690,6 +29054,90 @@
         <v>0</v>
       </c>
     </row>
+    <row r="191">
+      <c r="A191" s="2">
+        <v>44048</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C191">
+        <v>14786</v>
+      </c>
+      <c r="D191">
+        <v>0.3876</v>
+      </c>
+      <c r="E191">
+        <v>128</v>
+      </c>
+      <c r="F191">
+        <v>3045</v>
+      </c>
+      <c r="G191">
+        <v>0.4062</v>
+      </c>
+      <c r="H191">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2">
+        <v>44048</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C192">
+        <v>22511</v>
+      </c>
+      <c r="D192">
+        <v>0.5902</v>
+      </c>
+      <c r="E192">
+        <v>1008</v>
+      </c>
+      <c r="F192">
+        <v>4452</v>
+      </c>
+      <c r="G192">
+        <v>0.5938</v>
+      </c>
+      <c r="H192">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2">
+        <v>44048</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C193">
+        <v>847</v>
+      </c>
+      <c r="D193">
+        <v>0.0222</v>
+      </c>
+      <c r="E193">
+        <v>45</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -28697,7 +29145,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H373"/>
+  <dimension ref="A1:H379"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -39164,6 +39612,174 @@
         <v>76</v>
       </c>
     </row>
+    <row r="374">
+      <c r="A374" s="2">
+        <v>44048</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C374">
+        <v>711</v>
+      </c>
+      <c r="D374">
+        <v>0.01863989094</v>
+      </c>
+      <c r="E374">
+        <v>4</v>
+      </c>
+      <c r="F374">
+        <v>180</v>
+      </c>
+      <c r="G374">
+        <v>0.024</v>
+      </c>
+      <c r="H374">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="2">
+        <v>44048</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C375">
+        <v>5444</v>
+      </c>
+      <c r="D375">
+        <v>0.1427</v>
+      </c>
+      <c r="E375">
+        <v>316</v>
+      </c>
+      <c r="F375">
+        <v>971</v>
+      </c>
+      <c r="G375">
+        <v>0.1295</v>
+      </c>
+      <c r="H375">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="2">
+        <v>44048</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="C376">
+        <v>15165</v>
+      </c>
+      <c r="D376">
+        <v>0.3976</v>
+      </c>
+      <c r="E376">
+        <v>421</v>
+      </c>
+      <c r="F376">
+        <v>3822</v>
+      </c>
+      <c r="G376">
+        <v>0.5098</v>
+      </c>
+      <c r="H376">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="2">
+        <v>44048</v>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C377">
+        <v>171</v>
+      </c>
+      <c r="D377">
+        <v>0.0045</v>
+      </c>
+      <c r="E377">
+        <v>2</v>
+      </c>
+      <c r="F377">
+        <v>53</v>
+      </c>
+      <c r="G377">
+        <v>0.0071</v>
+      </c>
+      <c r="H377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="2">
+        <v>44048</v>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C378">
+        <v>6385</v>
+      </c>
+      <c r="D378">
+        <v>0.1674</v>
+      </c>
+      <c r="E378">
+        <v>47</v>
+      </c>
+      <c r="F378">
+        <v>4</v>
+      </c>
+      <c r="G378">
+        <v>0.0005</v>
+      </c>
+      <c r="H378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="2">
+        <v>44048</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C379">
+        <v>10268</v>
+      </c>
+      <c r="D379">
+        <v>0.2692</v>
+      </c>
+      <c r="E379">
+        <v>391</v>
+      </c>
+      <c r="F379">
+        <v>2467</v>
+      </c>
+      <c r="G379">
+        <v>0.3291</v>
+      </c>
+      <c r="H379">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H833"/>
+  <dimension ref="A1:H846"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -23704,6 +23704,370 @@
         <v>0</v>
       </c>
     </row>
+    <row r="834">
+      <c r="A834" s="2">
+        <v>44049</v>
+      </c>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t>&lt;1 year</t>
+        </is>
+      </c>
+      <c r="C834">
+        <v>141</v>
+      </c>
+      <c r="D834">
+        <v>0.3620025674</v>
+      </c>
+      <c r="E834">
+        <v>2</v>
+      </c>
+      <c r="F834">
+        <v>2</v>
+      </c>
+      <c r="G834">
+        <v>0.0256311675</v>
+      </c>
+      <c r="H834">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="2">
+        <v>44049</v>
+      </c>
+      <c r="B835" t="inlineStr">
+        <is>
+          <t>1-9 years</t>
+        </is>
+      </c>
+      <c r="C835">
+        <v>641</v>
+      </c>
+      <c r="D835">
+        <v>0.016456996149</v>
+      </c>
+      <c r="E835">
+        <v>5</v>
+      </c>
+      <c r="F835">
+        <v>4</v>
+      </c>
+      <c r="G835">
+        <v>0.051262335</v>
+      </c>
+      <c r="H835">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="2">
+        <v>44049</v>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>10-19 years</t>
+        </is>
+      </c>
+      <c r="C836">
+        <v>1636</v>
+      </c>
+      <c r="D836">
+        <v>0.042002567394</v>
+      </c>
+      <c r="E836">
+        <v>13</v>
+      </c>
+      <c r="F836">
+        <v>8</v>
+      </c>
+      <c r="G836">
+        <v>0.10252467</v>
+      </c>
+      <c r="H836">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" s="2">
+        <v>44049</v>
+      </c>
+      <c r="B837" t="inlineStr">
+        <is>
+          <t>20-29 years</t>
+        </is>
+      </c>
+      <c r="C837">
+        <v>7196</v>
+      </c>
+      <c r="D837">
+        <v>0.18474967908</v>
+      </c>
+      <c r="E837">
+        <v>134</v>
+      </c>
+      <c r="F837">
+        <v>61</v>
+      </c>
+      <c r="G837">
+        <v>0.7817506087</v>
+      </c>
+      <c r="H837">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" s="2">
+        <v>44049</v>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>30-39 years</t>
+        </is>
+      </c>
+      <c r="C838">
+        <v>7765</v>
+      </c>
+      <c r="D838">
+        <v>0.19935815148</v>
+      </c>
+      <c r="E838">
+        <v>208</v>
+      </c>
+      <c r="F838">
+        <v>161</v>
+      </c>
+      <c r="G838">
+        <v>0.020633089837</v>
+      </c>
+      <c r="H838">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" s="2">
+        <v>44049</v>
+      </c>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t>40-49 years</t>
+        </is>
+      </c>
+      <c r="C839">
+        <v>7243</v>
+      </c>
+      <c r="D839">
+        <v>0.1859563543</v>
+      </c>
+      <c r="E839">
+        <v>202</v>
+      </c>
+      <c r="F839">
+        <v>421</v>
+      </c>
+      <c r="G839">
+        <v>0.053953607587</v>
+      </c>
+      <c r="H839">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" s="2">
+        <v>44049</v>
+      </c>
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>50-59 years</t>
+        </is>
+      </c>
+      <c r="C840">
+        <v>6666</v>
+      </c>
+      <c r="D840">
+        <v>0.17114249037</v>
+      </c>
+      <c r="E840">
+        <v>153</v>
+      </c>
+      <c r="F840">
+        <v>885</v>
+      </c>
+      <c r="G840">
+        <v>0.11341791619</v>
+      </c>
+      <c r="H840">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" s="2">
+        <v>44049</v>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>60-64 years</t>
+        </is>
+      </c>
+      <c r="C841">
+        <v>2610</v>
+      </c>
+      <c r="D841">
+        <v>0.06700898587900001</v>
+      </c>
+      <c r="E841">
+        <v>43</v>
+      </c>
+      <c r="F841">
+        <v>726</v>
+      </c>
+      <c r="G841">
+        <v>0.09304113802399999</v>
+      </c>
+      <c r="H841">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" s="2">
+        <v>44049</v>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>65-69 years</t>
+        </is>
+      </c>
+      <c r="C842">
+        <v>1877</v>
+      </c>
+      <c r="D842">
+        <v>0.04818998716300001</v>
+      </c>
+      <c r="E842">
+        <v>24</v>
+      </c>
+      <c r="F842">
+        <v>897</v>
+      </c>
+      <c r="G842">
+        <v>0.11495578624</v>
+      </c>
+      <c r="H842">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" s="2">
+        <v>44049</v>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>70-74 years</t>
+        </is>
+      </c>
+      <c r="C843">
+        <v>1127</v>
+      </c>
+      <c r="D843">
+        <v>0.028934531451</v>
+      </c>
+      <c r="E843">
+        <v>14</v>
+      </c>
+      <c r="F843">
+        <v>1015</v>
+      </c>
+      <c r="G843">
+        <v>0.13007817506</v>
+      </c>
+      <c r="H843">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" s="2">
+        <v>44049</v>
+      </c>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t>75-79 years</t>
+        </is>
+      </c>
+      <c r="C844">
+        <v>753</v>
+      </c>
+      <c r="D844">
+        <v>0.019332477535</v>
+      </c>
+      <c r="E844">
+        <v>7</v>
+      </c>
+      <c r="F844">
+        <v>971</v>
+      </c>
+      <c r="G844">
+        <v>0.12443931821</v>
+      </c>
+      <c r="H844">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" s="2">
+        <v>44049</v>
+      </c>
+      <c r="B845" t="inlineStr">
+        <is>
+          <t>80+ years</t>
+        </is>
+      </c>
+      <c r="C845">
+        <v>1264</v>
+      </c>
+      <c r="D845">
+        <v>0.032451861361</v>
+      </c>
+      <c r="E845">
+        <v>1</v>
+      </c>
+      <c r="F845">
+        <v>2652</v>
+      </c>
+      <c r="G845">
+        <v>0.33986928105</v>
+      </c>
+      <c r="H845">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" s="2">
+        <v>44049</v>
+      </c>
+      <c r="B846" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C846">
+        <v>31</v>
+      </c>
+      <c r="D846">
+        <v>0.0795892169</v>
+      </c>
+      <c r="E846">
+        <v>0</v>
+      </c>
+      <c r="F846">
+        <v>0</v>
+      </c>
+      <c r="G846">
+        <v>0</v>
+      </c>
+      <c r="H846">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23711,7 +24075,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H193"/>
+  <dimension ref="A1:H196"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -29138,6 +29502,90 @@
         <v>0</v>
       </c>
     </row>
+    <row r="194">
+      <c r="A194" s="2">
+        <v>44049</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C194">
+        <v>14839</v>
+      </c>
+      <c r="D194">
+        <v>0.3809756097599999</v>
+      </c>
+      <c r="E194">
+        <v>53</v>
+      </c>
+      <c r="F194">
+        <v>3179</v>
+      </c>
+      <c r="G194">
+        <v>0.40740740741</v>
+      </c>
+      <c r="H194">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2">
+        <v>44049</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C195">
+        <v>23247</v>
+      </c>
+      <c r="D195">
+        <v>0.59684210526</v>
+      </c>
+      <c r="E195">
+        <v>736</v>
+      </c>
+      <c r="F195">
+        <v>4624</v>
+      </c>
+      <c r="G195">
+        <v>0.59259259259</v>
+      </c>
+      <c r="H195">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2">
+        <v>44049</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C196">
+        <v>864</v>
+      </c>
+      <c r="D196">
+        <v>0.022182284981</v>
+      </c>
+      <c r="E196">
+        <v>17</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+      <c r="H196">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29145,7 +29593,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H379"/>
+  <dimension ref="A1:H385"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -39780,6 +40228,174 @@
         <v>71</v>
       </c>
     </row>
+    <row r="380">
+      <c r="A380" s="2">
+        <v>44049</v>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C380">
+        <v>716</v>
+      </c>
+      <c r="D380">
+        <v>0.01838254172</v>
+      </c>
+      <c r="E380">
+        <v>5</v>
+      </c>
+      <c r="F380">
+        <v>184</v>
+      </c>
+      <c r="G380">
+        <v>0.0235806741</v>
+      </c>
+      <c r="H380">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="2">
+        <v>44049</v>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C381">
+        <v>5674</v>
+      </c>
+      <c r="D381">
+        <v>0.14567394095</v>
+      </c>
+      <c r="E381">
+        <v>230</v>
+      </c>
+      <c r="F381">
+        <v>1003</v>
+      </c>
+      <c r="G381">
+        <v>0.12854030501</v>
+      </c>
+      <c r="H381">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="2">
+        <v>44049</v>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="C382">
+        <v>15453</v>
+      </c>
+      <c r="D382">
+        <v>0.3967394095</v>
+      </c>
+      <c r="E382">
+        <v>288</v>
+      </c>
+      <c r="F382">
+        <v>4009</v>
+      </c>
+      <c r="G382">
+        <v>0.51377675253</v>
+      </c>
+      <c r="H382">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="2">
+        <v>44049</v>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C383">
+        <v>172</v>
+      </c>
+      <c r="D383">
+        <v>0.4415917843</v>
+      </c>
+      <c r="E383">
+        <v>1</v>
+      </c>
+      <c r="F383">
+        <v>55</v>
+      </c>
+      <c r="G383">
+        <v>0.7048571062</v>
+      </c>
+      <c r="H383">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="2">
+        <v>44049</v>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C384">
+        <v>6405</v>
+      </c>
+      <c r="D384">
+        <v>0.16444159178</v>
+      </c>
+      <c r="E384">
+        <v>20</v>
+      </c>
+      <c r="F384">
+        <v>4</v>
+      </c>
+      <c r="G384">
+        <v>0.051262335</v>
+      </c>
+      <c r="H384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="2">
+        <v>44049</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C385">
+        <v>10530</v>
+      </c>
+      <c r="D385">
+        <v>0.2703465982</v>
+      </c>
+      <c r="E385">
+        <v>262</v>
+      </c>
+      <c r="F385">
+        <v>2548</v>
+      </c>
+      <c r="G385">
+        <v>0.32654107395</v>
+      </c>
+      <c r="H385">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H846"/>
+  <dimension ref="A1:H859"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -24068,6 +24068,370 @@
         <v>0</v>
       </c>
     </row>
+    <row r="847">
+      <c r="A847" s="2">
+        <v>44050</v>
+      </c>
+      <c r="B847" t="inlineStr">
+        <is>
+          <t>&lt;1 year</t>
+        </is>
+      </c>
+      <c r="C847">
+        <v>144</v>
+      </c>
+      <c r="D847">
+        <v>0.3640500569</v>
+      </c>
+      <c r="E847">
+        <v>3</v>
+      </c>
+      <c r="F847">
+        <v>2</v>
+      </c>
+      <c r="G847">
+        <v>0.0247035573</v>
+      </c>
+      <c r="H847">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" s="2">
+        <v>44050</v>
+      </c>
+      <c r="B848" t="inlineStr">
+        <is>
+          <t>1-9 years</t>
+        </is>
+      </c>
+      <c r="C848">
+        <v>643</v>
+      </c>
+      <c r="D848">
+        <v>0.01625584629</v>
+      </c>
+      <c r="E848">
+        <v>2</v>
+      </c>
+      <c r="F848">
+        <v>4</v>
+      </c>
+      <c r="G848">
+        <v>0.0494071146</v>
+      </c>
+      <c r="H848">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" s="2">
+        <v>44050</v>
+      </c>
+      <c r="B849" t="inlineStr">
+        <is>
+          <t>10-19 years</t>
+        </is>
+      </c>
+      <c r="C849">
+        <v>1649</v>
+      </c>
+      <c r="D849">
+        <v>0.041688787764</v>
+      </c>
+      <c r="E849">
+        <v>13</v>
+      </c>
+      <c r="F849">
+        <v>8</v>
+      </c>
+      <c r="G849">
+        <v>0.09881422920000001</v>
+      </c>
+      <c r="H849">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" s="2">
+        <v>44050</v>
+      </c>
+      <c r="B850" t="inlineStr">
+        <is>
+          <t>20-29 years</t>
+        </is>
+      </c>
+      <c r="C850">
+        <v>7301</v>
+      </c>
+      <c r="D850">
+        <v>0.18457843509</v>
+      </c>
+      <c r="E850">
+        <v>105</v>
+      </c>
+      <c r="F850">
+        <v>61</v>
+      </c>
+      <c r="G850">
+        <v>0.753458498</v>
+      </c>
+      <c r="H850">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" s="2">
+        <v>44050</v>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>30-39 years</t>
+        </is>
+      </c>
+      <c r="C851">
+        <v>7928</v>
+      </c>
+      <c r="D851">
+        <v>0.20042978132</v>
+      </c>
+      <c r="E851">
+        <v>163</v>
+      </c>
+      <c r="F851">
+        <v>168</v>
+      </c>
+      <c r="G851">
+        <v>0.020750988142</v>
+      </c>
+      <c r="H851">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" s="2">
+        <v>44050</v>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>40-49 years</t>
+        </is>
+      </c>
+      <c r="C852">
+        <v>7398</v>
+      </c>
+      <c r="D852">
+        <v>0.18703071672</v>
+      </c>
+      <c r="E852">
+        <v>155</v>
+      </c>
+      <c r="F852">
+        <v>439</v>
+      </c>
+      <c r="G852">
+        <v>0.0542243083</v>
+      </c>
+      <c r="H852">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" s="2">
+        <v>44050</v>
+      </c>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t>50-59 years</t>
+        </is>
+      </c>
+      <c r="C853">
+        <v>6762</v>
+      </c>
+      <c r="D853">
+        <v>0.17095183921</v>
+      </c>
+      <c r="E853">
+        <v>96</v>
+      </c>
+      <c r="F853">
+        <v>922</v>
+      </c>
+      <c r="G853">
+        <v>0.11388339921</v>
+      </c>
+      <c r="H853">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" s="2">
+        <v>44050</v>
+      </c>
+      <c r="B854" t="inlineStr">
+        <is>
+          <t>60-64 years</t>
+        </is>
+      </c>
+      <c r="C854">
+        <v>2646</v>
+      </c>
+      <c r="D854">
+        <v>0.066894197952</v>
+      </c>
+      <c r="E854">
+        <v>36</v>
+      </c>
+      <c r="F854">
+        <v>770</v>
+      </c>
+      <c r="G854">
+        <v>0.095108695652</v>
+      </c>
+      <c r="H854">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" s="2">
+        <v>44050</v>
+      </c>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>65-69 years</t>
+        </is>
+      </c>
+      <c r="C855">
+        <v>1897</v>
+      </c>
+      <c r="D855">
+        <v>0.047958538744</v>
+      </c>
+      <c r="E855">
+        <v>20</v>
+      </c>
+      <c r="F855">
+        <v>932</v>
+      </c>
+      <c r="G855">
+        <v>0.11511857708</v>
+      </c>
+      <c r="H855">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" s="2">
+        <v>44050</v>
+      </c>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t>70-74 years</t>
+        </is>
+      </c>
+      <c r="C856">
+        <v>1131</v>
+      </c>
+      <c r="D856">
+        <v>0.028593098218</v>
+      </c>
+      <c r="E856">
+        <v>4</v>
+      </c>
+      <c r="F856">
+        <v>1045</v>
+      </c>
+      <c r="G856">
+        <v>0.12907608696</v>
+      </c>
+      <c r="H856">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" s="2">
+        <v>44050</v>
+      </c>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>75-79 years</t>
+        </is>
+      </c>
+      <c r="C857">
+        <v>758</v>
+      </c>
+      <c r="D857">
+        <v>0.019163190494</v>
+      </c>
+      <c r="E857">
+        <v>5</v>
+      </c>
+      <c r="F857">
+        <v>1004</v>
+      </c>
+      <c r="G857">
+        <v>0.12401185771</v>
+      </c>
+      <c r="H857">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" s="2">
+        <v>44050</v>
+      </c>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t>80+ years</t>
+        </is>
+      </c>
+      <c r="C858">
+        <v>1267</v>
+      </c>
+      <c r="D858">
+        <v>0.032031348755</v>
+      </c>
+      <c r="E858">
+        <v>3</v>
+      </c>
+      <c r="F858">
+        <v>2741</v>
+      </c>
+      <c r="G858">
+        <v>0.33856225296</v>
+      </c>
+      <c r="H858">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" s="2">
+        <v>44050</v>
+      </c>
+      <c r="B859" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C859">
+        <v>31</v>
+      </c>
+      <c r="D859">
+        <v>0.0783718872</v>
+      </c>
+      <c r="E859">
+        <v>0</v>
+      </c>
+      <c r="F859">
+        <v>0</v>
+      </c>
+      <c r="G859">
+        <v>0</v>
+      </c>
+      <c r="H859">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24075,7 +24439,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H196"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -29586,6 +29950,90 @@
         <v>0</v>
       </c>
     </row>
+    <row r="197">
+      <c r="A197" s="2">
+        <v>44050</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C197">
+        <v>14901</v>
+      </c>
+      <c r="D197">
+        <v>0.37671596511</v>
+      </c>
+      <c r="E197">
+        <v>62</v>
+      </c>
+      <c r="F197">
+        <v>3307</v>
+      </c>
+      <c r="G197">
+        <v>0.40847332016</v>
+      </c>
+      <c r="H197">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2">
+        <v>44050</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C198">
+        <v>23776</v>
+      </c>
+      <c r="D198">
+        <v>0.60108709392</v>
+      </c>
+      <c r="E198">
+        <v>529</v>
+      </c>
+      <c r="F198">
+        <v>4789</v>
+      </c>
+      <c r="G198">
+        <v>0.59152667984</v>
+      </c>
+      <c r="H198">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2">
+        <v>44050</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C199">
+        <v>878</v>
+      </c>
+      <c r="D199">
+        <v>0.022196940968</v>
+      </c>
+      <c r="E199">
+        <v>14</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+      <c r="H199">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29593,7 +30041,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H385"/>
+  <dimension ref="A1:H391"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -40396,6 +40844,174 @@
         <v>81</v>
       </c>
     </row>
+    <row r="386">
+      <c r="A386" s="2">
+        <v>44050</v>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C386">
+        <v>719</v>
+      </c>
+      <c r="D386">
+        <v>0.01817722159</v>
+      </c>
+      <c r="E386">
+        <v>3</v>
+      </c>
+      <c r="F386">
+        <v>187</v>
+      </c>
+      <c r="G386">
+        <v>0.023097826087</v>
+      </c>
+      <c r="H386">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="2">
+        <v>44050</v>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C387">
+        <v>5825</v>
+      </c>
+      <c r="D387">
+        <v>0.14726330426</v>
+      </c>
+      <c r="E387">
+        <v>151</v>
+      </c>
+      <c r="F387">
+        <v>1041</v>
+      </c>
+      <c r="G387">
+        <v>0.12858201581</v>
+      </c>
+      <c r="H387">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="2">
+        <v>44050</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="C388">
+        <v>15673</v>
+      </c>
+      <c r="D388">
+        <v>0.39623309316</v>
+      </c>
+      <c r="E388">
+        <v>220</v>
+      </c>
+      <c r="F388">
+        <v>4169</v>
+      </c>
+      <c r="G388">
+        <v>0.51494565217</v>
+      </c>
+      <c r="H388">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="2">
+        <v>44050</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C389">
+        <v>175</v>
+      </c>
+      <c r="D389">
+        <v>0.4424219441</v>
+      </c>
+      <c r="E389">
+        <v>3</v>
+      </c>
+      <c r="F389">
+        <v>56</v>
+      </c>
+      <c r="G389">
+        <v>0.6916996047</v>
+      </c>
+      <c r="H389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="2">
+        <v>44050</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C390">
+        <v>6411</v>
+      </c>
+      <c r="D390">
+        <v>0.16207811907</v>
+      </c>
+      <c r="E390">
+        <v>6</v>
+      </c>
+      <c r="F390">
+        <v>4</v>
+      </c>
+      <c r="G390">
+        <v>0.0494071146</v>
+      </c>
+      <c r="H390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="2">
+        <v>44050</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C391">
+        <v>10752</v>
+      </c>
+      <c r="D391">
+        <v>0.27182404247</v>
+      </c>
+      <c r="E391">
+        <v>222</v>
+      </c>
+      <c r="F391">
+        <v>2639</v>
+      </c>
+      <c r="G391">
+        <v>0.32596343874</v>
+      </c>
+      <c r="H391">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H859"/>
+  <dimension ref="A1:H872"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -24432,6 +24432,370 @@
         <v>0</v>
       </c>
     </row>
+    <row r="860">
+      <c r="A860" s="2">
+        <v>44051</v>
+      </c>
+      <c r="B860" t="inlineStr">
+        <is>
+          <t>&lt;1 year</t>
+        </is>
+      </c>
+      <c r="C860">
+        <v>143</v>
+      </c>
+      <c r="D860">
+        <v>0.003565106828550772</v>
+      </c>
+      <c r="E860">
+        <v>-1</v>
+      </c>
+      <c r="F860">
+        <v>2</v>
+      </c>
+      <c r="G860">
+        <v>0.000239721922569819</v>
+      </c>
+      <c r="H860">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" s="2">
+        <v>44051</v>
+      </c>
+      <c r="B861" t="inlineStr">
+        <is>
+          <t>1-9 years</t>
+        </is>
+      </c>
+      <c r="C861">
+        <v>648</v>
+      </c>
+      <c r="D861">
+        <v>0.0161551694049014</v>
+      </c>
+      <c r="E861">
+        <v>5</v>
+      </c>
+      <c r="F861">
+        <v>5</v>
+      </c>
+      <c r="G861">
+        <v>0.0005993048064245475</v>
+      </c>
+      <c r="H861">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" s="2">
+        <v>44051</v>
+      </c>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t>10-19 years</t>
+        </is>
+      </c>
+      <c r="C862">
+        <v>1660</v>
+      </c>
+      <c r="D862">
+        <v>0.0413851561915684</v>
+      </c>
+      <c r="E862">
+        <v>11</v>
+      </c>
+      <c r="F862">
+        <v>8</v>
+      </c>
+      <c r="G862">
+        <v>0.0009588876902792761</v>
+      </c>
+      <c r="H862">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" s="2">
+        <v>44051</v>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>20-29 years</t>
+        </is>
+      </c>
+      <c r="C863">
+        <v>7421</v>
+      </c>
+      <c r="D863">
+        <v>0.185011592829897</v>
+      </c>
+      <c r="E863">
+        <v>120</v>
+      </c>
+      <c r="F863">
+        <v>63</v>
+      </c>
+      <c r="G863">
+        <v>0.007551240560949299</v>
+      </c>
+      <c r="H863">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" s="2">
+        <v>44051</v>
+      </c>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t>30-39 years</t>
+        </is>
+      </c>
+      <c r="C864">
+        <v>8084</v>
+      </c>
+      <c r="D864">
+        <v>0.2015407244895415</v>
+      </c>
+      <c r="E864">
+        <v>156</v>
+      </c>
+      <c r="F864">
+        <v>174</v>
+      </c>
+      <c r="G864">
+        <v>0.02085580726357425</v>
+      </c>
+      <c r="H864">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" s="2">
+        <v>44051</v>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>40-49 years</t>
+        </is>
+      </c>
+      <c r="C865">
+        <v>7506</v>
+      </c>
+      <c r="D865">
+        <v>0.1871307122734412</v>
+      </c>
+      <c r="E865">
+        <v>108</v>
+      </c>
+      <c r="F865">
+        <v>455</v>
+      </c>
+      <c r="G865">
+        <v>0.05453673738463383</v>
+      </c>
+      <c r="H865">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" s="2">
+        <v>44051</v>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>50-59 years</t>
+        </is>
+      </c>
+      <c r="C866">
+        <v>6861</v>
+      </c>
+      <c r="D866">
+        <v>0.1710503353194884</v>
+      </c>
+      <c r="E866">
+        <v>99</v>
+      </c>
+      <c r="F866">
+        <v>961</v>
+      </c>
+      <c r="G866">
+        <v>0.115186383794798</v>
+      </c>
+      <c r="H866">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" s="2">
+        <v>44051</v>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>60-64 years</t>
+        </is>
+      </c>
+      <c r="C867">
+        <v>2676</v>
+      </c>
+      <c r="D867">
+        <v>0.06671486624616689</v>
+      </c>
+      <c r="E867">
+        <v>30</v>
+      </c>
+      <c r="F867">
+        <v>784</v>
+      </c>
+      <c r="G867">
+        <v>0.09397099364736905</v>
+      </c>
+      <c r="H867">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" s="2">
+        <v>44051</v>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>65-69 years</t>
+        </is>
+      </c>
+      <c r="C868">
+        <v>1909</v>
+      </c>
+      <c r="D868">
+        <v>0.04759292962030366</v>
+      </c>
+      <c r="E868">
+        <v>12</v>
+      </c>
+      <c r="F868">
+        <v>956</v>
+      </c>
+      <c r="G868">
+        <v>0.1145870789883735</v>
+      </c>
+      <c r="H868">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" s="2">
+        <v>44051</v>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>70-74 years</t>
+        </is>
+      </c>
+      <c r="C869">
+        <v>1141</v>
+      </c>
+      <c r="D869">
+        <v>0.02844606217745756</v>
+      </c>
+      <c r="E869">
+        <v>10</v>
+      </c>
+      <c r="F869">
+        <v>1079</v>
+      </c>
+      <c r="G869">
+        <v>0.1293299772264174</v>
+      </c>
+      <c r="H869">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" s="2">
+        <v>44051</v>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>75-79 years</t>
+        </is>
+      </c>
+      <c r="C870">
+        <v>762</v>
+      </c>
+      <c r="D870">
+        <v>0.01899728254094887</v>
+      </c>
+      <c r="E870">
+        <v>4</v>
+      </c>
+      <c r="F870">
+        <v>1039</v>
+      </c>
+      <c r="G870">
+        <v>0.124535538775021</v>
+      </c>
+      <c r="H870">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" s="2">
+        <v>44051</v>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>80+ years</t>
+        </is>
+      </c>
+      <c r="C871">
+        <v>1269</v>
+      </c>
+      <c r="D871">
+        <v>0.03163720675126524</v>
+      </c>
+      <c r="E871">
+        <v>2</v>
+      </c>
+      <c r="F871">
+        <v>2817</v>
+      </c>
+      <c r="G871">
+        <v>0.3376483279395901</v>
+      </c>
+      <c r="H871">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" s="2">
+        <v>44051</v>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C872">
+        <v>31</v>
+      </c>
+      <c r="D872">
+        <v>0.0007728553264690484</v>
+      </c>
+      <c r="E872">
+        <v>0</v>
+      </c>
+      <c r="F872">
+        <v>0</v>
+      </c>
+      <c r="G872">
+        <v>0</v>
+      </c>
+      <c r="H872">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24439,7 +24803,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:H202"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -30034,6 +30398,90 @@
         <v>0</v>
       </c>
     </row>
+    <row r="200">
+      <c r="A200" s="2">
+        <v>44051</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C200">
+        <v>14972</v>
+      </c>
+      <c r="D200">
+        <v>0.3732641918675675</v>
+      </c>
+      <c r="E200">
+        <v>71</v>
+      </c>
+      <c r="F200">
+        <v>3401</v>
+      </c>
+      <c r="G200">
+        <v>0.4076471293299772</v>
+      </c>
+      <c r="H200">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2">
+        <v>44051</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C201">
+        <v>24250</v>
+      </c>
+      <c r="D201">
+        <v>0.6045723118346589</v>
+      </c>
+      <c r="E201">
+        <v>474</v>
+      </c>
+      <c r="F201">
+        <v>4942</v>
+      </c>
+      <c r="G201">
+        <v>0.5923528706700227</v>
+      </c>
+      <c r="H201">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2">
+        <v>44051</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C202">
+        <v>889</v>
+      </c>
+      <c r="D202">
+        <v>0.02216349629777368</v>
+      </c>
+      <c r="E202">
+        <v>11</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+      <c r="H202">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30041,7 +30489,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H391"/>
+  <dimension ref="A1:H397"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -41012,6 +41460,174 @@
         <v>91</v>
       </c>
     </row>
+    <row r="392">
+      <c r="A392" s="2">
+        <v>44051</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C392">
+        <v>719</v>
+      </c>
+      <c r="D392">
+        <v>0.01792525741068535</v>
+      </c>
+      <c r="E392">
+        <v>0</v>
+      </c>
+      <c r="F392">
+        <v>190</v>
+      </c>
+      <c r="G392">
+        <v>0.02277358264413281</v>
+      </c>
+      <c r="H392">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="2">
+        <v>44051</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C393">
+        <v>5976</v>
+      </c>
+      <c r="D393">
+        <v>0.1489865622896462</v>
+      </c>
+      <c r="E393">
+        <v>151</v>
+      </c>
+      <c r="F393">
+        <v>1070</v>
+      </c>
+      <c r="G393">
+        <v>0.1282512285748532</v>
+      </c>
+      <c r="H393">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="2">
+        <v>44051</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="C394">
+        <v>15879</v>
+      </c>
+      <c r="D394">
+        <v>0.3958764428710329</v>
+      </c>
+      <c r="E394">
+        <v>206</v>
+      </c>
+      <c r="F394">
+        <v>4311</v>
+      </c>
+      <c r="G394">
+        <v>0.5167206040992449</v>
+      </c>
+      <c r="H394">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="2">
+        <v>44051</v>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C395">
+        <v>175</v>
+      </c>
+      <c r="D395">
+        <v>0.004362892972002693</v>
+      </c>
+      <c r="E395">
+        <v>0</v>
+      </c>
+      <c r="F395">
+        <v>60</v>
+      </c>
+      <c r="G395">
+        <v>0.00719165767709457</v>
+      </c>
+      <c r="H395">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="2">
+        <v>44051</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C396">
+        <v>6428</v>
+      </c>
+      <c r="D396">
+        <v>0.1602552915659046</v>
+      </c>
+      <c r="E396">
+        <v>17</v>
+      </c>
+      <c r="F396">
+        <v>4</v>
+      </c>
+      <c r="G396">
+        <v>0.000479443845139638</v>
+      </c>
+      <c r="H396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="2">
+        <v>44051</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C397">
+        <v>10934</v>
+      </c>
+      <c r="D397">
+        <v>0.2725935528907282</v>
+      </c>
+      <c r="E397">
+        <v>182</v>
+      </c>
+      <c r="F397">
+        <v>2708</v>
+      </c>
+      <c r="G397">
+        <v>0.324583483159535</v>
+      </c>
+      <c r="H397">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H872"/>
+  <dimension ref="A1:H885"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -24796,6 +24796,370 @@
         <v>0</v>
       </c>
     </row>
+    <row r="873">
+      <c r="A873" s="2">
+        <v>44052</v>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>&lt;1 year</t>
+        </is>
+      </c>
+      <c r="C873">
+        <v>143</v>
+      </c>
+      <c r="D873">
+        <v>0.3527815468</v>
+      </c>
+      <c r="E873">
+        <v>0</v>
+      </c>
+      <c r="F873">
+        <v>2</v>
+      </c>
+      <c r="G873">
+        <v>0.0236434567</v>
+      </c>
+      <c r="H873">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" s="2">
+        <v>44052</v>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>1-9 years</t>
+        </is>
+      </c>
+      <c r="C874">
+        <v>650</v>
+      </c>
+      <c r="D874">
+        <v>0.016035524855</v>
+      </c>
+      <c r="E874">
+        <v>2</v>
+      </c>
+      <c r="F874">
+        <v>5</v>
+      </c>
+      <c r="G874">
+        <v>0.0591086417</v>
+      </c>
+      <c r="H874">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" s="2">
+        <v>44052</v>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>10-19 years</t>
+        </is>
+      </c>
+      <c r="C875">
+        <v>1674</v>
+      </c>
+      <c r="D875">
+        <v>0.041297644011</v>
+      </c>
+      <c r="E875">
+        <v>14</v>
+      </c>
+      <c r="F875">
+        <v>8</v>
+      </c>
+      <c r="G875">
+        <v>0.0945738267</v>
+      </c>
+      <c r="H875">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" s="2">
+        <v>44052</v>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>20-29 years</t>
+        </is>
+      </c>
+      <c r="C876">
+        <v>7506</v>
+      </c>
+      <c r="D876">
+        <v>0.18517330702</v>
+      </c>
+      <c r="E876">
+        <v>85</v>
+      </c>
+      <c r="F876">
+        <v>63</v>
+      </c>
+      <c r="G876">
+        <v>0.7447688852</v>
+      </c>
+      <c r="H876">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" s="2">
+        <v>44052</v>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>30-39 years</t>
+        </is>
+      </c>
+      <c r="C877">
+        <v>8178</v>
+      </c>
+      <c r="D877">
+        <v>0.20175157271</v>
+      </c>
+      <c r="E877">
+        <v>94</v>
+      </c>
+      <c r="F877">
+        <v>175</v>
+      </c>
+      <c r="G877">
+        <v>0.020688024589</v>
+      </c>
+      <c r="H877">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" s="2">
+        <v>44052</v>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>40-49 years</t>
+        </is>
+      </c>
+      <c r="C878">
+        <v>7607</v>
+      </c>
+      <c r="D878">
+        <v>0.18766498088</v>
+      </c>
+      <c r="E878">
+        <v>101</v>
+      </c>
+      <c r="F878">
+        <v>459</v>
+      </c>
+      <c r="G878">
+        <v>0.054261733065</v>
+      </c>
+      <c r="H878">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" s="2">
+        <v>44052</v>
+      </c>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t>50-59 years</t>
+        </is>
+      </c>
+      <c r="C879">
+        <v>6948</v>
+      </c>
+      <c r="D879">
+        <v>0.17140742568</v>
+      </c>
+      <c r="E879">
+        <v>87</v>
+      </c>
+      <c r="F879">
+        <v>977</v>
+      </c>
+      <c r="G879">
+        <v>0.11549828585</v>
+      </c>
+      <c r="H879">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" s="2">
+        <v>44052</v>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>60-64 years</t>
+        </is>
+      </c>
+      <c r="C880">
+        <v>2698</v>
+      </c>
+      <c r="D880">
+        <v>0.066559763168</v>
+      </c>
+      <c r="E880">
+        <v>22</v>
+      </c>
+      <c r="F880">
+        <v>798</v>
+      </c>
+      <c r="G880">
+        <v>0.09433739212700001</v>
+      </c>
+      <c r="H880">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" s="2">
+        <v>44052</v>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>65-69 years</t>
+        </is>
+      </c>
+      <c r="C881">
+        <v>1921</v>
+      </c>
+      <c r="D881">
+        <v>0.047391143456</v>
+      </c>
+      <c r="E881">
+        <v>12</v>
+      </c>
+      <c r="F881">
+        <v>971</v>
+      </c>
+      <c r="G881">
+        <v>0.11478898215</v>
+      </c>
+      <c r="H881">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" s="2">
+        <v>44052</v>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>70-74 years</t>
+        </is>
+      </c>
+      <c r="C882">
+        <v>1145</v>
+      </c>
+      <c r="D882">
+        <v>0.028247193783</v>
+      </c>
+      <c r="E882">
+        <v>4</v>
+      </c>
+      <c r="F882">
+        <v>1097</v>
+      </c>
+      <c r="G882">
+        <v>0.12968435985</v>
+      </c>
+      <c r="H882">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" s="2">
+        <v>44052</v>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>75-79 years</t>
+        </is>
+      </c>
+      <c r="C883">
+        <v>764</v>
+      </c>
+      <c r="D883">
+        <v>0.018847909214</v>
+      </c>
+      <c r="E883">
+        <v>2</v>
+      </c>
+      <c r="F883">
+        <v>1049</v>
+      </c>
+      <c r="G883">
+        <v>0.12400993025</v>
+      </c>
+      <c r="H883">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" s="2">
+        <v>44052</v>
+      </c>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t>80+ years</t>
+        </is>
+      </c>
+      <c r="C884">
+        <v>1270</v>
+      </c>
+      <c r="D884">
+        <v>0.031330948563</v>
+      </c>
+      <c r="E884">
+        <v>1</v>
+      </c>
+      <c r="F884">
+        <v>2855</v>
+      </c>
+      <c r="G884">
+        <v>0.33751034401</v>
+      </c>
+      <c r="H884">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" s="2">
+        <v>44052</v>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C885">
+        <v>31</v>
+      </c>
+      <c r="D885">
+        <v>0.0764771185</v>
+      </c>
+      <c r="E885">
+        <v>0</v>
+      </c>
+      <c r="F885">
+        <v>0</v>
+      </c>
+      <c r="G885">
+        <v>0</v>
+      </c>
+      <c r="H885">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24803,7 +25167,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H202"/>
+  <dimension ref="A1:H205"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -30482,6 +30846,90 @@
         <v>0</v>
       </c>
     </row>
+    <row r="203">
+      <c r="A203" s="2">
+        <v>44052</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C203">
+        <v>15024</v>
+      </c>
+      <c r="D203">
+        <v>0.3706426545</v>
+      </c>
+      <c r="E203">
+        <v>52</v>
+      </c>
+      <c r="F203">
+        <v>3442</v>
+      </c>
+      <c r="G203">
+        <v>0.40690388935</v>
+      </c>
+      <c r="H203">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2">
+        <v>44052</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C204">
+        <v>24616</v>
+      </c>
+      <c r="D204">
+        <v>0.6072776612799999</v>
+      </c>
+      <c r="E204">
+        <v>366</v>
+      </c>
+      <c r="F204">
+        <v>5017</v>
+      </c>
+      <c r="G204">
+        <v>0.59309611065</v>
+      </c>
+      <c r="H204">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2">
+        <v>44052</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C205">
+        <v>895</v>
+      </c>
+      <c r="D205">
+        <v>0.022079684224</v>
+      </c>
+      <c r="E205">
+        <v>6</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+      <c r="H205">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30489,7 +30937,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H397"/>
+  <dimension ref="A1:H403"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -41628,6 +42076,174 @@
         <v>69</v>
       </c>
     </row>
+    <row r="398">
+      <c r="A398" s="2">
+        <v>44052</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C398">
+        <v>722</v>
+      </c>
+      <c r="D398">
+        <v>0.017811767608</v>
+      </c>
+      <c r="E398">
+        <v>3</v>
+      </c>
+      <c r="F398">
+        <v>190</v>
+      </c>
+      <c r="G398">
+        <v>0.02246128384</v>
+      </c>
+      <c r="H398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="2">
+        <v>44052</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C399">
+        <v>6106</v>
+      </c>
+      <c r="D399">
+        <v>0.15063525348</v>
+      </c>
+      <c r="E399">
+        <v>130</v>
+      </c>
+      <c r="F399">
+        <v>1086</v>
+      </c>
+      <c r="G399">
+        <v>0.12838396974</v>
+      </c>
+      <c r="H399">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="2">
+        <v>44052</v>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="C400">
+        <v>16035</v>
+      </c>
+      <c r="D400">
+        <v>0.3955840631600001</v>
+      </c>
+      <c r="E400">
+        <v>156</v>
+      </c>
+      <c r="F400">
+        <v>4386</v>
+      </c>
+      <c r="G400">
+        <v>0.51850100485</v>
+      </c>
+      <c r="H400">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="2">
+        <v>44052</v>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C401">
+        <v>177</v>
+      </c>
+      <c r="D401">
+        <v>0.4366596768</v>
+      </c>
+      <c r="E401">
+        <v>2</v>
+      </c>
+      <c r="F401">
+        <v>58</v>
+      </c>
+      <c r="G401">
+        <v>0.6856602435</v>
+      </c>
+      <c r="H401">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="2">
+        <v>44052</v>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C402">
+        <v>6439</v>
+      </c>
+      <c r="D402">
+        <v>0.15885037622</v>
+      </c>
+      <c r="E402">
+        <v>11</v>
+      </c>
+      <c r="F402">
+        <v>4</v>
+      </c>
+      <c r="G402">
+        <v>0.0472869133</v>
+      </c>
+      <c r="H402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="2">
+        <v>44052</v>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C403">
+        <v>11056</v>
+      </c>
+      <c r="D403">
+        <v>0.27275194277</v>
+      </c>
+      <c r="E403">
+        <v>122</v>
+      </c>
+      <c r="F403">
+        <v>2735</v>
+      </c>
+      <c r="G403">
+        <v>0.32332427001</v>
+      </c>
+      <c r="H403">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H885"/>
+  <dimension ref="A1:H898"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -25160,6 +25160,370 @@
         <v>0</v>
       </c>
     </row>
+    <row r="886">
+      <c r="A886" s="2">
+        <v>44053</v>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t>&lt;1 year</t>
+        </is>
+      </c>
+      <c r="C886">
+        <v>143</v>
+      </c>
+      <c r="D886">
+        <v>0.003503871410369499</v>
+      </c>
+      <c r="E886">
+        <v>0</v>
+      </c>
+      <c r="F886">
+        <v>2</v>
+      </c>
+      <c r="G886">
+        <v>0.0002355712603062426</v>
+      </c>
+      <c r="H886">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" s="2">
+        <v>44053</v>
+      </c>
+      <c r="B887" t="inlineStr">
+        <is>
+          <t>1-9 years</t>
+        </is>
+      </c>
+      <c r="C887">
+        <v>651</v>
+      </c>
+      <c r="D887">
+        <v>0.01595119082622758</v>
+      </c>
+      <c r="E887">
+        <v>1</v>
+      </c>
+      <c r="F887">
+        <v>5</v>
+      </c>
+      <c r="G887">
+        <v>0.0005889281507656066</v>
+      </c>
+      <c r="H887">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" s="2">
+        <v>44053</v>
+      </c>
+      <c r="B888" t="inlineStr">
+        <is>
+          <t>10-19 years</t>
+        </is>
+      </c>
+      <c r="C888">
+        <v>1682</v>
+      </c>
+      <c r="D888">
+        <v>0.04121336861707341</v>
+      </c>
+      <c r="E888">
+        <v>8</v>
+      </c>
+      <c r="F888">
+        <v>9</v>
+      </c>
+      <c r="G888">
+        <v>0.001060070671378092</v>
+      </c>
+      <c r="H888">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" s="2">
+        <v>44053</v>
+      </c>
+      <c r="B889" t="inlineStr">
+        <is>
+          <t>20-29 years</t>
+        </is>
+      </c>
+      <c r="C889">
+        <v>7567</v>
+      </c>
+      <c r="D889">
+        <v>0.1854111535822797</v>
+      </c>
+      <c r="E889">
+        <v>61</v>
+      </c>
+      <c r="F889">
+        <v>63</v>
+      </c>
+      <c r="G889">
+        <v>0.007420494699646643</v>
+      </c>
+      <c r="H889">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" s="2">
+        <v>44053</v>
+      </c>
+      <c r="B890" t="inlineStr">
+        <is>
+          <t>30-39 years</t>
+        </is>
+      </c>
+      <c r="C890">
+        <v>8252</v>
+      </c>
+      <c r="D890">
+        <v>0.2021954327158679</v>
+      </c>
+      <c r="E890">
+        <v>74</v>
+      </c>
+      <c r="F890">
+        <v>175</v>
+      </c>
+      <c r="G890">
+        <v>0.02061248527679623</v>
+      </c>
+      <c r="H890">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" s="2">
+        <v>44053</v>
+      </c>
+      <c r="B891" t="inlineStr">
+        <is>
+          <t>40-49 years</t>
+        </is>
+      </c>
+      <c r="C891">
+        <v>7674</v>
+      </c>
+      <c r="D891">
+        <v>0.188032931490738</v>
+      </c>
+      <c r="E891">
+        <v>67</v>
+      </c>
+      <c r="F891">
+        <v>459</v>
+      </c>
+      <c r="G891">
+        <v>0.05406360424028268</v>
+      </c>
+      <c r="H891">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" s="2">
+        <v>44053</v>
+      </c>
+      <c r="B892" t="inlineStr">
+        <is>
+          <t>50-59 years</t>
+        </is>
+      </c>
+      <c r="C892">
+        <v>6992</v>
+      </c>
+      <c r="D892">
+        <v>0.1713221601489758</v>
+      </c>
+      <c r="E892">
+        <v>44</v>
+      </c>
+      <c r="F892">
+        <v>981</v>
+      </c>
+      <c r="G892">
+        <v>0.115547703180212</v>
+      </c>
+      <c r="H892">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" s="2">
+        <v>44053</v>
+      </c>
+      <c r="B893" t="inlineStr">
+        <is>
+          <t>60-64 years</t>
+        </is>
+      </c>
+      <c r="C893">
+        <v>2711</v>
+      </c>
+      <c r="D893">
+        <v>0.06642654121336862</v>
+      </c>
+      <c r="E893">
+        <v>13</v>
+      </c>
+      <c r="F893">
+        <v>799</v>
+      </c>
+      <c r="G893">
+        <v>0.09411071849234394</v>
+      </c>
+      <c r="H893">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" s="2">
+        <v>44053</v>
+      </c>
+      <c r="B894" t="inlineStr">
+        <is>
+          <t>65-69 years</t>
+        </is>
+      </c>
+      <c r="C894">
+        <v>1928</v>
+      </c>
+      <c r="D894">
+        <v>0.04724100754679996</v>
+      </c>
+      <c r="E894">
+        <v>7</v>
+      </c>
+      <c r="F894">
+        <v>972</v>
+      </c>
+      <c r="G894">
+        <v>0.1144876325088339</v>
+      </c>
+      <c r="H894">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" s="2">
+        <v>44053</v>
+      </c>
+      <c r="B895" t="inlineStr">
+        <is>
+          <t>70-74 years</t>
+        </is>
+      </c>
+      <c r="C895">
+        <v>1146</v>
+      </c>
+      <c r="D895">
+        <v>0.02807997647750662</v>
+      </c>
+      <c r="E895">
+        <v>1</v>
+      </c>
+      <c r="F895">
+        <v>1101</v>
+      </c>
+      <c r="G895">
+        <v>0.1296819787985866</v>
+      </c>
+      <c r="H895">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" s="2">
+        <v>44053</v>
+      </c>
+      <c r="B896" t="inlineStr">
+        <is>
+          <t>75-79 years</t>
+        </is>
+      </c>
+      <c r="C896">
+        <v>764</v>
+      </c>
+      <c r="D896">
+        <v>0.01871998431833774</v>
+      </c>
+      <c r="E896">
+        <v>0</v>
+      </c>
+      <c r="F896">
+        <v>1054</v>
+      </c>
+      <c r="G896">
+        <v>0.1241460541813899</v>
+      </c>
+      <c r="H896">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" s="2">
+        <v>44053</v>
+      </c>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t>80+ years</t>
+        </is>
+      </c>
+      <c r="C897">
+        <v>1271</v>
+      </c>
+      <c r="D897">
+        <v>0.03114280113692051</v>
+      </c>
+      <c r="E897">
+        <v>1</v>
+      </c>
+      <c r="F897">
+        <v>2870</v>
+      </c>
+      <c r="G897">
+        <v>0.3380447585394582</v>
+      </c>
+      <c r="H897">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" s="2">
+        <v>44053</v>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C898">
+        <v>31</v>
+      </c>
+      <c r="D898">
+        <v>0.0007595805155346467</v>
+      </c>
+      <c r="E898">
+        <v>0</v>
+      </c>
+      <c r="F898">
+        <v>0</v>
+      </c>
+      <c r="G898">
+        <v>0</v>
+      </c>
+      <c r="H898">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25167,7 +25531,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H205"/>
+  <dimension ref="A1:H208"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -30930,6 +31294,90 @@
         <v>0</v>
       </c>
     </row>
+    <row r="206">
+      <c r="A206" s="2">
+        <v>44053</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C206">
+        <v>15063</v>
+      </c>
+      <c r="D206">
+        <v>0.3690826227580124</v>
+      </c>
+      <c r="E206">
+        <v>39</v>
+      </c>
+      <c r="F206">
+        <v>3456</v>
+      </c>
+      <c r="G206">
+        <v>0.4070671378091873</v>
+      </c>
+      <c r="H206">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2">
+        <v>44053</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C207">
+        <v>24853</v>
+      </c>
+      <c r="D207">
+        <v>0.6089630500833089</v>
+      </c>
+      <c r="E207">
+        <v>237</v>
+      </c>
+      <c r="F207">
+        <v>5034</v>
+      </c>
+      <c r="G207">
+        <v>0.5929328621908128</v>
+      </c>
+      <c r="H207">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2">
+        <v>44053</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C208">
+        <v>896</v>
+      </c>
+      <c r="D208">
+        <v>0.02195432715867882</v>
+      </c>
+      <c r="E208">
+        <v>1</v>
+      </c>
+      <c r="F208">
+        <v>0</v>
+      </c>
+      <c r="G208">
+        <v>0</v>
+      </c>
+      <c r="H208">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30937,7 +31385,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H403"/>
+  <dimension ref="A1:H409"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -42244,6 +42692,174 @@
         <v>27</v>
       </c>
     </row>
+    <row r="404">
+      <c r="A404" s="2">
+        <v>44053</v>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C404">
+        <v>723</v>
+      </c>
+      <c r="D404">
+        <v>0.01771537783004999</v>
+      </c>
+      <c r="E404">
+        <v>1</v>
+      </c>
+      <c r="F404">
+        <v>190</v>
+      </c>
+      <c r="G404">
+        <v>0.02237926972909305</v>
+      </c>
+      <c r="H404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="2">
+        <v>44053</v>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C405">
+        <v>6179</v>
+      </c>
+      <c r="D405">
+        <v>0.1514015485641478</v>
+      </c>
+      <c r="E405">
+        <v>73</v>
+      </c>
+      <c r="F405">
+        <v>1086</v>
+      </c>
+      <c r="G405">
+        <v>0.1279151943462898</v>
+      </c>
+      <c r="H405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="2">
+        <v>44053</v>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="C406">
+        <v>16150</v>
+      </c>
+      <c r="D406">
+        <v>0.3957169459962756</v>
+      </c>
+      <c r="E406">
+        <v>115</v>
+      </c>
+      <c r="F406">
+        <v>4405</v>
+      </c>
+      <c r="G406">
+        <v>0.5188457008244994</v>
+      </c>
+      <c r="H406">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="2">
+        <v>44053</v>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C407">
+        <v>84</v>
+      </c>
+      <c r="D407">
+        <v>0.002058218171126139</v>
+      </c>
+      <c r="E407">
+        <v>-93</v>
+      </c>
+      <c r="F407">
+        <v>58</v>
+      </c>
+      <c r="G407">
+        <v>0.006831566548881037</v>
+      </c>
+      <c r="H407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="2">
+        <v>44053</v>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C408">
+        <v>6542</v>
+      </c>
+      <c r="D408">
+        <v>0.1602959913750858</v>
+      </c>
+      <c r="E408">
+        <v>103</v>
+      </c>
+      <c r="F408">
+        <v>4</v>
+      </c>
+      <c r="G408">
+        <v>0.0004711425206124853</v>
+      </c>
+      <c r="H408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="2">
+        <v>44053</v>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C409">
+        <v>11134</v>
+      </c>
+      <c r="D409">
+        <v>0.2728119180633147</v>
+      </c>
+      <c r="E409">
+        <v>78</v>
+      </c>
+      <c r="F409">
+        <v>2747</v>
+      </c>
+      <c r="G409">
+        <v>0.3235571260306243</v>
+      </c>
+      <c r="H409">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H898"/>
+  <dimension ref="A1:H911"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -25524,6 +25524,370 @@
         <v>0</v>
       </c>
     </row>
+    <row r="899">
+      <c r="A899" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B899" t="inlineStr">
+        <is>
+          <t>&lt;1 year</t>
+        </is>
+      </c>
+      <c r="C899">
+        <v>143</v>
+      </c>
+      <c r="D899">
+        <v>0.003445783132530121</v>
+      </c>
+      <c r="E899">
+        <v>0</v>
+      </c>
+      <c r="F899">
+        <v>2</v>
+      </c>
+      <c r="G899">
+        <v>0.0002296211251435132</v>
+      </c>
+      <c r="H899">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t>1-9 years</t>
+        </is>
+      </c>
+      <c r="C900">
+        <v>654</v>
+      </c>
+      <c r="D900">
+        <v>0.01575903614457831</v>
+      </c>
+      <c r="E900">
+        <v>3</v>
+      </c>
+      <c r="F900">
+        <v>5</v>
+      </c>
+      <c r="G900">
+        <v>0.000574052812858783</v>
+      </c>
+      <c r="H900">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t>10-19 years</t>
+        </is>
+      </c>
+      <c r="C901">
+        <v>1686</v>
+      </c>
+      <c r="D901">
+        <v>0.04062650602409638</v>
+      </c>
+      <c r="E901">
+        <v>4</v>
+      </c>
+      <c r="F901">
+        <v>9</v>
+      </c>
+      <c r="G901">
+        <v>0.001033295063145809</v>
+      </c>
+      <c r="H901">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t>20-29 years</t>
+        </is>
+      </c>
+      <c r="C902">
+        <v>7685</v>
+      </c>
+      <c r="D902">
+        <v>0.1851807228915663</v>
+      </c>
+      <c r="E902">
+        <v>118</v>
+      </c>
+      <c r="F902">
+        <v>64</v>
+      </c>
+      <c r="G902">
+        <v>0.007347876004592423</v>
+      </c>
+      <c r="H902">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B903" t="inlineStr">
+        <is>
+          <t>30-39 years</t>
+        </is>
+      </c>
+      <c r="C903">
+        <v>8414</v>
+      </c>
+      <c r="D903">
+        <v>0.2027469879518072</v>
+      </c>
+      <c r="E903">
+        <v>162</v>
+      </c>
+      <c r="F903">
+        <v>177</v>
+      </c>
+      <c r="G903">
+        <v>0.02032146957520092</v>
+      </c>
+      <c r="H903">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B904" t="inlineStr">
+        <is>
+          <t>40-49 years</t>
+        </is>
+      </c>
+      <c r="C904">
+        <v>7864</v>
+      </c>
+      <c r="D904">
+        <v>0.1894939759036145</v>
+      </c>
+      <c r="E904">
+        <v>190</v>
+      </c>
+      <c r="F904">
+        <v>467</v>
+      </c>
+      <c r="G904">
+        <v>0.05361653272101034</v>
+      </c>
+      <c r="H904">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t>50-59 years</t>
+        </is>
+      </c>
+      <c r="C905">
+        <v>7114</v>
+      </c>
+      <c r="D905">
+        <v>0.171421686746988</v>
+      </c>
+      <c r="E905">
+        <v>122</v>
+      </c>
+      <c r="F905">
+        <v>1003</v>
+      </c>
+      <c r="G905">
+        <v>0.1151549942594719</v>
+      </c>
+      <c r="H905">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>60-64 years</t>
+        </is>
+      </c>
+      <c r="C906">
+        <v>2765</v>
+      </c>
+      <c r="D906">
+        <v>0.06662650602409638</v>
+      </c>
+      <c r="E906">
+        <v>54</v>
+      </c>
+      <c r="F906">
+        <v>811</v>
+      </c>
+      <c r="G906">
+        <v>0.09311136624569461</v>
+      </c>
+      <c r="H906">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>65-69 years</t>
+        </is>
+      </c>
+      <c r="C907">
+        <v>1950</v>
+      </c>
+      <c r="D907">
+        <v>0.04698795180722892</v>
+      </c>
+      <c r="E907">
+        <v>22</v>
+      </c>
+      <c r="F907">
+        <v>992</v>
+      </c>
+      <c r="G907">
+        <v>0.1138920780711826</v>
+      </c>
+      <c r="H907">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>70-74 years</t>
+        </is>
+      </c>
+      <c r="C908">
+        <v>1157</v>
+      </c>
+      <c r="D908">
+        <v>0.02787951807228916</v>
+      </c>
+      <c r="E908">
+        <v>11</v>
+      </c>
+      <c r="F908">
+        <v>1136</v>
+      </c>
+      <c r="G908">
+        <v>0.1304247990815155</v>
+      </c>
+      <c r="H908">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t>75-79 years</t>
+        </is>
+      </c>
+      <c r="C909">
+        <v>766</v>
+      </c>
+      <c r="D909">
+        <v>0.0184578313253012</v>
+      </c>
+      <c r="E909">
+        <v>2</v>
+      </c>
+      <c r="F909">
+        <v>1078</v>
+      </c>
+      <c r="G909">
+        <v>0.1237657864523536</v>
+      </c>
+      <c r="H909">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B910" t="inlineStr">
+        <is>
+          <t>80+ years</t>
+        </is>
+      </c>
+      <c r="C910">
+        <v>1271</v>
+      </c>
+      <c r="D910">
+        <v>0.03062650602409639</v>
+      </c>
+      <c r="E910">
+        <v>0</v>
+      </c>
+      <c r="F910">
+        <v>2966</v>
+      </c>
+      <c r="G910">
+        <v>0.3405281285878301</v>
+      </c>
+      <c r="H910">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C911">
+        <v>31</v>
+      </c>
+      <c r="D911">
+        <v>0.0007469879518072289</v>
+      </c>
+      <c r="E911">
+        <v>0</v>
+      </c>
+      <c r="F911">
+        <v>0</v>
+      </c>
+      <c r="G911">
+        <v>0</v>
+      </c>
+      <c r="H911">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25531,7 +25895,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H208"/>
+  <dimension ref="A1:H211"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -31378,6 +31742,90 @@
         <v>0</v>
       </c>
     </row>
+    <row r="209">
+      <c r="A209" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C209">
+        <v>15112</v>
+      </c>
+      <c r="D209">
+        <v>0.364144578313253</v>
+      </c>
+      <c r="E209">
+        <v>49</v>
+      </c>
+      <c r="F209">
+        <v>3554</v>
+      </c>
+      <c r="G209">
+        <v>0.4080367393800229</v>
+      </c>
+      <c r="H209">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C210">
+        <v>25484</v>
+      </c>
+      <c r="D210">
+        <v>0.6140722891566265</v>
+      </c>
+      <c r="E210">
+        <v>631</v>
+      </c>
+      <c r="F210">
+        <v>5156</v>
+      </c>
+      <c r="G210">
+        <v>0.5919632606199771</v>
+      </c>
+      <c r="H210">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C211">
+        <v>904</v>
+      </c>
+      <c r="D211">
+        <v>0.02178313253012048</v>
+      </c>
+      <c r="E211">
+        <v>8</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
+      <c r="H211">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31385,7 +31833,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H409"/>
+  <dimension ref="A1:H415"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -42860,6 +43308,174 @@
         <v>12</v>
       </c>
     </row>
+    <row r="410">
+      <c r="A410" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C410">
+        <v>724</v>
+      </c>
+      <c r="D410">
+        <v>0.01744578313253012</v>
+      </c>
+      <c r="E410">
+        <v>1</v>
+      </c>
+      <c r="F410">
+        <v>199</v>
+      </c>
+      <c r="G410">
+        <v>0.02284730195177957</v>
+      </c>
+      <c r="H410">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C411">
+        <v>6374</v>
+      </c>
+      <c r="D411">
+        <v>0.1535903614457831</v>
+      </c>
+      <c r="E411">
+        <v>195</v>
+      </c>
+      <c r="F411">
+        <v>1107</v>
+      </c>
+      <c r="G411">
+        <v>0.1270952927669346</v>
+      </c>
+      <c r="H411">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="C412">
+        <v>16384</v>
+      </c>
+      <c r="D412">
+        <v>0.3947951807228916</v>
+      </c>
+      <c r="E412">
+        <v>234</v>
+      </c>
+      <c r="F412">
+        <v>4532</v>
+      </c>
+      <c r="G412">
+        <v>0.5203214695752009</v>
+      </c>
+      <c r="H412">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C413">
+        <v>180</v>
+      </c>
+      <c r="D413">
+        <v>0.004337349397590362</v>
+      </c>
+      <c r="E413">
+        <v>96</v>
+      </c>
+      <c r="F413">
+        <v>59</v>
+      </c>
+      <c r="G413">
+        <v>0.006773823191733639</v>
+      </c>
+      <c r="H413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C414">
+        <v>6459</v>
+      </c>
+      <c r="D414">
+        <v>0.1556385542168675</v>
+      </c>
+      <c r="E414">
+        <v>-83</v>
+      </c>
+      <c r="F414">
+        <v>4</v>
+      </c>
+      <c r="G414">
+        <v>0.0004592422502870264</v>
+      </c>
+      <c r="H414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C415">
+        <v>11379</v>
+      </c>
+      <c r="D415">
+        <v>0.2741927710843374</v>
+      </c>
+      <c r="E415">
+        <v>245</v>
+      </c>
+      <c r="F415">
+        <v>2809</v>
+      </c>
+      <c r="G415">
+        <v>0.3225028702640643</v>
+      </c>
+      <c r="H415">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H911"/>
+  <dimension ref="A1:H924"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -25888,6 +25888,370 @@
         <v>0</v>
       </c>
     </row>
+    <row r="912">
+      <c r="A912" s="2">
+        <v>44055</v>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t>&lt;1 year</t>
+        </is>
+      </c>
+      <c r="C912">
+        <v>143</v>
+      </c>
+      <c r="D912">
+        <v>0.003354445226366408</v>
+      </c>
+      <c r="E912">
+        <v>0</v>
+      </c>
+      <c r="F912">
+        <v>2</v>
+      </c>
+      <c r="G912">
+        <v>0.0002213858755811379</v>
+      </c>
+      <c r="H912">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" s="2">
+        <v>44055</v>
+      </c>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t>1-9 years</t>
+        </is>
+      </c>
+      <c r="C913">
+        <v>659</v>
+      </c>
+      <c r="D913">
+        <v>0.01545859723199625</v>
+      </c>
+      <c r="E913">
+        <v>5</v>
+      </c>
+      <c r="F913">
+        <v>5</v>
+      </c>
+      <c r="G913">
+        <v>0.0005534646889528448</v>
+      </c>
+      <c r="H913">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" s="2">
+        <v>44055</v>
+      </c>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t>10-19 years</t>
+        </is>
+      </c>
+      <c r="C914">
+        <v>1706</v>
+      </c>
+      <c r="D914">
+        <v>0.04001876612714051</v>
+      </c>
+      <c r="E914">
+        <v>20</v>
+      </c>
+      <c r="F914">
+        <v>9</v>
+      </c>
+      <c r="G914">
+        <v>0.0009962364401151207</v>
+      </c>
+      <c r="H914">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" s="2">
+        <v>44055</v>
+      </c>
+      <c r="B915" t="inlineStr">
+        <is>
+          <t>20-29 years</t>
+        </is>
+      </c>
+      <c r="C915">
+        <v>7988</v>
+      </c>
+      <c r="D915">
+        <v>0.1873797794980061</v>
+      </c>
+      <c r="E915">
+        <v>303</v>
+      </c>
+      <c r="F915">
+        <v>65</v>
+      </c>
+      <c r="G915">
+        <v>0.007195040956386982</v>
+      </c>
+      <c r="H915">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" s="2">
+        <v>44055</v>
+      </c>
+      <c r="B916" t="inlineStr">
+        <is>
+          <t>30-39 years</t>
+        </is>
+      </c>
+      <c r="C916">
+        <v>8712</v>
+      </c>
+      <c r="D916">
+        <v>0.2043631245601689</v>
+      </c>
+      <c r="E916">
+        <v>298</v>
+      </c>
+      <c r="F916">
+        <v>187</v>
+      </c>
+      <c r="G916">
+        <v>0.0206995793668364</v>
+      </c>
+      <c r="H916">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" s="2">
+        <v>44055</v>
+      </c>
+      <c r="B917" t="inlineStr">
+        <is>
+          <t>40-49 years</t>
+        </is>
+      </c>
+      <c r="C917">
+        <v>8100</v>
+      </c>
+      <c r="D917">
+        <v>0.1900070372976777</v>
+      </c>
+      <c r="E917">
+        <v>236</v>
+      </c>
+      <c r="F917">
+        <v>480</v>
+      </c>
+      <c r="G917">
+        <v>0.0531326101394731</v>
+      </c>
+      <c r="H917">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" s="2">
+        <v>44055</v>
+      </c>
+      <c r="B918" t="inlineStr">
+        <is>
+          <t>50-59 years</t>
+        </is>
+      </c>
+      <c r="C918">
+        <v>7285</v>
+      </c>
+      <c r="D918">
+        <v>0.1708890452732817</v>
+      </c>
+      <c r="E918">
+        <v>171</v>
+      </c>
+      <c r="F918">
+        <v>1050</v>
+      </c>
+      <c r="G918">
+        <v>0.1162275846800974</v>
+      </c>
+      <c r="H918">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" s="2">
+        <v>44055</v>
+      </c>
+      <c r="B919" t="inlineStr">
+        <is>
+          <t>60-64 years</t>
+        </is>
+      </c>
+      <c r="C919">
+        <v>2823</v>
+      </c>
+      <c r="D919">
+        <v>0.06622097114707952</v>
+      </c>
+      <c r="E919">
+        <v>58</v>
+      </c>
+      <c r="F919">
+        <v>845</v>
+      </c>
+      <c r="G919">
+        <v>0.09353553243303077</v>
+      </c>
+      <c r="H919">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" s="2">
+        <v>44055</v>
+      </c>
+      <c r="B920" t="inlineStr">
+        <is>
+          <t>65-69 years</t>
+        </is>
+      </c>
+      <c r="C920">
+        <v>1974</v>
+      </c>
+      <c r="D920">
+        <v>0.04630541871921182</v>
+      </c>
+      <c r="E920">
+        <v>24</v>
+      </c>
+      <c r="F920">
+        <v>1028</v>
+      </c>
+      <c r="G920">
+        <v>0.1137923400487049</v>
+      </c>
+      <c r="H920">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" s="2">
+        <v>44055</v>
+      </c>
+      <c r="B921" t="inlineStr">
+        <is>
+          <t>70-74 years</t>
+        </is>
+      </c>
+      <c r="C921">
+        <v>1167</v>
+      </c>
+      <c r="D921">
+        <v>0.02737508796622097</v>
+      </c>
+      <c r="E921">
+        <v>10</v>
+      </c>
+      <c r="F921">
+        <v>1189</v>
+      </c>
+      <c r="G921">
+        <v>0.1316139030329865</v>
+      </c>
+      <c r="H921">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" s="2">
+        <v>44055</v>
+      </c>
+      <c r="B922" t="inlineStr">
+        <is>
+          <t>75-79 years</t>
+        </is>
+      </c>
+      <c r="C922">
+        <v>767</v>
+      </c>
+      <c r="D922">
+        <v>0.01799202439596528</v>
+      </c>
+      <c r="E922">
+        <v>1</v>
+      </c>
+      <c r="F922">
+        <v>1115</v>
+      </c>
+      <c r="G922">
+        <v>0.1234226256364844</v>
+      </c>
+      <c r="H922">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" s="2">
+        <v>44055</v>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t>80+ years</t>
+        </is>
+      </c>
+      <c r="C923">
+        <v>1275</v>
+      </c>
+      <c r="D923">
+        <v>0.02990851513019001</v>
+      </c>
+      <c r="E923">
+        <v>4</v>
+      </c>
+      <c r="F923">
+        <v>3059</v>
+      </c>
+      <c r="G923">
+        <v>0.3386096967013504</v>
+      </c>
+      <c r="H923">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" s="2">
+        <v>44055</v>
+      </c>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C924">
+        <v>31</v>
+      </c>
+      <c r="D924">
+        <v>0.0007271874266948159</v>
+      </c>
+      <c r="E924">
+        <v>0</v>
+      </c>
+      <c r="F924">
+        <v>0</v>
+      </c>
+      <c r="G924">
+        <v>0</v>
+      </c>
+      <c r="H924">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25895,7 +26259,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H211"/>
+  <dimension ref="A1:H214"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -31826,6 +32190,90 @@
         <v>0</v>
       </c>
     </row>
+    <row r="212">
+      <c r="A212" s="2">
+        <v>44055</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C212">
+        <v>15215</v>
+      </c>
+      <c r="D212">
+        <v>0.3569082805536007</v>
+      </c>
+      <c r="E212">
+        <v>103</v>
+      </c>
+      <c r="F212">
+        <v>3687</v>
+      </c>
+      <c r="G212">
+        <v>0.4081248616338278</v>
+      </c>
+      <c r="H212">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2">
+        <v>44055</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C213">
+        <v>26437</v>
+      </c>
+      <c r="D213">
+        <v>0.6201501290171241</v>
+      </c>
+      <c r="E213">
+        <v>953</v>
+      </c>
+      <c r="F213">
+        <v>5347</v>
+      </c>
+      <c r="G213">
+        <v>0.5918751383661722</v>
+      </c>
+      <c r="H213">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2">
+        <v>44055</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C214">
+        <v>978</v>
+      </c>
+      <c r="D214">
+        <v>0.02294159042927516</v>
+      </c>
+      <c r="E214">
+        <v>74</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+      <c r="G214">
+        <v>0</v>
+      </c>
+      <c r="H214">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31833,7 +32281,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H415"/>
+  <dimension ref="A1:H421"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -43476,6 +43924,174 @@
         <v>62</v>
       </c>
     </row>
+    <row r="416">
+      <c r="A416" s="2">
+        <v>44055</v>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C416">
+        <v>726</v>
+      </c>
+      <c r="D416">
+        <v>0.01703026038001407</v>
+      </c>
+      <c r="E416">
+        <v>2</v>
+      </c>
+      <c r="F416">
+        <v>204</v>
+      </c>
+      <c r="G416">
+        <v>0.02258135930927607</v>
+      </c>
+      <c r="H416">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="2">
+        <v>44055</v>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C417">
+        <v>6610</v>
+      </c>
+      <c r="D417">
+        <v>0.1550551254984753</v>
+      </c>
+      <c r="E417">
+        <v>236</v>
+      </c>
+      <c r="F417">
+        <v>1149</v>
+      </c>
+      <c r="G417">
+        <v>0.1271861855213637</v>
+      </c>
+      <c r="H417">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="2">
+        <v>44055</v>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="C418">
+        <v>16853</v>
+      </c>
+      <c r="D418">
+        <v>0.3953319258737978</v>
+      </c>
+      <c r="E418">
+        <v>469</v>
+      </c>
+      <c r="F418">
+        <v>4739</v>
+      </c>
+      <c r="G418">
+        <v>0.5245738321895063</v>
+      </c>
+      <c r="H418">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="2">
+        <v>44055</v>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C419">
+        <v>186</v>
+      </c>
+      <c r="D419">
+        <v>0.004363124560168895</v>
+      </c>
+      <c r="E419">
+        <v>6</v>
+      </c>
+      <c r="F419">
+        <v>60</v>
+      </c>
+      <c r="G419">
+        <v>0.006641576267434138</v>
+      </c>
+      <c r="H419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="2">
+        <v>44055</v>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C420">
+        <v>6490</v>
+      </c>
+      <c r="D420">
+        <v>0.1522402064273986</v>
+      </c>
+      <c r="E420">
+        <v>31</v>
+      </c>
+      <c r="F420">
+        <v>4</v>
+      </c>
+      <c r="G420">
+        <v>0.0004427717511622758</v>
+      </c>
+      <c r="H420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="2">
+        <v>44055</v>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C421">
+        <v>11765</v>
+      </c>
+      <c r="D421">
+        <v>0.2759793572601454</v>
+      </c>
+      <c r="E421">
+        <v>386</v>
+      </c>
+      <c r="F421">
+        <v>2878</v>
+      </c>
+      <c r="G421">
+        <v>0.3185742749612575</v>
+      </c>
+      <c r="H421">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H924"/>
+  <dimension ref="A1:H937"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -26252,6 +26252,370 @@
         <v>0</v>
       </c>
     </row>
+    <row r="925">
+      <c r="A925" s="2">
+        <v>44056</v>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>&lt;1 year</t>
+        </is>
+      </c>
+      <c r="C925">
+        <v>143</v>
+      </c>
+      <c r="D925">
+        <v>0.003291896869244936</v>
+      </c>
+      <c r="E925">
+        <v>0</v>
+      </c>
+      <c r="F925">
+        <v>2</v>
+      </c>
+      <c r="G925">
+        <v>0.0002153084293250081</v>
+      </c>
+      <c r="H925">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" s="2">
+        <v>44056</v>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t>1-9 years</t>
+        </is>
+      </c>
+      <c r="C926">
+        <v>659</v>
+      </c>
+      <c r="D926">
+        <v>0.01517034990791897</v>
+      </c>
+      <c r="E926">
+        <v>0</v>
+      </c>
+      <c r="F926">
+        <v>5</v>
+      </c>
+      <c r="G926">
+        <v>0.0005382710733125202</v>
+      </c>
+      <c r="H926">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" s="2">
+        <v>44056</v>
+      </c>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t>10-19 years</t>
+        </is>
+      </c>
+      <c r="C927">
+        <v>1719</v>
+      </c>
+      <c r="D927">
+        <v>0.03957182320441989</v>
+      </c>
+      <c r="E927">
+        <v>13</v>
+      </c>
+      <c r="F927">
+        <v>9</v>
+      </c>
+      <c r="G927">
+        <v>0.0009688879319625363</v>
+      </c>
+      <c r="H927">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" s="2">
+        <v>44056</v>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t>20-29 years</t>
+        </is>
+      </c>
+      <c r="C928">
+        <v>8153</v>
+      </c>
+      <c r="D928">
+        <v>0.1876841620626151</v>
+      </c>
+      <c r="E928">
+        <v>165</v>
+      </c>
+      <c r="F928">
+        <v>66</v>
+      </c>
+      <c r="G928">
+        <v>0.007105178167725266</v>
+      </c>
+      <c r="H928">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" s="2">
+        <v>44056</v>
+      </c>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t>30-39 years</t>
+        </is>
+      </c>
+      <c r="C929">
+        <v>8966</v>
+      </c>
+      <c r="D929">
+        <v>0.2063996316758748</v>
+      </c>
+      <c r="E929">
+        <v>254</v>
+      </c>
+      <c r="F929">
+        <v>190</v>
+      </c>
+      <c r="G929">
+        <v>0.02045430078587577</v>
+      </c>
+      <c r="H929">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" s="2">
+        <v>44056</v>
+      </c>
+      <c r="B930" t="inlineStr">
+        <is>
+          <t>40-49 years</t>
+        </is>
+      </c>
+      <c r="C930">
+        <v>8283</v>
+      </c>
+      <c r="D930">
+        <v>0.1906767955801105</v>
+      </c>
+      <c r="E930">
+        <v>183</v>
+      </c>
+      <c r="F930">
+        <v>495</v>
+      </c>
+      <c r="G930">
+        <v>0.0532888362579395</v>
+      </c>
+      <c r="H930">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" s="2">
+        <v>44056</v>
+      </c>
+      <c r="B931" t="inlineStr">
+        <is>
+          <t>50-59 years</t>
+        </is>
+      </c>
+      <c r="C931">
+        <v>7410</v>
+      </c>
+      <c r="D931">
+        <v>0.1705801104972376</v>
+      </c>
+      <c r="E931">
+        <v>125</v>
+      </c>
+      <c r="F931">
+        <v>1085</v>
+      </c>
+      <c r="G931">
+        <v>0.1168048229088169</v>
+      </c>
+      <c r="H931">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" s="2">
+        <v>44056</v>
+      </c>
+      <c r="B932" t="inlineStr">
+        <is>
+          <t>60-64 years</t>
+        </is>
+      </c>
+      <c r="C932">
+        <v>2855</v>
+      </c>
+      <c r="D932">
+        <v>0.06572283609576428</v>
+      </c>
+      <c r="E932">
+        <v>32</v>
+      </c>
+      <c r="F932">
+        <v>866</v>
+      </c>
+      <c r="G932">
+        <v>0.0932285498977285</v>
+      </c>
+      <c r="H932">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" s="2">
+        <v>44056</v>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t>65-69 years</t>
+        </is>
+      </c>
+      <c r="C933">
+        <v>1998</v>
+      </c>
+      <c r="D933">
+        <v>0.04599447513812155</v>
+      </c>
+      <c r="E933">
+        <v>24</v>
+      </c>
+      <c r="F933">
+        <v>1068</v>
+      </c>
+      <c r="G933">
+        <v>0.1149747012595543</v>
+      </c>
+      <c r="H933">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" s="2">
+        <v>44056</v>
+      </c>
+      <c r="B934" t="inlineStr">
+        <is>
+          <t>70-74 years</t>
+        </is>
+      </c>
+      <c r="C934">
+        <v>1173</v>
+      </c>
+      <c r="D934">
+        <v>0.02700276243093923</v>
+      </c>
+      <c r="E934">
+        <v>6</v>
+      </c>
+      <c r="F934">
+        <v>1222</v>
+      </c>
+      <c r="G934">
+        <v>0.1315534503175799</v>
+      </c>
+      <c r="H934">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" s="2">
+        <v>44056</v>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>75-79 years</t>
+        </is>
+      </c>
+      <c r="C935">
+        <v>773</v>
+      </c>
+      <c r="D935">
+        <v>0.01779465930018416</v>
+      </c>
+      <c r="E935">
+        <v>6</v>
+      </c>
+      <c r="F935">
+        <v>1141</v>
+      </c>
+      <c r="G935">
+        <v>0.1228334589299171</v>
+      </c>
+      <c r="H935">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" s="2">
+        <v>44056</v>
+      </c>
+      <c r="B936" t="inlineStr">
+        <is>
+          <t>80+ years</t>
+        </is>
+      </c>
+      <c r="C936">
+        <v>1277</v>
+      </c>
+      <c r="D936">
+        <v>0.02939686924493554</v>
+      </c>
+      <c r="E936">
+        <v>2</v>
+      </c>
+      <c r="F936">
+        <v>3140</v>
+      </c>
+      <c r="G936">
+        <v>0.3380342340402627</v>
+      </c>
+      <c r="H936">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" s="2">
+        <v>44056</v>
+      </c>
+      <c r="B937" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C937">
+        <v>31</v>
+      </c>
+      <c r="D937">
+        <v>0.0007136279926335175</v>
+      </c>
+      <c r="E937">
+        <v>0</v>
+      </c>
+      <c r="F937">
+        <v>0</v>
+      </c>
+      <c r="G937">
+        <v>0</v>
+      </c>
+      <c r="H937">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26259,7 +26623,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H214"/>
+  <dimension ref="A1:H217"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -32274,6 +32638,90 @@
         <v>0</v>
       </c>
     </row>
+    <row r="215">
+      <c r="A215" s="2">
+        <v>44056</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C215">
+        <v>15284</v>
+      </c>
+      <c r="D215">
+        <v>0.351841620626151</v>
+      </c>
+      <c r="E215">
+        <v>69</v>
+      </c>
+      <c r="F215">
+        <v>3785</v>
+      </c>
+      <c r="G215">
+        <v>0.4074712024975778</v>
+      </c>
+      <c r="H215">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2">
+        <v>44056</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C216">
+        <v>27145</v>
+      </c>
+      <c r="D216">
+        <v>0.6248848987108656</v>
+      </c>
+      <c r="E216">
+        <v>708</v>
+      </c>
+      <c r="F216">
+        <v>5504</v>
+      </c>
+      <c r="G216">
+        <v>0.5925287975024223</v>
+      </c>
+      <c r="H216">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2">
+        <v>44056</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C217">
+        <v>1011</v>
+      </c>
+      <c r="D217">
+        <v>0.02327348066298342</v>
+      </c>
+      <c r="E217">
+        <v>33</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+      <c r="G217">
+        <v>0</v>
+      </c>
+      <c r="H217">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -32281,7 +32729,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H421"/>
+  <dimension ref="A1:H427"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -44092,6 +44540,174 @@
         <v>69</v>
       </c>
     </row>
+    <row r="422">
+      <c r="A422" s="2">
+        <v>44056</v>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C422">
+        <v>727</v>
+      </c>
+      <c r="D422">
+        <v>0.01673572744014733</v>
+      </c>
+      <c r="E422">
+        <v>1</v>
+      </c>
+      <c r="F422">
+        <v>212</v>
+      </c>
+      <c r="G422">
+        <v>0.02282269350845086</v>
+      </c>
+      <c r="H422">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="2">
+        <v>44056</v>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C423">
+        <v>6785</v>
+      </c>
+      <c r="D423">
+        <v>0.1561924493554328</v>
+      </c>
+      <c r="E423">
+        <v>175</v>
+      </c>
+      <c r="F423">
+        <v>1174</v>
+      </c>
+      <c r="G423">
+        <v>0.1263860480137797</v>
+      </c>
+      <c r="H423">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="2">
+        <v>44056</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="C424">
+        <v>17181</v>
+      </c>
+      <c r="D424">
+        <v>0.3955110497237569</v>
+      </c>
+      <c r="E424">
+        <v>328</v>
+      </c>
+      <c r="F424">
+        <v>4879</v>
+      </c>
+      <c r="G424">
+        <v>0.5252449133383572</v>
+      </c>
+      <c r="H424">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="2">
+        <v>44056</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C425">
+        <v>186</v>
+      </c>
+      <c r="D425">
+        <v>0.004281767955801105</v>
+      </c>
+      <c r="E425">
+        <v>0</v>
+      </c>
+      <c r="F425">
+        <v>62</v>
+      </c>
+      <c r="G425">
+        <v>0.006674561309075251</v>
+      </c>
+      <c r="H425">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="2">
+        <v>44056</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C426">
+        <v>6515</v>
+      </c>
+      <c r="D426">
+        <v>0.1499769797421731</v>
+      </c>
+      <c r="E426">
+        <v>25</v>
+      </c>
+      <c r="F426">
+        <v>4</v>
+      </c>
+      <c r="G426">
+        <v>0.0004306168586500162</v>
+      </c>
+      <c r="H426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="2">
+        <v>44056</v>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C427">
+        <v>12046</v>
+      </c>
+      <c r="D427">
+        <v>0.2773020257826888</v>
+      </c>
+      <c r="E427">
+        <v>281</v>
+      </c>
+      <c r="F427">
+        <v>2958</v>
+      </c>
+      <c r="G427">
+        <v>0.318441166971687</v>
+      </c>
+      <c r="H427">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H937"/>
+  <dimension ref="A1:H950"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -26616,6 +26616,370 @@
         <v>0</v>
       </c>
     </row>
+    <row r="938">
+      <c r="A938" s="2">
+        <v>44057</v>
+      </c>
+      <c r="B938" t="inlineStr">
+        <is>
+          <t>&lt;1 year</t>
+        </is>
+      </c>
+      <c r="C938">
+        <v>144</v>
+      </c>
+      <c r="D938">
+        <v>0.003250637711912233</v>
+      </c>
+      <c r="E938">
+        <v>1</v>
+      </c>
+      <c r="F938">
+        <v>2</v>
+      </c>
+      <c r="G938">
+        <v>0.0002082899395959175</v>
+      </c>
+      <c r="H938">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" s="2">
+        <v>44057</v>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t>1-9 years</t>
+        </is>
+      </c>
+      <c r="C939">
+        <v>664</v>
+      </c>
+      <c r="D939">
+        <v>0.0149890516715953</v>
+      </c>
+      <c r="E939">
+        <v>5</v>
+      </c>
+      <c r="F939">
+        <v>5</v>
+      </c>
+      <c r="G939">
+        <v>0.0005207248489897938</v>
+      </c>
+      <c r="H939">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" s="2">
+        <v>44057</v>
+      </c>
+      <c r="B940" t="inlineStr">
+        <is>
+          <t>10-19 years</t>
+        </is>
+      </c>
+      <c r="C940">
+        <v>1734</v>
+      </c>
+      <c r="D940">
+        <v>0.03914309578094314</v>
+      </c>
+      <c r="E940">
+        <v>15</v>
+      </c>
+      <c r="F940">
+        <v>9</v>
+      </c>
+      <c r="G940">
+        <v>0.0009373047281816288</v>
+      </c>
+      <c r="H940">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" s="2">
+        <v>44057</v>
+      </c>
+      <c r="B941" t="inlineStr">
+        <is>
+          <t>20-29 years</t>
+        </is>
+      </c>
+      <c r="C941">
+        <v>8336</v>
+      </c>
+      <c r="D941">
+        <v>0.1881758053229193</v>
+      </c>
+      <c r="E941">
+        <v>183</v>
+      </c>
+      <c r="F941">
+        <v>67</v>
+      </c>
+      <c r="G941">
+        <v>0.006977712976463237</v>
+      </c>
+      <c r="H941">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" s="2">
+        <v>44057</v>
+      </c>
+      <c r="B942" t="inlineStr">
+        <is>
+          <t>30-39 years</t>
+        </is>
+      </c>
+      <c r="C942">
+        <v>9213</v>
+      </c>
+      <c r="D942">
+        <v>0.2079730919433847</v>
+      </c>
+      <c r="E942">
+        <v>247</v>
+      </c>
+      <c r="F942">
+        <v>193</v>
+      </c>
+      <c r="G942">
+        <v>0.02009997917100604</v>
+      </c>
+      <c r="H942">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" s="2">
+        <v>44057</v>
+      </c>
+      <c r="B943" t="inlineStr">
+        <is>
+          <t>40-49 years</t>
+        </is>
+      </c>
+      <c r="C943">
+        <v>8472</v>
+      </c>
+      <c r="D943">
+        <v>0.1912458520508364</v>
+      </c>
+      <c r="E943">
+        <v>189</v>
+      </c>
+      <c r="F943">
+        <v>515</v>
+      </c>
+      <c r="G943">
+        <v>0.05363465944594876</v>
+      </c>
+      <c r="H943">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" s="2">
+        <v>44057</v>
+      </c>
+      <c r="B944" t="inlineStr">
+        <is>
+          <t>50-59 years</t>
+        </is>
+      </c>
+      <c r="C944">
+        <v>7548</v>
+      </c>
+      <c r="D944">
+        <v>0.1703875933993996</v>
+      </c>
+      <c r="E944">
+        <v>138</v>
+      </c>
+      <c r="F944">
+        <v>1124</v>
+      </c>
+      <c r="G944">
+        <v>0.1170589460529057</v>
+      </c>
+      <c r="H944">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" s="2">
+        <v>44057</v>
+      </c>
+      <c r="B945" t="inlineStr">
+        <is>
+          <t>60-64 years</t>
+        </is>
+      </c>
+      <c r="C945">
+        <v>2894</v>
+      </c>
+      <c r="D945">
+        <v>0.06532878846023613</v>
+      </c>
+      <c r="E945">
+        <v>39</v>
+      </c>
+      <c r="F945">
+        <v>901</v>
+      </c>
+      <c r="G945">
+        <v>0.09383461778796085</v>
+      </c>
+      <c r="H945">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" s="2">
+        <v>44057</v>
+      </c>
+      <c r="B946" t="inlineStr">
+        <is>
+          <t>65-69 years</t>
+        </is>
+      </c>
+      <c r="C946">
+        <v>2016</v>
+      </c>
+      <c r="D946">
+        <v>0.04550892796677126</v>
+      </c>
+      <c r="E946">
+        <v>18</v>
+      </c>
+      <c r="F946">
+        <v>1101</v>
+      </c>
+      <c r="G946">
+        <v>0.1146636117475526</v>
+      </c>
+      <c r="H946">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" s="2">
+        <v>44057</v>
+      </c>
+      <c r="B947" t="inlineStr">
+        <is>
+          <t>70-74 years</t>
+        </is>
+      </c>
+      <c r="C947">
+        <v>1184</v>
+      </c>
+      <c r="D947">
+        <v>0.02672746563127836</v>
+      </c>
+      <c r="E947">
+        <v>11</v>
+      </c>
+      <c r="F947">
+        <v>1252</v>
+      </c>
+      <c r="G947">
+        <v>0.1303895021870444</v>
+      </c>
+      <c r="H947">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" s="2">
+        <v>44057</v>
+      </c>
+      <c r="B948" t="inlineStr">
+        <is>
+          <t>75-79 years</t>
+        </is>
+      </c>
+      <c r="C948">
+        <v>781</v>
+      </c>
+      <c r="D948">
+        <v>0.01763019481252398</v>
+      </c>
+      <c r="E948">
+        <v>8</v>
+      </c>
+      <c r="F948">
+        <v>1186</v>
+      </c>
+      <c r="G948">
+        <v>0.1235159341803791</v>
+      </c>
+      <c r="H948">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" s="2">
+        <v>44057</v>
+      </c>
+      <c r="B949" t="inlineStr">
+        <is>
+          <t>80+ years</t>
+        </is>
+      </c>
+      <c r="C949">
+        <v>1281</v>
+      </c>
+      <c r="D949">
+        <v>0.02891713131221924</v>
+      </c>
+      <c r="E949">
+        <v>4</v>
+      </c>
+      <c r="F949">
+        <v>3247</v>
+      </c>
+      <c r="G949">
+        <v>0.3381587169339721</v>
+      </c>
+      <c r="H949">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" s="2">
+        <v>44057</v>
+      </c>
+      <c r="B950" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C950">
+        <v>32</v>
+      </c>
+      <c r="D950">
+        <v>0.0007223639359804962</v>
+      </c>
+      <c r="E950">
+        <v>1</v>
+      </c>
+      <c r="F950">
+        <v>0</v>
+      </c>
+      <c r="G950">
+        <v>0</v>
+      </c>
+      <c r="H950">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26623,7 +26987,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:H220"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -32722,6 +33086,90 @@
         <v>0</v>
       </c>
     </row>
+    <row r="218">
+      <c r="A218" s="2">
+        <v>44057</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C218">
+        <v>15345</v>
+      </c>
+      <c r="D218">
+        <v>0.3463960811756473</v>
+      </c>
+      <c r="E218">
+        <v>61</v>
+      </c>
+      <c r="F218">
+        <v>3923</v>
+      </c>
+      <c r="G218">
+        <v>0.4085607165173922</v>
+      </c>
+      <c r="H218">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2">
+        <v>44057</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C219">
+        <v>27931</v>
+      </c>
+      <c r="D219">
+        <v>0.6305108467459762</v>
+      </c>
+      <c r="E219">
+        <v>786</v>
+      </c>
+      <c r="F219">
+        <v>5679</v>
+      </c>
+      <c r="G219">
+        <v>0.5914392834826078</v>
+      </c>
+      <c r="H219">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2">
+        <v>44057</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C220">
+        <v>1023</v>
+      </c>
+      <c r="D220">
+        <v>0.02309307207837649</v>
+      </c>
+      <c r="E220">
+        <v>12</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+      <c r="H220">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -32729,7 +33177,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H427"/>
+  <dimension ref="A1:H433"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -44708,6 +45156,174 @@
         <v>80</v>
       </c>
     </row>
+    <row r="428">
+      <c r="A428" s="2">
+        <v>44057</v>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C428">
+        <v>727</v>
+      </c>
+      <c r="D428">
+        <v>0.0164112056705569</v>
+      </c>
+      <c r="E428">
+        <v>0</v>
+      </c>
+      <c r="F428">
+        <v>216</v>
+      </c>
+      <c r="G428">
+        <v>0.02249531347635909</v>
+      </c>
+      <c r="H428">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="2">
+        <v>44057</v>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C429">
+        <v>6969</v>
+      </c>
+      <c r="D429">
+        <v>0.1573173209327524</v>
+      </c>
+      <c r="E429">
+        <v>184</v>
+      </c>
+      <c r="F429">
+        <v>1203</v>
+      </c>
+      <c r="G429">
+        <v>0.1252863986669444</v>
+      </c>
+      <c r="H429">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="2">
+        <v>44057</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="C430">
+        <v>17573</v>
+      </c>
+      <c r="D430">
+        <v>0.3966906702182894</v>
+      </c>
+      <c r="E430">
+        <v>392</v>
+      </c>
+      <c r="F430">
+        <v>5074</v>
+      </c>
+      <c r="G430">
+        <v>0.5284315767548428</v>
+      </c>
+      <c r="H430">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="2">
+        <v>44057</v>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C431">
+        <v>186</v>
+      </c>
+      <c r="D431">
+        <v>0.004198740377886634</v>
+      </c>
+      <c r="E431">
+        <v>0</v>
+      </c>
+      <c r="F431">
+        <v>64</v>
+      </c>
+      <c r="G431">
+        <v>0.006665278067069361</v>
+      </c>
+      <c r="H431">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="2">
+        <v>44057</v>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C432">
+        <v>6532</v>
+      </c>
+      <c r="D432">
+        <v>0.1474525384320188</v>
+      </c>
+      <c r="E432">
+        <v>17</v>
+      </c>
+      <c r="F432">
+        <v>4</v>
+      </c>
+      <c r="G432">
+        <v>0.000416579879191835</v>
+      </c>
+      <c r="H432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="2">
+        <v>44057</v>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C433">
+        <v>12312</v>
+      </c>
+      <c r="D433">
+        <v>0.2779295243684959</v>
+      </c>
+      <c r="E433">
+        <v>266</v>
+      </c>
+      <c r="F433">
+        <v>3041</v>
+      </c>
+      <c r="G433">
+        <v>0.3167048531555926</v>
+      </c>
+      <c r="H433">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H950"/>
+  <dimension ref="A1:H963"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -26980,6 +26980,370 @@
         <v>0</v>
       </c>
     </row>
+    <row r="951">
+      <c r="A951" s="2">
+        <v>44058</v>
+      </c>
+      <c r="B951" t="inlineStr">
+        <is>
+          <t>&lt;1 year</t>
+        </is>
+      </c>
+      <c r="C951">
+        <v>144</v>
+      </c>
+      <c r="D951">
+        <v>0.003190711484345572</v>
+      </c>
+      <c r="E951">
+        <v>0</v>
+      </c>
+      <c r="F951">
+        <v>2</v>
+      </c>
+      <c r="G951">
+        <v>0.0002032520325203252</v>
+      </c>
+      <c r="H951">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" s="2">
+        <v>44058</v>
+      </c>
+      <c r="B952" t="inlineStr">
+        <is>
+          <t>1-9 years</t>
+        </is>
+      </c>
+      <c r="C952">
+        <v>666</v>
+      </c>
+      <c r="D952">
+        <v>0.01475704061509827</v>
+      </c>
+      <c r="E952">
+        <v>2</v>
+      </c>
+      <c r="F952">
+        <v>5</v>
+      </c>
+      <c r="G952">
+        <v>0.0005081300813008131</v>
+      </c>
+      <c r="H952">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" s="2">
+        <v>44058</v>
+      </c>
+      <c r="B953" t="inlineStr">
+        <is>
+          <t>10-19 years</t>
+        </is>
+      </c>
+      <c r="C953">
+        <v>1742</v>
+      </c>
+      <c r="D953">
+        <v>0.0385987458731249</v>
+      </c>
+      <c r="E953">
+        <v>8</v>
+      </c>
+      <c r="F953">
+        <v>10</v>
+      </c>
+      <c r="G953">
+        <v>0.001016260162601626</v>
+      </c>
+      <c r="H953">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" s="2">
+        <v>44058</v>
+      </c>
+      <c r="B954" t="inlineStr">
+        <is>
+          <t>20-29 years</t>
+        </is>
+      </c>
+      <c r="C954">
+        <v>8521</v>
+      </c>
+      <c r="D954">
+        <v>0.188805920542421</v>
+      </c>
+      <c r="E954">
+        <v>185</v>
+      </c>
+      <c r="F954">
+        <v>68</v>
+      </c>
+      <c r="G954">
+        <v>0.006910569105691057</v>
+      </c>
+      <c r="H954">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" s="2">
+        <v>44058</v>
+      </c>
+      <c r="B955" t="inlineStr">
+        <is>
+          <t>30-39 years</t>
+        </is>
+      </c>
+      <c r="C955">
+        <v>9483</v>
+      </c>
+      <c r="D955">
+        <v>0.2101216458753407</v>
+      </c>
+      <c r="E955">
+        <v>270</v>
+      </c>
+      <c r="F955">
+        <v>198</v>
+      </c>
+      <c r="G955">
+        <v>0.0201219512195122</v>
+      </c>
+      <c r="H955">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" s="2">
+        <v>44058</v>
+      </c>
+      <c r="B956" t="inlineStr">
+        <is>
+          <t>40-49 years</t>
+        </is>
+      </c>
+      <c r="C956">
+        <v>8670</v>
+      </c>
+      <c r="D956">
+        <v>0.192107420619973</v>
+      </c>
+      <c r="E956">
+        <v>198</v>
+      </c>
+      <c r="F956">
+        <v>524</v>
+      </c>
+      <c r="G956">
+        <v>0.0532520325203252</v>
+      </c>
+      <c r="H956">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" s="2">
+        <v>44058</v>
+      </c>
+      <c r="B957" t="inlineStr">
+        <is>
+          <t>50-59 years</t>
+        </is>
+      </c>
+      <c r="C957">
+        <v>7660</v>
+      </c>
+      <c r="D957">
+        <v>0.1697281247922714</v>
+      </c>
+      <c r="E957">
+        <v>112</v>
+      </c>
+      <c r="F957">
+        <v>1151</v>
+      </c>
+      <c r="G957">
+        <v>0.1169715447154472</v>
+      </c>
+      <c r="H957">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" s="2">
+        <v>44058</v>
+      </c>
+      <c r="B958" t="inlineStr">
+        <is>
+          <t>60-64 years</t>
+        </is>
+      </c>
+      <c r="C958">
+        <v>2923</v>
+      </c>
+      <c r="D958">
+        <v>0.06476701158848686</v>
+      </c>
+      <c r="E958">
+        <v>29</v>
+      </c>
+      <c r="F958">
+        <v>928</v>
+      </c>
+      <c r="G958">
+        <v>0.0943089430894309</v>
+      </c>
+      <c r="H958">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" s="2">
+        <v>44058</v>
+      </c>
+      <c r="B959" t="inlineStr">
+        <is>
+          <t>65-69 years</t>
+        </is>
+      </c>
+      <c r="C959">
+        <v>2026</v>
+      </c>
+      <c r="D959">
+        <v>0.04489153796725089</v>
+      </c>
+      <c r="E959">
+        <v>10</v>
+      </c>
+      <c r="F959">
+        <v>1131</v>
+      </c>
+      <c r="G959">
+        <v>0.1149390243902439</v>
+      </c>
+      <c r="H959">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" s="2">
+        <v>44058</v>
+      </c>
+      <c r="B960" t="inlineStr">
+        <is>
+          <t>70-74 years</t>
+        </is>
+      </c>
+      <c r="C960">
+        <v>1194</v>
+      </c>
+      <c r="D960">
+        <v>0.0264563160576987</v>
+      </c>
+      <c r="E960">
+        <v>10</v>
+      </c>
+      <c r="F960">
+        <v>1286</v>
+      </c>
+      <c r="G960">
+        <v>0.1306910569105691</v>
+      </c>
+      <c r="H960">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" s="2">
+        <v>44058</v>
+      </c>
+      <c r="B961" t="inlineStr">
+        <is>
+          <t>75-79 years</t>
+        </is>
+      </c>
+      <c r="C961">
+        <v>784</v>
+      </c>
+      <c r="D961">
+        <v>0.01737165141477034</v>
+      </c>
+      <c r="E961">
+        <v>3</v>
+      </c>
+      <c r="F961">
+        <v>1211</v>
+      </c>
+      <c r="G961">
+        <v>0.1230691056910569</v>
+      </c>
+      <c r="H961">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" s="2">
+        <v>44058</v>
+      </c>
+      <c r="B962" t="inlineStr">
+        <is>
+          <t>80+ years</t>
+        </is>
+      </c>
+      <c r="C962">
+        <v>1286</v>
+      </c>
+      <c r="D962">
+        <v>0.02849482617269726</v>
+      </c>
+      <c r="E962">
+        <v>5</v>
+      </c>
+      <c r="F962">
+        <v>3326</v>
+      </c>
+      <c r="G962">
+        <v>0.3380081300813008</v>
+      </c>
+      <c r="H962">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" s="2">
+        <v>44058</v>
+      </c>
+      <c r="B963" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C963">
+        <v>32</v>
+      </c>
+      <c r="D963">
+        <v>0.0007090469965212382</v>
+      </c>
+      <c r="E963">
+        <v>0</v>
+      </c>
+      <c r="F963">
+        <v>0</v>
+      </c>
+      <c r="G963">
+        <v>0</v>
+      </c>
+      <c r="H963">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26987,7 +27351,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H223"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -33170,6 +33534,90 @@
         <v>0</v>
       </c>
     </row>
+    <row r="221">
+      <c r="A221" s="2">
+        <v>44058</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C221">
+        <v>15397</v>
+      </c>
+      <c r="D221">
+        <v>0.341162393919922</v>
+      </c>
+      <c r="E221">
+        <v>52</v>
+      </c>
+      <c r="F221">
+        <v>4036</v>
+      </c>
+      <c r="G221">
+        <v>0.4101626016260163</v>
+      </c>
+      <c r="H221">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2">
+        <v>44058</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C222">
+        <v>28702</v>
+      </c>
+      <c r="D222">
+        <v>0.635970840442268</v>
+      </c>
+      <c r="E222">
+        <v>771</v>
+      </c>
+      <c r="F222">
+        <v>5804</v>
+      </c>
+      <c r="G222">
+        <v>0.5898373983739838</v>
+      </c>
+      <c r="H222">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2">
+        <v>44058</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C223">
+        <v>1032</v>
+      </c>
+      <c r="D223">
+        <v>0.02286676563780993</v>
+      </c>
+      <c r="E223">
+        <v>9</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33177,7 +33625,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H433"/>
+  <dimension ref="A1:H439"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -45324,6 +45772,174 @@
         <v>83</v>
       </c>
     </row>
+    <row r="434">
+      <c r="A434" s="2">
+        <v>44058</v>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C434">
+        <v>730</v>
+      </c>
+      <c r="D434">
+        <v>0.01617513460814075</v>
+      </c>
+      <c r="E434">
+        <v>3</v>
+      </c>
+      <c r="F434">
+        <v>223</v>
+      </c>
+      <c r="G434">
+        <v>0.02266260162601626</v>
+      </c>
+      <c r="H434">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="2">
+        <v>44058</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C435">
+        <v>7143</v>
+      </c>
+      <c r="D435">
+        <v>0.1582725842547251</v>
+      </c>
+      <c r="E435">
+        <v>174</v>
+      </c>
+      <c r="F435">
+        <v>1222</v>
+      </c>
+      <c r="G435">
+        <v>0.1241869918699187</v>
+      </c>
+      <c r="H435">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="2">
+        <v>44058</v>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="C436">
+        <v>17944</v>
+      </c>
+      <c r="D436">
+        <v>0.3975981032992843</v>
+      </c>
+      <c r="E436">
+        <v>371</v>
+      </c>
+      <c r="F436">
+        <v>5234</v>
+      </c>
+      <c r="G436">
+        <v>0.531910569105691</v>
+      </c>
+      <c r="H436">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="2">
+        <v>44058</v>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C437">
+        <v>185</v>
+      </c>
+      <c r="D437">
+        <v>0.004099177948638408</v>
+      </c>
+      <c r="E437">
+        <v>-1</v>
+      </c>
+      <c r="F437">
+        <v>64</v>
+      </c>
+      <c r="G437">
+        <v>0.006504065040650407</v>
+      </c>
+      <c r="H437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="2">
+        <v>44058</v>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C438">
+        <v>6570</v>
+      </c>
+      <c r="D438">
+        <v>0.1455762114732667</v>
+      </c>
+      <c r="E438">
+        <v>38</v>
+      </c>
+      <c r="F438">
+        <v>4</v>
+      </c>
+      <c r="G438">
+        <v>0.0004065040650406504</v>
+      </c>
+      <c r="H438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="2">
+        <v>44058</v>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C439">
+        <v>12559</v>
+      </c>
+      <c r="D439">
+        <v>0.2782787884159447</v>
+      </c>
+      <c r="E439">
+        <v>247</v>
+      </c>
+      <c r="F439">
+        <v>3093</v>
+      </c>
+      <c r="G439">
+        <v>0.3143292682926829</v>
+      </c>
+      <c r="H439">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H963"/>
+  <dimension ref="A1:H976"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -27344,6 +27344,370 @@
         <v>0</v>
       </c>
     </row>
+    <row r="964">
+      <c r="A964" s="2">
+        <v>44059</v>
+      </c>
+      <c r="B964" t="inlineStr">
+        <is>
+          <t>&lt;1 year</t>
+        </is>
+      </c>
+      <c r="C964">
+        <v>145</v>
+      </c>
+      <c r="D964">
+        <v>0.003203216471160006</v>
+      </c>
+      <c r="E964">
+        <v>1</v>
+      </c>
+      <c r="F964">
+        <v>2</v>
+      </c>
+      <c r="G964">
+        <v>0.0002003405789842733</v>
+      </c>
+      <c r="H964">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" s="2">
+        <v>44059</v>
+      </c>
+      <c r="B965" t="inlineStr">
+        <is>
+          <t>1-9 years</t>
+        </is>
+      </c>
+      <c r="C965">
+        <v>666</v>
+      </c>
+      <c r="D965">
+        <v>0.01471270461925906</v>
+      </c>
+      <c r="E965">
+        <v>0</v>
+      </c>
+      <c r="F965">
+        <v>5</v>
+      </c>
+      <c r="G965">
+        <v>0.0005008514474606832</v>
+      </c>
+      <c r="H965">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" s="2">
+        <v>44059</v>
+      </c>
+      <c r="B966" t="inlineStr">
+        <is>
+          <t>10-19 years</t>
+        </is>
+      </c>
+      <c r="C966">
+        <v>1747</v>
+      </c>
+      <c r="D966">
+        <v>0.03859323569045883</v>
+      </c>
+      <c r="E966">
+        <v>5</v>
+      </c>
+      <c r="F966">
+        <v>10</v>
+      </c>
+      <c r="G966">
+        <v>0.001001702894921366</v>
+      </c>
+      <c r="H966">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" s="2">
+        <v>44059</v>
+      </c>
+      <c r="B967" t="inlineStr">
+        <is>
+          <t>20-29 years</t>
+        </is>
+      </c>
+      <c r="C967">
+        <v>8557</v>
+      </c>
+      <c r="D967">
+        <v>0.1890339540945943</v>
+      </c>
+      <c r="E967">
+        <v>36</v>
+      </c>
+      <c r="F967">
+        <v>70</v>
+      </c>
+      <c r="G967">
+        <v>0.007011920264449564</v>
+      </c>
+      <c r="H967">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" s="2">
+        <v>44059</v>
+      </c>
+      <c r="B968" t="inlineStr">
+        <is>
+          <t>30-39 years</t>
+        </is>
+      </c>
+      <c r="C968">
+        <v>9523</v>
+      </c>
+      <c r="D968">
+        <v>0.210374003136943</v>
+      </c>
+      <c r="E968">
+        <v>40</v>
+      </c>
+      <c r="F968">
+        <v>199</v>
+      </c>
+      <c r="G968">
+        <v>0.01993388760893519</v>
+      </c>
+      <c r="H968">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" s="2">
+        <v>44059</v>
+      </c>
+      <c r="B969" t="inlineStr">
+        <is>
+          <t>40-49 years</t>
+        </is>
+      </c>
+      <c r="C969">
+        <v>8694</v>
+      </c>
+      <c r="D969">
+        <v>0.1920604413811386</v>
+      </c>
+      <c r="E969">
+        <v>24</v>
+      </c>
+      <c r="F969">
+        <v>535</v>
+      </c>
+      <c r="G969">
+        <v>0.0535911048782931</v>
+      </c>
+      <c r="H969">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" s="2">
+        <v>44059</v>
+      </c>
+      <c r="B970" t="inlineStr">
+        <is>
+          <t>50-59 years</t>
+        </is>
+      </c>
+      <c r="C970">
+        <v>7674</v>
+      </c>
+      <c r="D970">
+        <v>0.1695274703426337</v>
+      </c>
+      <c r="E970">
+        <v>14</v>
+      </c>
+      <c r="F970">
+        <v>1165</v>
+      </c>
+      <c r="G970">
+        <v>0.1166983872583392</v>
+      </c>
+      <c r="H970">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" s="2">
+        <v>44059</v>
+      </c>
+      <c r="B971" t="inlineStr">
+        <is>
+          <t>60-64 years</t>
+        </is>
+      </c>
+      <c r="C971">
+        <v>2929</v>
+      </c>
+      <c r="D971">
+        <v>0.06470497271743213</v>
+      </c>
+      <c r="E971">
+        <v>6</v>
+      </c>
+      <c r="F971">
+        <v>938</v>
+      </c>
+      <c r="G971">
+        <v>0.09395973154362416</v>
+      </c>
+      <c r="H971">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" s="2">
+        <v>44059</v>
+      </c>
+      <c r="B972" t="inlineStr">
+        <is>
+          <t>65-69 years</t>
+        </is>
+      </c>
+      <c r="C972">
+        <v>2028</v>
+      </c>
+      <c r="D972">
+        <v>0.04480084830008616</v>
+      </c>
+      <c r="E972">
+        <v>2</v>
+      </c>
+      <c r="F972">
+        <v>1147</v>
+      </c>
+      <c r="G972">
+        <v>0.1148953220474807</v>
+      </c>
+      <c r="H972">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" s="2">
+        <v>44059</v>
+      </c>
+      <c r="B973" t="inlineStr">
+        <is>
+          <t>70-74 years</t>
+        </is>
+      </c>
+      <c r="C973">
+        <v>1198</v>
+      </c>
+      <c r="D973">
+        <v>0.02646519539620474</v>
+      </c>
+      <c r="E973">
+        <v>4</v>
+      </c>
+      <c r="F973">
+        <v>1302</v>
+      </c>
+      <c r="G973">
+        <v>0.1304217169187619</v>
+      </c>
+      <c r="H973">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" s="2">
+        <v>44059</v>
+      </c>
+      <c r="B974" t="inlineStr">
+        <is>
+          <t>75-79 years</t>
+        </is>
+      </c>
+      <c r="C974">
+        <v>784</v>
+      </c>
+      <c r="D974">
+        <v>0.017319460092341</v>
+      </c>
+      <c r="E974">
+        <v>0</v>
+      </c>
+      <c r="F974">
+        <v>1232</v>
+      </c>
+      <c r="G974">
+        <v>0.1234097966543123</v>
+      </c>
+      <c r="H974">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" s="2">
+        <v>44059</v>
+      </c>
+      <c r="B975" t="inlineStr">
+        <is>
+          <t>80+ years</t>
+        </is>
+      </c>
+      <c r="C975">
+        <v>1290</v>
+      </c>
+      <c r="D975">
+        <v>0.02849758101928557</v>
+      </c>
+      <c r="E975">
+        <v>4</v>
+      </c>
+      <c r="F975">
+        <v>3378</v>
+      </c>
+      <c r="G975">
+        <v>0.3383752379044375</v>
+      </c>
+      <c r="H975">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" s="2">
+        <v>44059</v>
+      </c>
+      <c r="B976" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C976">
+        <v>32</v>
+      </c>
+      <c r="D976">
+        <v>0.000706916738462898</v>
+      </c>
+      <c r="E976">
+        <v>0</v>
+      </c>
+      <c r="F976">
+        <v>0</v>
+      </c>
+      <c r="G976">
+        <v>0</v>
+      </c>
+      <c r="H976">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27351,7 +27715,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H223"/>
+  <dimension ref="A1:H226"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -33618,6 +33982,90 @@
         <v>0</v>
       </c>
     </row>
+    <row r="224">
+      <c r="A224" s="2">
+        <v>44059</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C224">
+        <v>15420</v>
+      </c>
+      <c r="D224">
+        <v>0.3406455033468089</v>
+      </c>
+      <c r="E224">
+        <v>23</v>
+      </c>
+      <c r="F224">
+        <v>4101</v>
+      </c>
+      <c r="G224">
+        <v>0.4107983572072523</v>
+      </c>
+      <c r="H224">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2">
+        <v>44059</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C225">
+        <v>28812</v>
+      </c>
+      <c r="D225">
+        <v>0.6364901583935317</v>
+      </c>
+      <c r="E225">
+        <v>110</v>
+      </c>
+      <c r="F225">
+        <v>5882</v>
+      </c>
+      <c r="G225">
+        <v>0.5892016427927477</v>
+      </c>
+      <c r="H225">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2">
+        <v>44059</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C226">
+        <v>1035</v>
+      </c>
+      <c r="D226">
+        <v>0.02286433825965935</v>
+      </c>
+      <c r="E226">
+        <v>3</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33625,7 +34073,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H439"/>
+  <dimension ref="A1:H445"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -45940,6 +46388,174 @@
         <v>52</v>
       </c>
     </row>
+    <row r="440">
+      <c r="A440" s="2">
+        <v>44059</v>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C440">
+        <v>730</v>
+      </c>
+      <c r="D440">
+        <v>0.01612653809618486</v>
+      </c>
+      <c r="E440">
+        <v>0</v>
+      </c>
+      <c r="F440">
+        <v>225</v>
+      </c>
+      <c r="G440">
+        <v>0.02253831513573074</v>
+      </c>
+      <c r="H440">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="2">
+        <v>44059</v>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C441">
+        <v>7156</v>
+      </c>
+      <c r="D441">
+        <v>0.1580842556387656</v>
+      </c>
+      <c r="E441">
+        <v>13</v>
+      </c>
+      <c r="F441">
+        <v>1235</v>
+      </c>
+      <c r="G441">
+        <v>0.1237103075227887</v>
+      </c>
+      <c r="H441">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="2">
+        <v>44059</v>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="C442">
+        <v>17989</v>
+      </c>
+      <c r="D442">
+        <v>0.3973976627565334</v>
+      </c>
+      <c r="E442">
+        <v>45</v>
+      </c>
+      <c r="F442">
+        <v>5324</v>
+      </c>
+      <c r="G442">
+        <v>0.5333066212561355</v>
+      </c>
+      <c r="H442">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="2">
+        <v>44059</v>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C443">
+        <v>185</v>
+      </c>
+      <c r="D443">
+        <v>0.004086862394238629</v>
+      </c>
+      <c r="E443">
+        <v>0</v>
+      </c>
+      <c r="F443">
+        <v>65</v>
+      </c>
+      <c r="G443">
+        <v>0.006511068816988881</v>
+      </c>
+      <c r="H443">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="2">
+        <v>44059</v>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C444">
+        <v>6605</v>
+      </c>
+      <c r="D444">
+        <v>0.1459120330483575</v>
+      </c>
+      <c r="E444">
+        <v>35</v>
+      </c>
+      <c r="F444">
+        <v>4</v>
+      </c>
+      <c r="G444">
+        <v>0.0004006811579685465</v>
+      </c>
+      <c r="H444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="2">
+        <v>44059</v>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C445">
+        <v>12602</v>
+      </c>
+      <c r="D445">
+        <v>0.27839264806592</v>
+      </c>
+      <c r="E445">
+        <v>43</v>
+      </c>
+      <c r="F445">
+        <v>3130</v>
+      </c>
+      <c r="G445">
+        <v>0.3135330061103877</v>
+      </c>
+      <c r="H445">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H976"/>
+  <dimension ref="A1:H989"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -27708,6 +27708,370 @@
         <v>0</v>
       </c>
     </row>
+    <row r="977">
+      <c r="A977" s="2">
+        <v>44060</v>
+      </c>
+      <c r="B977" t="inlineStr">
+        <is>
+          <t>&lt;1 year</t>
+        </is>
+      </c>
+      <c r="C977">
+        <v>145</v>
+      </c>
+      <c r="D977">
+        <v>0.3202721209</v>
+      </c>
+      <c r="E977">
+        <v>0</v>
+      </c>
+      <c r="F977">
+        <v>2</v>
+      </c>
+      <c r="G977">
+        <v>0.0199322304</v>
+      </c>
+      <c r="H977">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" s="2">
+        <v>44060</v>
+      </c>
+      <c r="B978" t="inlineStr">
+        <is>
+          <t>1-9 years</t>
+        </is>
+      </c>
+      <c r="C978">
+        <v>666</v>
+      </c>
+      <c r="D978">
+        <v>0.014710429827</v>
+      </c>
+      <c r="E978">
+        <v>0</v>
+      </c>
+      <c r="F978">
+        <v>5</v>
+      </c>
+      <c r="G978">
+        <v>0.049830576</v>
+      </c>
+      <c r="H978">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" s="2">
+        <v>44060</v>
+      </c>
+      <c r="B979" t="inlineStr">
+        <is>
+          <t>10-19 years</t>
+        </is>
+      </c>
+      <c r="C979">
+        <v>1748</v>
+      </c>
+      <c r="D979">
+        <v>0.038609356363</v>
+      </c>
+      <c r="E979">
+        <v>1</v>
+      </c>
+      <c r="F979">
+        <v>10</v>
+      </c>
+      <c r="G979">
+        <v>0.0996611521</v>
+      </c>
+      <c r="H979">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" s="2">
+        <v>44060</v>
+      </c>
+      <c r="B980" t="inlineStr">
+        <is>
+          <t>20-29 years</t>
+        </is>
+      </c>
+      <c r="C980">
+        <v>8559</v>
+      </c>
+      <c r="D980">
+        <v>0.18904890224</v>
+      </c>
+      <c r="E980">
+        <v>2</v>
+      </c>
+      <c r="F980">
+        <v>70</v>
+      </c>
+      <c r="G980">
+        <v>0.6976280646</v>
+      </c>
+      <c r="H980">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" s="2">
+        <v>44060</v>
+      </c>
+      <c r="B981" t="inlineStr">
+        <is>
+          <t>30-39 years</t>
+        </is>
+      </c>
+      <c r="C981">
+        <v>9524</v>
+      </c>
+      <c r="D981">
+        <v>0.21036356408</v>
+      </c>
+      <c r="E981">
+        <v>1</v>
+      </c>
+      <c r="F981">
+        <v>200</v>
+      </c>
+      <c r="G981">
+        <v>0.019932230417</v>
+      </c>
+      <c r="H981">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" s="2">
+        <v>44060</v>
+      </c>
+      <c r="B982" t="inlineStr">
+        <is>
+          <t>40-49 years</t>
+        </is>
+      </c>
+      <c r="C982">
+        <v>8695</v>
+      </c>
+      <c r="D982">
+        <v>0.19205283386</v>
+      </c>
+      <c r="E982">
+        <v>1</v>
+      </c>
+      <c r="F982">
+        <v>540</v>
+      </c>
+      <c r="G982">
+        <v>0.053817022125</v>
+      </c>
+      <c r="H982">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" s="2">
+        <v>44060</v>
+      </c>
+      <c r="B983" t="inlineStr">
+        <is>
+          <t>50-59 years</t>
+        </is>
+      </c>
+      <c r="C983">
+        <v>7675</v>
+      </c>
+      <c r="D983">
+        <v>0.16952334673</v>
+      </c>
+      <c r="E983">
+        <v>1</v>
+      </c>
+      <c r="F983">
+        <v>1173</v>
+      </c>
+      <c r="G983">
+        <v>0.11690253139</v>
+      </c>
+      <c r="H983">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" s="2">
+        <v>44060</v>
+      </c>
+      <c r="B984" t="inlineStr">
+        <is>
+          <t>60-64 years</t>
+        </is>
+      </c>
+      <c r="C984">
+        <v>2930</v>
+      </c>
+      <c r="D984">
+        <v>0.064717056147</v>
+      </c>
+      <c r="E984">
+        <v>1</v>
+      </c>
+      <c r="F984">
+        <v>946</v>
+      </c>
+      <c r="G984">
+        <v>0.09427944987</v>
+      </c>
+      <c r="H984">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" s="2">
+        <v>44060</v>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t>65-69 years</t>
+        </is>
+      </c>
+      <c r="C985">
+        <v>2028</v>
+      </c>
+      <c r="D985">
+        <v>0.044793921456</v>
+      </c>
+      <c r="E985">
+        <v>0</v>
+      </c>
+      <c r="F985">
+        <v>1154</v>
+      </c>
+      <c r="G985">
+        <v>0.1150089695</v>
+      </c>
+      <c r="H985">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" s="2">
+        <v>44060</v>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t>70-74 years</t>
+        </is>
+      </c>
+      <c r="C986">
+        <v>1198</v>
+      </c>
+      <c r="D986">
+        <v>0.026461103503</v>
+      </c>
+      <c r="E986">
+        <v>0</v>
+      </c>
+      <c r="F986">
+        <v>1308</v>
+      </c>
+      <c r="G986">
+        <v>0.13035678692</v>
+      </c>
+      <c r="H986">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" s="2">
+        <v>44060</v>
+      </c>
+      <c r="B987" t="inlineStr">
+        <is>
+          <t>75-79 years</t>
+        </is>
+      </c>
+      <c r="C987">
+        <v>784</v>
+      </c>
+      <c r="D987">
+        <v>0.017316782259</v>
+      </c>
+      <c r="E987">
+        <v>0</v>
+      </c>
+      <c r="F987">
+        <v>1237</v>
+      </c>
+      <c r="G987">
+        <v>0.12328084513</v>
+      </c>
+      <c r="H987">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" s="2">
+        <v>44060</v>
+      </c>
+      <c r="B988" t="inlineStr">
+        <is>
+          <t>80+ years</t>
+        </is>
+      </c>
+      <c r="C988">
+        <v>1290</v>
+      </c>
+      <c r="D988">
+        <v>0.028493174891</v>
+      </c>
+      <c r="E988">
+        <v>0</v>
+      </c>
+      <c r="F988">
+        <v>3389</v>
+      </c>
+      <c r="G988">
+        <v>0.33775164441</v>
+      </c>
+      <c r="H988">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" s="2">
+        <v>44060</v>
+      </c>
+      <c r="B989" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C989">
+        <v>32</v>
+      </c>
+      <c r="D989">
+        <v>0.0706807439</v>
+      </c>
+      <c r="E989">
+        <v>0</v>
+      </c>
+      <c r="F989">
+        <v>0</v>
+      </c>
+      <c r="G989">
+        <v>0</v>
+      </c>
+      <c r="H989">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27715,7 +28079,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H226"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -34066,6 +34430,90 @@
         <v>0</v>
       </c>
     </row>
+    <row r="227">
+      <c r="A227" s="2">
+        <v>44060</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C227">
+        <v>15424</v>
+      </c>
+      <c r="D227">
+        <v>0.34068118567</v>
+      </c>
+      <c r="E227">
+        <v>4</v>
+      </c>
+      <c r="F227">
+        <v>4121</v>
+      </c>
+      <c r="G227">
+        <v>0.41070360773</v>
+      </c>
+      <c r="H227">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2">
+        <v>44060</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C228">
+        <v>28817</v>
+      </c>
+      <c r="D228">
+        <v>0.63650218669</v>
+      </c>
+      <c r="E228">
+        <v>5</v>
+      </c>
+      <c r="F228">
+        <v>5913</v>
+      </c>
+      <c r="G228">
+        <v>0.5892963922700001</v>
+      </c>
+      <c r="H228">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2">
+        <v>44060</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C229">
+        <v>1033</v>
+      </c>
+      <c r="D229">
+        <v>0.022816627645</v>
+      </c>
+      <c r="E229">
+        <v>-2</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -34073,7 +34521,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H445"/>
+  <dimension ref="A1:H451"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -46556,6 +47004,174 @@
         <v>37</v>
       </c>
     </row>
+    <row r="446">
+      <c r="A446" s="2">
+        <v>44060</v>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C446">
+        <v>730</v>
+      </c>
+      <c r="D446">
+        <v>0.016124044706</v>
+      </c>
+      <c r="E446">
+        <v>0</v>
+      </c>
+      <c r="F446">
+        <v>225</v>
+      </c>
+      <c r="G446">
+        <v>0.022423759219</v>
+      </c>
+      <c r="H446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="2">
+        <v>44060</v>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C447">
+        <v>7156</v>
+      </c>
+      <c r="D447">
+        <v>0.15805981358</v>
+      </c>
+      <c r="E447">
+        <v>0</v>
+      </c>
+      <c r="F447">
+        <v>1242</v>
+      </c>
+      <c r="G447">
+        <v>0.12377915089</v>
+      </c>
+      <c r="H447">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="2">
+        <v>44060</v>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="C448">
+        <v>17989</v>
+      </c>
+      <c r="D448">
+        <v>0.39733621946</v>
+      </c>
+      <c r="E448">
+        <v>0</v>
+      </c>
+      <c r="F448">
+        <v>5361</v>
+      </c>
+      <c r="G448">
+        <v>0.53428343632</v>
+      </c>
+      <c r="H448">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="2">
+        <v>44060</v>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C449">
+        <v>186</v>
+      </c>
+      <c r="D449">
+        <v>0.410831824</v>
+      </c>
+      <c r="E449">
+        <v>1</v>
+      </c>
+      <c r="F449">
+        <v>65</v>
+      </c>
+      <c r="G449">
+        <v>0.6477974885</v>
+      </c>
+      <c r="H449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="2">
+        <v>44060</v>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C450">
+        <v>6606</v>
+      </c>
+      <c r="D450">
+        <v>0.14591156072</v>
+      </c>
+      <c r="E450">
+        <v>1</v>
+      </c>
+      <c r="F450">
+        <v>4</v>
+      </c>
+      <c r="G450">
+        <v>0.0398644608</v>
+      </c>
+      <c r="H450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="2">
+        <v>44060</v>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C451">
+        <v>12607</v>
+      </c>
+      <c r="D451">
+        <v>0.27846004329</v>
+      </c>
+      <c r="E451">
+        <v>5</v>
+      </c>
+      <c r="F451">
+        <v>3137</v>
+      </c>
+      <c r="G451">
+        <v>0.31263703408</v>
+      </c>
+      <c r="H451">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H989"/>
+  <dimension ref="A1:H1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28072,6 +28072,370 @@
         <v>0</v>
       </c>
     </row>
+    <row r="990">
+      <c r="A990" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B990" t="inlineStr">
+        <is>
+          <t>&lt;1 year</t>
+        </is>
+      </c>
+      <c r="C990">
+        <v>145</v>
+      </c>
+      <c r="D990">
+        <v>0.3181499035</v>
+      </c>
+      <c r="E990">
+        <v>0</v>
+      </c>
+      <c r="F990">
+        <v>2</v>
+      </c>
+      <c r="G990">
+        <v>0.0195121951</v>
+      </c>
+      <c r="H990">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B991" t="inlineStr">
+        <is>
+          <t>1-9 years</t>
+        </is>
+      </c>
+      <c r="C991">
+        <v>668</v>
+      </c>
+      <c r="D991">
+        <v>0.014656836932</v>
+      </c>
+      <c r="E991">
+        <v>2</v>
+      </c>
+      <c r="F991">
+        <v>5</v>
+      </c>
+      <c r="G991">
+        <v>0.0487804878</v>
+      </c>
+      <c r="H991">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B992" t="inlineStr">
+        <is>
+          <t>10-19 years</t>
+        </is>
+      </c>
+      <c r="C992">
+        <v>1757</v>
+      </c>
+      <c r="D992">
+        <v>0.03855099175</v>
+      </c>
+      <c r="E992">
+        <v>9</v>
+      </c>
+      <c r="F992">
+        <v>11</v>
+      </c>
+      <c r="G992">
+        <v>0.1073170732</v>
+      </c>
+      <c r="H992">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B993" t="inlineStr">
+        <is>
+          <t>20-29 years</t>
+        </is>
+      </c>
+      <c r="C993">
+        <v>8628</v>
+      </c>
+      <c r="D993">
+        <v>0.18931016324</v>
+      </c>
+      <c r="E993">
+        <v>69</v>
+      </c>
+      <c r="F993">
+        <v>72</v>
+      </c>
+      <c r="G993">
+        <v>0.7024390244</v>
+      </c>
+      <c r="H993">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B994" t="inlineStr">
+        <is>
+          <t>30-39 years</t>
+        </is>
+      </c>
+      <c r="C994">
+        <v>9591</v>
+      </c>
+      <c r="D994">
+        <v>0.21043970511</v>
+      </c>
+      <c r="E994">
+        <v>67</v>
+      </c>
+      <c r="F994">
+        <v>202</v>
+      </c>
+      <c r="G994">
+        <v>0.019707317073</v>
+      </c>
+      <c r="H994">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B995" t="inlineStr">
+        <is>
+          <t>40-49 years</t>
+        </is>
+      </c>
+      <c r="C995">
+        <v>8752</v>
+      </c>
+      <c r="D995">
+        <v>0.19203089345</v>
+      </c>
+      <c r="E995">
+        <v>57</v>
+      </c>
+      <c r="F995">
+        <v>549</v>
+      </c>
+      <c r="G995">
+        <v>0.05356097561000001</v>
+      </c>
+      <c r="H995">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B996" t="inlineStr">
+        <is>
+          <t>50-59 years</t>
+        </is>
+      </c>
+      <c r="C996">
+        <v>7724</v>
+      </c>
+      <c r="D996">
+        <v>0.16947516237</v>
+      </c>
+      <c r="E996">
+        <v>49</v>
+      </c>
+      <c r="F996">
+        <v>1194</v>
+      </c>
+      <c r="G996">
+        <v>0.11648780488</v>
+      </c>
+      <c r="H996">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B997" t="inlineStr">
+        <is>
+          <t>60-64 years</t>
+        </is>
+      </c>
+      <c r="C997">
+        <v>2946</v>
+      </c>
+      <c r="D997">
+        <v>0.064639283834</v>
+      </c>
+      <c r="E997">
+        <v>16</v>
+      </c>
+      <c r="F997">
+        <v>969</v>
+      </c>
+      <c r="G997">
+        <v>0.09453658536600001</v>
+      </c>
+      <c r="H997">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B998" t="inlineStr">
+        <is>
+          <t>65-69 years</t>
+        </is>
+      </c>
+      <c r="C998">
+        <v>2039</v>
+      </c>
+      <c r="D998">
+        <v>0.04473845883800001</v>
+      </c>
+      <c r="E998">
+        <v>11</v>
+      </c>
+      <c r="F998">
+        <v>1188</v>
+      </c>
+      <c r="G998">
+        <v>0.11590243902</v>
+      </c>
+      <c r="H998">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B999" t="inlineStr">
+        <is>
+          <t>70-74 years</t>
+        </is>
+      </c>
+      <c r="C999">
+        <v>1209</v>
+      </c>
+      <c r="D999">
+        <v>0.026527119537</v>
+      </c>
+      <c r="E999">
+        <v>11</v>
+      </c>
+      <c r="F999">
+        <v>1334</v>
+      </c>
+      <c r="G999">
+        <v>0.13014634146</v>
+      </c>
+      <c r="H999">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B1000" t="inlineStr">
+        <is>
+          <t>75-79 years</t>
+        </is>
+      </c>
+      <c r="C1000">
+        <v>788</v>
+      </c>
+      <c r="D1000">
+        <v>0.01728980165</v>
+      </c>
+      <c r="E1000">
+        <v>4</v>
+      </c>
+      <c r="F1000">
+        <v>1263</v>
+      </c>
+      <c r="G1000">
+        <v>0.1232195122</v>
+      </c>
+      <c r="H1000">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B1001" t="inlineStr">
+        <is>
+          <t>80+ years</t>
+        </is>
+      </c>
+      <c r="C1001">
+        <v>1297</v>
+      </c>
+      <c r="D1001">
+        <v>0.02845796033</v>
+      </c>
+      <c r="E1001">
+        <v>7</v>
+      </c>
+      <c r="F1001">
+        <v>3461</v>
+      </c>
+      <c r="G1001">
+        <v>0.33765853659</v>
+      </c>
+      <c r="H1001">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B1002" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C1002">
+        <v>32</v>
+      </c>
+      <c r="D1002">
+        <v>0.0702123925</v>
+      </c>
+      <c r="E1002">
+        <v>0</v>
+      </c>
+      <c r="F1002">
+        <v>0</v>
+      </c>
+      <c r="G1002">
+        <v>0</v>
+      </c>
+      <c r="H1002">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -28079,7 +28443,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H229"/>
+  <dimension ref="A1:H232"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -34514,6 +34878,90 @@
         <v>0</v>
       </c>
     </row>
+    <row r="230">
+      <c r="A230" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C230">
+        <v>15460</v>
+      </c>
+      <c r="D230">
+        <v>0.3392136212</v>
+      </c>
+      <c r="E230">
+        <v>36</v>
+      </c>
+      <c r="F230">
+        <v>4221</v>
+      </c>
+      <c r="G230">
+        <v>0.41180487805</v>
+      </c>
+      <c r="H230">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C231">
+        <v>29082</v>
+      </c>
+      <c r="D231">
+        <v>0.6380989994699999</v>
+      </c>
+      <c r="E231">
+        <v>265</v>
+      </c>
+      <c r="F231">
+        <v>6029</v>
+      </c>
+      <c r="G231">
+        <v>0.58819512195</v>
+      </c>
+      <c r="H231">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C232">
+        <v>1034</v>
+      </c>
+      <c r="D232">
+        <v>0.022687379322</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -34521,7 +34969,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H451"/>
+  <dimension ref="A1:H457"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -47172,6 +47620,174 @@
         <v>7</v>
       </c>
     </row>
+    <row r="452">
+      <c r="A452" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C452">
+        <v>730</v>
+      </c>
+      <c r="D452">
+        <v>0.016017202036</v>
+      </c>
+      <c r="E452">
+        <v>0</v>
+      </c>
+      <c r="F452">
+        <v>228</v>
+      </c>
+      <c r="G452">
+        <v>0.022243902439</v>
+      </c>
+      <c r="H452">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C453">
+        <v>7223</v>
+      </c>
+      <c r="D453">
+        <v>0.15848253467</v>
+      </c>
+      <c r="E453">
+        <v>67</v>
+      </c>
+      <c r="F453">
+        <v>1257</v>
+      </c>
+      <c r="G453">
+        <v>0.12263414634</v>
+      </c>
+      <c r="H453">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="C454">
+        <v>18099</v>
+      </c>
+      <c r="D454">
+        <v>0.39711690363</v>
+      </c>
+      <c r="E454">
+        <v>110</v>
+      </c>
+      <c r="F454">
+        <v>5503</v>
+      </c>
+      <c r="G454">
+        <v>0.53687804878</v>
+      </c>
+      <c r="H454">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C455">
+        <v>187</v>
+      </c>
+      <c r="D455">
+        <v>0.4103036686</v>
+      </c>
+      <c r="E455">
+        <v>1</v>
+      </c>
+      <c r="F455">
+        <v>66</v>
+      </c>
+      <c r="G455">
+        <v>0.643902439</v>
+      </c>
+      <c r="H455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C456">
+        <v>6620</v>
+      </c>
+      <c r="D456">
+        <v>0.14525188696</v>
+      </c>
+      <c r="E456">
+        <v>14</v>
+      </c>
+      <c r="F456">
+        <v>4</v>
+      </c>
+      <c r="G456">
+        <v>0.0390243902</v>
+      </c>
+      <c r="H456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C457">
+        <v>12717</v>
+      </c>
+      <c r="D457">
+        <v>0.27902843602</v>
+      </c>
+      <c r="E457">
+        <v>110</v>
+      </c>
+      <c r="F457">
+        <v>3192</v>
+      </c>
+      <c r="G457">
+        <v>0.31141463415</v>
+      </c>
+      <c r="H457">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1002"/>
+  <dimension ref="A1:H1015"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28436,6 +28436,370 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1003">
+      <c r="A1003" s="2">
+        <v>44062</v>
+      </c>
+      <c r="B1003" t="inlineStr">
+        <is>
+          <t>&lt;1 year</t>
+        </is>
+      </c>
+      <c r="C1003">
+        <v>146</v>
+      </c>
+      <c r="D1003">
+        <v>0.3173499109</v>
+      </c>
+      <c r="E1003">
+        <v>1</v>
+      </c>
+      <c r="F1003">
+        <v>2</v>
+      </c>
+      <c r="G1003">
+        <v>0.0189411876</v>
+      </c>
+      <c r="H1003">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="2">
+        <v>44062</v>
+      </c>
+      <c r="B1004" t="inlineStr">
+        <is>
+          <t>1-9 years</t>
+        </is>
+      </c>
+      <c r="C1004">
+        <v>672</v>
+      </c>
+      <c r="D1004">
+        <v>0.014606790419</v>
+      </c>
+      <c r="E1004">
+        <v>4</v>
+      </c>
+      <c r="F1004">
+        <v>5</v>
+      </c>
+      <c r="G1004">
+        <v>0.047352969</v>
+      </c>
+      <c r="H1004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="2">
+        <v>44062</v>
+      </c>
+      <c r="B1005" t="inlineStr">
+        <is>
+          <t>10-19 years</t>
+        </is>
+      </c>
+      <c r="C1005">
+        <v>1769</v>
+      </c>
+      <c r="D1005">
+        <v>0.038451506325</v>
+      </c>
+      <c r="E1005">
+        <v>12</v>
+      </c>
+      <c r="F1005">
+        <v>11</v>
+      </c>
+      <c r="G1005">
+        <v>0.1041765319</v>
+      </c>
+      <c r="H1005">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="2">
+        <v>44062</v>
+      </c>
+      <c r="B1006" t="inlineStr">
+        <is>
+          <t>20-29 years</t>
+        </is>
+      </c>
+      <c r="C1006">
+        <v>8723</v>
+      </c>
+      <c r="D1006">
+        <v>0.1896057036</v>
+      </c>
+      <c r="E1006">
+        <v>95</v>
+      </c>
+      <c r="F1006">
+        <v>74</v>
+      </c>
+      <c r="G1006">
+        <v>0.7008239417</v>
+      </c>
+      <c r="H1006">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="2">
+        <v>44062</v>
+      </c>
+      <c r="B1007" t="inlineStr">
+        <is>
+          <t>30-39 years</t>
+        </is>
+      </c>
+      <c r="C1007">
+        <v>9704</v>
+      </c>
+      <c r="D1007">
+        <v>0.21092900926</v>
+      </c>
+      <c r="E1007">
+        <v>113</v>
+      </c>
+      <c r="F1007">
+        <v>211</v>
+      </c>
+      <c r="G1007">
+        <v>0.019982952931</v>
+      </c>
+      <c r="H1007">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="2">
+        <v>44062</v>
+      </c>
+      <c r="B1008" t="inlineStr">
+        <is>
+          <t>40-49 years</t>
+        </is>
+      </c>
+      <c r="C1008">
+        <v>8837</v>
+      </c>
+      <c r="D1008">
+        <v>0.19208364126</v>
+      </c>
+      <c r="E1008">
+        <v>85</v>
+      </c>
+      <c r="F1008">
+        <v>562</v>
+      </c>
+      <c r="G1008">
+        <v>0.053224737191</v>
+      </c>
+      <c r="H1008">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="2">
+        <v>44062</v>
+      </c>
+      <c r="B1009" t="inlineStr">
+        <is>
+          <t>50-59 years</t>
+        </is>
+      </c>
+      <c r="C1009">
+        <v>7784</v>
+      </c>
+      <c r="D1009">
+        <v>0.16919532235</v>
+      </c>
+      <c r="E1009">
+        <v>60</v>
+      </c>
+      <c r="F1009">
+        <v>1240</v>
+      </c>
+      <c r="G1009">
+        <v>0.1174353632</v>
+      </c>
+      <c r="H1009">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="2">
+        <v>44062</v>
+      </c>
+      <c r="B1010" t="inlineStr">
+        <is>
+          <t>60-64 years</t>
+        </is>
+      </c>
+      <c r="C1010">
+        <v>2961</v>
+      </c>
+      <c r="D1010">
+        <v>0.064361170282</v>
+      </c>
+      <c r="E1010">
+        <v>15</v>
+      </c>
+      <c r="F1010">
+        <v>998</v>
+      </c>
+      <c r="G1010">
+        <v>0.09451652618600001</v>
+      </c>
+      <c r="H1010">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="2">
+        <v>44062</v>
+      </c>
+      <c r="B1011" t="inlineStr">
+        <is>
+          <t>65-69 years</t>
+        </is>
+      </c>
+      <c r="C1011">
+        <v>2054</v>
+      </c>
+      <c r="D1011">
+        <v>0.044646350476</v>
+      </c>
+      <c r="E1011">
+        <v>15</v>
+      </c>
+      <c r="F1011">
+        <v>1233</v>
+      </c>
+      <c r="G1011">
+        <v>0.11677242163</v>
+      </c>
+      <c r="H1011">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="2">
+        <v>44062</v>
+      </c>
+      <c r="B1012" t="inlineStr">
+        <is>
+          <t>70-74 years</t>
+        </is>
+      </c>
+      <c r="C1012">
+        <v>1215</v>
+      </c>
+      <c r="D1012">
+        <v>0.026409598748</v>
+      </c>
+      <c r="E1012">
+        <v>6</v>
+      </c>
+      <c r="F1012">
+        <v>1372</v>
+      </c>
+      <c r="G1012">
+        <v>0.12993654702</v>
+      </c>
+      <c r="H1012">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="2">
+        <v>44062</v>
+      </c>
+      <c r="B1013" t="inlineStr">
+        <is>
+          <t>75-79 years</t>
+        </is>
+      </c>
+      <c r="C1013">
+        <v>800</v>
+      </c>
+      <c r="D1013">
+        <v>0.017389036213</v>
+      </c>
+      <c r="E1013">
+        <v>12</v>
+      </c>
+      <c r="F1013">
+        <v>1300</v>
+      </c>
+      <c r="G1013">
+        <v>0.12311771948</v>
+      </c>
+      <c r="H1013">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="2">
+        <v>44062</v>
+      </c>
+      <c r="B1014" t="inlineStr">
+        <is>
+          <t>80+ years</t>
+        </is>
+      </c>
+      <c r="C1014">
+        <v>1308</v>
+      </c>
+      <c r="D1014">
+        <v>0.028431074208</v>
+      </c>
+      <c r="E1014">
+        <v>11</v>
+      </c>
+      <c r="F1014">
+        <v>3551</v>
+      </c>
+      <c r="G1014">
+        <v>0.33630078606</v>
+      </c>
+      <c r="H1014">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="2">
+        <v>44062</v>
+      </c>
+      <c r="B1015" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C1015">
+        <v>33</v>
+      </c>
+      <c r="D1015">
+        <v>0.0717297744</v>
+      </c>
+      <c r="E1015">
+        <v>1</v>
+      </c>
+      <c r="F1015">
+        <v>0</v>
+      </c>
+      <c r="G1015">
+        <v>0</v>
+      </c>
+      <c r="H1015">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -28443,7 +28807,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H232"/>
+  <dimension ref="A1:H235"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -34962,6 +35326,90 @@
         <v>0</v>
       </c>
     </row>
+    <row r="233">
+      <c r="A233" s="2">
+        <v>44062</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C233">
+        <v>15543</v>
+      </c>
+      <c r="D233">
+        <v>0.3378472373200001</v>
+      </c>
+      <c r="E233">
+        <v>83</v>
+      </c>
+      <c r="F233">
+        <v>4354</v>
+      </c>
+      <c r="G233">
+        <v>0.41234965432</v>
+      </c>
+      <c r="H233">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2">
+        <v>44062</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C234">
+        <v>29428</v>
+      </c>
+      <c r="D234">
+        <v>0.6396556970799999</v>
+      </c>
+      <c r="E234">
+        <v>346</v>
+      </c>
+      <c r="F234">
+        <v>6205</v>
+      </c>
+      <c r="G234">
+        <v>0.58765034568</v>
+      </c>
+      <c r="H234">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2">
+        <v>44062</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C235">
+        <v>1035</v>
+      </c>
+      <c r="D235">
+        <v>0.0224970656</v>
+      </c>
+      <c r="E235">
+        <v>1</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
+      <c r="G235">
+        <v>0</v>
+      </c>
+      <c r="H235">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -34969,7 +35417,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H457"/>
+  <dimension ref="A1:H463"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -47788,6 +48236,174 @@
         <v>55</v>
       </c>
     </row>
+    <row r="458">
+      <c r="A458" s="2">
+        <v>44062</v>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C458">
+        <v>733</v>
+      </c>
+      <c r="D458">
+        <v>0.01593270443</v>
+      </c>
+      <c r="E458">
+        <v>3</v>
+      </c>
+      <c r="F458">
+        <v>233</v>
+      </c>
+      <c r="G458">
+        <v>0.022066483569</v>
+      </c>
+      <c r="H458">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="2">
+        <v>44062</v>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C459">
+        <v>7308</v>
+      </c>
+      <c r="D459">
+        <v>0.1588488458</v>
+      </c>
+      <c r="E459">
+        <v>85</v>
+      </c>
+      <c r="F459">
+        <v>1281</v>
+      </c>
+      <c r="G459">
+        <v>0.12131830666</v>
+      </c>
+      <c r="H459">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="2">
+        <v>44062</v>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="C460">
+        <v>18296</v>
+      </c>
+      <c r="D460">
+        <v>0.39768725818</v>
+      </c>
+      <c r="E460">
+        <v>197</v>
+      </c>
+      <c r="F460">
+        <v>5700</v>
+      </c>
+      <c r="G460">
+        <v>0.53982384696</v>
+      </c>
+      <c r="H460">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="2">
+        <v>44062</v>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C461">
+        <v>190</v>
+      </c>
+      <c r="D461">
+        <v>0.4129896101</v>
+      </c>
+      <c r="E461">
+        <v>3</v>
+      </c>
+      <c r="F461">
+        <v>66</v>
+      </c>
+      <c r="G461">
+        <v>0.6250591912</v>
+      </c>
+      <c r="H461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="2">
+        <v>44062</v>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C462">
+        <v>6627</v>
+      </c>
+      <c r="D462">
+        <v>0.14404642873</v>
+      </c>
+      <c r="E462">
+        <v>7</v>
+      </c>
+      <c r="F462">
+        <v>4</v>
+      </c>
+      <c r="G462">
+        <v>0.0378823752</v>
+      </c>
+      <c r="H462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="2">
+        <v>44062</v>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C463">
+        <v>12852</v>
+      </c>
+      <c r="D463">
+        <v>0.27935486676</v>
+      </c>
+      <c r="E463">
+        <v>135</v>
+      </c>
+      <c r="F463">
+        <v>3275</v>
+      </c>
+      <c r="G463">
+        <v>0.31016194715</v>
+      </c>
+      <c r="H463">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1015"/>
+  <dimension ref="A1:H1028"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28800,6 +28800,370 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1016">
+      <c r="A1016" s="2">
+        <v>44063</v>
+      </c>
+      <c r="B1016" t="inlineStr">
+        <is>
+          <t>&lt;1 year</t>
+        </is>
+      </c>
+      <c r="C1016">
+        <v>147</v>
+      </c>
+      <c r="D1016">
+        <v>0.3174328964</v>
+      </c>
+      <c r="E1016">
+        <v>1</v>
+      </c>
+      <c r="F1016">
+        <v>2</v>
+      </c>
+      <c r="G1016">
+        <v>0.018530529</v>
+      </c>
+      <c r="H1016">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="2">
+        <v>44063</v>
+      </c>
+      <c r="B1017" t="inlineStr">
+        <is>
+          <t>1-9 years</t>
+        </is>
+      </c>
+      <c r="C1017">
+        <v>674</v>
+      </c>
+      <c r="D1017">
+        <v>0.014554406271</v>
+      </c>
+      <c r="E1017">
+        <v>2</v>
+      </c>
+      <c r="F1017">
+        <v>5</v>
+      </c>
+      <c r="G1017">
+        <v>0.0463263226</v>
+      </c>
+      <c r="H1017">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="2">
+        <v>44063</v>
+      </c>
+      <c r="B1018" t="inlineStr">
+        <is>
+          <t>10-19 years</t>
+        </is>
+      </c>
+      <c r="C1018">
+        <v>1776</v>
+      </c>
+      <c r="D1018">
+        <v>0.038351076465</v>
+      </c>
+      <c r="E1018">
+        <v>7</v>
+      </c>
+      <c r="F1018">
+        <v>11</v>
+      </c>
+      <c r="G1018">
+        <v>0.1019179098</v>
+      </c>
+      <c r="H1018">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="2">
+        <v>44063</v>
+      </c>
+      <c r="B1019" t="inlineStr">
+        <is>
+          <t>20-29 years</t>
+        </is>
+      </c>
+      <c r="C1019">
+        <v>8806</v>
+      </c>
+      <c r="D1019">
+        <v>0.1901574208</v>
+      </c>
+      <c r="E1019">
+        <v>83</v>
+      </c>
+      <c r="F1019">
+        <v>76</v>
+      </c>
+      <c r="G1019">
+        <v>0.7041601038000001</v>
+      </c>
+      <c r="H1019">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" s="2">
+        <v>44063</v>
+      </c>
+      <c r="B1020" t="inlineStr">
+        <is>
+          <t>30-39 years</t>
+        </is>
+      </c>
+      <c r="C1020">
+        <v>9777</v>
+      </c>
+      <c r="D1020">
+        <v>0.21112526723</v>
+      </c>
+      <c r="E1020">
+        <v>73</v>
+      </c>
+      <c r="F1020">
+        <v>215</v>
+      </c>
+      <c r="G1020">
+        <v>0.019920318725</v>
+      </c>
+      <c r="H1020">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="2">
+        <v>44063</v>
+      </c>
+      <c r="B1021" t="inlineStr">
+        <is>
+          <t>40-49 years</t>
+        </is>
+      </c>
+      <c r="C1021">
+        <v>8891</v>
+      </c>
+      <c r="D1021">
+        <v>0.19199291714</v>
+      </c>
+      <c r="E1021">
+        <v>54</v>
+      </c>
+      <c r="F1021">
+        <v>576</v>
+      </c>
+      <c r="G1021">
+        <v>0.053367923654</v>
+      </c>
+      <c r="H1021">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="2">
+        <v>44063</v>
+      </c>
+      <c r="B1022" t="inlineStr">
+        <is>
+          <t>50-59 years</t>
+        </is>
+      </c>
+      <c r="C1022">
+        <v>7829</v>
+      </c>
+      <c r="D1022">
+        <v>0.16906000993</v>
+      </c>
+      <c r="E1022">
+        <v>45</v>
+      </c>
+      <c r="F1022">
+        <v>1264</v>
+      </c>
+      <c r="G1022">
+        <v>0.11711294357</v>
+      </c>
+      <c r="H1022">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="2">
+        <v>44063</v>
+      </c>
+      <c r="B1023" t="inlineStr">
+        <is>
+          <t>60-64 years</t>
+        </is>
+      </c>
+      <c r="C1023">
+        <v>2975</v>
+      </c>
+      <c r="D1023">
+        <v>0.064242371893</v>
+      </c>
+      <c r="E1023">
+        <v>14</v>
+      </c>
+      <c r="F1023">
+        <v>1024</v>
+      </c>
+      <c r="G1023">
+        <v>0.09487630871900001</v>
+      </c>
+      <c r="H1023">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="2">
+        <v>44063</v>
+      </c>
+      <c r="B1024" t="inlineStr">
+        <is>
+          <t>65-69 years</t>
+        </is>
+      </c>
+      <c r="C1024">
+        <v>2068</v>
+      </c>
+      <c r="D1024">
+        <v>0.044656546244</v>
+      </c>
+      <c r="E1024">
+        <v>14</v>
+      </c>
+      <c r="F1024">
+        <v>1258</v>
+      </c>
+      <c r="G1024">
+        <v>0.1165570277</v>
+      </c>
+      <c r="H1024">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="2">
+        <v>44063</v>
+      </c>
+      <c r="B1025" t="inlineStr">
+        <is>
+          <t>70-74 years</t>
+        </is>
+      </c>
+      <c r="C1025">
+        <v>1218</v>
+      </c>
+      <c r="D1025">
+        <v>0.026301582846</v>
+      </c>
+      <c r="E1025">
+        <v>3</v>
+      </c>
+      <c r="F1025">
+        <v>1405</v>
+      </c>
+      <c r="G1025">
+        <v>0.13017696655</v>
+      </c>
+      <c r="H1025">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="2">
+        <v>44063</v>
+      </c>
+      <c r="B1026" t="inlineStr">
+        <is>
+          <t>75-79 years</t>
+        </is>
+      </c>
+      <c r="C1026">
+        <v>802</v>
+      </c>
+      <c r="D1026">
+        <v>0.017318447818</v>
+      </c>
+      <c r="E1026">
+        <v>2</v>
+      </c>
+      <c r="F1026">
+        <v>1331</v>
+      </c>
+      <c r="G1026">
+        <v>0.12332067081</v>
+      </c>
+      <c r="H1026">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="2">
+        <v>44063</v>
+      </c>
+      <c r="B1027" t="inlineStr">
+        <is>
+          <t>80+ years</t>
+        </is>
+      </c>
+      <c r="C1027">
+        <v>1313</v>
+      </c>
+      <c r="D1027">
+        <v>0.028353019931</v>
+      </c>
+      <c r="E1027">
+        <v>5</v>
+      </c>
+      <c r="F1027">
+        <v>3626</v>
+      </c>
+      <c r="G1027">
+        <v>0.33595849161</v>
+      </c>
+      <c r="H1027">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="2">
+        <v>44063</v>
+      </c>
+      <c r="B1028" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C1028">
+        <v>33</v>
+      </c>
+      <c r="D1028">
+        <v>0.0712604461</v>
+      </c>
+      <c r="E1028">
+        <v>0</v>
+      </c>
+      <c r="F1028">
+        <v>0</v>
+      </c>
+      <c r="G1028">
+        <v>0</v>
+      </c>
+      <c r="H1028">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -28807,7 +29171,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H235"/>
+  <dimension ref="A1:H238"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -35410,6 +35774,90 @@
         <v>0</v>
       </c>
     </row>
+    <row r="236">
+      <c r="A236" s="2">
+        <v>44063</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C236">
+        <v>15608</v>
+      </c>
+      <c r="D236">
+        <v>0.33704031614</v>
+      </c>
+      <c r="E236">
+        <v>65</v>
+      </c>
+      <c r="F236">
+        <v>4452</v>
+      </c>
+      <c r="G236">
+        <v>0.41248957658</v>
+      </c>
+      <c r="H236">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2">
+        <v>44063</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C237">
+        <v>29665</v>
+      </c>
+      <c r="D237">
+        <v>0.6405882225899999</v>
+      </c>
+      <c r="E237">
+        <v>237</v>
+      </c>
+      <c r="F237">
+        <v>6341</v>
+      </c>
+      <c r="G237">
+        <v>0.5875104234199999</v>
+      </c>
+      <c r="H237">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2">
+        <v>44063</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C238">
+        <v>1036</v>
+      </c>
+      <c r="D238">
+        <v>0.022371461271</v>
+      </c>
+      <c r="E238">
+        <v>1</v>
+      </c>
+      <c r="F238">
+        <v>0</v>
+      </c>
+      <c r="G238">
+        <v>0</v>
+      </c>
+      <c r="H238">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -35417,7 +35865,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H463"/>
+  <dimension ref="A1:H469"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -48404,6 +48852,174 @@
         <v>83</v>
       </c>
     </row>
+    <row r="464">
+      <c r="A464" s="2">
+        <v>44063</v>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C464">
+        <v>737</v>
+      </c>
+      <c r="D464">
+        <v>0.01591483297</v>
+      </c>
+      <c r="E464">
+        <v>4</v>
+      </c>
+      <c r="F464">
+        <v>237</v>
+      </c>
+      <c r="G464">
+        <v>0.02195867692</v>
+      </c>
+      <c r="H464">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="2">
+        <v>44063</v>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C465">
+        <v>7366</v>
+      </c>
+      <c r="D465">
+        <v>0.1590619534</v>
+      </c>
+      <c r="E465">
+        <v>58</v>
+      </c>
+      <c r="F465">
+        <v>1302</v>
+      </c>
+      <c r="G465">
+        <v>0.12063374409</v>
+      </c>
+      <c r="H465">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="2">
+        <v>44063</v>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="C466">
+        <v>18431</v>
+      </c>
+      <c r="D466">
+        <v>0.39800038869</v>
+      </c>
+      <c r="E466">
+        <v>135</v>
+      </c>
+      <c r="F466">
+        <v>5837</v>
+      </c>
+      <c r="G466">
+        <v>0.54081349023</v>
+      </c>
+      <c r="H466">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="2">
+        <v>44063</v>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C467">
+        <v>198</v>
+      </c>
+      <c r="D467">
+        <v>0.4275626768</v>
+      </c>
+      <c r="E467">
+        <v>8</v>
+      </c>
+      <c r="F467">
+        <v>67</v>
+      </c>
+      <c r="G467">
+        <v>0.6207727231</v>
+      </c>
+      <c r="H467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="2">
+        <v>44063</v>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C468">
+        <v>6615</v>
+      </c>
+      <c r="D468">
+        <v>0.14284480339</v>
+      </c>
+      <c r="E468">
+        <v>-12</v>
+      </c>
+      <c r="F468">
+        <v>4</v>
+      </c>
+      <c r="G468">
+        <v>0.0370610581</v>
+      </c>
+      <c r="H468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="2">
+        <v>44063</v>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C469">
+        <v>12962</v>
+      </c>
+      <c r="D469">
+        <v>0.27990239478</v>
+      </c>
+      <c r="E469">
+        <v>110</v>
+      </c>
+      <c r="F469">
+        <v>3346</v>
+      </c>
+      <c r="G469">
+        <v>0.31001575095</v>
+      </c>
+      <c r="H469">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1028"/>
+  <dimension ref="A1:H1041"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -29164,6 +29164,370 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1029">
+      <c r="A1029" s="2">
+        <v>44064</v>
+      </c>
+      <c r="B1029" t="inlineStr">
+        <is>
+          <t>&lt;1 year</t>
+        </is>
+      </c>
+      <c r="C1029">
+        <v>146</v>
+      </c>
+      <c r="D1029">
+        <v>0.0031</v>
+      </c>
+      <c r="E1029">
+        <v>-1</v>
+      </c>
+      <c r="F1029">
+        <v>2</v>
+      </c>
+      <c r="G1029">
+        <v>0.0002</v>
+      </c>
+      <c r="H1029">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="2">
+        <v>44064</v>
+      </c>
+      <c r="B1030" t="inlineStr">
+        <is>
+          <t>1-9 years</t>
+        </is>
+      </c>
+      <c r="C1030">
+        <v>677</v>
+      </c>
+      <c r="D1030">
+        <v>0.0146</v>
+      </c>
+      <c r="E1030">
+        <v>3</v>
+      </c>
+      <c r="F1030">
+        <v>5</v>
+      </c>
+      <c r="G1030">
+        <v>0.0005</v>
+      </c>
+      <c r="H1030">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" s="2">
+        <v>44064</v>
+      </c>
+      <c r="B1031" t="inlineStr">
+        <is>
+          <t>10-19 years</t>
+        </is>
+      </c>
+      <c r="C1031">
+        <v>1779</v>
+      </c>
+      <c r="D1031">
+        <v>0.038267116952</v>
+      </c>
+      <c r="E1031">
+        <v>3</v>
+      </c>
+      <c r="F1031">
+        <v>11</v>
+      </c>
+      <c r="G1031">
+        <v>0.001</v>
+      </c>
+      <c r="H1031">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" s="2">
+        <v>44064</v>
+      </c>
+      <c r="B1032" t="inlineStr">
+        <is>
+          <t>20-29 years</t>
+        </is>
+      </c>
+      <c r="C1032">
+        <v>8857</v>
+      </c>
+      <c r="D1032">
+        <v>0.1905</v>
+      </c>
+      <c r="E1032">
+        <v>51</v>
+      </c>
+      <c r="F1032">
+        <v>76</v>
+      </c>
+      <c r="G1032">
+        <v>0.0069</v>
+      </c>
+      <c r="H1032">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" s="2">
+        <v>44064</v>
+      </c>
+      <c r="B1033" t="inlineStr">
+        <is>
+          <t>30-39 years</t>
+        </is>
+      </c>
+      <c r="C1033">
+        <v>9809</v>
+      </c>
+      <c r="D1033">
+        <v>0.211</v>
+      </c>
+      <c r="E1033">
+        <v>32</v>
+      </c>
+      <c r="F1033">
+        <v>217</v>
+      </c>
+      <c r="G1033">
+        <v>0.019636232015</v>
+      </c>
+      <c r="H1033">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" s="2">
+        <v>44064</v>
+      </c>
+      <c r="B1034" t="inlineStr">
+        <is>
+          <t>40-49 years</t>
+        </is>
+      </c>
+      <c r="C1034">
+        <v>8918</v>
+      </c>
+      <c r="D1034">
+        <v>0.1918</v>
+      </c>
+      <c r="E1034">
+        <v>27</v>
+      </c>
+      <c r="F1034">
+        <v>587</v>
+      </c>
+      <c r="G1034">
+        <v>0.0531</v>
+      </c>
+      <c r="H1034">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" s="2">
+        <v>44064</v>
+      </c>
+      <c r="B1035" t="inlineStr">
+        <is>
+          <t>50-59 years</t>
+        </is>
+      </c>
+      <c r="C1035">
+        <v>7865</v>
+      </c>
+      <c r="D1035">
+        <v>0.1692</v>
+      </c>
+      <c r="E1035">
+        <v>36</v>
+      </c>
+      <c r="F1035">
+        <v>1300</v>
+      </c>
+      <c r="G1035">
+        <v>0.11763641299</v>
+      </c>
+      <c r="H1035">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" s="2">
+        <v>44064</v>
+      </c>
+      <c r="B1036" t="inlineStr">
+        <is>
+          <t>60-64 years</t>
+        </is>
+      </c>
+      <c r="C1036">
+        <v>2987</v>
+      </c>
+      <c r="D1036">
+        <v>0.06425175848100001</v>
+      </c>
+      <c r="E1036">
+        <v>12</v>
+      </c>
+      <c r="F1036">
+        <v>1049</v>
+      </c>
+      <c r="G1036">
+        <v>0.0949</v>
+      </c>
+      <c r="H1036">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" s="2">
+        <v>44064</v>
+      </c>
+      <c r="B1037" t="inlineStr">
+        <is>
+          <t>65-69 years</t>
+        </is>
+      </c>
+      <c r="C1037">
+        <v>2075</v>
+      </c>
+      <c r="D1037">
+        <v>0.0446</v>
+      </c>
+      <c r="E1037">
+        <v>7</v>
+      </c>
+      <c r="F1037">
+        <v>1287</v>
+      </c>
+      <c r="G1037">
+        <v>0.1165</v>
+      </c>
+      <c r="H1037">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" s="2">
+        <v>44064</v>
+      </c>
+      <c r="B1038" t="inlineStr">
+        <is>
+          <t>70-74 years</t>
+        </is>
+      </c>
+      <c r="C1038">
+        <v>1222</v>
+      </c>
+      <c r="D1038">
+        <v>0.0263</v>
+      </c>
+      <c r="E1038">
+        <v>4</v>
+      </c>
+      <c r="F1038">
+        <v>1437</v>
+      </c>
+      <c r="G1038">
+        <v>0.13</v>
+      </c>
+      <c r="H1038">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" s="2">
+        <v>44064</v>
+      </c>
+      <c r="B1039" t="inlineStr">
+        <is>
+          <t>75-79 years</t>
+        </is>
+      </c>
+      <c r="C1039">
+        <v>806</v>
+      </c>
+      <c r="D1039">
+        <v>0.0173</v>
+      </c>
+      <c r="E1039">
+        <v>4</v>
+      </c>
+      <c r="F1039">
+        <v>1364</v>
+      </c>
+      <c r="G1039">
+        <v>0.1234</v>
+      </c>
+      <c r="H1039">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" s="2">
+        <v>44064</v>
+      </c>
+      <c r="B1040" t="inlineStr">
+        <is>
+          <t>80+ years</t>
+        </is>
+      </c>
+      <c r="C1040">
+        <v>1316</v>
+      </c>
+      <c r="D1040">
+        <v>0.0283</v>
+      </c>
+      <c r="E1040">
+        <v>3</v>
+      </c>
+      <c r="F1040">
+        <v>3716</v>
+      </c>
+      <c r="G1040">
+        <v>0.3363</v>
+      </c>
+      <c r="H1040">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" s="2">
+        <v>44064</v>
+      </c>
+      <c r="B1041" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C1041">
+        <v>32</v>
+      </c>
+      <c r="D1041">
+        <v>0.0007</v>
+      </c>
+      <c r="E1041">
+        <v>-1</v>
+      </c>
+      <c r="F1041">
+        <v>0</v>
+      </c>
+      <c r="G1041">
+        <v>0</v>
+      </c>
+      <c r="H1041">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29171,7 +29535,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H238"/>
+  <dimension ref="A1:H241"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -35858,6 +36222,90 @@
         <v>0</v>
       </c>
     </row>
+    <row r="239">
+      <c r="A239" s="2">
+        <v>44064</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C239">
+        <v>15657</v>
+      </c>
+      <c r="D239">
+        <v>0.3368</v>
+      </c>
+      <c r="E239">
+        <v>49</v>
+      </c>
+      <c r="F239">
+        <v>4567</v>
+      </c>
+      <c r="G239">
+        <v>0.4133</v>
+      </c>
+      <c r="H239">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2">
+        <v>44064</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C240">
+        <v>29803</v>
+      </c>
+      <c r="D240">
+        <v>0.6411</v>
+      </c>
+      <c r="E240">
+        <v>138</v>
+      </c>
+      <c r="F240">
+        <v>6484</v>
+      </c>
+      <c r="G240">
+        <v>0.5867</v>
+      </c>
+      <c r="H240">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2">
+        <v>44064</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C241">
+        <v>1029</v>
+      </c>
+      <c r="D241">
+        <v>0.0221</v>
+      </c>
+      <c r="E241">
+        <v>-7</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
+      <c r="H241">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -35865,7 +36313,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H469"/>
+  <dimension ref="A1:H475"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -49020,6 +49468,174 @@
         <v>71</v>
       </c>
     </row>
+    <row r="470">
+      <c r="A470" s="2">
+        <v>44064</v>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C470">
+        <v>739</v>
+      </c>
+      <c r="D470">
+        <v>0.0159</v>
+      </c>
+      <c r="E470">
+        <v>2</v>
+      </c>
+      <c r="F470">
+        <v>240</v>
+      </c>
+      <c r="G470">
+        <v>0.0217</v>
+      </c>
+      <c r="H470">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="2">
+        <v>44064</v>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C471">
+        <v>7411</v>
+      </c>
+      <c r="D471">
+        <v>0.1594</v>
+      </c>
+      <c r="E471">
+        <v>45</v>
+      </c>
+      <c r="F471">
+        <v>1322</v>
+      </c>
+      <c r="G471">
+        <v>0.1196</v>
+      </c>
+      <c r="H471">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="2">
+        <v>44064</v>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="C472">
+        <v>18507</v>
+      </c>
+      <c r="D472">
+        <v>0.3981</v>
+      </c>
+      <c r="E472">
+        <v>76</v>
+      </c>
+      <c r="F472">
+        <v>5994</v>
+      </c>
+      <c r="G472">
+        <v>0.5424</v>
+      </c>
+      <c r="H472">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="2">
+        <v>44064</v>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C473">
+        <v>200</v>
+      </c>
+      <c r="D473">
+        <v>0.0043</v>
+      </c>
+      <c r="E473">
+        <v>2</v>
+      </c>
+      <c r="F473">
+        <v>67</v>
+      </c>
+      <c r="G473">
+        <v>0.0061</v>
+      </c>
+      <c r="H473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="2">
+        <v>44064</v>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C474">
+        <v>6590</v>
+      </c>
+      <c r="D474">
+        <v>0.1418</v>
+      </c>
+      <c r="E474">
+        <v>-25</v>
+      </c>
+      <c r="F474">
+        <v>4</v>
+      </c>
+      <c r="G474">
+        <v>0.0004</v>
+      </c>
+      <c r="H474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="2">
+        <v>44064</v>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C475">
+        <v>13042</v>
+      </c>
+      <c r="D475">
+        <v>0.2805</v>
+      </c>
+      <c r="E475">
+        <v>80</v>
+      </c>
+      <c r="F475">
+        <v>3424</v>
+      </c>
+      <c r="G475">
+        <v>0.3098</v>
+      </c>
+      <c r="H475">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1041"/>
+  <dimension ref="A1:H1054"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -29528,6 +29528,370 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1042">
+      <c r="A1042" s="2">
+        <v>44065</v>
+      </c>
+      <c r="B1042" t="inlineStr">
+        <is>
+          <t>&lt;1 year</t>
+        </is>
+      </c>
+      <c r="C1042">
+        <v>147</v>
+      </c>
+      <c r="D1042">
+        <v>0.0032</v>
+      </c>
+      <c r="E1042">
+        <v>1</v>
+      </c>
+      <c r="F1042">
+        <v>3</v>
+      </c>
+      <c r="G1042">
+        <v>0.0003</v>
+      </c>
+      <c r="H1042">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" s="2">
+        <v>44065</v>
+      </c>
+      <c r="B1043" t="inlineStr">
+        <is>
+          <t>1-9 years</t>
+        </is>
+      </c>
+      <c r="C1043">
+        <v>681</v>
+      </c>
+      <c r="D1043">
+        <v>0.0146</v>
+      </c>
+      <c r="E1043">
+        <v>4</v>
+      </c>
+      <c r="F1043">
+        <v>5</v>
+      </c>
+      <c r="G1043">
+        <v>0.0004</v>
+      </c>
+      <c r="H1043">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" s="2">
+        <v>44065</v>
+      </c>
+      <c r="B1044" t="inlineStr">
+        <is>
+          <t>10-19 years</t>
+        </is>
+      </c>
+      <c r="C1044">
+        <v>1787</v>
+      </c>
+      <c r="D1044">
+        <v>0.0384</v>
+      </c>
+      <c r="E1044">
+        <v>8</v>
+      </c>
+      <c r="F1044">
+        <v>11</v>
+      </c>
+      <c r="G1044">
+        <v>0.001</v>
+      </c>
+      <c r="H1044">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" s="2">
+        <v>44065</v>
+      </c>
+      <c r="B1045" t="inlineStr">
+        <is>
+          <t>20-29 years</t>
+        </is>
+      </c>
+      <c r="C1045">
+        <v>8897</v>
+      </c>
+      <c r="D1045">
+        <v>0.19098832217</v>
+      </c>
+      <c r="E1045">
+        <v>40</v>
+      </c>
+      <c r="F1045">
+        <v>79</v>
+      </c>
+      <c r="G1045">
+        <v>0.007</v>
+      </c>
+      <c r="H1045">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" s="2">
+        <v>44065</v>
+      </c>
+      <c r="B1046" t="inlineStr">
+        <is>
+          <t>30-39 years</t>
+        </is>
+      </c>
+      <c r="C1046">
+        <v>9833</v>
+      </c>
+      <c r="D1046">
+        <v>0.2111</v>
+      </c>
+      <c r="E1046">
+        <v>24</v>
+      </c>
+      <c r="F1046">
+        <v>224</v>
+      </c>
+      <c r="G1046">
+        <v>0.0199</v>
+      </c>
+      <c r="H1046">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" s="2">
+        <v>44065</v>
+      </c>
+      <c r="B1047" t="inlineStr">
+        <is>
+          <t>40-49 years</t>
+        </is>
+      </c>
+      <c r="C1047">
+        <v>8929</v>
+      </c>
+      <c r="D1047">
+        <v>0.1917</v>
+      </c>
+      <c r="E1047">
+        <v>11</v>
+      </c>
+      <c r="F1047">
+        <v>607</v>
+      </c>
+      <c r="G1047">
+        <v>0.053878927747</v>
+      </c>
+      <c r="H1047">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" s="2">
+        <v>44065</v>
+      </c>
+      <c r="B1048" t="inlineStr">
+        <is>
+          <t>50-59 years</t>
+        </is>
+      </c>
+      <c r="C1048">
+        <v>7870</v>
+      </c>
+      <c r="D1048">
+        <v>0.1689</v>
+      </c>
+      <c r="E1048">
+        <v>5</v>
+      </c>
+      <c r="F1048">
+        <v>1322</v>
+      </c>
+      <c r="G1048">
+        <v>0.1173</v>
+      </c>
+      <c r="H1048">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" s="2">
+        <v>44065</v>
+      </c>
+      <c r="B1049" t="inlineStr">
+        <is>
+          <t>60-64 years</t>
+        </is>
+      </c>
+      <c r="C1049">
+        <v>2988</v>
+      </c>
+      <c r="D1049">
+        <v>0.0641</v>
+      </c>
+      <c r="E1049">
+        <v>1</v>
+      </c>
+      <c r="F1049">
+        <v>1071</v>
+      </c>
+      <c r="G1049">
+        <v>0.0951</v>
+      </c>
+      <c r="H1049">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" s="2">
+        <v>44065</v>
+      </c>
+      <c r="B1050" t="inlineStr">
+        <is>
+          <t>65-69 years</t>
+        </is>
+      </c>
+      <c r="C1050">
+        <v>2075</v>
+      </c>
+      <c r="D1050">
+        <v>0.0445</v>
+      </c>
+      <c r="E1050">
+        <v>0</v>
+      </c>
+      <c r="F1050">
+        <v>1318</v>
+      </c>
+      <c r="G1050">
+        <v>0.117</v>
+      </c>
+      <c r="H1050">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" s="2">
+        <v>44065</v>
+      </c>
+      <c r="B1051" t="inlineStr">
+        <is>
+          <t>70-74 years</t>
+        </is>
+      </c>
+      <c r="C1051">
+        <v>1221</v>
+      </c>
+      <c r="D1051">
+        <v>0.0262</v>
+      </c>
+      <c r="E1051">
+        <v>-1</v>
+      </c>
+      <c r="F1051">
+        <v>1466</v>
+      </c>
+      <c r="G1051">
+        <v>0.1301</v>
+      </c>
+      <c r="H1051">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" s="2">
+        <v>44065</v>
+      </c>
+      <c r="B1052" t="inlineStr">
+        <is>
+          <t>75-79 years</t>
+        </is>
+      </c>
+      <c r="C1052">
+        <v>807</v>
+      </c>
+      <c r="D1052">
+        <v>0.0173</v>
+      </c>
+      <c r="E1052">
+        <v>1</v>
+      </c>
+      <c r="F1052">
+        <v>1384</v>
+      </c>
+      <c r="G1052">
+        <v>0.1228</v>
+      </c>
+      <c r="H1052">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" s="2">
+        <v>44065</v>
+      </c>
+      <c r="B1053" t="inlineStr">
+        <is>
+          <t>80+ years</t>
+        </is>
+      </c>
+      <c r="C1053">
+        <v>1318</v>
+      </c>
+      <c r="D1053">
+        <v>0.0283</v>
+      </c>
+      <c r="E1053">
+        <v>2</v>
+      </c>
+      <c r="F1053">
+        <v>3776</v>
+      </c>
+      <c r="G1053">
+        <v>0.33516776141</v>
+      </c>
+      <c r="H1053">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" s="2">
+        <v>44065</v>
+      </c>
+      <c r="B1054" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C1054">
+        <v>31</v>
+      </c>
+      <c r="D1054">
+        <v>0.0007</v>
+      </c>
+      <c r="E1054">
+        <v>-1</v>
+      </c>
+      <c r="F1054">
+        <v>0</v>
+      </c>
+      <c r="G1054">
+        <v>0</v>
+      </c>
+      <c r="H1054">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29535,7 +29899,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H241"/>
+  <dimension ref="A1:H244"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -36306,6 +36670,90 @@
         <v>0</v>
       </c>
     </row>
+    <row r="242">
+      <c r="A242" s="2">
+        <v>44065</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C242">
+        <v>15688</v>
+      </c>
+      <c r="D242">
+        <v>0.33676798901</v>
+      </c>
+      <c r="E242">
+        <v>31</v>
+      </c>
+      <c r="F242">
+        <v>4661</v>
+      </c>
+      <c r="G242">
+        <v>0.4137</v>
+      </c>
+      <c r="H242">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2">
+        <v>44065</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C243">
+        <v>29871</v>
+      </c>
+      <c r="D243">
+        <v>0.6412</v>
+      </c>
+      <c r="E243">
+        <v>68</v>
+      </c>
+      <c r="F243">
+        <v>6605</v>
+      </c>
+      <c r="G243">
+        <v>0.5863</v>
+      </c>
+      <c r="H243">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2">
+        <v>44065</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C244">
+        <v>1025</v>
+      </c>
+      <c r="D244">
+        <v>0.022</v>
+      </c>
+      <c r="E244">
+        <v>-4</v>
+      </c>
+      <c r="F244">
+        <v>0</v>
+      </c>
+      <c r="G244">
+        <v>0</v>
+      </c>
+      <c r="H244">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36313,7 +36761,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H475"/>
+  <dimension ref="A1:H481"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -49636,6 +50084,174 @@
         <v>78</v>
       </c>
     </row>
+    <row r="476">
+      <c r="A476" s="2">
+        <v>44065</v>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C476">
+        <v>741</v>
+      </c>
+      <c r="D476">
+        <v>0.015906749098</v>
+      </c>
+      <c r="E476">
+        <v>2</v>
+      </c>
+      <c r="F476">
+        <v>242</v>
+      </c>
+      <c r="G476">
+        <v>0.0215</v>
+      </c>
+      <c r="H476">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="2">
+        <v>44065</v>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C477">
+        <v>7425</v>
+      </c>
+      <c r="D477">
+        <v>0.1594</v>
+      </c>
+      <c r="E477">
+        <v>14</v>
+      </c>
+      <c r="F477">
+        <v>1338</v>
+      </c>
+      <c r="G477">
+        <v>0.1188</v>
+      </c>
+      <c r="H477">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="2">
+        <v>44065</v>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="C478">
+        <v>18566</v>
+      </c>
+      <c r="D478">
+        <v>0.3985</v>
+      </c>
+      <c r="E478">
+        <v>59</v>
+      </c>
+      <c r="F478">
+        <v>6142</v>
+      </c>
+      <c r="G478">
+        <v>0.5452</v>
+      </c>
+      <c r="H478">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="2">
+        <v>44065</v>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C479">
+        <v>200</v>
+      </c>
+      <c r="D479">
+        <v>0.0043</v>
+      </c>
+      <c r="E479">
+        <v>0</v>
+      </c>
+      <c r="F479">
+        <v>68</v>
+      </c>
+      <c r="G479">
+        <v>0.006</v>
+      </c>
+      <c r="H479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="2">
+        <v>44065</v>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C480">
+        <v>6574</v>
+      </c>
+      <c r="D480">
+        <v>0.1411</v>
+      </c>
+      <c r="E480">
+        <v>-16</v>
+      </c>
+      <c r="F480">
+        <v>4</v>
+      </c>
+      <c r="G480">
+        <v>0.0004</v>
+      </c>
+      <c r="H480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="2">
+        <v>44065</v>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C481">
+        <v>13078</v>
+      </c>
+      <c r="D481">
+        <v>0.2807</v>
+      </c>
+      <c r="E481">
+        <v>36</v>
+      </c>
+      <c r="F481">
+        <v>3472</v>
+      </c>
+      <c r="G481">
+        <v>0.3082</v>
+      </c>
+      <c r="H481">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1080"/>
+  <dimension ref="A1:H1093"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30620,6 +30620,370 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1081">
+      <c r="A1081" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B1081" t="inlineStr">
+        <is>
+          <t>&lt;1 year</t>
+        </is>
+      </c>
+      <c r="C1081">
+        <v>148</v>
+      </c>
+      <c r="D1081">
+        <v>0.32</v>
+      </c>
+      <c r="E1081">
+        <v>0</v>
+      </c>
+      <c r="F1081">
+        <v>3</v>
+      </c>
+      <c r="G1081">
+        <v>0.0259156876</v>
+      </c>
+      <c r="H1081">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B1082" t="inlineStr">
+        <is>
+          <t>1-9 years</t>
+        </is>
+      </c>
+      <c r="C1082">
+        <v>683</v>
+      </c>
+      <c r="D1082">
+        <v>0.014622762696</v>
+      </c>
+      <c r="E1082">
+        <v>2</v>
+      </c>
+      <c r="F1082">
+        <v>5</v>
+      </c>
+      <c r="G1082">
+        <v>0.04</v>
+      </c>
+      <c r="H1082">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B1083" t="inlineStr">
+        <is>
+          <t>10-19 years</t>
+        </is>
+      </c>
+      <c r="C1083">
+        <v>1789</v>
+      </c>
+      <c r="D1083">
+        <v>0.0383</v>
+      </c>
+      <c r="E1083">
+        <v>1</v>
+      </c>
+      <c r="F1083">
+        <v>11</v>
+      </c>
+      <c r="G1083">
+        <v>0.1</v>
+      </c>
+      <c r="H1083">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B1084" t="inlineStr">
+        <is>
+          <t>20-29 years</t>
+        </is>
+      </c>
+      <c r="C1084">
+        <v>8928</v>
+      </c>
+      <c r="D1084">
+        <v>0.1911</v>
+      </c>
+      <c r="E1084">
+        <v>15</v>
+      </c>
+      <c r="F1084">
+        <v>79</v>
+      </c>
+      <c r="G1084">
+        <v>0.6800000000000001</v>
+      </c>
+      <c r="H1084">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B1085" t="inlineStr">
+        <is>
+          <t>30-39 years</t>
+        </is>
+      </c>
+      <c r="C1085">
+        <v>9862</v>
+      </c>
+      <c r="D1085">
+        <v>0.2111</v>
+      </c>
+      <c r="E1085">
+        <v>15</v>
+      </c>
+      <c r="F1085">
+        <v>230</v>
+      </c>
+      <c r="G1085">
+        <v>0.0199</v>
+      </c>
+      <c r="H1085">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B1086" t="inlineStr">
+        <is>
+          <t>40-49 years</t>
+        </is>
+      </c>
+      <c r="C1086">
+        <v>8945</v>
+      </c>
+      <c r="D1086">
+        <v>0.1915</v>
+      </c>
+      <c r="E1086">
+        <v>11</v>
+      </c>
+      <c r="F1086">
+        <v>624</v>
+      </c>
+      <c r="G1086">
+        <v>0.0539</v>
+      </c>
+      <c r="H1086">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B1087" t="inlineStr">
+        <is>
+          <t>50-59 years</t>
+        </is>
+      </c>
+      <c r="C1087">
+        <v>7895</v>
+      </c>
+      <c r="D1087">
+        <v>0.169</v>
+      </c>
+      <c r="E1087">
+        <v>15</v>
+      </c>
+      <c r="F1087">
+        <v>1369</v>
+      </c>
+      <c r="G1087">
+        <v>0.1183</v>
+      </c>
+      <c r="H1087">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B1088" t="inlineStr">
+        <is>
+          <t>60-64 years</t>
+        </is>
+      </c>
+      <c r="C1088">
+        <v>2991</v>
+      </c>
+      <c r="D1088">
+        <v>0.064</v>
+      </c>
+      <c r="E1088">
+        <v>1</v>
+      </c>
+      <c r="F1088">
+        <v>1108</v>
+      </c>
+      <c r="G1088">
+        <v>0.09570000000000001</v>
+      </c>
+      <c r="H1088">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B1089" t="inlineStr">
+        <is>
+          <t>65-69 years</t>
+        </is>
+      </c>
+      <c r="C1089">
+        <v>2082</v>
+      </c>
+      <c r="D1089">
+        <v>0.0446</v>
+      </c>
+      <c r="E1089">
+        <v>4</v>
+      </c>
+      <c r="F1089">
+        <v>1344</v>
+      </c>
+      <c r="G1089">
+        <v>0.1161</v>
+      </c>
+      <c r="H1089">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B1090" t="inlineStr">
+        <is>
+          <t>70-74 years</t>
+        </is>
+      </c>
+      <c r="C1090">
+        <v>1223</v>
+      </c>
+      <c r="D1090">
+        <v>0.0262</v>
+      </c>
+      <c r="E1090">
+        <v>1</v>
+      </c>
+      <c r="F1090">
+        <v>1504</v>
+      </c>
+      <c r="G1090">
+        <v>0.1299</v>
+      </c>
+      <c r="H1090">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B1091" t="inlineStr">
+        <is>
+          <t>75-79 years</t>
+        </is>
+      </c>
+      <c r="C1091">
+        <v>811</v>
+      </c>
+      <c r="D1091">
+        <v>0.0174</v>
+      </c>
+      <c r="E1091">
+        <v>1</v>
+      </c>
+      <c r="F1091">
+        <v>1427</v>
+      </c>
+      <c r="G1091">
+        <v>0.1233</v>
+      </c>
+      <c r="H1091">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B1092" t="inlineStr">
+        <is>
+          <t>80+ years</t>
+        </is>
+      </c>
+      <c r="C1092">
+        <v>1320</v>
+      </c>
+      <c r="D1092">
+        <v>0.0283</v>
+      </c>
+      <c r="E1092">
+        <v>0</v>
+      </c>
+      <c r="F1092">
+        <v>3872</v>
+      </c>
+      <c r="G1092">
+        <v>0.3345</v>
+      </c>
+      <c r="H1092">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B1093" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C1093">
+        <v>31</v>
+      </c>
+      <c r="D1093">
+        <v>0.0663697868</v>
+      </c>
+      <c r="E1093">
+        <v>0</v>
+      </c>
+      <c r="F1093">
+        <v>0</v>
+      </c>
+      <c r="G1093">
+        <v>0</v>
+      </c>
+      <c r="H1093">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30627,7 +30991,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H250"/>
+  <dimension ref="A1:H253"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -37650,6 +38014,90 @@
         <v>0</v>
       </c>
     </row>
+    <row r="251">
+      <c r="A251" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C251">
+        <v>15745</v>
+      </c>
+      <c r="D251">
+        <v>0.3371</v>
+      </c>
+      <c r="E251">
+        <v>31</v>
+      </c>
+      <c r="F251">
+        <v>4797</v>
+      </c>
+      <c r="G251">
+        <v>0.4144</v>
+      </c>
+      <c r="H251">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C252">
+        <v>29950</v>
+      </c>
+      <c r="D252">
+        <v>0.6412</v>
+      </c>
+      <c r="E252">
+        <v>38</v>
+      </c>
+      <c r="F252">
+        <v>6779</v>
+      </c>
+      <c r="G252">
+        <v>0.5856</v>
+      </c>
+      <c r="H252">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C253">
+        <v>1013</v>
+      </c>
+      <c r="D253">
+        <v>0.0217</v>
+      </c>
+      <c r="E253">
+        <v>-3</v>
+      </c>
+      <c r="F253">
+        <v>0</v>
+      </c>
+      <c r="G253">
+        <v>0</v>
+      </c>
+      <c r="H253">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -37657,7 +38105,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H499"/>
+  <dimension ref="A1:H505"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -51652,6 +52100,174 @@
         <v>9</v>
       </c>
     </row>
+    <row r="500">
+      <c r="A500" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C500">
+        <v>741</v>
+      </c>
+      <c r="D500">
+        <v>0.0159</v>
+      </c>
+      <c r="E500">
+        <v>0</v>
+      </c>
+      <c r="F500">
+        <v>247</v>
+      </c>
+      <c r="G500">
+        <v>0.0213</v>
+      </c>
+      <c r="H500">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C501">
+        <v>7455</v>
+      </c>
+      <c r="D501">
+        <v>0.15960863235</v>
+      </c>
+      <c r="E501">
+        <v>14</v>
+      </c>
+      <c r="F501">
+        <v>1390</v>
+      </c>
+      <c r="G501">
+        <v>0.1201</v>
+      </c>
+      <c r="H501">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="C502">
+        <v>18624</v>
+      </c>
+      <c r="D502">
+        <v>0.3987</v>
+      </c>
+      <c r="E502">
+        <v>27</v>
+      </c>
+      <c r="F502">
+        <v>6308</v>
+      </c>
+      <c r="G502">
+        <v>0.54492052522</v>
+      </c>
+      <c r="H502">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C503">
+        <v>205</v>
+      </c>
+      <c r="D503">
+        <v>0.44</v>
+      </c>
+      <c r="E503">
+        <v>0</v>
+      </c>
+      <c r="F503">
+        <v>68</v>
+      </c>
+      <c r="G503">
+        <v>0.59</v>
+      </c>
+      <c r="H503">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C504">
+        <v>6559</v>
+      </c>
+      <c r="D504">
+        <v>0.1404</v>
+      </c>
+      <c r="E504">
+        <v>-5</v>
+      </c>
+      <c r="F504">
+        <v>4</v>
+      </c>
+      <c r="G504">
+        <v>0.03</v>
+      </c>
+      <c r="H504">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C505">
+        <v>13124</v>
+      </c>
+      <c r="D505">
+        <v>0.281</v>
+      </c>
+      <c r="E505">
+        <v>30</v>
+      </c>
+      <c r="F505">
+        <v>3559</v>
+      </c>
+      <c r="G505">
+        <v>0.3074</v>
+      </c>
+      <c r="H505">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1093"/>
+  <dimension ref="A1:H1106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30984,6 +30984,370 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1094">
+      <c r="A1094" s="2">
+        <v>44069</v>
+      </c>
+      <c r="B1094" t="inlineStr">
+        <is>
+          <t>&lt;1 year</t>
+        </is>
+      </c>
+      <c r="C1094">
+        <v>149</v>
+      </c>
+      <c r="D1094">
+        <v>0.003164960278686435</v>
+      </c>
+      <c r="E1094">
+        <v>1</v>
+      </c>
+      <c r="F1094">
+        <v>3</v>
+      </c>
+      <c r="G1094">
+        <v>0.0002541296060991105</v>
+      </c>
+      <c r="H1094">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" s="2">
+        <v>44069</v>
+      </c>
+      <c r="B1095" t="inlineStr">
+        <is>
+          <t>1-9 years</t>
+        </is>
+      </c>
+      <c r="C1095">
+        <v>686</v>
+      </c>
+      <c r="D1095">
+        <v>0.01457156208844896</v>
+      </c>
+      <c r="E1095">
+        <v>3</v>
+      </c>
+      <c r="F1095">
+        <v>5</v>
+      </c>
+      <c r="G1095">
+        <v>0.0004235493434985176</v>
+      </c>
+      <c r="H1095">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" s="2">
+        <v>44069</v>
+      </c>
+      <c r="B1096" t="inlineStr">
+        <is>
+          <t>10-19 years</t>
+        </is>
+      </c>
+      <c r="C1096">
+        <v>1806</v>
+      </c>
+      <c r="D1096">
+        <v>0.03836186753897786</v>
+      </c>
+      <c r="E1096">
+        <v>17</v>
+      </c>
+      <c r="F1096">
+        <v>11</v>
+      </c>
+      <c r="G1096">
+        <v>0.0009318085556967386</v>
+      </c>
+      <c r="H1096">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" s="2">
+        <v>44069</v>
+      </c>
+      <c r="B1097" t="inlineStr">
+        <is>
+          <t>20-29 years</t>
+        </is>
+      </c>
+      <c r="C1097">
+        <v>8997</v>
+      </c>
+      <c r="D1097">
+        <v>0.1911083733378648</v>
+      </c>
+      <c r="E1097">
+        <v>69</v>
+      </c>
+      <c r="F1097">
+        <v>80</v>
+      </c>
+      <c r="G1097">
+        <v>0.006776789495976281</v>
+      </c>
+      <c r="H1097">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" s="2">
+        <v>44069</v>
+      </c>
+      <c r="B1098" t="inlineStr">
+        <is>
+          <t>30-39 years</t>
+        </is>
+      </c>
+      <c r="C1098">
+        <v>9963</v>
+      </c>
+      <c r="D1098">
+        <v>0.211627511788946</v>
+      </c>
+      <c r="E1098">
+        <v>101</v>
+      </c>
+      <c r="F1098">
+        <v>230</v>
+      </c>
+      <c r="G1098">
+        <v>0.01948326980093181</v>
+      </c>
+      <c r="H1098">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" s="2">
+        <v>44069</v>
+      </c>
+      <c r="B1099" t="inlineStr">
+        <is>
+          <t>40-49 years</t>
+        </is>
+      </c>
+      <c r="C1099">
+        <v>9029</v>
+      </c>
+      <c r="D1099">
+        <v>0.1917880963507371</v>
+      </c>
+      <c r="E1099">
+        <v>84</v>
+      </c>
+      <c r="F1099">
+        <v>635</v>
+      </c>
+      <c r="G1099">
+        <v>0.05379076662431173</v>
+      </c>
+      <c r="H1099">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" s="2">
+        <v>44069</v>
+      </c>
+      <c r="B1100" t="inlineStr">
+        <is>
+          <t>50-59 years</t>
+        </is>
+      </c>
+      <c r="C1100">
+        <v>7956</v>
+      </c>
+      <c r="D1100">
+        <v>0.1689961340753643</v>
+      </c>
+      <c r="E1100">
+        <v>61</v>
+      </c>
+      <c r="F1100">
+        <v>1402</v>
+      </c>
+      <c r="G1100">
+        <v>0.1187632359169843</v>
+      </c>
+      <c r="H1100">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" s="2">
+        <v>44069</v>
+      </c>
+      <c r="B1101" t="inlineStr">
+        <is>
+          <t>60-64 years</t>
+        </is>
+      </c>
+      <c r="C1101">
+        <v>3006</v>
+      </c>
+      <c r="D1101">
+        <v>0.06385148052168742</v>
+      </c>
+      <c r="E1101">
+        <v>15</v>
+      </c>
+      <c r="F1101">
+        <v>1134</v>
+      </c>
+      <c r="G1101">
+        <v>0.09606099110546379</v>
+      </c>
+      <c r="H1101">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" s="2">
+        <v>44069</v>
+      </c>
+      <c r="B1102" t="inlineStr">
+        <is>
+          <t>65-69 years</t>
+        </is>
+      </c>
+      <c r="C1102">
+        <v>2089</v>
+      </c>
+      <c r="D1102">
+        <v>0.04437316793406687</v>
+      </c>
+      <c r="E1102">
+        <v>7</v>
+      </c>
+      <c r="F1102">
+        <v>1371</v>
+      </c>
+      <c r="G1102">
+        <v>0.1161372299872935</v>
+      </c>
+      <c r="H1102">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" s="2">
+        <v>44069</v>
+      </c>
+      <c r="B1103" t="inlineStr">
+        <is>
+          <t>70-74 years</t>
+        </is>
+      </c>
+      <c r="C1103">
+        <v>1231</v>
+      </c>
+      <c r="D1103">
+        <v>0.02614809465142954</v>
+      </c>
+      <c r="E1103">
+        <v>8</v>
+      </c>
+      <c r="F1103">
+        <v>1540</v>
+      </c>
+      <c r="G1103">
+        <v>0.1304531977975434</v>
+      </c>
+      <c r="H1103">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" s="2">
+        <v>44069</v>
+      </c>
+      <c r="B1104" t="inlineStr">
+        <is>
+          <t>75-79 years</t>
+        </is>
+      </c>
+      <c r="C1104">
+        <v>814</v>
+      </c>
+      <c r="D1104">
+        <v>0.01729045413993798</v>
+      </c>
+      <c r="E1104">
+        <v>3</v>
+      </c>
+      <c r="F1104">
+        <v>1451</v>
+      </c>
+      <c r="G1104">
+        <v>0.1229140194832698</v>
+      </c>
+      <c r="H1104">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" s="2">
+        <v>44069</v>
+      </c>
+      <c r="B1105" t="inlineStr">
+        <is>
+          <t>80+ years</t>
+        </is>
+      </c>
+      <c r="C1105">
+        <v>1326</v>
+      </c>
+      <c r="D1105">
+        <v>0.02816602234589405</v>
+      </c>
+      <c r="E1105">
+        <v>6</v>
+      </c>
+      <c r="F1105">
+        <v>3943</v>
+      </c>
+      <c r="G1105">
+        <v>0.334011012282931</v>
+      </c>
+      <c r="H1105">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" s="2">
+        <v>44069</v>
+      </c>
+      <c r="B1106" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C1106">
+        <v>26</v>
+      </c>
+      <c r="D1106">
+        <v>0.0005522749479587068</v>
+      </c>
+      <c r="E1106">
+        <v>-5</v>
+      </c>
+      <c r="F1106">
+        <v>0</v>
+      </c>
+      <c r="G1106">
+        <v>0</v>
+      </c>
+      <c r="H1106">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30991,7 +31355,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H253"/>
+  <dimension ref="A1:H256"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -38098,6 +38462,90 @@
         <v>0</v>
       </c>
     </row>
+    <row r="254">
+      <c r="A254" s="2">
+        <v>44069</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C254">
+        <v>15897</v>
+      </c>
+      <c r="D254">
+        <v>0.3376736479884447</v>
+      </c>
+      <c r="E254">
+        <v>152</v>
+      </c>
+      <c r="F254">
+        <v>4898</v>
+      </c>
+      <c r="G254">
+        <v>0.4149089368911478</v>
+      </c>
+      <c r="H254">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2">
+        <v>44069</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C255">
+        <v>30177</v>
+      </c>
+      <c r="D255">
+        <v>0.6410000424826883</v>
+      </c>
+      <c r="E255">
+        <v>227</v>
+      </c>
+      <c r="F255">
+        <v>6907</v>
+      </c>
+      <c r="G255">
+        <v>0.5850910631088522</v>
+      </c>
+      <c r="H255">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2">
+        <v>44069</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C256">
+        <v>1004</v>
+      </c>
+      <c r="D256">
+        <v>0.02132630952886699</v>
+      </c>
+      <c r="E256">
+        <v>-9</v>
+      </c>
+      <c r="F256">
+        <v>0</v>
+      </c>
+      <c r="G256">
+        <v>0</v>
+      </c>
+      <c r="H256">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38105,7 +38553,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H505"/>
+  <dimension ref="A1:H511"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -52268,6 +52716,174 @@
         <v>51</v>
       </c>
     </row>
+    <row r="506">
+      <c r="A506" s="2">
+        <v>44069</v>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C506">
+        <v>745</v>
+      </c>
+      <c r="D506">
+        <v>0.01582480139343218</v>
+      </c>
+      <c r="E506">
+        <v>4</v>
+      </c>
+      <c r="F506">
+        <v>248</v>
+      </c>
+      <c r="G506">
+        <v>0.02100804743752647</v>
+      </c>
+      <c r="H506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="2">
+        <v>44069</v>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C507">
+        <v>7522</v>
+      </c>
+      <c r="D507">
+        <v>0.1597773907132843</v>
+      </c>
+      <c r="E507">
+        <v>67</v>
+      </c>
+      <c r="F507">
+        <v>1406</v>
+      </c>
+      <c r="G507">
+        <v>0.1191020753917832</v>
+      </c>
+      <c r="H507">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="2">
+        <v>44069</v>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="C508">
+        <v>18750</v>
+      </c>
+      <c r="D508">
+        <v>0.3982752028548366</v>
+      </c>
+      <c r="E508">
+        <v>126</v>
+      </c>
+      <c r="F508">
+        <v>6464</v>
+      </c>
+      <c r="G508">
+        <v>0.5475645912748836</v>
+      </c>
+      <c r="H508">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="2">
+        <v>44069</v>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C509">
+        <v>208</v>
+      </c>
+      <c r="D509">
+        <v>0.004418199583669655</v>
+      </c>
+      <c r="E509">
+        <v>3</v>
+      </c>
+      <c r="F509">
+        <v>69</v>
+      </c>
+      <c r="G509">
+        <v>0.005844980940279542</v>
+      </c>
+      <c r="H509">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="2">
+        <v>44069</v>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C510">
+        <v>6550</v>
+      </c>
+      <c r="D510">
+        <v>0.1391308041972896</v>
+      </c>
+      <c r="E510">
+        <v>-9</v>
+      </c>
+      <c r="F510">
+        <v>4</v>
+      </c>
+      <c r="G510">
+        <v>0.0003388394747988141</v>
+      </c>
+      <c r="H510">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="2">
+        <v>44069</v>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C511">
+        <v>13303</v>
+      </c>
+      <c r="D511">
+        <v>0.2825736012574876</v>
+      </c>
+      <c r="E511">
+        <v>179</v>
+      </c>
+      <c r="F511">
+        <v>3614</v>
+      </c>
+      <c r="G511">
+        <v>0.3061414654807285</v>
+      </c>
+      <c r="H511">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1106"/>
+  <dimension ref="A1:H1119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31348,6 +31348,370 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1107">
+      <c r="A1107" s="2">
+        <v>44070</v>
+      </c>
+      <c r="B1107" t="inlineStr">
+        <is>
+          <t>&lt;1 year</t>
+        </is>
+      </c>
+      <c r="C1107">
+        <v>149</v>
+      </c>
+      <c r="D1107">
+        <v>0.32</v>
+      </c>
+      <c r="E1107">
+        <v>0</v>
+      </c>
+      <c r="F1107">
+        <v>3</v>
+      </c>
+      <c r="G1107">
+        <v>0.02</v>
+      </c>
+      <c r="H1107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" s="2">
+        <v>44070</v>
+      </c>
+      <c r="B1108" t="inlineStr">
+        <is>
+          <t>1-9 years</t>
+        </is>
+      </c>
+      <c r="C1108">
+        <v>689</v>
+      </c>
+      <c r="D1108">
+        <v>0.0146</v>
+      </c>
+      <c r="E1108">
+        <v>3</v>
+      </c>
+      <c r="F1108">
+        <v>5</v>
+      </c>
+      <c r="G1108">
+        <v>0.04</v>
+      </c>
+      <c r="H1108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" s="2">
+        <v>44070</v>
+      </c>
+      <c r="B1109" t="inlineStr">
+        <is>
+          <t>10-19 years</t>
+        </is>
+      </c>
+      <c r="C1109">
+        <v>1812</v>
+      </c>
+      <c r="D1109">
+        <v>0.0383</v>
+      </c>
+      <c r="E1109">
+        <v>6</v>
+      </c>
+      <c r="F1109">
+        <v>11</v>
+      </c>
+      <c r="G1109">
+        <v>0.09</v>
+      </c>
+      <c r="H1109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" s="2">
+        <v>44070</v>
+      </c>
+      <c r="B1110" t="inlineStr">
+        <is>
+          <t>20-29 years</t>
+        </is>
+      </c>
+      <c r="C1110">
+        <v>9044</v>
+      </c>
+      <c r="D1110">
+        <v>0.1913</v>
+      </c>
+      <c r="E1110">
+        <v>47</v>
+      </c>
+      <c r="F1110">
+        <v>82</v>
+      </c>
+      <c r="G1110">
+        <v>0.6800000000000001</v>
+      </c>
+      <c r="H1110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" s="2">
+        <v>44070</v>
+      </c>
+      <c r="B1111" t="inlineStr">
+        <is>
+          <t>30-39 years</t>
+        </is>
+      </c>
+      <c r="C1111">
+        <v>10030</v>
+      </c>
+      <c r="D1111">
+        <v>0.2121</v>
+      </c>
+      <c r="E1111">
+        <v>67</v>
+      </c>
+      <c r="F1111">
+        <v>234</v>
+      </c>
+      <c r="G1111">
+        <v>0.0194</v>
+      </c>
+      <c r="H1111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" s="2">
+        <v>44070</v>
+      </c>
+      <c r="B1112" t="inlineStr">
+        <is>
+          <t>40-49 years</t>
+        </is>
+      </c>
+      <c r="C1112">
+        <v>9078</v>
+      </c>
+      <c r="D1112">
+        <v>0.192</v>
+      </c>
+      <c r="E1112">
+        <v>49</v>
+      </c>
+      <c r="F1112">
+        <v>653</v>
+      </c>
+      <c r="G1112">
+        <v>0.0541</v>
+      </c>
+      <c r="H1112">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" s="2">
+        <v>44070</v>
+      </c>
+      <c r="B1113" t="inlineStr">
+        <is>
+          <t>50-59 years</t>
+        </is>
+      </c>
+      <c r="C1113">
+        <v>7986</v>
+      </c>
+      <c r="D1113">
+        <v>0.1689</v>
+      </c>
+      <c r="E1113">
+        <v>30</v>
+      </c>
+      <c r="F1113">
+        <v>1436</v>
+      </c>
+      <c r="G1113">
+        <v>0.119</v>
+      </c>
+      <c r="H1113">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" s="2">
+        <v>44070</v>
+      </c>
+      <c r="B1114" t="inlineStr">
+        <is>
+          <t>60-64 years</t>
+        </is>
+      </c>
+      <c r="C1114">
+        <v>3009</v>
+      </c>
+      <c r="D1114">
+        <v>0.0636</v>
+      </c>
+      <c r="E1114">
+        <v>3</v>
+      </c>
+      <c r="F1114">
+        <v>1155</v>
+      </c>
+      <c r="G1114">
+        <v>0.09569179784599999</v>
+      </c>
+      <c r="H1114">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" s="2">
+        <v>44070</v>
+      </c>
+      <c r="B1115" t="inlineStr">
+        <is>
+          <t>65-69 years</t>
+        </is>
+      </c>
+      <c r="C1115">
+        <v>2091</v>
+      </c>
+      <c r="D1115">
+        <v>0.0442</v>
+      </c>
+      <c r="E1115">
+        <v>2</v>
+      </c>
+      <c r="F1115">
+        <v>1400</v>
+      </c>
+      <c r="G1115">
+        <v>0.116</v>
+      </c>
+      <c r="H1115">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" s="2">
+        <v>44070</v>
+      </c>
+      <c r="B1116" t="inlineStr">
+        <is>
+          <t>70-74 years</t>
+        </is>
+      </c>
+      <c r="C1116">
+        <v>1232</v>
+      </c>
+      <c r="D1116">
+        <v>0.0261</v>
+      </c>
+      <c r="E1116">
+        <v>1</v>
+      </c>
+      <c r="F1116">
+        <v>1583</v>
+      </c>
+      <c r="G1116">
+        <v>0.1312</v>
+      </c>
+      <c r="H1116">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" s="2">
+        <v>44070</v>
+      </c>
+      <c r="B1117" t="inlineStr">
+        <is>
+          <t>75-79 years</t>
+        </is>
+      </c>
+      <c r="C1117">
+        <v>815</v>
+      </c>
+      <c r="D1117">
+        <v>0.0172</v>
+      </c>
+      <c r="E1117">
+        <v>1</v>
+      </c>
+      <c r="F1117">
+        <v>1481</v>
+      </c>
+      <c r="G1117">
+        <v>0.1227</v>
+      </c>
+      <c r="H1117">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" s="2">
+        <v>44070</v>
+      </c>
+      <c r="B1118" t="inlineStr">
+        <is>
+          <t>80+ years</t>
+        </is>
+      </c>
+      <c r="C1118">
+        <v>1326</v>
+      </c>
+      <c r="D1118">
+        <v>0.028</v>
+      </c>
+      <c r="E1118">
+        <v>0</v>
+      </c>
+      <c r="F1118">
+        <v>4027</v>
+      </c>
+      <c r="G1118">
+        <v>0.3336</v>
+      </c>
+      <c r="H1118">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" s="2">
+        <v>44070</v>
+      </c>
+      <c r="B1119" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C1119">
+        <v>26</v>
+      </c>
+      <c r="D1119">
+        <v>0.05</v>
+      </c>
+      <c r="E1119">
+        <v>0</v>
+      </c>
+      <c r="F1119">
+        <v>0</v>
+      </c>
+      <c r="G1119">
+        <v>0</v>
+      </c>
+      <c r="H1119">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31355,7 +31719,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H256"/>
+  <dimension ref="A1:H259"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -38546,6 +38910,90 @@
         <v>0</v>
       </c>
     </row>
+    <row r="257">
+      <c r="A257" s="2">
+        <v>44070</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C257">
+        <v>16029</v>
+      </c>
+      <c r="D257">
+        <v>0.339</v>
+      </c>
+      <c r="E257">
+        <v>132</v>
+      </c>
+      <c r="F257">
+        <v>5007</v>
+      </c>
+      <c r="G257">
+        <v>0.4148</v>
+      </c>
+      <c r="H257">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2">
+        <v>44070</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C258">
+        <v>30261</v>
+      </c>
+      <c r="D258">
+        <v>0.6399</v>
+      </c>
+      <c r="E258">
+        <v>84</v>
+      </c>
+      <c r="F258">
+        <v>7063</v>
+      </c>
+      <c r="G258">
+        <v>0.5852000000000001</v>
+      </c>
+      <c r="H258">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2">
+        <v>44070</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C259">
+        <v>997</v>
+      </c>
+      <c r="D259">
+        <v>0.0211</v>
+      </c>
+      <c r="E259">
+        <v>-7</v>
+      </c>
+      <c r="F259">
+        <v>0</v>
+      </c>
+      <c r="G259">
+        <v>0</v>
+      </c>
+      <c r="H259">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38553,7 +39001,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H511"/>
+  <dimension ref="A1:H517"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -52884,6 +53332,174 @@
         <v>55</v>
       </c>
     </row>
+    <row r="512">
+      <c r="A512" s="2">
+        <v>44070</v>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C512">
+        <v>746</v>
+      </c>
+      <c r="D512">
+        <v>0.0158</v>
+      </c>
+      <c r="E512">
+        <v>1</v>
+      </c>
+      <c r="F512">
+        <v>253</v>
+      </c>
+      <c r="G512">
+        <v>0.021</v>
+      </c>
+      <c r="H512">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="2">
+        <v>44070</v>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C513">
+        <v>7566</v>
+      </c>
+      <c r="D513">
+        <v>0.1600016918</v>
+      </c>
+      <c r="E513">
+        <v>44</v>
+      </c>
+      <c r="F513">
+        <v>1423</v>
+      </c>
+      <c r="G513">
+        <v>0.11789560895</v>
+      </c>
+      <c r="H513">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="2">
+        <v>44070</v>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="C514">
+        <v>18826</v>
+      </c>
+      <c r="D514">
+        <v>0.3981</v>
+      </c>
+      <c r="E514">
+        <v>76</v>
+      </c>
+      <c r="F514">
+        <v>6642</v>
+      </c>
+      <c r="G514">
+        <v>0.5503</v>
+      </c>
+      <c r="H514">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="2">
+        <v>44070</v>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C515">
+        <v>210</v>
+      </c>
+      <c r="D515">
+        <v>0.44</v>
+      </c>
+      <c r="E515">
+        <v>2</v>
+      </c>
+      <c r="F515">
+        <v>70</v>
+      </c>
+      <c r="G515">
+        <v>0.58</v>
+      </c>
+      <c r="H515">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="2">
+        <v>44070</v>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C516">
+        <v>6544</v>
+      </c>
+      <c r="D516">
+        <v>0.1384</v>
+      </c>
+      <c r="E516">
+        <v>-6</v>
+      </c>
+      <c r="F516">
+        <v>4</v>
+      </c>
+      <c r="G516">
+        <v>0.0331400166</v>
+      </c>
+      <c r="H516">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="2">
+        <v>44070</v>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C517">
+        <v>13395</v>
+      </c>
+      <c r="D517">
+        <v>0.2833</v>
+      </c>
+      <c r="E517">
+        <v>92</v>
+      </c>
+      <c r="F517">
+        <v>3678</v>
+      </c>
+      <c r="G517">
+        <v>0.3047</v>
+      </c>
+      <c r="H517">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1119"/>
+  <dimension ref="A1:H1132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31712,6 +31712,370 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1120">
+      <c r="A1120" s="2">
+        <v>44071</v>
+      </c>
+      <c r="B1120" t="inlineStr">
+        <is>
+          <t>&lt;1 year</t>
+        </is>
+      </c>
+      <c r="C1120">
+        <v>150</v>
+      </c>
+      <c r="D1120">
+        <v>0.003157761778451434</v>
+      </c>
+      <c r="E1120">
+        <v>1</v>
+      </c>
+      <c r="F1120">
+        <v>3</v>
+      </c>
+      <c r="G1120">
+        <v>0.0002445785097016142</v>
+      </c>
+      <c r="H1120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" s="2">
+        <v>44071</v>
+      </c>
+      <c r="B1121" t="inlineStr">
+        <is>
+          <t>1-9 years</t>
+        </is>
+      </c>
+      <c r="C1121">
+        <v>690</v>
+      </c>
+      <c r="D1121">
+        <v>0.0145257041808766</v>
+      </c>
+      <c r="E1121">
+        <v>1</v>
+      </c>
+      <c r="F1121">
+        <v>5</v>
+      </c>
+      <c r="G1121">
+        <v>0.0004076308495026904</v>
+      </c>
+      <c r="H1121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" s="2">
+        <v>44071</v>
+      </c>
+      <c r="B1122" t="inlineStr">
+        <is>
+          <t>10-19 years</t>
+        </is>
+      </c>
+      <c r="C1122">
+        <v>1819</v>
+      </c>
+      <c r="D1122">
+        <v>0.03829312450002105</v>
+      </c>
+      <c r="E1122">
+        <v>7</v>
+      </c>
+      <c r="F1122">
+        <v>12</v>
+      </c>
+      <c r="G1122">
+        <v>0.0009783140388064568</v>
+      </c>
+      <c r="H1122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" s="2">
+        <v>44071</v>
+      </c>
+      <c r="B1123" t="inlineStr">
+        <is>
+          <t>20-29 years</t>
+        </is>
+      </c>
+      <c r="C1123">
+        <v>9091</v>
+      </c>
+      <c r="D1123">
+        <v>0.1913814155193466</v>
+      </c>
+      <c r="E1123">
+        <v>47</v>
+      </c>
+      <c r="F1123">
+        <v>84</v>
+      </c>
+      <c r="G1123">
+        <v>0.006848198271645198</v>
+      </c>
+      <c r="H1123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" s="2">
+        <v>44071</v>
+      </c>
+      <c r="B1124" t="inlineStr">
+        <is>
+          <t>30-39 years</t>
+        </is>
+      </c>
+      <c r="C1124">
+        <v>10095</v>
+      </c>
+      <c r="D1124">
+        <v>0.2125173676897815</v>
+      </c>
+      <c r="E1124">
+        <v>65</v>
+      </c>
+      <c r="F1124">
+        <v>236</v>
+      </c>
+      <c r="G1124">
+        <v>0.01924017609652699</v>
+      </c>
+      <c r="H1124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" s="2">
+        <v>44071</v>
+      </c>
+      <c r="B1125" t="inlineStr">
+        <is>
+          <t>40-49 years</t>
+        </is>
+      </c>
+      <c r="C1125">
+        <v>9131</v>
+      </c>
+      <c r="D1125">
+        <v>0.1922234853269336</v>
+      </c>
+      <c r="E1125">
+        <v>53</v>
+      </c>
+      <c r="F1125">
+        <v>666</v>
+      </c>
+      <c r="G1125">
+        <v>0.05429642915375835</v>
+      </c>
+      <c r="H1125">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" s="2">
+        <v>44071</v>
+      </c>
+      <c r="B1126" t="inlineStr">
+        <is>
+          <t>50-59 years</t>
+        </is>
+      </c>
+      <c r="C1126">
+        <v>8007</v>
+      </c>
+      <c r="D1126">
+        <v>0.1685613237337375</v>
+      </c>
+      <c r="E1126">
+        <v>21</v>
+      </c>
+      <c r="F1126">
+        <v>1455</v>
+      </c>
+      <c r="G1126">
+        <v>0.1186205772052829</v>
+      </c>
+      <c r="H1126">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" s="2">
+        <v>44071</v>
+      </c>
+      <c r="B1127" t="inlineStr">
+        <is>
+          <t>60-64 years</t>
+        </is>
+      </c>
+      <c r="C1127">
+        <v>3019</v>
+      </c>
+      <c r="D1127">
+        <v>0.06355521872763252</v>
+      </c>
+      <c r="E1127">
+        <v>10</v>
+      </c>
+      <c r="F1127">
+        <v>1172</v>
+      </c>
+      <c r="G1127">
+        <v>0.09554867112343062</v>
+      </c>
+      <c r="H1127">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" s="2">
+        <v>44071</v>
+      </c>
+      <c r="B1128" t="inlineStr">
+        <is>
+          <t>65-69 years</t>
+        </is>
+      </c>
+      <c r="C1128">
+        <v>2096</v>
+      </c>
+      <c r="D1128">
+        <v>0.04412445791756137</v>
+      </c>
+      <c r="E1128">
+        <v>5</v>
+      </c>
+      <c r="F1128">
+        <v>1422</v>
+      </c>
+      <c r="G1128">
+        <v>0.1159302135985652</v>
+      </c>
+      <c r="H1128">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" s="2">
+        <v>44071</v>
+      </c>
+      <c r="B1129" t="inlineStr">
+        <is>
+          <t>70-74 years</t>
+        </is>
+      </c>
+      <c r="C1129">
+        <v>1235</v>
+      </c>
+      <c r="D1129">
+        <v>0.02599890530925014</v>
+      </c>
+      <c r="E1129">
+        <v>3</v>
+      </c>
+      <c r="F1129">
+        <v>1610</v>
+      </c>
+      <c r="G1129">
+        <v>0.1312571335398663</v>
+      </c>
+      <c r="H1129">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" s="2">
+        <v>44071</v>
+      </c>
+      <c r="B1130" t="inlineStr">
+        <is>
+          <t>75-79 years</t>
+        </is>
+      </c>
+      <c r="C1130">
+        <v>815</v>
+      </c>
+      <c r="D1130">
+        <v>0.01715717232958612</v>
+      </c>
+      <c r="E1130">
+        <v>0</v>
+      </c>
+      <c r="F1130">
+        <v>1501</v>
+      </c>
+      <c r="G1130">
+        <v>0.1223707810207076</v>
+      </c>
+      <c r="H1130">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" s="2">
+        <v>44071</v>
+      </c>
+      <c r="B1131" t="inlineStr">
+        <is>
+          <t>80+ years</t>
+        </is>
+      </c>
+      <c r="C1131">
+        <v>1328</v>
+      </c>
+      <c r="D1131">
+        <v>0.02795671761189003</v>
+      </c>
+      <c r="E1131">
+        <v>2</v>
+      </c>
+      <c r="F1131">
+        <v>4100</v>
+      </c>
+      <c r="G1131">
+        <v>0.3342572965922061</v>
+      </c>
+      <c r="H1131">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" s="2">
+        <v>44071</v>
+      </c>
+      <c r="B1132" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C1132">
+        <v>26</v>
+      </c>
+      <c r="D1132">
+        <v>0.0005473453749315819</v>
+      </c>
+      <c r="E1132">
+        <v>0</v>
+      </c>
+      <c r="F1132">
+        <v>0</v>
+      </c>
+      <c r="G1132">
+        <v>0</v>
+      </c>
+      <c r="H1132">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31719,7 +32083,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H259"/>
+  <dimension ref="A1:H262"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -38994,6 +39358,90 @@
         <v>0</v>
       </c>
     </row>
+    <row r="260">
+      <c r="A260" s="2">
+        <v>44071</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C260">
+        <v>16152</v>
+      </c>
+      <c r="D260">
+        <v>0.3400277883036504</v>
+      </c>
+      <c r="E260">
+        <v>123</v>
+      </c>
+      <c r="F260">
+        <v>5097</v>
+      </c>
+      <c r="G260">
+        <v>0.4155388879830426</v>
+      </c>
+      <c r="H260">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2">
+        <v>44071</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C261">
+        <v>30358</v>
+      </c>
+      <c r="D261">
+        <v>0.6390888804681908</v>
+      </c>
+      <c r="E261">
+        <v>97</v>
+      </c>
+      <c r="F261">
+        <v>7169</v>
+      </c>
+      <c r="G261">
+        <v>0.5844611120169575</v>
+      </c>
+      <c r="H261">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2">
+        <v>44071</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C262">
+        <v>992</v>
+      </c>
+      <c r="D262">
+        <v>0.02088333122815881</v>
+      </c>
+      <c r="E262">
+        <v>-5</v>
+      </c>
+      <c r="F262">
+        <v>0</v>
+      </c>
+      <c r="G262">
+        <v>0</v>
+      </c>
+      <c r="H262">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39001,7 +39449,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H517"/>
+  <dimension ref="A1:H523"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -53500,6 +53948,174 @@
         <v>64</v>
       </c>
     </row>
+    <row r="518">
+      <c r="A518" s="2">
+        <v>44071</v>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C518">
+        <v>748</v>
+      </c>
+      <c r="D518">
+        <v>0.01574670540187782</v>
+      </c>
+      <c r="E518">
+        <v>2</v>
+      </c>
+      <c r="F518">
+        <v>254</v>
+      </c>
+      <c r="G518">
+        <v>0.02070764715473667</v>
+      </c>
+      <c r="H518">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="2">
+        <v>44071</v>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C519">
+        <v>7604</v>
+      </c>
+      <c r="D519">
+        <v>0.160077470422298</v>
+      </c>
+      <c r="E519">
+        <v>38</v>
+      </c>
+      <c r="F519">
+        <v>1438</v>
+      </c>
+      <c r="G519">
+        <v>0.1172346323169737</v>
+      </c>
+      <c r="H519">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="2">
+        <v>44071</v>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="C520">
+        <v>18905</v>
+      </c>
+      <c r="D520">
+        <v>0.397983242810829</v>
+      </c>
+      <c r="E520">
+        <v>79</v>
+      </c>
+      <c r="F520">
+        <v>6762</v>
+      </c>
+      <c r="G520">
+        <v>0.5512799608674385</v>
+      </c>
+      <c r="H520">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="2">
+        <v>44071</v>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C521">
+        <v>212</v>
+      </c>
+      <c r="D521">
+        <v>0.00446296998021136</v>
+      </c>
+      <c r="E521">
+        <v>2</v>
+      </c>
+      <c r="F521">
+        <v>71</v>
+      </c>
+      <c r="G521">
+        <v>0.005788358062938203</v>
+      </c>
+      <c r="H521">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="2">
+        <v>44071</v>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C522">
+        <v>6524</v>
+      </c>
+      <c r="D522">
+        <v>0.1373415856174477</v>
+      </c>
+      <c r="E522">
+        <v>-20</v>
+      </c>
+      <c r="F522">
+        <v>4</v>
+      </c>
+      <c r="G522">
+        <v>0.0003261046796021523</v>
+      </c>
+      <c r="H522">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="2">
+        <v>44071</v>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C523">
+        <v>13509</v>
+      </c>
+      <c r="D523">
+        <v>0.2843880257673361</v>
+      </c>
+      <c r="E523">
+        <v>114</v>
+      </c>
+      <c r="F523">
+        <v>3737</v>
+      </c>
+      <c r="G523">
+        <v>0.3046632969183108</v>
+      </c>
+      <c r="H523">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1132"/>
+  <dimension ref="A1:H1145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32076,6 +32076,370 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1133">
+      <c r="A1133" s="2">
+        <v>44072</v>
+      </c>
+      <c r="B1133" t="inlineStr">
+        <is>
+          <t>&lt;1 year</t>
+        </is>
+      </c>
+      <c r="C1133">
+        <v>152</v>
+      </c>
+      <c r="D1133">
+        <v>0.003183512754995183</v>
+      </c>
+      <c r="E1133">
+        <v>2</v>
+      </c>
+      <c r="F1133">
+        <v>3</v>
+      </c>
+      <c r="G1133">
+        <v>0.0002415458937198068</v>
+      </c>
+      <c r="H1133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" s="2">
+        <v>44072</v>
+      </c>
+      <c r="B1134" t="inlineStr">
+        <is>
+          <t>1-9 years</t>
+        </is>
+      </c>
+      <c r="C1134">
+        <v>695</v>
+      </c>
+      <c r="D1134">
+        <v>0.01455619318895824</v>
+      </c>
+      <c r="E1134">
+        <v>5</v>
+      </c>
+      <c r="F1134">
+        <v>5</v>
+      </c>
+      <c r="G1134">
+        <v>0.0004025764895330113</v>
+      </c>
+      <c r="H1134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" s="2">
+        <v>44072</v>
+      </c>
+      <c r="B1135" t="inlineStr">
+        <is>
+          <t>10-19 years</t>
+        </is>
+      </c>
+      <c r="C1135">
+        <v>1835</v>
+      </c>
+      <c r="D1135">
+        <v>0.03843253885142211</v>
+      </c>
+      <c r="E1135">
+        <v>16</v>
+      </c>
+      <c r="F1135">
+        <v>13</v>
+      </c>
+      <c r="G1135">
+        <v>0.001046698872785829</v>
+      </c>
+      <c r="H1135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" s="2">
+        <v>44072</v>
+      </c>
+      <c r="B1136" t="inlineStr">
+        <is>
+          <t>20-29 years</t>
+        </is>
+      </c>
+      <c r="C1136">
+        <v>9154</v>
+      </c>
+      <c r="D1136">
+        <v>0.1917228668370125</v>
+      </c>
+      <c r="E1136">
+        <v>63</v>
+      </c>
+      <c r="F1136">
+        <v>86</v>
+      </c>
+      <c r="G1136">
+        <v>0.006924315619967794</v>
+      </c>
+      <c r="H1136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" s="2">
+        <v>44072</v>
+      </c>
+      <c r="B1137" t="inlineStr">
+        <is>
+          <t>30-39 years</t>
+        </is>
+      </c>
+      <c r="C1137">
+        <v>10155</v>
+      </c>
+      <c r="D1137">
+        <v>0.2126879738616848</v>
+      </c>
+      <c r="E1137">
+        <v>60</v>
+      </c>
+      <c r="F1137">
+        <v>238</v>
+      </c>
+      <c r="G1137">
+        <v>0.01916264090177134</v>
+      </c>
+      <c r="H1137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" s="2">
+        <v>44072</v>
+      </c>
+      <c r="B1138" t="inlineStr">
+        <is>
+          <t>40-49 years</t>
+        </is>
+      </c>
+      <c r="C1138">
+        <v>9171</v>
+      </c>
+      <c r="D1138">
+        <v>0.1920789176056633</v>
+      </c>
+      <c r="E1138">
+        <v>40</v>
+      </c>
+      <c r="F1138">
+        <v>678</v>
+      </c>
+      <c r="G1138">
+        <v>0.05458937198067633</v>
+      </c>
+      <c r="H1138">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" s="2">
+        <v>44072</v>
+      </c>
+      <c r="B1139" t="inlineStr">
+        <is>
+          <t>50-59 years</t>
+        </is>
+      </c>
+      <c r="C1139">
+        <v>8043</v>
+      </c>
+      <c r="D1139">
+        <v>0.1684539018975411</v>
+      </c>
+      <c r="E1139">
+        <v>36</v>
+      </c>
+      <c r="F1139">
+        <v>1473</v>
+      </c>
+      <c r="G1139">
+        <v>0.1185990338164251</v>
+      </c>
+      <c r="H1139">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" s="2">
+        <v>44072</v>
+      </c>
+      <c r="B1140" t="inlineStr">
+        <is>
+          <t>60-64 years</t>
+        </is>
+      </c>
+      <c r="C1140">
+        <v>3026</v>
+      </c>
+      <c r="D1140">
+        <v>0.06337703681983831</v>
+      </c>
+      <c r="E1140">
+        <v>7</v>
+      </c>
+      <c r="F1140">
+        <v>1192</v>
+      </c>
+      <c r="G1140">
+        <v>0.09597423510466989</v>
+      </c>
+      <c r="H1140">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" s="2">
+        <v>44072</v>
+      </c>
+      <c r="B1141" t="inlineStr">
+        <is>
+          <t>65-69 years</t>
+        </is>
+      </c>
+      <c r="C1141">
+        <v>2106</v>
+      </c>
+      <c r="D1141">
+        <v>0.04410840698697273</v>
+      </c>
+      <c r="E1141">
+        <v>10</v>
+      </c>
+      <c r="F1141">
+        <v>1442</v>
+      </c>
+      <c r="G1141">
+        <v>0.1161030595813204</v>
+      </c>
+      <c r="H1141">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" s="2">
+        <v>44072</v>
+      </c>
+      <c r="B1142" t="inlineStr">
+        <is>
+          <t>70-74 years</t>
+        </is>
+      </c>
+      <c r="C1142">
+        <v>1238</v>
+      </c>
+      <c r="D1142">
+        <v>0.02592887362292129</v>
+      </c>
+      <c r="E1142">
+        <v>3</v>
+      </c>
+      <c r="F1142">
+        <v>1625</v>
+      </c>
+      <c r="G1142">
+        <v>0.1308373590982287</v>
+      </c>
+      <c r="H1142">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" s="2">
+        <v>44072</v>
+      </c>
+      <c r="B1143" t="inlineStr">
+        <is>
+          <t>75-79 years</t>
+        </is>
+      </c>
+      <c r="C1143">
+        <v>816</v>
+      </c>
+      <c r="D1143">
+        <v>0.0170904368952373</v>
+      </c>
+      <c r="E1143">
+        <v>1</v>
+      </c>
+      <c r="F1143">
+        <v>1515</v>
+      </c>
+      <c r="G1143">
+        <v>0.1219806763285024</v>
+      </c>
+      <c r="H1143">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" s="2">
+        <v>44072</v>
+      </c>
+      <c r="B1144" t="inlineStr">
+        <is>
+          <t>80+ years</t>
+        </is>
+      </c>
+      <c r="C1144">
+        <v>1329</v>
+      </c>
+      <c r="D1144">
+        <v>0.02783479244334604</v>
+      </c>
+      <c r="E1144">
+        <v>1</v>
+      </c>
+      <c r="F1144">
+        <v>4150</v>
+      </c>
+      <c r="G1144">
+        <v>0.3341384863123993</v>
+      </c>
+      <c r="H1144">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" s="2">
+        <v>44072</v>
+      </c>
+      <c r="B1145" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C1145">
+        <v>26</v>
+      </c>
+      <c r="D1145">
+        <v>0.0005445482344070707</v>
+      </c>
+      <c r="E1145">
+        <v>0</v>
+      </c>
+      <c r="F1145">
+        <v>0</v>
+      </c>
+      <c r="G1145">
+        <v>0</v>
+      </c>
+      <c r="H1145">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -32083,7 +32447,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H262"/>
+  <dimension ref="A1:H265"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -39442,6 +39806,90 @@
         <v>0</v>
       </c>
     </row>
+    <row r="263">
+      <c r="A263" s="2">
+        <v>44072</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C263">
+        <v>16234</v>
+      </c>
+      <c r="D263">
+        <v>0.3400075398986303</v>
+      </c>
+      <c r="E263">
+        <v>82</v>
+      </c>
+      <c r="F263">
+        <v>5151</v>
+      </c>
+      <c r="G263">
+        <v>0.4147342995169082</v>
+      </c>
+      <c r="H263">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2">
+        <v>44072</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C264">
+        <v>30525</v>
+      </c>
+      <c r="D264">
+        <v>0.6393205713567629</v>
+      </c>
+      <c r="E264">
+        <v>167</v>
+      </c>
+      <c r="F264">
+        <v>7269</v>
+      </c>
+      <c r="G264">
+        <v>0.5852657004830918</v>
+      </c>
+      <c r="H264">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2">
+        <v>44072</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C265">
+        <v>987</v>
+      </c>
+      <c r="D265">
+        <v>0.02067188874460688</v>
+      </c>
+      <c r="E265">
+        <v>-5</v>
+      </c>
+      <c r="F265">
+        <v>0</v>
+      </c>
+      <c r="G265">
+        <v>0</v>
+      </c>
+      <c r="H265">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39449,7 +39897,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H523"/>
+  <dimension ref="A1:H529"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -54116,6 +54564,174 @@
         <v>59</v>
       </c>
     </row>
+    <row r="524">
+      <c r="A524" s="2">
+        <v>44072</v>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C524">
+        <v>753</v>
+      </c>
+      <c r="D524">
+        <v>0.01577095463494324</v>
+      </c>
+      <c r="E524">
+        <v>5</v>
+      </c>
+      <c r="F524">
+        <v>254</v>
+      </c>
+      <c r="G524">
+        <v>0.02045088566827697</v>
+      </c>
+      <c r="H524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="2">
+        <v>44072</v>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C525">
+        <v>7647</v>
+      </c>
+      <c r="D525">
+        <v>0.1601600134042642</v>
+      </c>
+      <c r="E525">
+        <v>43</v>
+      </c>
+      <c r="F525">
+        <v>1454</v>
+      </c>
+      <c r="G525">
+        <v>0.1170692431561997</v>
+      </c>
+      <c r="H525">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="2">
+        <v>44072</v>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="C526">
+        <v>19006</v>
+      </c>
+      <c r="D526">
+        <v>0.3980647593515687</v>
+      </c>
+      <c r="E526">
+        <v>101</v>
+      </c>
+      <c r="F526">
+        <v>6860</v>
+      </c>
+      <c r="G526">
+        <v>0.5523349436392915</v>
+      </c>
+      <c r="H526">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="2">
+        <v>44072</v>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C527">
+        <v>212</v>
+      </c>
+      <c r="D527">
+        <v>0.004440162526703807</v>
+      </c>
+      <c r="E527">
+        <v>0</v>
+      </c>
+      <c r="F527">
+        <v>73</v>
+      </c>
+      <c r="G527">
+        <v>0.005877616747181964</v>
+      </c>
+      <c r="H527">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="2">
+        <v>44072</v>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C528">
+        <v>6511</v>
+      </c>
+      <c r="D528">
+        <v>0.1363674443932476</v>
+      </c>
+      <c r="E528">
+        <v>-13</v>
+      </c>
+      <c r="F528">
+        <v>4</v>
+      </c>
+      <c r="G528">
+        <v>0.000322061191626409</v>
+      </c>
+      <c r="H528">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="2">
+        <v>44072</v>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C529">
+        <v>13617</v>
+      </c>
+      <c r="D529">
+        <v>0.2851966656892724</v>
+      </c>
+      <c r="E529">
+        <v>108</v>
+      </c>
+      <c r="F529">
+        <v>3775</v>
+      </c>
+      <c r="G529">
+        <v>0.3039452495974235</v>
+      </c>
+      <c r="H529">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1145"/>
+  <dimension ref="A1:H1158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32440,6 +32440,370 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1146">
+      <c r="A1146" s="2">
+        <v>44073</v>
+      </c>
+      <c r="B1146" t="inlineStr">
+        <is>
+          <t>&lt;1 year</t>
+        </is>
+      </c>
+      <c r="C1146">
+        <v>154</v>
+      </c>
+      <c r="D1146">
+        <v>0.003222296618680951</v>
+      </c>
+      <c r="E1146">
+        <v>2</v>
+      </c>
+      <c r="F1146">
+        <v>3</v>
+      </c>
+      <c r="G1146">
+        <v>0.0002398081534772182</v>
+      </c>
+      <c r="H1146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" s="2">
+        <v>44073</v>
+      </c>
+      <c r="B1147" t="inlineStr">
+        <is>
+          <t>1-9 years</t>
+        </is>
+      </c>
+      <c r="C1147">
+        <v>695</v>
+      </c>
+      <c r="D1147">
+        <v>0.0145421827920991</v>
+      </c>
+      <c r="E1147">
+        <v>0</v>
+      </c>
+      <c r="F1147">
+        <v>5</v>
+      </c>
+      <c r="G1147">
+        <v>0.0003996802557953637</v>
+      </c>
+      <c r="H1147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" s="2">
+        <v>44073</v>
+      </c>
+      <c r="B1148" t="inlineStr">
+        <is>
+          <t>10-19 years</t>
+        </is>
+      </c>
+      <c r="C1148">
+        <v>1843</v>
+      </c>
+      <c r="D1148">
+        <v>0.03856293940408437</v>
+      </c>
+      <c r="E1148">
+        <v>8</v>
+      </c>
+      <c r="F1148">
+        <v>14</v>
+      </c>
+      <c r="G1148">
+        <v>0.001119104716227018</v>
+      </c>
+      <c r="H1148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" s="2">
+        <v>44073</v>
+      </c>
+      <c r="B1149" t="inlineStr">
+        <is>
+          <t>20-29 years</t>
+        </is>
+      </c>
+      <c r="C1149">
+        <v>9167</v>
+      </c>
+      <c r="D1149">
+        <v>0.1918103448275862</v>
+      </c>
+      <c r="E1149">
+        <v>13</v>
+      </c>
+      <c r="F1149">
+        <v>86</v>
+      </c>
+      <c r="G1149">
+        <v>0.006874500399680255</v>
+      </c>
+      <c r="H1149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" s="2">
+        <v>44073</v>
+      </c>
+      <c r="B1150" t="inlineStr">
+        <is>
+          <t>30-39 years</t>
+        </is>
+      </c>
+      <c r="C1150">
+        <v>10158</v>
+      </c>
+      <c r="D1150">
+        <v>0.2125460328088383</v>
+      </c>
+      <c r="E1150">
+        <v>3</v>
+      </c>
+      <c r="F1150">
+        <v>240</v>
+      </c>
+      <c r="G1150">
+        <v>0.01918465227817746</v>
+      </c>
+      <c r="H1150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" s="2">
+        <v>44073</v>
+      </c>
+      <c r="B1151" t="inlineStr">
+        <is>
+          <t>40-49 years</t>
+        </is>
+      </c>
+      <c r="C1151">
+        <v>9178</v>
+      </c>
+      <c r="D1151">
+        <v>0.1920405088717777</v>
+      </c>
+      <c r="E1151">
+        <v>7</v>
+      </c>
+      <c r="F1151">
+        <v>684</v>
+      </c>
+      <c r="G1151">
+        <v>0.05467625899280575</v>
+      </c>
+      <c r="H1151">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" s="2">
+        <v>44073</v>
+      </c>
+      <c r="B1152" t="inlineStr">
+        <is>
+          <t>50-59 years</t>
+        </is>
+      </c>
+      <c r="C1152">
+        <v>8050</v>
+      </c>
+      <c r="D1152">
+        <v>0.1684382323401406</v>
+      </c>
+      <c r="E1152">
+        <v>7</v>
+      </c>
+      <c r="F1152">
+        <v>1483</v>
+      </c>
+      <c r="G1152">
+        <v>0.1185451638689049</v>
+      </c>
+      <c r="H1152">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" s="2">
+        <v>44073</v>
+      </c>
+      <c r="B1153" t="inlineStr">
+        <is>
+          <t>60-64 years</t>
+        </is>
+      </c>
+      <c r="C1153">
+        <v>3029</v>
+      </c>
+      <c r="D1153">
+        <v>0.06337880816873116</v>
+      </c>
+      <c r="E1153">
+        <v>3</v>
+      </c>
+      <c r="F1153">
+        <v>1198</v>
+      </c>
+      <c r="G1153">
+        <v>0.09576338928856915</v>
+      </c>
+      <c r="H1153">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" s="2">
+        <v>44073</v>
+      </c>
+      <c r="B1154" t="inlineStr">
+        <is>
+          <t>65-69 years</t>
+        </is>
+      </c>
+      <c r="C1154">
+        <v>2108</v>
+      </c>
+      <c r="D1154">
+        <v>0.04410780046869769</v>
+      </c>
+      <c r="E1154">
+        <v>2</v>
+      </c>
+      <c r="F1154">
+        <v>1456</v>
+      </c>
+      <c r="G1154">
+        <v>0.1163868904876099</v>
+      </c>
+      <c r="H1154">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" s="2">
+        <v>44073</v>
+      </c>
+      <c r="B1155" t="inlineStr">
+        <is>
+          <t>70-74 years</t>
+        </is>
+      </c>
+      <c r="C1155">
+        <v>1238</v>
+      </c>
+      <c r="D1155">
+        <v>0.02590391697355206</v>
+      </c>
+      <c r="E1155">
+        <v>0</v>
+      </c>
+      <c r="F1155">
+        <v>1634</v>
+      </c>
+      <c r="G1155">
+        <v>0.1306155075939249</v>
+      </c>
+      <c r="H1155">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" s="2">
+        <v>44073</v>
+      </c>
+      <c r="B1156" t="inlineStr">
+        <is>
+          <t>75-79 years</t>
+        </is>
+      </c>
+      <c r="C1156">
+        <v>817</v>
+      </c>
+      <c r="D1156">
+        <v>0.01709491128222297</v>
+      </c>
+      <c r="E1156">
+        <v>1</v>
+      </c>
+      <c r="F1156">
+        <v>1530</v>
+      </c>
+      <c r="G1156">
+        <v>0.1223021582733813</v>
+      </c>
+      <c r="H1156">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" s="2">
+        <v>44073</v>
+      </c>
+      <c r="B1157" t="inlineStr">
+        <is>
+          <t>80+ years</t>
+        </is>
+      </c>
+      <c r="C1157">
+        <v>1329</v>
+      </c>
+      <c r="D1157">
+        <v>0.02780800133913626</v>
+      </c>
+      <c r="E1157">
+        <v>0</v>
+      </c>
+      <c r="F1157">
+        <v>4177</v>
+      </c>
+      <c r="G1157">
+        <v>0.3338928856914468</v>
+      </c>
+      <c r="H1157">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" s="2">
+        <v>44073</v>
+      </c>
+      <c r="B1158" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C1158">
+        <v>26</v>
+      </c>
+      <c r="D1158">
+        <v>0.000544024104452628</v>
+      </c>
+      <c r="E1158">
+        <v>0</v>
+      </c>
+      <c r="F1158">
+        <v>0</v>
+      </c>
+      <c r="G1158">
+        <v>0</v>
+      </c>
+      <c r="H1158">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -32447,7 +32811,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H265"/>
+  <dimension ref="A1:H268"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -39890,6 +40254,90 @@
         <v>0</v>
       </c>
     </row>
+    <row r="266">
+      <c r="A266" s="2">
+        <v>44073</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C266">
+        <v>16258</v>
+      </c>
+      <c r="D266">
+        <v>0.3401824573150318</v>
+      </c>
+      <c r="E266">
+        <v>24</v>
+      </c>
+      <c r="F266">
+        <v>5184</v>
+      </c>
+      <c r="G266">
+        <v>0.4143884892086331</v>
+      </c>
+      <c r="H266">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2">
+        <v>44073</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C267">
+        <v>30557</v>
+      </c>
+      <c r="D267">
+        <v>0.6393747907599598</v>
+      </c>
+      <c r="E267">
+        <v>32</v>
+      </c>
+      <c r="F267">
+        <v>7326</v>
+      </c>
+      <c r="G267">
+        <v>0.5856115107913669</v>
+      </c>
+      <c r="H267">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2">
+        <v>44073</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C268">
+        <v>977</v>
+      </c>
+      <c r="D268">
+        <v>0.02044275192500837</v>
+      </c>
+      <c r="E268">
+        <v>-10</v>
+      </c>
+      <c r="F268">
+        <v>0</v>
+      </c>
+      <c r="G268">
+        <v>0</v>
+      </c>
+      <c r="H268">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39897,7 +40345,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H529"/>
+  <dimension ref="A1:H535"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -54732,6 +55180,174 @@
         <v>38</v>
       </c>
     </row>
+    <row r="530">
+      <c r="A530" s="2">
+        <v>44073</v>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C530">
+        <v>753</v>
+      </c>
+      <c r="D530">
+        <v>0.0157557750251088</v>
+      </c>
+      <c r="E530">
+        <v>0</v>
+      </c>
+      <c r="F530">
+        <v>254</v>
+      </c>
+      <c r="G530">
+        <v>0.02030375699440448</v>
+      </c>
+      <c r="H530">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="2">
+        <v>44073</v>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C531">
+        <v>7654</v>
+      </c>
+      <c r="D531">
+        <v>0.1601523267492467</v>
+      </c>
+      <c r="E531">
+        <v>7</v>
+      </c>
+      <c r="F531">
+        <v>1462</v>
+      </c>
+      <c r="G531">
+        <v>0.1168665067945644</v>
+      </c>
+      <c r="H531">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="2">
+        <v>44073</v>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="C532">
+        <v>19034</v>
+      </c>
+      <c r="D532">
+        <v>0.3982674924673585</v>
+      </c>
+      <c r="E532">
+        <v>28</v>
+      </c>
+      <c r="F532">
+        <v>6917</v>
+      </c>
+      <c r="G532">
+        <v>0.5529176658673062</v>
+      </c>
+      <c r="H532">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="2">
+        <v>44073</v>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C533">
+        <v>213</v>
+      </c>
+      <c r="D533">
+        <v>0.004456812855708068</v>
+      </c>
+      <c r="E533">
+        <v>1</v>
+      </c>
+      <c r="F533">
+        <v>73</v>
+      </c>
+      <c r="G533">
+        <v>0.00583533173461231</v>
+      </c>
+      <c r="H533">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="2">
+        <v>44073</v>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C534">
+        <v>6498</v>
+      </c>
+      <c r="D534">
+        <v>0.1359641781051222</v>
+      </c>
+      <c r="E534">
+        <v>-13</v>
+      </c>
+      <c r="F534">
+        <v>4</v>
+      </c>
+      <c r="G534">
+        <v>0.000319744204636291</v>
+      </c>
+      <c r="H534">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="2">
+        <v>44073</v>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C535">
+        <v>13640</v>
+      </c>
+      <c r="D535">
+        <v>0.2854034147974556</v>
+      </c>
+      <c r="E535">
+        <v>23</v>
+      </c>
+      <c r="F535">
+        <v>3800</v>
+      </c>
+      <c r="G535">
+        <v>0.3037569944044764</v>
+      </c>
+      <c r="H535">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1158"/>
+  <dimension ref="A1:H1171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32804,6 +32804,370 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1159">
+      <c r="A1159" s="2">
+        <v>44074</v>
+      </c>
+      <c r="B1159" t="inlineStr">
+        <is>
+          <t>&lt;1 year</t>
+        </is>
+      </c>
+      <c r="C1159">
+        <v>154</v>
+      </c>
+      <c r="D1159">
+        <v>0.003220813987535032</v>
+      </c>
+      <c r="E1159">
+        <v>0</v>
+      </c>
+      <c r="F1159">
+        <v>3</v>
+      </c>
+      <c r="G1159">
+        <v>0.0002393107849393746</v>
+      </c>
+      <c r="H1159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" s="2">
+        <v>44074</v>
+      </c>
+      <c r="B1160" t="inlineStr">
+        <is>
+          <t>1-9 years</t>
+        </is>
+      </c>
+      <c r="C1160">
+        <v>695</v>
+      </c>
+      <c r="D1160">
+        <v>0.01453549169699251</v>
+      </c>
+      <c r="E1160">
+        <v>0</v>
+      </c>
+      <c r="F1160">
+        <v>5</v>
+      </c>
+      <c r="G1160">
+        <v>0.000398851308232291</v>
+      </c>
+      <c r="H1160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" s="2">
+        <v>44074</v>
+      </c>
+      <c r="B1161" t="inlineStr">
+        <is>
+          <t>10-19 years</t>
+        </is>
+      </c>
+      <c r="C1161">
+        <v>1844</v>
+      </c>
+      <c r="D1161">
+        <v>0.03856611034425064</v>
+      </c>
+      <c r="E1161">
+        <v>1</v>
+      </c>
+      <c r="F1161">
+        <v>14</v>
+      </c>
+      <c r="G1161">
+        <v>0.001116783663050415</v>
+      </c>
+      <c r="H1161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" s="2">
+        <v>44074</v>
+      </c>
+      <c r="B1162" t="inlineStr">
+        <is>
+          <t>20-29 years</t>
+        </is>
+      </c>
+      <c r="C1162">
+        <v>9168</v>
+      </c>
+      <c r="D1162">
+        <v>0.1917430041410466</v>
+      </c>
+      <c r="E1162">
+        <v>1</v>
+      </c>
+      <c r="F1162">
+        <v>86</v>
+      </c>
+      <c r="G1162">
+        <v>0.006860242501595405</v>
+      </c>
+      <c r="H1162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" s="2">
+        <v>44074</v>
+      </c>
+      <c r="B1163" t="inlineStr">
+        <is>
+          <t>30-39 years</t>
+        </is>
+      </c>
+      <c r="C1163">
+        <v>10164</v>
+      </c>
+      <c r="D1163">
+        <v>0.2125737231773121</v>
+      </c>
+      <c r="E1163">
+        <v>6</v>
+      </c>
+      <c r="F1163">
+        <v>241</v>
+      </c>
+      <c r="G1163">
+        <v>0.01922463305679643</v>
+      </c>
+      <c r="H1163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" s="2">
+        <v>44074</v>
+      </c>
+      <c r="B1164" t="inlineStr">
+        <is>
+          <t>40-49 years</t>
+        </is>
+      </c>
+      <c r="C1164">
+        <v>9186</v>
+      </c>
+      <c r="D1164">
+        <v>0.1921194629188104</v>
+      </c>
+      <c r="E1164">
+        <v>8</v>
+      </c>
+      <c r="F1164">
+        <v>686</v>
+      </c>
+      <c r="G1164">
+        <v>0.05472239948947032</v>
+      </c>
+      <c r="H1164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" s="2">
+        <v>44074</v>
+      </c>
+      <c r="B1165" t="inlineStr">
+        <is>
+          <t>50-59 years</t>
+        </is>
+      </c>
+      <c r="C1165">
+        <v>8052</v>
+      </c>
+      <c r="D1165">
+        <v>0.1684025599196888</v>
+      </c>
+      <c r="E1165">
+        <v>2</v>
+      </c>
+      <c r="F1165">
+        <v>1487</v>
+      </c>
+      <c r="G1165">
+        <v>0.1186183790682834</v>
+      </c>
+      <c r="H1165">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" s="2">
+        <v>44074</v>
+      </c>
+      <c r="B1166" t="inlineStr">
+        <is>
+          <t>60-64 years</t>
+        </is>
+      </c>
+      <c r="C1166">
+        <v>3029</v>
+      </c>
+      <c r="D1166">
+        <v>0.06334964654703644</v>
+      </c>
+      <c r="E1166">
+        <v>0</v>
+      </c>
+      <c r="F1166">
+        <v>1199</v>
+      </c>
+      <c r="G1166">
+        <v>0.09564454371410339</v>
+      </c>
+      <c r="H1166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" s="2">
+        <v>44074</v>
+      </c>
+      <c r="B1167" t="inlineStr">
+        <is>
+          <t>65-69 years</t>
+        </is>
+      </c>
+      <c r="C1167">
+        <v>2109</v>
+      </c>
+      <c r="D1167">
+        <v>0.04410842012799598</v>
+      </c>
+      <c r="E1167">
+        <v>1</v>
+      </c>
+      <c r="F1167">
+        <v>1458</v>
+      </c>
+      <c r="G1167">
+        <v>0.1163050414805361</v>
+      </c>
+      <c r="H1167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" s="2">
+        <v>44074</v>
+      </c>
+      <c r="B1168" t="inlineStr">
+        <is>
+          <t>70-74 years</t>
+        </is>
+      </c>
+      <c r="C1168">
+        <v>1240</v>
+      </c>
+      <c r="D1168">
+        <v>0.02593382691261973</v>
+      </c>
+      <c r="E1168">
+        <v>2</v>
+      </c>
+      <c r="F1168">
+        <v>1640</v>
+      </c>
+      <c r="G1168">
+        <v>0.1308232291001915</v>
+      </c>
+      <c r="H1168">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" s="2">
+        <v>44074</v>
+      </c>
+      <c r="B1169" t="inlineStr">
+        <is>
+          <t>75-79 years</t>
+        </is>
+      </c>
+      <c r="C1169">
+        <v>817</v>
+      </c>
+      <c r="D1169">
+        <v>0.01708704563516962</v>
+      </c>
+      <c r="E1169">
+        <v>0</v>
+      </c>
+      <c r="F1169">
+        <v>1533</v>
+      </c>
+      <c r="G1169">
+        <v>0.1222878111040204</v>
+      </c>
+      <c r="H1169">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" s="2">
+        <v>44074</v>
+      </c>
+      <c r="B1170" t="inlineStr">
+        <is>
+          <t>80+ years</t>
+        </is>
+      </c>
+      <c r="C1170">
+        <v>1330</v>
+      </c>
+      <c r="D1170">
+        <v>0.02781612080143891</v>
+      </c>
+      <c r="E1170">
+        <v>1</v>
+      </c>
+      <c r="F1170">
+        <v>4184</v>
+      </c>
+      <c r="G1170">
+        <v>0.3337587747287811</v>
+      </c>
+      <c r="H1170">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" s="2">
+        <v>44074</v>
+      </c>
+      <c r="B1171" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C1171">
+        <v>26</v>
+      </c>
+      <c r="D1171">
+        <v>0.000543773790103317</v>
+      </c>
+      <c r="E1171">
+        <v>0</v>
+      </c>
+      <c r="F1171">
+        <v>0</v>
+      </c>
+      <c r="G1171">
+        <v>0</v>
+      </c>
+      <c r="H1171">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -32811,7 +33175,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H268"/>
+  <dimension ref="A1:H271"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -40338,6 +40702,90 @@
         <v>0</v>
       </c>
     </row>
+    <row r="269">
+      <c r="A269" s="2">
+        <v>44074</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C269">
+        <v>16267</v>
+      </c>
+      <c r="D269">
+        <v>0.3402141632157946</v>
+      </c>
+      <c r="E269">
+        <v>9</v>
+      </c>
+      <c r="F269">
+        <v>5196</v>
+      </c>
+      <c r="G269">
+        <v>0.4144862795149968</v>
+      </c>
+      <c r="H269">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2">
+        <v>44074</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C270">
+        <v>30572</v>
+      </c>
+      <c r="D270">
+        <v>0.6393943196553311</v>
+      </c>
+      <c r="E270">
+        <v>15</v>
+      </c>
+      <c r="F270">
+        <v>7340</v>
+      </c>
+      <c r="G270">
+        <v>0.5855137204850032</v>
+      </c>
+      <c r="H270">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2">
+        <v>44074</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C271">
+        <v>975</v>
+      </c>
+      <c r="D271">
+        <v>0.02039151712887439</v>
+      </c>
+      <c r="E271">
+        <v>-2</v>
+      </c>
+      <c r="F271">
+        <v>0</v>
+      </c>
+      <c r="G271">
+        <v>0</v>
+      </c>
+      <c r="H271">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -40345,7 +40793,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H535"/>
+  <dimension ref="A1:H541"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -55348,6 +55796,174 @@
         <v>25</v>
       </c>
     </row>
+    <row r="536">
+      <c r="A536" s="2">
+        <v>44074</v>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C536">
+        <v>752</v>
+      </c>
+      <c r="D536">
+        <v>0.01572761115991132</v>
+      </c>
+      <c r="E536">
+        <v>-1</v>
+      </c>
+      <c r="F536">
+        <v>254</v>
+      </c>
+      <c r="G536">
+        <v>0.02026164645820038</v>
+      </c>
+      <c r="H536">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="2">
+        <v>44074</v>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C537">
+        <v>7656</v>
+      </c>
+      <c r="D537">
+        <v>0.1601204668088844</v>
+      </c>
+      <c r="E537">
+        <v>2</v>
+      </c>
+      <c r="F537">
+        <v>1465</v>
+      </c>
+      <c r="G537">
+        <v>0.1168634333120613</v>
+      </c>
+      <c r="H537">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="2">
+        <v>44074</v>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="C538">
+        <v>19048</v>
+      </c>
+      <c r="D538">
+        <v>0.398377044380307</v>
+      </c>
+      <c r="E538">
+        <v>14</v>
+      </c>
+      <c r="F538">
+        <v>6931</v>
+      </c>
+      <c r="G538">
+        <v>0.5528876834716018</v>
+      </c>
+      <c r="H538">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="2">
+        <v>44074</v>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C539">
+        <v>213</v>
+      </c>
+      <c r="D539">
+        <v>0.004454762203538713</v>
+      </c>
+      <c r="E539">
+        <v>0</v>
+      </c>
+      <c r="F539">
+        <v>73</v>
+      </c>
+      <c r="G539">
+        <v>0.005823229100191449</v>
+      </c>
+      <c r="H539">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="2">
+        <v>44074</v>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C540">
+        <v>6500</v>
+      </c>
+      <c r="D540">
+        <v>0.1359434475258293</v>
+      </c>
+      <c r="E540">
+        <v>2</v>
+      </c>
+      <c r="F540">
+        <v>4</v>
+      </c>
+      <c r="G540">
+        <v>0.0003190810465858328</v>
+      </c>
+      <c r="H540">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="2">
+        <v>44074</v>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C541">
+        <v>13645</v>
+      </c>
+      <c r="D541">
+        <v>0.2853766679215293</v>
+      </c>
+      <c r="E541">
+        <v>5</v>
+      </c>
+      <c r="F541">
+        <v>3809</v>
+      </c>
+      <c r="G541">
+        <v>0.3038449266113593</v>
+      </c>
+      <c r="H541">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1171"/>
+  <dimension ref="A1:H1184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33168,6 +33168,370 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1172">
+      <c r="A1172" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B1172" t="inlineStr">
+        <is>
+          <t>&lt;1 year</t>
+        </is>
+      </c>
+      <c r="C1172">
+        <v>154</v>
+      </c>
+      <c r="D1172">
+        <v>0.003209938302484575</v>
+      </c>
+      <c r="E1172">
+        <v>0</v>
+      </c>
+      <c r="F1172">
+        <v>3</v>
+      </c>
+      <c r="G1172">
+        <v>0.0002365744026496333</v>
+      </c>
+      <c r="H1172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B1173" t="inlineStr">
+        <is>
+          <t>1-9 years</t>
+        </is>
+      </c>
+      <c r="C1173">
+        <v>699</v>
+      </c>
+      <c r="D1173">
+        <v>0.01456978489244622</v>
+      </c>
+      <c r="E1173">
+        <v>4</v>
+      </c>
+      <c r="F1173">
+        <v>5</v>
+      </c>
+      <c r="G1173">
+        <v>0.0003942906710827222</v>
+      </c>
+      <c r="H1173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B1174" t="inlineStr">
+        <is>
+          <t>10-19 years</t>
+        </is>
+      </c>
+      <c r="C1174">
+        <v>1845</v>
+      </c>
+      <c r="D1174">
+        <v>0.03845672836418209</v>
+      </c>
+      <c r="E1174">
+        <v>1</v>
+      </c>
+      <c r="F1174">
+        <v>14</v>
+      </c>
+      <c r="G1174">
+        <v>0.001104013879031622</v>
+      </c>
+      <c r="H1174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B1175" t="inlineStr">
+        <is>
+          <t>20-29 years</t>
+        </is>
+      </c>
+      <c r="C1175">
+        <v>9202</v>
+      </c>
+      <c r="D1175">
+        <v>0.1918042354510589</v>
+      </c>
+      <c r="E1175">
+        <v>34</v>
+      </c>
+      <c r="F1175">
+        <v>86</v>
+      </c>
+      <c r="G1175">
+        <v>0.006781799542622822</v>
+      </c>
+      <c r="H1175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B1176" t="inlineStr">
+        <is>
+          <t>30-39 years</t>
+        </is>
+      </c>
+      <c r="C1176">
+        <v>10191</v>
+      </c>
+      <c r="D1176">
+        <v>0.2124187093546773</v>
+      </c>
+      <c r="E1176">
+        <v>27</v>
+      </c>
+      <c r="F1176">
+        <v>243</v>
+      </c>
+      <c r="G1176">
+        <v>0.0191625266146203</v>
+      </c>
+      <c r="H1176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B1177" t="inlineStr">
+        <is>
+          <t>40-49 years</t>
+        </is>
+      </c>
+      <c r="C1177">
+        <v>9217</v>
+      </c>
+      <c r="D1177">
+        <v>0.192116891779223</v>
+      </c>
+      <c r="E1177">
+        <v>31</v>
+      </c>
+      <c r="F1177">
+        <v>698</v>
+      </c>
+      <c r="G1177">
+        <v>0.05504297768314802</v>
+      </c>
+      <c r="H1177">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B1178" t="inlineStr">
+        <is>
+          <t>50-59 years</t>
+        </is>
+      </c>
+      <c r="C1178">
+        <v>8079</v>
+      </c>
+      <c r="D1178">
+        <v>0.1683966983491746</v>
+      </c>
+      <c r="E1178">
+        <v>27</v>
+      </c>
+      <c r="F1178">
+        <v>1503</v>
+      </c>
+      <c r="G1178">
+        <v>0.1185237757274663</v>
+      </c>
+      <c r="H1178">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B1179" t="inlineStr">
+        <is>
+          <t>60-64 years</t>
+        </is>
+      </c>
+      <c r="C1179">
+        <v>3042</v>
+      </c>
+      <c r="D1179">
+        <v>0.06340670335167584</v>
+      </c>
+      <c r="E1179">
+        <v>13</v>
+      </c>
+      <c r="F1179">
+        <v>1220</v>
+      </c>
+      <c r="G1179">
+        <v>0.09620692374418421</v>
+      </c>
+      <c r="H1179">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B1180" t="inlineStr">
+        <is>
+          <t>65-69 years</t>
+        </is>
+      </c>
+      <c r="C1180">
+        <v>2118</v>
+      </c>
+      <c r="D1180">
+        <v>0.04414707353676838</v>
+      </c>
+      <c r="E1180">
+        <v>9</v>
+      </c>
+      <c r="F1180">
+        <v>1473</v>
+      </c>
+      <c r="G1180">
+        <v>0.11615803170097</v>
+      </c>
+      <c r="H1180">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B1181" t="inlineStr">
+        <is>
+          <t>70-74 years</t>
+        </is>
+      </c>
+      <c r="C1181">
+        <v>1248</v>
+      </c>
+      <c r="D1181">
+        <v>0.02601300650325163</v>
+      </c>
+      <c r="E1181">
+        <v>8</v>
+      </c>
+      <c r="F1181">
+        <v>1655</v>
+      </c>
+      <c r="G1181">
+        <v>0.130510212128381</v>
+      </c>
+      <c r="H1181">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B1182" t="inlineStr">
+        <is>
+          <t>75-79 years</t>
+        </is>
+      </c>
+      <c r="C1182">
+        <v>821</v>
+      </c>
+      <c r="D1182">
+        <v>0.01711272302818076</v>
+      </c>
+      <c r="E1182">
+        <v>4</v>
+      </c>
+      <c r="F1182">
+        <v>1552</v>
+      </c>
+      <c r="G1182">
+        <v>0.122387824304077</v>
+      </c>
+      <c r="H1182">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B1183" t="inlineStr">
+        <is>
+          <t>80+ years</t>
+        </is>
+      </c>
+      <c r="C1183">
+        <v>1335</v>
+      </c>
+      <c r="D1183">
+        <v>0.0278264132066033</v>
+      </c>
+      <c r="E1183">
+        <v>5</v>
+      </c>
+      <c r="F1183">
+        <v>4229</v>
+      </c>
+      <c r="G1183">
+        <v>0.3334910496017664</v>
+      </c>
+      <c r="H1183">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B1184" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C1184">
+        <v>25</v>
+      </c>
+      <c r="D1184">
+        <v>0.00052109388027347</v>
+      </c>
+      <c r="E1184">
+        <v>-1</v>
+      </c>
+      <c r="F1184">
+        <v>0</v>
+      </c>
+      <c r="G1184">
+        <v>0</v>
+      </c>
+      <c r="H1184">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33175,7 +33539,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H271"/>
+  <dimension ref="A1:H274"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -40786,6 +41150,90 @@
         <v>0</v>
       </c>
     </row>
+    <row r="272">
+      <c r="A272" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C272">
+        <v>16323</v>
+      </c>
+      <c r="D272">
+        <v>0.3402326163081541</v>
+      </c>
+      <c r="E272">
+        <v>56</v>
+      </c>
+      <c r="F272">
+        <v>5250</v>
+      </c>
+      <c r="G272">
+        <v>0.4140052046368583</v>
+      </c>
+      <c r="H272">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C273">
+        <v>30685</v>
+      </c>
+      <c r="D273">
+        <v>0.6395906286476571</v>
+      </c>
+      <c r="E273">
+        <v>113</v>
+      </c>
+      <c r="F273">
+        <v>7431</v>
+      </c>
+      <c r="G273">
+        <v>0.5859947953631417</v>
+      </c>
+      <c r="H273">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C274">
+        <v>968</v>
+      </c>
+      <c r="D274">
+        <v>0.02017675504418876</v>
+      </c>
+      <c r="E274">
+        <v>-7</v>
+      </c>
+      <c r="F274">
+        <v>0</v>
+      </c>
+      <c r="G274">
+        <v>0</v>
+      </c>
+      <c r="H274">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -40793,7 +41241,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H541"/>
+  <dimension ref="A1:H547"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -55964,6 +56412,174 @@
         <v>9</v>
       </c>
     </row>
+    <row r="542">
+      <c r="A542" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C542">
+        <v>752</v>
+      </c>
+      <c r="D542">
+        <v>0.01567450391862598</v>
+      </c>
+      <c r="E542">
+        <v>0</v>
+      </c>
+      <c r="F542">
+        <v>255</v>
+      </c>
+      <c r="G542">
+        <v>0.02010882422521883</v>
+      </c>
+      <c r="H542">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C543">
+        <v>7684</v>
+      </c>
+      <c r="D543">
+        <v>0.1601634150408538</v>
+      </c>
+      <c r="E543">
+        <v>28</v>
+      </c>
+      <c r="F543">
+        <v>1477</v>
+      </c>
+      <c r="G543">
+        <v>0.1164734642378361</v>
+      </c>
+      <c r="H543">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="C544">
+        <v>19117</v>
+      </c>
+      <c r="D544">
+        <v>0.3984700683675171</v>
+      </c>
+      <c r="E544">
+        <v>69</v>
+      </c>
+      <c r="F544">
+        <v>7017</v>
+      </c>
+      <c r="G544">
+        <v>0.5533475277974923</v>
+      </c>
+      <c r="H544">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C545">
+        <v>213</v>
+      </c>
+      <c r="D545">
+        <v>0.004439719859929965</v>
+      </c>
+      <c r="E545">
+        <v>0</v>
+      </c>
+      <c r="F545">
+        <v>73</v>
+      </c>
+      <c r="G545">
+        <v>0.005756643797807744</v>
+      </c>
+      <c r="H545">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C546">
+        <v>6491</v>
+      </c>
+      <c r="D546">
+        <v>0.1352968150742038</v>
+      </c>
+      <c r="E546">
+        <v>-9</v>
+      </c>
+      <c r="F546">
+        <v>4</v>
+      </c>
+      <c r="G546">
+        <v>0.0003154325368661778</v>
+      </c>
+      <c r="H546">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C547">
+        <v>13719</v>
+      </c>
+      <c r="D547">
+        <v>0.2859554777388694</v>
+      </c>
+      <c r="E547">
+        <v>74</v>
+      </c>
+      <c r="F547">
+        <v>3855</v>
+      </c>
+      <c r="G547">
+        <v>0.3039981074047788</v>
+      </c>
+      <c r="H547">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1184"/>
+  <dimension ref="A1:H1197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33532,6 +33532,370 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1185">
+      <c r="A1185" s="2">
+        <v>44076</v>
+      </c>
+      <c r="B1185" t="inlineStr">
+        <is>
+          <t>&lt;1 year</t>
+        </is>
+      </c>
+      <c r="C1185">
+        <v>155</v>
+      </c>
+      <c r="D1185">
+        <v>0.003214233871803911</v>
+      </c>
+      <c r="E1185">
+        <v>1</v>
+      </c>
+      <c r="F1185">
+        <v>3</v>
+      </c>
+      <c r="G1185">
+        <v>0.0002331002331002331</v>
+      </c>
+      <c r="H1185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" s="2">
+        <v>44076</v>
+      </c>
+      <c r="B1186" t="inlineStr">
+        <is>
+          <t>1-9 years</t>
+        </is>
+      </c>
+      <c r="C1186">
+        <v>709</v>
+      </c>
+      <c r="D1186">
+        <v>0.01470252783941273</v>
+      </c>
+      <c r="E1186">
+        <v>10</v>
+      </c>
+      <c r="F1186">
+        <v>5</v>
+      </c>
+      <c r="G1186">
+        <v>0.0003885003885003885</v>
+      </c>
+      <c r="H1186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" s="2">
+        <v>44076</v>
+      </c>
+      <c r="B1187" t="inlineStr">
+        <is>
+          <t>10-19 years</t>
+        </is>
+      </c>
+      <c r="C1187">
+        <v>1869</v>
+      </c>
+      <c r="D1187">
+        <v>0.03875743939613877</v>
+      </c>
+      <c r="E1187">
+        <v>24</v>
+      </c>
+      <c r="F1187">
+        <v>14</v>
+      </c>
+      <c r="G1187">
+        <v>0.001087801087801088</v>
+      </c>
+      <c r="H1187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" s="2">
+        <v>44076</v>
+      </c>
+      <c r="B1188" t="inlineStr">
+        <is>
+          <t>20-29 years</t>
+        </is>
+      </c>
+      <c r="C1188">
+        <v>9247</v>
+      </c>
+      <c r="D1188">
+        <v>0.1917549716940049</v>
+      </c>
+      <c r="E1188">
+        <v>45</v>
+      </c>
+      <c r="F1188">
+        <v>88</v>
+      </c>
+      <c r="G1188">
+        <v>0.006837606837606838</v>
+      </c>
+      <c r="H1188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" s="2">
+        <v>44076</v>
+      </c>
+      <c r="B1189" t="inlineStr">
+        <is>
+          <t>30-39 years</t>
+        </is>
+      </c>
+      <c r="C1189">
+        <v>10244</v>
+      </c>
+      <c r="D1189">
+        <v>0.2124297534371565</v>
+      </c>
+      <c r="E1189">
+        <v>53</v>
+      </c>
+      <c r="F1189">
+        <v>243</v>
+      </c>
+      <c r="G1189">
+        <v>0.01888111888111888</v>
+      </c>
+      <c r="H1189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" s="2">
+        <v>44076</v>
+      </c>
+      <c r="B1190" t="inlineStr">
+        <is>
+          <t>40-49 years</t>
+        </is>
+      </c>
+      <c r="C1190">
+        <v>9245</v>
+      </c>
+      <c r="D1190">
+        <v>0.1917134977085623</v>
+      </c>
+      <c r="E1190">
+        <v>28</v>
+      </c>
+      <c r="F1190">
+        <v>713</v>
+      </c>
+      <c r="G1190">
+        <v>0.0554001554001554</v>
+      </c>
+      <c r="H1190">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" s="2">
+        <v>44076</v>
+      </c>
+      <c r="B1191" t="inlineStr">
+        <is>
+          <t>50-59 years</t>
+        </is>
+      </c>
+      <c r="C1191">
+        <v>8117</v>
+      </c>
+      <c r="D1191">
+        <v>0.1683221699189184</v>
+      </c>
+      <c r="E1191">
+        <v>38</v>
+      </c>
+      <c r="F1191">
+        <v>1532</v>
+      </c>
+      <c r="G1191">
+        <v>0.119036519036519</v>
+      </c>
+      <c r="H1191">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" s="2">
+        <v>44076</v>
+      </c>
+      <c r="B1192" t="inlineStr">
+        <is>
+          <t>60-64 years</t>
+        </is>
+      </c>
+      <c r="C1192">
+        <v>3057</v>
+      </c>
+      <c r="D1192">
+        <v>0.06339298674906164</v>
+      </c>
+      <c r="E1192">
+        <v>15</v>
+      </c>
+      <c r="F1192">
+        <v>1231</v>
+      </c>
+      <c r="G1192">
+        <v>0.09564879564879565</v>
+      </c>
+      <c r="H1192">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" s="2">
+        <v>44076</v>
+      </c>
+      <c r="B1193" t="inlineStr">
+        <is>
+          <t>65-69 years</t>
+        </is>
+      </c>
+      <c r="C1193">
+        <v>2130</v>
+      </c>
+      <c r="D1193">
+        <v>0.04416979449640213</v>
+      </c>
+      <c r="E1193">
+        <v>12</v>
+      </c>
+      <c r="F1193">
+        <v>1496</v>
+      </c>
+      <c r="G1193">
+        <v>0.1162393162393162</v>
+      </c>
+      <c r="H1193">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" s="2">
+        <v>44076</v>
+      </c>
+      <c r="B1194" t="inlineStr">
+        <is>
+          <t>70-74 years</t>
+        </is>
+      </c>
+      <c r="C1194">
+        <v>1255</v>
+      </c>
+      <c r="D1194">
+        <v>0.02602492586525102</v>
+      </c>
+      <c r="E1194">
+        <v>7</v>
+      </c>
+      <c r="F1194">
+        <v>1688</v>
+      </c>
+      <c r="G1194">
+        <v>0.1311577311577312</v>
+      </c>
+      <c r="H1194">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" s="2">
+        <v>44076</v>
+      </c>
+      <c r="B1195" t="inlineStr">
+        <is>
+          <t>75-79 years</t>
+        </is>
+      </c>
+      <c r="C1195">
+        <v>826</v>
+      </c>
+      <c r="D1195">
+        <v>0.01712875598780665</v>
+      </c>
+      <c r="E1195">
+        <v>5</v>
+      </c>
+      <c r="F1195">
+        <v>1571</v>
+      </c>
+      <c r="G1195">
+        <v>0.1220668220668221</v>
+      </c>
+      <c r="H1195">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" s="2">
+        <v>44076</v>
+      </c>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>80+ years</t>
+        </is>
+      </c>
+      <c r="C1196">
+        <v>1344</v>
+      </c>
+      <c r="D1196">
+        <v>0.02787051821744811</v>
+      </c>
+      <c r="E1196">
+        <v>9</v>
+      </c>
+      <c r="F1196">
+        <v>4286</v>
+      </c>
+      <c r="G1196">
+        <v>0.333022533022533</v>
+      </c>
+      <c r="H1196">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" s="2">
+        <v>44076</v>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C1197">
+        <v>25</v>
+      </c>
+      <c r="D1197">
+        <v>0.0005184248180328889</v>
+      </c>
+      <c r="E1197">
+        <v>0</v>
+      </c>
+      <c r="F1197">
+        <v>0</v>
+      </c>
+      <c r="G1197">
+        <v>0</v>
+      </c>
+      <c r="H1197">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33539,7 +33903,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H274"/>
+  <dimension ref="A1:H277"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -41234,6 +41598,90 @@
         <v>0</v>
       </c>
     </row>
+    <row r="275">
+      <c r="A275" s="2">
+        <v>44076</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C275">
+        <v>16423</v>
+      </c>
+      <c r="D275">
+        <v>0.3405636314621653</v>
+      </c>
+      <c r="E275">
+        <v>100</v>
+      </c>
+      <c r="F275">
+        <v>5327</v>
+      </c>
+      <c r="G275">
+        <v>0.4139083139083139</v>
+      </c>
+      <c r="H275">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2">
+        <v>44076</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C276">
+        <v>30836</v>
+      </c>
+      <c r="D276">
+        <v>0.6394459075544865</v>
+      </c>
+      <c r="E276">
+        <v>151</v>
+      </c>
+      <c r="F276">
+        <v>7543</v>
+      </c>
+      <c r="G276">
+        <v>0.5860916860916861</v>
+      </c>
+      <c r="H276">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2">
+        <v>44076</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C277">
+        <v>964</v>
+      </c>
+      <c r="D277">
+        <v>0.0199904609833482</v>
+      </c>
+      <c r="E277">
+        <v>-4</v>
+      </c>
+      <c r="F277">
+        <v>0</v>
+      </c>
+      <c r="G277">
+        <v>0</v>
+      </c>
+      <c r="H277">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -41241,7 +41689,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H547"/>
+  <dimension ref="A1:H553"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -56580,6 +57028,174 @@
         <v>46</v>
       </c>
     </row>
+    <row r="548">
+      <c r="A548" s="2">
+        <v>44076</v>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C548">
+        <v>754</v>
+      </c>
+      <c r="D548">
+        <v>0.01563569251187193</v>
+      </c>
+      <c r="E548">
+        <v>2</v>
+      </c>
+      <c r="F548">
+        <v>257</v>
+      </c>
+      <c r="G548">
+        <v>0.01996891996891997</v>
+      </c>
+      <c r="H548">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="2">
+        <v>44076</v>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C549">
+        <v>7745</v>
+      </c>
+      <c r="D549">
+        <v>0.160608008626589</v>
+      </c>
+      <c r="E549">
+        <v>61</v>
+      </c>
+      <c r="F549">
+        <v>1493</v>
+      </c>
+      <c r="G549">
+        <v>0.116006216006216</v>
+      </c>
+      <c r="H549">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="2">
+        <v>44076</v>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="C550">
+        <v>19211</v>
+      </c>
+      <c r="D550">
+        <v>0.3983783671691931</v>
+      </c>
+      <c r="E550">
+        <v>94</v>
+      </c>
+      <c r="F550">
+        <v>7129</v>
+      </c>
+      <c r="G550">
+        <v>0.5539238539238539</v>
+      </c>
+      <c r="H550">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="2">
+        <v>44076</v>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C551">
+        <v>217</v>
+      </c>
+      <c r="D551">
+        <v>0.004499927420525476</v>
+      </c>
+      <c r="E551">
+        <v>4</v>
+      </c>
+      <c r="F551">
+        <v>74</v>
+      </c>
+      <c r="G551">
+        <v>0.00574980574980575</v>
+      </c>
+      <c r="H551">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="2">
+        <v>44076</v>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C552">
+        <v>6482</v>
+      </c>
+      <c r="D552">
+        <v>0.1344171868195674</v>
+      </c>
+      <c r="E552">
+        <v>-9</v>
+      </c>
+      <c r="F552">
+        <v>4</v>
+      </c>
+      <c r="G552">
+        <v>0.0003108003108003108</v>
+      </c>
+      <c r="H552">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="2">
+        <v>44076</v>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C553">
+        <v>13814</v>
+      </c>
+      <c r="D553">
+        <v>0.2864608174522531</v>
+      </c>
+      <c r="E553">
+        <v>95</v>
+      </c>
+      <c r="F553">
+        <v>3913</v>
+      </c>
+      <c r="G553">
+        <v>0.3040404040404041</v>
+      </c>
+      <c r="H553">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1197"/>
+  <dimension ref="A1:H1210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33896,6 +33896,370 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1198">
+      <c r="A1198" s="2">
+        <v>44077</v>
+      </c>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>&lt;1 year</t>
+        </is>
+      </c>
+      <c r="C1198">
+        <v>155</v>
+      </c>
+      <c r="D1198">
+        <v>0.003205857411735506</v>
+      </c>
+      <c r="E1198">
+        <v>0</v>
+      </c>
+      <c r="F1198">
+        <v>3</v>
+      </c>
+      <c r="G1198">
+        <v>0.0002291650752425331</v>
+      </c>
+      <c r="H1198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" s="2">
+        <v>44077</v>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>1-9 years</t>
+        </is>
+      </c>
+      <c r="C1199">
+        <v>721</v>
+      </c>
+      <c r="D1199">
+        <v>0.01491240770233097</v>
+      </c>
+      <c r="E1199">
+        <v>12</v>
+      </c>
+      <c r="F1199">
+        <v>5</v>
+      </c>
+      <c r="G1199">
+        <v>0.0003819417920708884</v>
+      </c>
+      <c r="H1199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" s="2">
+        <v>44077</v>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>10-19 years</t>
+        </is>
+      </c>
+      <c r="C1200">
+        <v>1879</v>
+      </c>
+      <c r="D1200">
+        <v>0.03886326501065172</v>
+      </c>
+      <c r="E1200">
+        <v>10</v>
+      </c>
+      <c r="F1200">
+        <v>14</v>
+      </c>
+      <c r="G1200">
+        <v>0.001069437017798487</v>
+      </c>
+      <c r="H1200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" s="2">
+        <v>44077</v>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>20-29 years</t>
+        </is>
+      </c>
+      <c r="C1201">
+        <v>9268</v>
+      </c>
+      <c r="D1201">
+        <v>0.1916895902707398</v>
+      </c>
+      <c r="E1201">
+        <v>21</v>
+      </c>
+      <c r="F1201">
+        <v>89</v>
+      </c>
+      <c r="G1201">
+        <v>0.006798563898861814</v>
+      </c>
+      <c r="H1201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" s="2">
+        <v>44077</v>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>30-39 years</t>
+        </is>
+      </c>
+      <c r="C1202">
+        <v>10265</v>
+      </c>
+      <c r="D1202">
+        <v>0.2123104924610643</v>
+      </c>
+      <c r="E1202">
+        <v>21</v>
+      </c>
+      <c r="F1202">
+        <v>248</v>
+      </c>
+      <c r="G1202">
+        <v>0.01894431288671606</v>
+      </c>
+      <c r="H1202">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" s="2">
+        <v>44077</v>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>40-49 years</t>
+        </is>
+      </c>
+      <c r="C1203">
+        <v>9264</v>
+      </c>
+      <c r="D1203">
+        <v>0.191606858466566</v>
+      </c>
+      <c r="E1203">
+        <v>19</v>
+      </c>
+      <c r="F1203">
+        <v>724</v>
+      </c>
+      <c r="G1203">
+        <v>0.05530517149186464</v>
+      </c>
+      <c r="H1203">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" s="2">
+        <v>44077</v>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>50-59 years</t>
+        </is>
+      </c>
+      <c r="C1204">
+        <v>8139</v>
+      </c>
+      <c r="D1204">
+        <v>0.1683385385426793</v>
+      </c>
+      <c r="E1204">
+        <v>22</v>
+      </c>
+      <c r="F1204">
+        <v>1563</v>
+      </c>
+      <c r="G1204">
+        <v>0.1193950042013597</v>
+      </c>
+      <c r="H1204">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" s="2">
+        <v>44077</v>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>60-64 years</t>
+        </is>
+      </c>
+      <c r="C1205">
+        <v>3066</v>
+      </c>
+      <c r="D1205">
+        <v>0.06341392789923267</v>
+      </c>
+      <c r="E1205">
+        <v>9</v>
+      </c>
+      <c r="F1205">
+        <v>1255</v>
+      </c>
+      <c r="G1205">
+        <v>0.09586738980979299</v>
+      </c>
+      <c r="H1205">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" s="2">
+        <v>44077</v>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>65-69 years</t>
+        </is>
+      </c>
+      <c r="C1206">
+        <v>2132</v>
+      </c>
+      <c r="D1206">
+        <v>0.04409605162464581</v>
+      </c>
+      <c r="E1206">
+        <v>2</v>
+      </c>
+      <c r="F1206">
+        <v>1524</v>
+      </c>
+      <c r="G1206">
+        <v>0.1164158582232068</v>
+      </c>
+      <c r="H1206">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" s="2">
+        <v>44077</v>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>70-74 years</t>
+        </is>
+      </c>
+      <c r="C1207">
+        <v>1260</v>
+      </c>
+      <c r="D1207">
+        <v>0.02606051831475315</v>
+      </c>
+      <c r="E1207">
+        <v>5</v>
+      </c>
+      <c r="F1207">
+        <v>1710</v>
+      </c>
+      <c r="G1207">
+        <v>0.1306240928882438</v>
+      </c>
+      <c r="H1207">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" s="2">
+        <v>44077</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>75-79 years</t>
+        </is>
+      </c>
+      <c r="C1208">
+        <v>828</v>
+      </c>
+      <c r="D1208">
+        <v>0.01712548346398064</v>
+      </c>
+      <c r="E1208">
+        <v>2</v>
+      </c>
+      <c r="F1208">
+        <v>1600</v>
+      </c>
+      <c r="G1208">
+        <v>0.1222213734626843</v>
+      </c>
+      <c r="H1208">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" s="2">
+        <v>44077</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>80+ years</t>
+        </is>
+      </c>
+      <c r="C1209">
+        <v>1348</v>
+      </c>
+      <c r="D1209">
+        <v>0.02788061800657718</v>
+      </c>
+      <c r="E1209">
+        <v>4</v>
+      </c>
+      <c r="F1209">
+        <v>4356</v>
+      </c>
+      <c r="G1209">
+        <v>0.332747689252158</v>
+      </c>
+      <c r="H1209">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" s="2">
+        <v>44077</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C1210">
+        <v>24</v>
+      </c>
+      <c r="D1210">
+        <v>0.0004963908250429171</v>
+      </c>
+      <c r="E1210">
+        <v>-1</v>
+      </c>
+      <c r="F1210">
+        <v>0</v>
+      </c>
+      <c r="G1210">
+        <v>0</v>
+      </c>
+      <c r="H1210">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33903,7 +34267,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H277"/>
+  <dimension ref="A1:H280"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -41682,6 +42046,90 @@
         <v>0</v>
       </c>
     </row>
+    <row r="278">
+      <c r="A278" s="2">
+        <v>44077</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C278">
+        <v>16493</v>
+      </c>
+      <c r="D278">
+        <v>0.3411239115597013</v>
+      </c>
+      <c r="E278">
+        <v>70</v>
+      </c>
+      <c r="F278">
+        <v>5427</v>
+      </c>
+      <c r="G278">
+        <v>0.4145596211137423</v>
+      </c>
+      <c r="H278">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2">
+        <v>44077</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C279">
+        <v>30896</v>
+      </c>
+      <c r="D279">
+        <v>0.639020455438582</v>
+      </c>
+      <c r="E279">
+        <v>60</v>
+      </c>
+      <c r="F279">
+        <v>7664</v>
+      </c>
+      <c r="G279">
+        <v>0.5854403788862578</v>
+      </c>
+      <c r="H279">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2">
+        <v>44077</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C280">
+        <v>960</v>
+      </c>
+      <c r="D280">
+        <v>0.01985563300171668</v>
+      </c>
+      <c r="E280">
+        <v>-4</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="H280">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -41689,7 +42137,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H553"/>
+  <dimension ref="A1:H559"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -57196,6 +57644,174 @@
         <v>58</v>
       </c>
     </row>
+    <row r="554">
+      <c r="A554" s="2">
+        <v>44077</v>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C554">
+        <v>755</v>
+      </c>
+      <c r="D554">
+        <v>0.01561562803780844</v>
+      </c>
+      <c r="E554">
+        <v>1</v>
+      </c>
+      <c r="F554">
+        <v>260</v>
+      </c>
+      <c r="G554">
+        <v>0.0198609731876862</v>
+      </c>
+      <c r="H554">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="2">
+        <v>44077</v>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C555">
+        <v>7770</v>
+      </c>
+      <c r="D555">
+        <v>0.1607065296076444</v>
+      </c>
+      <c r="E555">
+        <v>25</v>
+      </c>
+      <c r="F555">
+        <v>1502</v>
+      </c>
+      <c r="G555">
+        <v>0.1147353143380949</v>
+      </c>
+      <c r="H555">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="2">
+        <v>44077</v>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="C556">
+        <v>19278</v>
+      </c>
+      <c r="D556">
+        <v>0.3987259302157232</v>
+      </c>
+      <c r="E556">
+        <v>67</v>
+      </c>
+      <c r="F556">
+        <v>7276</v>
+      </c>
+      <c r="G556">
+        <v>0.5558016958215568</v>
+      </c>
+      <c r="H556">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="2">
+        <v>44077</v>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C557">
+        <v>217</v>
+      </c>
+      <c r="D557">
+        <v>0.004488200376429709</v>
+      </c>
+      <c r="E557">
+        <v>0</v>
+      </c>
+      <c r="F557">
+        <v>75</v>
+      </c>
+      <c r="G557">
+        <v>0.005729126881063326</v>
+      </c>
+      <c r="H557">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="2">
+        <v>44077</v>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C558">
+        <v>6466</v>
+      </c>
+      <c r="D558">
+        <v>0.1337359614469793</v>
+      </c>
+      <c r="E558">
+        <v>-16</v>
+      </c>
+      <c r="F558">
+        <v>4</v>
+      </c>
+      <c r="G558">
+        <v>0.0003055534336567107</v>
+      </c>
+      <c r="H558">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="2">
+        <v>44077</v>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C559">
+        <v>13863</v>
+      </c>
+      <c r="D559">
+        <v>0.286727750315415</v>
+      </c>
+      <c r="E559">
+        <v>49</v>
+      </c>
+      <c r="F559">
+        <v>3974</v>
+      </c>
+      <c r="G559">
+        <v>0.3035673363379421</v>
+      </c>
+      <c r="H559">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1210"/>
+  <dimension ref="A1:H1223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -34260,6 +34260,370 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" s="2">
+        <v>44078</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>&lt;1 year</t>
+        </is>
+      </c>
+      <c r="C1211">
+        <v>155</v>
+      </c>
+      <c r="D1211">
+        <v>0.00319693094629156</v>
+      </c>
+      <c r="E1211">
+        <v>0</v>
+      </c>
+      <c r="F1211">
+        <v>3</v>
+      </c>
+      <c r="G1211">
+        <v>0.0002267402312750359</v>
+      </c>
+      <c r="H1211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" s="2">
+        <v>44078</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>1-9 years</t>
+        </is>
+      </c>
+      <c r="C1212">
+        <v>731</v>
+      </c>
+      <c r="D1212">
+        <v>0.01507713884992987</v>
+      </c>
+      <c r="E1212">
+        <v>10</v>
+      </c>
+      <c r="F1212">
+        <v>5</v>
+      </c>
+      <c r="G1212">
+        <v>0.0003779003854583932</v>
+      </c>
+      <c r="H1212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" s="2">
+        <v>44078</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>10-19 years</t>
+        </is>
+      </c>
+      <c r="C1213">
+        <v>1901</v>
+      </c>
+      <c r="D1213">
+        <v>0.0392088111541952</v>
+      </c>
+      <c r="E1213">
+        <v>22</v>
+      </c>
+      <c r="F1213">
+        <v>14</v>
+      </c>
+      <c r="G1213">
+        <v>0.001058121079283501</v>
+      </c>
+      <c r="H1213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" s="2">
+        <v>44078</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>20-29 years</t>
+        </is>
+      </c>
+      <c r="C1214">
+        <v>9285</v>
+      </c>
+      <c r="D1214">
+        <v>0.1915064763633364</v>
+      </c>
+      <c r="E1214">
+        <v>17</v>
+      </c>
+      <c r="F1214">
+        <v>90</v>
+      </c>
+      <c r="G1214">
+        <v>0.006802206938251077</v>
+      </c>
+      <c r="H1214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" s="2">
+        <v>44078</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>30-39 years</t>
+        </is>
+      </c>
+      <c r="C1215">
+        <v>10289</v>
+      </c>
+      <c r="D1215">
+        <v>0.2122143387509281</v>
+      </c>
+      <c r="E1215">
+        <v>24</v>
+      </c>
+      <c r="F1215">
+        <v>249</v>
+      </c>
+      <c r="G1215">
+        <v>0.01881943919582798</v>
+      </c>
+      <c r="H1215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" s="2">
+        <v>44078</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>40-49 years</t>
+        </is>
+      </c>
+      <c r="C1216">
+        <v>9287</v>
+      </c>
+      <c r="D1216">
+        <v>0.191547727085224</v>
+      </c>
+      <c r="E1216">
+        <v>23</v>
+      </c>
+      <c r="F1216">
+        <v>727</v>
+      </c>
+      <c r="G1216">
+        <v>0.05494671604565037</v>
+      </c>
+      <c r="H1216">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" s="2">
+        <v>44078</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>50-59 years</t>
+        </is>
+      </c>
+      <c r="C1217">
+        <v>8160</v>
+      </c>
+      <c r="D1217">
+        <v>0.1683029453015428</v>
+      </c>
+      <c r="E1217">
+        <v>21</v>
+      </c>
+      <c r="F1217">
+        <v>1583</v>
+      </c>
+      <c r="G1217">
+        <v>0.1196432620361273</v>
+      </c>
+      <c r="H1217">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" s="2">
+        <v>44078</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>60-64 years</t>
+        </is>
+      </c>
+      <c r="C1218">
+        <v>3072</v>
+      </c>
+      <c r="D1218">
+        <v>0.06336110881940434</v>
+      </c>
+      <c r="E1218">
+        <v>6</v>
+      </c>
+      <c r="F1218">
+        <v>1275</v>
+      </c>
+      <c r="G1218">
+        <v>0.09636459829189026</v>
+      </c>
+      <c r="H1218">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" s="2">
+        <v>44078</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>65-69 years</t>
+        </is>
+      </c>
+      <c r="C1219">
+        <v>2140</v>
+      </c>
+      <c r="D1219">
+        <v>0.04413827241976735</v>
+      </c>
+      <c r="E1219">
+        <v>8</v>
+      </c>
+      <c r="F1219">
+        <v>1543</v>
+      </c>
+      <c r="G1219">
+        <v>0.1166200589524601</v>
+      </c>
+      <c r="H1219">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" s="2">
+        <v>44078</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>70-74 years</t>
+        </is>
+      </c>
+      <c r="C1220">
+        <v>1262</v>
+      </c>
+      <c r="D1220">
+        <v>0.02602920551109644</v>
+      </c>
+      <c r="E1220">
+        <v>2</v>
+      </c>
+      <c r="F1220">
+        <v>1721</v>
+      </c>
+      <c r="G1220">
+        <v>0.1300733126747789</v>
+      </c>
+      <c r="H1220">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" s="2">
+        <v>44078</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>75-79 years</t>
+        </is>
+      </c>
+      <c r="C1221">
+        <v>829</v>
+      </c>
+      <c r="D1221">
+        <v>0.01709842422242389</v>
+      </c>
+      <c r="E1221">
+        <v>1</v>
+      </c>
+      <c r="F1221">
+        <v>1623</v>
+      </c>
+      <c r="G1221">
+        <v>0.1226664651197944</v>
+      </c>
+      <c r="H1221">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" s="2">
+        <v>44078</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>80+ years</t>
+        </is>
+      </c>
+      <c r="C1222">
+        <v>1349</v>
+      </c>
+      <c r="D1222">
+        <v>0.02782361191320848</v>
+      </c>
+      <c r="E1222">
+        <v>1</v>
+      </c>
+      <c r="F1222">
+        <v>4398</v>
+      </c>
+      <c r="G1222">
+        <v>0.3324011790492026</v>
+      </c>
+      <c r="H1222">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" s="2">
+        <v>44078</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C1223">
+        <v>24</v>
+      </c>
+      <c r="D1223">
+        <v>0.0004950086626515964</v>
+      </c>
+      <c r="E1223">
+        <v>0</v>
+      </c>
+      <c r="F1223">
+        <v>0</v>
+      </c>
+      <c r="G1223">
+        <v>0</v>
+      </c>
+      <c r="H1223">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -34267,7 +34631,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H280"/>
+  <dimension ref="A1:H283"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -42130,6 +42494,90 @@
         <v>0</v>
       </c>
     </row>
+    <row r="281">
+      <c r="A281" s="2">
+        <v>44078</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C281">
+        <v>16557</v>
+      </c>
+      <c r="D281">
+        <v>0.3414941011467701</v>
+      </c>
+      <c r="E281">
+        <v>64</v>
+      </c>
+      <c r="F281">
+        <v>5483</v>
+      </c>
+      <c r="G281">
+        <v>0.414405562693674</v>
+      </c>
+      <c r="H281">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2">
+        <v>44078</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C282">
+        <v>30969</v>
+      </c>
+      <c r="D282">
+        <v>0.6387468030690537</v>
+      </c>
+      <c r="E282">
+        <v>73</v>
+      </c>
+      <c r="F282">
+        <v>7748</v>
+      </c>
+      <c r="G282">
+        <v>0.5855944373063261</v>
+      </c>
+      <c r="H282">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2">
+        <v>44078</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C283">
+        <v>958</v>
+      </c>
+      <c r="D283">
+        <v>0.01975909578417623</v>
+      </c>
+      <c r="E283">
+        <v>-2</v>
+      </c>
+      <c r="F283">
+        <v>0</v>
+      </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
+      <c r="H283">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -42137,7 +42585,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H559"/>
+  <dimension ref="A1:H565"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -57812,6 +58260,174 @@
         <v>61</v>
       </c>
     </row>
+    <row r="560">
+      <c r="A560" s="2">
+        <v>44078</v>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C560">
+        <v>755</v>
+      </c>
+      <c r="D560">
+        <v>0.01557214751258147</v>
+      </c>
+      <c r="E560">
+        <v>0</v>
+      </c>
+      <c r="F560">
+        <v>262</v>
+      </c>
+      <c r="G560">
+        <v>0.0198019801980198</v>
+      </c>
+      <c r="H560">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="2">
+        <v>44078</v>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C561">
+        <v>7796</v>
+      </c>
+      <c r="D561">
+        <v>0.1607953139179936</v>
+      </c>
+      <c r="E561">
+        <v>26</v>
+      </c>
+      <c r="F561">
+        <v>1518</v>
+      </c>
+      <c r="G561">
+        <v>0.1147305570251682</v>
+      </c>
+      <c r="H561">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="2">
+        <v>44078</v>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="C562">
+        <v>19346</v>
+      </c>
+      <c r="D562">
+        <v>0.3990182328190743</v>
+      </c>
+      <c r="E562">
+        <v>68</v>
+      </c>
+      <c r="F562">
+        <v>7365</v>
+      </c>
+      <c r="G562">
+        <v>0.5566472677802131</v>
+      </c>
+      <c r="H562">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="2">
+        <v>44078</v>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C563">
+        <v>217</v>
+      </c>
+      <c r="D563">
+        <v>0.004475703324808184</v>
+      </c>
+      <c r="E563">
+        <v>0</v>
+      </c>
+      <c r="F563">
+        <v>75</v>
+      </c>
+      <c r="G563">
+        <v>0.005668505781875897</v>
+      </c>
+      <c r="H563">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="2">
+        <v>44078</v>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C564">
+        <v>6463</v>
+      </c>
+      <c r="D564">
+        <v>0.1333017077798862</v>
+      </c>
+      <c r="E564">
+        <v>-3</v>
+      </c>
+      <c r="F564">
+        <v>4</v>
+      </c>
+      <c r="G564">
+        <v>0.0003023203083667146</v>
+      </c>
+      <c r="H564">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="2">
+        <v>44078</v>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C565">
+        <v>13907</v>
+      </c>
+      <c r="D565">
+        <v>0.2868368946456563</v>
+      </c>
+      <c r="E565">
+        <v>44</v>
+      </c>
+      <c r="F565">
+        <v>4007</v>
+      </c>
+      <c r="G565">
+        <v>0.3028493689063563</v>
+      </c>
+      <c r="H565">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1223"/>
+  <dimension ref="A1:H1236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -34624,6 +34624,370 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" s="2">
+        <v>44079</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>&lt;1 year</t>
+        </is>
+      </c>
+      <c r="C1224">
+        <v>156</v>
+      </c>
+      <c r="D1224">
+        <v>0.32</v>
+      </c>
+      <c r="E1224">
+        <v>1</v>
+      </c>
+      <c r="F1224">
+        <v>3</v>
+      </c>
+      <c r="G1224">
+        <v>0.02</v>
+      </c>
+      <c r="H1224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" s="2">
+        <v>44079</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>1-9 years</t>
+        </is>
+      </c>
+      <c r="C1225">
+        <v>734</v>
+      </c>
+      <c r="D1225">
+        <v>0.0151</v>
+      </c>
+      <c r="E1225">
+        <v>3</v>
+      </c>
+      <c r="F1225">
+        <v>5</v>
+      </c>
+      <c r="G1225">
+        <v>0.04</v>
+      </c>
+      <c r="H1225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" s="2">
+        <v>44079</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>10-19 years</t>
+        </is>
+      </c>
+      <c r="C1226">
+        <v>1920</v>
+      </c>
+      <c r="D1226">
+        <v>0.0395</v>
+      </c>
+      <c r="E1226">
+        <v>19</v>
+      </c>
+      <c r="F1226">
+        <v>15</v>
+      </c>
+      <c r="G1226">
+        <v>0.11</v>
+      </c>
+      <c r="H1226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" s="2">
+        <v>44079</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>20-29 years</t>
+        </is>
+      </c>
+      <c r="C1227">
+        <v>9316</v>
+      </c>
+      <c r="D1227">
+        <v>0.1916</v>
+      </c>
+      <c r="E1227">
+        <v>31</v>
+      </c>
+      <c r="F1227">
+        <v>91</v>
+      </c>
+      <c r="G1227">
+        <v>0.678699284</v>
+      </c>
+      <c r="H1227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" s="2">
+        <v>44079</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>30-39 years</t>
+        </is>
+      </c>
+      <c r="C1228">
+        <v>10309</v>
+      </c>
+      <c r="D1228">
+        <v>0.212</v>
+      </c>
+      <c r="E1228">
+        <v>20</v>
+      </c>
+      <c r="F1228">
+        <v>250</v>
+      </c>
+      <c r="G1228">
+        <v>0.0186</v>
+      </c>
+      <c r="H1228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" s="2">
+        <v>44079</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>40-49 years</t>
+        </is>
+      </c>
+      <c r="C1229">
+        <v>9309</v>
+      </c>
+      <c r="D1229">
+        <v>0.1915</v>
+      </c>
+      <c r="E1229">
+        <v>22</v>
+      </c>
+      <c r="F1229">
+        <v>734</v>
+      </c>
+      <c r="G1229">
+        <v>0.0547</v>
+      </c>
+      <c r="H1229">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" s="2">
+        <v>44079</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>50-59 years</t>
+        </is>
+      </c>
+      <c r="C1230">
+        <v>8180</v>
+      </c>
+      <c r="D1230">
+        <v>0.1682</v>
+      </c>
+      <c r="E1230">
+        <v>20</v>
+      </c>
+      <c r="F1230">
+        <v>1604</v>
+      </c>
+      <c r="G1230">
+        <v>0.1196</v>
+      </c>
+      <c r="H1230">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" s="2">
+        <v>44079</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>60-64 years</t>
+        </is>
+      </c>
+      <c r="C1231">
+        <v>3080</v>
+      </c>
+      <c r="D1231">
+        <v>0.0633</v>
+      </c>
+      <c r="E1231">
+        <v>8</v>
+      </c>
+      <c r="F1231">
+        <v>1293</v>
+      </c>
+      <c r="G1231">
+        <v>0.0964</v>
+      </c>
+      <c r="H1231">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" s="2">
+        <v>44079</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>65-69 years</t>
+        </is>
+      </c>
+      <c r="C1232">
+        <v>2145</v>
+      </c>
+      <c r="D1232">
+        <v>0.0441</v>
+      </c>
+      <c r="E1232">
+        <v>5</v>
+      </c>
+      <c r="F1232">
+        <v>1566</v>
+      </c>
+      <c r="G1232">
+        <v>0.1168</v>
+      </c>
+      <c r="H1232">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" s="2">
+        <v>44079</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>70-74 years</t>
+        </is>
+      </c>
+      <c r="C1233">
+        <v>1266</v>
+      </c>
+      <c r="D1233">
+        <v>0.026038131672</v>
+      </c>
+      <c r="E1233">
+        <v>4</v>
+      </c>
+      <c r="F1233">
+        <v>1740</v>
+      </c>
+      <c r="G1233">
+        <v>0.1298</v>
+      </c>
+      <c r="H1233">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" s="2">
+        <v>44079</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>75-79 years</t>
+        </is>
+      </c>
+      <c r="C1234">
+        <v>831</v>
+      </c>
+      <c r="D1234">
+        <v>0.0171</v>
+      </c>
+      <c r="E1234">
+        <v>2</v>
+      </c>
+      <c r="F1234">
+        <v>1647</v>
+      </c>
+      <c r="G1234">
+        <v>0.1228</v>
+      </c>
+      <c r="H1234">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" s="2">
+        <v>44079</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>80+ years</t>
+        </is>
+      </c>
+      <c r="C1235">
+        <v>1351</v>
+      </c>
+      <c r="D1235">
+        <v>0.0278</v>
+      </c>
+      <c r="E1235">
+        <v>2</v>
+      </c>
+      <c r="F1235">
+        <v>4460</v>
+      </c>
+      <c r="G1235">
+        <v>0.3326</v>
+      </c>
+      <c r="H1235">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" s="2">
+        <v>44079</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C1236">
+        <v>24</v>
+      </c>
+      <c r="D1236">
+        <v>0.05</v>
+      </c>
+      <c r="E1236">
+        <v>0</v>
+      </c>
+      <c r="F1236">
+        <v>0</v>
+      </c>
+      <c r="G1236">
+        <v>0</v>
+      </c>
+      <c r="H1236">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -34631,7 +34995,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H283"/>
+  <dimension ref="A1:H286"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -42578,6 +42942,90 @@
         <v>0</v>
       </c>
     </row>
+    <row r="284">
+      <c r="A284" s="2">
+        <v>44079</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C284">
+        <v>16609</v>
+      </c>
+      <c r="D284">
+        <v>0.3416</v>
+      </c>
+      <c r="E284">
+        <v>52</v>
+      </c>
+      <c r="F284">
+        <v>5570</v>
+      </c>
+      <c r="G284">
+        <v>0.4154</v>
+      </c>
+      <c r="H284">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2">
+        <v>44079</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C285">
+        <v>31061</v>
+      </c>
+      <c r="D285">
+        <v>0.6388</v>
+      </c>
+      <c r="E285">
+        <v>92</v>
+      </c>
+      <c r="F285">
+        <v>7838</v>
+      </c>
+      <c r="G285">
+        <v>0.5846</v>
+      </c>
+      <c r="H285">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2">
+        <v>44079</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C286">
+        <v>951</v>
+      </c>
+      <c r="D286">
+        <v>0.0196</v>
+      </c>
+      <c r="E286">
+        <v>-7</v>
+      </c>
+      <c r="F286">
+        <v>0</v>
+      </c>
+      <c r="G286">
+        <v>0</v>
+      </c>
+      <c r="H286">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -42585,7 +43033,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H565"/>
+  <dimension ref="A1:H571"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -58428,6 +58876,174 @@
         <v>33</v>
       </c>
     </row>
+    <row r="566">
+      <c r="A566" s="2">
+        <v>44079</v>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C566">
+        <v>757</v>
+      </c>
+      <c r="D566">
+        <v>0.0156</v>
+      </c>
+      <c r="E566">
+        <v>2</v>
+      </c>
+      <c r="F566">
+        <v>264</v>
+      </c>
+      <c r="G566">
+        <v>0.0197</v>
+      </c>
+      <c r="H566">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="2">
+        <v>44079</v>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C567">
+        <v>7830</v>
+      </c>
+      <c r="D567">
+        <v>0.161</v>
+      </c>
+      <c r="E567">
+        <v>34</v>
+      </c>
+      <c r="F567">
+        <v>1537</v>
+      </c>
+      <c r="G567">
+        <v>0.11463305489</v>
+      </c>
+      <c r="H567">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="2">
+        <v>44079</v>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="C568">
+        <v>19406</v>
+      </c>
+      <c r="D568">
+        <v>0.39912794883</v>
+      </c>
+      <c r="E568">
+        <v>60</v>
+      </c>
+      <c r="F568">
+        <v>7472</v>
+      </c>
+      <c r="G568">
+        <v>0.5573</v>
+      </c>
+      <c r="H568">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="2">
+        <v>44079</v>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C569">
+        <v>219</v>
+      </c>
+      <c r="D569">
+        <v>0.45</v>
+      </c>
+      <c r="E569">
+        <v>2</v>
+      </c>
+      <c r="F569">
+        <v>76</v>
+      </c>
+      <c r="G569">
+        <v>0.57</v>
+      </c>
+      <c r="H569">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="2">
+        <v>44079</v>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C570">
+        <v>6448</v>
+      </c>
+      <c r="D570">
+        <v>0.1326</v>
+      </c>
+      <c r="E570">
+        <v>-15</v>
+      </c>
+      <c r="F570">
+        <v>5</v>
+      </c>
+      <c r="G570">
+        <v>0.04</v>
+      </c>
+      <c r="H570">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="2">
+        <v>44079</v>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C571">
+        <v>13961</v>
+      </c>
+      <c r="D571">
+        <v>0.2871</v>
+      </c>
+      <c r="E571">
+        <v>54</v>
+      </c>
+      <c r="F571">
+        <v>4054</v>
+      </c>
+      <c r="G571">
+        <v>0.3024</v>
+      </c>
+      <c r="H571">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1236"/>
+  <dimension ref="A1:H1249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -34988,6 +34988,370 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" s="2">
+        <v>44080</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>&lt;1 year</t>
+        </is>
+      </c>
+      <c r="C1237">
+        <v>156</v>
+      </c>
+      <c r="D1237">
+        <v>0.32</v>
+      </c>
+      <c r="E1237">
+        <v>0</v>
+      </c>
+      <c r="F1237">
+        <v>3</v>
+      </c>
+      <c r="G1237">
+        <v>0.02</v>
+      </c>
+      <c r="H1237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" s="2">
+        <v>44080</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>1-9 years</t>
+        </is>
+      </c>
+      <c r="C1238">
+        <v>738</v>
+      </c>
+      <c r="D1238">
+        <v>0.0152</v>
+      </c>
+      <c r="E1238">
+        <v>4</v>
+      </c>
+      <c r="F1238">
+        <v>5</v>
+      </c>
+      <c r="G1238">
+        <v>0.04</v>
+      </c>
+      <c r="H1238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" s="2">
+        <v>44080</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>10-19 years</t>
+        </is>
+      </c>
+      <c r="C1239">
+        <v>1925</v>
+      </c>
+      <c r="D1239">
+        <v>0.0396</v>
+      </c>
+      <c r="E1239">
+        <v>5</v>
+      </c>
+      <c r="F1239">
+        <v>15</v>
+      </c>
+      <c r="G1239">
+        <v>0.11</v>
+      </c>
+      <c r="H1239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" s="2">
+        <v>44080</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>20-29 years</t>
+        </is>
+      </c>
+      <c r="C1240">
+        <v>9326</v>
+      </c>
+      <c r="D1240">
+        <v>0.1916</v>
+      </c>
+      <c r="E1240">
+        <v>10</v>
+      </c>
+      <c r="F1240">
+        <v>92</v>
+      </c>
+      <c r="G1240">
+        <v>0.6800000000000001</v>
+      </c>
+      <c r="H1240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" s="2">
+        <v>44080</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>30-39 years</t>
+        </is>
+      </c>
+      <c r="C1241">
+        <v>10320</v>
+      </c>
+      <c r="D1241">
+        <v>0.2121</v>
+      </c>
+      <c r="E1241">
+        <v>11</v>
+      </c>
+      <c r="F1241">
+        <v>250</v>
+      </c>
+      <c r="G1241">
+        <v>0.0186</v>
+      </c>
+      <c r="H1241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" s="2">
+        <v>44080</v>
+      </c>
+      <c r="B1242" t="inlineStr">
+        <is>
+          <t>40-49 years</t>
+        </is>
+      </c>
+      <c r="C1242">
+        <v>9317</v>
+      </c>
+      <c r="D1242">
+        <v>0.1914</v>
+      </c>
+      <c r="E1242">
+        <v>8</v>
+      </c>
+      <c r="F1242">
+        <v>737</v>
+      </c>
+      <c r="G1242">
+        <v>0.0547</v>
+      </c>
+      <c r="H1242">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" s="2">
+        <v>44080</v>
+      </c>
+      <c r="B1243" t="inlineStr">
+        <is>
+          <t>50-59 years</t>
+        </is>
+      </c>
+      <c r="C1243">
+        <v>8182</v>
+      </c>
+      <c r="D1243">
+        <v>0.1681</v>
+      </c>
+      <c r="E1243">
+        <v>2</v>
+      </c>
+      <c r="F1243">
+        <v>1612</v>
+      </c>
+      <c r="G1243">
+        <v>0.1197</v>
+      </c>
+      <c r="H1243">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" s="2">
+        <v>44080</v>
+      </c>
+      <c r="B1244" t="inlineStr">
+        <is>
+          <t>60-64 years</t>
+        </is>
+      </c>
+      <c r="C1244">
+        <v>3081</v>
+      </c>
+      <c r="D1244">
+        <v>0.0633</v>
+      </c>
+      <c r="E1244">
+        <v>1</v>
+      </c>
+      <c r="F1244">
+        <v>1299</v>
+      </c>
+      <c r="G1244">
+        <v>0.0964</v>
+      </c>
+      <c r="H1244">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" s="2">
+        <v>44080</v>
+      </c>
+      <c r="B1245" t="inlineStr">
+        <is>
+          <t>65-69 years</t>
+        </is>
+      </c>
+      <c r="C1245">
+        <v>2145</v>
+      </c>
+      <c r="D1245">
+        <v>0.0441</v>
+      </c>
+      <c r="E1245">
+        <v>0</v>
+      </c>
+      <c r="F1245">
+        <v>1570</v>
+      </c>
+      <c r="G1245">
+        <v>0.1165</v>
+      </c>
+      <c r="H1245">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" s="2">
+        <v>44080</v>
+      </c>
+      <c r="B1246" t="inlineStr">
+        <is>
+          <t>70-74 years</t>
+        </is>
+      </c>
+      <c r="C1246">
+        <v>1268</v>
+      </c>
+      <c r="D1246">
+        <v>0.0261</v>
+      </c>
+      <c r="E1246">
+        <v>2</v>
+      </c>
+      <c r="F1246">
+        <v>1752</v>
+      </c>
+      <c r="G1246">
+        <v>0.13</v>
+      </c>
+      <c r="H1246">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" s="2">
+        <v>44080</v>
+      </c>
+      <c r="B1247" t="inlineStr">
+        <is>
+          <t>75-79 years</t>
+        </is>
+      </c>
+      <c r="C1247">
+        <v>831</v>
+      </c>
+      <c r="D1247">
+        <v>0.0171</v>
+      </c>
+      <c r="E1247">
+        <v>0</v>
+      </c>
+      <c r="F1247">
+        <v>1656</v>
+      </c>
+      <c r="G1247">
+        <v>0.1229216152</v>
+      </c>
+      <c r="H1247">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" s="2">
+        <v>44080</v>
+      </c>
+      <c r="B1248" t="inlineStr">
+        <is>
+          <t>80+ years</t>
+        </is>
+      </c>
+      <c r="C1248">
+        <v>1353</v>
+      </c>
+      <c r="D1248">
+        <v>0.0278</v>
+      </c>
+      <c r="E1248">
+        <v>2</v>
+      </c>
+      <c r="F1248">
+        <v>4481</v>
+      </c>
+      <c r="G1248">
+        <v>0.3326</v>
+      </c>
+      <c r="H1248">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" s="2">
+        <v>44080</v>
+      </c>
+      <c r="B1249" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C1249">
+        <v>24</v>
+      </c>
+      <c r="D1249">
+        <v>0.05</v>
+      </c>
+      <c r="E1249">
+        <v>0</v>
+      </c>
+      <c r="F1249">
+        <v>0</v>
+      </c>
+      <c r="G1249">
+        <v>0</v>
+      </c>
+      <c r="H1249">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -34995,7 +35359,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H286"/>
+  <dimension ref="A1:H289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -43026,6 +43390,90 @@
         <v>0</v>
       </c>
     </row>
+    <row r="287">
+      <c r="A287" s="2">
+        <v>44080</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C287">
+        <v>16629</v>
+      </c>
+      <c r="D287">
+        <v>0.3417</v>
+      </c>
+      <c r="E287">
+        <v>20</v>
+      </c>
+      <c r="F287">
+        <v>5598</v>
+      </c>
+      <c r="G287">
+        <v>0.4155</v>
+      </c>
+      <c r="H287">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2">
+        <v>44080</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C288">
+        <v>31086</v>
+      </c>
+      <c r="D288">
+        <v>0.6388</v>
+      </c>
+      <c r="E288">
+        <v>25</v>
+      </c>
+      <c r="F288">
+        <v>7874</v>
+      </c>
+      <c r="G288">
+        <v>0.5845</v>
+      </c>
+      <c r="H288">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2">
+        <v>44080</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C289">
+        <v>951</v>
+      </c>
+      <c r="D289">
+        <v>0.0195</v>
+      </c>
+      <c r="E289">
+        <v>0</v>
+      </c>
+      <c r="F289">
+        <v>0</v>
+      </c>
+      <c r="G289">
+        <v>0</v>
+      </c>
+      <c r="H289">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -43033,7 +43481,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H571"/>
+  <dimension ref="A1:H577"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -59044,6 +59492,174 @@
         <v>47</v>
       </c>
     </row>
+    <row r="572">
+      <c r="A572" s="2">
+        <v>44080</v>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C572">
+        <v>757</v>
+      </c>
+      <c r="D572">
+        <v>0.0156</v>
+      </c>
+      <c r="E572">
+        <v>0</v>
+      </c>
+      <c r="F572">
+        <v>264</v>
+      </c>
+      <c r="G572">
+        <v>0.0196</v>
+      </c>
+      <c r="H572">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="2">
+        <v>44080</v>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C573">
+        <v>7839</v>
+      </c>
+      <c r="D573">
+        <v>0.1611</v>
+      </c>
+      <c r="E573">
+        <v>9</v>
+      </c>
+      <c r="F573">
+        <v>1539</v>
+      </c>
+      <c r="G573">
+        <v>0.1142</v>
+      </c>
+      <c r="H573">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="2">
+        <v>44080</v>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="C574">
+        <v>19423</v>
+      </c>
+      <c r="D574">
+        <v>0.3991</v>
+      </c>
+      <c r="E574">
+        <v>17</v>
+      </c>
+      <c r="F574">
+        <v>7519</v>
+      </c>
+      <c r="G574">
+        <v>0.5581</v>
+      </c>
+      <c r="H574">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="2">
+        <v>44080</v>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C575">
+        <v>220</v>
+      </c>
+      <c r="D575">
+        <v>0.45</v>
+      </c>
+      <c r="E575">
+        <v>1</v>
+      </c>
+      <c r="F575">
+        <v>76</v>
+      </c>
+      <c r="G575">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H575">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="2">
+        <v>44080</v>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C576">
+        <v>6450</v>
+      </c>
+      <c r="D576">
+        <v>0.1325</v>
+      </c>
+      <c r="E576">
+        <v>2</v>
+      </c>
+      <c r="F576">
+        <v>5</v>
+      </c>
+      <c r="G576">
+        <v>0.04</v>
+      </c>
+      <c r="H576">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="2">
+        <v>44080</v>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C577">
+        <v>13977</v>
+      </c>
+      <c r="D577">
+        <v>0.2872</v>
+      </c>
+      <c r="E577">
+        <v>16</v>
+      </c>
+      <c r="F577">
+        <v>4069</v>
+      </c>
+      <c r="G577">
+        <v>0.30203384798</v>
+      </c>
+      <c r="H577">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1249"/>
+  <dimension ref="A1:H1262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -35352,6 +35352,370 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1250">
+      <c r="A1250" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B1250" t="inlineStr">
+        <is>
+          <t>&lt;1 year</t>
+        </is>
+      </c>
+      <c r="C1250">
+        <v>156</v>
+      </c>
+      <c r="D1250">
+        <v>0.003205523363333744</v>
+      </c>
+      <c r="E1250">
+        <v>0</v>
+      </c>
+      <c r="F1250">
+        <v>3</v>
+      </c>
+      <c r="G1250">
+        <v>0.0002223539875481767</v>
+      </c>
+      <c r="H1250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B1251" t="inlineStr">
+        <is>
+          <t>1-9 years</t>
+        </is>
+      </c>
+      <c r="C1251">
+        <v>738</v>
+      </c>
+      <c r="D1251">
+        <v>0.01516459129577118</v>
+      </c>
+      <c r="E1251">
+        <v>0</v>
+      </c>
+      <c r="F1251">
+        <v>5</v>
+      </c>
+      <c r="G1251">
+        <v>0.0003705899792469612</v>
+      </c>
+      <c r="H1251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B1252" t="inlineStr">
+        <is>
+          <t>10-19 years</t>
+        </is>
+      </c>
+      <c r="C1252">
+        <v>1925</v>
+      </c>
+      <c r="D1252">
+        <v>0.03955533637447088</v>
+      </c>
+      <c r="E1252">
+        <v>0</v>
+      </c>
+      <c r="F1252">
+        <v>15</v>
+      </c>
+      <c r="G1252">
+        <v>0.001111769937740884</v>
+      </c>
+      <c r="H1252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B1253" t="inlineStr">
+        <is>
+          <t>20-29 years</t>
+        </is>
+      </c>
+      <c r="C1253">
+        <v>9326</v>
+      </c>
+      <c r="D1253">
+        <v>0.1916327620926314</v>
+      </c>
+      <c r="E1253">
+        <v>0</v>
+      </c>
+      <c r="F1253">
+        <v>92</v>
+      </c>
+      <c r="G1253">
+        <v>0.006818855618144086</v>
+      </c>
+      <c r="H1253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B1254" t="inlineStr">
+        <is>
+          <t>30-39 years</t>
+        </is>
+      </c>
+      <c r="C1254">
+        <v>10320</v>
+      </c>
+      <c r="D1254">
+        <v>0.21205769942054</v>
+      </c>
+      <c r="E1254">
+        <v>0</v>
+      </c>
+      <c r="F1254">
+        <v>251</v>
+      </c>
+      <c r="G1254">
+        <v>0.01860361695819745</v>
+      </c>
+      <c r="H1254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B1255" t="inlineStr">
+        <is>
+          <t>40-49 years</t>
+        </is>
+      </c>
+      <c r="C1255">
+        <v>9317</v>
+      </c>
+      <c r="D1255">
+        <v>0.1914478280524391</v>
+      </c>
+      <c r="E1255">
+        <v>0</v>
+      </c>
+      <c r="F1255">
+        <v>738</v>
+      </c>
+      <c r="G1255">
+        <v>0.05469908093685147</v>
+      </c>
+      <c r="H1255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B1256" t="inlineStr">
+        <is>
+          <t>50-59 years</t>
+        </is>
+      </c>
+      <c r="C1256">
+        <v>8182</v>
+      </c>
+      <c r="D1256">
+        <v>0.1681255907615173</v>
+      </c>
+      <c r="E1256">
+        <v>0</v>
+      </c>
+      <c r="F1256">
+        <v>1616</v>
+      </c>
+      <c r="G1256">
+        <v>0.1197746812926179</v>
+      </c>
+      <c r="H1256">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B1257" t="inlineStr">
+        <is>
+          <t>60-64 years</t>
+        </is>
+      </c>
+      <c r="C1257">
+        <v>3081</v>
+      </c>
+      <c r="D1257">
+        <v>0.06330908642584145</v>
+      </c>
+      <c r="E1257">
+        <v>0</v>
+      </c>
+      <c r="F1257">
+        <v>1301</v>
+      </c>
+      <c r="G1257">
+        <v>0.0964275126000593</v>
+      </c>
+      <c r="H1257">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B1258" t="inlineStr">
+        <is>
+          <t>65-69 years</t>
+        </is>
+      </c>
+      <c r="C1258">
+        <v>2145</v>
+      </c>
+      <c r="D1258">
+        <v>0.04407594624583899</v>
+      </c>
+      <c r="E1258">
+        <v>0</v>
+      </c>
+      <c r="F1258">
+        <v>1576</v>
+      </c>
+      <c r="G1258">
+        <v>0.1168099614586422</v>
+      </c>
+      <c r="H1258">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B1259" t="inlineStr">
+        <is>
+          <t>70-74 years</t>
+        </is>
+      </c>
+      <c r="C1259">
+        <v>1268</v>
+      </c>
+      <c r="D1259">
+        <v>0.02605515144043069</v>
+      </c>
+      <c r="E1259">
+        <v>0</v>
+      </c>
+      <c r="F1259">
+        <v>1754</v>
+      </c>
+      <c r="G1259">
+        <v>0.130002964719834</v>
+      </c>
+      <c r="H1259">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B1260" t="inlineStr">
+        <is>
+          <t>75-79 years</t>
+        </is>
+      </c>
+      <c r="C1260">
+        <v>831</v>
+      </c>
+      <c r="D1260">
+        <v>0.0170755763777586</v>
+      </c>
+      <c r="E1260">
+        <v>0</v>
+      </c>
+      <c r="F1260">
+        <v>1656</v>
+      </c>
+      <c r="G1260">
+        <v>0.1227394011265935</v>
+      </c>
+      <c r="H1260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B1261" t="inlineStr">
+        <is>
+          <t>80+ years</t>
+        </is>
+      </c>
+      <c r="C1261">
+        <v>1353</v>
+      </c>
+      <c r="D1261">
+        <v>0.02780175070891382</v>
+      </c>
+      <c r="E1261">
+        <v>0</v>
+      </c>
+      <c r="F1261">
+        <v>4485</v>
+      </c>
+      <c r="G1261">
+        <v>0.3324192113845242</v>
+      </c>
+      <c r="H1261">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B1262" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C1262">
+        <v>24</v>
+      </c>
+      <c r="D1262">
+        <v>0.0004931574405128837</v>
+      </c>
+      <c r="E1262">
+        <v>0</v>
+      </c>
+      <c r="F1262">
+        <v>0</v>
+      </c>
+      <c r="G1262">
+        <v>0</v>
+      </c>
+      <c r="H1262">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -35359,7 +35723,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H289"/>
+  <dimension ref="A1:H292"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -43474,6 +43838,90 @@
         <v>0</v>
       </c>
     </row>
+    <row r="290">
+      <c r="A290" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C290">
+        <v>16629</v>
+      </c>
+      <c r="D290">
+        <v>0.3416964615953643</v>
+      </c>
+      <c r="E290">
+        <v>0</v>
+      </c>
+      <c r="F290">
+        <v>5606</v>
+      </c>
+      <c r="G290">
+        <v>0.4155054847316929</v>
+      </c>
+      <c r="H290">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C291">
+        <v>31086</v>
+      </c>
+      <c r="D291">
+        <v>0.6387621748243126</v>
+      </c>
+      <c r="E291">
+        <v>0</v>
+      </c>
+      <c r="F291">
+        <v>7886</v>
+      </c>
+      <c r="G291">
+        <v>0.5844945152683071</v>
+      </c>
+      <c r="H291">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C292">
+        <v>951</v>
+      </c>
+      <c r="D292">
+        <v>0.01954136358032302</v>
+      </c>
+      <c r="E292">
+        <v>0</v>
+      </c>
+      <c r="F292">
+        <v>0</v>
+      </c>
+      <c r="G292">
+        <v>0</v>
+      </c>
+      <c r="H292">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -43481,7 +43929,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H577"/>
+  <dimension ref="A1:H583"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -59660,6 +60108,174 @@
         <v>15</v>
       </c>
     </row>
+    <row r="578">
+      <c r="A578" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C578">
+        <v>757</v>
+      </c>
+      <c r="D578">
+        <v>0.01555500760284388</v>
+      </c>
+      <c r="E578">
+        <v>0</v>
+      </c>
+      <c r="F578">
+        <v>264</v>
+      </c>
+      <c r="G578">
+        <v>0.01956715090423955</v>
+      </c>
+      <c r="H578">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C579">
+        <v>7839</v>
+      </c>
+      <c r="D579">
+        <v>0.1610775490075206</v>
+      </c>
+      <c r="E579">
+        <v>0</v>
+      </c>
+      <c r="F579">
+        <v>1544</v>
+      </c>
+      <c r="G579">
+        <v>0.1144381855914616</v>
+      </c>
+      <c r="H579">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="C580">
+        <v>19423</v>
+      </c>
+      <c r="D580">
+        <v>0.3991082069617392</v>
+      </c>
+      <c r="E580">
+        <v>0</v>
+      </c>
+      <c r="F580">
+        <v>7529</v>
+      </c>
+      <c r="G580">
+        <v>0.5580343907500741</v>
+      </c>
+      <c r="H580">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C581">
+        <v>220</v>
+      </c>
+      <c r="D581">
+        <v>0.004520609871368101</v>
+      </c>
+      <c r="E581">
+        <v>0</v>
+      </c>
+      <c r="F581">
+        <v>77</v>
+      </c>
+      <c r="G581">
+        <v>0.005707085680403202</v>
+      </c>
+      <c r="H581">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C582">
+        <v>6450</v>
+      </c>
+      <c r="D582">
+        <v>0.1325360621378375</v>
+      </c>
+      <c r="E582">
+        <v>0</v>
+      </c>
+      <c r="F582">
+        <v>6</v>
+      </c>
+      <c r="G582">
+        <v>0.0004447079750963534</v>
+      </c>
+      <c r="H582">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C583">
+        <v>13977</v>
+      </c>
+      <c r="D583">
+        <v>0.2872025644186907</v>
+      </c>
+      <c r="E583">
+        <v>0</v>
+      </c>
+      <c r="F583">
+        <v>4072</v>
+      </c>
+      <c r="G583">
+        <v>0.3018084790987252</v>
+      </c>
+      <c r="H583">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1262"/>
+  <dimension ref="A1:H1275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -35716,6 +35716,370 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1263">
+      <c r="A1263" s="2">
+        <v>44082</v>
+      </c>
+      <c r="B1263" t="inlineStr">
+        <is>
+          <t>&lt;1 year</t>
+        </is>
+      </c>
+      <c r="C1263">
+        <v>156</v>
+      </c>
+      <c r="D1263">
+        <v>0.003204601479046837</v>
+      </c>
+      <c r="E1263">
+        <v>0</v>
+      </c>
+      <c r="F1263">
+        <v>3</v>
+      </c>
+      <c r="G1263">
+        <v>0.0002213532059322659</v>
+      </c>
+      <c r="H1263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" s="2">
+        <v>44082</v>
+      </c>
+      <c r="B1264" t="inlineStr">
+        <is>
+          <t>1-9 years</t>
+        </is>
+      </c>
+      <c r="C1264">
+        <v>738</v>
+      </c>
+      <c r="D1264">
+        <v>0.01516023007395234</v>
+      </c>
+      <c r="E1264">
+        <v>0</v>
+      </c>
+      <c r="F1264">
+        <v>5</v>
+      </c>
+      <c r="G1264">
+        <v>0.0003689220098871099</v>
+      </c>
+      <c r="H1264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" s="2">
+        <v>44082</v>
+      </c>
+      <c r="B1265" t="inlineStr">
+        <is>
+          <t>10-19 years</t>
+        </is>
+      </c>
+      <c r="C1265">
+        <v>1927</v>
+      </c>
+      <c r="D1265">
+        <v>0.03958504519309778</v>
+      </c>
+      <c r="E1265">
+        <v>2</v>
+      </c>
+      <c r="F1265">
+        <v>15</v>
+      </c>
+      <c r="G1265">
+        <v>0.00110676602966133</v>
+      </c>
+      <c r="H1265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" s="2">
+        <v>44082</v>
+      </c>
+      <c r="B1266" t="inlineStr">
+        <is>
+          <t>20-29 years</t>
+        </is>
+      </c>
+      <c r="C1266">
+        <v>9325</v>
+      </c>
+      <c r="D1266">
+        <v>0.191557107641742</v>
+      </c>
+      <c r="E1266">
+        <v>-1</v>
+      </c>
+      <c r="F1266">
+        <v>92</v>
+      </c>
+      <c r="G1266">
+        <v>0.006788164981922822</v>
+      </c>
+      <c r="H1266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" s="2">
+        <v>44082</v>
+      </c>
+      <c r="B1267" t="inlineStr">
+        <is>
+          <t>30-39 years</t>
+        </is>
+      </c>
+      <c r="C1267">
+        <v>10319</v>
+      </c>
+      <c r="D1267">
+        <v>0.2119761709120789</v>
+      </c>
+      <c r="E1267">
+        <v>-1</v>
+      </c>
+      <c r="F1267">
+        <v>253</v>
+      </c>
+      <c r="G1267">
+        <v>0.01866745370028776</v>
+      </c>
+      <c r="H1267">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" s="2">
+        <v>44082</v>
+      </c>
+      <c r="B1268" t="inlineStr">
+        <is>
+          <t>40-49 years</t>
+        </is>
+      </c>
+      <c r="C1268">
+        <v>9321</v>
+      </c>
+      <c r="D1268">
+        <v>0.1914749383730485</v>
+      </c>
+      <c r="E1268">
+        <v>4</v>
+      </c>
+      <c r="F1268">
+        <v>742</v>
+      </c>
+      <c r="G1268">
+        <v>0.05474802626724711</v>
+      </c>
+      <c r="H1268">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" s="2">
+        <v>44082</v>
+      </c>
+      <c r="B1269" t="inlineStr">
+        <is>
+          <t>50-59 years</t>
+        </is>
+      </c>
+      <c r="C1269">
+        <v>8188</v>
+      </c>
+      <c r="D1269">
+        <v>0.1682004930156122</v>
+      </c>
+      <c r="E1269">
+        <v>6</v>
+      </c>
+      <c r="F1269">
+        <v>1624</v>
+      </c>
+      <c r="G1269">
+        <v>0.1198258688113333</v>
+      </c>
+      <c r="H1269">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" s="2">
+        <v>44082</v>
+      </c>
+      <c r="B1270" t="inlineStr">
+        <is>
+          <t>60-64 years</t>
+        </is>
+      </c>
+      <c r="C1270">
+        <v>3085</v>
+      </c>
+      <c r="D1270">
+        <v>0.06337304847986854</v>
+      </c>
+      <c r="E1270">
+        <v>4</v>
+      </c>
+      <c r="F1270">
+        <v>1305</v>
+      </c>
+      <c r="G1270">
+        <v>0.09628864458053568</v>
+      </c>
+      <c r="H1270">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" s="2">
+        <v>44082</v>
+      </c>
+      <c r="B1271" t="inlineStr">
+        <is>
+          <t>65-69 years</t>
+        </is>
+      </c>
+      <c r="C1271">
+        <v>2146</v>
+      </c>
+      <c r="D1271">
+        <v>0.04408381265406738</v>
+      </c>
+      <c r="E1271">
+        <v>1</v>
+      </c>
+      <c r="F1271">
+        <v>1589</v>
+      </c>
+      <c r="G1271">
+        <v>0.1172434147421235</v>
+      </c>
+      <c r="H1271">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" s="2">
+        <v>44082</v>
+      </c>
+      <c r="B1272" t="inlineStr">
+        <is>
+          <t>70-74 years</t>
+        </is>
+      </c>
+      <c r="C1272">
+        <v>1267</v>
+      </c>
+      <c r="D1272">
+        <v>0.02602711585866886</v>
+      </c>
+      <c r="E1272">
+        <v>-1</v>
+      </c>
+      <c r="F1272">
+        <v>1760</v>
+      </c>
+      <c r="G1272">
+        <v>0.1298605474802627</v>
+      </c>
+      <c r="H1272">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" s="2">
+        <v>44082</v>
+      </c>
+      <c r="B1273" t="inlineStr">
+        <is>
+          <t>75-79 years</t>
+        </is>
+      </c>
+      <c r="C1273">
+        <v>831</v>
+      </c>
+      <c r="D1273">
+        <v>0.01707066557107642</v>
+      </c>
+      <c r="E1273">
+        <v>0</v>
+      </c>
+      <c r="F1273">
+        <v>1664</v>
+      </c>
+      <c r="G1273">
+        <v>0.1227772448904302</v>
+      </c>
+      <c r="H1273">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" s="2">
+        <v>44082</v>
+      </c>
+      <c r="B1274" t="inlineStr">
+        <is>
+          <t>80+ years</t>
+        </is>
+      </c>
+      <c r="C1274">
+        <v>1353</v>
+      </c>
+      <c r="D1274">
+        <v>0.02779375513557929</v>
+      </c>
+      <c r="E1274">
+        <v>0</v>
+      </c>
+      <c r="F1274">
+        <v>4501</v>
+      </c>
+      <c r="G1274">
+        <v>0.3321035933003763</v>
+      </c>
+      <c r="H1274">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" s="2">
+        <v>44082</v>
+      </c>
+      <c r="B1275" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C1275">
+        <v>24</v>
+      </c>
+      <c r="D1275">
+        <v>0.0004930156121610517</v>
+      </c>
+      <c r="E1275">
+        <v>0</v>
+      </c>
+      <c r="F1275">
+        <v>0</v>
+      </c>
+      <c r="G1275">
+        <v>0</v>
+      </c>
+      <c r="H1275">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -35723,7 +36087,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H292"/>
+  <dimension ref="A1:H295"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -43922,6 +44286,90 @@
         <v>0</v>
       </c>
     </row>
+    <row r="293">
+      <c r="A293" s="2">
+        <v>44082</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C293">
+        <v>16634</v>
+      </c>
+      <c r="D293">
+        <v>0.3417009038619556</v>
+      </c>
+      <c r="E293">
+        <v>5</v>
+      </c>
+      <c r="F293">
+        <v>5630</v>
+      </c>
+      <c r="G293">
+        <v>0.4154061831328857</v>
+      </c>
+      <c r="H293">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2">
+        <v>44082</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C294">
+        <v>31096</v>
+      </c>
+      <c r="D294">
+        <v>0.6387838948233361</v>
+      </c>
+      <c r="E294">
+        <v>10</v>
+      </c>
+      <c r="F294">
+        <v>7923</v>
+      </c>
+      <c r="G294">
+        <v>0.5845938168671143</v>
+      </c>
+      <c r="H294">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2">
+        <v>44082</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C295">
+        <v>950</v>
+      </c>
+      <c r="D295">
+        <v>0.0195152013147083</v>
+      </c>
+      <c r="E295">
+        <v>-1</v>
+      </c>
+      <c r="F295">
+        <v>0</v>
+      </c>
+      <c r="G295">
+        <v>0</v>
+      </c>
+      <c r="H295">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -43929,7 +44377,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H583"/>
+  <dimension ref="A1:H589"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -60276,6 +60724,174 @@
         <v>3</v>
       </c>
     </row>
+    <row r="584">
+      <c r="A584" s="2">
+        <v>44082</v>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C584">
+        <v>756</v>
+      </c>
+      <c r="D584">
+        <v>0.01552999178307313</v>
+      </c>
+      <c r="E584">
+        <v>-1</v>
+      </c>
+      <c r="F584">
+        <v>267</v>
+      </c>
+      <c r="G584">
+        <v>0.01970043532797167</v>
+      </c>
+      <c r="H584">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="2">
+        <v>44082</v>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C585">
+        <v>7839</v>
+      </c>
+      <c r="D585">
+        <v>0.1610312243221035</v>
+      </c>
+      <c r="E585">
+        <v>0</v>
+      </c>
+      <c r="F585">
+        <v>1545</v>
+      </c>
+      <c r="G585">
+        <v>0.113996901055117</v>
+      </c>
+      <c r="H585">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="2">
+        <v>44082</v>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="C586">
+        <v>19433</v>
+      </c>
+      <c r="D586">
+        <v>0.3991988496302383</v>
+      </c>
+      <c r="E586">
+        <v>10</v>
+      </c>
+      <c r="F586">
+        <v>7572</v>
+      </c>
+      <c r="G586">
+        <v>0.5586954917730392</v>
+      </c>
+      <c r="H586">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="2">
+        <v>44082</v>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C587">
+        <v>220</v>
+      </c>
+      <c r="D587">
+        <v>0.004519309778142975</v>
+      </c>
+      <c r="E587">
+        <v>0</v>
+      </c>
+      <c r="F587">
+        <v>77</v>
+      </c>
+      <c r="G587">
+        <v>0.005681398952261492</v>
+      </c>
+      <c r="H587">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="2">
+        <v>44082</v>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C588">
+        <v>6453</v>
+      </c>
+      <c r="D588">
+        <v>0.1325595727198028</v>
+      </c>
+      <c r="E588">
+        <v>3</v>
+      </c>
+      <c r="F588">
+        <v>6</v>
+      </c>
+      <c r="G588">
+        <v>0.0004427064118645319</v>
+      </c>
+      <c r="H588">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="2">
+        <v>44082</v>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C589">
+        <v>13979</v>
+      </c>
+      <c r="D589">
+        <v>0.2871610517666393</v>
+      </c>
+      <c r="E589">
+        <v>2</v>
+      </c>
+      <c r="F589">
+        <v>4086</v>
+      </c>
+      <c r="G589">
+        <v>0.3014830664797462</v>
+      </c>
+      <c r="H589">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1275"/>
+  <dimension ref="A1:H1288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -36080,6 +36080,370 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1276">
+      <c r="A1276" s="2">
+        <v>44083</v>
+      </c>
+      <c r="B1276" t="inlineStr">
+        <is>
+          <t>&lt;1 year</t>
+        </is>
+      </c>
+      <c r="C1276">
+        <v>158</v>
+      </c>
+      <c r="D1276">
+        <v>0.32</v>
+      </c>
+      <c r="E1276">
+        <v>2</v>
+      </c>
+      <c r="F1276">
+        <v>3</v>
+      </c>
+      <c r="G1276">
+        <v>0.02</v>
+      </c>
+      <c r="H1276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" s="2">
+        <v>44083</v>
+      </c>
+      <c r="B1277" t="inlineStr">
+        <is>
+          <t>1-9 years</t>
+        </is>
+      </c>
+      <c r="C1277">
+        <v>743</v>
+      </c>
+      <c r="D1277">
+        <v>0.0152</v>
+      </c>
+      <c r="E1277">
+        <v>5</v>
+      </c>
+      <c r="F1277">
+        <v>6</v>
+      </c>
+      <c r="G1277">
+        <v>0.04</v>
+      </c>
+      <c r="H1277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" s="2">
+        <v>44083</v>
+      </c>
+      <c r="B1278" t="inlineStr">
+        <is>
+          <t>10-19 years</t>
+        </is>
+      </c>
+      <c r="C1278">
+        <v>1954</v>
+      </c>
+      <c r="D1278">
+        <v>0.039912576343</v>
+      </c>
+      <c r="E1278">
+        <v>27</v>
+      </c>
+      <c r="F1278">
+        <v>15</v>
+      </c>
+      <c r="G1278">
+        <v>0.11</v>
+      </c>
+      <c r="H1278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" s="2">
+        <v>44083</v>
+      </c>
+      <c r="B1279" t="inlineStr">
+        <is>
+          <t>20-29 years</t>
+        </is>
+      </c>
+      <c r="C1279">
+        <v>9410</v>
+      </c>
+      <c r="D1279">
+        <v>0.1922</v>
+      </c>
+      <c r="E1279">
+        <v>85</v>
+      </c>
+      <c r="F1279">
+        <v>93</v>
+      </c>
+      <c r="G1279">
+        <v>0.6800000000000001</v>
+      </c>
+      <c r="H1279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" s="2">
+        <v>44083</v>
+      </c>
+      <c r="B1280" t="inlineStr">
+        <is>
+          <t>30-39 years</t>
+        </is>
+      </c>
+      <c r="C1280">
+        <v>10374</v>
+      </c>
+      <c r="D1280">
+        <v>0.2119</v>
+      </c>
+      <c r="E1280">
+        <v>55</v>
+      </c>
+      <c r="F1280">
+        <v>252</v>
+      </c>
+      <c r="G1280">
+        <v>0.0184</v>
+      </c>
+      <c r="H1280">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" s="2">
+        <v>44083</v>
+      </c>
+      <c r="B1281" t="inlineStr">
+        <is>
+          <t>40-49 years</t>
+        </is>
+      </c>
+      <c r="C1281">
+        <v>9375</v>
+      </c>
+      <c r="D1281">
+        <v>0.1915</v>
+      </c>
+      <c r="E1281">
+        <v>54</v>
+      </c>
+      <c r="F1281">
+        <v>750</v>
+      </c>
+      <c r="G1281">
+        <v>0.0548</v>
+      </c>
+      <c r="H1281">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" s="2">
+        <v>44083</v>
+      </c>
+      <c r="B1282" t="inlineStr">
+        <is>
+          <t>50-59 years</t>
+        </is>
+      </c>
+      <c r="C1282">
+        <v>8217</v>
+      </c>
+      <c r="D1282">
+        <v>0.1678</v>
+      </c>
+      <c r="E1282">
+        <v>29</v>
+      </c>
+      <c r="F1282">
+        <v>1641</v>
+      </c>
+      <c r="G1282">
+        <v>0.1199</v>
+      </c>
+      <c r="H1282">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" s="2">
+        <v>44083</v>
+      </c>
+      <c r="B1283" t="inlineStr">
+        <is>
+          <t>60-64 years</t>
+        </is>
+      </c>
+      <c r="C1283">
+        <v>3091</v>
+      </c>
+      <c r="D1283">
+        <v>0.06309999999999999</v>
+      </c>
+      <c r="E1283">
+        <v>6</v>
+      </c>
+      <c r="F1283">
+        <v>1311</v>
+      </c>
+      <c r="G1283">
+        <v>0.09570000000000001</v>
+      </c>
+      <c r="H1283">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" s="2">
+        <v>44083</v>
+      </c>
+      <c r="B1284" t="inlineStr">
+        <is>
+          <t>65-69 years</t>
+        </is>
+      </c>
+      <c r="C1284">
+        <v>2153</v>
+      </c>
+      <c r="D1284">
+        <v>0.044</v>
+      </c>
+      <c r="E1284">
+        <v>7</v>
+      </c>
+      <c r="F1284">
+        <v>1605</v>
+      </c>
+      <c r="G1284">
+        <v>0.1172</v>
+      </c>
+      <c r="H1284">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" s="2">
+        <v>44083</v>
+      </c>
+      <c r="B1285" t="inlineStr">
+        <is>
+          <t>70-74 years</t>
+        </is>
+      </c>
+      <c r="C1285">
+        <v>1270</v>
+      </c>
+      <c r="D1285">
+        <v>0.0259</v>
+      </c>
+      <c r="E1285">
+        <v>3</v>
+      </c>
+      <c r="F1285">
+        <v>1780</v>
+      </c>
+      <c r="G1285">
+        <v>0.13</v>
+      </c>
+      <c r="H1285">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" s="2">
+        <v>44083</v>
+      </c>
+      <c r="B1286" t="inlineStr">
+        <is>
+          <t>75-79 years</t>
+        </is>
+      </c>
+      <c r="C1286">
+        <v>834</v>
+      </c>
+      <c r="D1286">
+        <v>0.017</v>
+      </c>
+      <c r="E1286">
+        <v>3</v>
+      </c>
+      <c r="F1286">
+        <v>1680</v>
+      </c>
+      <c r="G1286">
+        <v>0.1227</v>
+      </c>
+      <c r="H1286">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" s="2">
+        <v>44083</v>
+      </c>
+      <c r="B1287" t="inlineStr">
+        <is>
+          <t>80+ years</t>
+        </is>
+      </c>
+      <c r="C1287">
+        <v>1354</v>
+      </c>
+      <c r="D1287">
+        <v>0.027656923423</v>
+      </c>
+      <c r="E1287">
+        <v>1</v>
+      </c>
+      <c r="F1287">
+        <v>4556</v>
+      </c>
+      <c r="G1287">
+        <v>0.3327000000000001</v>
+      </c>
+      <c r="H1287">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" s="2">
+        <v>44083</v>
+      </c>
+      <c r="B1288" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C1288">
+        <v>24</v>
+      </c>
+      <c r="D1288">
+        <v>0.0490226117</v>
+      </c>
+      <c r="E1288">
+        <v>0</v>
+      </c>
+      <c r="F1288">
+        <v>0</v>
+      </c>
+      <c r="G1288">
+        <v>0</v>
+      </c>
+      <c r="H1288">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36087,7 +36451,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H295"/>
+  <dimension ref="A1:H298"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -44370,6 +44734,90 @@
         <v>0</v>
       </c>
     </row>
+    <row r="296">
+      <c r="A296" s="2">
+        <v>44083</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C296">
+        <v>16699</v>
+      </c>
+      <c r="D296">
+        <v>0.3411</v>
+      </c>
+      <c r="E296">
+        <v>65</v>
+      </c>
+      <c r="F296">
+        <v>5685</v>
+      </c>
+      <c r="G296">
+        <v>0.4152</v>
+      </c>
+      <c r="H296">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2">
+        <v>44083</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C297">
+        <v>31309</v>
+      </c>
+      <c r="D297">
+        <v>0.6395000000000001</v>
+      </c>
+      <c r="E297">
+        <v>213</v>
+      </c>
+      <c r="F297">
+        <v>8007</v>
+      </c>
+      <c r="G297">
+        <v>0.5848</v>
+      </c>
+      <c r="H297">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="2">
+        <v>44083</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C298">
+        <v>949</v>
+      </c>
+      <c r="D298">
+        <v>0.0194</v>
+      </c>
+      <c r="E298">
+        <v>-1</v>
+      </c>
+      <c r="F298">
+        <v>0</v>
+      </c>
+      <c r="G298">
+        <v>0</v>
+      </c>
+      <c r="H298">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -44377,7 +44825,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H589"/>
+  <dimension ref="A1:H595"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -60892,6 +61340,174 @@
         <v>14</v>
       </c>
     </row>
+    <row r="590">
+      <c r="A590" s="2">
+        <v>44083</v>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C590">
+        <v>757</v>
+      </c>
+      <c r="D590">
+        <v>0.0155</v>
+      </c>
+      <c r="E590">
+        <v>1</v>
+      </c>
+      <c r="F590">
+        <v>267</v>
+      </c>
+      <c r="G590">
+        <v>0.0195</v>
+      </c>
+      <c r="H590">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="2">
+        <v>44083</v>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C591">
+        <v>7903</v>
+      </c>
+      <c r="D591">
+        <v>0.1614</v>
+      </c>
+      <c r="E591">
+        <v>64</v>
+      </c>
+      <c r="F591">
+        <v>1561</v>
+      </c>
+      <c r="G591">
+        <v>0.11400817996</v>
+      </c>
+      <c r="H591">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="2">
+        <v>44083</v>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="C592">
+        <v>19548</v>
+      </c>
+      <c r="D592">
+        <v>0.3993</v>
+      </c>
+      <c r="E592">
+        <v>115</v>
+      </c>
+      <c r="F592">
+        <v>7646</v>
+      </c>
+      <c r="G592">
+        <v>0.5584</v>
+      </c>
+      <c r="H592">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="2">
+        <v>44083</v>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C593">
+        <v>219</v>
+      </c>
+      <c r="D593">
+        <v>0.45</v>
+      </c>
+      <c r="E593">
+        <v>-1</v>
+      </c>
+      <c r="F593">
+        <v>77</v>
+      </c>
+      <c r="G593">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H593">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="2">
+        <v>44083</v>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C594">
+        <v>6449</v>
+      </c>
+      <c r="D594">
+        <v>0.1317</v>
+      </c>
+      <c r="E594">
+        <v>-4</v>
+      </c>
+      <c r="F594">
+        <v>7</v>
+      </c>
+      <c r="G594">
+        <v>0.05</v>
+      </c>
+      <c r="H594">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="2">
+        <v>44083</v>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C595">
+        <v>14081</v>
+      </c>
+      <c r="D595">
+        <v>0.2876</v>
+      </c>
+      <c r="E595">
+        <v>102</v>
+      </c>
+      <c r="F595">
+        <v>4134</v>
+      </c>
+      <c r="G595">
+        <v>0.3019</v>
+      </c>
+      <c r="H595">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1288"/>
+  <dimension ref="A1:H1300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -36444,6 +36444,342 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1289">
+      <c r="A1289" s="2">
+        <v>44084</v>
+      </c>
+      <c r="B1289" t="inlineStr">
+        <is>
+          <t>&lt;1 year</t>
+        </is>
+      </c>
+      <c r="C1289">
+        <v>158</v>
+      </c>
+      <c r="D1289">
+        <v>0.003205388298303984</v>
+      </c>
+      <c r="E1289">
+        <v>0</v>
+      </c>
+      <c r="F1289">
+        <v>3</v>
+      </c>
+      <c r="G1289">
+        <v>0.0002165595899805096</v>
+      </c>
+      <c r="H1289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" s="2">
+        <v>44084</v>
+      </c>
+      <c r="B1290" t="inlineStr">
+        <is>
+          <t>1-9 years</t>
+        </is>
+      </c>
+      <c r="C1290">
+        <v>753</v>
+      </c>
+      <c r="D1290">
+        <v>0.01527631258622089</v>
+      </c>
+      <c r="E1290">
+        <v>10</v>
+      </c>
+      <c r="F1290">
+        <v>6</v>
+      </c>
+      <c r="G1290">
+        <v>0.0004331191799610193</v>
+      </c>
+      <c r="H1290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" s="2">
+        <v>44084</v>
+      </c>
+      <c r="B1291" t="inlineStr">
+        <is>
+          <t>10-19 years</t>
+        </is>
+      </c>
+      <c r="C1291">
+        <v>1976</v>
+      </c>
+      <c r="D1291">
+        <v>0.04008764099651059</v>
+      </c>
+      <c r="E1291">
+        <v>22</v>
+      </c>
+      <c r="F1291">
+        <v>16</v>
+      </c>
+      <c r="G1291">
+        <v>0.001154984479896052</v>
+      </c>
+      <c r="H1291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" s="2">
+        <v>44084</v>
+      </c>
+      <c r="B1292" t="inlineStr">
+        <is>
+          <t>20-29 years</t>
+        </is>
+      </c>
+      <c r="C1292">
+        <v>9466</v>
+      </c>
+      <c r="D1292">
+        <v>0.1920392761502881</v>
+      </c>
+      <c r="E1292">
+        <v>56</v>
+      </c>
+      <c r="F1292">
+        <v>93</v>
+      </c>
+      <c r="G1292">
+        <v>0.006713347289395799</v>
+      </c>
+      <c r="H1292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" s="2">
+        <v>44084</v>
+      </c>
+      <c r="B1293" t="inlineStr">
+        <is>
+          <t>30-39 years</t>
+        </is>
+      </c>
+      <c r="C1293">
+        <v>10436</v>
+      </c>
+      <c r="D1293">
+        <v>0.2117179258297492</v>
+      </c>
+      <c r="E1293">
+        <v>62</v>
+      </c>
+      <c r="F1293">
+        <v>254</v>
+      </c>
+      <c r="G1293">
+        <v>0.01833537861834982</v>
+      </c>
+      <c r="H1293">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" s="2">
+        <v>44084</v>
+      </c>
+      <c r="B1294" t="inlineStr">
+        <is>
+          <t>40-49 years</t>
+        </is>
+      </c>
+      <c r="C1294">
+        <v>9435</v>
+      </c>
+      <c r="D1294">
+        <v>0.1914103708512538</v>
+      </c>
+      <c r="E1294">
+        <v>60</v>
+      </c>
+      <c r="F1294">
+        <v>759</v>
+      </c>
+      <c r="G1294">
+        <v>0.05478957626506894</v>
+      </c>
+      <c r="H1294">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" s="2">
+        <v>44084</v>
+      </c>
+      <c r="B1295" t="inlineStr">
+        <is>
+          <t>50-59 years</t>
+        </is>
+      </c>
+      <c r="C1295">
+        <v>8295</v>
+      </c>
+      <c r="D1295">
+        <v>0.1682828856609592</v>
+      </c>
+      <c r="E1295">
+        <v>78</v>
+      </c>
+      <c r="F1295">
+        <v>1660</v>
+      </c>
+      <c r="G1295">
+        <v>0.1198296397892153</v>
+      </c>
+      <c r="H1295">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" s="2">
+        <v>44084</v>
+      </c>
+      <c r="B1296" t="inlineStr">
+        <is>
+          <t>60-64 years</t>
+        </is>
+      </c>
+      <c r="C1296">
+        <v>3108</v>
+      </c>
+      <c r="D1296">
+        <v>0.06305282804511889</v>
+      </c>
+      <c r="E1296">
+        <v>17</v>
+      </c>
+      <c r="F1296">
+        <v>1323</v>
+      </c>
+      <c r="G1296">
+        <v>0.09550277918140475</v>
+      </c>
+      <c r="H1296">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" s="2">
+        <v>44084</v>
+      </c>
+      <c r="B1297" t="inlineStr">
+        <is>
+          <t>65-69 years</t>
+        </is>
+      </c>
+      <c r="C1297">
+        <v>2166</v>
+      </c>
+      <c r="D1297">
+        <v>0.04394222186155969</v>
+      </c>
+      <c r="E1297">
+        <v>13</v>
+      </c>
+      <c r="F1297">
+        <v>1622</v>
+      </c>
+      <c r="G1297">
+        <v>0.1170865516494622</v>
+      </c>
+      <c r="H1297">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" s="2">
+        <v>44084</v>
+      </c>
+      <c r="B1298" t="inlineStr">
+        <is>
+          <t>70-74 years</t>
+        </is>
+      </c>
+      <c r="C1298">
+        <v>1277</v>
+      </c>
+      <c r="D1298">
+        <v>0.02590684086667208</v>
+      </c>
+      <c r="E1298">
+        <v>7</v>
+      </c>
+      <c r="F1298">
+        <v>1805</v>
+      </c>
+      <c r="G1298">
+        <v>0.1302966866382733</v>
+      </c>
+      <c r="H1298">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" s="2">
+        <v>44084</v>
+      </c>
+      <c r="B1299" t="inlineStr">
+        <is>
+          <t>75-79 years</t>
+        </is>
+      </c>
+      <c r="C1299">
+        <v>836</v>
+      </c>
+      <c r="D1299">
+        <v>0.01696015580621602</v>
+      </c>
+      <c r="E1299">
+        <v>2</v>
+      </c>
+      <c r="F1299">
+        <v>1699</v>
+      </c>
+      <c r="G1299">
+        <v>0.122644914458962</v>
+      </c>
+      <c r="H1299">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" s="2">
+        <v>44084</v>
+      </c>
+      <c r="B1300" t="inlineStr">
+        <is>
+          <t>80+ years</t>
+        </is>
+      </c>
+      <c r="C1300">
+        <v>1362</v>
+      </c>
+      <c r="D1300">
+        <v>0.02763125862208878</v>
+      </c>
+      <c r="E1300">
+        <v>8</v>
+      </c>
+      <c r="F1300">
+        <v>4613</v>
+      </c>
+      <c r="G1300">
+        <v>0.3329964628600303</v>
+      </c>
+      <c r="H1300">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36451,7 +36787,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H298"/>
+  <dimension ref="A1:H301"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -44818,6 +45154,90 @@
         <v>0</v>
       </c>
     </row>
+    <row r="299">
+      <c r="A299" s="2">
+        <v>44084</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C299">
+        <v>16781</v>
+      </c>
+      <c r="D299">
+        <v>0.3404406394546782</v>
+      </c>
+      <c r="E299">
+        <v>82</v>
+      </c>
+      <c r="F299">
+        <v>5759</v>
+      </c>
+      <c r="G299">
+        <v>0.415722226232585</v>
+      </c>
+      <c r="H299">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="2">
+        <v>44084</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C300">
+        <v>31564</v>
+      </c>
+      <c r="D300">
+        <v>0.6403473180232087</v>
+      </c>
+      <c r="E300">
+        <v>255</v>
+      </c>
+      <c r="F300">
+        <v>8094</v>
+      </c>
+      <c r="G300">
+        <v>0.584277773767415</v>
+      </c>
+      <c r="H300">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="2">
+        <v>44084</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C301">
+        <v>947</v>
+      </c>
+      <c r="D301">
+        <v>0.01921204252211312</v>
+      </c>
+      <c r="E301">
+        <v>-2</v>
+      </c>
+      <c r="F301">
+        <v>0</v>
+      </c>
+      <c r="G301">
+        <v>0</v>
+      </c>
+      <c r="H301">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -44825,7 +45245,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H595"/>
+  <dimension ref="A1:H601"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -61508,6 +61928,174 @@
         <v>48</v>
       </c>
     </row>
+    <row r="596">
+      <c r="A596" s="2">
+        <v>44084</v>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C596">
+        <v>762</v>
+      </c>
+      <c r="D596">
+        <v>0.01545889799561795</v>
+      </c>
+      <c r="E596">
+        <v>5</v>
+      </c>
+      <c r="F596">
+        <v>270</v>
+      </c>
+      <c r="G596">
+        <v>0.01949036309824587</v>
+      </c>
+      <c r="H596">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="2">
+        <v>44084</v>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C597">
+        <v>7977</v>
+      </c>
+      <c r="D597">
+        <v>0.1618315345289297</v>
+      </c>
+      <c r="E597">
+        <v>74</v>
+      </c>
+      <c r="F597">
+        <v>1577</v>
+      </c>
+      <c r="G597">
+        <v>0.1138381577997546</v>
+      </c>
+      <c r="H597">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="2">
+        <v>44084</v>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="C598">
+        <v>19662</v>
+      </c>
+      <c r="D598">
+        <v>0.398888257729449</v>
+      </c>
+      <c r="E598">
+        <v>114</v>
+      </c>
+      <c r="F598">
+        <v>7730</v>
+      </c>
+      <c r="G598">
+        <v>0.5580018768497799</v>
+      </c>
+      <c r="H598">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="2">
+        <v>44084</v>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C599">
+        <v>221</v>
+      </c>
+      <c r="D599">
+        <v>0.004483486164083421</v>
+      </c>
+      <c r="E599">
+        <v>2</v>
+      </c>
+      <c r="F599">
+        <v>78</v>
+      </c>
+      <c r="G599">
+        <v>0.005630549339493251</v>
+      </c>
+      <c r="H599">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="2">
+        <v>44084</v>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C600">
+        <v>6445</v>
+      </c>
+      <c r="D600">
+        <v>0.1307514403960075</v>
+      </c>
+      <c r="E600">
+        <v>-4</v>
+      </c>
+      <c r="F600">
+        <v>7</v>
+      </c>
+      <c r="G600">
+        <v>0.0005053057099545225</v>
+      </c>
+      <c r="H600">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="2">
+        <v>44084</v>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C601">
+        <v>14225</v>
+      </c>
+      <c r="D601">
+        <v>0.2885863831859125</v>
+      </c>
+      <c r="E601">
+        <v>144</v>
+      </c>
+      <c r="F601">
+        <v>4191</v>
+      </c>
+      <c r="G601">
+        <v>0.302533747202772</v>
+      </c>
+      <c r="H601">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1300"/>
+  <dimension ref="A1:H1312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -36780,6 +36780,342 @@
         <v>57</v>
       </c>
     </row>
+    <row r="1301">
+      <c r="A1301" s="2">
+        <v>44085</v>
+      </c>
+      <c r="B1301" t="inlineStr">
+        <is>
+          <t>&lt;1 year</t>
+        </is>
+      </c>
+      <c r="C1301">
+        <v>158</v>
+      </c>
+      <c r="D1301">
+        <v>0.003179586251308058</v>
+      </c>
+      <c r="E1301">
+        <v>0</v>
+      </c>
+      <c r="F1301">
+        <v>3</v>
+      </c>
+      <c r="G1301">
+        <v>0.0002143316424948203</v>
+      </c>
+      <c r="H1301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" s="2">
+        <v>44085</v>
+      </c>
+      <c r="B1302" t="inlineStr">
+        <is>
+          <t>1-9 years</t>
+        </is>
+      </c>
+      <c r="C1302">
+        <v>759</v>
+      </c>
+      <c r="D1302">
+        <v>0.0152740883844482</v>
+      </c>
+      <c r="E1302">
+        <v>6</v>
+      </c>
+      <c r="F1302">
+        <v>6</v>
+      </c>
+      <c r="G1302">
+        <v>0.0004286632849896406</v>
+      </c>
+      <c r="H1302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" s="2">
+        <v>44085</v>
+      </c>
+      <c r="B1303" t="inlineStr">
+        <is>
+          <t>10-19 years</t>
+        </is>
+      </c>
+      <c r="C1303">
+        <v>2001</v>
+      </c>
+      <c r="D1303">
+        <v>0.04026805119536344</v>
+      </c>
+      <c r="E1303">
+        <v>25</v>
+      </c>
+      <c r="F1303">
+        <v>16</v>
+      </c>
+      <c r="G1303">
+        <v>0.001143102093305708</v>
+      </c>
+      <c r="H1303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" s="2">
+        <v>44085</v>
+      </c>
+      <c r="B1304" t="inlineStr">
+        <is>
+          <t>20-29 years</t>
+        </is>
+      </c>
+      <c r="C1304">
+        <v>9560</v>
+      </c>
+      <c r="D1304">
+        <v>0.1923850921677534</v>
+      </c>
+      <c r="E1304">
+        <v>94</v>
+      </c>
+      <c r="F1304">
+        <v>93</v>
+      </c>
+      <c r="G1304">
+        <v>0.00664428091733943</v>
+      </c>
+      <c r="H1304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" s="2">
+        <v>44085</v>
+      </c>
+      <c r="B1305" t="inlineStr">
+        <is>
+          <t>30-39 years</t>
+        </is>
+      </c>
+      <c r="C1305">
+        <v>10517</v>
+      </c>
+      <c r="D1305">
+        <v>0.2116437253481446</v>
+      </c>
+      <c r="E1305">
+        <v>81</v>
+      </c>
+      <c r="F1305">
+        <v>257</v>
+      </c>
+      <c r="G1305">
+        <v>0.01836107737372294</v>
+      </c>
+      <c r="H1305">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" s="2">
+        <v>44085</v>
+      </c>
+      <c r="B1306" t="inlineStr">
+        <is>
+          <t>40-49 years</t>
+        </is>
+      </c>
+      <c r="C1306">
+        <v>9527</v>
+      </c>
+      <c r="D1306">
+        <v>0.1917210013684295</v>
+      </c>
+      <c r="E1306">
+        <v>92</v>
+      </c>
+      <c r="F1306">
+        <v>766</v>
+      </c>
+      <c r="G1306">
+        <v>0.05472601271701079</v>
+      </c>
+      <c r="H1306">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" s="2">
+        <v>44085</v>
+      </c>
+      <c r="B1307" t="inlineStr">
+        <is>
+          <t>50-59 years</t>
+        </is>
+      </c>
+      <c r="C1307">
+        <v>8354</v>
+      </c>
+      <c r="D1307">
+        <v>0.1681155920470096</v>
+      </c>
+      <c r="E1307">
+        <v>59</v>
+      </c>
+      <c r="F1307">
+        <v>1680</v>
+      </c>
+      <c r="G1307">
+        <v>0.1200257197970994</v>
+      </c>
+      <c r="H1307">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" s="2">
+        <v>44085</v>
+      </c>
+      <c r="B1308" t="inlineStr">
+        <is>
+          <t>60-64 years</t>
+        </is>
+      </c>
+      <c r="C1308">
+        <v>3128</v>
+      </c>
+      <c r="D1308">
+        <v>0.06294775819045319</v>
+      </c>
+      <c r="E1308">
+        <v>20</v>
+      </c>
+      <c r="F1308">
+        <v>1336</v>
+      </c>
+      <c r="G1308">
+        <v>0.09544902479102665</v>
+      </c>
+      <c r="H1308">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" s="2">
+        <v>44085</v>
+      </c>
+      <c r="B1309" t="inlineStr">
+        <is>
+          <t>65-69 years</t>
+        </is>
+      </c>
+      <c r="C1309">
+        <v>2176</v>
+      </c>
+      <c r="D1309">
+        <v>0.04378974482814135</v>
+      </c>
+      <c r="E1309">
+        <v>10</v>
+      </c>
+      <c r="F1309">
+        <v>1650</v>
+      </c>
+      <c r="G1309">
+        <v>0.1178824033721512</v>
+      </c>
+      <c r="H1309">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" s="2">
+        <v>44085</v>
+      </c>
+      <c r="B1310" t="inlineStr">
+        <is>
+          <t>70-74 years</t>
+        </is>
+      </c>
+      <c r="C1310">
+        <v>1284</v>
+      </c>
+      <c r="D1310">
+        <v>0.02583916928278194</v>
+      </c>
+      <c r="E1310">
+        <v>7</v>
+      </c>
+      <c r="F1310">
+        <v>1824</v>
+      </c>
+      <c r="G1310">
+        <v>0.1303136386368508</v>
+      </c>
+      <c r="H1310">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" s="2">
+        <v>44085</v>
+      </c>
+      <c r="B1311" t="inlineStr">
+        <is>
+          <t>75-79 years</t>
+        </is>
+      </c>
+      <c r="C1311">
+        <v>838</v>
+      </c>
+      <c r="D1311">
+        <v>0.01686388151010223</v>
+      </c>
+      <c r="E1311">
+        <v>2</v>
+      </c>
+      <c r="F1311">
+        <v>1710</v>
+      </c>
+      <c r="G1311">
+        <v>0.1221690362220476</v>
+      </c>
+      <c r="H1311">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" s="2">
+        <v>44085</v>
+      </c>
+      <c r="B1312" t="inlineStr">
+        <is>
+          <t>80+ years</t>
+        </is>
+      </c>
+      <c r="C1312">
+        <v>1368</v>
+      </c>
+      <c r="D1312">
+        <v>0.02752958222651534</v>
+      </c>
+      <c r="E1312">
+        <v>6</v>
+      </c>
+      <c r="F1312">
+        <v>4656</v>
+      </c>
+      <c r="G1312">
+        <v>0.3326427091519612</v>
+      </c>
+      <c r="H1312">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36787,7 +37123,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H301"/>
+  <dimension ref="A1:H304"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -45238,6 +45574,90 @@
         <v>0</v>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" s="2">
+        <v>44085</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C302">
+        <v>16877</v>
+      </c>
+      <c r="D302">
+        <v>0.3396321339451018</v>
+      </c>
+      <c r="E302">
+        <v>96</v>
+      </c>
+      <c r="F302">
+        <v>5820</v>
+      </c>
+      <c r="G302">
+        <v>0.4158033864399514</v>
+      </c>
+      <c r="H302">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="2">
+        <v>44085</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C303">
+        <v>31868</v>
+      </c>
+      <c r="D303">
+        <v>0.6413104725106658</v>
+      </c>
+      <c r="E303">
+        <v>304</v>
+      </c>
+      <c r="F303">
+        <v>8177</v>
+      </c>
+      <c r="G303">
+        <v>0.5841966135600486</v>
+      </c>
+      <c r="H303">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="2">
+        <v>44085</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C304">
+        <v>947</v>
+      </c>
+      <c r="D304">
+        <v>0.01905739354423247</v>
+      </c>
+      <c r="E304">
+        <v>0</v>
+      </c>
+      <c r="F304">
+        <v>0</v>
+      </c>
+      <c r="G304">
+        <v>0</v>
+      </c>
+      <c r="H304">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -45245,7 +45665,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H601"/>
+  <dimension ref="A1:H607"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -62096,6 +62516,174 @@
         <v>57</v>
       </c>
     </row>
+    <row r="602">
+      <c r="A602" s="2">
+        <v>44085</v>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C602">
+        <v>767</v>
+      </c>
+      <c r="D602">
+        <v>0.01543508009337519</v>
+      </c>
+      <c r="E602">
+        <v>5</v>
+      </c>
+      <c r="F602">
+        <v>273</v>
+      </c>
+      <c r="G602">
+        <v>0.01950417946702865</v>
+      </c>
+      <c r="H602">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="2">
+        <v>44085</v>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C603">
+        <v>8079</v>
+      </c>
+      <c r="D603">
+        <v>0.1625815020526443</v>
+      </c>
+      <c r="E603">
+        <v>102</v>
+      </c>
+      <c r="F603">
+        <v>1596</v>
+      </c>
+      <c r="G603">
+        <v>0.1140244338072444</v>
+      </c>
+      <c r="H603">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="2">
+        <v>44085</v>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="C604">
+        <v>19802</v>
+      </c>
+      <c r="D604">
+        <v>0.3984947275215326</v>
+      </c>
+      <c r="E604">
+        <v>140</v>
+      </c>
+      <c r="F604">
+        <v>7814</v>
+      </c>
+      <c r="G604">
+        <v>0.5582624848181753</v>
+      </c>
+      <c r="H604">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="2">
+        <v>44085</v>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C605">
+        <v>223</v>
+      </c>
+      <c r="D605">
+        <v>0.004487643886339853</v>
+      </c>
+      <c r="E605">
+        <v>2</v>
+      </c>
+      <c r="F605">
+        <v>78</v>
+      </c>
+      <c r="G605">
+        <v>0.005572622704865329</v>
+      </c>
+      <c r="H605">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="2">
+        <v>44085</v>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C606">
+        <v>6440</v>
+      </c>
+      <c r="D606">
+        <v>0.1295983256862272</v>
+      </c>
+      <c r="E606">
+        <v>-5</v>
+      </c>
+      <c r="F606">
+        <v>7</v>
+      </c>
+      <c r="G606">
+        <v>0.0005001071658212474</v>
+      </c>
+      <c r="H606">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="2">
+        <v>44085</v>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C607">
+        <v>14381</v>
+      </c>
+      <c r="D607">
+        <v>0.2894027207598809</v>
+      </c>
+      <c r="E607">
+        <v>156</v>
+      </c>
+      <c r="F607">
+        <v>4229</v>
+      </c>
+      <c r="G607">
+        <v>0.3021361720368651</v>
+      </c>
+      <c r="H607">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1312"/>
+  <dimension ref="A1:H1324"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -37116,6 +37116,342 @@
         <v>43</v>
       </c>
     </row>
+    <row r="1313">
+      <c r="A1313" s="2">
+        <v>44087</v>
+      </c>
+      <c r="B1313" t="inlineStr">
+        <is>
+          <t>&lt;1 year</t>
+        </is>
+      </c>
+      <c r="C1313">
+        <v>160</v>
+      </c>
+      <c r="D1313">
+        <v>0.32</v>
+      </c>
+      <c r="E1313">
+        <v>2</v>
+      </c>
+      <c r="F1313">
+        <v>3</v>
+      </c>
+      <c r="G1313">
+        <v>0.02</v>
+      </c>
+      <c r="H1313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" s="2">
+        <v>44087</v>
+      </c>
+      <c r="B1314" t="inlineStr">
+        <is>
+          <t>1-9 years</t>
+        </is>
+      </c>
+      <c r="C1314">
+        <v>769</v>
+      </c>
+      <c r="D1314">
+        <v>0.0154</v>
+      </c>
+      <c r="E1314">
+        <v>10</v>
+      </c>
+      <c r="F1314">
+        <v>6</v>
+      </c>
+      <c r="G1314">
+        <v>0.04</v>
+      </c>
+      <c r="H1314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" s="2">
+        <v>44087</v>
+      </c>
+      <c r="B1315" t="inlineStr">
+        <is>
+          <t>10-19 years</t>
+        </is>
+      </c>
+      <c r="C1315">
+        <v>2041</v>
+      </c>
+      <c r="D1315">
+        <v>0.0408</v>
+      </c>
+      <c r="E1315">
+        <v>40</v>
+      </c>
+      <c r="F1315">
+        <v>16</v>
+      </c>
+      <c r="G1315">
+        <v>0.11</v>
+      </c>
+      <c r="H1315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" s="2">
+        <v>44087</v>
+      </c>
+      <c r="B1316" t="inlineStr">
+        <is>
+          <t>20-29 years</t>
+        </is>
+      </c>
+      <c r="C1316">
+        <v>9597</v>
+      </c>
+      <c r="D1316">
+        <v>0.1917</v>
+      </c>
+      <c r="E1316">
+        <v>37</v>
+      </c>
+      <c r="F1316">
+        <v>94</v>
+      </c>
+      <c r="G1316">
+        <v>0.66</v>
+      </c>
+      <c r="H1316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" s="2">
+        <v>44087</v>
+      </c>
+      <c r="B1317" t="inlineStr">
+        <is>
+          <t>30-39 years</t>
+        </is>
+      </c>
+      <c r="C1317">
+        <v>10591</v>
+      </c>
+      <c r="D1317">
+        <v>0.2115</v>
+      </c>
+      <c r="E1317">
+        <v>74</v>
+      </c>
+      <c r="F1317">
+        <v>263</v>
+      </c>
+      <c r="G1317">
+        <v>0.018534178999</v>
+      </c>
+      <c r="H1317">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" s="2">
+        <v>44087</v>
+      </c>
+      <c r="B1318" t="inlineStr">
+        <is>
+          <t>40-49 years</t>
+        </is>
+      </c>
+      <c r="C1318">
+        <v>9622</v>
+      </c>
+      <c r="D1318">
+        <v>0.1922</v>
+      </c>
+      <c r="E1318">
+        <v>95</v>
+      </c>
+      <c r="F1318">
+        <v>789</v>
+      </c>
+      <c r="G1318">
+        <v>0.0556</v>
+      </c>
+      <c r="H1318">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319" s="2">
+        <v>44087</v>
+      </c>
+      <c r="B1319" t="inlineStr">
+        <is>
+          <t>50-59 years</t>
+        </is>
+      </c>
+      <c r="C1319">
+        <v>8424</v>
+      </c>
+      <c r="D1319">
+        <v>0.1683</v>
+      </c>
+      <c r="E1319">
+        <v>70</v>
+      </c>
+      <c r="F1319">
+        <v>1707</v>
+      </c>
+      <c r="G1319">
+        <v>0.1203</v>
+      </c>
+      <c r="H1319">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320" s="2">
+        <v>44087</v>
+      </c>
+      <c r="B1320" t="inlineStr">
+        <is>
+          <t>60-64 years</t>
+        </is>
+      </c>
+      <c r="C1320">
+        <v>3152</v>
+      </c>
+      <c r="D1320">
+        <v>0.063</v>
+      </c>
+      <c r="E1320">
+        <v>24</v>
+      </c>
+      <c r="F1320">
+        <v>1351</v>
+      </c>
+      <c r="G1320">
+        <v>0.09519999999999999</v>
+      </c>
+      <c r="H1320">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321" s="2">
+        <v>44087</v>
+      </c>
+      <c r="B1321" t="inlineStr">
+        <is>
+          <t>65-69 years</t>
+        </is>
+      </c>
+      <c r="C1321">
+        <v>2186</v>
+      </c>
+      <c r="D1321">
+        <v>0.0437</v>
+      </c>
+      <c r="E1321">
+        <v>10</v>
+      </c>
+      <c r="F1321">
+        <v>1672</v>
+      </c>
+      <c r="G1321">
+        <v>0.1178</v>
+      </c>
+      <c r="H1321">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" s="2">
+        <v>44087</v>
+      </c>
+      <c r="B1322" t="inlineStr">
+        <is>
+          <t>70-74 years</t>
+        </is>
+      </c>
+      <c r="C1322">
+        <v>1290</v>
+      </c>
+      <c r="D1322">
+        <v>0.0258</v>
+      </c>
+      <c r="E1322">
+        <v>6</v>
+      </c>
+      <c r="F1322">
+        <v>1851</v>
+      </c>
+      <c r="G1322">
+        <v>0.1304</v>
+      </c>
+      <c r="H1322">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" s="2">
+        <v>44087</v>
+      </c>
+      <c r="B1323" t="inlineStr">
+        <is>
+          <t>75-79 years</t>
+        </is>
+      </c>
+      <c r="C1323">
+        <v>843</v>
+      </c>
+      <c r="D1323">
+        <v>0.016837101542</v>
+      </c>
+      <c r="E1323">
+        <v>5</v>
+      </c>
+      <c r="F1323">
+        <v>1727</v>
+      </c>
+      <c r="G1323">
+        <v>0.1217</v>
+      </c>
+      <c r="H1323">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" s="2">
+        <v>44087</v>
+      </c>
+      <c r="B1324" t="inlineStr">
+        <is>
+          <t>80+ years</t>
+        </is>
+      </c>
+      <c r="C1324">
+        <v>1371</v>
+      </c>
+      <c r="D1324">
+        <v>0.0274</v>
+      </c>
+      <c r="E1324">
+        <v>3</v>
+      </c>
+      <c r="F1324">
+        <v>4711</v>
+      </c>
+      <c r="G1324">
+        <v>0.332</v>
+      </c>
+      <c r="H1324">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -37123,7 +37459,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H304"/>
+  <dimension ref="A1:H307"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -45658,6 +45994,90 @@
         <v>0</v>
       </c>
     </row>
+    <row r="305">
+      <c r="A305" s="2">
+        <v>44087</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C305">
+        <v>16979</v>
+      </c>
+      <c r="D305">
+        <v>0.3391</v>
+      </c>
+      <c r="E305">
+        <v>102</v>
+      </c>
+      <c r="F305">
+        <v>5907</v>
+      </c>
+      <c r="G305">
+        <v>0.4163</v>
+      </c>
+      <c r="H305">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="2">
+        <v>44087</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C306">
+        <v>32145</v>
+      </c>
+      <c r="D306">
+        <v>0.642</v>
+      </c>
+      <c r="E306">
+        <v>277</v>
+      </c>
+      <c r="F306">
+        <v>8283</v>
+      </c>
+      <c r="G306">
+        <v>0.5837</v>
+      </c>
+      <c r="H306">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="2">
+        <v>44087</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C307">
+        <v>944</v>
+      </c>
+      <c r="D307">
+        <v>0.0189</v>
+      </c>
+      <c r="E307">
+        <v>-3</v>
+      </c>
+      <c r="F307">
+        <v>0</v>
+      </c>
+      <c r="G307">
+        <v>0</v>
+      </c>
+      <c r="H307">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -45665,7 +46085,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H607"/>
+  <dimension ref="A1:H613"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -62684,6 +63104,174 @@
         <v>38</v>
       </c>
     </row>
+    <row r="608">
+      <c r="A608" s="2">
+        <v>44087</v>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C608">
+        <v>771</v>
+      </c>
+      <c r="D608">
+        <v>0.015399057282</v>
+      </c>
+      <c r="E608">
+        <v>4</v>
+      </c>
+      <c r="F608">
+        <v>275</v>
+      </c>
+      <c r="G608">
+        <v>0.0194</v>
+      </c>
+      <c r="H608">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="2">
+        <v>44087</v>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C609">
+        <v>8143</v>
+      </c>
+      <c r="D609">
+        <v>0.1626</v>
+      </c>
+      <c r="E609">
+        <v>64</v>
+      </c>
+      <c r="F609">
+        <v>1620</v>
+      </c>
+      <c r="G609">
+        <v>0.1142</v>
+      </c>
+      <c r="H609">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="2">
+        <v>44087</v>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="C610">
+        <v>19961</v>
+      </c>
+      <c r="D610">
+        <v>0.3987</v>
+      </c>
+      <c r="E610">
+        <v>159</v>
+      </c>
+      <c r="F610">
+        <v>7929</v>
+      </c>
+      <c r="G610">
+        <v>0.5588000000000001</v>
+      </c>
+      <c r="H610">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="2">
+        <v>44087</v>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C611">
+        <v>225</v>
+      </c>
+      <c r="D611">
+        <v>0.4493888312</v>
+      </c>
+      <c r="E611">
+        <v>2</v>
+      </c>
+      <c r="F611">
+        <v>78</v>
+      </c>
+      <c r="G611">
+        <v>0.55</v>
+      </c>
+      <c r="H611">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="2">
+        <v>44087</v>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C612">
+        <v>6439</v>
+      </c>
+      <c r="D612">
+        <v>0.1286</v>
+      </c>
+      <c r="E612">
+        <v>-1</v>
+      </c>
+      <c r="F612">
+        <v>7</v>
+      </c>
+      <c r="G612">
+        <v>0.05</v>
+      </c>
+      <c r="H612">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="2">
+        <v>44087</v>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C613">
+        <v>14529</v>
+      </c>
+      <c r="D613">
+        <v>0.2902</v>
+      </c>
+      <c r="E613">
+        <v>148</v>
+      </c>
+      <c r="F613">
+        <v>4281</v>
+      </c>
+      <c r="G613">
+        <v>0.3017</v>
+      </c>
+      <c r="H613">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1324"/>
+  <dimension ref="A1:H1336"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -37452,6 +37452,342 @@
         <v>55</v>
       </c>
     </row>
+    <row r="1325">
+      <c r="A1325" s="2">
+        <v>44088</v>
+      </c>
+      <c r="B1325" t="inlineStr">
+        <is>
+          <t>&lt;1 year</t>
+        </is>
+      </c>
+      <c r="C1325">
+        <v>160</v>
+      </c>
+      <c r="D1325">
+        <v>0.00319310289774088</v>
+      </c>
+      <c r="E1325">
+        <v>0</v>
+      </c>
+      <c r="F1325">
+        <v>3</v>
+      </c>
+      <c r="G1325">
+        <v>0.0002111040743086342</v>
+      </c>
+      <c r="H1325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" s="2">
+        <v>44088</v>
+      </c>
+      <c r="B1326" t="inlineStr">
+        <is>
+          <t>1-9 years</t>
+        </is>
+      </c>
+      <c r="C1326">
+        <v>771</v>
+      </c>
+      <c r="D1326">
+        <v>0.01538676458848886</v>
+      </c>
+      <c r="E1326">
+        <v>2</v>
+      </c>
+      <c r="F1326">
+        <v>6</v>
+      </c>
+      <c r="G1326">
+        <v>0.0004222081486172683</v>
+      </c>
+      <c r="H1326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" s="2">
+        <v>44088</v>
+      </c>
+      <c r="B1327" t="inlineStr">
+        <is>
+          <t>10-19 years</t>
+        </is>
+      </c>
+      <c r="C1327">
+        <v>2046</v>
+      </c>
+      <c r="D1327">
+        <v>0.0408318033048615</v>
+      </c>
+      <c r="E1327">
+        <v>5</v>
+      </c>
+      <c r="F1327">
+        <v>16</v>
+      </c>
+      <c r="G1327">
+        <v>0.001125888396312716</v>
+      </c>
+      <c r="H1327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" s="2">
+        <v>44088</v>
+      </c>
+      <c r="B1328" t="inlineStr">
+        <is>
+          <t>20-29 years</t>
+        </is>
+      </c>
+      <c r="C1328">
+        <v>9608</v>
+      </c>
+      <c r="D1328">
+        <v>0.1917458290093398</v>
+      </c>
+      <c r="E1328">
+        <v>11</v>
+      </c>
+      <c r="F1328">
+        <v>94</v>
+      </c>
+      <c r="G1328">
+        <v>0.006614594328337204</v>
+      </c>
+      <c r="H1328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" s="2">
+        <v>44088</v>
+      </c>
+      <c r="B1329" t="inlineStr">
+        <is>
+          <t>30-39 years</t>
+        </is>
+      </c>
+      <c r="C1329">
+        <v>10595</v>
+      </c>
+      <c r="D1329">
+        <v>0.2114432825097789</v>
+      </c>
+      <c r="E1329">
+        <v>4</v>
+      </c>
+      <c r="F1329">
+        <v>265</v>
+      </c>
+      <c r="G1329">
+        <v>0.01864752656392935</v>
+      </c>
+      <c r="H1329">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" s="2">
+        <v>44088</v>
+      </c>
+      <c r="B1330" t="inlineStr">
+        <is>
+          <t>40-49 years</t>
+        </is>
+      </c>
+      <c r="C1330">
+        <v>9629</v>
+      </c>
+      <c r="D1330">
+        <v>0.1921649237646683</v>
+      </c>
+      <c r="E1330">
+        <v>7</v>
+      </c>
+      <c r="F1330">
+        <v>790</v>
+      </c>
+      <c r="G1330">
+        <v>0.05559073956794033</v>
+      </c>
+      <c r="H1330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" s="2">
+        <v>44088</v>
+      </c>
+      <c r="B1331" t="inlineStr">
+        <is>
+          <t>50-59 years</t>
+        </is>
+      </c>
+      <c r="C1331">
+        <v>8427</v>
+      </c>
+      <c r="D1331">
+        <v>0.16817673824539</v>
+      </c>
+      <c r="E1331">
+        <v>3</v>
+      </c>
+      <c r="F1331">
+        <v>1710</v>
+      </c>
+      <c r="G1331">
+        <v>0.1203293223559215</v>
+      </c>
+      <c r="H1331">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" s="2">
+        <v>44088</v>
+      </c>
+      <c r="B1332" t="inlineStr">
+        <is>
+          <t>60-64 years</t>
+        </is>
+      </c>
+      <c r="C1332">
+        <v>3154</v>
+      </c>
+      <c r="D1332">
+        <v>0.06294404087171709</v>
+      </c>
+      <c r="E1332">
+        <v>2</v>
+      </c>
+      <c r="F1332">
+        <v>1352</v>
+      </c>
+      <c r="G1332">
+        <v>0.09513756948842446</v>
+      </c>
+      <c r="H1332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1333">
+      <c r="A1333" s="2">
+        <v>44088</v>
+      </c>
+      <c r="B1333" t="inlineStr">
+        <is>
+          <t>65-69 years</t>
+        </is>
+      </c>
+      <c r="C1333">
+        <v>2189</v>
+      </c>
+      <c r="D1333">
+        <v>0.04368563901971741</v>
+      </c>
+      <c r="E1333">
+        <v>3</v>
+      </c>
+      <c r="F1333">
+        <v>1673</v>
+      </c>
+      <c r="G1333">
+        <v>0.1177257054394483</v>
+      </c>
+      <c r="H1333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" s="2">
+        <v>44088</v>
+      </c>
+      <c r="B1334" t="inlineStr">
+        <is>
+          <t>70-74 years</t>
+        </is>
+      </c>
+      <c r="C1334">
+        <v>1291</v>
+      </c>
+      <c r="D1334">
+        <v>0.02576434900614672</v>
+      </c>
+      <c r="E1334">
+        <v>1</v>
+      </c>
+      <c r="F1334">
+        <v>1852</v>
+      </c>
+      <c r="G1334">
+        <v>0.1303215818731968</v>
+      </c>
+      <c r="H1334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" s="2">
+        <v>44088</v>
+      </c>
+      <c r="B1335" t="inlineStr">
+        <is>
+          <t>75-79 years</t>
+        </is>
+      </c>
+      <c r="C1335">
+        <v>845</v>
+      </c>
+      <c r="D1335">
+        <v>0.01686357467869402</v>
+      </c>
+      <c r="E1335">
+        <v>2</v>
+      </c>
+      <c r="F1335">
+        <v>1734</v>
+      </c>
+      <c r="G1335">
+        <v>0.1220181549503906</v>
+      </c>
+      <c r="H1335">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="A1336" s="2">
+        <v>44088</v>
+      </c>
+      <c r="B1336" t="inlineStr">
+        <is>
+          <t>80+ years</t>
+        </is>
+      </c>
+      <c r="C1336">
+        <v>1371</v>
+      </c>
+      <c r="D1336">
+        <v>0.02736090045501716</v>
+      </c>
+      <c r="E1336">
+        <v>0</v>
+      </c>
+      <c r="F1336">
+        <v>4716</v>
+      </c>
+      <c r="G1336">
+        <v>0.3318556048131729</v>
+      </c>
+      <c r="H1336">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -37459,7 +37795,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H307"/>
+  <dimension ref="A1:H310"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -46078,6 +46414,90 @@
         <v>0</v>
       </c>
     </row>
+    <row r="308">
+      <c r="A308" s="2">
+        <v>44088</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C308">
+        <v>17008</v>
+      </c>
+      <c r="D308">
+        <v>0.3394268380298555</v>
+      </c>
+      <c r="E308">
+        <v>29</v>
+      </c>
+      <c r="F308">
+        <v>5919</v>
+      </c>
+      <c r="G308">
+        <v>0.4165083386109352</v>
+      </c>
+      <c r="H308">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="2">
+        <v>44088</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C309">
+        <v>32164</v>
+      </c>
+      <c r="D309">
+        <v>0.6418935100183604</v>
+      </c>
+      <c r="E309">
+        <v>19</v>
+      </c>
+      <c r="F309">
+        <v>8292</v>
+      </c>
+      <c r="G309">
+        <v>0.5834916613890648</v>
+      </c>
+      <c r="H309">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="2">
+        <v>44088</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C310">
+        <v>936</v>
+      </c>
+      <c r="D310">
+        <v>0.01867965195178415</v>
+      </c>
+      <c r="E310">
+        <v>-8</v>
+      </c>
+      <c r="F310">
+        <v>0</v>
+      </c>
+      <c r="G310">
+        <v>0</v>
+      </c>
+      <c r="H310">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -46085,7 +46505,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H613"/>
+  <dimension ref="A1:H619"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -63272,6 +63692,174 @@
         <v>52</v>
       </c>
     </row>
+    <row r="614">
+      <c r="A614" s="2">
+        <v>44088</v>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C614">
+        <v>772</v>
+      </c>
+      <c r="D614">
+        <v>0.01540672148159974</v>
+      </c>
+      <c r="E614">
+        <v>1</v>
+      </c>
+      <c r="F614">
+        <v>276</v>
+      </c>
+      <c r="G614">
+        <v>0.01942157483639434</v>
+      </c>
+      <c r="H614">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="2">
+        <v>44088</v>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C615">
+        <v>8148</v>
+      </c>
+      <c r="D615">
+        <v>0.1626087650674543</v>
+      </c>
+      <c r="E615">
+        <v>5</v>
+      </c>
+      <c r="F615">
+        <v>1622</v>
+      </c>
+      <c r="G615">
+        <v>0.1141369361762015</v>
+      </c>
+      <c r="H615">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="2">
+        <v>44088</v>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="C616">
+        <v>19979</v>
+      </c>
+      <c r="D616">
+        <v>0.3987187674622815</v>
+      </c>
+      <c r="E616">
+        <v>18</v>
+      </c>
+      <c r="F616">
+        <v>7944</v>
+      </c>
+      <c r="G616">
+        <v>0.5590035887692633</v>
+      </c>
+      <c r="H616">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="2">
+        <v>44088</v>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C617">
+        <v>223</v>
+      </c>
+      <c r="D617">
+        <v>0.004450387163726351</v>
+      </c>
+      <c r="E617">
+        <v>-2</v>
+      </c>
+      <c r="F617">
+        <v>78</v>
+      </c>
+      <c r="G617">
+        <v>0.005488705932024488</v>
+      </c>
+      <c r="H617">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="2">
+        <v>44088</v>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C618">
+        <v>6445</v>
+      </c>
+      <c r="D618">
+        <v>0.1286221760996248</v>
+      </c>
+      <c r="E618">
+        <v>6</v>
+      </c>
+      <c r="F618">
+        <v>7</v>
+      </c>
+      <c r="G618">
+        <v>0.000492576173386813</v>
+      </c>
+      <c r="H618">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="2">
+        <v>44088</v>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C619">
+        <v>14541</v>
+      </c>
+      <c r="D619">
+        <v>0.2901931827253133</v>
+      </c>
+      <c r="E619">
+        <v>12</v>
+      </c>
+      <c r="F619">
+        <v>4284</v>
+      </c>
+      <c r="G619">
+        <v>0.3014566181127296</v>
+      </c>
+      <c r="H619">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1336"/>
+  <dimension ref="A1:H1348"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -24448,7 +24448,7 @@
         <v>0.003565106828550772</v>
       </c>
       <c r="E860">
-        <v>-1</v>
+        <v>-17</v>
       </c>
       <c r="F860">
         <v>2</v>
@@ -24457,7 +24457,7 @@
         <v>0.000239721922569819</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="861">
@@ -24476,7 +24476,7 @@
         <v>0.0161551694049014</v>
       </c>
       <c r="E861">
-        <v>5</v>
+        <v>-129</v>
       </c>
       <c r="F861">
         <v>5</v>
@@ -24485,7 +24485,7 @@
         <v>0.0005993048064245475</v>
       </c>
       <c r="H861">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="862">
@@ -24504,7 +24504,7 @@
         <v>0.0413851561915684</v>
       </c>
       <c r="E862">
-        <v>11</v>
+        <v>-390</v>
       </c>
       <c r="F862">
         <v>8</v>
@@ -24513,7 +24513,7 @@
         <v>0.0009588876902792761</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="863">
@@ -24532,7 +24532,7 @@
         <v>0.185011592829897</v>
       </c>
       <c r="E863">
-        <v>120</v>
+        <v>-2212</v>
       </c>
       <c r="F863">
         <v>63</v>
@@ -24541,7 +24541,7 @@
         <v>0.007551240560949299</v>
       </c>
       <c r="H863">
-        <v>2</v>
+        <v>-31</v>
       </c>
     </row>
     <row r="864">
@@ -24560,7 +24560,7 @@
         <v>0.2015407244895415</v>
       </c>
       <c r="E864">
-        <v>156</v>
+        <v>-2559</v>
       </c>
       <c r="F864">
         <v>174</v>
@@ -24569,7 +24569,7 @@
         <v>0.02085580726357425</v>
       </c>
       <c r="H864">
-        <v>6</v>
+        <v>-93</v>
       </c>
     </row>
     <row r="865">
@@ -24588,7 +24588,7 @@
         <v>0.1871307122734412</v>
       </c>
       <c r="E865">
-        <v>108</v>
+        <v>-2165</v>
       </c>
       <c r="F865">
         <v>455</v>
@@ -24597,7 +24597,7 @@
         <v>0.05453673738463383</v>
       </c>
       <c r="H865">
-        <v>16</v>
+        <v>-346</v>
       </c>
     </row>
     <row r="866">
@@ -24616,7 +24616,7 @@
         <v>0.1710503353194884</v>
       </c>
       <c r="E866">
-        <v>99</v>
+        <v>-1597</v>
       </c>
       <c r="F866">
         <v>961</v>
@@ -24625,7 +24625,7 @@
         <v>0.115186383794798</v>
       </c>
       <c r="H866">
-        <v>39</v>
+        <v>-769</v>
       </c>
     </row>
     <row r="867">
@@ -24644,7 +24644,7 @@
         <v>0.06671486624616689</v>
       </c>
       <c r="E867">
-        <v>30</v>
+        <v>-491</v>
       </c>
       <c r="F867">
         <v>784</v>
@@ -24653,7 +24653,7 @@
         <v>0.09397099364736905</v>
       </c>
       <c r="H867">
-        <v>14</v>
+        <v>-574</v>
       </c>
     </row>
     <row r="868">
@@ -24672,7 +24672,7 @@
         <v>0.04759292962030366</v>
       </c>
       <c r="E868">
-        <v>12</v>
+        <v>-289</v>
       </c>
       <c r="F868">
         <v>956</v>
@@ -24681,7 +24681,7 @@
         <v>0.1145870789883735</v>
       </c>
       <c r="H868">
-        <v>24</v>
+        <v>-729</v>
       </c>
     </row>
     <row r="869">
@@ -24700,7 +24700,7 @@
         <v>0.02844606217745756</v>
       </c>
       <c r="E869">
-        <v>10</v>
+        <v>-155</v>
       </c>
       <c r="F869">
         <v>1079</v>
@@ -24709,7 +24709,7 @@
         <v>0.1293299772264174</v>
       </c>
       <c r="H869">
-        <v>34</v>
+        <v>-796</v>
       </c>
     </row>
     <row r="870">
@@ -24728,7 +24728,7 @@
         <v>0.01899728254094887</v>
       </c>
       <c r="E870">
-        <v>4</v>
+        <v>-85</v>
       </c>
       <c r="F870">
         <v>1039</v>
@@ -24737,7 +24737,7 @@
         <v>0.124535538775021</v>
       </c>
       <c r="H870">
-        <v>35</v>
+        <v>-713</v>
       </c>
     </row>
     <row r="871">
@@ -24756,7 +24756,7 @@
         <v>0.03163720675126524</v>
       </c>
       <c r="E871">
-        <v>2</v>
+        <v>-103</v>
       </c>
       <c r="F871">
         <v>2817</v>
@@ -24765,7 +24765,7 @@
         <v>0.3376483279395901</v>
       </c>
       <c r="H871">
-        <v>76</v>
+        <v>-1939</v>
       </c>
     </row>
     <row r="872">
@@ -37786,6 +37786,342 @@
       </c>
       <c r="H1336">
         <v>5</v>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B1337" t="inlineStr">
+        <is>
+          <t>&lt;1 year</t>
+        </is>
+      </c>
+      <c r="C1337">
+        <v>160</v>
+      </c>
+      <c r="D1337">
+        <v>0.003181293991330974</v>
+      </c>
+      <c r="E1337">
+        <v>16</v>
+      </c>
+      <c r="F1337">
+        <v>3</v>
+      </c>
+      <c r="G1337">
+        <v>0.0002091612633340306</v>
+      </c>
+      <c r="H1337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B1338" t="inlineStr">
+        <is>
+          <t>1-9 years</t>
+        </is>
+      </c>
+      <c r="C1338">
+        <v>777</v>
+      </c>
+      <c r="D1338">
+        <v>0.01544915894540104</v>
+      </c>
+      <c r="E1338">
+        <v>134</v>
+      </c>
+      <c r="F1338">
+        <v>6</v>
+      </c>
+      <c r="G1338">
+        <v>0.0004183225266680611</v>
+      </c>
+      <c r="H1338">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B1339" t="inlineStr">
+        <is>
+          <t>10-19 years</t>
+        </is>
+      </c>
+      <c r="C1339">
+        <v>2050</v>
+      </c>
+      <c r="D1339">
+        <v>0.0407603292639281</v>
+      </c>
+      <c r="E1339">
+        <v>401</v>
+      </c>
+      <c r="F1339">
+        <v>16</v>
+      </c>
+      <c r="G1339">
+        <v>0.001115526737781496</v>
+      </c>
+      <c r="H1339">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B1340" t="inlineStr">
+        <is>
+          <t>20-29 years</t>
+        </is>
+      </c>
+      <c r="C1340">
+        <v>9633</v>
+      </c>
+      <c r="D1340">
+        <v>0.1915337813655705</v>
+      </c>
+      <c r="E1340">
+        <v>2332</v>
+      </c>
+      <c r="F1340">
+        <v>94</v>
+      </c>
+      <c r="G1340">
+        <v>0.00655371958446629</v>
+      </c>
+      <c r="H1340">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B1341" t="inlineStr">
+        <is>
+          <t>30-39 years</t>
+        </is>
+      </c>
+      <c r="C1341">
+        <v>10643</v>
+      </c>
+      <c r="D1341">
+        <v>0.2116156996858472</v>
+      </c>
+      <c r="E1341">
+        <v>2715</v>
+      </c>
+      <c r="F1341">
+        <v>267</v>
+      </c>
+      <c r="G1341">
+        <v>0.01861535243672872</v>
+      </c>
+      <c r="H1341">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B1342" t="inlineStr">
+        <is>
+          <t>40-49 years</t>
+        </is>
+      </c>
+      <c r="C1342">
+        <v>9671</v>
+      </c>
+      <c r="D1342">
+        <v>0.1922893386885116</v>
+      </c>
+      <c r="E1342">
+        <v>2273</v>
+      </c>
+      <c r="F1342">
+        <v>801</v>
+      </c>
+      <c r="G1342">
+        <v>0.05584605731018615</v>
+      </c>
+      <c r="H1342">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="1343">
+      <c r="A1343" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B1343" t="inlineStr">
+        <is>
+          <t>50-59 years</t>
+        </is>
+      </c>
+      <c r="C1343">
+        <v>8458</v>
+      </c>
+      <c r="D1343">
+        <v>0.1681711536167336</v>
+      </c>
+      <c r="E1343">
+        <v>1696</v>
+      </c>
+      <c r="F1343">
+        <v>1730</v>
+      </c>
+      <c r="G1343">
+        <v>0.1206163285226243</v>
+      </c>
+      <c r="H1343">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="A1344" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B1344" t="inlineStr">
+        <is>
+          <t>60-64 years</t>
+        </is>
+      </c>
+      <c r="C1344">
+        <v>3167</v>
+      </c>
+      <c r="D1344">
+        <v>0.06296973794090746</v>
+      </c>
+      <c r="E1344">
+        <v>521</v>
+      </c>
+      <c r="F1344">
+        <v>1358</v>
+      </c>
+      <c r="G1344">
+        <v>0.09468033186920449</v>
+      </c>
+      <c r="H1344">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="1345">
+      <c r="A1345" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B1345" t="inlineStr">
+        <is>
+          <t>65-69 years</t>
+        </is>
+      </c>
+      <c r="C1345">
+        <v>2198</v>
+      </c>
+      <c r="D1345">
+        <v>0.04370302620590925</v>
+      </c>
+      <c r="E1345">
+        <v>301</v>
+      </c>
+      <c r="F1345">
+        <v>1685</v>
+      </c>
+      <c r="G1345">
+        <v>0.1174789095726138</v>
+      </c>
+      <c r="H1345">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B1346" t="inlineStr">
+        <is>
+          <t>70-74 years</t>
+        </is>
+      </c>
+      <c r="C1346">
+        <v>1296</v>
+      </c>
+      <c r="D1346">
+        <v>0.02576848132978089</v>
+      </c>
+      <c r="E1346">
+        <v>165</v>
+      </c>
+      <c r="F1346">
+        <v>1875</v>
+      </c>
+      <c r="G1346">
+        <v>0.1307257895837691</v>
+      </c>
+      <c r="H1346">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B1347" t="inlineStr">
+        <is>
+          <t>75-79 years</t>
+        </is>
+      </c>
+      <c r="C1347">
+        <v>847</v>
+      </c>
+      <c r="D1347">
+        <v>0.01684097506660834</v>
+      </c>
+      <c r="E1347">
+        <v>89</v>
+      </c>
+      <c r="F1347">
+        <v>1752</v>
+      </c>
+      <c r="G1347">
+        <v>0.1221501777870738</v>
+      </c>
+      <c r="H1347">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1348">
+      <c r="A1348" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B1348" t="inlineStr">
+        <is>
+          <t>80+ years</t>
+        </is>
+      </c>
+      <c r="C1348">
+        <v>1372</v>
+      </c>
+      <c r="D1348">
+        <v>0.0272795959756631</v>
+      </c>
+      <c r="E1348">
+        <v>105</v>
+      </c>
+      <c r="F1348">
+        <v>4756</v>
+      </c>
+      <c r="G1348">
+        <v>0.3315903228055497</v>
+      </c>
+      <c r="H1348">
+        <v>2015</v>
       </c>
     </row>
   </sheetData>
@@ -37795,7 +38131,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H310"/>
+  <dimension ref="A1:H313"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -43406,7 +43742,7 @@
         <v>0.3732641918675675</v>
       </c>
       <c r="E200">
-        <v>71</v>
+        <v>-2088</v>
       </c>
       <c r="F200">
         <v>3401</v>
@@ -43415,7 +43751,7 @@
         <v>0.4076471293299772</v>
       </c>
       <c r="H200">
-        <v>94</v>
+        <v>-2568</v>
       </c>
     </row>
     <row r="201">
@@ -43434,7 +43770,7 @@
         <v>0.6045723118346589</v>
       </c>
       <c r="E201">
-        <v>474</v>
+        <v>-8052</v>
       </c>
       <c r="F201">
         <v>4942</v>
@@ -43443,7 +43779,7 @@
         <v>0.5923528706700227</v>
       </c>
       <c r="H201">
-        <v>153</v>
+        <v>-3432</v>
       </c>
     </row>
     <row r="202">
@@ -43462,7 +43798,7 @@
         <v>0.02216349629777368</v>
       </c>
       <c r="E202">
-        <v>11</v>
+        <v>-43</v>
       </c>
       <c r="F202">
         <v>0</v>
@@ -46495,6 +46831,90 @@
         <v>0</v>
       </c>
       <c r="H310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C311">
+        <v>17060</v>
+      </c>
+      <c r="D311">
+        <v>0.3392054718256651</v>
+      </c>
+      <c r="E311">
+        <v>2159</v>
+      </c>
+      <c r="F311">
+        <v>5969</v>
+      </c>
+      <c r="G311">
+        <v>0.4161611936136094</v>
+      </c>
+      <c r="H311">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C312">
+        <v>32302</v>
+      </c>
+      <c r="D312">
+        <v>0.642263490674832</v>
+      </c>
+      <c r="E312">
+        <v>8526</v>
+      </c>
+      <c r="F312">
+        <v>8374</v>
+      </c>
+      <c r="G312">
+        <v>0.5838388063863905</v>
+      </c>
+      <c r="H312">
+        <v>3585</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C313">
+        <v>932</v>
+      </c>
+      <c r="D313">
+        <v>0.01853103749950292</v>
+      </c>
+      <c r="E313">
+        <v>54</v>
+      </c>
+      <c r="F313">
+        <v>0</v>
+      </c>
+      <c r="G313">
+        <v>0</v>
+      </c>
+      <c r="H313">
         <v>0</v>
       </c>
     </row>
@@ -46505,7 +46925,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H619"/>
+  <dimension ref="A1:H625"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -57660,7 +58080,7 @@
         <v>0.01792525741068535</v>
       </c>
       <c r="E398">
-        <v>0</v>
+        <v>-56</v>
       </c>
       <c r="F398">
         <v>190</v>
@@ -57669,7 +58089,7 @@
         <v>0.02277358264413281</v>
       </c>
       <c r="H398">
-        <v>3</v>
+        <v>-87</v>
       </c>
     </row>
     <row r="399">
@@ -57688,7 +58108,7 @@
         <v>0.1489865622896462</v>
       </c>
       <c r="E399">
-        <v>151</v>
+        <v>-2200</v>
       </c>
       <c r="F399">
         <v>1070</v>
@@ -57697,7 +58117,7 @@
         <v>0.1282512285748532</v>
       </c>
       <c r="H399">
-        <v>29</v>
+        <v>-560</v>
       </c>
     </row>
     <row r="400">
@@ -57716,7 +58136,7 @@
         <v>0.3958764428710329</v>
       </c>
       <c r="E400">
-        <v>206</v>
+        <v>-4181</v>
       </c>
       <c r="F400">
         <v>4311</v>
@@ -57725,7 +58145,7 @@
         <v>0.5167206040992449</v>
       </c>
       <c r="H400">
-        <v>142</v>
+        <v>-3716</v>
       </c>
     </row>
     <row r="401">
@@ -57744,7 +58164,7 @@
         <v>0.004362892972002693</v>
       </c>
       <c r="E401">
-        <v>0</v>
+        <v>-49</v>
       </c>
       <c r="F401">
         <v>60</v>
@@ -57753,7 +58173,7 @@
         <v>0.00719165767709457</v>
       </c>
       <c r="H401">
-        <v>4</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="402">
@@ -57772,7 +58192,7 @@
         <v>0.1602552915659046</v>
       </c>
       <c r="E402">
-        <v>17</v>
+        <v>-16</v>
       </c>
       <c r="F402">
         <v>4</v>
@@ -57781,7 +58201,7 @@
         <v>0.000479443845139638</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="403">
@@ -57800,7 +58220,7 @@
         <v>0.2725935528907282</v>
       </c>
       <c r="E403">
-        <v>182</v>
+        <v>-3681</v>
       </c>
       <c r="F403">
         <v>2708</v>
@@ -57809,7 +58229,7 @@
         <v>0.324583483159535</v>
       </c>
       <c r="H403">
-        <v>69</v>
+        <v>-1614</v>
       </c>
     </row>
     <row r="404">
@@ -63858,6 +64278,174 @@
       </c>
       <c r="H619">
         <v>3</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C620">
+        <v>775</v>
+      </c>
+      <c r="D620">
+        <v>0.01540939277050941</v>
+      </c>
+      <c r="E620">
+        <v>56</v>
+      </c>
+      <c r="F620">
+        <v>277</v>
+      </c>
+      <c r="G620">
+        <v>0.01931255664784215</v>
+      </c>
+      <c r="H620">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C621">
+        <v>8176</v>
+      </c>
+      <c r="D621">
+        <v>0.1625641229570128</v>
+      </c>
+      <c r="E621">
+        <v>2351</v>
+      </c>
+      <c r="F621">
+        <v>1630</v>
+      </c>
+      <c r="G621">
+        <v>0.1136442864114899</v>
+      </c>
+      <c r="H621">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="C622">
+        <v>20060</v>
+      </c>
+      <c r="D622">
+        <v>0.3988547341631208</v>
+      </c>
+      <c r="E622">
+        <v>4387</v>
+      </c>
+      <c r="F622">
+        <v>8027</v>
+      </c>
+      <c r="G622">
+        <v>0.5596458202607544</v>
+      </c>
+      <c r="H622">
+        <v>3858</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C623">
+        <v>224</v>
+      </c>
+      <c r="D623">
+        <v>0.004453811587863363</v>
+      </c>
+      <c r="E623">
+        <v>49</v>
+      </c>
+      <c r="F623">
+        <v>80</v>
+      </c>
+      <c r="G623">
+        <v>0.005577633688907481</v>
+      </c>
+      <c r="H623">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C624">
+        <v>6444</v>
+      </c>
+      <c r="D624">
+        <v>0.128126615500855</v>
+      </c>
+      <c r="E624">
+        <v>33</v>
+      </c>
+      <c r="F624">
+        <v>7</v>
+      </c>
+      <c r="G624">
+        <v>0.0004880429477794046</v>
+      </c>
+      <c r="H624">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C625">
+        <v>14615</v>
+      </c>
+      <c r="D625">
+        <v>0.2905913230206387</v>
+      </c>
+      <c r="E625">
+        <v>3863</v>
+      </c>
+      <c r="F625">
+        <v>4322</v>
+      </c>
+      <c r="G625">
+        <v>0.3013316600432267</v>
+      </c>
+      <c r="H625">
+        <v>1683</v>
       </c>
     </row>
   </sheetData>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1348"/>
+  <dimension ref="A1:H1360"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -24448,7 +24448,7 @@
         <v>0.003565106828550772</v>
       </c>
       <c r="E860">
-        <v>-17</v>
+        <v>-23</v>
       </c>
       <c r="F860">
         <v>2</v>
@@ -24476,7 +24476,7 @@
         <v>0.0161551694049014</v>
       </c>
       <c r="E861">
-        <v>-129</v>
+        <v>-141</v>
       </c>
       <c r="F861">
         <v>5</v>
@@ -24504,7 +24504,7 @@
         <v>0.0413851561915684</v>
       </c>
       <c r="E862">
-        <v>-390</v>
+        <v>-421</v>
       </c>
       <c r="F862">
         <v>8</v>
@@ -24532,7 +24532,7 @@
         <v>0.185011592829897</v>
       </c>
       <c r="E863">
-        <v>-2212</v>
+        <v>-2307</v>
       </c>
       <c r="F863">
         <v>63</v>
@@ -24560,7 +24560,7 @@
         <v>0.2015407244895415</v>
       </c>
       <c r="E864">
-        <v>-2559</v>
+        <v>-2692</v>
       </c>
       <c r="F864">
         <v>174</v>
@@ -24569,7 +24569,7 @@
         <v>0.02085580726357425</v>
       </c>
       <c r="H864">
-        <v>-93</v>
+        <v>-97</v>
       </c>
     </row>
     <row r="865">
@@ -24588,7 +24588,7 @@
         <v>0.1871307122734412</v>
       </c>
       <c r="E865">
-        <v>-2165</v>
+        <v>-2271</v>
       </c>
       <c r="F865">
         <v>455</v>
@@ -24597,7 +24597,7 @@
         <v>0.05453673738463383</v>
       </c>
       <c r="H865">
-        <v>-346</v>
+        <v>-352</v>
       </c>
     </row>
     <row r="866">
@@ -24616,7 +24616,7 @@
         <v>0.1710503353194884</v>
       </c>
       <c r="E866">
-        <v>-1597</v>
+        <v>-1697</v>
       </c>
       <c r="F866">
         <v>961</v>
@@ -24625,7 +24625,7 @@
         <v>0.115186383794798</v>
       </c>
       <c r="H866">
-        <v>-769</v>
+        <v>-785</v>
       </c>
     </row>
     <row r="867">
@@ -24644,7 +24644,7 @@
         <v>0.06671486624616689</v>
       </c>
       <c r="E867">
-        <v>-491</v>
+        <v>-528</v>
       </c>
       <c r="F867">
         <v>784</v>
@@ -24653,7 +24653,7 @@
         <v>0.09397099364736905</v>
       </c>
       <c r="H867">
-        <v>-574</v>
+        <v>-589</v>
       </c>
     </row>
     <row r="868">
@@ -24672,7 +24672,7 @@
         <v>0.04759292962030366</v>
       </c>
       <c r="E868">
-        <v>-289</v>
+        <v>-311</v>
       </c>
       <c r="F868">
         <v>956</v>
@@ -24681,7 +24681,7 @@
         <v>0.1145870789883735</v>
       </c>
       <c r="H868">
-        <v>-729</v>
+        <v>-739</v>
       </c>
     </row>
     <row r="869">
@@ -24700,7 +24700,7 @@
         <v>0.02844606217745756</v>
       </c>
       <c r="E869">
-        <v>-155</v>
+        <v>-171</v>
       </c>
       <c r="F869">
         <v>1079</v>
@@ -24709,7 +24709,7 @@
         <v>0.1293299772264174</v>
       </c>
       <c r="H869">
-        <v>-796</v>
+        <v>-810</v>
       </c>
     </row>
     <row r="870">
@@ -24728,7 +24728,7 @@
         <v>0.01899728254094887</v>
       </c>
       <c r="E870">
-        <v>-85</v>
+        <v>-95</v>
       </c>
       <c r="F870">
         <v>1039</v>
@@ -24737,7 +24737,7 @@
         <v>0.124535538775021</v>
       </c>
       <c r="H870">
-        <v>-713</v>
+        <v>-735</v>
       </c>
     </row>
     <row r="871">
@@ -24756,7 +24756,7 @@
         <v>0.03163720675126524</v>
       </c>
       <c r="E871">
-        <v>-103</v>
+        <v>-110</v>
       </c>
       <c r="F871">
         <v>2817</v>
@@ -24765,7 +24765,7 @@
         <v>0.3376483279395901</v>
       </c>
       <c r="H871">
-        <v>-1939</v>
+        <v>-1987</v>
       </c>
     </row>
     <row r="872">
@@ -38122,6 +38122,342 @@
       </c>
       <c r="H1348">
         <v>2015</v>
+      </c>
+    </row>
+    <row r="1349">
+      <c r="A1349" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B1349" t="inlineStr">
+        <is>
+          <t>&lt;1 year</t>
+        </is>
+      </c>
+      <c r="C1349">
+        <v>166</v>
+      </c>
+      <c r="D1349">
+        <v>0.003263412428489984</v>
+      </c>
+      <c r="E1349">
+        <v>6</v>
+      </c>
+      <c r="F1349">
+        <v>3</v>
+      </c>
+      <c r="G1349">
+        <v>0.0002072109407376709</v>
+      </c>
+      <c r="H1349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1350">
+      <c r="A1350" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B1350" t="inlineStr">
+        <is>
+          <t>1-9 years</t>
+        </is>
+      </c>
+      <c r="C1350">
+        <v>789</v>
+      </c>
+      <c r="D1350">
+        <v>0.01551103859083492</v>
+      </c>
+      <c r="E1350">
+        <v>12</v>
+      </c>
+      <c r="F1350">
+        <v>6</v>
+      </c>
+      <c r="G1350">
+        <v>0.0004144218814753419</v>
+      </c>
+      <c r="H1350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B1351" t="inlineStr">
+        <is>
+          <t>10-19 years</t>
+        </is>
+      </c>
+      <c r="C1351">
+        <v>2081</v>
+      </c>
+      <c r="D1351">
+        <v>0.04091061002221479</v>
+      </c>
+      <c r="E1351">
+        <v>31</v>
+      </c>
+      <c r="F1351">
+        <v>16</v>
+      </c>
+      <c r="G1351">
+        <v>0.001105125017267578</v>
+      </c>
+      <c r="H1351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1352">
+      <c r="A1352" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B1352" t="inlineStr">
+        <is>
+          <t>20-29 years</t>
+        </is>
+      </c>
+      <c r="C1352">
+        <v>9728</v>
+      </c>
+      <c r="D1352">
+        <v>0.191243831953919</v>
+      </c>
+      <c r="E1352">
+        <v>95</v>
+      </c>
+      <c r="F1352">
+        <v>94</v>
+      </c>
+      <c r="G1352">
+        <v>0.006492609476447023</v>
+      </c>
+      <c r="H1352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B1353" t="inlineStr">
+        <is>
+          <t>30-39 years</t>
+        </is>
+      </c>
+      <c r="C1353">
+        <v>10776</v>
+      </c>
+      <c r="D1353">
+        <v>0.211846580297639</v>
+      </c>
+      <c r="E1353">
+        <v>133</v>
+      </c>
+      <c r="F1353">
+        <v>271</v>
+      </c>
+      <c r="G1353">
+        <v>0.01871805497996961</v>
+      </c>
+      <c r="H1353">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1354">
+      <c r="A1354" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B1354" t="inlineStr">
+        <is>
+          <t>40-49 years</t>
+        </is>
+      </c>
+      <c r="C1354">
+        <v>9777</v>
+      </c>
+      <c r="D1354">
+        <v>0.192207128393654</v>
+      </c>
+      <c r="E1354">
+        <v>106</v>
+      </c>
+      <c r="F1354">
+        <v>807</v>
+      </c>
+      <c r="G1354">
+        <v>0.05573974305843349</v>
+      </c>
+      <c r="H1354">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1355">
+      <c r="A1355" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B1355" t="inlineStr">
+        <is>
+          <t>50-59 years</t>
+        </is>
+      </c>
+      <c r="C1355">
+        <v>8558</v>
+      </c>
+      <c r="D1355">
+        <v>0.1682426720663692</v>
+      </c>
+      <c r="E1355">
+        <v>100</v>
+      </c>
+      <c r="F1355">
+        <v>1746</v>
+      </c>
+      <c r="G1355">
+        <v>0.1205967675093245</v>
+      </c>
+      <c r="H1355">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B1356" t="inlineStr">
+        <is>
+          <t>60-64 years</t>
+        </is>
+      </c>
+      <c r="C1356">
+        <v>3204</v>
+      </c>
+      <c r="D1356">
+        <v>0.06298779169205969</v>
+      </c>
+      <c r="E1356">
+        <v>37</v>
+      </c>
+      <c r="F1356">
+        <v>1373</v>
+      </c>
+      <c r="G1356">
+        <v>0.09483354054427406</v>
+      </c>
+      <c r="H1356">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1357">
+      <c r="A1357" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B1357" t="inlineStr">
+        <is>
+          <t>65-69 years</t>
+        </is>
+      </c>
+      <c r="C1357">
+        <v>2220</v>
+      </c>
+      <c r="D1357">
+        <v>0.04364322645329978</v>
+      </c>
+      <c r="E1357">
+        <v>22</v>
+      </c>
+      <c r="F1357">
+        <v>1695</v>
+      </c>
+      <c r="G1357">
+        <v>0.1170741815167841</v>
+      </c>
+      <c r="H1357">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="A1358" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B1358" t="inlineStr">
+        <is>
+          <t>70-74 years</t>
+        </is>
+      </c>
+      <c r="C1358">
+        <v>1312</v>
+      </c>
+      <c r="D1358">
+        <v>0.02579275365167987</v>
+      </c>
+      <c r="E1358">
+        <v>16</v>
+      </c>
+      <c r="F1358">
+        <v>1889</v>
+      </c>
+      <c r="G1358">
+        <v>0.1304738223511535</v>
+      </c>
+      <c r="H1358">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1359">
+      <c r="A1359" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B1359" t="inlineStr">
+        <is>
+          <t>75-79 years</t>
+        </is>
+      </c>
+      <c r="C1359">
+        <v>857</v>
+      </c>
+      <c r="D1359">
+        <v>0.01684785813985492</v>
+      </c>
+      <c r="E1359">
+        <v>10</v>
+      </c>
+      <c r="F1359">
+        <v>1774</v>
+      </c>
+      <c r="G1359">
+        <v>0.1225307362895428</v>
+      </c>
+      <c r="H1359">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="A1360" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B1360" t="inlineStr">
+        <is>
+          <t>80+ years</t>
+        </is>
+      </c>
+      <c r="C1360">
+        <v>1379</v>
+      </c>
+      <c r="D1360">
+        <v>0.02710991408968487</v>
+      </c>
+      <c r="E1360">
+        <v>7</v>
+      </c>
+      <c r="F1360">
+        <v>4804</v>
+      </c>
+      <c r="G1360">
+        <v>0.3318137864345904</v>
+      </c>
+      <c r="H1360">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -38131,7 +38467,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H313"/>
+  <dimension ref="A1:H316"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -43742,7 +44078,7 @@
         <v>0.3732641918675675</v>
       </c>
       <c r="E200">
-        <v>-2088</v>
+        <v>-2267</v>
       </c>
       <c r="F200">
         <v>3401</v>
@@ -43751,7 +44087,7 @@
         <v>0.4076471293299772</v>
       </c>
       <c r="H200">
-        <v>-2568</v>
+        <v>-2633</v>
       </c>
     </row>
     <row r="201">
@@ -43770,7 +44106,7 @@
         <v>0.6045723118346589</v>
       </c>
       <c r="E201">
-        <v>-8052</v>
+        <v>-8448</v>
       </c>
       <c r="F201">
         <v>4942</v>
@@ -43779,7 +44115,7 @@
         <v>0.5923528706700227</v>
       </c>
       <c r="H201">
-        <v>-3432</v>
+        <v>-3502</v>
       </c>
     </row>
     <row r="202">
@@ -43798,7 +44134,7 @@
         <v>0.02216349629777368</v>
       </c>
       <c r="E202">
-        <v>-43</v>
+        <v>-41</v>
       </c>
       <c r="F202">
         <v>0</v>
@@ -46915,6 +47251,90 @@
         <v>0</v>
       </c>
       <c r="H313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C314">
+        <v>17239</v>
+      </c>
+      <c r="D314">
+        <v>0.3389034147875833</v>
+      </c>
+      <c r="E314">
+        <v>179</v>
+      </c>
+      <c r="F314">
+        <v>6034</v>
+      </c>
+      <c r="G314">
+        <v>0.4167702721370355</v>
+      </c>
+      <c r="H314">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C315">
+        <v>32698</v>
+      </c>
+      <c r="D315">
+        <v>0.6428136119684668</v>
+      </c>
+      <c r="E315">
+        <v>396</v>
+      </c>
+      <c r="F315">
+        <v>8444</v>
+      </c>
+      <c r="G315">
+        <v>0.5832297278629645</v>
+      </c>
+      <c r="H315">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C316">
+        <v>930</v>
+      </c>
+      <c r="D316">
+        <v>0.01828297324394991</v>
+      </c>
+      <c r="E316">
+        <v>-2</v>
+      </c>
+      <c r="F316">
+        <v>0</v>
+      </c>
+      <c r="G316">
+        <v>0</v>
+      </c>
+      <c r="H316">
         <v>0</v>
       </c>
     </row>
@@ -46925,7 +47345,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H625"/>
+  <dimension ref="A1:H631"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -58080,7 +58500,7 @@
         <v>0.01792525741068535</v>
       </c>
       <c r="E398">
-        <v>-56</v>
+        <v>-59</v>
       </c>
       <c r="F398">
         <v>190</v>
@@ -58089,7 +58509,7 @@
         <v>0.02277358264413281</v>
       </c>
       <c r="H398">
-        <v>-87</v>
+        <v>-89</v>
       </c>
     </row>
     <row r="399">
@@ -58108,7 +58528,7 @@
         <v>0.1489865622896462</v>
       </c>
       <c r="E399">
-        <v>-2200</v>
+        <v>-2321</v>
       </c>
       <c r="F399">
         <v>1070</v>
@@ -58117,7 +58537,7 @@
         <v>0.1282512285748532</v>
       </c>
       <c r="H399">
-        <v>-560</v>
+        <v>-573</v>
       </c>
     </row>
     <row r="400">
@@ -58136,7 +58556,7 @@
         <v>0.3958764428710329</v>
       </c>
       <c r="E400">
-        <v>-4181</v>
+        <v>-4372</v>
       </c>
       <c r="F400">
         <v>4311</v>
@@ -58145,7 +58565,7 @@
         <v>0.5167206040992449</v>
       </c>
       <c r="H400">
-        <v>-3716</v>
+        <v>-3785</v>
       </c>
     </row>
     <row r="401">
@@ -58164,7 +58584,7 @@
         <v>0.004362892972002693</v>
       </c>
       <c r="E401">
-        <v>-49</v>
+        <v>-56</v>
       </c>
       <c r="F401">
         <v>60</v>
@@ -58192,7 +58612,7 @@
         <v>0.1602552915659046</v>
       </c>
       <c r="E402">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="F402">
         <v>4</v>
@@ -58220,7 +58640,7 @@
         <v>0.2725935528907282</v>
       </c>
       <c r="E403">
-        <v>-3681</v>
+        <v>-3938</v>
       </c>
       <c r="F403">
         <v>2708</v>
@@ -58229,7 +58649,7 @@
         <v>0.324583483159535</v>
       </c>
       <c r="H403">
-        <v>-1614</v>
+        <v>-1665</v>
       </c>
     </row>
     <row r="404">
@@ -64446,6 +64866,174 @@
       </c>
       <c r="H625">
         <v>1683</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C626">
+        <v>778</v>
+      </c>
+      <c r="D626">
+        <v>0.01529478836966992</v>
+      </c>
+      <c r="E626">
+        <v>3</v>
+      </c>
+      <c r="F626">
+        <v>279</v>
+      </c>
+      <c r="G626">
+        <v>0.0192706174886034</v>
+      </c>
+      <c r="H626">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C627">
+        <v>8297</v>
+      </c>
+      <c r="D627">
+        <v>0.1631116440914542</v>
+      </c>
+      <c r="E627">
+        <v>121</v>
+      </c>
+      <c r="F627">
+        <v>1643</v>
+      </c>
+      <c r="G627">
+        <v>0.1134825252106645</v>
+      </c>
+      <c r="H627">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="C628">
+        <v>20251</v>
+      </c>
+      <c r="D628">
+        <v>0.398116657164763</v>
+      </c>
+      <c r="E628">
+        <v>191</v>
+      </c>
+      <c r="F628">
+        <v>8096</v>
+      </c>
+      <c r="G628">
+        <v>0.5591932587373947</v>
+      </c>
+      <c r="H628">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C629">
+        <v>231</v>
+      </c>
+      <c r="D629">
+        <v>0.004541254644464978</v>
+      </c>
+      <c r="E629">
+        <v>7</v>
+      </c>
+      <c r="F629">
+        <v>80</v>
+      </c>
+      <c r="G629">
+        <v>0.005525625086337892</v>
+      </c>
+      <c r="H629">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C630">
+        <v>6438</v>
+      </c>
+      <c r="D630">
+        <v>0.1265653567145694</v>
+      </c>
+      <c r="E630">
+        <v>-6</v>
+      </c>
+      <c r="F630">
+        <v>7</v>
+      </c>
+      <c r="G630">
+        <v>0.0004834921950545656</v>
+      </c>
+      <c r="H630">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C631">
+        <v>14872</v>
+      </c>
+      <c r="D631">
+        <v>0.2923702990150786</v>
+      </c>
+      <c r="E631">
+        <v>257</v>
+      </c>
+      <c r="F631">
+        <v>4373</v>
+      </c>
+      <c r="G631">
+        <v>0.302044481281945</v>
+      </c>
+      <c r="H631">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1360"/>
+  <dimension ref="A1:H1372"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -24448,7 +24448,7 @@
         <v>0.003565106828550772</v>
       </c>
       <c r="E860">
-        <v>-23</v>
+        <v>-24</v>
       </c>
       <c r="F860">
         <v>2</v>
@@ -24476,7 +24476,7 @@
         <v>0.0161551694049014</v>
       </c>
       <c r="E861">
-        <v>-141</v>
+        <v>-150</v>
       </c>
       <c r="F861">
         <v>5</v>
@@ -24504,7 +24504,7 @@
         <v>0.0413851561915684</v>
       </c>
       <c r="E862">
-        <v>-421</v>
+        <v>-437</v>
       </c>
       <c r="F862">
         <v>8</v>
@@ -24532,7 +24532,7 @@
         <v>0.185011592829897</v>
       </c>
       <c r="E863">
-        <v>-2307</v>
+        <v>-2388</v>
       </c>
       <c r="F863">
         <v>63</v>
@@ -24541,7 +24541,7 @@
         <v>0.007551240560949299</v>
       </c>
       <c r="H863">
-        <v>-31</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="864">
@@ -24560,7 +24560,7 @@
         <v>0.2015407244895415</v>
       </c>
       <c r="E864">
-        <v>-2692</v>
+        <v>-2792</v>
       </c>
       <c r="F864">
         <v>174</v>
@@ -24569,7 +24569,7 @@
         <v>0.02085580726357425</v>
       </c>
       <c r="H864">
-        <v>-97</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="865">
@@ -24588,7 +24588,7 @@
         <v>0.1871307122734412</v>
       </c>
       <c r="E865">
-        <v>-2271</v>
+        <v>-2380</v>
       </c>
       <c r="F865">
         <v>455</v>
@@ -24597,7 +24597,7 @@
         <v>0.05453673738463383</v>
       </c>
       <c r="H865">
-        <v>-352</v>
+        <v>-358</v>
       </c>
     </row>
     <row r="866">
@@ -24616,7 +24616,7 @@
         <v>0.1710503353194884</v>
       </c>
       <c r="E866">
-        <v>-1697</v>
+        <v>-1794</v>
       </c>
       <c r="F866">
         <v>961</v>
@@ -24625,7 +24625,7 @@
         <v>0.115186383794798</v>
       </c>
       <c r="H866">
-        <v>-785</v>
+        <v>-806</v>
       </c>
     </row>
     <row r="867">
@@ -24644,7 +24644,7 @@
         <v>0.06671486624616689</v>
       </c>
       <c r="E867">
-        <v>-528</v>
+        <v>-568</v>
       </c>
       <c r="F867">
         <v>784</v>
@@ -24653,7 +24653,7 @@
         <v>0.09397099364736905</v>
       </c>
       <c r="H867">
-        <v>-589</v>
+        <v>-600</v>
       </c>
     </row>
     <row r="868">
@@ -24672,7 +24672,7 @@
         <v>0.04759292962030366</v>
       </c>
       <c r="E868">
-        <v>-311</v>
+        <v>-328</v>
       </c>
       <c r="F868">
         <v>956</v>
@@ -24681,7 +24681,7 @@
         <v>0.1145870789883735</v>
       </c>
       <c r="H868">
-        <v>-739</v>
+        <v>-753</v>
       </c>
     </row>
     <row r="869">
@@ -24700,7 +24700,7 @@
         <v>0.02844606217745756</v>
       </c>
       <c r="E869">
-        <v>-171</v>
+        <v>-185</v>
       </c>
       <c r="F869">
         <v>1079</v>
@@ -24709,7 +24709,7 @@
         <v>0.1293299772264174</v>
       </c>
       <c r="H869">
-        <v>-810</v>
+        <v>-824</v>
       </c>
     </row>
     <row r="870">
@@ -24728,7 +24728,7 @@
         <v>0.01899728254094887</v>
       </c>
       <c r="E870">
-        <v>-95</v>
+        <v>-99</v>
       </c>
       <c r="F870">
         <v>1039</v>
@@ -24737,7 +24737,7 @@
         <v>0.124535538775021</v>
       </c>
       <c r="H870">
-        <v>-735</v>
+        <v>-751</v>
       </c>
     </row>
     <row r="871">
@@ -24756,7 +24756,7 @@
         <v>0.03163720675126524</v>
       </c>
       <c r="E871">
-        <v>-110</v>
+        <v>-116</v>
       </c>
       <c r="F871">
         <v>2817</v>
@@ -24765,7 +24765,7 @@
         <v>0.3376483279395901</v>
       </c>
       <c r="H871">
-        <v>-1987</v>
+        <v>-2016</v>
       </c>
     </row>
     <row r="872">
@@ -38458,6 +38458,342 @@
       </c>
       <c r="H1360">
         <v>48</v>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361" s="2">
+        <v>44091</v>
+      </c>
+      <c r="B1361" t="inlineStr">
+        <is>
+          <t>&lt;1 year</t>
+        </is>
+      </c>
+      <c r="C1361">
+        <v>167</v>
+      </c>
+      <c r="D1361">
+        <v>0.33</v>
+      </c>
+      <c r="E1361">
+        <v>1</v>
+      </c>
+      <c r="F1361">
+        <v>3</v>
+      </c>
+      <c r="G1361">
+        <v>0.02</v>
+      </c>
+      <c r="H1361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1362">
+      <c r="A1362" s="2">
+        <v>44091</v>
+      </c>
+      <c r="B1362" t="inlineStr">
+        <is>
+          <t>1-9 years</t>
+        </is>
+      </c>
+      <c r="C1362">
+        <v>798</v>
+      </c>
+      <c r="D1362">
+        <v>0.0155</v>
+      </c>
+      <c r="E1362">
+        <v>9</v>
+      </c>
+      <c r="F1362">
+        <v>6</v>
+      </c>
+      <c r="G1362">
+        <v>0.04</v>
+      </c>
+      <c r="H1362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363" s="2">
+        <v>44091</v>
+      </c>
+      <c r="B1363" t="inlineStr">
+        <is>
+          <t>10-19 years</t>
+        </is>
+      </c>
+      <c r="C1363">
+        <v>2097</v>
+      </c>
+      <c r="D1363">
+        <v>0.0408</v>
+      </c>
+      <c r="E1363">
+        <v>16</v>
+      </c>
+      <c r="F1363">
+        <v>16</v>
+      </c>
+      <c r="G1363">
+        <v>0.1096641535</v>
+      </c>
+      <c r="H1363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1364">
+      <c r="A1364" s="2">
+        <v>44091</v>
+      </c>
+      <c r="B1364" t="inlineStr">
+        <is>
+          <t>20-29 years</t>
+        </is>
+      </c>
+      <c r="C1364">
+        <v>9809</v>
+      </c>
+      <c r="D1364">
+        <v>0.191</v>
+      </c>
+      <c r="E1364">
+        <v>81</v>
+      </c>
+      <c r="F1364">
+        <v>93</v>
+      </c>
+      <c r="G1364">
+        <v>0.64</v>
+      </c>
+      <c r="H1364">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365" s="2">
+        <v>44091</v>
+      </c>
+      <c r="B1365" t="inlineStr">
+        <is>
+          <t>30-39 years</t>
+        </is>
+      </c>
+      <c r="C1365">
+        <v>10876</v>
+      </c>
+      <c r="D1365">
+        <v>0.2117</v>
+      </c>
+      <c r="E1365">
+        <v>100</v>
+      </c>
+      <c r="F1365">
+        <v>273</v>
+      </c>
+      <c r="G1365">
+        <v>0.0187</v>
+      </c>
+      <c r="H1365">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="A1366" s="2">
+        <v>44091</v>
+      </c>
+      <c r="B1366" t="inlineStr">
+        <is>
+          <t>40-49 years</t>
+        </is>
+      </c>
+      <c r="C1366">
+        <v>9886</v>
+      </c>
+      <c r="D1366">
+        <v>0.1925</v>
+      </c>
+      <c r="E1366">
+        <v>109</v>
+      </c>
+      <c r="F1366">
+        <v>813</v>
+      </c>
+      <c r="G1366">
+        <v>0.0557</v>
+      </c>
+      <c r="H1366">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367" s="2">
+        <v>44091</v>
+      </c>
+      <c r="B1367" t="inlineStr">
+        <is>
+          <t>50-59 years</t>
+        </is>
+      </c>
+      <c r="C1367">
+        <v>8655</v>
+      </c>
+      <c r="D1367">
+        <v>0.1685</v>
+      </c>
+      <c r="E1367">
+        <v>97</v>
+      </c>
+      <c r="F1367">
+        <v>1767</v>
+      </c>
+      <c r="G1367">
+        <v>0.1211</v>
+      </c>
+      <c r="H1367">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" s="2">
+        <v>44091</v>
+      </c>
+      <c r="B1368" t="inlineStr">
+        <is>
+          <t>60-64 years</t>
+        </is>
+      </c>
+      <c r="C1368">
+        <v>3244</v>
+      </c>
+      <c r="D1368">
+        <v>0.06320000000000001</v>
+      </c>
+      <c r="E1368">
+        <v>40</v>
+      </c>
+      <c r="F1368">
+        <v>1384</v>
+      </c>
+      <c r="G1368">
+        <v>0.0949</v>
+      </c>
+      <c r="H1368">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" s="2">
+        <v>44091</v>
+      </c>
+      <c r="B1369" t="inlineStr">
+        <is>
+          <t>65-69 years</t>
+        </is>
+      </c>
+      <c r="C1369">
+        <v>2237</v>
+      </c>
+      <c r="D1369">
+        <v>0.043552751981</v>
+      </c>
+      <c r="E1369">
+        <v>17</v>
+      </c>
+      <c r="F1369">
+        <v>1709</v>
+      </c>
+      <c r="G1369">
+        <v>0.1171</v>
+      </c>
+      <c r="H1369">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370" s="2">
+        <v>44091</v>
+      </c>
+      <c r="B1370" t="inlineStr">
+        <is>
+          <t>70-74 years</t>
+        </is>
+      </c>
+      <c r="C1370">
+        <v>1326</v>
+      </c>
+      <c r="D1370">
+        <v>0.0258</v>
+      </c>
+      <c r="E1370">
+        <v>14</v>
+      </c>
+      <c r="F1370">
+        <v>1903</v>
+      </c>
+      <c r="G1370">
+        <v>0.1304</v>
+      </c>
+      <c r="H1370">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" s="2">
+        <v>44091</v>
+      </c>
+      <c r="B1371" t="inlineStr">
+        <is>
+          <t>75-79 years</t>
+        </is>
+      </c>
+      <c r="C1371">
+        <v>861</v>
+      </c>
+      <c r="D1371">
+        <v>0.0168</v>
+      </c>
+      <c r="E1371">
+        <v>4</v>
+      </c>
+      <c r="F1371">
+        <v>1790</v>
+      </c>
+      <c r="G1371">
+        <v>0.1227</v>
+      </c>
+      <c r="H1371">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" s="2">
+        <v>44091</v>
+      </c>
+      <c r="B1372" t="inlineStr">
+        <is>
+          <t>80+ years</t>
+        </is>
+      </c>
+      <c r="C1372">
+        <v>1385</v>
+      </c>
+      <c r="D1372">
+        <v>0.027</v>
+      </c>
+      <c r="E1372">
+        <v>6</v>
+      </c>
+      <c r="F1372">
+        <v>4833</v>
+      </c>
+      <c r="G1372">
+        <v>0.3312542837600001</v>
+      </c>
+      <c r="H1372">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -38467,7 +38803,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H316"/>
+  <dimension ref="A1:H319"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -44078,7 +44414,7 @@
         <v>0.3732641918675675</v>
       </c>
       <c r="E200">
-        <v>-2267</v>
+        <v>-2419</v>
       </c>
       <c r="F200">
         <v>3401</v>
@@ -44087,7 +44423,7 @@
         <v>0.4076471293299772</v>
       </c>
       <c r="H200">
-        <v>-2633</v>
+        <v>-2686</v>
       </c>
     </row>
     <row r="201">
@@ -44106,7 +44442,7 @@
         <v>0.6045723118346589</v>
       </c>
       <c r="E201">
-        <v>-8448</v>
+        <v>-8790</v>
       </c>
       <c r="F201">
         <v>4942</v>
@@ -44115,7 +44451,7 @@
         <v>0.5923528706700227</v>
       </c>
       <c r="H201">
-        <v>-3502</v>
+        <v>-3561</v>
       </c>
     </row>
     <row r="202">
@@ -44134,7 +44470,7 @@
         <v>0.02216349629777368</v>
       </c>
       <c r="E202">
-        <v>-41</v>
+        <v>-43</v>
       </c>
       <c r="F202">
         <v>0</v>
@@ -47335,6 +47671,90 @@
         <v>0</v>
       </c>
       <c r="H316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="2">
+        <v>44091</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C317">
+        <v>17391</v>
+      </c>
+      <c r="D317">
+        <v>0.3386</v>
+      </c>
+      <c r="E317">
+        <v>152</v>
+      </c>
+      <c r="F317">
+        <v>6087</v>
+      </c>
+      <c r="G317">
+        <v>0.4172</v>
+      </c>
+      <c r="H317">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="2">
+        <v>44091</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C318">
+        <v>33040</v>
+      </c>
+      <c r="D318">
+        <v>0.6433</v>
+      </c>
+      <c r="E318">
+        <v>342</v>
+      </c>
+      <c r="F318">
+        <v>8503</v>
+      </c>
+      <c r="G318">
+        <v>0.5828</v>
+      </c>
+      <c r="H318">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="2">
+        <v>44091</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C319">
+        <v>932</v>
+      </c>
+      <c r="D319">
+        <v>0.018145357553</v>
+      </c>
+      <c r="E319">
+        <v>2</v>
+      </c>
+      <c r="F319">
+        <v>0</v>
+      </c>
+      <c r="G319">
+        <v>0</v>
+      </c>
+      <c r="H319">
         <v>0</v>
       </c>
     </row>
@@ -47345,7 +47765,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H631"/>
+  <dimension ref="A1:H637"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -58500,7 +58920,7 @@
         <v>0.01792525741068535</v>
       </c>
       <c r="E398">
-        <v>-59</v>
+        <v>-63</v>
       </c>
       <c r="F398">
         <v>190</v>
@@ -58509,7 +58929,7 @@
         <v>0.02277358264413281</v>
       </c>
       <c r="H398">
-        <v>-89</v>
+        <v>-91</v>
       </c>
     </row>
     <row r="399">
@@ -58528,7 +58948,7 @@
         <v>0.1489865622896462</v>
       </c>
       <c r="E399">
-        <v>-2321</v>
+        <v>-2437</v>
       </c>
       <c r="F399">
         <v>1070</v>
@@ -58537,7 +58957,7 @@
         <v>0.1282512285748532</v>
       </c>
       <c r="H399">
-        <v>-573</v>
+        <v>-586</v>
       </c>
     </row>
     <row r="400">
@@ -58556,7 +58976,7 @@
         <v>0.3958764428710329</v>
       </c>
       <c r="E400">
-        <v>-4372</v>
+        <v>-4523</v>
       </c>
       <c r="F400">
         <v>4311</v>
@@ -58565,7 +58985,7 @@
         <v>0.5167206040992449</v>
       </c>
       <c r="H400">
-        <v>-3785</v>
+        <v>-3847</v>
       </c>
     </row>
     <row r="401">
@@ -58584,7 +59004,7 @@
         <v>0.004362892972002693</v>
       </c>
       <c r="E401">
-        <v>-56</v>
+        <v>-57</v>
       </c>
       <c r="F401">
         <v>60</v>
@@ -58612,7 +59032,7 @@
         <v>0.1602552915659046</v>
       </c>
       <c r="E402">
-        <v>-10</v>
+        <v>-24</v>
       </c>
       <c r="F402">
         <v>4</v>
@@ -58621,7 +59041,7 @@
         <v>0.000479443845139638</v>
       </c>
       <c r="H402">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="403">
@@ -58640,7 +59060,7 @@
         <v>0.2725935528907282</v>
       </c>
       <c r="E403">
-        <v>-3938</v>
+        <v>-4148</v>
       </c>
       <c r="F403">
         <v>2708</v>
@@ -58649,7 +59069,7 @@
         <v>0.324583483159535</v>
       </c>
       <c r="H403">
-        <v>-1665</v>
+        <v>-1699</v>
       </c>
     </row>
     <row r="404">
@@ -65034,6 +65454,174 @@
       </c>
       <c r="H631">
         <v>51</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="2">
+        <v>44091</v>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C632">
+        <v>782</v>
+      </c>
+      <c r="D632">
+        <v>0.0152</v>
+      </c>
+      <c r="E632">
+        <v>4</v>
+      </c>
+      <c r="F632">
+        <v>281</v>
+      </c>
+      <c r="G632">
+        <v>0.0193</v>
+      </c>
+      <c r="H632">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="2">
+        <v>44091</v>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C633">
+        <v>8413</v>
+      </c>
+      <c r="D633">
+        <v>0.1638</v>
+      </c>
+      <c r="E633">
+        <v>116</v>
+      </c>
+      <c r="F633">
+        <v>1656</v>
+      </c>
+      <c r="G633">
+        <v>0.1135</v>
+      </c>
+      <c r="H633">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="2">
+        <v>44091</v>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="C634">
+        <v>20402</v>
+      </c>
+      <c r="D634">
+        <v>0.3972</v>
+      </c>
+      <c r="E634">
+        <v>151</v>
+      </c>
+      <c r="F634">
+        <v>8158</v>
+      </c>
+      <c r="G634">
+        <v>0.5592</v>
+      </c>
+      <c r="H634">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="2">
+        <v>44091</v>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C635">
+        <v>232</v>
+      </c>
+      <c r="D635">
+        <v>0.45</v>
+      </c>
+      <c r="E635">
+        <v>1</v>
+      </c>
+      <c r="F635">
+        <v>80</v>
+      </c>
+      <c r="G635">
+        <v>0.55</v>
+      </c>
+      <c r="H635">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="2">
+        <v>44091</v>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C636">
+        <v>6452</v>
+      </c>
+      <c r="D636">
+        <v>0.1256</v>
+      </c>
+      <c r="E636">
+        <v>14</v>
+      </c>
+      <c r="F636">
+        <v>8</v>
+      </c>
+      <c r="G636">
+        <v>0.05</v>
+      </c>
+      <c r="H636">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="2">
+        <v>44091</v>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C637">
+        <v>15082</v>
+      </c>
+      <c r="D637">
+        <v>0.2936</v>
+      </c>
+      <c r="E637">
+        <v>210</v>
+      </c>
+      <c r="F637">
+        <v>4407</v>
+      </c>
+      <c r="G637">
+        <v>0.3021</v>
+      </c>
+      <c r="H637">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -4061,7 +4061,7 @@
         <v>38</v>
       </c>
       <c r="D132">
-        <v>0.2504943968</v>
+        <v>0.002504943968</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -4126,7 +4126,7 @@
         <v>2</v>
       </c>
       <c r="G134">
-        <v>0.3012048193</v>
+        <v>0.003012048193</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -4397,7 +4397,7 @@
         <v>123</v>
       </c>
       <c r="D144">
-        <v>0.8108108108</v>
+        <v>0.008108108107999999</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         <v>2</v>
       </c>
       <c r="G144">
-        <v>0.3012048193</v>
+        <v>0.003012048193</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -10977,7 +10977,7 @@
         <v>88</v>
       </c>
       <c r="D379">
-        <v>0.4007285975</v>
+        <v>0.004007285975</v>
       </c>
       <c r="E379">
         <v>3</v>
@@ -11322,7 +11322,7 @@
         <v>2</v>
       </c>
       <c r="G391">
-        <v>0.3021148036</v>
+        <v>0.003021148036</v>
       </c>
       <c r="H391">
         <v>0</v>
@@ -13525,7 +13525,7 @@
         <v>98</v>
       </c>
       <c r="D470">
-        <v>0.4069091513</v>
+        <v>0.004069091513</v>
       </c>
       <c r="E470">
         <v>-1</v>
@@ -13618,7 +13618,7 @@
         <v>4</v>
       </c>
       <c r="G473">
-        <v>0.5772005772</v>
+        <v>0.005772005772</v>
       </c>
       <c r="H473">
         <v>0</v>
@@ -13861,7 +13861,7 @@
         <v>15</v>
       </c>
       <c r="D482">
-        <v>0.062282013</v>
+        <v>0.00062282013</v>
       </c>
       <c r="E482">
         <v>-1</v>
@@ -14253,7 +14253,7 @@
         <v>102</v>
       </c>
       <c r="D496">
-        <v>0.4119880443</v>
+        <v>0.004119880443000001</v>
       </c>
       <c r="E496">
         <v>3</v>
@@ -14346,7 +14346,7 @@
         <v>4</v>
       </c>
       <c r="G499">
-        <v>0.5633802817</v>
+        <v>0.005633802817</v>
       </c>
       <c r="H499">
         <v>0</v>
@@ -14589,7 +14589,7 @@
         <v>16</v>
       </c>
       <c r="D508">
-        <v>0.0646255756</v>
+        <v>0.000646255756</v>
       </c>
       <c r="E508">
         <v>1</v>
@@ -14617,7 +14617,7 @@
         <v>105</v>
       </c>
       <c r="D509">
-        <v>0.4151674509</v>
+        <v>0.004151674509</v>
       </c>
       <c r="E509">
         <v>3</v>
@@ -14710,7 +14710,7 @@
         <v>5</v>
       </c>
       <c r="G512">
-        <v>0.6973500697</v>
+        <v>0.006973500697</v>
       </c>
       <c r="H512">
         <v>1</v>
@@ -14953,7 +14953,7 @@
         <v>18</v>
       </c>
       <c r="D521">
-        <v>0.07117156299999999</v>
+        <v>0.0007117156299999999</v>
       </c>
       <c r="E521">
         <v>2</v>
@@ -15709,7 +15709,7 @@
         <v>106</v>
       </c>
       <c r="D548">
-        <v>0.4157514904</v>
+        <v>0.004157514904</v>
       </c>
       <c r="E548">
         <v>0</v>
@@ -15802,7 +15802,7 @@
         <v>5</v>
       </c>
       <c r="G551">
-        <v>0.6954102921000001</v>
+        <v>0.006954102921</v>
       </c>
       <c r="H551">
         <v>0</v>
@@ -16045,7 +16045,7 @@
         <v>18</v>
       </c>
       <c r="D560">
-        <v>0.0705993097</v>
+        <v>0.000705993097</v>
       </c>
       <c r="E560">
         <v>0</v>
@@ -16073,7 +16073,7 @@
         <v>111</v>
       </c>
       <c r="D561">
-        <v>0.4225030451</v>
+        <v>0.004225030451</v>
       </c>
       <c r="E561">
         <v>5</v>
@@ -16166,7 +16166,7 @@
         <v>4</v>
       </c>
       <c r="G564">
-        <v>0.5494505495000001</v>
+        <v>0.005494505495</v>
       </c>
       <c r="H564">
         <v>-1</v>
@@ -16409,7 +16409,7 @@
         <v>18</v>
       </c>
       <c r="D573">
-        <v>0.0685140073</v>
+        <v>0.000685140073</v>
       </c>
       <c r="E573">
         <v>0</v>
@@ -16437,7 +16437,7 @@
         <v>117</v>
       </c>
       <c r="D574">
-        <v>0.434298441</v>
+        <v>0.00434298441</v>
       </c>
       <c r="E574">
         <v>6</v>
@@ -16530,7 +16530,7 @@
         <v>4</v>
       </c>
       <c r="G577">
-        <v>0.5442176871</v>
+        <v>0.005442176871</v>
       </c>
       <c r="H577">
         <v>0</v>
@@ -16773,7 +16773,7 @@
         <v>19</v>
       </c>
       <c r="D586">
-        <v>0.07052709729999999</v>
+        <v>0.0007052709729999999</v>
       </c>
       <c r="E586">
         <v>1</v>
@@ -16801,7 +16801,7 @@
         <v>120</v>
       </c>
       <c r="D587">
-        <v>0.4375091148</v>
+        <v>0.004375091148</v>
       </c>
       <c r="E587">
         <v>3</v>
@@ -16894,7 +16894,7 @@
         <v>4</v>
       </c>
       <c r="G590">
-        <v>0.5405405405</v>
+        <v>0.005405405405</v>
       </c>
       <c r="H590">
         <v>0</v>
@@ -17137,7 +17137,7 @@
         <v>20</v>
       </c>
       <c r="D599">
-        <v>0.07291818579999999</v>
+        <v>0.0007291818579999999</v>
       </c>
       <c r="E599">
         <v>1</v>
@@ -17165,7 +17165,7 @@
         <v>125</v>
       </c>
       <c r="D600">
-        <v>0.4466359381</v>
+        <v>0.004466359381</v>
       </c>
       <c r="E600">
         <v>5</v>
@@ -17258,7 +17258,7 @@
         <v>5</v>
       </c>
       <c r="G603">
-        <v>0.6675567423</v>
+        <v>0.006675567423</v>
       </c>
       <c r="H603">
         <v>1</v>
@@ -17501,7 +17501,7 @@
         <v>20</v>
       </c>
       <c r="D612">
-        <v>0.0714617501</v>
+        <v>0.000714617501</v>
       </c>
       <c r="E612">
         <v>0</v>
@@ -17529,7 +17529,7 @@
         <v>125</v>
       </c>
       <c r="D613">
-        <v>0.4431838327</v>
+        <v>0.004431838327</v>
       </c>
       <c r="E613">
         <v>0</v>
@@ -17622,7 +17622,7 @@
         <v>5</v>
       </c>
       <c r="G616">
-        <v>0.6640106242</v>
+        <v>0.006640106242</v>
       </c>
       <c r="H616">
         <v>0</v>
@@ -17865,7 +17865,7 @@
         <v>19</v>
       </c>
       <c r="D625">
-        <v>0.0673639426</v>
+        <v>0.000673639426</v>
       </c>
       <c r="E625">
         <v>-1</v>
@@ -20077,7 +20077,7 @@
         <v>134</v>
       </c>
       <c r="D704">
-        <v>0.4161232222</v>
+        <v>0.004161232222</v>
       </c>
       <c r="E704">
         <v>-1</v>
@@ -20413,7 +20413,7 @@
         <v>21</v>
       </c>
       <c r="D716">
-        <v>0.06521334080000001</v>
+        <v>0.0006521334080000001</v>
       </c>
       <c r="E716">
         <v>0</v>
@@ -20441,7 +20441,7 @@
         <v>134</v>
       </c>
       <c r="D717">
-        <v>0.4154008308</v>
+        <v>0.004154008308</v>
       </c>
       <c r="E717">
         <v>0</v>
@@ -20450,7 +20450,7 @@
         <v>2</v>
       </c>
       <c r="G717">
-        <v>0.0350078768</v>
+        <v>0.0003500787679999999</v>
       </c>
       <c r="H717">
         <v>2</v>
@@ -20478,7 +20478,7 @@
         <v>1</v>
       </c>
       <c r="G718">
-        <v>0.0175039384</v>
+        <v>0.000175039384</v>
       </c>
       <c r="H718">
         <v>1</v>
@@ -20506,7 +20506,7 @@
         <v>8</v>
       </c>
       <c r="G719">
-        <v>0.1400315071</v>
+        <v>0.001400315071</v>
       </c>
       <c r="H719">
         <v>8</v>
@@ -20534,7 +20534,7 @@
         <v>47</v>
       </c>
       <c r="G720">
-        <v>0.8226851041</v>
+        <v>0.008226851040999999</v>
       </c>
       <c r="H720">
         <v>39</v>
@@ -20777,7 +20777,7 @@
         <v>21</v>
       </c>
       <c r="D729">
-        <v>0.0651001302</v>
+        <v>0.000651001302</v>
       </c>
       <c r="E729">
         <v>0</v>
@@ -20805,7 +20805,7 @@
         <v>135</v>
       </c>
       <c r="D730">
-        <v>0.4081262471</v>
+        <v>0.004081262471</v>
       </c>
       <c r="E730">
         <v>1</v>
@@ -20814,7 +20814,7 @@
         <v>2</v>
       </c>
       <c r="G730">
-        <v>0.0340309682</v>
+        <v>0.000340309682</v>
       </c>
       <c r="H730">
         <v>0</v>
@@ -20842,7 +20842,7 @@
         <v>1</v>
       </c>
       <c r="G731">
-        <v>0.0170154841</v>
+        <v>0.000170154841</v>
       </c>
       <c r="H731">
         <v>0</v>
@@ -20870,7 +20870,7 @@
         <v>8</v>
       </c>
       <c r="G732">
-        <v>0.1361238727</v>
+        <v>0.001361238727</v>
       </c>
       <c r="H732">
         <v>0</v>
@@ -20898,7 +20898,7 @@
         <v>48</v>
       </c>
       <c r="G733">
-        <v>0.8167432363</v>
+        <v>0.008167432363</v>
       </c>
       <c r="H733">
         <v>1</v>
@@ -21141,7 +21141,7 @@
         <v>22</v>
       </c>
       <c r="D742">
-        <v>0.06650946250000001</v>
+        <v>0.0006650946250000001</v>
       </c>
       <c r="E742">
         <v>1</v>
@@ -21169,7 +21169,7 @@
         <v>137</v>
       </c>
       <c r="D743">
-        <v>0.4046430576</v>
+        <v>0.004046430576000001</v>
       </c>
       <c r="E743">
         <v>2</v>
@@ -21178,7 +21178,7 @@
         <v>2</v>
       </c>
       <c r="G743">
-        <v>0.0323101777</v>
+        <v>0.000323101777</v>
       </c>
       <c r="H743">
         <v>0</v>
@@ -21206,7 +21206,7 @@
         <v>2</v>
       </c>
       <c r="G744">
-        <v>0.0323101777</v>
+        <v>0.000323101777</v>
       </c>
       <c r="H744">
         <v>1</v>
@@ -21234,7 +21234,7 @@
         <v>9</v>
       </c>
       <c r="G745">
-        <v>0.1453957997</v>
+        <v>0.001453957997</v>
       </c>
       <c r="H745">
         <v>1</v>
@@ -21262,7 +21262,7 @@
         <v>52</v>
       </c>
       <c r="G746">
-        <v>0.8400646204</v>
+        <v>0.008400646204</v>
       </c>
       <c r="H746">
         <v>4</v>
@@ -21505,7 +21505,7 @@
         <v>22</v>
       </c>
       <c r="D755">
-        <v>0.06497917709999999</v>
+        <v>0.0006497917709999999</v>
       </c>
       <c r="E755">
         <v>0</v>
@@ -21533,7 +21533,7 @@
         <v>138</v>
       </c>
       <c r="D756">
-        <v>0.3978779841</v>
+        <v>0.003978779841000001</v>
       </c>
       <c r="E756">
         <v>1</v>
@@ -21542,7 +21542,7 @@
         <v>2</v>
       </c>
       <c r="G756">
-        <v>0.0318775901</v>
+        <v>0.000318775901</v>
       </c>
       <c r="H756">
         <v>0</v>
@@ -21570,7 +21570,7 @@
         <v>2</v>
       </c>
       <c r="G757">
-        <v>0.0318775901</v>
+        <v>0.000318775901</v>
       </c>
       <c r="H757">
         <v>0</v>
@@ -21598,7 +21598,7 @@
         <v>7</v>
       </c>
       <c r="G758">
-        <v>0.1115715652</v>
+        <v>0.001115715652</v>
       </c>
       <c r="H758">
         <v>-2</v>
@@ -21626,7 +21626,7 @@
         <v>53</v>
       </c>
       <c r="G759">
-        <v>0.8447561364</v>
+        <v>0.008447561364</v>
       </c>
       <c r="H759">
         <v>1</v>
@@ -21869,7 +21869,7 @@
         <v>22</v>
       </c>
       <c r="D768">
-        <v>0.0634298236</v>
+        <v>0.0006342982360000001</v>
       </c>
       <c r="E768">
         <v>0</v>
@@ -21897,7 +21897,7 @@
         <v>138</v>
       </c>
       <c r="D769">
-        <v>0.3881638164</v>
+        <v>0.003881638164</v>
       </c>
       <c r="E769">
         <v>0</v>
@@ -21906,7 +21906,7 @@
         <v>2</v>
       </c>
       <c r="G769">
-        <v>0.0304460344</v>
+        <v>0.000304460344</v>
       </c>
       <c r="H769">
         <v>0</v>
@@ -21934,7 +21934,7 @@
         <v>2</v>
       </c>
       <c r="G770">
-        <v>0.0304460344</v>
+        <v>0.000304460344</v>
       </c>
       <c r="H770">
         <v>0</v>
@@ -21962,7 +21962,7 @@
         <v>7</v>
       </c>
       <c r="G771">
-        <v>0.1065611204</v>
+        <v>0.001065611204</v>
       </c>
       <c r="H771">
         <v>0</v>
@@ -21990,7 +21990,7 @@
         <v>54</v>
       </c>
       <c r="G772">
-        <v>0.8220429289</v>
+        <v>0.008220429288999999</v>
       </c>
       <c r="H772">
         <v>1</v>
@@ -22233,7 +22233,7 @@
         <v>25</v>
       </c>
       <c r="D781">
-        <v>0.070319532</v>
+        <v>0.00070319532</v>
       </c>
       <c r="E781">
         <v>3</v>
@@ -22989,7 +22989,7 @@
         <v>139</v>
       </c>
       <c r="D808">
-        <v>0.3760517274</v>
+        <v>0.003760517274</v>
       </c>
       <c r="E808">
         <v>0</v>
@@ -22998,7 +22998,7 @@
         <v>2</v>
       </c>
       <c r="G808">
-        <v>0.0275444154</v>
+        <v>0.000275444154</v>
       </c>
       <c r="H808">
         <v>0</v>
@@ -23026,7 +23026,7 @@
         <v>4</v>
       </c>
       <c r="G809">
-        <v>0.0550888307</v>
+        <v>0.000550888307</v>
       </c>
       <c r="H809">
         <v>2</v>
@@ -23054,7 +23054,7 @@
         <v>7</v>
       </c>
       <c r="G810">
-        <v>0.0964054538</v>
+        <v>0.000964054538</v>
       </c>
       <c r="H810">
         <v>0</v>
@@ -23082,7 +23082,7 @@
         <v>59</v>
       </c>
       <c r="G811">
-        <v>0.8125602534</v>
+        <v>0.008125602534</v>
       </c>
       <c r="H811">
         <v>1</v>
@@ -23325,7 +23325,7 @@
         <v>31</v>
       </c>
       <c r="D820">
-        <v>0.08386765140000001</v>
+        <v>0.0008386765140000001</v>
       </c>
       <c r="E820">
         <v>0</v>
@@ -23362,7 +23362,7 @@
         <v>2</v>
       </c>
       <c r="G821">
-        <v>0.0003</v>
+        <v>3e-006</v>
       </c>
       <c r="H821">
         <v>0</v>
@@ -23390,7 +23390,7 @@
         <v>4</v>
       </c>
       <c r="G822">
-        <v>0.0005</v>
+        <v>5e-006</v>
       </c>
       <c r="H822">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>7</v>
       </c>
       <c r="G823">
-        <v>0.0009</v>
+        <v>9e-006</v>
       </c>
       <c r="H823">
         <v>0</v>
@@ -23446,7 +23446,7 @@
         <v>60</v>
       </c>
       <c r="G824">
-        <v>0.008</v>
+        <v>8.000000000000001e-005</v>
       </c>
       <c r="H824">
         <v>1</v>
@@ -23474,7 +23474,7 @@
         <v>154</v>
       </c>
       <c r="G825">
-        <v>0.0205</v>
+        <v>0.000205</v>
       </c>
       <c r="H825">
         <v>5</v>
@@ -23502,7 +23502,7 @@
         <v>405</v>
       </c>
       <c r="G826">
-        <v>0.054</v>
+        <v>0.00054</v>
       </c>
       <c r="H826">
         <v>13</v>
@@ -23558,7 +23558,7 @@
         <v>693</v>
       </c>
       <c r="G828">
-        <v>0.0924</v>
+        <v>0.0009239999999999999</v>
       </c>
       <c r="H828">
         <v>20</v>
@@ -23586,7 +23586,7 @@
         <v>858</v>
       </c>
       <c r="G829">
-        <v>0.1144</v>
+        <v>0.001144</v>
       </c>
       <c r="H829">
         <v>25</v>
@@ -23614,7 +23614,7 @@
         <v>977</v>
       </c>
       <c r="G830">
-        <v>0.1303</v>
+        <v>0.001303</v>
       </c>
       <c r="H830">
         <v>30</v>
@@ -23670,7 +23670,7 @@
         <v>2557</v>
       </c>
       <c r="G832">
-        <v>0.3411</v>
+        <v>0.003411</v>
       </c>
       <c r="H832">
         <v>83</v>
@@ -23717,7 +23717,7 @@
         <v>141</v>
       </c>
       <c r="D834">
-        <v>0.3620025674</v>
+        <v>0.003620025674</v>
       </c>
       <c r="E834">
         <v>2</v>
@@ -23726,7 +23726,7 @@
         <v>2</v>
       </c>
       <c r="G834">
-        <v>0.0256311675</v>
+        <v>0.000256311675</v>
       </c>
       <c r="H834">
         <v>0</v>
@@ -23754,7 +23754,7 @@
         <v>4</v>
       </c>
       <c r="G835">
-        <v>0.051262335</v>
+        <v>0.00051262335</v>
       </c>
       <c r="H835">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>8</v>
       </c>
       <c r="G836">
-        <v>0.10252467</v>
+        <v>0.0010252467</v>
       </c>
       <c r="H836">
         <v>1</v>
@@ -23810,7 +23810,7 @@
         <v>61</v>
       </c>
       <c r="G837">
-        <v>0.7817506087</v>
+        <v>0.007817506086999999</v>
       </c>
       <c r="H837">
         <v>1</v>
@@ -24053,7 +24053,7 @@
         <v>31</v>
       </c>
       <c r="D846">
-        <v>0.0795892169</v>
+        <v>0.000795892169</v>
       </c>
       <c r="E846">
         <v>0</v>
@@ -24081,7 +24081,7 @@
         <v>144</v>
       </c>
       <c r="D847">
-        <v>0.3640500569</v>
+        <v>0.003640500569</v>
       </c>
       <c r="E847">
         <v>3</v>
@@ -24090,7 +24090,7 @@
         <v>2</v>
       </c>
       <c r="G847">
-        <v>0.0247035573</v>
+        <v>0.000247035573</v>
       </c>
       <c r="H847">
         <v>0</v>
@@ -24118,7 +24118,7 @@
         <v>4</v>
       </c>
       <c r="G848">
-        <v>0.0494071146</v>
+        <v>0.0004940711460000001</v>
       </c>
       <c r="H848">
         <v>0</v>
@@ -24146,7 +24146,7 @@
         <v>8</v>
       </c>
       <c r="G849">
-        <v>0.09881422920000001</v>
+        <v>0.0009881422920000002</v>
       </c>
       <c r="H849">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>61</v>
       </c>
       <c r="G850">
-        <v>0.753458498</v>
+        <v>0.00753458498</v>
       </c>
       <c r="H850">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>31</v>
       </c>
       <c r="D859">
-        <v>0.0783718872</v>
+        <v>0.0007837188720000001</v>
       </c>
       <c r="E859">
         <v>0</v>
@@ -24809,7 +24809,7 @@
         <v>143</v>
       </c>
       <c r="D873">
-        <v>0.3527815468</v>
+        <v>0.003527815468</v>
       </c>
       <c r="E873">
         <v>0</v>
@@ -24818,7 +24818,7 @@
         <v>2</v>
       </c>
       <c r="G873">
-        <v>0.0236434567</v>
+        <v>0.000236434567</v>
       </c>
       <c r="H873">
         <v>0</v>
@@ -24846,7 +24846,7 @@
         <v>5</v>
       </c>
       <c r="G874">
-        <v>0.0591086417</v>
+        <v>0.000591086417</v>
       </c>
       <c r="H874">
         <v>0</v>
@@ -24874,7 +24874,7 @@
         <v>8</v>
       </c>
       <c r="G875">
-        <v>0.0945738267</v>
+        <v>0.000945738267</v>
       </c>
       <c r="H875">
         <v>0</v>
@@ -24902,7 +24902,7 @@
         <v>63</v>
       </c>
       <c r="G876">
-        <v>0.7447688852</v>
+        <v>0.007447688851999999</v>
       </c>
       <c r="H876">
         <v>0</v>
@@ -25145,7 +25145,7 @@
         <v>31</v>
       </c>
       <c r="D885">
-        <v>0.0764771185</v>
+        <v>0.0007647711849999999</v>
       </c>
       <c r="E885">
         <v>0</v>
@@ -27721,7 +27721,7 @@
         <v>145</v>
       </c>
       <c r="D977">
-        <v>0.3202721209</v>
+        <v>0.003202721209</v>
       </c>
       <c r="E977">
         <v>0</v>
@@ -27730,7 +27730,7 @@
         <v>2</v>
       </c>
       <c r="G977">
-        <v>0.0199322304</v>
+        <v>0.000199322304</v>
       </c>
       <c r="H977">
         <v>0</v>
@@ -27758,7 +27758,7 @@
         <v>5</v>
       </c>
       <c r="G978">
-        <v>0.049830576</v>
+        <v>0.00049830576</v>
       </c>
       <c r="H978">
         <v>0</v>
@@ -27786,7 +27786,7 @@
         <v>10</v>
       </c>
       <c r="G979">
-        <v>0.0996611521</v>
+        <v>0.000996611521</v>
       </c>
       <c r="H979">
         <v>0</v>
@@ -27814,7 +27814,7 @@
         <v>70</v>
       </c>
       <c r="G980">
-        <v>0.6976280646</v>
+        <v>0.006976280646000001</v>
       </c>
       <c r="H980">
         <v>0</v>
@@ -28057,7 +28057,7 @@
         <v>32</v>
       </c>
       <c r="D989">
-        <v>0.0706807439</v>
+        <v>0.0007068074389999999</v>
       </c>
       <c r="E989">
         <v>0</v>
@@ -28085,7 +28085,7 @@
         <v>145</v>
       </c>
       <c r="D990">
-        <v>0.3181499035</v>
+        <v>0.003181499035</v>
       </c>
       <c r="E990">
         <v>0</v>
@@ -28094,7 +28094,7 @@
         <v>2</v>
       </c>
       <c r="G990">
-        <v>0.0195121951</v>
+        <v>0.000195121951</v>
       </c>
       <c r="H990">
         <v>0</v>
@@ -28122,7 +28122,7 @@
         <v>5</v>
       </c>
       <c r="G991">
-        <v>0.0487804878</v>
+        <v>0.000487804878</v>
       </c>
       <c r="H991">
         <v>0</v>
@@ -28150,7 +28150,7 @@
         <v>11</v>
       </c>
       <c r="G992">
-        <v>0.1073170732</v>
+        <v>0.001073170732</v>
       </c>
       <c r="H992">
         <v>1</v>
@@ -28178,7 +28178,7 @@
         <v>72</v>
       </c>
       <c r="G993">
-        <v>0.7024390244</v>
+        <v>0.007024390243999999</v>
       </c>
       <c r="H993">
         <v>2</v>
@@ -28421,7 +28421,7 @@
         <v>32</v>
       </c>
       <c r="D1002">
-        <v>0.0702123925</v>
+        <v>0.000702123925</v>
       </c>
       <c r="E1002">
         <v>0</v>
@@ -28449,7 +28449,7 @@
         <v>146</v>
       </c>
       <c r="D1003">
-        <v>0.3173499109</v>
+        <v>0.003173499109</v>
       </c>
       <c r="E1003">
         <v>1</v>
@@ -28458,7 +28458,7 @@
         <v>2</v>
       </c>
       <c r="G1003">
-        <v>0.0189411876</v>
+        <v>0.000189411876</v>
       </c>
       <c r="H1003">
         <v>0</v>
@@ -28486,7 +28486,7 @@
         <v>5</v>
       </c>
       <c r="G1004">
-        <v>0.047352969</v>
+        <v>0.00047352969</v>
       </c>
       <c r="H1004">
         <v>0</v>
@@ -28514,7 +28514,7 @@
         <v>11</v>
       </c>
       <c r="G1005">
-        <v>0.1041765319</v>
+        <v>0.001041765319</v>
       </c>
       <c r="H1005">
         <v>0</v>
@@ -28542,7 +28542,7 @@
         <v>74</v>
       </c>
       <c r="G1006">
-        <v>0.7008239417</v>
+        <v>0.007008239417</v>
       </c>
       <c r="H1006">
         <v>2</v>
@@ -28785,7 +28785,7 @@
         <v>33</v>
       </c>
       <c r="D1015">
-        <v>0.0717297744</v>
+        <v>0.0007172977440000001</v>
       </c>
       <c r="E1015">
         <v>1</v>
@@ -28813,7 +28813,7 @@
         <v>147</v>
       </c>
       <c r="D1016">
-        <v>0.3174328964</v>
+        <v>0.003174328964</v>
       </c>
       <c r="E1016">
         <v>1</v>
@@ -28822,7 +28822,7 @@
         <v>2</v>
       </c>
       <c r="G1016">
-        <v>0.018530529</v>
+        <v>0.00018530529</v>
       </c>
       <c r="H1016">
         <v>0</v>
@@ -28850,7 +28850,7 @@
         <v>5</v>
       </c>
       <c r="G1017">
-        <v>0.0463263226</v>
+        <v>0.000463263226</v>
       </c>
       <c r="H1017">
         <v>0</v>
@@ -28878,7 +28878,7 @@
         <v>11</v>
       </c>
       <c r="G1018">
-        <v>0.1019179098</v>
+        <v>0.001019179098</v>
       </c>
       <c r="H1018">
         <v>0</v>
@@ -28906,7 +28906,7 @@
         <v>76</v>
       </c>
       <c r="G1019">
-        <v>0.7041601038000001</v>
+        <v>0.007041601038000001</v>
       </c>
       <c r="H1019">
         <v>2</v>
@@ -29149,7 +29149,7 @@
         <v>33</v>
       </c>
       <c r="D1028">
-        <v>0.0712604461</v>
+        <v>0.000712604461</v>
       </c>
       <c r="E1028">
         <v>0</v>
@@ -29177,7 +29177,7 @@
         <v>146</v>
       </c>
       <c r="D1029">
-        <v>0.0031</v>
+        <v>3.1e-005</v>
       </c>
       <c r="E1029">
         <v>-1</v>
@@ -29186,7 +29186,7 @@
         <v>2</v>
       </c>
       <c r="G1029">
-        <v>0.0002</v>
+        <v>2e-006</v>
       </c>
       <c r="H1029">
         <v>0</v>
@@ -29205,7 +29205,7 @@
         <v>677</v>
       </c>
       <c r="D1030">
-        <v>0.0146</v>
+        <v>0.000146</v>
       </c>
       <c r="E1030">
         <v>3</v>
@@ -29214,7 +29214,7 @@
         <v>5</v>
       </c>
       <c r="G1030">
-        <v>0.0005</v>
+        <v>5e-006</v>
       </c>
       <c r="H1030">
         <v>0</v>
@@ -29242,7 +29242,7 @@
         <v>11</v>
       </c>
       <c r="G1031">
-        <v>0.001</v>
+        <v>1e-005</v>
       </c>
       <c r="H1031">
         <v>0</v>
@@ -29261,7 +29261,7 @@
         <v>8857</v>
       </c>
       <c r="D1032">
-        <v>0.1905</v>
+        <v>0.001905</v>
       </c>
       <c r="E1032">
         <v>51</v>
@@ -29270,7 +29270,7 @@
         <v>76</v>
       </c>
       <c r="G1032">
-        <v>0.0069</v>
+        <v>6.9e-005</v>
       </c>
       <c r="H1032">
         <v>0</v>
@@ -29289,7 +29289,7 @@
         <v>9809</v>
       </c>
       <c r="D1033">
-        <v>0.211</v>
+        <v>0.00211</v>
       </c>
       <c r="E1033">
         <v>32</v>
@@ -29317,7 +29317,7 @@
         <v>8918</v>
       </c>
       <c r="D1034">
-        <v>0.1918</v>
+        <v>0.001918</v>
       </c>
       <c r="E1034">
         <v>27</v>
@@ -29326,7 +29326,7 @@
         <v>587</v>
       </c>
       <c r="G1034">
-        <v>0.0531</v>
+        <v>0.000531</v>
       </c>
       <c r="H1034">
         <v>11</v>
@@ -29345,7 +29345,7 @@
         <v>7865</v>
       </c>
       <c r="D1035">
-        <v>0.1692</v>
+        <v>0.001692</v>
       </c>
       <c r="E1035">
         <v>36</v>
@@ -29382,7 +29382,7 @@
         <v>1049</v>
       </c>
       <c r="G1036">
-        <v>0.0949</v>
+        <v>0.000949</v>
       </c>
       <c r="H1036">
         <v>25</v>
@@ -29401,7 +29401,7 @@
         <v>2075</v>
       </c>
       <c r="D1037">
-        <v>0.0446</v>
+        <v>0.000446</v>
       </c>
       <c r="E1037">
         <v>7</v>
@@ -29410,7 +29410,7 @@
         <v>1287</v>
       </c>
       <c r="G1037">
-        <v>0.1165</v>
+        <v>0.001165</v>
       </c>
       <c r="H1037">
         <v>29</v>
@@ -29429,7 +29429,7 @@
         <v>1222</v>
       </c>
       <c r="D1038">
-        <v>0.0263</v>
+        <v>0.000263</v>
       </c>
       <c r="E1038">
         <v>4</v>
@@ -29438,7 +29438,7 @@
         <v>1437</v>
       </c>
       <c r="G1038">
-        <v>0.13</v>
+        <v>0.0013</v>
       </c>
       <c r="H1038">
         <v>32</v>
@@ -29457,7 +29457,7 @@
         <v>806</v>
       </c>
       <c r="D1039">
-        <v>0.0173</v>
+        <v>0.000173</v>
       </c>
       <c r="E1039">
         <v>4</v>
@@ -29466,7 +29466,7 @@
         <v>1364</v>
       </c>
       <c r="G1039">
-        <v>0.1234</v>
+        <v>0.001234</v>
       </c>
       <c r="H1039">
         <v>33</v>
@@ -29485,7 +29485,7 @@
         <v>1316</v>
       </c>
       <c r="D1040">
-        <v>0.0283</v>
+        <v>0.000283</v>
       </c>
       <c r="E1040">
         <v>3</v>
@@ -29494,7 +29494,7 @@
         <v>3716</v>
       </c>
       <c r="G1040">
-        <v>0.3363</v>
+        <v>0.003363</v>
       </c>
       <c r="H1040">
         <v>90</v>
@@ -29513,7 +29513,7 @@
         <v>32</v>
       </c>
       <c r="D1041">
-        <v>0.0007</v>
+        <v>7e-006</v>
       </c>
       <c r="E1041">
         <v>-1</v>
@@ -29541,7 +29541,7 @@
         <v>147</v>
       </c>
       <c r="D1042">
-        <v>0.0032</v>
+        <v>3.2e-005</v>
       </c>
       <c r="E1042">
         <v>1</v>
@@ -29550,7 +29550,7 @@
         <v>3</v>
       </c>
       <c r="G1042">
-        <v>0.0003</v>
+        <v>3e-006</v>
       </c>
       <c r="H1042">
         <v>1</v>
@@ -29569,7 +29569,7 @@
         <v>681</v>
       </c>
       <c r="D1043">
-        <v>0.0146</v>
+        <v>0.000146</v>
       </c>
       <c r="E1043">
         <v>4</v>
@@ -29578,7 +29578,7 @@
         <v>5</v>
       </c>
       <c r="G1043">
-        <v>0.0004</v>
+        <v>4e-006</v>
       </c>
       <c r="H1043">
         <v>0</v>
@@ -29597,7 +29597,7 @@
         <v>1787</v>
       </c>
       <c r="D1044">
-        <v>0.0384</v>
+        <v>0.000384</v>
       </c>
       <c r="E1044">
         <v>8</v>
@@ -29606,7 +29606,7 @@
         <v>11</v>
       </c>
       <c r="G1044">
-        <v>0.001</v>
+        <v>1e-005</v>
       </c>
       <c r="H1044">
         <v>0</v>
@@ -29634,7 +29634,7 @@
         <v>79</v>
       </c>
       <c r="G1045">
-        <v>0.007</v>
+        <v>7.000000000000001e-005</v>
       </c>
       <c r="H1045">
         <v>3</v>
@@ -29653,7 +29653,7 @@
         <v>9833</v>
       </c>
       <c r="D1046">
-        <v>0.2111</v>
+        <v>0.002111</v>
       </c>
       <c r="E1046">
         <v>24</v>
@@ -29662,7 +29662,7 @@
         <v>224</v>
       </c>
       <c r="G1046">
-        <v>0.0199</v>
+        <v>0.000199</v>
       </c>
       <c r="H1046">
         <v>7</v>
@@ -29681,7 +29681,7 @@
         <v>8929</v>
       </c>
       <c r="D1047">
-        <v>0.1917</v>
+        <v>0.001917</v>
       </c>
       <c r="E1047">
         <v>11</v>
@@ -29709,7 +29709,7 @@
         <v>7870</v>
       </c>
       <c r="D1048">
-        <v>0.1689</v>
+        <v>0.001689</v>
       </c>
       <c r="E1048">
         <v>5</v>
@@ -29718,7 +29718,7 @@
         <v>1322</v>
       </c>
       <c r="G1048">
-        <v>0.1173</v>
+        <v>0.001173</v>
       </c>
       <c r="H1048">
         <v>22</v>
@@ -29737,7 +29737,7 @@
         <v>2988</v>
       </c>
       <c r="D1049">
-        <v>0.0641</v>
+        <v>0.0006410000000000001</v>
       </c>
       <c r="E1049">
         <v>1</v>
@@ -29746,7 +29746,7 @@
         <v>1071</v>
       </c>
       <c r="G1049">
-        <v>0.0951</v>
+        <v>0.000951</v>
       </c>
       <c r="H1049">
         <v>22</v>
@@ -29765,7 +29765,7 @@
         <v>2075</v>
       </c>
       <c r="D1050">
-        <v>0.0445</v>
+        <v>0.000445</v>
       </c>
       <c r="E1050">
         <v>0</v>
@@ -29774,7 +29774,7 @@
         <v>1318</v>
       </c>
       <c r="G1050">
-        <v>0.117</v>
+        <v>0.00117</v>
       </c>
       <c r="H1050">
         <v>31</v>
@@ -29793,7 +29793,7 @@
         <v>1221</v>
       </c>
       <c r="D1051">
-        <v>0.0262</v>
+        <v>0.000262</v>
       </c>
       <c r="E1051">
         <v>-1</v>
@@ -29802,7 +29802,7 @@
         <v>1466</v>
       </c>
       <c r="G1051">
-        <v>0.1301</v>
+        <v>0.001301</v>
       </c>
       <c r="H1051">
         <v>29</v>
@@ -29821,7 +29821,7 @@
         <v>807</v>
       </c>
       <c r="D1052">
-        <v>0.0173</v>
+        <v>0.000173</v>
       </c>
       <c r="E1052">
         <v>1</v>
@@ -29830,7 +29830,7 @@
         <v>1384</v>
       </c>
       <c r="G1052">
-        <v>0.1228</v>
+        <v>0.001228</v>
       </c>
       <c r="H1052">
         <v>20</v>
@@ -29849,7 +29849,7 @@
         <v>1318</v>
       </c>
       <c r="D1053">
-        <v>0.0283</v>
+        <v>0.000283</v>
       </c>
       <c r="E1053">
         <v>2</v>
@@ -29877,7 +29877,7 @@
         <v>31</v>
       </c>
       <c r="D1054">
-        <v>0.0007</v>
+        <v>7e-006</v>
       </c>
       <c r="E1054">
         <v>-1</v>
@@ -29905,7 +29905,7 @@
         <v>148</v>
       </c>
       <c r="D1055">
-        <v>0.32</v>
+        <v>0.0032</v>
       </c>
       <c r="E1055">
         <v>1</v>
@@ -29914,7 +29914,7 @@
         <v>3</v>
       </c>
       <c r="G1055">
-        <v>0.03</v>
+        <v>0.0003</v>
       </c>
       <c r="H1055">
         <v>0</v>
@@ -29942,7 +29942,7 @@
         <v>5</v>
       </c>
       <c r="G1056">
-        <v>0.04</v>
+        <v>0.0004</v>
       </c>
       <c r="H1056">
         <v>0</v>
@@ -29970,7 +29970,7 @@
         <v>11</v>
       </c>
       <c r="G1057">
-        <v>0.1</v>
+        <v>0.001</v>
       </c>
       <c r="H1057">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>79</v>
       </c>
       <c r="G1058">
-        <v>0.69</v>
+        <v>0.0069</v>
       </c>
       <c r="H1058">
         <v>0</v>
@@ -30241,7 +30241,7 @@
         <v>31</v>
       </c>
       <c r="D1067">
-        <v>0.07000000000000001</v>
+        <v>0.0007000000000000001</v>
       </c>
       <c r="E1067">
         <v>0</v>
@@ -30269,7 +30269,7 @@
         <v>148</v>
       </c>
       <c r="D1068">
-        <v>0.32</v>
+        <v>0.0032</v>
       </c>
       <c r="E1068">
         <v>0</v>
@@ -30278,7 +30278,7 @@
         <v>3</v>
       </c>
       <c r="G1068">
-        <v>0.03</v>
+        <v>0.0003</v>
       </c>
       <c r="H1068">
         <v>0</v>
@@ -30306,7 +30306,7 @@
         <v>5</v>
       </c>
       <c r="G1069">
-        <v>0.04</v>
+        <v>0.0004</v>
       </c>
       <c r="H1069">
         <v>0</v>
@@ -30334,7 +30334,7 @@
         <v>11</v>
       </c>
       <c r="G1070">
-        <v>0.1</v>
+        <v>0.001</v>
       </c>
       <c r="H1070">
         <v>0</v>
@@ -30362,7 +30362,7 @@
         <v>79</v>
       </c>
       <c r="G1071">
-        <v>0.69</v>
+        <v>0.0069</v>
       </c>
       <c r="H1071">
         <v>0</v>
@@ -30605,7 +30605,7 @@
         <v>31</v>
       </c>
       <c r="D1080">
-        <v>0.07000000000000001</v>
+        <v>0.0007000000000000001</v>
       </c>
       <c r="E1080">
         <v>0</v>
@@ -30633,7 +30633,7 @@
         <v>148</v>
       </c>
       <c r="D1081">
-        <v>0.32</v>
+        <v>0.0032</v>
       </c>
       <c r="E1081">
         <v>0</v>
@@ -30642,7 +30642,7 @@
         <v>3</v>
       </c>
       <c r="G1081">
-        <v>0.0259156876</v>
+        <v>0.000259156876</v>
       </c>
       <c r="H1081">
         <v>0</v>
@@ -30670,7 +30670,7 @@
         <v>5</v>
       </c>
       <c r="G1082">
-        <v>0.04</v>
+        <v>0.0004</v>
       </c>
       <c r="H1082">
         <v>0</v>
@@ -30698,7 +30698,7 @@
         <v>11</v>
       </c>
       <c r="G1083">
-        <v>0.1</v>
+        <v>0.001</v>
       </c>
       <c r="H1083">
         <v>0</v>
@@ -30726,7 +30726,7 @@
         <v>79</v>
       </c>
       <c r="G1084">
-        <v>0.6800000000000001</v>
+        <v>0.006800000000000001</v>
       </c>
       <c r="H1084">
         <v>0</v>
@@ -30969,7 +30969,7 @@
         <v>31</v>
       </c>
       <c r="D1093">
-        <v>0.0663697868</v>
+        <v>0.000663697868</v>
       </c>
       <c r="E1093">
         <v>0</v>
@@ -31361,7 +31361,7 @@
         <v>149</v>
       </c>
       <c r="D1107">
-        <v>0.32</v>
+        <v>0.0032</v>
       </c>
       <c r="E1107">
         <v>0</v>
@@ -31370,7 +31370,7 @@
         <v>3</v>
       </c>
       <c r="G1107">
-        <v>0.02</v>
+        <v>0.0002</v>
       </c>
       <c r="H1107">
         <v>0</v>
@@ -31398,7 +31398,7 @@
         <v>5</v>
       </c>
       <c r="G1108">
-        <v>0.04</v>
+        <v>0.0004</v>
       </c>
       <c r="H1108">
         <v>0</v>
@@ -31426,7 +31426,7 @@
         <v>11</v>
       </c>
       <c r="G1109">
-        <v>0.09</v>
+        <v>0.0009</v>
       </c>
       <c r="H1109">
         <v>0</v>
@@ -31454,7 +31454,7 @@
         <v>82</v>
       </c>
       <c r="G1110">
-        <v>0.6800000000000001</v>
+        <v>0.006800000000000001</v>
       </c>
       <c r="H1110">
         <v>2</v>
@@ -31697,7 +31697,7 @@
         <v>26</v>
       </c>
       <c r="D1119">
-        <v>0.05</v>
+        <v>0.0005</v>
       </c>
       <c r="E1119">
         <v>0</v>
@@ -34637,7 +34637,7 @@
         <v>156</v>
       </c>
       <c r="D1224">
-        <v>0.32</v>
+        <v>0.0032</v>
       </c>
       <c r="E1224">
         <v>1</v>
@@ -34646,7 +34646,7 @@
         <v>3</v>
       </c>
       <c r="G1224">
-        <v>0.02</v>
+        <v>0.0002</v>
       </c>
       <c r="H1224">
         <v>0</v>
@@ -34674,7 +34674,7 @@
         <v>5</v>
       </c>
       <c r="G1225">
-        <v>0.04</v>
+        <v>0.0004</v>
       </c>
       <c r="H1225">
         <v>0</v>
@@ -34702,7 +34702,7 @@
         <v>15</v>
       </c>
       <c r="G1226">
-        <v>0.11</v>
+        <v>0.0011</v>
       </c>
       <c r="H1226">
         <v>1</v>
@@ -34730,7 +34730,7 @@
         <v>91</v>
       </c>
       <c r="G1227">
-        <v>0.678699284</v>
+        <v>0.006786992840000001</v>
       </c>
       <c r="H1227">
         <v>1</v>
@@ -34973,7 +34973,7 @@
         <v>24</v>
       </c>
       <c r="D1236">
-        <v>0.05</v>
+        <v>0.0005</v>
       </c>
       <c r="E1236">
         <v>0</v>
@@ -35001,7 +35001,7 @@
         <v>156</v>
       </c>
       <c r="D1237">
-        <v>0.32</v>
+        <v>0.0032</v>
       </c>
       <c r="E1237">
         <v>0</v>
@@ -35010,7 +35010,7 @@
         <v>3</v>
       </c>
       <c r="G1237">
-        <v>0.02</v>
+        <v>0.0002</v>
       </c>
       <c r="H1237">
         <v>0</v>
@@ -35038,7 +35038,7 @@
         <v>5</v>
       </c>
       <c r="G1238">
-        <v>0.04</v>
+        <v>0.0004</v>
       </c>
       <c r="H1238">
         <v>0</v>
@@ -35066,7 +35066,7 @@
         <v>15</v>
       </c>
       <c r="G1239">
-        <v>0.11</v>
+        <v>0.0011</v>
       </c>
       <c r="H1239">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>92</v>
       </c>
       <c r="G1240">
-        <v>0.6800000000000001</v>
+        <v>0.006800000000000001</v>
       </c>
       <c r="H1240">
         <v>1</v>
@@ -35337,7 +35337,7 @@
         <v>24</v>
       </c>
       <c r="D1249">
-        <v>0.05</v>
+        <v>0.0005</v>
       </c>
       <c r="E1249">
         <v>0</v>
@@ -36093,7 +36093,7 @@
         <v>158</v>
       </c>
       <c r="D1276">
-        <v>0.32</v>
+        <v>0.0032</v>
       </c>
       <c r="E1276">
         <v>2</v>
@@ -36102,7 +36102,7 @@
         <v>3</v>
       </c>
       <c r="G1276">
-        <v>0.02</v>
+        <v>0.0002</v>
       </c>
       <c r="H1276">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>6</v>
       </c>
       <c r="G1277">
-        <v>0.04</v>
+        <v>0.0004</v>
       </c>
       <c r="H1277">
         <v>1</v>
@@ -36158,7 +36158,7 @@
         <v>15</v>
       </c>
       <c r="G1278">
-        <v>0.11</v>
+        <v>0.0011</v>
       </c>
       <c r="H1278">
         <v>0</v>
@@ -36186,7 +36186,7 @@
         <v>93</v>
       </c>
       <c r="G1279">
-        <v>0.6800000000000001</v>
+        <v>0.006800000000000001</v>
       </c>
       <c r="H1279">
         <v>1</v>
@@ -36429,7 +36429,7 @@
         <v>24</v>
       </c>
       <c r="D1288">
-        <v>0.0490226117</v>
+        <v>0.000490226117</v>
       </c>
       <c r="E1288">
         <v>0</v>
@@ -37129,7 +37129,7 @@
         <v>160</v>
       </c>
       <c r="D1313">
-        <v>0.32</v>
+        <v>0.0032</v>
       </c>
       <c r="E1313">
         <v>2</v>
@@ -37138,7 +37138,7 @@
         <v>3</v>
       </c>
       <c r="G1313">
-        <v>0.02</v>
+        <v>0.0002</v>
       </c>
       <c r="H1313">
         <v>0</v>
@@ -37166,7 +37166,7 @@
         <v>6</v>
       </c>
       <c r="G1314">
-        <v>0.04</v>
+        <v>0.0004</v>
       </c>
       <c r="H1314">
         <v>0</v>
@@ -37194,7 +37194,7 @@
         <v>16</v>
       </c>
       <c r="G1315">
-        <v>0.11</v>
+        <v>0.0011</v>
       </c>
       <c r="H1315">
         <v>0</v>
@@ -37222,7 +37222,7 @@
         <v>94</v>
       </c>
       <c r="G1316">
-        <v>0.66</v>
+        <v>0.0066</v>
       </c>
       <c r="H1316">
         <v>1</v>
@@ -38473,7 +38473,7 @@
         <v>167</v>
       </c>
       <c r="D1361">
-        <v>0.33</v>
+        <v>0.0033</v>
       </c>
       <c r="E1361">
         <v>1</v>
@@ -38482,7 +38482,7 @@
         <v>3</v>
       </c>
       <c r="G1361">
-        <v>0.02</v>
+        <v>0.0002</v>
       </c>
       <c r="H1361">
         <v>0</v>
@@ -38510,7 +38510,7 @@
         <v>6</v>
       </c>
       <c r="G1362">
-        <v>0.04</v>
+        <v>0.0004</v>
       </c>
       <c r="H1362">
         <v>0</v>
@@ -38538,7 +38538,7 @@
         <v>16</v>
       </c>
       <c r="G1363">
-        <v>0.1096641535</v>
+        <v>0.001096641535</v>
       </c>
       <c r="H1363">
         <v>0</v>
@@ -38566,7 +38566,7 @@
         <v>93</v>
       </c>
       <c r="G1364">
-        <v>0.64</v>
+        <v>0.0064</v>
       </c>
       <c r="H1364">
         <v>-1</v>
@@ -41359,7 +41359,7 @@
         <v>203</v>
       </c>
       <c r="D91">
-        <v>0.9244080146</v>
+        <v>0.009244080146</v>
       </c>
       <c r="E91">
         <v>13</v>
@@ -41956,7 +41956,7 @@
         <v>3</v>
       </c>
       <c r="G112">
-        <v>0.4329004329</v>
+        <v>0.004329004329</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -42124,7 +42124,7 @@
         <v>3</v>
       </c>
       <c r="G118">
-        <v>0.4225352113</v>
+        <v>0.004225352113</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -42208,7 +42208,7 @@
         <v>3</v>
       </c>
       <c r="G121">
-        <v>0.4184100418</v>
+        <v>0.004184100418000001</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -42460,7 +42460,7 @@
         <v>1</v>
       </c>
       <c r="G130">
-        <v>0.1390820584</v>
+        <v>0.001390820584</v>
       </c>
       <c r="H130">
         <v>-2</v>
@@ -42544,7 +42544,7 @@
         <v>1</v>
       </c>
       <c r="G133">
-        <v>0.1373626374</v>
+        <v>0.001373626374</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -42628,7 +42628,7 @@
         <v>1</v>
       </c>
       <c r="G136">
-        <v>0.1360544218</v>
+        <v>0.001360544218</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -42712,7 +42712,7 @@
         <v>1</v>
       </c>
       <c r="G139">
-        <v>0.1351351351</v>
+        <v>0.001351351351</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -42796,7 +42796,7 @@
         <v>1</v>
       </c>
       <c r="G142">
-        <v>0.1335113485</v>
+        <v>0.001335113485</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -42880,7 +42880,7 @@
         <v>1</v>
       </c>
       <c r="G145">
-        <v>0.1328021248</v>
+        <v>0.001328021248</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -43468,7 +43468,7 @@
         <v>1</v>
       </c>
       <c r="G166">
-        <v>0.1270648031</v>
+        <v>0.001270648031</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -45615,7 +45615,7 @@
         <v>29871</v>
       </c>
       <c r="D243">
-        <v>0.6412</v>
+        <v>0.006412</v>
       </c>
       <c r="E243">
         <v>68</v>
@@ -45643,7 +45643,7 @@
         <v>1025</v>
       </c>
       <c r="D244">
-        <v>0.022</v>
+        <v>0.00022</v>
       </c>
       <c r="E244">
         <v>-4</v>
@@ -49593,7 +49593,7 @@
         <v>97</v>
       </c>
       <c r="D65">
-        <v>0.6394199077</v>
+        <v>0.006394199077</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -49602,7 +49602,7 @@
         <v>5</v>
       </c>
       <c r="G65">
-        <v>0.7530120482</v>
+        <v>0.007530120482</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -50433,7 +50433,7 @@
         <v>99</v>
       </c>
       <c r="D95">
-        <v>0.6</v>
+        <v>0.006</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -52785,7 +52785,7 @@
         <v>119</v>
       </c>
       <c r="D179">
-        <v>0.5418943534</v>
+        <v>0.005418943534</v>
       </c>
       <c r="E179">
         <v>1</v>
@@ -52794,7 +52794,7 @@
         <v>5</v>
       </c>
       <c r="G179">
-        <v>0.7552870091</v>
+        <v>0.007552870091</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -53961,7 +53961,7 @@
         <v>130</v>
       </c>
       <c r="D221">
-        <v>0.5397774456</v>
+        <v>0.005397774455999999</v>
       </c>
       <c r="E221">
         <v>7</v>
@@ -53970,7 +53970,7 @@
         <v>1</v>
       </c>
       <c r="G221">
-        <v>0.1443001443</v>
+        <v>0.001443001443</v>
       </c>
       <c r="H221">
         <v>0</v>
@@ -54297,7 +54297,7 @@
         <v>132</v>
       </c>
       <c r="D233">
-        <v>0.5331609985</v>
+        <v>0.005331609985</v>
       </c>
       <c r="E233">
         <v>2</v>
@@ -54306,7 +54306,7 @@
         <v>1</v>
       </c>
       <c r="G233">
-        <v>0.1408450704</v>
+        <v>0.001408450704</v>
       </c>
       <c r="H233">
         <v>0</v>
@@ -54465,7 +54465,7 @@
         <v>133</v>
       </c>
       <c r="D239">
-        <v>0.5258787711</v>
+        <v>0.005258787711</v>
       </c>
       <c r="E239">
         <v>1</v>
@@ -54474,7 +54474,7 @@
         <v>1</v>
       </c>
       <c r="G239">
-        <v>0.1394700139</v>
+        <v>0.001394700139</v>
       </c>
       <c r="H239">
         <v>0</v>
@@ -54969,7 +54969,7 @@
         <v>133</v>
       </c>
       <c r="D257">
-        <v>0.521650455</v>
+        <v>0.00521650455</v>
       </c>
       <c r="E257">
         <v>0</v>
@@ -54978,7 +54978,7 @@
         <v>1</v>
       </c>
       <c r="G257">
-        <v>0.1390820584</v>
+        <v>0.001390820584</v>
       </c>
       <c r="H257">
         <v>0</v>
@@ -55137,7 +55137,7 @@
         <v>135</v>
       </c>
       <c r="D263">
-        <v>0.5138550548</v>
+        <v>0.005138550548000001</v>
       </c>
       <c r="E263">
         <v>2</v>
@@ -55146,7 +55146,7 @@
         <v>1</v>
       </c>
       <c r="G263">
-        <v>0.1373626374</v>
+        <v>0.001373626374</v>
       </c>
       <c r="H263">
         <v>0</v>
@@ -55305,7 +55305,7 @@
         <v>137</v>
       </c>
       <c r="D269">
-        <v>0.5085374907</v>
+        <v>0.005085374907</v>
       </c>
       <c r="E269">
         <v>2</v>
@@ -55314,7 +55314,7 @@
         <v>1</v>
       </c>
       <c r="G269">
-        <v>0.1360544218</v>
+        <v>0.001360544218</v>
       </c>
       <c r="H269">
         <v>0</v>
@@ -55473,7 +55473,7 @@
         <v>138</v>
       </c>
       <c r="D275">
-        <v>0.503135482</v>
+        <v>0.00503135482</v>
       </c>
       <c r="E275">
         <v>1</v>
@@ -55482,7 +55482,7 @@
         <v>1</v>
       </c>
       <c r="G275">
-        <v>0.1351351351</v>
+        <v>0.001351351351</v>
       </c>
       <c r="H275">
         <v>0</v>
@@ -55641,7 +55641,7 @@
         <v>140</v>
       </c>
       <c r="D281">
-        <v>0.5002322507</v>
+        <v>0.005002322507</v>
       </c>
       <c r="E281">
         <v>2</v>
@@ -55650,7 +55650,7 @@
         <v>1</v>
       </c>
       <c r="G281">
-        <v>0.1335113485</v>
+        <v>0.001335113485</v>
       </c>
       <c r="H281">
         <v>0</v>
@@ -55809,7 +55809,7 @@
         <v>147</v>
       </c>
       <c r="D287">
-        <v>0.5211841872</v>
+        <v>0.005211841872</v>
       </c>
       <c r="E287">
         <v>7</v>
@@ -55818,7 +55818,7 @@
         <v>2</v>
       </c>
       <c r="G287">
-        <v>0.2656042497</v>
+        <v>0.002656042497</v>
       </c>
       <c r="H287">
         <v>1</v>
@@ -56985,7 +56985,7 @@
         <v>153</v>
       </c>
       <c r="D329">
-        <v>0.4751257686</v>
+        <v>0.004751257686</v>
       </c>
       <c r="E329">
         <v>1</v>
@@ -56994,7 +56994,7 @@
         <v>2</v>
       </c>
       <c r="G329">
-        <v>0.2541296061</v>
+        <v>0.002541296061</v>
       </c>
       <c r="H329">
         <v>0</v>
@@ -57153,7 +57153,7 @@
         <v>152</v>
       </c>
       <c r="D335">
-        <v>0.4712009424</v>
+        <v>0.004712009424</v>
       </c>
       <c r="E335">
         <v>-1</v>
@@ -57162,7 +57162,7 @@
         <v>46</v>
       </c>
       <c r="G335">
-        <v>0.8051811658</v>
+        <v>0.008051811658000001</v>
       </c>
       <c r="H335">
         <v>44</v>
@@ -57190,7 +57190,7 @@
         <v>3</v>
       </c>
       <c r="G336">
-        <v>0.0525118152</v>
+        <v>0.000525118152</v>
       </c>
       <c r="H336">
         <v>-94</v>
@@ -57321,7 +57321,7 @@
         <v>155</v>
       </c>
       <c r="D341">
-        <v>0.4685893948</v>
+        <v>0.004685893948</v>
       </c>
       <c r="E341">
         <v>3</v>
@@ -57330,7 +57330,7 @@
         <v>47</v>
       </c>
       <c r="G341">
-        <v>0.7997277523</v>
+        <v>0.007997277523</v>
       </c>
       <c r="H341">
         <v>1</v>
@@ -57358,7 +57358,7 @@
         <v>4</v>
       </c>
       <c r="G342">
-        <v>0.0680619364</v>
+        <v>0.000680619364</v>
       </c>
       <c r="H342">
         <v>1</v>
@@ -57489,7 +57489,7 @@
         <v>156</v>
       </c>
       <c r="D347">
-        <v>0.4607614378</v>
+        <v>0.004607614378</v>
       </c>
       <c r="E347">
         <v>1</v>
@@ -57498,7 +57498,7 @@
         <v>50</v>
       </c>
       <c r="G347">
-        <v>0.8077544426</v>
+        <v>0.008077544426</v>
       </c>
       <c r="H347">
         <v>3</v>
@@ -57526,7 +57526,7 @@
         <v>4</v>
       </c>
       <c r="G348">
-        <v>0.0646203554</v>
+        <v>0.000646203554</v>
       </c>
       <c r="H348">
         <v>0</v>
@@ -57582,7 +57582,7 @@
         <v>156</v>
       </c>
       <c r="G350">
-        <v>0.1115715652</v>
+        <v>0.001115715652</v>
       </c>
       <c r="H350">
         <v>-2</v>
@@ -57657,7 +57657,7 @@
         <v>161</v>
       </c>
       <c r="D353">
-        <v>0.4641909814</v>
+        <v>0.004641909814</v>
       </c>
       <c r="E353">
         <v>5</v>
@@ -57666,7 +57666,7 @@
         <v>53</v>
       </c>
       <c r="G353">
-        <v>0.1593879503</v>
+        <v>0.001593879503</v>
       </c>
       <c r="H353">
         <v>3</v>
@@ -57825,7 +57825,7 @@
         <v>164</v>
       </c>
       <c r="D359">
-        <v>0.4612961296</v>
+        <v>0.004612961296</v>
       </c>
       <c r="E359">
         <v>3</v>
@@ -57834,7 +57834,7 @@
         <v>53</v>
       </c>
       <c r="G359">
-        <v>0.8068199117</v>
+        <v>0.008068199117</v>
       </c>
       <c r="H359">
         <v>0</v>
@@ -57862,7 +57862,7 @@
         <v>4</v>
       </c>
       <c r="G360">
-        <v>0.0608920688</v>
+        <v>0.000608920688</v>
       </c>
       <c r="H360">
         <v>0</v>
@@ -58329,7 +58329,7 @@
         <v>169</v>
       </c>
       <c r="D377">
-        <v>0.4572139707</v>
+        <v>0.004572139707</v>
       </c>
       <c r="E377">
         <v>1</v>
@@ -58338,7 +58338,7 @@
         <v>53</v>
       </c>
       <c r="G377">
-        <v>0.7299270073</v>
+        <v>0.007299270073</v>
       </c>
       <c r="H377">
         <v>0</v>
@@ -58366,7 +58366,7 @@
         <v>4</v>
       </c>
       <c r="G378">
-        <v>0.0550888307</v>
+        <v>0.000550888307</v>
       </c>
       <c r="H378">
         <v>0</v>
@@ -58441,7 +58441,7 @@
         <v>5444</v>
       </c>
       <c r="D381">
-        <v>0.1427</v>
+        <v>0.001427</v>
       </c>
       <c r="E381">
         <v>316</v>
@@ -58469,7 +58469,7 @@
         <v>15165</v>
       </c>
       <c r="D382">
-        <v>0.3976</v>
+        <v>0.003976</v>
       </c>
       <c r="E382">
         <v>421</v>
@@ -58497,7 +58497,7 @@
         <v>171</v>
       </c>
       <c r="D383">
-        <v>0.0045</v>
+        <v>4.5e-005</v>
       </c>
       <c r="E383">
         <v>2</v>
@@ -58525,7 +58525,7 @@
         <v>6385</v>
       </c>
       <c r="D384">
-        <v>0.1674</v>
+        <v>0.001674</v>
       </c>
       <c r="E384">
         <v>47</v>
@@ -58553,7 +58553,7 @@
         <v>10268</v>
       </c>
       <c r="D385">
-        <v>0.2692</v>
+        <v>0.002692</v>
       </c>
       <c r="E385">
         <v>391</v>
@@ -58665,7 +58665,7 @@
         <v>172</v>
       </c>
       <c r="D389">
-        <v>0.4415917843</v>
+        <v>0.004415917843</v>
       </c>
       <c r="E389">
         <v>1</v>
@@ -58674,7 +58674,7 @@
         <v>55</v>
       </c>
       <c r="G389">
-        <v>0.7048571062</v>
+        <v>0.007048571062</v>
       </c>
       <c r="H389">
         <v>2</v>
@@ -58702,7 +58702,7 @@
         <v>4</v>
       </c>
       <c r="G390">
-        <v>0.051262335</v>
+        <v>0.00051262335</v>
       </c>
       <c r="H390">
         <v>0</v>
@@ -58833,7 +58833,7 @@
         <v>175</v>
       </c>
       <c r="D395">
-        <v>0.4424219441</v>
+        <v>0.004424219441000001</v>
       </c>
       <c r="E395">
         <v>3</v>
@@ -58842,7 +58842,7 @@
         <v>56</v>
       </c>
       <c r="G395">
-        <v>0.6916996047</v>
+        <v>0.006916996047</v>
       </c>
       <c r="H395">
         <v>1</v>
@@ -58870,7 +58870,7 @@
         <v>4</v>
       </c>
       <c r="G396">
-        <v>0.0494071146</v>
+        <v>0.0004940711460000001</v>
       </c>
       <c r="H396">
         <v>0</v>
@@ -59169,7 +59169,7 @@
         <v>177</v>
       </c>
       <c r="D407">
-        <v>0.4366596768</v>
+        <v>0.004366596768</v>
       </c>
       <c r="E407">
         <v>2</v>
@@ -59178,7 +59178,7 @@
         <v>58</v>
       </c>
       <c r="G407">
-        <v>0.6856602435</v>
+        <v>0.006856602435</v>
       </c>
       <c r="H407">
         <v>-2</v>
@@ -59206,7 +59206,7 @@
         <v>4</v>
       </c>
       <c r="G408">
-        <v>0.0472869133</v>
+        <v>0.000472869133</v>
       </c>
       <c r="H408">
         <v>0</v>
@@ -60513,7 +60513,7 @@
         <v>186</v>
       </c>
       <c r="D455">
-        <v>0.410831824</v>
+        <v>0.004108318240000001</v>
       </c>
       <c r="E455">
         <v>1</v>
@@ -60522,7 +60522,7 @@
         <v>65</v>
       </c>
       <c r="G455">
-        <v>0.6477974885</v>
+        <v>0.006477974885</v>
       </c>
       <c r="H455">
         <v>0</v>
@@ -60550,7 +60550,7 @@
         <v>4</v>
       </c>
       <c r="G456">
-        <v>0.0398644608</v>
+        <v>0.000398644608</v>
       </c>
       <c r="H456">
         <v>0</v>
@@ -60681,7 +60681,7 @@
         <v>187</v>
       </c>
       <c r="D461">
-        <v>0.4103036686</v>
+        <v>0.004103036686</v>
       </c>
       <c r="E461">
         <v>1</v>
@@ -60690,7 +60690,7 @@
         <v>66</v>
       </c>
       <c r="G461">
-        <v>0.643902439</v>
+        <v>0.00643902439</v>
       </c>
       <c r="H461">
         <v>1</v>
@@ -60718,7 +60718,7 @@
         <v>4</v>
       </c>
       <c r="G462">
-        <v>0.0390243902</v>
+        <v>0.000390243902</v>
       </c>
       <c r="H462">
         <v>0</v>
@@ -60849,7 +60849,7 @@
         <v>190</v>
       </c>
       <c r="D467">
-        <v>0.4129896101</v>
+        <v>0.004129896101</v>
       </c>
       <c r="E467">
         <v>3</v>
@@ -60858,7 +60858,7 @@
         <v>66</v>
       </c>
       <c r="G467">
-        <v>0.6250591912</v>
+        <v>0.006250591912</v>
       </c>
       <c r="H467">
         <v>0</v>
@@ -60886,7 +60886,7 @@
         <v>4</v>
       </c>
       <c r="G468">
-        <v>0.0378823752</v>
+        <v>0.000378823752</v>
       </c>
       <c r="H468">
         <v>0</v>
@@ -61017,7 +61017,7 @@
         <v>198</v>
       </c>
       <c r="D473">
-        <v>0.4275626768</v>
+        <v>0.004275626768</v>
       </c>
       <c r="E473">
         <v>8</v>
@@ -61026,7 +61026,7 @@
         <v>67</v>
       </c>
       <c r="G473">
-        <v>0.6207727231</v>
+        <v>0.006207727231</v>
       </c>
       <c r="H473">
         <v>1</v>
@@ -61054,7 +61054,7 @@
         <v>4</v>
       </c>
       <c r="G474">
-        <v>0.0370610581</v>
+        <v>0.000370610581</v>
       </c>
       <c r="H474">
         <v>0</v>
@@ -61297,7 +61297,7 @@
         <v>7425</v>
       </c>
       <c r="D483">
-        <v>0.1594</v>
+        <v>0.001594</v>
       </c>
       <c r="E483">
         <v>14</v>
@@ -61325,7 +61325,7 @@
         <v>18566</v>
       </c>
       <c r="D484">
-        <v>0.3985</v>
+        <v>0.003985</v>
       </c>
       <c r="E484">
         <v>59</v>
@@ -61353,7 +61353,7 @@
         <v>200</v>
       </c>
       <c r="D485">
-        <v>0.0043</v>
+        <v>4.3e-005</v>
       </c>
       <c r="E485">
         <v>0</v>
@@ -61381,7 +61381,7 @@
         <v>6574</v>
       </c>
       <c r="D486">
-        <v>0.1411</v>
+        <v>0.001411</v>
       </c>
       <c r="E486">
         <v>-16</v>
@@ -61409,7 +61409,7 @@
         <v>13078</v>
       </c>
       <c r="D487">
-        <v>0.2807</v>
+        <v>0.002807</v>
       </c>
       <c r="E487">
         <v>36</v>
@@ -61521,7 +61521,7 @@
         <v>200</v>
       </c>
       <c r="D491">
-        <v>0.4289176264</v>
+        <v>0.004289176263999999</v>
       </c>
       <c r="E491">
         <v>0</v>
@@ -61530,7 +61530,7 @@
         <v>68</v>
       </c>
       <c r="G491">
-        <v>0.6</v>
+        <v>0.006</v>
       </c>
       <c r="H491">
         <v>0</v>
@@ -61558,7 +61558,7 @@
         <v>4</v>
       </c>
       <c r="G492">
-        <v>0.04</v>
+        <v>0.0004</v>
       </c>
       <c r="H492">
         <v>0</v>
@@ -61689,7 +61689,7 @@
         <v>205</v>
       </c>
       <c r="D497">
-        <v>0.44</v>
+        <v>0.0044</v>
       </c>
       <c r="E497">
         <v>5</v>
@@ -61698,7 +61698,7 @@
         <v>68</v>
       </c>
       <c r="G497">
-        <v>0.6</v>
+        <v>0.006</v>
       </c>
       <c r="H497">
         <v>0</v>
@@ -61726,7 +61726,7 @@
         <v>4</v>
       </c>
       <c r="G498">
-        <v>0.04</v>
+        <v>0.0004</v>
       </c>
       <c r="H498">
         <v>0</v>
@@ -61857,7 +61857,7 @@
         <v>205</v>
       </c>
       <c r="D503">
-        <v>0.44</v>
+        <v>0.0044</v>
       </c>
       <c r="E503">
         <v>0</v>
@@ -61866,7 +61866,7 @@
         <v>68</v>
       </c>
       <c r="G503">
-        <v>0.59</v>
+        <v>0.0059</v>
       </c>
       <c r="H503">
         <v>0</v>
@@ -61894,7 +61894,7 @@
         <v>4</v>
       </c>
       <c r="G504">
-        <v>0.03</v>
+        <v>0.0003</v>
       </c>
       <c r="H504">
         <v>0</v>
@@ -62193,7 +62193,7 @@
         <v>210</v>
       </c>
       <c r="D515">
-        <v>0.44</v>
+        <v>0.0044</v>
       </c>
       <c r="E515">
         <v>2</v>
@@ -62202,7 +62202,7 @@
         <v>70</v>
       </c>
       <c r="G515">
-        <v>0.58</v>
+        <v>0.0058</v>
       </c>
       <c r="H515">
         <v>1</v>
@@ -62230,7 +62230,7 @@
         <v>4</v>
       </c>
       <c r="G516">
-        <v>0.0331400166</v>
+        <v>0.000331400166</v>
       </c>
       <c r="H516">
         <v>0</v>
@@ -63705,7 +63705,7 @@
         <v>219</v>
       </c>
       <c r="D569">
-        <v>0.45</v>
+        <v>0.004500000000000001</v>
       </c>
       <c r="E569">
         <v>2</v>
@@ -63714,7 +63714,7 @@
         <v>76</v>
       </c>
       <c r="G569">
-        <v>0.57</v>
+        <v>0.005699999999999999</v>
       </c>
       <c r="H569">
         <v>1</v>
@@ -63742,7 +63742,7 @@
         <v>5</v>
       </c>
       <c r="G570">
-        <v>0.04</v>
+        <v>0.0004</v>
       </c>
       <c r="H570">
         <v>1</v>
@@ -63873,7 +63873,7 @@
         <v>220</v>
       </c>
       <c r="D575">
-        <v>0.45</v>
+        <v>0.004500000000000001</v>
       </c>
       <c r="E575">
         <v>1</v>
@@ -63882,7 +63882,7 @@
         <v>76</v>
       </c>
       <c r="G575">
-        <v>0.5600000000000001</v>
+        <v>0.005600000000000001</v>
       </c>
       <c r="H575">
         <v>0</v>
@@ -63910,7 +63910,7 @@
         <v>5</v>
       </c>
       <c r="G576">
-        <v>0.04</v>
+        <v>0.0004</v>
       </c>
       <c r="H576">
         <v>0</v>
@@ -64377,7 +64377,7 @@
         <v>219</v>
       </c>
       <c r="D593">
-        <v>0.45</v>
+        <v>0.004500000000000001</v>
       </c>
       <c r="E593">
         <v>-1</v>
@@ -64386,7 +64386,7 @@
         <v>77</v>
       </c>
       <c r="G593">
-        <v>0.5600000000000001</v>
+        <v>0.005600000000000001</v>
       </c>
       <c r="H593">
         <v>0</v>
@@ -64414,7 +64414,7 @@
         <v>7</v>
       </c>
       <c r="G594">
-        <v>0.05</v>
+        <v>0.0005</v>
       </c>
       <c r="H594">
         <v>1</v>
@@ -64881,7 +64881,7 @@
         <v>225</v>
       </c>
       <c r="D611">
-        <v>0.4493888312</v>
+        <v>0.004493888312</v>
       </c>
       <c r="E611">
         <v>2</v>
@@ -64890,7 +64890,7 @@
         <v>78</v>
       </c>
       <c r="G611">
-        <v>0.55</v>
+        <v>0.005500000000000001</v>
       </c>
       <c r="H611">
         <v>0</v>
@@ -64918,7 +64918,7 @@
         <v>7</v>
       </c>
       <c r="G612">
-        <v>0.05</v>
+        <v>0.0005</v>
       </c>
       <c r="H612">
         <v>0</v>
@@ -65553,7 +65553,7 @@
         <v>232</v>
       </c>
       <c r="D635">
-        <v>0.45</v>
+        <v>0.004500000000000001</v>
       </c>
       <c r="E635">
         <v>1</v>
@@ -65562,7 +65562,7 @@
         <v>80</v>
       </c>
       <c r="G635">
-        <v>0.55</v>
+        <v>0.005500000000000001</v>
       </c>
       <c r="H635">
         <v>0</v>
@@ -65590,7 +65590,7 @@
         <v>8</v>
       </c>
       <c r="G636">
-        <v>0.05</v>
+        <v>0.0005</v>
       </c>
       <c r="H636">
         <v>1</v>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1372"/>
+  <dimension ref="A1:H1384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -24448,7 +24448,7 @@
         <v>0.003565106828550772</v>
       </c>
       <c r="E860">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="F860">
         <v>2</v>
@@ -24476,7 +24476,7 @@
         <v>0.0161551694049014</v>
       </c>
       <c r="E861">
-        <v>-150</v>
+        <v>-160</v>
       </c>
       <c r="F861">
         <v>5</v>
@@ -24504,7 +24504,7 @@
         <v>0.0413851561915684</v>
       </c>
       <c r="E862">
-        <v>-437</v>
+        <v>-467</v>
       </c>
       <c r="F862">
         <v>8</v>
@@ -24532,7 +24532,7 @@
         <v>0.185011592829897</v>
       </c>
       <c r="E863">
-        <v>-2388</v>
+        <v>-2472</v>
       </c>
       <c r="F863">
         <v>63</v>
@@ -24541,7 +24541,7 @@
         <v>0.007551240560949299</v>
       </c>
       <c r="H863">
-        <v>-30</v>
+        <v>-31</v>
       </c>
     </row>
     <row r="864">
@@ -24560,7 +24560,7 @@
         <v>0.2015407244895415</v>
       </c>
       <c r="E864">
-        <v>-2792</v>
+        <v>-2881</v>
       </c>
       <c r="F864">
         <v>174</v>
@@ -24569,7 +24569,7 @@
         <v>0.02085580726357425</v>
       </c>
       <c r="H864">
-        <v>-99</v>
+        <v>-102</v>
       </c>
     </row>
     <row r="865">
@@ -24588,7 +24588,7 @@
         <v>0.1871307122734412</v>
       </c>
       <c r="E865">
-        <v>-2380</v>
+        <v>-2475</v>
       </c>
       <c r="F865">
         <v>455</v>
@@ -24597,7 +24597,7 @@
         <v>0.05453673738463383</v>
       </c>
       <c r="H865">
-        <v>-358</v>
+        <v>-366</v>
       </c>
     </row>
     <row r="866">
@@ -24616,7 +24616,7 @@
         <v>0.1710503353194884</v>
       </c>
       <c r="E866">
-        <v>-1794</v>
+        <v>-1893</v>
       </c>
       <c r="F866">
         <v>961</v>
@@ -24625,7 +24625,7 @@
         <v>0.115186383794798</v>
       </c>
       <c r="H866">
-        <v>-806</v>
+        <v>-825</v>
       </c>
     </row>
     <row r="867">
@@ -24644,7 +24644,7 @@
         <v>0.06671486624616689</v>
       </c>
       <c r="E867">
-        <v>-568</v>
+        <v>-600</v>
       </c>
       <c r="F867">
         <v>784</v>
@@ -24653,7 +24653,7 @@
         <v>0.09397099364736905</v>
       </c>
       <c r="H867">
-        <v>-600</v>
+        <v>-618</v>
       </c>
     </row>
     <row r="868">
@@ -24672,7 +24672,7 @@
         <v>0.04759292962030366</v>
       </c>
       <c r="E868">
-        <v>-328</v>
+        <v>-342</v>
       </c>
       <c r="F868">
         <v>956</v>
@@ -24681,7 +24681,7 @@
         <v>0.1145870789883735</v>
       </c>
       <c r="H868">
-        <v>-753</v>
+        <v>-767</v>
       </c>
     </row>
     <row r="869">
@@ -24700,7 +24700,7 @@
         <v>0.02844606217745756</v>
       </c>
       <c r="E869">
-        <v>-185</v>
+        <v>-198</v>
       </c>
       <c r="F869">
         <v>1079</v>
@@ -24709,7 +24709,7 @@
         <v>0.1293299772264174</v>
       </c>
       <c r="H869">
-        <v>-824</v>
+        <v>-834</v>
       </c>
     </row>
     <row r="870">
@@ -24728,7 +24728,7 @@
         <v>0.01899728254094887</v>
       </c>
       <c r="E870">
-        <v>-99</v>
+        <v>-105</v>
       </c>
       <c r="F870">
         <v>1039</v>
@@ -24737,7 +24737,7 @@
         <v>0.124535538775021</v>
       </c>
       <c r="H870">
-        <v>-751</v>
+        <v>-762</v>
       </c>
     </row>
     <row r="871">
@@ -24756,7 +24756,7 @@
         <v>0.03163720675126524</v>
       </c>
       <c r="E871">
-        <v>-116</v>
+        <v>-119</v>
       </c>
       <c r="F871">
         <v>2817</v>
@@ -24765,7 +24765,7 @@
         <v>0.3376483279395901</v>
       </c>
       <c r="H871">
-        <v>-2016</v>
+        <v>-2055</v>
       </c>
     </row>
     <row r="872">
@@ -38794,6 +38794,342 @@
       </c>
       <c r="H1372">
         <v>29</v>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" s="2">
+        <v>44092</v>
+      </c>
+      <c r="B1373" t="inlineStr">
+        <is>
+          <t>&lt;1 year</t>
+        </is>
+      </c>
+      <c r="C1373">
+        <v>170</v>
+      </c>
+      <c r="D1373">
+        <v>0.003279384247381315</v>
+      </c>
+      <c r="E1373">
+        <v>3</v>
+      </c>
+      <c r="F1373">
+        <v>3</v>
+      </c>
+      <c r="G1373">
+        <v>0.0002039013117651057</v>
+      </c>
+      <c r="H1373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" s="2">
+        <v>44092</v>
+      </c>
+      <c r="B1374" t="inlineStr">
+        <is>
+          <t>1-9 years</t>
+        </is>
+      </c>
+      <c r="C1374">
+        <v>808</v>
+      </c>
+      <c r="D1374">
+        <v>0.01558672042284766</v>
+      </c>
+      <c r="E1374">
+        <v>10</v>
+      </c>
+      <c r="F1374">
+        <v>6</v>
+      </c>
+      <c r="G1374">
+        <v>0.0004078026235302114</v>
+      </c>
+      <c r="H1374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" s="2">
+        <v>44092</v>
+      </c>
+      <c r="B1375" t="inlineStr">
+        <is>
+          <t>10-19 years</t>
+        </is>
+      </c>
+      <c r="C1375">
+        <v>2127</v>
+      </c>
+      <c r="D1375">
+        <v>0.0410308840834121</v>
+      </c>
+      <c r="E1375">
+        <v>30</v>
+      </c>
+      <c r="F1375">
+        <v>16</v>
+      </c>
+      <c r="G1375">
+        <v>0.00108747366274723</v>
+      </c>
+      <c r="H1375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" s="2">
+        <v>44092</v>
+      </c>
+      <c r="B1376" t="inlineStr">
+        <is>
+          <t>20-29 years</t>
+        </is>
+      </c>
+      <c r="C1376">
+        <v>9893</v>
+      </c>
+      <c r="D1376">
+        <v>0.1908408727020197</v>
+      </c>
+      <c r="E1376">
+        <v>84</v>
+      </c>
+      <c r="F1376">
+        <v>94</v>
+      </c>
+      <c r="G1376">
+        <v>0.006388907768639978</v>
+      </c>
+      <c r="H1376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" s="2">
+        <v>44092</v>
+      </c>
+      <c r="B1377" t="inlineStr">
+        <is>
+          <t>30-39 years</t>
+        </is>
+      </c>
+      <c r="C1377">
+        <v>10965</v>
+      </c>
+      <c r="D1377">
+        <v>0.2115202839560949</v>
+      </c>
+      <c r="E1377">
+        <v>89</v>
+      </c>
+      <c r="F1377">
+        <v>276</v>
+      </c>
+      <c r="G1377">
+        <v>0.01875892068238972</v>
+      </c>
+      <c r="H1377">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" s="2">
+        <v>44092</v>
+      </c>
+      <c r="B1378" t="inlineStr">
+        <is>
+          <t>40-49 years</t>
+        </is>
+      </c>
+      <c r="C1378">
+        <v>9981</v>
+      </c>
+      <c r="D1378">
+        <v>0.1925384363124289</v>
+      </c>
+      <c r="E1378">
+        <v>95</v>
+      </c>
+      <c r="F1378">
+        <v>821</v>
+      </c>
+      <c r="G1378">
+        <v>0.05580099231971726</v>
+      </c>
+      <c r="H1378">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" s="2">
+        <v>44092</v>
+      </c>
+      <c r="B1379" t="inlineStr">
+        <is>
+          <t>50-59 years</t>
+        </is>
+      </c>
+      <c r="C1379">
+        <v>8754</v>
+      </c>
+      <c r="D1379">
+        <v>0.1688689982445649</v>
+      </c>
+      <c r="E1379">
+        <v>99</v>
+      </c>
+      <c r="F1379">
+        <v>1786</v>
+      </c>
+      <c r="G1379">
+        <v>0.1213892476041596</v>
+      </c>
+      <c r="H1379">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" s="2">
+        <v>44092</v>
+      </c>
+      <c r="B1380" t="inlineStr">
+        <is>
+          <t>60-64 years</t>
+        </is>
+      </c>
+      <c r="C1380">
+        <v>3276</v>
+      </c>
+      <c r="D1380">
+        <v>0.06319566349659522</v>
+      </c>
+      <c r="E1380">
+        <v>32</v>
+      </c>
+      <c r="F1380">
+        <v>1402</v>
+      </c>
+      <c r="G1380">
+        <v>0.09528987969822605</v>
+      </c>
+      <c r="H1380">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" s="2">
+        <v>44092</v>
+      </c>
+      <c r="B1381" t="inlineStr">
+        <is>
+          <t>65-69 years</t>
+        </is>
+      </c>
+      <c r="C1381">
+        <v>2251</v>
+      </c>
+      <c r="D1381">
+        <v>0.04342290553444318</v>
+      </c>
+      <c r="E1381">
+        <v>14</v>
+      </c>
+      <c r="F1381">
+        <v>1723</v>
+      </c>
+      <c r="G1381">
+        <v>0.1171073200570924</v>
+      </c>
+      <c r="H1381">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" s="2">
+        <v>44092</v>
+      </c>
+      <c r="B1382" t="inlineStr">
+        <is>
+          <t>70-74 years</t>
+        </is>
+      </c>
+      <c r="C1382">
+        <v>1339</v>
+      </c>
+      <c r="D1382">
+        <v>0.02582997357202107</v>
+      </c>
+      <c r="E1382">
+        <v>13</v>
+      </c>
+      <c r="F1382">
+        <v>1913</v>
+      </c>
+      <c r="G1382">
+        <v>0.1300210698022157</v>
+      </c>
+      <c r="H1382">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" s="2">
+        <v>44092</v>
+      </c>
+      <c r="B1383" t="inlineStr">
+        <is>
+          <t>75-79 years</t>
+        </is>
+      </c>
+      <c r="C1383">
+        <v>867</v>
+      </c>
+      <c r="D1383">
+        <v>0.01672485966164471</v>
+      </c>
+      <c r="E1383">
+        <v>6</v>
+      </c>
+      <c r="F1383">
+        <v>1801</v>
+      </c>
+      <c r="G1383">
+        <v>0.1224087541629851</v>
+      </c>
+      <c r="H1383">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" s="2">
+        <v>44092</v>
+      </c>
+      <c r="B1384" t="inlineStr">
+        <is>
+          <t>80+ years</t>
+        </is>
+      </c>
+      <c r="C1384">
+        <v>1388</v>
+      </c>
+      <c r="D1384">
+        <v>0.0267752078550898</v>
+      </c>
+      <c r="E1384">
+        <v>3</v>
+      </c>
+      <c r="F1384">
+        <v>4872</v>
+      </c>
+      <c r="G1384">
+        <v>0.3311357303065317</v>
+      </c>
+      <c r="H1384">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -38803,7 +39139,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H319"/>
+  <dimension ref="A1:H322"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -44414,7 +44750,7 @@
         <v>0.3732641918675675</v>
       </c>
       <c r="E200">
-        <v>-2419</v>
+        <v>-2615</v>
       </c>
       <c r="F200">
         <v>3401</v>
@@ -44423,7 +44759,7 @@
         <v>0.4076471293299772</v>
       </c>
       <c r="H200">
-        <v>-2686</v>
+        <v>-2740</v>
       </c>
     </row>
     <row r="201">
@@ -44442,7 +44778,7 @@
         <v>0.6045723118346589</v>
       </c>
       <c r="E201">
-        <v>-8790</v>
+        <v>-9075</v>
       </c>
       <c r="F201">
         <v>4942</v>
@@ -44451,7 +44787,7 @@
         <v>0.5923528706700227</v>
       </c>
       <c r="H201">
-        <v>-3561</v>
+        <v>-3630</v>
       </c>
     </row>
     <row r="202">
@@ -44470,7 +44806,7 @@
         <v>0.02216349629777368</v>
       </c>
       <c r="E202">
-        <v>-43</v>
+        <v>-38</v>
       </c>
       <c r="F202">
         <v>0</v>
@@ -47755,6 +48091,90 @@
         <v>0</v>
       </c>
       <c r="H319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="2">
+        <v>44092</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C320">
+        <v>17587</v>
+      </c>
+      <c r="D320">
+        <v>0.3392619456393835</v>
+      </c>
+      <c r="E320">
+        <v>196</v>
+      </c>
+      <c r="F320">
+        <v>6141</v>
+      </c>
+      <c r="G320">
+        <v>0.4173859851831713</v>
+      </c>
+      <c r="H320">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="2">
+        <v>44092</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C321">
+        <v>33325</v>
+      </c>
+      <c r="D321">
+        <v>0.642855764964602</v>
+      </c>
+      <c r="E321">
+        <v>285</v>
+      </c>
+      <c r="F321">
+        <v>8572</v>
+      </c>
+      <c r="G321">
+        <v>0.5826140148168286</v>
+      </c>
+      <c r="H321">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="2">
+        <v>44092</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C322">
+        <v>927</v>
+      </c>
+      <c r="D322">
+        <v>0.01788228939601459</v>
+      </c>
+      <c r="E322">
+        <v>-5</v>
+      </c>
+      <c r="F322">
+        <v>0</v>
+      </c>
+      <c r="G322">
+        <v>0</v>
+      </c>
+      <c r="H322">
         <v>0</v>
       </c>
     </row>
@@ -47765,7 +48185,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H637"/>
+  <dimension ref="A1:H643"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -58920,7 +59340,7 @@
         <v>0.01792525741068535</v>
       </c>
       <c r="E398">
-        <v>-63</v>
+        <v>-66</v>
       </c>
       <c r="F398">
         <v>190</v>
@@ -58929,7 +59349,7 @@
         <v>0.02277358264413281</v>
       </c>
       <c r="H398">
-        <v>-91</v>
+        <v>-92</v>
       </c>
     </row>
     <row r="399">
@@ -58948,7 +59368,7 @@
         <v>0.1489865622896462</v>
       </c>
       <c r="E399">
-        <v>-2437</v>
+        <v>-2531</v>
       </c>
       <c r="F399">
         <v>1070</v>
@@ -58957,7 +59377,7 @@
         <v>0.1282512285748532</v>
       </c>
       <c r="H399">
-        <v>-586</v>
+        <v>-597</v>
       </c>
     </row>
     <row r="400">
@@ -58976,7 +59396,7 @@
         <v>0.3958764428710329</v>
       </c>
       <c r="E400">
-        <v>-4523</v>
+        <v>-4702</v>
       </c>
       <c r="F400">
         <v>4311</v>
@@ -58985,7 +59405,7 @@
         <v>0.5167206040992449</v>
       </c>
       <c r="H400">
-        <v>-3847</v>
+        <v>-3926</v>
       </c>
     </row>
     <row r="401">
@@ -59004,7 +59424,7 @@
         <v>0.004362892972002693</v>
       </c>
       <c r="E401">
-        <v>-57</v>
+        <v>-62</v>
       </c>
       <c r="F401">
         <v>60</v>
@@ -59032,7 +59452,7 @@
         <v>0.1602552915659046</v>
       </c>
       <c r="E402">
-        <v>-24</v>
+        <v>-42</v>
       </c>
       <c r="F402">
         <v>4</v>
@@ -59060,7 +59480,7 @@
         <v>0.2725935528907282</v>
       </c>
       <c r="E403">
-        <v>-4148</v>
+        <v>-4325</v>
       </c>
       <c r="F403">
         <v>2708</v>
@@ -59069,7 +59489,7 @@
         <v>0.324583483159535</v>
       </c>
       <c r="H403">
-        <v>-1699</v>
+        <v>-1731</v>
       </c>
     </row>
     <row r="404">
@@ -65622,6 +66042,174 @@
       </c>
       <c r="H637">
         <v>34</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="2">
+        <v>44092</v>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C638">
+        <v>785</v>
+      </c>
+      <c r="D638">
+        <v>0.01514303902467254</v>
+      </c>
+      <c r="E638">
+        <v>3</v>
+      </c>
+      <c r="F638">
+        <v>282</v>
+      </c>
+      <c r="G638">
+        <v>0.01916672330591994</v>
+      </c>
+      <c r="H638">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="2">
+        <v>44092</v>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C639">
+        <v>8507</v>
+      </c>
+      <c r="D639">
+        <v>0.1641042458380756</v>
+      </c>
+      <c r="E639">
+        <v>94</v>
+      </c>
+      <c r="F639">
+        <v>1667</v>
+      </c>
+      <c r="G639">
+        <v>0.1133011622374771</v>
+      </c>
+      <c r="H639">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="2">
+        <v>44092</v>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="C640">
+        <v>20581</v>
+      </c>
+      <c r="D640">
+        <v>0.3970176893844403</v>
+      </c>
+      <c r="E640">
+        <v>179</v>
+      </c>
+      <c r="F640">
+        <v>8237</v>
+      </c>
+      <c r="G640">
+        <v>0.5598450350030585</v>
+      </c>
+      <c r="H640">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="2">
+        <v>44092</v>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C641">
+        <v>237</v>
+      </c>
+      <c r="D641">
+        <v>0.00457184745076101</v>
+      </c>
+      <c r="E641">
+        <v>5</v>
+      </c>
+      <c r="F641">
+        <v>80</v>
+      </c>
+      <c r="G641">
+        <v>0.005437368313736151</v>
+      </c>
+      <c r="H641">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="2">
+        <v>44092</v>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C642">
+        <v>6470</v>
+      </c>
+      <c r="D642">
+        <v>0.1248095063562183</v>
+      </c>
+      <c r="E642">
+        <v>18</v>
+      </c>
+      <c r="F642">
+        <v>8</v>
+      </c>
+      <c r="G642">
+        <v>0.0005437368313736152</v>
+      </c>
+      <c r="H642">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="2">
+        <v>44092</v>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C643">
+        <v>15259</v>
+      </c>
+      <c r="D643">
+        <v>0.2943536719458323</v>
+      </c>
+      <c r="E643">
+        <v>177</v>
+      </c>
+      <c r="F643">
+        <v>4439</v>
+      </c>
+      <c r="G643">
+        <v>0.3017059743084347</v>
+      </c>
+      <c r="H643">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1384"/>
+  <dimension ref="A1:H1396"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -24448,7 +24448,7 @@
         <v>0.003565106828550772</v>
       </c>
       <c r="E860">
-        <v>-27</v>
+        <v>-28</v>
       </c>
       <c r="F860">
         <v>2</v>
@@ -24476,7 +24476,7 @@
         <v>0.0161551694049014</v>
       </c>
       <c r="E861">
-        <v>-160</v>
+        <v>-167</v>
       </c>
       <c r="F861">
         <v>5</v>
@@ -24504,7 +24504,7 @@
         <v>0.0413851561915684</v>
       </c>
       <c r="E862">
-        <v>-467</v>
+        <v>-491</v>
       </c>
       <c r="F862">
         <v>8</v>
@@ -24532,7 +24532,7 @@
         <v>0.185011592829897</v>
       </c>
       <c r="E863">
-        <v>-2472</v>
+        <v>-2570</v>
       </c>
       <c r="F863">
         <v>63</v>
@@ -24541,7 +24541,7 @@
         <v>0.007551240560949299</v>
       </c>
       <c r="H863">
-        <v>-31</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="864">
@@ -24560,7 +24560,7 @@
         <v>0.2015407244895415</v>
       </c>
       <c r="E864">
-        <v>-2881</v>
+        <v>-2975</v>
       </c>
       <c r="F864">
         <v>174</v>
@@ -24569,7 +24569,7 @@
         <v>0.02085580726357425</v>
       </c>
       <c r="H864">
-        <v>-102</v>
+        <v>-104</v>
       </c>
     </row>
     <row r="865">
@@ -24588,7 +24588,7 @@
         <v>0.1871307122734412</v>
       </c>
       <c r="E865">
-        <v>-2475</v>
+        <v>-2533</v>
       </c>
       <c r="F865">
         <v>455</v>
@@ -24597,7 +24597,7 @@
         <v>0.05453673738463383</v>
       </c>
       <c r="H865">
-        <v>-366</v>
+        <v>-373</v>
       </c>
     </row>
     <row r="866">
@@ -24616,7 +24616,7 @@
         <v>0.1710503353194884</v>
       </c>
       <c r="E866">
-        <v>-1893</v>
+        <v>-1941</v>
       </c>
       <c r="F866">
         <v>961</v>
@@ -24625,7 +24625,7 @@
         <v>0.115186383794798</v>
       </c>
       <c r="H866">
-        <v>-825</v>
+        <v>-838</v>
       </c>
     </row>
     <row r="867">
@@ -24644,7 +24644,7 @@
         <v>0.06671486624616689</v>
       </c>
       <c r="E867">
-        <v>-600</v>
+        <v>-617</v>
       </c>
       <c r="F867">
         <v>784</v>
@@ -24653,7 +24653,7 @@
         <v>0.09397099364736905</v>
       </c>
       <c r="H867">
-        <v>-618</v>
+        <v>-640</v>
       </c>
     </row>
     <row r="868">
@@ -24672,7 +24672,7 @@
         <v>0.04759292962030366</v>
       </c>
       <c r="E868">
-        <v>-342</v>
+        <v>-348</v>
       </c>
       <c r="F868">
         <v>956</v>
@@ -24681,7 +24681,7 @@
         <v>0.1145870789883735</v>
       </c>
       <c r="H868">
-        <v>-767</v>
+        <v>-782</v>
       </c>
     </row>
     <row r="869">
@@ -24700,7 +24700,7 @@
         <v>0.02844606217745756</v>
       </c>
       <c r="E869">
-        <v>-198</v>
+        <v>-200</v>
       </c>
       <c r="F869">
         <v>1079</v>
@@ -24709,7 +24709,7 @@
         <v>0.1293299772264174</v>
       </c>
       <c r="H869">
-        <v>-834</v>
+        <v>-851</v>
       </c>
     </row>
     <row r="870">
@@ -24728,7 +24728,7 @@
         <v>0.01899728254094887</v>
       </c>
       <c r="E870">
-        <v>-105</v>
+        <v>-110</v>
       </c>
       <c r="F870">
         <v>1039</v>
@@ -24737,7 +24737,7 @@
         <v>0.124535538775021</v>
       </c>
       <c r="H870">
-        <v>-762</v>
+        <v>-779</v>
       </c>
     </row>
     <row r="871">
@@ -24756,7 +24756,7 @@
         <v>0.03163720675126524</v>
       </c>
       <c r="E871">
-        <v>-119</v>
+        <v>-122</v>
       </c>
       <c r="F871">
         <v>2817</v>
@@ -24765,7 +24765,7 @@
         <v>0.3376483279395901</v>
       </c>
       <c r="H871">
-        <v>-2055</v>
+        <v>-2095</v>
       </c>
     </row>
     <row r="872">
@@ -39130,6 +39130,342 @@
       </c>
       <c r="H1384">
         <v>39</v>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" s="2">
+        <v>44093</v>
+      </c>
+      <c r="B1385" t="inlineStr">
+        <is>
+          <t>&lt;1 year</t>
+        </is>
+      </c>
+      <c r="C1385">
+        <v>171</v>
+      </c>
+      <c r="D1385">
+        <v>0.003275736561817555</v>
+      </c>
+      <c r="E1385">
+        <v>1</v>
+      </c>
+      <c r="F1385">
+        <v>3</v>
+      </c>
+      <c r="G1385">
+        <v>0.0002020474137931035</v>
+      </c>
+      <c r="H1385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" s="2">
+        <v>44093</v>
+      </c>
+      <c r="B1386" t="inlineStr">
+        <is>
+          <t>1-9 years</t>
+        </is>
+      </c>
+      <c r="C1386">
+        <v>815</v>
+      </c>
+      <c r="D1386">
+        <v>0.01561242864258074</v>
+      </c>
+      <c r="E1386">
+        <v>7</v>
+      </c>
+      <c r="F1386">
+        <v>6</v>
+      </c>
+      <c r="G1386">
+        <v>0.0004040948275862069</v>
+      </c>
+      <c r="H1386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" s="2">
+        <v>44093</v>
+      </c>
+      <c r="B1387" t="inlineStr">
+        <is>
+          <t>10-19 years</t>
+        </is>
+      </c>
+      <c r="C1387">
+        <v>2151</v>
+      </c>
+      <c r="D1387">
+        <v>0.04120531780391556</v>
+      </c>
+      <c r="E1387">
+        <v>24</v>
+      </c>
+      <c r="F1387">
+        <v>16</v>
+      </c>
+      <c r="G1387">
+        <v>0.001077586206896552</v>
+      </c>
+      <c r="H1387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" s="2">
+        <v>44093</v>
+      </c>
+      <c r="B1388" t="inlineStr">
+        <is>
+          <t>20-29 years</t>
+        </is>
+      </c>
+      <c r="C1388">
+        <v>9991</v>
+      </c>
+      <c r="D1388">
+        <v>0.1913911344392935</v>
+      </c>
+      <c r="E1388">
+        <v>98</v>
+      </c>
+      <c r="F1388">
+        <v>96</v>
+      </c>
+      <c r="G1388">
+        <v>0.00646551724137931</v>
+      </c>
+      <c r="H1388">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" s="2">
+        <v>44093</v>
+      </c>
+      <c r="B1389" t="inlineStr">
+        <is>
+          <t>30-39 years</t>
+        </is>
+      </c>
+      <c r="C1389">
+        <v>11059</v>
+      </c>
+      <c r="D1389">
+        <v>0.2118501206850312</v>
+      </c>
+      <c r="E1389">
+        <v>94</v>
+      </c>
+      <c r="F1389">
+        <v>278</v>
+      </c>
+      <c r="G1389">
+        <v>0.01872306034482759</v>
+      </c>
+      <c r="H1389">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" s="2">
+        <v>44093</v>
+      </c>
+      <c r="B1390" t="inlineStr">
+        <is>
+          <t>40-49 years</t>
+        </is>
+      </c>
+      <c r="C1390">
+        <v>10039</v>
+      </c>
+      <c r="D1390">
+        <v>0.192310639439102</v>
+      </c>
+      <c r="E1390">
+        <v>58</v>
+      </c>
+      <c r="F1390">
+        <v>828</v>
+      </c>
+      <c r="G1390">
+        <v>0.05576508620689655</v>
+      </c>
+      <c r="H1390">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" s="2">
+        <v>44093</v>
+      </c>
+      <c r="B1391" t="inlineStr">
+        <is>
+          <t>50-59 years</t>
+        </is>
+      </c>
+      <c r="C1391">
+        <v>8802</v>
+      </c>
+      <c r="D1391">
+        <v>0.168614229339872</v>
+      </c>
+      <c r="E1391">
+        <v>48</v>
+      </c>
+      <c r="F1391">
+        <v>1799</v>
+      </c>
+      <c r="G1391">
+        <v>0.121161099137931</v>
+      </c>
+      <c r="H1391">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" s="2">
+        <v>44093</v>
+      </c>
+      <c r="B1392" t="inlineStr">
+        <is>
+          <t>60-64 years</t>
+        </is>
+      </c>
+      <c r="C1392">
+        <v>3293</v>
+      </c>
+      <c r="D1392">
+        <v>0.06308187425769128</v>
+      </c>
+      <c r="E1392">
+        <v>17</v>
+      </c>
+      <c r="F1392">
+        <v>1424</v>
+      </c>
+      <c r="G1392">
+        <v>0.09590517241379311</v>
+      </c>
+      <c r="H1392">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" s="2">
+        <v>44093</v>
+      </c>
+      <c r="B1393" t="inlineStr">
+        <is>
+          <t>65-69 years</t>
+        </is>
+      </c>
+      <c r="C1393">
+        <v>2257</v>
+      </c>
+      <c r="D1393">
+        <v>0.04323589134515919</v>
+      </c>
+      <c r="E1393">
+        <v>6</v>
+      </c>
+      <c r="F1393">
+        <v>1738</v>
+      </c>
+      <c r="G1393">
+        <v>0.1170528017241379</v>
+      </c>
+      <c r="H1393">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" s="2">
+        <v>44093</v>
+      </c>
+      <c r="B1394" t="inlineStr">
+        <is>
+          <t>70-74 years</t>
+        </is>
+      </c>
+      <c r="C1394">
+        <v>1341</v>
+      </c>
+      <c r="D1394">
+        <v>0.02568867093214819</v>
+      </c>
+      <c r="E1394">
+        <v>2</v>
+      </c>
+      <c r="F1394">
+        <v>1930</v>
+      </c>
+      <c r="G1394">
+        <v>0.1299838362068966</v>
+      </c>
+      <c r="H1394">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" s="2">
+        <v>44093</v>
+      </c>
+      <c r="B1395" t="inlineStr">
+        <is>
+          <t>75-79 years</t>
+        </is>
+      </c>
+      <c r="C1395">
+        <v>872</v>
+      </c>
+      <c r="D1395">
+        <v>0.01670434082985326</v>
+      </c>
+      <c r="E1395">
+        <v>5</v>
+      </c>
+      <c r="F1395">
+        <v>1818</v>
+      </c>
+      <c r="G1395">
+        <v>0.1224407327586207</v>
+      </c>
+      <c r="H1395">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" s="2">
+        <v>44093</v>
+      </c>
+      <c r="B1396" t="inlineStr">
+        <is>
+          <t>80+ years</t>
+        </is>
+      </c>
+      <c r="C1396">
+        <v>1391</v>
+      </c>
+      <c r="D1396">
+        <v>0.02664648864028198</v>
+      </c>
+      <c r="E1396">
+        <v>3</v>
+      </c>
+      <c r="F1396">
+        <v>4912</v>
+      </c>
+      <c r="G1396">
+        <v>0.3308189655172414</v>
+      </c>
+      <c r="H1396">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -39139,7 +39475,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H322"/>
+  <dimension ref="A1:H325"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -44750,7 +45086,7 @@
         <v>0.3732641918675675</v>
       </c>
       <c r="E200">
-        <v>-2615</v>
+        <v>-2717</v>
       </c>
       <c r="F200">
         <v>3401</v>
@@ -44759,7 +45095,7 @@
         <v>0.4076471293299772</v>
       </c>
       <c r="H200">
-        <v>-2740</v>
+        <v>-2795</v>
       </c>
     </row>
     <row r="201">
@@ -44778,7 +45114,7 @@
         <v>0.6045723118346589</v>
       </c>
       <c r="E201">
-        <v>-9075</v>
+        <v>-9344</v>
       </c>
       <c r="F201">
         <v>4942</v>
@@ -44787,7 +45123,7 @@
         <v>0.5923528706700227</v>
       </c>
       <c r="H201">
-        <v>-3630</v>
+        <v>-3710</v>
       </c>
     </row>
     <row r="202">
@@ -44806,7 +45142,7 @@
         <v>0.02216349629777368</v>
       </c>
       <c r="E202">
-        <v>-38</v>
+        <v>-30</v>
       </c>
       <c r="F202">
         <v>0</v>
@@ -48175,6 +48511,90 @@
         <v>0</v>
       </c>
       <c r="H322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="2">
+        <v>44093</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C323">
+        <v>17689</v>
+      </c>
+      <c r="D323">
+        <v>0.3388567487835715</v>
+      </c>
+      <c r="E323">
+        <v>102</v>
+      </c>
+      <c r="F323">
+        <v>6196</v>
+      </c>
+      <c r="G323">
+        <v>0.4172952586206897</v>
+      </c>
+      <c r="H323">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="2">
+        <v>44093</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C324">
+        <v>33594</v>
+      </c>
+      <c r="D324">
+        <v>0.6435385617409295</v>
+      </c>
+      <c r="E324">
+        <v>269</v>
+      </c>
+      <c r="F324">
+        <v>8652</v>
+      </c>
+      <c r="G324">
+        <v>0.5827047413793104</v>
+      </c>
+      <c r="H324">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="2">
+        <v>44093</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C325">
+        <v>919</v>
+      </c>
+      <c r="D325">
+        <v>0.01760468947549902</v>
+      </c>
+      <c r="E325">
+        <v>-8</v>
+      </c>
+      <c r="F325">
+        <v>0</v>
+      </c>
+      <c r="G325">
+        <v>0</v>
+      </c>
+      <c r="H325">
         <v>0</v>
       </c>
     </row>
@@ -48185,7 +48605,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H643"/>
+  <dimension ref="A1:H649"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -59340,7 +59760,7 @@
         <v>0.01792525741068535</v>
       </c>
       <c r="E398">
-        <v>-66</v>
+        <v>-70</v>
       </c>
       <c r="F398">
         <v>190</v>
@@ -59368,7 +59788,7 @@
         <v>0.1489865622896462</v>
       </c>
       <c r="E399">
-        <v>-2531</v>
+        <v>-2610</v>
       </c>
       <c r="F399">
         <v>1070</v>
@@ -59377,7 +59797,7 @@
         <v>0.1282512285748532</v>
       </c>
       <c r="H399">
-        <v>-597</v>
+        <v>-617</v>
       </c>
     </row>
     <row r="400">
@@ -59396,7 +59816,7 @@
         <v>0.3958764428710329</v>
       </c>
       <c r="E400">
-        <v>-4702</v>
+        <v>-4841</v>
       </c>
       <c r="F400">
         <v>4311</v>
@@ -59405,7 +59825,7 @@
         <v>0.5167206040992449</v>
       </c>
       <c r="H400">
-        <v>-3926</v>
+        <v>-3997</v>
       </c>
     </row>
     <row r="401">
@@ -59424,7 +59844,7 @@
         <v>0.004362892972002693</v>
       </c>
       <c r="E401">
-        <v>-62</v>
+        <v>-61</v>
       </c>
       <c r="F401">
         <v>60</v>
@@ -59433,7 +59853,7 @@
         <v>0.00719165767709457</v>
       </c>
       <c r="H401">
-        <v>-20</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="402">
@@ -59452,7 +59872,7 @@
         <v>0.1602552915659046</v>
       </c>
       <c r="E402">
-        <v>-42</v>
+        <v>-49</v>
       </c>
       <c r="F402">
         <v>4</v>
@@ -59480,7 +59900,7 @@
         <v>0.2725935528907282</v>
       </c>
       <c r="E403">
-        <v>-4325</v>
+        <v>-4460</v>
       </c>
       <c r="F403">
         <v>2708</v>
@@ -59489,7 +59909,7 @@
         <v>0.324583483159535</v>
       </c>
       <c r="H403">
-        <v>-1731</v>
+        <v>-1774</v>
       </c>
     </row>
     <row r="404">
@@ -66210,6 +66630,174 @@
       </c>
       <c r="H643">
         <v>32</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="2">
+        <v>44093</v>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C644">
+        <v>789</v>
+      </c>
+      <c r="D644">
+        <v>0.01511436343435117</v>
+      </c>
+      <c r="E644">
+        <v>4</v>
+      </c>
+      <c r="F644">
+        <v>282</v>
+      </c>
+      <c r="G644">
+        <v>0.01899245689655172</v>
+      </c>
+      <c r="H644">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="2">
+        <v>44093</v>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C645">
+        <v>8586</v>
+      </c>
+      <c r="D645">
+        <v>0.1644764568407341</v>
+      </c>
+      <c r="E645">
+        <v>79</v>
+      </c>
+      <c r="F645">
+        <v>1687</v>
+      </c>
+      <c r="G645">
+        <v>0.1136179956896552</v>
+      </c>
+      <c r="H645">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="2">
+        <v>44093</v>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="C646">
+        <v>20720</v>
+      </c>
+      <c r="D646">
+        <v>0.3969196582506417</v>
+      </c>
+      <c r="E646">
+        <v>139</v>
+      </c>
+      <c r="F646">
+        <v>8308</v>
+      </c>
+      <c r="G646">
+        <v>0.5595366379310345</v>
+      </c>
+      <c r="H646">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="2">
+        <v>44093</v>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C647">
+        <v>236</v>
+      </c>
+      <c r="D647">
+        <v>0.004520899582391479</v>
+      </c>
+      <c r="E647">
+        <v>-1</v>
+      </c>
+      <c r="F647">
+        <v>81</v>
+      </c>
+      <c r="G647">
+        <v>0.005455280172413793</v>
+      </c>
+      <c r="H647">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="2">
+        <v>44093</v>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C648">
+        <v>6477</v>
+      </c>
+      <c r="D648">
+        <v>0.1240757059116509</v>
+      </c>
+      <c r="E648">
+        <v>7</v>
+      </c>
+      <c r="F648">
+        <v>8</v>
+      </c>
+      <c r="G648">
+        <v>0.0005387931034482759</v>
+      </c>
+      <c r="H648">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="2">
+        <v>44093</v>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C649">
+        <v>15394</v>
+      </c>
+      <c r="D649">
+        <v>0.2948929159802307</v>
+      </c>
+      <c r="E649">
+        <v>135</v>
+      </c>
+      <c r="F649">
+        <v>4482</v>
+      </c>
+      <c r="G649">
+        <v>0.3018588362068966</v>
+      </c>
+      <c r="H649">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1396"/>
+  <dimension ref="A1:H1408"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -24476,7 +24476,7 @@
         <v>0.0161551694049014</v>
       </c>
       <c r="E861">
-        <v>-167</v>
+        <v>-168</v>
       </c>
       <c r="F861">
         <v>5</v>
@@ -24504,7 +24504,7 @@
         <v>0.0413851561915684</v>
       </c>
       <c r="E862">
-        <v>-491</v>
+        <v>-492</v>
       </c>
       <c r="F862">
         <v>8</v>
@@ -24532,7 +24532,7 @@
         <v>0.185011592829897</v>
       </c>
       <c r="E863">
-        <v>-2570</v>
+        <v>-2572</v>
       </c>
       <c r="F863">
         <v>63</v>
@@ -24560,7 +24560,7 @@
         <v>0.2015407244895415</v>
       </c>
       <c r="E864">
-        <v>-2975</v>
+        <v>-2977</v>
       </c>
       <c r="F864">
         <v>174</v>
@@ -24588,7 +24588,7 @@
         <v>0.1871307122734412</v>
       </c>
       <c r="E865">
-        <v>-2533</v>
+        <v>-2535</v>
       </c>
       <c r="F865">
         <v>455</v>
@@ -24616,7 +24616,7 @@
         <v>0.1710503353194884</v>
       </c>
       <c r="E866">
-        <v>-1941</v>
+        <v>-1947</v>
       </c>
       <c r="F866">
         <v>961</v>
@@ -24625,7 +24625,7 @@
         <v>0.115186383794798</v>
       </c>
       <c r="H866">
-        <v>-838</v>
+        <v>-847</v>
       </c>
     </row>
     <row r="867">
@@ -24653,7 +24653,7 @@
         <v>0.09397099364736905</v>
       </c>
       <c r="H867">
-        <v>-640</v>
+        <v>-644</v>
       </c>
     </row>
     <row r="868">
@@ -24672,7 +24672,7 @@
         <v>0.04759292962030366</v>
       </c>
       <c r="E868">
-        <v>-348</v>
+        <v>-349</v>
       </c>
       <c r="F868">
         <v>956</v>
@@ -24681,7 +24681,7 @@
         <v>0.1145870789883735</v>
       </c>
       <c r="H868">
-        <v>-782</v>
+        <v>-790</v>
       </c>
     </row>
     <row r="869">
@@ -24700,7 +24700,7 @@
         <v>0.02844606217745756</v>
       </c>
       <c r="E869">
-        <v>-200</v>
+        <v>-201</v>
       </c>
       <c r="F869">
         <v>1079</v>
@@ -24709,7 +24709,7 @@
         <v>0.1293299772264174</v>
       </c>
       <c r="H869">
-        <v>-851</v>
+        <v>-860</v>
       </c>
     </row>
     <row r="870">
@@ -24737,7 +24737,7 @@
         <v>0.124535538775021</v>
       </c>
       <c r="H870">
-        <v>-779</v>
+        <v>-784</v>
       </c>
     </row>
     <row r="871">
@@ -24765,7 +24765,7 @@
         <v>0.3376483279395901</v>
       </c>
       <c r="H871">
-        <v>-2095</v>
+        <v>-2105</v>
       </c>
     </row>
     <row r="872">
@@ -39466,6 +39466,342 @@
       </c>
       <c r="H1396">
         <v>40</v>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397" s="2">
+        <v>44094</v>
+      </c>
+      <c r="B1397" t="inlineStr">
+        <is>
+          <t>&lt;1 year</t>
+        </is>
+      </c>
+      <c r="C1397">
+        <v>171</v>
+      </c>
+      <c r="D1397">
+        <v>0.003274732850741124</v>
+      </c>
+      <c r="E1397">
+        <v>0</v>
+      </c>
+      <c r="F1397">
+        <v>3</v>
+      </c>
+      <c r="G1397">
+        <v>0.0002014369166722622</v>
+      </c>
+      <c r="H1397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398" s="2">
+        <v>44094</v>
+      </c>
+      <c r="B1398" t="inlineStr">
+        <is>
+          <t>1-9 years</t>
+        </is>
+      </c>
+      <c r="C1398">
+        <v>816</v>
+      </c>
+      <c r="D1398">
+        <v>0.01562679535792256</v>
+      </c>
+      <c r="E1398">
+        <v>1</v>
+      </c>
+      <c r="F1398">
+        <v>6</v>
+      </c>
+      <c r="G1398">
+        <v>0.0004028738333445243</v>
+      </c>
+      <c r="H1398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" s="2">
+        <v>44094</v>
+      </c>
+      <c r="B1399" t="inlineStr">
+        <is>
+          <t>10-19 years</t>
+        </is>
+      </c>
+      <c r="C1399">
+        <v>2152</v>
+      </c>
+      <c r="D1399">
+        <v>0.04121184265961929</v>
+      </c>
+      <c r="E1399">
+        <v>1</v>
+      </c>
+      <c r="F1399">
+        <v>16</v>
+      </c>
+      <c r="G1399">
+        <v>0.001074330222252065</v>
+      </c>
+      <c r="H1399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400" s="2">
+        <v>44094</v>
+      </c>
+      <c r="B1400" t="inlineStr">
+        <is>
+          <t>20-29 years</t>
+        </is>
+      </c>
+      <c r="C1400">
+        <v>9993</v>
+      </c>
+      <c r="D1400">
+        <v>0.1913707916810295</v>
+      </c>
+      <c r="E1400">
+        <v>2</v>
+      </c>
+      <c r="F1400">
+        <v>96</v>
+      </c>
+      <c r="G1400">
+        <v>0.006445981333512389</v>
+      </c>
+      <c r="H1400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401" s="2">
+        <v>44094</v>
+      </c>
+      <c r="B1401" t="inlineStr">
+        <is>
+          <t>30-39 years</t>
+        </is>
+      </c>
+      <c r="C1401">
+        <v>11061</v>
+      </c>
+      <c r="D1401">
+        <v>0.2118235091347811</v>
+      </c>
+      <c r="E1401">
+        <v>2</v>
+      </c>
+      <c r="F1401">
+        <v>278</v>
+      </c>
+      <c r="G1401">
+        <v>0.01866648761162962</v>
+      </c>
+      <c r="H1401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402" s="2">
+        <v>44094</v>
+      </c>
+      <c r="B1402" t="inlineStr">
+        <is>
+          <t>40-49 years</t>
+        </is>
+      </c>
+      <c r="C1402">
+        <v>10041</v>
+      </c>
+      <c r="D1402">
+        <v>0.1922900149373779</v>
+      </c>
+      <c r="E1402">
+        <v>2</v>
+      </c>
+      <c r="F1402">
+        <v>828</v>
+      </c>
+      <c r="G1402">
+        <v>0.05559658900154435</v>
+      </c>
+      <c r="H1402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403" s="2">
+        <v>44094</v>
+      </c>
+      <c r="B1403" t="inlineStr">
+        <is>
+          <t>50-59 years</t>
+        </is>
+      </c>
+      <c r="C1403">
+        <v>8808</v>
+      </c>
+      <c r="D1403">
+        <v>0.1686774675399288</v>
+      </c>
+      <c r="E1403">
+        <v>6</v>
+      </c>
+      <c r="F1403">
+        <v>1808</v>
+      </c>
+      <c r="G1403">
+        <v>0.1213993151144833</v>
+      </c>
+      <c r="H1403">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404" s="2">
+        <v>44094</v>
+      </c>
+      <c r="B1404" t="inlineStr">
+        <is>
+          <t>60-64 years</t>
+        </is>
+      </c>
+      <c r="C1404">
+        <v>3293</v>
+      </c>
+      <c r="D1404">
+        <v>0.0630625454824007</v>
+      </c>
+      <c r="E1404">
+        <v>0</v>
+      </c>
+      <c r="F1404">
+        <v>1428</v>
+      </c>
+      <c r="G1404">
+        <v>0.09588397233599678</v>
+      </c>
+      <c r="H1404">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405" s="2">
+        <v>44094</v>
+      </c>
+      <c r="B1405" t="inlineStr">
+        <is>
+          <t>65-69 years</t>
+        </is>
+      </c>
+      <c r="C1405">
+        <v>2258</v>
+      </c>
+      <c r="D1405">
+        <v>0.04324179401738864</v>
+      </c>
+      <c r="E1405">
+        <v>1</v>
+      </c>
+      <c r="F1405">
+        <v>1746</v>
+      </c>
+      <c r="G1405">
+        <v>0.1172362855032566</v>
+      </c>
+      <c r="H1405">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1406">
+      <c r="A1406" s="2">
+        <v>44094</v>
+      </c>
+      <c r="B1406" t="inlineStr">
+        <is>
+          <t>70-74 years</t>
+        </is>
+      </c>
+      <c r="C1406">
+        <v>1342</v>
+      </c>
+      <c r="D1406">
+        <v>0.02569995020874028</v>
+      </c>
+      <c r="E1406">
+        <v>1</v>
+      </c>
+      <c r="F1406">
+        <v>1939</v>
+      </c>
+      <c r="G1406">
+        <v>0.1301953938091721</v>
+      </c>
+      <c r="H1406">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407" s="2">
+        <v>44094</v>
+      </c>
+      <c r="B1407" t="inlineStr">
+        <is>
+          <t>75-79 years</t>
+        </is>
+      </c>
+      <c r="C1407">
+        <v>872</v>
+      </c>
+      <c r="D1407">
+        <v>0.01669922249032901</v>
+      </c>
+      <c r="E1407">
+        <v>0</v>
+      </c>
+      <c r="F1407">
+        <v>1823</v>
+      </c>
+      <c r="G1407">
+        <v>0.1224064996978446</v>
+      </c>
+      <c r="H1407">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408" s="2">
+        <v>44094</v>
+      </c>
+      <c r="B1408" t="inlineStr">
+        <is>
+          <t>80+ years</t>
+        </is>
+      </c>
+      <c r="C1408">
+        <v>1391</v>
+      </c>
+      <c r="D1408">
+        <v>0.02663832394959593</v>
+      </c>
+      <c r="E1408">
+        <v>0</v>
+      </c>
+      <c r="F1408">
+        <v>4922</v>
+      </c>
+      <c r="G1408">
+        <v>0.3304908346202914</v>
+      </c>
+      <c r="H1408">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -39475,7 +39811,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H325"/>
+  <dimension ref="A1:H328"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -45086,7 +45422,7 @@
         <v>0.3732641918675675</v>
       </c>
       <c r="E200">
-        <v>-2717</v>
+        <v>-2724</v>
       </c>
       <c r="F200">
         <v>3401</v>
@@ -45095,7 +45431,7 @@
         <v>0.4076471293299772</v>
       </c>
       <c r="H200">
-        <v>-2795</v>
+        <v>-2816</v>
       </c>
     </row>
     <row r="201">
@@ -45114,7 +45450,7 @@
         <v>0.6045723118346589</v>
       </c>
       <c r="E201">
-        <v>-9344</v>
+        <v>-9353</v>
       </c>
       <c r="F201">
         <v>4942</v>
@@ -45123,7 +45459,7 @@
         <v>0.5923528706700227</v>
       </c>
       <c r="H201">
-        <v>-3710</v>
+        <v>-3734</v>
       </c>
     </row>
     <row r="202">
@@ -48595,6 +48931,90 @@
         <v>0</v>
       </c>
       <c r="H325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="2">
+        <v>44094</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C326">
+        <v>17696</v>
+      </c>
+      <c r="D326">
+        <v>0.3388869738404381</v>
+      </c>
+      <c r="E326">
+        <v>7</v>
+      </c>
+      <c r="F326">
+        <v>6217</v>
+      </c>
+      <c r="G326">
+        <v>0.4174444369838179</v>
+      </c>
+      <c r="H326">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="2">
+        <v>44094</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C327">
+        <v>33603</v>
+      </c>
+      <c r="D327">
+        <v>0.6435137308973917</v>
+      </c>
+      <c r="E327">
+        <v>9</v>
+      </c>
+      <c r="F327">
+        <v>8676</v>
+      </c>
+      <c r="G327">
+        <v>0.5825555630161821</v>
+      </c>
+      <c r="H327">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="2">
+        <v>44094</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C328">
+        <v>919</v>
+      </c>
+      <c r="D328">
+        <v>0.01759929526217013</v>
+      </c>
+      <c r="E328">
+        <v>0</v>
+      </c>
+      <c r="F328">
+        <v>0</v>
+      </c>
+      <c r="G328">
+        <v>0</v>
+      </c>
+      <c r="H328">
         <v>0</v>
       </c>
     </row>
@@ -48605,7 +49025,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H649"/>
+  <dimension ref="A1:H655"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -59788,7 +60208,7 @@
         <v>0.1489865622896462</v>
       </c>
       <c r="E399">
-        <v>-2610</v>
+        <v>-2611</v>
       </c>
       <c r="F399">
         <v>1070</v>
@@ -59797,7 +60217,7 @@
         <v>0.1282512285748532</v>
       </c>
       <c r="H399">
-        <v>-617</v>
+        <v>-621</v>
       </c>
     </row>
     <row r="400">
@@ -59816,7 +60236,7 @@
         <v>0.3958764428710329</v>
       </c>
       <c r="E400">
-        <v>-4841</v>
+        <v>-4849</v>
       </c>
       <c r="F400">
         <v>4311</v>
@@ -59825,7 +60245,7 @@
         <v>0.5167206040992449</v>
       </c>
       <c r="H400">
-        <v>-3997</v>
+        <v>-4031</v>
       </c>
     </row>
     <row r="401">
@@ -59872,7 +60292,7 @@
         <v>0.1602552915659046</v>
       </c>
       <c r="E402">
-        <v>-49</v>
+        <v>-51</v>
       </c>
       <c r="F402">
         <v>4</v>
@@ -59900,7 +60320,7 @@
         <v>0.2725935528907282</v>
       </c>
       <c r="E403">
-        <v>-4460</v>
+        <v>-4465</v>
       </c>
       <c r="F403">
         <v>2708</v>
@@ -59909,7 +60329,7 @@
         <v>0.324583483159535</v>
       </c>
       <c r="H403">
-        <v>-1774</v>
+        <v>-1781</v>
       </c>
     </row>
     <row r="404">
@@ -66798,6 +67218,174 @@
       </c>
       <c r="H649">
         <v>43</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="2">
+        <v>44094</v>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C650">
+        <v>789</v>
+      </c>
+      <c r="D650">
+        <v>0.01510973227622659</v>
+      </c>
+      <c r="E650">
+        <v>0</v>
+      </c>
+      <c r="F650">
+        <v>282</v>
+      </c>
+      <c r="G650">
+        <v>0.01893507016719264</v>
+      </c>
+      <c r="H650">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="2">
+        <v>44094</v>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C651">
+        <v>8587</v>
+      </c>
+      <c r="D651">
+        <v>0.1644452104638247</v>
+      </c>
+      <c r="E651">
+        <v>1</v>
+      </c>
+      <c r="F651">
+        <v>1691</v>
+      </c>
+      <c r="G651">
+        <v>0.1135432753642651</v>
+      </c>
+      <c r="H651">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="2">
+        <v>44094</v>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="C652">
+        <v>20728</v>
+      </c>
+      <c r="D652">
+        <v>0.3969512428664445</v>
+      </c>
+      <c r="E652">
+        <v>8</v>
+      </c>
+      <c r="F652">
+        <v>8342</v>
+      </c>
+      <c r="G652">
+        <v>0.5601289196266702</v>
+      </c>
+      <c r="H652">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="2">
+        <v>44094</v>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C653">
+        <v>236</v>
+      </c>
+      <c r="D653">
+        <v>0.004519514343712896</v>
+      </c>
+      <c r="E653">
+        <v>0</v>
+      </c>
+      <c r="F653">
+        <v>81</v>
+      </c>
+      <c r="G653">
+        <v>0.005438796750151078</v>
+      </c>
+      <c r="H653">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="2">
+        <v>44094</v>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C654">
+        <v>6479</v>
+      </c>
+      <c r="D654">
+        <v>0.1240759891225248</v>
+      </c>
+      <c r="E654">
+        <v>2</v>
+      </c>
+      <c r="F654">
+        <v>8</v>
+      </c>
+      <c r="G654">
+        <v>0.0005371651111260324</v>
+      </c>
+      <c r="H654">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="2">
+        <v>44094</v>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C655">
+        <v>15399</v>
+      </c>
+      <c r="D655">
+        <v>0.2948983109272665</v>
+      </c>
+      <c r="E655">
+        <v>5</v>
+      </c>
+      <c r="F655">
+        <v>4489</v>
+      </c>
+      <c r="G655">
+        <v>0.3014167729805949</v>
+      </c>
+      <c r="H655">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1408"/>
+  <dimension ref="A1:J1420"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -29606,7 +29606,7 @@
         <v>0.003565106828550772</v>
       </c>
       <c r="E860">
-        <v>-28</v>
+        <v>-29</v>
       </c>
       <c r="F860">
         <v>0</v>
@@ -29640,7 +29640,7 @@
         <v>0.0161551694049014</v>
       </c>
       <c r="E861">
-        <v>-168</v>
+        <v>-169</v>
       </c>
       <c r="F861">
         <v>0</v>
@@ -29674,7 +29674,7 @@
         <v>0.0413851561915684</v>
       </c>
       <c r="E862">
-        <v>-492</v>
+        <v>-495</v>
       </c>
       <c r="F862">
         <v>0</v>
@@ -29708,7 +29708,7 @@
         <v>0.185011592829897</v>
       </c>
       <c r="E863">
-        <v>-2572</v>
+        <v>-2573</v>
       </c>
       <c r="F863">
         <v>0</v>
@@ -29742,7 +29742,7 @@
         <v>0.2015407244895415</v>
       </c>
       <c r="E864">
-        <v>-2977</v>
+        <v>-2978</v>
       </c>
       <c r="F864">
         <v>0</v>
@@ -29776,7 +29776,7 @@
         <v>0.1871307122734412</v>
       </c>
       <c r="E865">
-        <v>-2535</v>
+        <v>-2534</v>
       </c>
       <c r="F865">
         <v>0</v>
@@ -29788,7 +29788,7 @@
         <v>0.05453673738463383</v>
       </c>
       <c r="I865">
-        <v>-373</v>
+        <v>-375</v>
       </c>
       <c r="J865">
         <v>0</v>
@@ -29822,7 +29822,7 @@
         <v>0.115186383794798</v>
       </c>
       <c r="I866">
-        <v>-847</v>
+        <v>-853</v>
       </c>
       <c r="J866">
         <v>0</v>
@@ -29878,7 +29878,7 @@
         <v>0.04759292962030366</v>
       </c>
       <c r="E868">
-        <v>-349</v>
+        <v>-348</v>
       </c>
       <c r="F868">
         <v>0</v>
@@ -29890,7 +29890,7 @@
         <v>0.1145870789883735</v>
       </c>
       <c r="I868">
-        <v>-790</v>
+        <v>-797</v>
       </c>
       <c r="J868">
         <v>0</v>
@@ -29912,7 +29912,7 @@
         <v>0.02844606217745756</v>
       </c>
       <c r="E869">
-        <v>-201</v>
+        <v>-200</v>
       </c>
       <c r="F869">
         <v>0</v>
@@ -29924,7 +29924,7 @@
         <v>0.1293299772264174</v>
       </c>
       <c r="I869">
-        <v>-860</v>
+        <v>-862</v>
       </c>
       <c r="J869">
         <v>0</v>
@@ -29958,7 +29958,7 @@
         <v>0.124535538775021</v>
       </c>
       <c r="I870">
-        <v>-784</v>
+        <v>-786</v>
       </c>
       <c r="J870">
         <v>0</v>
@@ -29992,7 +29992,7 @@
         <v>0.3376483279395901</v>
       </c>
       <c r="I871">
-        <v>-2105</v>
+        <v>-2110</v>
       </c>
       <c r="J871">
         <v>0</v>
@@ -48254,6 +48254,414 @@
       </c>
       <c r="J1408">
         <v>10</v>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409" s="2">
+        <v>44095</v>
+      </c>
+      <c r="B1409" t="inlineStr">
+        <is>
+          <t>&lt;1 year</t>
+        </is>
+      </c>
+      <c r="C1409">
+        <v>172</v>
+      </c>
+      <c r="D1409">
+        <v>0.0033</v>
+      </c>
+      <c r="E1409">
+        <v>1</v>
+      </c>
+      <c r="F1409">
+        <v>1</v>
+      </c>
+      <c r="G1409">
+        <v>3</v>
+      </c>
+      <c r="H1409">
+        <v>0.0002</v>
+      </c>
+      <c r="I1409">
+        <v>0</v>
+      </c>
+      <c r="J1409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410" s="2">
+        <v>44095</v>
+      </c>
+      <c r="B1410" t="inlineStr">
+        <is>
+          <t>1-9 years</t>
+        </is>
+      </c>
+      <c r="C1410">
+        <v>817</v>
+      </c>
+      <c r="D1410">
+        <v>0.0156</v>
+      </c>
+      <c r="E1410">
+        <v>1</v>
+      </c>
+      <c r="F1410">
+        <v>1</v>
+      </c>
+      <c r="G1410">
+        <v>6</v>
+      </c>
+      <c r="H1410">
+        <v>0.0004</v>
+      </c>
+      <c r="I1410">
+        <v>0</v>
+      </c>
+      <c r="J1410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1411">
+      <c r="A1411" s="2">
+        <v>44095</v>
+      </c>
+      <c r="B1411" t="inlineStr">
+        <is>
+          <t>10-19 years</t>
+        </is>
+      </c>
+      <c r="C1411">
+        <v>2155</v>
+      </c>
+      <c r="D1411">
+        <v>0.0413</v>
+      </c>
+      <c r="E1411">
+        <v>3</v>
+      </c>
+      <c r="F1411">
+        <v>3</v>
+      </c>
+      <c r="G1411">
+        <v>16</v>
+      </c>
+      <c r="H1411">
+        <v>0.0011</v>
+      </c>
+      <c r="I1411">
+        <v>0</v>
+      </c>
+      <c r="J1411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1412">
+      <c r="A1412" s="2">
+        <v>44095</v>
+      </c>
+      <c r="B1412" t="inlineStr">
+        <is>
+          <t>20-29 years</t>
+        </is>
+      </c>
+      <c r="C1412">
+        <v>9994</v>
+      </c>
+      <c r="D1412">
+        <v>0.1914</v>
+      </c>
+      <c r="E1412">
+        <v>1</v>
+      </c>
+      <c r="F1412">
+        <v>1</v>
+      </c>
+      <c r="G1412">
+        <v>96</v>
+      </c>
+      <c r="H1412">
+        <v>0.0064</v>
+      </c>
+      <c r="I1412">
+        <v>0</v>
+      </c>
+      <c r="J1412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1413">
+      <c r="A1413" s="2">
+        <v>44095</v>
+      </c>
+      <c r="B1413" t="inlineStr">
+        <is>
+          <t>30-39 years</t>
+        </is>
+      </c>
+      <c r="C1413">
+        <v>11062</v>
+      </c>
+      <c r="D1413">
+        <v>0.2118</v>
+      </c>
+      <c r="E1413">
+        <v>1</v>
+      </c>
+      <c r="F1413">
+        <v>1</v>
+      </c>
+      <c r="G1413">
+        <v>278</v>
+      </c>
+      <c r="H1413">
+        <v>0.0186</v>
+      </c>
+      <c r="I1413">
+        <v>0</v>
+      </c>
+      <c r="J1413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1414">
+      <c r="A1414" s="2">
+        <v>44095</v>
+      </c>
+      <c r="B1414" t="inlineStr">
+        <is>
+          <t>40-49 years</t>
+        </is>
+      </c>
+      <c r="C1414">
+        <v>10040</v>
+      </c>
+      <c r="D1414">
+        <v>0.1923</v>
+      </c>
+      <c r="E1414">
+        <v>-1</v>
+      </c>
+      <c r="F1414">
+        <v>0</v>
+      </c>
+      <c r="G1414">
+        <v>830</v>
+      </c>
+      <c r="H1414">
+        <v>0.0556</v>
+      </c>
+      <c r="I1414">
+        <v>2</v>
+      </c>
+      <c r="J1414">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1415">
+      <c r="A1415" s="2">
+        <v>44095</v>
+      </c>
+      <c r="B1415" t="inlineStr">
+        <is>
+          <t>50-59 years</t>
+        </is>
+      </c>
+      <c r="C1415">
+        <v>8808</v>
+      </c>
+      <c r="D1415">
+        <v>0.1687</v>
+      </c>
+      <c r="E1415">
+        <v>0</v>
+      </c>
+      <c r="F1415">
+        <v>0</v>
+      </c>
+      <c r="G1415">
+        <v>1814</v>
+      </c>
+      <c r="H1415">
+        <v>0.1216</v>
+      </c>
+      <c r="I1415">
+        <v>6</v>
+      </c>
+      <c r="J1415">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416" s="2">
+        <v>44095</v>
+      </c>
+      <c r="B1416" t="inlineStr">
+        <is>
+          <t>60-64 years</t>
+        </is>
+      </c>
+      <c r="C1416">
+        <v>3293</v>
+      </c>
+      <c r="D1416">
+        <v>0.06309999999999999</v>
+      </c>
+      <c r="E1416">
+        <v>0</v>
+      </c>
+      <c r="F1416">
+        <v>0</v>
+      </c>
+      <c r="G1416">
+        <v>1428</v>
+      </c>
+      <c r="H1416">
+        <v>0.09570000000000001</v>
+      </c>
+      <c r="I1416">
+        <v>0</v>
+      </c>
+      <c r="J1416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1417">
+      <c r="A1417" s="2">
+        <v>44095</v>
+      </c>
+      <c r="B1417" t="inlineStr">
+        <is>
+          <t>65-69 years</t>
+        </is>
+      </c>
+      <c r="C1417">
+        <v>2257</v>
+      </c>
+      <c r="D1417">
+        <v>0.0432</v>
+      </c>
+      <c r="E1417">
+        <v>-1</v>
+      </c>
+      <c r="F1417">
+        <v>0</v>
+      </c>
+      <c r="G1417">
+        <v>1753</v>
+      </c>
+      <c r="H1417">
+        <v>0.1175</v>
+      </c>
+      <c r="I1417">
+        <v>7</v>
+      </c>
+      <c r="J1417">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1418">
+      <c r="A1418" s="2">
+        <v>44095</v>
+      </c>
+      <c r="B1418" t="inlineStr">
+        <is>
+          <t>70-74 years</t>
+        </is>
+      </c>
+      <c r="C1418">
+        <v>1341</v>
+      </c>
+      <c r="D1418">
+        <v>0.0257</v>
+      </c>
+      <c r="E1418">
+        <v>-1</v>
+      </c>
+      <c r="F1418">
+        <v>0</v>
+      </c>
+      <c r="G1418">
+        <v>1941</v>
+      </c>
+      <c r="H1418">
+        <v>0.13011999732</v>
+      </c>
+      <c r="I1418">
+        <v>2</v>
+      </c>
+      <c r="J1418">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1419">
+      <c r="A1419" s="2">
+        <v>44095</v>
+      </c>
+      <c r="B1419" t="inlineStr">
+        <is>
+          <t>75-79 years</t>
+        </is>
+      </c>
+      <c r="C1419">
+        <v>872</v>
+      </c>
+      <c r="D1419">
+        <v>0.016697943396</v>
+      </c>
+      <c r="E1419">
+        <v>0</v>
+      </c>
+      <c r="F1419">
+        <v>0</v>
+      </c>
+      <c r="G1419">
+        <v>1825</v>
+      </c>
+      <c r="H1419">
+        <v>0.1223</v>
+      </c>
+      <c r="I1419">
+        <v>2</v>
+      </c>
+      <c r="J1419">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1420">
+      <c r="A1420" s="2">
+        <v>44095</v>
+      </c>
+      <c r="B1420" t="inlineStr">
+        <is>
+          <t>80+ years</t>
+        </is>
+      </c>
+      <c r="C1420">
+        <v>1391</v>
+      </c>
+      <c r="D1420">
+        <v>0.0266</v>
+      </c>
+      <c r="E1420">
+        <v>0</v>
+      </c>
+      <c r="F1420">
+        <v>0</v>
+      </c>
+      <c r="G1420">
+        <v>4927</v>
+      </c>
+      <c r="H1420">
+        <v>0.3303</v>
+      </c>
+      <c r="I1420">
+        <v>5</v>
+      </c>
+      <c r="J1420">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -48263,7 +48671,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J328"/>
+  <dimension ref="A1:J331"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -55072,7 +55480,7 @@
         <v>0.3732641918675675</v>
       </c>
       <c r="E200">
-        <v>-2724</v>
+        <v>-2729</v>
       </c>
       <c r="F200">
         <v>0</v>
@@ -55084,7 +55492,7 @@
         <v>0.4076471293299772</v>
       </c>
       <c r="I200">
-        <v>-2816</v>
+        <v>-2820</v>
       </c>
       <c r="J200">
         <v>0</v>
@@ -55106,7 +55514,7 @@
         <v>0.6045723118346589</v>
       </c>
       <c r="E201">
-        <v>-9353</v>
+        <v>-9352</v>
       </c>
       <c r="F201">
         <v>0</v>
@@ -55118,7 +55526,7 @@
         <v>0.5923528706700227</v>
       </c>
       <c r="I201">
-        <v>-3734</v>
+        <v>-3754</v>
       </c>
       <c r="J201">
         <v>0</v>
@@ -59439,6 +59847,108 @@
         <v>0</v>
       </c>
       <c r="J328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="2">
+        <v>44095</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C329">
+        <v>17701</v>
+      </c>
+      <c r="D329">
+        <v>0.339</v>
+      </c>
+      <c r="E329">
+        <v>5</v>
+      </c>
+      <c r="F329">
+        <v>5</v>
+      </c>
+      <c r="G329">
+        <v>6221</v>
+      </c>
+      <c r="H329">
+        <v>0.417</v>
+      </c>
+      <c r="I329">
+        <v>4</v>
+      </c>
+      <c r="J329">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="2">
+        <v>44095</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C330">
+        <v>33602</v>
+      </c>
+      <c r="D330">
+        <v>0.6434000000000001</v>
+      </c>
+      <c r="E330">
+        <v>-1</v>
+      </c>
+      <c r="F330">
+        <v>0</v>
+      </c>
+      <c r="G330">
+        <v>8696</v>
+      </c>
+      <c r="H330">
+        <v>0.583</v>
+      </c>
+      <c r="I330">
+        <v>20</v>
+      </c>
+      <c r="J330">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="2">
+        <v>44095</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C331">
+        <v>919</v>
+      </c>
+      <c r="D331">
+        <v>0.0176</v>
+      </c>
+      <c r="E331">
+        <v>0</v>
+      </c>
+      <c r="F331">
+        <v>0</v>
+      </c>
+      <c r="G331">
+        <v>0</v>
+      </c>
+      <c r="H331">
+        <v>0</v>
+      </c>
+      <c r="I331">
+        <v>0</v>
+      </c>
+      <c r="J331">
         <v>0</v>
       </c>
     </row>
@@ -59449,7 +59959,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J655"/>
+  <dimension ref="A1:J661"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -73024,7 +73534,7 @@
         <v>0.1489865622896462</v>
       </c>
       <c r="E399">
-        <v>-2611</v>
+        <v>-2610</v>
       </c>
       <c r="F399">
         <v>0</v>
@@ -73058,7 +73568,7 @@
         <v>0.3958764428710329</v>
       </c>
       <c r="E400">
-        <v>-4849</v>
+        <v>-4853</v>
       </c>
       <c r="F400">
         <v>0</v>
@@ -73070,7 +73580,7 @@
         <v>0.5167206040992449</v>
       </c>
       <c r="I400">
-        <v>-4031</v>
+        <v>-4053</v>
       </c>
       <c r="J400">
         <v>0</v>
@@ -73092,7 +73602,7 @@
         <v>0.004362892972002693</v>
       </c>
       <c r="E401">
-        <v>-61</v>
+        <v>-58</v>
       </c>
       <c r="F401">
         <v>0</v>
@@ -73126,7 +73636,7 @@
         <v>0.1602552915659046</v>
       </c>
       <c r="E402">
-        <v>-51</v>
+        <v>-53</v>
       </c>
       <c r="F402">
         <v>0</v>
@@ -73160,7 +73670,7 @@
         <v>0.2725935528907282</v>
       </c>
       <c r="E403">
-        <v>-4465</v>
+        <v>-4467</v>
       </c>
       <c r="F403">
         <v>0</v>
@@ -73172,7 +73682,7 @@
         <v>0.324583483159535</v>
       </c>
       <c r="I403">
-        <v>-1781</v>
+        <v>-1783</v>
       </c>
       <c r="J403">
         <v>0</v>
@@ -81744,6 +82254,210 @@
       </c>
       <c r="J655">
         <v>7</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="2">
+        <v>44095</v>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C656">
+        <v>789</v>
+      </c>
+      <c r="D656">
+        <v>0.0151</v>
+      </c>
+      <c r="E656">
+        <v>0</v>
+      </c>
+      <c r="F656">
+        <v>0</v>
+      </c>
+      <c r="G656">
+        <v>282</v>
+      </c>
+      <c r="H656">
+        <v>0.0189</v>
+      </c>
+      <c r="I656">
+        <v>0</v>
+      </c>
+      <c r="J656">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="2">
+        <v>44095</v>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C657">
+        <v>8586</v>
+      </c>
+      <c r="D657">
+        <v>0.1644</v>
+      </c>
+      <c r="E657">
+        <v>-1</v>
+      </c>
+      <c r="F657">
+        <v>0</v>
+      </c>
+      <c r="G657">
+        <v>1691</v>
+      </c>
+      <c r="H657">
+        <v>0.1134</v>
+      </c>
+      <c r="I657">
+        <v>0</v>
+      </c>
+      <c r="J657">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="2">
+        <v>44095</v>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="C658">
+        <v>20732</v>
+      </c>
+      <c r="D658">
+        <v>0.397</v>
+      </c>
+      <c r="E658">
+        <v>4</v>
+      </c>
+      <c r="F658">
+        <v>4</v>
+      </c>
+      <c r="G658">
+        <v>8364</v>
+      </c>
+      <c r="H658">
+        <v>0.5607</v>
+      </c>
+      <c r="I658">
+        <v>22</v>
+      </c>
+      <c r="J658">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="2">
+        <v>44095</v>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C659">
+        <v>233</v>
+      </c>
+      <c r="D659">
+        <v>0.004500000000000001</v>
+      </c>
+      <c r="E659">
+        <v>-3</v>
+      </c>
+      <c r="F659">
+        <v>0</v>
+      </c>
+      <c r="G659">
+        <v>81</v>
+      </c>
+      <c r="H659">
+        <v>0.0054</v>
+      </c>
+      <c r="I659">
+        <v>0</v>
+      </c>
+      <c r="J659">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="2">
+        <v>44095</v>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C660">
+        <v>6481</v>
+      </c>
+      <c r="D660">
+        <v>0.1241</v>
+      </c>
+      <c r="E660">
+        <v>2</v>
+      </c>
+      <c r="F660">
+        <v>2</v>
+      </c>
+      <c r="G660">
+        <v>8</v>
+      </c>
+      <c r="H660">
+        <v>0.0005</v>
+      </c>
+      <c r="I660">
+        <v>0</v>
+      </c>
+      <c r="J660">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="2">
+        <v>44095</v>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C661">
+        <v>15401</v>
+      </c>
+      <c r="D661">
+        <v>0.2949</v>
+      </c>
+      <c r="E661">
+        <v>2</v>
+      </c>
+      <c r="F661">
+        <v>2</v>
+      </c>
+      <c r="G661">
+        <v>4491</v>
+      </c>
+      <c r="H661">
+        <v>0.3011</v>
+      </c>
+      <c r="I661">
+        <v>2</v>
+      </c>
+      <c r="J661">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1420"/>
+  <dimension ref="A1:J1432"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -29606,7 +29606,7 @@
         <v>0.003565106828550772</v>
       </c>
       <c r="E860">
-        <v>-29</v>
+        <v>-30</v>
       </c>
       <c r="F860">
         <v>0</v>
@@ -29640,7 +29640,7 @@
         <v>0.0161551694049014</v>
       </c>
       <c r="E861">
-        <v>-169</v>
+        <v>-173</v>
       </c>
       <c r="F861">
         <v>0</v>
@@ -29674,7 +29674,7 @@
         <v>0.0413851561915684</v>
       </c>
       <c r="E862">
-        <v>-495</v>
+        <v>-512</v>
       </c>
       <c r="F862">
         <v>0</v>
@@ -29708,7 +29708,7 @@
         <v>0.185011592829897</v>
       </c>
       <c r="E863">
-        <v>-2573</v>
+        <v>-2691</v>
       </c>
       <c r="F863">
         <v>0</v>
@@ -29742,7 +29742,7 @@
         <v>0.2015407244895415</v>
       </c>
       <c r="E864">
-        <v>-2978</v>
+        <v>-3128</v>
       </c>
       <c r="F864">
         <v>0</v>
@@ -29754,7 +29754,7 @@
         <v>0.02085580726357425</v>
       </c>
       <c r="I864">
-        <v>-104</v>
+        <v>-106</v>
       </c>
       <c r="J864">
         <v>0</v>
@@ -29776,7 +29776,7 @@
         <v>0.1871307122734412</v>
       </c>
       <c r="E865">
-        <v>-2534</v>
+        <v>-2661</v>
       </c>
       <c r="F865">
         <v>0</v>
@@ -29788,7 +29788,7 @@
         <v>0.05453673738463383</v>
       </c>
       <c r="I865">
-        <v>-375</v>
+        <v>-379</v>
       </c>
       <c r="J865">
         <v>0</v>
@@ -29810,7 +29810,7 @@
         <v>0.1710503353194884</v>
       </c>
       <c r="E866">
-        <v>-1947</v>
+        <v>-2038</v>
       </c>
       <c r="F866">
         <v>0</v>
@@ -29822,7 +29822,7 @@
         <v>0.115186383794798</v>
       </c>
       <c r="I866">
-        <v>-853</v>
+        <v>-867</v>
       </c>
       <c r="J866">
         <v>0</v>
@@ -29844,7 +29844,7 @@
         <v>0.06671486624616689</v>
       </c>
       <c r="E867">
-        <v>-617</v>
+        <v>-631</v>
       </c>
       <c r="F867">
         <v>0</v>
@@ -29856,7 +29856,7 @@
         <v>0.09397099364736905</v>
       </c>
       <c r="I867">
-        <v>-644</v>
+        <v>-653</v>
       </c>
       <c r="J867">
         <v>0</v>
@@ -29878,7 +29878,7 @@
         <v>0.04759292962030366</v>
       </c>
       <c r="E868">
-        <v>-348</v>
+        <v>-355</v>
       </c>
       <c r="F868">
         <v>0</v>
@@ -29890,7 +29890,7 @@
         <v>0.1145870789883735</v>
       </c>
       <c r="I868">
-        <v>-797</v>
+        <v>-804</v>
       </c>
       <c r="J868">
         <v>0</v>
@@ -29912,7 +29912,7 @@
         <v>0.02844606217745756</v>
       </c>
       <c r="E869">
-        <v>-200</v>
+        <v>-207</v>
       </c>
       <c r="F869">
         <v>0</v>
@@ -29924,7 +29924,7 @@
         <v>0.1293299772264174</v>
       </c>
       <c r="I869">
-        <v>-862</v>
+        <v>-874</v>
       </c>
       <c r="J869">
         <v>0</v>
@@ -29946,7 +29946,7 @@
         <v>0.01899728254094887</v>
       </c>
       <c r="E870">
-        <v>-110</v>
+        <v>-116</v>
       </c>
       <c r="F870">
         <v>0</v>
@@ -29958,7 +29958,7 @@
         <v>0.124535538775021</v>
       </c>
       <c r="I870">
-        <v>-786</v>
+        <v>-794</v>
       </c>
       <c r="J870">
         <v>0</v>
@@ -29980,7 +29980,7 @@
         <v>0.03163720675126524</v>
       </c>
       <c r="E871">
-        <v>-122</v>
+        <v>-126</v>
       </c>
       <c r="F871">
         <v>0</v>
@@ -29992,7 +29992,7 @@
         <v>0.3376483279395901</v>
       </c>
       <c r="I871">
-        <v>-2110</v>
+        <v>-2131</v>
       </c>
       <c r="J871">
         <v>0</v>
@@ -48662,6 +48662,414 @@
       </c>
       <c r="J1420">
         <v>5</v>
+      </c>
+    </row>
+    <row r="1421">
+      <c r="A1421" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B1421" t="inlineStr">
+        <is>
+          <t>&lt;1 year</t>
+        </is>
+      </c>
+      <c r="C1421">
+        <v>173</v>
+      </c>
+      <c r="D1421">
+        <v>0.003278502122498484</v>
+      </c>
+      <c r="E1421">
+        <v>1</v>
+      </c>
+      <c r="F1421">
+        <v>1</v>
+      </c>
+      <c r="G1421">
+        <v>3</v>
+      </c>
+      <c r="H1421">
+        <v>0.0002000800320128051</v>
+      </c>
+      <c r="I1421">
+        <v>0</v>
+      </c>
+      <c r="J1421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1422">
+      <c r="A1422" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B1422" t="inlineStr">
+        <is>
+          <t>1-9 years</t>
+        </is>
+      </c>
+      <c r="C1422">
+        <v>821</v>
+      </c>
+      <c r="D1422">
+        <v>0.0155586719223772</v>
+      </c>
+      <c r="E1422">
+        <v>4</v>
+      </c>
+      <c r="F1422">
+        <v>4</v>
+      </c>
+      <c r="G1422">
+        <v>6</v>
+      </c>
+      <c r="H1422">
+        <v>0.0004001600640256103</v>
+      </c>
+      <c r="I1422">
+        <v>0</v>
+      </c>
+      <c r="J1422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1423">
+      <c r="A1423" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B1423" t="inlineStr">
+        <is>
+          <t>10-19 years</t>
+        </is>
+      </c>
+      <c r="C1423">
+        <v>2172</v>
+      </c>
+      <c r="D1423">
+        <v>0.04116130988477865</v>
+      </c>
+      <c r="E1423">
+        <v>17</v>
+      </c>
+      <c r="F1423">
+        <v>17</v>
+      </c>
+      <c r="G1423">
+        <v>16</v>
+      </c>
+      <c r="H1423">
+        <v>0.001067093504068294</v>
+      </c>
+      <c r="I1423">
+        <v>0</v>
+      </c>
+      <c r="J1423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1424">
+      <c r="A1424" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B1424" t="inlineStr">
+        <is>
+          <t>20-29 years</t>
+        </is>
+      </c>
+      <c r="C1424">
+        <v>10112</v>
+      </c>
+      <c r="D1424">
+        <v>0.1916312916919345</v>
+      </c>
+      <c r="E1424">
+        <v>118</v>
+      </c>
+      <c r="F1424">
+        <v>118</v>
+      </c>
+      <c r="G1424">
+        <v>96</v>
+      </c>
+      <c r="H1424">
+        <v>0.006402561024409764</v>
+      </c>
+      <c r="I1424">
+        <v>0</v>
+      </c>
+      <c r="J1424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1425">
+      <c r="A1425" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B1425" t="inlineStr">
+        <is>
+          <t>30-39 years</t>
+        </is>
+      </c>
+      <c r="C1425">
+        <v>11212</v>
+      </c>
+      <c r="D1425">
+        <v>0.212477258944815</v>
+      </c>
+      <c r="E1425">
+        <v>150</v>
+      </c>
+      <c r="F1425">
+        <v>150</v>
+      </c>
+      <c r="G1425">
+        <v>280</v>
+      </c>
+      <c r="H1425">
+        <v>0.01867413632119514</v>
+      </c>
+      <c r="I1425">
+        <v>2</v>
+      </c>
+      <c r="J1425">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1426">
+      <c r="A1426" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B1426" t="inlineStr">
+        <is>
+          <t>40-49 years</t>
+        </is>
+      </c>
+      <c r="C1426">
+        <v>10167</v>
+      </c>
+      <c r="D1426">
+        <v>0.1926735900545785</v>
+      </c>
+      <c r="E1426">
+        <v>127</v>
+      </c>
+      <c r="F1426">
+        <v>127</v>
+      </c>
+      <c r="G1426">
+        <v>834</v>
+      </c>
+      <c r="H1426">
+        <v>0.05562224889955982</v>
+      </c>
+      <c r="I1426">
+        <v>4</v>
+      </c>
+      <c r="J1426">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1427">
+      <c r="A1427" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B1427" t="inlineStr">
+        <is>
+          <t>50-59 years</t>
+        </is>
+      </c>
+      <c r="C1427">
+        <v>8899</v>
+      </c>
+      <c r="D1427">
+        <v>0.1686438750758035</v>
+      </c>
+      <c r="E1427">
+        <v>91</v>
+      </c>
+      <c r="F1427">
+        <v>91</v>
+      </c>
+      <c r="G1427">
+        <v>1828</v>
+      </c>
+      <c r="H1427">
+        <v>0.1219154328398026</v>
+      </c>
+      <c r="I1427">
+        <v>14</v>
+      </c>
+      <c r="J1427">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1428">
+      <c r="A1428" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B1428" t="inlineStr">
+        <is>
+          <t>60-64 years</t>
+        </is>
+      </c>
+      <c r="C1428">
+        <v>3307</v>
+      </c>
+      <c r="D1428">
+        <v>0.0626705579138872</v>
+      </c>
+      <c r="E1428">
+        <v>14</v>
+      </c>
+      <c r="F1428">
+        <v>14</v>
+      </c>
+      <c r="G1428">
+        <v>1437</v>
+      </c>
+      <c r="H1428">
+        <v>0.09583833533413365</v>
+      </c>
+      <c r="I1428">
+        <v>9</v>
+      </c>
+      <c r="J1428">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1429">
+      <c r="A1429" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B1429" t="inlineStr">
+        <is>
+          <t>65-69 years</t>
+        </is>
+      </c>
+      <c r="C1429">
+        <v>2264</v>
+      </c>
+      <c r="D1429">
+        <v>0.0429047907822923</v>
+      </c>
+      <c r="E1429">
+        <v>7</v>
+      </c>
+      <c r="F1429">
+        <v>7</v>
+      </c>
+      <c r="G1429">
+        <v>1760</v>
+      </c>
+      <c r="H1429">
+        <v>0.1173802854475123</v>
+      </c>
+      <c r="I1429">
+        <v>7</v>
+      </c>
+      <c r="J1429">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1430">
+      <c r="A1430" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B1430" t="inlineStr">
+        <is>
+          <t>70-74 years</t>
+        </is>
+      </c>
+      <c r="C1430">
+        <v>1348</v>
+      </c>
+      <c r="D1430">
+        <v>0.02554578532443905</v>
+      </c>
+      <c r="E1430">
+        <v>7</v>
+      </c>
+      <c r="F1430">
+        <v>7</v>
+      </c>
+      <c r="G1430">
+        <v>1953</v>
+      </c>
+      <c r="H1430">
+        <v>0.1302521008403361</v>
+      </c>
+      <c r="I1430">
+        <v>12</v>
+      </c>
+      <c r="J1430">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1431">
+      <c r="A1431" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B1431" t="inlineStr">
+        <is>
+          <t>75-79 years</t>
+        </is>
+      </c>
+      <c r="C1431">
+        <v>878</v>
+      </c>
+      <c r="D1431">
+        <v>0.01663887204366283</v>
+      </c>
+      <c r="E1431">
+        <v>6</v>
+      </c>
+      <c r="F1431">
+        <v>6</v>
+      </c>
+      <c r="G1431">
+        <v>1833</v>
+      </c>
+      <c r="H1431">
+        <v>0.1222488995598239</v>
+      </c>
+      <c r="I1431">
+        <v>8</v>
+      </c>
+      <c r="J1431">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1432">
+      <c r="A1432" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B1432" t="inlineStr">
+        <is>
+          <t>80+ years</t>
+        </is>
+      </c>
+      <c r="C1432">
+        <v>1395</v>
+      </c>
+      <c r="D1432">
+        <v>0.02643647665251668</v>
+      </c>
+      <c r="E1432">
+        <v>4</v>
+      </c>
+      <c r="F1432">
+        <v>4</v>
+      </c>
+      <c r="G1432">
+        <v>4948</v>
+      </c>
+      <c r="H1432">
+        <v>0.3299986661331199</v>
+      </c>
+      <c r="I1432">
+        <v>21</v>
+      </c>
+      <c r="J1432">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -48671,7 +49079,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J331"/>
+  <dimension ref="A1:J334"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -55480,7 +55888,7 @@
         <v>0.3732641918675675</v>
       </c>
       <c r="E200">
-        <v>-2729</v>
+        <v>-2855</v>
       </c>
       <c r="F200">
         <v>0</v>
@@ -55492,7 +55900,7 @@
         <v>0.4076471293299772</v>
       </c>
       <c r="I200">
-        <v>-2820</v>
+        <v>-2844</v>
       </c>
       <c r="J200">
         <v>0</v>
@@ -55514,7 +55922,7 @@
         <v>0.6045723118346589</v>
       </c>
       <c r="E201">
-        <v>-9352</v>
+        <v>-9778</v>
       </c>
       <c r="F201">
         <v>0</v>
@@ -55526,7 +55934,7 @@
         <v>0.5923528706700227</v>
       </c>
       <c r="I201">
-        <v>-3754</v>
+        <v>-3807</v>
       </c>
       <c r="J201">
         <v>0</v>
@@ -55548,7 +55956,7 @@
         <v>0.02216349629777368</v>
       </c>
       <c r="E202">
-        <v>-30</v>
+        <v>-24</v>
       </c>
       <c r="F202">
         <v>0</v>
@@ -59949,6 +60357,108 @@
         <v>0</v>
       </c>
       <c r="J331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C332">
+        <v>17827</v>
+      </c>
+      <c r="D332">
+        <v>0.3378373256519103</v>
+      </c>
+      <c r="E332">
+        <v>126</v>
+      </c>
+      <c r="F332">
+        <v>126</v>
+      </c>
+      <c r="G332">
+        <v>6245</v>
+      </c>
+      <c r="H332">
+        <v>0.416499933306656</v>
+      </c>
+      <c r="I332">
+        <v>24</v>
+      </c>
+      <c r="J332">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C333">
+        <v>34028</v>
+      </c>
+      <c r="D333">
+        <v>0.644860521528199</v>
+      </c>
+      <c r="E333">
+        <v>426</v>
+      </c>
+      <c r="F333">
+        <v>426</v>
+      </c>
+      <c r="G333">
+        <v>8749</v>
+      </c>
+      <c r="H333">
+        <v>0.583500066693344</v>
+      </c>
+      <c r="I333">
+        <v>53</v>
+      </c>
+      <c r="J333">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C334">
+        <v>913</v>
+      </c>
+      <c r="D334">
+        <v>0.01730215281989084</v>
+      </c>
+      <c r="E334">
+        <v>-6</v>
+      </c>
+      <c r="F334">
+        <v>0</v>
+      </c>
+      <c r="G334">
+        <v>0</v>
+      </c>
+      <c r="H334">
+        <v>0</v>
+      </c>
+      <c r="I334">
+        <v>0</v>
+      </c>
+      <c r="J334">
         <v>0</v>
       </c>
     </row>
@@ -59959,7 +60469,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J661"/>
+  <dimension ref="A1:J667"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -73500,7 +74010,7 @@
         <v>0.01792525741068535</v>
       </c>
       <c r="E398">
-        <v>-70</v>
+        <v>-72</v>
       </c>
       <c r="F398">
         <v>0</v>
@@ -73512,7 +74022,7 @@
         <v>0.02277358264413281</v>
       </c>
       <c r="I398">
-        <v>-92</v>
+        <v>-94</v>
       </c>
       <c r="J398">
         <v>0</v>
@@ -73534,7 +74044,7 @@
         <v>0.1489865622896462</v>
       </c>
       <c r="E399">
-        <v>-2610</v>
+        <v>-2740</v>
       </c>
       <c r="F399">
         <v>0</v>
@@ -73546,7 +74056,7 @@
         <v>0.1282512285748532</v>
       </c>
       <c r="I399">
-        <v>-621</v>
+        <v>-634</v>
       </c>
       <c r="J399">
         <v>0</v>
@@ -73568,7 +74078,7 @@
         <v>0.3958764428710329</v>
       </c>
       <c r="E400">
-        <v>-4853</v>
+        <v>-5037</v>
       </c>
       <c r="F400">
         <v>0</v>
@@ -73580,7 +74090,7 @@
         <v>0.5167206040992449</v>
       </c>
       <c r="I400">
-        <v>-4053</v>
+        <v>-4090</v>
       </c>
       <c r="J400">
         <v>0</v>
@@ -73602,7 +74112,7 @@
         <v>0.004362892972002693</v>
       </c>
       <c r="E401">
-        <v>-58</v>
+        <v>-64</v>
       </c>
       <c r="F401">
         <v>0</v>
@@ -73636,7 +74146,7 @@
         <v>0.1602552915659046</v>
       </c>
       <c r="E402">
-        <v>-53</v>
+        <v>-52</v>
       </c>
       <c r="F402">
         <v>0</v>
@@ -73670,7 +74180,7 @@
         <v>0.2725935528907282</v>
       </c>
       <c r="E403">
-        <v>-4467</v>
+        <v>-4692</v>
       </c>
       <c r="F403">
         <v>0</v>
@@ -73682,7 +74192,7 @@
         <v>0.324583483159535</v>
       </c>
       <c r="I403">
-        <v>-1783</v>
+        <v>-1808</v>
       </c>
       <c r="J403">
         <v>0</v>
@@ -82458,6 +82968,210 @@
       </c>
       <c r="J661">
         <v>2</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C662">
+        <v>791</v>
+      </c>
+      <c r="D662">
+        <v>0.01499014554275318</v>
+      </c>
+      <c r="E662">
+        <v>2</v>
+      </c>
+      <c r="F662">
+        <v>2</v>
+      </c>
+      <c r="G662">
+        <v>284</v>
+      </c>
+      <c r="H662">
+        <v>0.01894090969721222</v>
+      </c>
+      <c r="I662">
+        <v>2</v>
+      </c>
+      <c r="J662">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C663">
+        <v>8716</v>
+      </c>
+      <c r="D663">
+        <v>0.165175864160097</v>
+      </c>
+      <c r="E663">
+        <v>130</v>
+      </c>
+      <c r="F663">
+        <v>130</v>
+      </c>
+      <c r="G663">
+        <v>1704</v>
+      </c>
+      <c r="H663">
+        <v>0.1136454581832733</v>
+      </c>
+      <c r="I663">
+        <v>13</v>
+      </c>
+      <c r="J663">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="C664">
+        <v>20916</v>
+      </c>
+      <c r="D664">
+        <v>0.3963765918738629</v>
+      </c>
+      <c r="E664">
+        <v>184</v>
+      </c>
+      <c r="F664">
+        <v>184</v>
+      </c>
+      <c r="G664">
+        <v>8401</v>
+      </c>
+      <c r="H664">
+        <v>0.5602907829798586</v>
+      </c>
+      <c r="I664">
+        <v>37</v>
+      </c>
+      <c r="J664">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C665">
+        <v>239</v>
+      </c>
+      <c r="D665">
+        <v>0.004529260157671316</v>
+      </c>
+      <c r="E665">
+        <v>6</v>
+      </c>
+      <c r="F665">
+        <v>6</v>
+      </c>
+      <c r="G665">
+        <v>81</v>
+      </c>
+      <c r="H665">
+        <v>0.005402160864345739</v>
+      </c>
+      <c r="I665">
+        <v>0</v>
+      </c>
+      <c r="J665">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C666">
+        <v>6480</v>
+      </c>
+      <c r="D666">
+        <v>0.1228016979987871</v>
+      </c>
+      <c r="E666">
+        <v>-1</v>
+      </c>
+      <c r="F666">
+        <v>0</v>
+      </c>
+      <c r="G666">
+        <v>8</v>
+      </c>
+      <c r="H666">
+        <v>0.000533546752034147</v>
+      </c>
+      <c r="I666">
+        <v>0</v>
+      </c>
+      <c r="J666">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C667">
+        <v>15626</v>
+      </c>
+      <c r="D667">
+        <v>0.2961264402668284</v>
+      </c>
+      <c r="E667">
+        <v>225</v>
+      </c>
+      <c r="F667">
+        <v>225</v>
+      </c>
+      <c r="G667">
+        <v>4516</v>
+      </c>
+      <c r="H667">
+        <v>0.301187141523276</v>
+      </c>
+      <c r="I667">
+        <v>25</v>
+      </c>
+      <c r="J667">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1432"/>
+  <dimension ref="A1:J1444"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -29606,7 +29606,7 @@
         <v>0.003565106828550772</v>
       </c>
       <c r="E860">
-        <v>-30</v>
+        <v>-32</v>
       </c>
       <c r="F860">
         <v>0</v>
@@ -29640,7 +29640,7 @@
         <v>0.0161551694049014</v>
       </c>
       <c r="E861">
-        <v>-173</v>
+        <v>-177</v>
       </c>
       <c r="F861">
         <v>0</v>
@@ -29674,7 +29674,7 @@
         <v>0.0413851561915684</v>
       </c>
       <c r="E862">
-        <v>-512</v>
+        <v>-545</v>
       </c>
       <c r="F862">
         <v>0</v>
@@ -29708,7 +29708,7 @@
         <v>0.185011592829897</v>
       </c>
       <c r="E863">
-        <v>-2691</v>
+        <v>-2802</v>
       </c>
       <c r="F863">
         <v>0</v>
@@ -29742,7 +29742,7 @@
         <v>0.2015407244895415</v>
       </c>
       <c r="E864">
-        <v>-3128</v>
+        <v>-3235</v>
       </c>
       <c r="F864">
         <v>0</v>
@@ -29754,7 +29754,7 @@
         <v>0.02085580726357425</v>
       </c>
       <c r="I864">
-        <v>-106</v>
+        <v>-107</v>
       </c>
       <c r="J864">
         <v>0</v>
@@ -29776,7 +29776,7 @@
         <v>0.1871307122734412</v>
       </c>
       <c r="E865">
-        <v>-2661</v>
+        <v>-2749</v>
       </c>
       <c r="F865">
         <v>0</v>
@@ -29788,7 +29788,7 @@
         <v>0.05453673738463383</v>
       </c>
       <c r="I865">
-        <v>-379</v>
+        <v>-387</v>
       </c>
       <c r="J865">
         <v>0</v>
@@ -29810,7 +29810,7 @@
         <v>0.1710503353194884</v>
       </c>
       <c r="E866">
-        <v>-2038</v>
+        <v>-2086</v>
       </c>
       <c r="F866">
         <v>0</v>
@@ -29822,7 +29822,7 @@
         <v>0.115186383794798</v>
       </c>
       <c r="I866">
-        <v>-867</v>
+        <v>-889</v>
       </c>
       <c r="J866">
         <v>0</v>
@@ -29844,7 +29844,7 @@
         <v>0.06671486624616689</v>
       </c>
       <c r="E867">
-        <v>-631</v>
+        <v>-642</v>
       </c>
       <c r="F867">
         <v>0</v>
@@ -29856,7 +29856,7 @@
         <v>0.09397099364736905</v>
       </c>
       <c r="I867">
-        <v>-653</v>
+        <v>-670</v>
       </c>
       <c r="J867">
         <v>0</v>
@@ -29878,7 +29878,7 @@
         <v>0.04759292962030366</v>
       </c>
       <c r="E868">
-        <v>-355</v>
+        <v>-358</v>
       </c>
       <c r="F868">
         <v>0</v>
@@ -29890,7 +29890,7 @@
         <v>0.1145870789883735</v>
       </c>
       <c r="I868">
-        <v>-804</v>
+        <v>-825</v>
       </c>
       <c r="J868">
         <v>0</v>
@@ -29912,7 +29912,7 @@
         <v>0.02844606217745756</v>
       </c>
       <c r="E869">
-        <v>-207</v>
+        <v>-214</v>
       </c>
       <c r="F869">
         <v>0</v>
@@ -29924,7 +29924,7 @@
         <v>0.1293299772264174</v>
       </c>
       <c r="I869">
-        <v>-874</v>
+        <v>-884</v>
       </c>
       <c r="J869">
         <v>0</v>
@@ -29946,7 +29946,7 @@
         <v>0.01899728254094887</v>
       </c>
       <c r="E870">
-        <v>-116</v>
+        <v>-118</v>
       </c>
       <c r="F870">
         <v>0</v>
@@ -29958,7 +29958,7 @@
         <v>0.124535538775021</v>
       </c>
       <c r="I870">
-        <v>-794</v>
+        <v>-808</v>
       </c>
       <c r="J870">
         <v>0</v>
@@ -29980,7 +29980,7 @@
         <v>0.03163720675126524</v>
       </c>
       <c r="E871">
-        <v>-126</v>
+        <v>-129</v>
       </c>
       <c r="F871">
         <v>0</v>
@@ -29992,7 +29992,7 @@
         <v>0.3376483279395901</v>
       </c>
       <c r="I871">
-        <v>-2131</v>
+        <v>-2173</v>
       </c>
       <c r="J871">
         <v>0</v>
@@ -49070,6 +49070,414 @@
       </c>
       <c r="J1432">
         <v>21</v>
+      </c>
+    </row>
+    <row r="1433">
+      <c r="A1433" s="2">
+        <v>44097</v>
+      </c>
+      <c r="B1433" t="inlineStr">
+        <is>
+          <t>&lt;1 year</t>
+        </is>
+      </c>
+      <c r="C1433">
+        <v>175</v>
+      </c>
+      <c r="D1433">
+        <v>0.003290277699437833</v>
+      </c>
+      <c r="E1433">
+        <v>2</v>
+      </c>
+      <c r="F1433">
+        <v>2</v>
+      </c>
+      <c r="G1433">
+        <v>3</v>
+      </c>
+      <c r="H1433">
+        <v>0.000198294665873488</v>
+      </c>
+      <c r="I1433">
+        <v>0</v>
+      </c>
+      <c r="J1433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1434">
+      <c r="A1434" s="2">
+        <v>44097</v>
+      </c>
+      <c r="B1434" t="inlineStr">
+        <is>
+          <t>1-9 years</t>
+        </is>
+      </c>
+      <c r="C1434">
+        <v>825</v>
+      </c>
+      <c r="D1434">
+        <v>0.01551130915449264</v>
+      </c>
+      <c r="E1434">
+        <v>4</v>
+      </c>
+      <c r="F1434">
+        <v>4</v>
+      </c>
+      <c r="G1434">
+        <v>6</v>
+      </c>
+      <c r="H1434">
+        <v>0.000396589331746976</v>
+      </c>
+      <c r="I1434">
+        <v>0</v>
+      </c>
+      <c r="J1434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1435">
+      <c r="A1435" s="2">
+        <v>44097</v>
+      </c>
+      <c r="B1435" t="inlineStr">
+        <is>
+          <t>10-19 years</t>
+        </is>
+      </c>
+      <c r="C1435">
+        <v>2205</v>
+      </c>
+      <c r="D1435">
+        <v>0.04145749901291669</v>
+      </c>
+      <c r="E1435">
+        <v>33</v>
+      </c>
+      <c r="F1435">
+        <v>33</v>
+      </c>
+      <c r="G1435">
+        <v>16</v>
+      </c>
+      <c r="H1435">
+        <v>0.001057571551325269</v>
+      </c>
+      <c r="I1435">
+        <v>0</v>
+      </c>
+      <c r="J1435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1436">
+      <c r="A1436" s="2">
+        <v>44097</v>
+      </c>
+      <c r="B1436" t="inlineStr">
+        <is>
+          <t>20-29 years</t>
+        </is>
+      </c>
+      <c r="C1436">
+        <v>10223</v>
+      </c>
+      <c r="D1436">
+        <v>0.1922086224077312</v>
+      </c>
+      <c r="E1436">
+        <v>111</v>
+      </c>
+      <c r="F1436">
+        <v>111</v>
+      </c>
+      <c r="G1436">
+        <v>96</v>
+      </c>
+      <c r="H1436">
+        <v>0.006345429307951616</v>
+      </c>
+      <c r="I1436">
+        <v>0</v>
+      </c>
+      <c r="J1436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1437">
+      <c r="A1437" s="2">
+        <v>44097</v>
+      </c>
+      <c r="B1437" t="inlineStr">
+        <is>
+          <t>30-39 years</t>
+        </is>
+      </c>
+      <c r="C1437">
+        <v>11319</v>
+      </c>
+      <c r="D1437">
+        <v>0.212815161599639</v>
+      </c>
+      <c r="E1437">
+        <v>107</v>
+      </c>
+      <c r="F1437">
+        <v>107</v>
+      </c>
+      <c r="G1437">
+        <v>281</v>
+      </c>
+      <c r="H1437">
+        <v>0.01857360037015004</v>
+      </c>
+      <c r="I1437">
+        <v>1</v>
+      </c>
+      <c r="J1437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1438">
+      <c r="A1438" s="2">
+        <v>44097</v>
+      </c>
+      <c r="B1438" t="inlineStr">
+        <is>
+          <t>40-49 years</t>
+        </is>
+      </c>
+      <c r="C1438">
+        <v>10255</v>
+      </c>
+      <c r="D1438">
+        <v>0.192810273187057</v>
+      </c>
+      <c r="E1438">
+        <v>88</v>
+      </c>
+      <c r="F1438">
+        <v>88</v>
+      </c>
+      <c r="G1438">
+        <v>842</v>
+      </c>
+      <c r="H1438">
+        <v>0.0556547028884923</v>
+      </c>
+      <c r="I1438">
+        <v>8</v>
+      </c>
+      <c r="J1438">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1439">
+      <c r="A1439" s="2">
+        <v>44097</v>
+      </c>
+      <c r="B1439" t="inlineStr">
+        <is>
+          <t>50-59 years</t>
+        </is>
+      </c>
+      <c r="C1439">
+        <v>8947</v>
+      </c>
+      <c r="D1439">
+        <v>0.1682177975821159</v>
+      </c>
+      <c r="E1439">
+        <v>48</v>
+      </c>
+      <c r="F1439">
+        <v>48</v>
+      </c>
+      <c r="G1439">
+        <v>1850</v>
+      </c>
+      <c r="H1439">
+        <v>0.1222817106219843</v>
+      </c>
+      <c r="I1439">
+        <v>22</v>
+      </c>
+      <c r="J1439">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1440">
+      <c r="A1440" s="2">
+        <v>44097</v>
+      </c>
+      <c r="B1440" t="inlineStr">
+        <is>
+          <t>60-64 years</t>
+        </is>
+      </c>
+      <c r="C1440">
+        <v>3318</v>
+      </c>
+      <c r="D1440">
+        <v>0.06238366518134131</v>
+      </c>
+      <c r="E1440">
+        <v>11</v>
+      </c>
+      <c r="F1440">
+        <v>11</v>
+      </c>
+      <c r="G1440">
+        <v>1454</v>
+      </c>
+      <c r="H1440">
+        <v>0.09610681472668385</v>
+      </c>
+      <c r="I1440">
+        <v>17</v>
+      </c>
+      <c r="J1440">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1441">
+      <c r="A1441" s="2">
+        <v>44097</v>
+      </c>
+      <c r="B1441" t="inlineStr">
+        <is>
+          <t>65-69 years</t>
+        </is>
+      </c>
+      <c r="C1441">
+        <v>2267</v>
+      </c>
+      <c r="D1441">
+        <v>0.04262319739786038</v>
+      </c>
+      <c r="E1441">
+        <v>3</v>
+      </c>
+      <c r="F1441">
+        <v>3</v>
+      </c>
+      <c r="G1441">
+        <v>1781</v>
+      </c>
+      <c r="H1441">
+        <v>0.117720933306894</v>
+      </c>
+      <c r="I1441">
+        <v>21</v>
+      </c>
+      <c r="J1441">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1442">
+      <c r="A1442" s="2">
+        <v>44097</v>
+      </c>
+      <c r="B1442" t="inlineStr">
+        <is>
+          <t>70-74 years</t>
+        </is>
+      </c>
+      <c r="C1442">
+        <v>1355</v>
+      </c>
+      <c r="D1442">
+        <v>0.02547615018707579</v>
+      </c>
+      <c r="E1442">
+        <v>7</v>
+      </c>
+      <c r="F1442">
+        <v>7</v>
+      </c>
+      <c r="G1442">
+        <v>1963</v>
+      </c>
+      <c r="H1442">
+        <v>0.129750809703219</v>
+      </c>
+      <c r="I1442">
+        <v>10</v>
+      </c>
+      <c r="J1442">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1443">
+      <c r="A1443" s="2">
+        <v>44097</v>
+      </c>
+      <c r="B1443" t="inlineStr">
+        <is>
+          <t>75-79 years</t>
+        </is>
+      </c>
+      <c r="C1443">
+        <v>880</v>
+      </c>
+      <c r="D1443">
+        <v>0.01654539643145881</v>
+      </c>
+      <c r="E1443">
+        <v>2</v>
+      </c>
+      <c r="F1443">
+        <v>2</v>
+      </c>
+      <c r="G1443">
+        <v>1847</v>
+      </c>
+      <c r="H1443">
+        <v>0.1220834159561108</v>
+      </c>
+      <c r="I1443">
+        <v>14</v>
+      </c>
+      <c r="J1443">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1444">
+      <c r="A1444" s="2">
+        <v>44097</v>
+      </c>
+      <c r="B1444" t="inlineStr">
+        <is>
+          <t>80+ years</t>
+        </is>
+      </c>
+      <c r="C1444">
+        <v>1398</v>
+      </c>
+      <c r="D1444">
+        <v>0.0262846184217948</v>
+      </c>
+      <c r="E1444">
+        <v>3</v>
+      </c>
+      <c r="F1444">
+        <v>3</v>
+      </c>
+      <c r="G1444">
+        <v>4990</v>
+      </c>
+      <c r="H1444">
+        <v>0.3298301275695684</v>
+      </c>
+      <c r="I1444">
+        <v>42</v>
+      </c>
+      <c r="J1444">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -49079,7 +49487,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J334"/>
+  <dimension ref="A1:J337"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -55888,7 +56296,7 @@
         <v>0.3732641918675675</v>
       </c>
       <c r="E200">
-        <v>-2855</v>
+        <v>-2971</v>
       </c>
       <c r="F200">
         <v>0</v>
@@ -55900,7 +56308,7 @@
         <v>0.4076471293299772</v>
       </c>
       <c r="I200">
-        <v>-2844</v>
+        <v>-2911</v>
       </c>
       <c r="J200">
         <v>0</v>
@@ -55922,7 +56330,7 @@
         <v>0.6045723118346589</v>
       </c>
       <c r="E201">
-        <v>-9778</v>
+        <v>-10082</v>
       </c>
       <c r="F201">
         <v>0</v>
@@ -55934,7 +56342,7 @@
         <v>0.5923528706700227</v>
       </c>
       <c r="I201">
-        <v>-3807</v>
+        <v>-3875</v>
       </c>
       <c r="J201">
         <v>0</v>
@@ -55956,7 +56364,7 @@
         <v>0.02216349629777368</v>
       </c>
       <c r="E202">
-        <v>-24</v>
+        <v>-23</v>
       </c>
       <c r="F202">
         <v>0</v>
@@ -60459,6 +60867,108 @@
         <v>0</v>
       </c>
       <c r="J334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="2">
+        <v>44097</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C335">
+        <v>17943</v>
+      </c>
+      <c r="D335">
+        <v>0.3373568729200744</v>
+      </c>
+      <c r="E335">
+        <v>116</v>
+      </c>
+      <c r="F335">
+        <v>116</v>
+      </c>
+      <c r="G335">
+        <v>6312</v>
+      </c>
+      <c r="H335">
+        <v>0.4172119769978188</v>
+      </c>
+      <c r="I335">
+        <v>67</v>
+      </c>
+      <c r="J335">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="2">
+        <v>44097</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C336">
+        <v>34332</v>
+      </c>
+      <c r="D336">
+        <v>0.6454960798691409</v>
+      </c>
+      <c r="E336">
+        <v>304</v>
+      </c>
+      <c r="F336">
+        <v>304</v>
+      </c>
+      <c r="G336">
+        <v>8817</v>
+      </c>
+      <c r="H336">
+        <v>0.5827880230021812</v>
+      </c>
+      <c r="I336">
+        <v>68</v>
+      </c>
+      <c r="J336">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="2">
+        <v>44097</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C337">
+        <v>912</v>
+      </c>
+      <c r="D337">
+        <v>0.01714704721078459</v>
+      </c>
+      <c r="E337">
+        <v>-1</v>
+      </c>
+      <c r="F337">
+        <v>0</v>
+      </c>
+      <c r="G337">
+        <v>0</v>
+      </c>
+      <c r="H337">
+        <v>0</v>
+      </c>
+      <c r="I337">
+        <v>0</v>
+      </c>
+      <c r="J337">
         <v>0</v>
       </c>
     </row>
@@ -60469,7 +60979,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J667"/>
+  <dimension ref="A1:J673"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -74010,7 +74520,7 @@
         <v>0.01792525741068535</v>
       </c>
       <c r="E398">
-        <v>-72</v>
+        <v>-74</v>
       </c>
       <c r="F398">
         <v>0</v>
@@ -74022,7 +74532,7 @@
         <v>0.02277358264413281</v>
       </c>
       <c r="I398">
-        <v>-94</v>
+        <v>-96</v>
       </c>
       <c r="J398">
         <v>0</v>
@@ -74044,7 +74554,7 @@
         <v>0.1489865622896462</v>
       </c>
       <c r="E399">
-        <v>-2740</v>
+        <v>-2821</v>
       </c>
       <c r="F399">
         <v>0</v>
@@ -74056,7 +74566,7 @@
         <v>0.1282512285748532</v>
       </c>
       <c r="I399">
-        <v>-634</v>
+        <v>-643</v>
       </c>
       <c r="J399">
         <v>0</v>
@@ -74078,7 +74588,7 @@
         <v>0.3958764428710329</v>
       </c>
       <c r="E400">
-        <v>-5037</v>
+        <v>-5195</v>
       </c>
       <c r="F400">
         <v>0</v>
@@ -74090,7 +74600,7 @@
         <v>0.5167206040992449</v>
       </c>
       <c r="I400">
-        <v>-4090</v>
+        <v>-4177</v>
       </c>
       <c r="J400">
         <v>0</v>
@@ -74112,7 +74622,7 @@
         <v>0.004362892972002693</v>
       </c>
       <c r="E401">
-        <v>-64</v>
+        <v>-66</v>
       </c>
       <c r="F401">
         <v>0</v>
@@ -74124,7 +74634,7 @@
         <v>0.00719165767709457</v>
       </c>
       <c r="I401">
-        <v>-21</v>
+        <v>-22</v>
       </c>
       <c r="J401">
         <v>0</v>
@@ -74146,7 +74656,7 @@
         <v>0.1602552915659046</v>
       </c>
       <c r="E402">
-        <v>-52</v>
+        <v>-56</v>
       </c>
       <c r="F402">
         <v>0</v>
@@ -74180,7 +74690,7 @@
         <v>0.2725935528907282</v>
       </c>
       <c r="E403">
-        <v>-4692</v>
+        <v>-4864</v>
       </c>
       <c r="F403">
         <v>0</v>
@@ -74192,7 +74702,7 @@
         <v>0.324583483159535</v>
       </c>
       <c r="I403">
-        <v>-1808</v>
+        <v>-1844</v>
       </c>
       <c r="J403">
         <v>0</v>
@@ -83172,6 +83682,210 @@
       </c>
       <c r="J667">
         <v>25</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="2">
+        <v>44097</v>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C668">
+        <v>793</v>
+      </c>
+      <c r="D668">
+        <v>0.01490965837516686</v>
+      </c>
+      <c r="E668">
+        <v>2</v>
+      </c>
+      <c r="F668">
+        <v>2</v>
+      </c>
+      <c r="G668">
+        <v>286</v>
+      </c>
+      <c r="H668">
+        <v>0.01890409147993919</v>
+      </c>
+      <c r="I668">
+        <v>2</v>
+      </c>
+      <c r="J668">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="2">
+        <v>44097</v>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C669">
+        <v>8797</v>
+      </c>
+      <c r="D669">
+        <v>0.1653975595540264</v>
+      </c>
+      <c r="E669">
+        <v>81</v>
+      </c>
+      <c r="F669">
+        <v>81</v>
+      </c>
+      <c r="G669">
+        <v>1713</v>
+      </c>
+      <c r="H669">
+        <v>0.1132262542137617</v>
+      </c>
+      <c r="I669">
+        <v>9</v>
+      </c>
+      <c r="J669">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="2">
+        <v>44097</v>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="C670">
+        <v>21074</v>
+      </c>
+      <c r="D670">
+        <v>0.3962246413597307</v>
+      </c>
+      <c r="E670">
+        <v>158</v>
+      </c>
+      <c r="F670">
+        <v>158</v>
+      </c>
+      <c r="G670">
+        <v>8488</v>
+      </c>
+      <c r="H670">
+        <v>0.5610417079780554</v>
+      </c>
+      <c r="I670">
+        <v>87</v>
+      </c>
+      <c r="J670">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="2">
+        <v>44097</v>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C671">
+        <v>241</v>
+      </c>
+      <c r="D671">
+        <v>0.004531182431797244</v>
+      </c>
+      <c r="E671">
+        <v>2</v>
+      </c>
+      <c r="F671">
+        <v>2</v>
+      </c>
+      <c r="G671">
+        <v>82</v>
+      </c>
+      <c r="H671">
+        <v>0.005420054200542005</v>
+      </c>
+      <c r="I671">
+        <v>1</v>
+      </c>
+      <c r="J671">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="2">
+        <v>44097</v>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C672">
+        <v>6484</v>
+      </c>
+      <c r="D672">
+        <v>0.1219094891608852</v>
+      </c>
+      <c r="E672">
+        <v>4</v>
+      </c>
+      <c r="F672">
+        <v>4</v>
+      </c>
+      <c r="G672">
+        <v>8</v>
+      </c>
+      <c r="H672">
+        <v>0.0005287857756626346</v>
+      </c>
+      <c r="I672">
+        <v>0</v>
+      </c>
+      <c r="J672">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="2">
+        <v>44097</v>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C673">
+        <v>15798</v>
+      </c>
+      <c r="D673">
+        <v>0.2970274691183936</v>
+      </c>
+      <c r="E673">
+        <v>172</v>
+      </c>
+      <c r="F673">
+        <v>172</v>
+      </c>
+      <c r="G673">
+        <v>4552</v>
+      </c>
+      <c r="H673">
+        <v>0.3008791063520391</v>
+      </c>
+      <c r="I673">
+        <v>36</v>
+      </c>
+      <c r="J673">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/combined-datasets/demographics.xlsx
+++ b/combined-datasets/demographics.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1444"/>
+  <dimension ref="A1:J1456"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -49480,6 +49480,414 @@
         <v>42</v>
       </c>
     </row>
+    <row r="1445">
+      <c r="A1445" s="2">
+        <v>44098</v>
+      </c>
+      <c r="B1445" t="inlineStr">
+        <is>
+          <t>&lt;1 year</t>
+        </is>
+      </c>
+      <c r="C1445">
+        <v>179</v>
+      </c>
+      <c r="D1445">
+        <v>0.0033</v>
+      </c>
+      <c r="E1445">
+        <v>19</v>
+      </c>
+      <c r="F1445">
+        <v>19</v>
+      </c>
+      <c r="G1445">
+        <v>3</v>
+      </c>
+      <c r="H1445">
+        <v>0.0002</v>
+      </c>
+      <c r="I1445">
+        <v>0</v>
+      </c>
+      <c r="J1445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1446">
+      <c r="A1446" s="2">
+        <v>44098</v>
+      </c>
+      <c r="B1446" t="inlineStr">
+        <is>
+          <t>1-9 years</t>
+        </is>
+      </c>
+      <c r="C1446">
+        <v>839</v>
+      </c>
+      <c r="D1446">
+        <v>0.0157</v>
+      </c>
+      <c r="E1446">
+        <v>68</v>
+      </c>
+      <c r="F1446">
+        <v>68</v>
+      </c>
+      <c r="G1446">
+        <v>6</v>
+      </c>
+      <c r="H1446">
+        <v>0.0004</v>
+      </c>
+      <c r="I1446">
+        <v>0</v>
+      </c>
+      <c r="J1446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1447">
+      <c r="A1447" s="2">
+        <v>44098</v>
+      </c>
+      <c r="B1447" t="inlineStr">
+        <is>
+          <t>10-19 years</t>
+        </is>
+      </c>
+      <c r="C1447">
+        <v>2226</v>
+      </c>
+      <c r="D1447">
+        <v>0.0416</v>
+      </c>
+      <c r="E1447">
+        <v>180</v>
+      </c>
+      <c r="F1447">
+        <v>180</v>
+      </c>
+      <c r="G1447">
+        <v>16</v>
+      </c>
+      <c r="H1447">
+        <v>0.001</v>
+      </c>
+      <c r="I1447">
+        <v>0</v>
+      </c>
+      <c r="J1447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1448">
+      <c r="A1448" s="2">
+        <v>44098</v>
+      </c>
+      <c r="B1448" t="inlineStr">
+        <is>
+          <t>20-29 years</t>
+        </is>
+      </c>
+      <c r="C1448">
+        <v>10281</v>
+      </c>
+      <c r="D1448">
+        <v>0.1923</v>
+      </c>
+      <c r="E1448">
+        <v>673</v>
+      </c>
+      <c r="F1448">
+        <v>673</v>
+      </c>
+      <c r="G1448">
+        <v>98</v>
+      </c>
+      <c r="H1448">
+        <v>0.0064</v>
+      </c>
+      <c r="I1448">
+        <v>4</v>
+      </c>
+      <c r="J1448">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1449">
+      <c r="A1449" s="2">
+        <v>44098</v>
+      </c>
+      <c r="B1449" t="inlineStr">
+        <is>
+          <t>30-39 years</t>
+        </is>
+      </c>
+      <c r="C1449">
+        <v>11376</v>
+      </c>
+      <c r="D1449">
+        <v>0.2128</v>
+      </c>
+      <c r="E1449">
+        <v>781</v>
+      </c>
+      <c r="F1449">
+        <v>781</v>
+      </c>
+      <c r="G1449">
+        <v>284</v>
+      </c>
+      <c r="H1449">
+        <v>0.0186</v>
+      </c>
+      <c r="I1449">
+        <v>19</v>
+      </c>
+      <c r="J1449">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1450">
+      <c r="A1450" s="2">
+        <v>44098</v>
+      </c>
+      <c r="B1450" t="inlineStr">
+        <is>
+          <t>40-49 years</t>
+        </is>
+      </c>
+      <c r="C1450">
+        <v>10310</v>
+      </c>
+      <c r="D1450">
+        <v>0.1928</v>
+      </c>
+      <c r="E1450">
+        <v>681</v>
+      </c>
+      <c r="F1450">
+        <v>681</v>
+      </c>
+      <c r="G1450">
+        <v>850</v>
+      </c>
+      <c r="H1450">
+        <v>0.0557</v>
+      </c>
+      <c r="I1450">
+        <v>60</v>
+      </c>
+      <c r="J1450">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1451">
+      <c r="A1451" s="2">
+        <v>44098</v>
+      </c>
+      <c r="B1451" t="inlineStr">
+        <is>
+          <t>50-59 years</t>
+        </is>
+      </c>
+      <c r="C1451">
+        <v>8985</v>
+      </c>
+      <c r="D1451">
+        <v>0.1680538670158047</v>
+      </c>
+      <c r="E1451">
+        <v>558</v>
+      </c>
+      <c r="F1451">
+        <v>558</v>
+      </c>
+      <c r="G1451">
+        <v>1872</v>
+      </c>
+      <c r="H1451">
+        <v>0.1226</v>
+      </c>
+      <c r="I1451">
+        <v>162</v>
+      </c>
+      <c r="J1451">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1452">
+      <c r="A1452" s="2">
+        <v>44098</v>
+      </c>
+      <c r="B1452" t="inlineStr">
+        <is>
+          <t>60-64 years</t>
+        </is>
+      </c>
+      <c r="C1452">
+        <v>3331</v>
+      </c>
+      <c r="D1452">
+        <v>0.0623</v>
+      </c>
+      <c r="E1452">
+        <v>177</v>
+      </c>
+      <c r="F1452">
+        <v>177</v>
+      </c>
+      <c r="G1452">
+        <v>1466</v>
+      </c>
+      <c r="H1452">
+        <v>0.09602410427719919</v>
+      </c>
+      <c r="I1452">
+        <v>114</v>
+      </c>
+      <c r="J1452">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="1453">
+      <c r="A1453" s="2">
+        <v>44098</v>
+      </c>
+      <c r="B1453" t="inlineStr">
+        <is>
+          <t>65-69 years</t>
+        </is>
+      </c>
+      <c r="C1453">
+        <v>2272</v>
+      </c>
+      <c r="D1453">
+        <v>0.0425</v>
+      </c>
+      <c r="E1453">
+        <v>83</v>
+      </c>
+      <c r="F1453">
+        <v>83</v>
+      </c>
+      <c r="G1453">
+        <v>1791</v>
+      </c>
+      <c r="H1453">
+        <v>0.1173</v>
+      </c>
+      <c r="I1453">
+        <v>118</v>
+      </c>
+      <c r="J1453">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="1454">
+      <c r="A1454" s="2">
+        <v>44098</v>
+      </c>
+      <c r="B1454" t="inlineStr">
+        <is>
+          <t>70-74 years</t>
+        </is>
+      </c>
+      <c r="C1454">
+        <v>1364</v>
+      </c>
+      <c r="D1454">
+        <v>0.0255</v>
+      </c>
+      <c r="E1454">
+        <v>73</v>
+      </c>
+      <c r="F1454">
+        <v>73</v>
+      </c>
+      <c r="G1454">
+        <v>1987</v>
+      </c>
+      <c r="H1454">
+        <v>0.1301</v>
+      </c>
+      <c r="I1454">
+        <v>135</v>
+      </c>
+      <c r="J1454">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="1455">
+      <c r="A1455" s="2">
+        <v>44098</v>
+      </c>
+      <c r="B1455" t="inlineStr">
+        <is>
+          <t>75-79 years</t>
+        </is>
+      </c>
+      <c r="C1455">
+        <v>884</v>
+      </c>
+      <c r="D1455">
+        <v>0.0165</v>
+      </c>
+      <c r="E1455">
+        <v>39</v>
+      </c>
+      <c r="F1455">
+        <v>39</v>
+      </c>
+      <c r="G1455">
+        <v>1866</v>
+      </c>
+      <c r="H1455">
+        <v>0.1222</v>
+      </c>
+      <c r="I1455">
+        <v>132</v>
+      </c>
+      <c r="J1455">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="1456">
+      <c r="A1456" s="2">
+        <v>44098</v>
+      </c>
+      <c r="B1456" t="inlineStr">
+        <is>
+          <t>80+ years</t>
+        </is>
+      </c>
+      <c r="C1456">
+        <v>1399</v>
+      </c>
+      <c r="D1456">
+        <v>0.0262</v>
+      </c>
+      <c r="E1456">
+        <v>28</v>
+      </c>
+      <c r="F1456">
+        <v>28</v>
+      </c>
+      <c r="G1456">
+        <v>5028</v>
+      </c>
+      <c r="H1456">
+        <v>0.3293</v>
+      </c>
+      <c r="I1456">
+        <v>312</v>
+      </c>
+      <c r="J1456">
+        <v>312</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -49487,7 +49895,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J337"/>
+  <dimension ref="A1:J340"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -60972,6 +61380,108 @@
         <v>0</v>
       </c>
     </row>
+    <row r="338">
+      <c r="A338" s="2">
+        <v>44098</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C338">
+        <v>18065</v>
+      </c>
+      <c r="D338">
+        <v>0.3379</v>
+      </c>
+      <c r="E338">
+        <v>1057</v>
+      </c>
+      <c r="F338">
+        <v>1057</v>
+      </c>
+      <c r="G338">
+        <v>6372</v>
+      </c>
+      <c r="H338">
+        <v>0.41737079976</v>
+      </c>
+      <c r="I338">
+        <v>453</v>
+      </c>
+      <c r="J338">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="2">
+        <v>44098</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C339">
+        <v>34492</v>
+      </c>
+      <c r="D339">
+        <v>0.64513232956</v>
+      </c>
+      <c r="E339">
+        <v>2328</v>
+      </c>
+      <c r="F339">
+        <v>2328</v>
+      </c>
+      <c r="G339">
+        <v>8895</v>
+      </c>
+      <c r="H339">
+        <v>0.58262920024</v>
+      </c>
+      <c r="I339">
+        <v>603</v>
+      </c>
+      <c r="J339">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="2">
+        <v>44098</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C340">
+        <v>908</v>
+      </c>
+      <c r="D340">
+        <v>0.017</v>
+      </c>
+      <c r="E340">
+        <v>-28</v>
+      </c>
+      <c r="F340">
+        <v>0</v>
+      </c>
+      <c r="G340">
+        <v>0</v>
+      </c>
+      <c r="H340">
+        <v>0</v>
+      </c>
+      <c r="I340">
+        <v>0</v>
+      </c>
+      <c r="J340">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -60979,7 +61489,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J673"/>
+  <dimension ref="A1:J679"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -83888,6 +84398,210 @@
         <v>36</v>
       </c>
     </row>
+    <row r="674">
+      <c r="A674" s="2">
+        <v>44098</v>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C674">
+        <v>796</v>
+      </c>
+      <c r="D674">
+        <v>0.0149</v>
+      </c>
+      <c r="E674">
+        <v>24</v>
+      </c>
+      <c r="F674">
+        <v>24</v>
+      </c>
+      <c r="G674">
+        <v>288</v>
+      </c>
+      <c r="H674">
+        <v>0.0189</v>
+      </c>
+      <c r="I674">
+        <v>12</v>
+      </c>
+      <c r="J674">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="2">
+        <v>44098</v>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C675">
+        <v>8856</v>
+      </c>
+      <c r="D675">
+        <v>0.1656</v>
+      </c>
+      <c r="E675">
+        <v>708</v>
+      </c>
+      <c r="F675">
+        <v>708</v>
+      </c>
+      <c r="G675">
+        <v>1728</v>
+      </c>
+      <c r="H675">
+        <v>0.1132</v>
+      </c>
+      <c r="I675">
+        <v>106</v>
+      </c>
+      <c r="J675">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="2">
+        <v>44098</v>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="C676">
+        <v>21171</v>
+      </c>
+      <c r="D676">
+        <v>0.396</v>
+      </c>
+      <c r="E676">
+        <v>1192</v>
+      </c>
+      <c r="F676">
+        <v>1192</v>
+      </c>
+      <c r="G676">
+        <v>8566</v>
+      </c>
+      <c r="H676">
+        <v>0.5610794524137027</v>
+      </c>
+      <c r="I676">
+        <v>622</v>
+      </c>
+      <c r="J676">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="2">
+        <v>44098</v>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C677">
+        <v>242</v>
+      </c>
+      <c r="D677">
+        <v>0.0045</v>
+      </c>
+      <c r="E677">
+        <v>19</v>
+      </c>
+      <c r="F677">
+        <v>19</v>
+      </c>
+      <c r="G677">
+        <v>82</v>
+      </c>
+      <c r="H677">
+        <v>0.0054</v>
+      </c>
+      <c r="I677">
+        <v>4</v>
+      </c>
+      <c r="J677">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="2">
+        <v>44098</v>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C678">
+        <v>6493</v>
+      </c>
+      <c r="D678">
+        <v>0.1214</v>
+      </c>
+      <c r="E678">
+        <v>48</v>
+      </c>
+      <c r="F678">
+        <v>48</v>
+      </c>
+      <c r="G678">
+        <v>9</v>
+      </c>
+      <c r="H678">
+        <v>0.0006</v>
+      </c>
+      <c r="I678">
+        <v>2</v>
+      </c>
+      <c r="J678">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="2">
+        <v>44098</v>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C679">
+        <v>15907</v>
+      </c>
+      <c r="D679">
+        <v>0.2975</v>
+      </c>
+      <c r="E679">
+        <v>1366</v>
+      </c>
+      <c r="F679">
+        <v>1366</v>
+      </c>
+      <c r="G679">
+        <v>4594</v>
+      </c>
+      <c r="H679">
+        <v>0.3009104604702954</v>
+      </c>
+      <c r="I679">
+        <v>310</v>
+      </c>
+      <c r="J679">
+        <v>310</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
